--- a/01_基本設計書/20200220リリース/SC-K13A_当日詳細実績参照.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K13A_当日詳細実績参照.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EC435C-C193-4571-BE77-7DF8E9154BBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9580662-30DA-4C0F-A99F-E55C5F478BCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,6 +142,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -149,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="449">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -2923,20 +2924,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>・不良現象マスタ.理由区分</t>
-    <rPh sb="11" eb="13">
-      <t>クブン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・不良現象マスタ.取消フラグ</t>
-    <rPh sb="9" eb="11">
-      <t>トリケシ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>'3'：合格</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -2977,6 +2964,30 @@
   </si>
   <si>
     <t>'3'：再塗装</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AND 不良現象マスタ.理由区分</t>
+    <rPh sb="14" eb="16">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AND 不良現象マスタ.取消フラグ</t>
+    <rPh sb="12" eb="14">
+      <t>トリケシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ON   ①検索結果１.大工程コード</t>
+    <rPh sb="12" eb="13">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウテイ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -4359,91 +4370,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4471,17 +4397,90 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="28" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -4501,10 +4500,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4564,10 +4575,13 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4576,17 +4590,14 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="9" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5555,7 +5566,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$40" spid="_x0000_s3185"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$40" spid="_x0000_s3187"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7027,1779 +7038,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="54"/>
-      <c r="B1" s="272" t="s">
+      <c r="B1" s="241" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="272"/>
-      <c r="D1" s="272"/>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
-      <c r="N1" s="272"/>
-      <c r="O1" s="272"/>
-      <c r="P1" s="272"/>
-      <c r="Q1" s="272"/>
-      <c r="R1" s="272"/>
-      <c r="S1" s="272"/>
-      <c r="T1" s="272"/>
-      <c r="U1" s="272"/>
-      <c r="V1" s="272"/>
-      <c r="W1" s="272"/>
-      <c r="X1" s="272"/>
-      <c r="Y1" s="272"/>
-      <c r="Z1" s="272"/>
-      <c r="AA1" s="272"/>
-      <c r="AB1" s="272"/>
-      <c r="AC1" s="272"/>
-      <c r="AD1" s="272"/>
-      <c r="AE1" s="272"/>
-      <c r="AF1" s="272"/>
-      <c r="AG1" s="272"/>
-      <c r="AH1" s="272"/>
-      <c r="AI1" s="272"/>
-      <c r="AJ1" s="272"/>
-      <c r="AK1" s="272"/>
-      <c r="AL1" s="272"/>
-      <c r="AM1" s="272"/>
-      <c r="AN1" s="272"/>
-      <c r="AO1" s="272"/>
-      <c r="AP1" s="272"/>
-      <c r="AQ1" s="272"/>
-      <c r="AR1" s="272"/>
-      <c r="AS1" s="272"/>
-      <c r="AT1" s="272"/>
-      <c r="AU1" s="272"/>
-      <c r="AV1" s="272"/>
-      <c r="AW1" s="272"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="241"/>
+      <c r="K1" s="241"/>
+      <c r="L1" s="241"/>
+      <c r="M1" s="241"/>
+      <c r="N1" s="241"/>
+      <c r="O1" s="241"/>
+      <c r="P1" s="241"/>
+      <c r="Q1" s="241"/>
+      <c r="R1" s="241"/>
+      <c r="S1" s="241"/>
+      <c r="T1" s="241"/>
+      <c r="U1" s="241"/>
+      <c r="V1" s="241"/>
+      <c r="W1" s="241"/>
+      <c r="X1" s="241"/>
+      <c r="Y1" s="241"/>
+      <c r="Z1" s="241"/>
+      <c r="AA1" s="241"/>
+      <c r="AB1" s="241"/>
+      <c r="AC1" s="241"/>
+      <c r="AD1" s="241"/>
+      <c r="AE1" s="241"/>
+      <c r="AF1" s="241"/>
+      <c r="AG1" s="241"/>
+      <c r="AH1" s="241"/>
+      <c r="AI1" s="241"/>
+      <c r="AJ1" s="241"/>
+      <c r="AK1" s="241"/>
+      <c r="AL1" s="241"/>
+      <c r="AM1" s="241"/>
+      <c r="AN1" s="241"/>
+      <c r="AO1" s="241"/>
+      <c r="AP1" s="241"/>
+      <c r="AQ1" s="241"/>
+      <c r="AR1" s="241"/>
+      <c r="AS1" s="241"/>
+      <c r="AT1" s="241"/>
+      <c r="AU1" s="241"/>
+      <c r="AV1" s="241"/>
+      <c r="AW1" s="241"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
-      <c r="B2" s="273"/>
-      <c r="C2" s="273"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="273"/>
-      <c r="F2" s="273"/>
-      <c r="G2" s="273"/>
-      <c r="H2" s="273"/>
-      <c r="I2" s="273"/>
-      <c r="J2" s="273"/>
-      <c r="K2" s="273"/>
-      <c r="L2" s="273"/>
-      <c r="M2" s="273"/>
-      <c r="N2" s="273"/>
-      <c r="O2" s="273"/>
-      <c r="P2" s="273"/>
-      <c r="Q2" s="273"/>
-      <c r="R2" s="273"/>
-      <c r="S2" s="273"/>
-      <c r="T2" s="273"/>
-      <c r="U2" s="273"/>
-      <c r="V2" s="273"/>
-      <c r="W2" s="273"/>
-      <c r="X2" s="273"/>
-      <c r="Y2" s="273"/>
-      <c r="Z2" s="273"/>
-      <c r="AA2" s="273"/>
-      <c r="AB2" s="273"/>
-      <c r="AC2" s="273"/>
-      <c r="AD2" s="273"/>
-      <c r="AE2" s="273"/>
-      <c r="AF2" s="273"/>
-      <c r="AG2" s="273"/>
-      <c r="AH2" s="273"/>
-      <c r="AI2" s="273"/>
-      <c r="AJ2" s="273"/>
-      <c r="AK2" s="273"/>
-      <c r="AL2" s="273"/>
-      <c r="AM2" s="273"/>
-      <c r="AN2" s="273"/>
-      <c r="AO2" s="273"/>
-      <c r="AP2" s="273"/>
-      <c r="AQ2" s="273"/>
-      <c r="AR2" s="273"/>
-      <c r="AS2" s="273"/>
-      <c r="AT2" s="273"/>
-      <c r="AU2" s="273"/>
-      <c r="AV2" s="273"/>
-      <c r="AW2" s="273"/>
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="242"/>
+      <c r="L2" s="242"/>
+      <c r="M2" s="242"/>
+      <c r="N2" s="242"/>
+      <c r="O2" s="242"/>
+      <c r="P2" s="242"/>
+      <c r="Q2" s="242"/>
+      <c r="R2" s="242"/>
+      <c r="S2" s="242"/>
+      <c r="T2" s="242"/>
+      <c r="U2" s="242"/>
+      <c r="V2" s="242"/>
+      <c r="W2" s="242"/>
+      <c r="X2" s="242"/>
+      <c r="Y2" s="242"/>
+      <c r="Z2" s="242"/>
+      <c r="AA2" s="242"/>
+      <c r="AB2" s="242"/>
+      <c r="AC2" s="242"/>
+      <c r="AD2" s="242"/>
+      <c r="AE2" s="242"/>
+      <c r="AF2" s="242"/>
+      <c r="AG2" s="242"/>
+      <c r="AH2" s="242"/>
+      <c r="AI2" s="242"/>
+      <c r="AJ2" s="242"/>
+      <c r="AK2" s="242"/>
+      <c r="AL2" s="242"/>
+      <c r="AM2" s="242"/>
+      <c r="AN2" s="242"/>
+      <c r="AO2" s="242"/>
+      <c r="AP2" s="242"/>
+      <c r="AQ2" s="242"/>
+      <c r="AR2" s="242"/>
+      <c r="AS2" s="242"/>
+      <c r="AT2" s="242"/>
+      <c r="AU2" s="242"/>
+      <c r="AV2" s="242"/>
+      <c r="AW2" s="242"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
-      <c r="B3" s="274" t="s">
+      <c r="B3" s="243" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="274"/>
-      <c r="D3" s="274"/>
-      <c r="E3" s="274" t="s">
+      <c r="C3" s="243"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="243" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="274"/>
-      <c r="G3" s="274"/>
-      <c r="H3" s="274"/>
-      <c r="I3" s="274"/>
-      <c r="J3" s="275" t="s">
+      <c r="F3" s="243"/>
+      <c r="G3" s="243"/>
+      <c r="H3" s="243"/>
+      <c r="I3" s="243"/>
+      <c r="J3" s="244" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="276"/>
-      <c r="L3" s="277"/>
-      <c r="M3" s="275" t="s">
+      <c r="K3" s="245"/>
+      <c r="L3" s="246"/>
+      <c r="M3" s="244" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="276"/>
-      <c r="O3" s="276"/>
-      <c r="P3" s="276"/>
-      <c r="Q3" s="276"/>
-      <c r="R3" s="277"/>
-      <c r="S3" s="274" t="s">
+      <c r="N3" s="245"/>
+      <c r="O3" s="245"/>
+      <c r="P3" s="245"/>
+      <c r="Q3" s="245"/>
+      <c r="R3" s="246"/>
+      <c r="S3" s="243" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="274"/>
-      <c r="U3" s="274"/>
-      <c r="V3" s="274" t="s">
+      <c r="T3" s="243"/>
+      <c r="U3" s="243"/>
+      <c r="V3" s="243" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="274"/>
-      <c r="X3" s="274"/>
-      <c r="Y3" s="274"/>
-      <c r="Z3" s="274"/>
-      <c r="AA3" s="274"/>
-      <c r="AB3" s="274"/>
-      <c r="AC3" s="274"/>
-      <c r="AD3" s="274"/>
-      <c r="AE3" s="274"/>
-      <c r="AF3" s="274"/>
-      <c r="AG3" s="274"/>
-      <c r="AH3" s="274"/>
-      <c r="AI3" s="274"/>
-      <c r="AJ3" s="274"/>
-      <c r="AK3" s="274"/>
-      <c r="AL3" s="274"/>
-      <c r="AM3" s="274"/>
-      <c r="AN3" s="274" t="s">
+      <c r="W3" s="243"/>
+      <c r="X3" s="243"/>
+      <c r="Y3" s="243"/>
+      <c r="Z3" s="243"/>
+      <c r="AA3" s="243"/>
+      <c r="AB3" s="243"/>
+      <c r="AC3" s="243"/>
+      <c r="AD3" s="243"/>
+      <c r="AE3" s="243"/>
+      <c r="AF3" s="243"/>
+      <c r="AG3" s="243"/>
+      <c r="AH3" s="243"/>
+      <c r="AI3" s="243"/>
+      <c r="AJ3" s="243"/>
+      <c r="AK3" s="243"/>
+      <c r="AL3" s="243"/>
+      <c r="AM3" s="243"/>
+      <c r="AN3" s="243" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="274"/>
-      <c r="AP3" s="274"/>
-      <c r="AQ3" s="274"/>
-      <c r="AR3" s="274"/>
-      <c r="AS3" s="274" t="s">
+      <c r="AO3" s="243"/>
+      <c r="AP3" s="243"/>
+      <c r="AQ3" s="243"/>
+      <c r="AR3" s="243"/>
+      <c r="AS3" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="274"/>
-      <c r="AU3" s="274"/>
-      <c r="AV3" s="274"/>
-      <c r="AW3" s="274"/>
+      <c r="AT3" s="243"/>
+      <c r="AU3" s="243"/>
+      <c r="AV3" s="243"/>
+      <c r="AW3" s="243"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
-      <c r="B4" s="274"/>
-      <c r="C4" s="274"/>
-      <c r="D4" s="274"/>
-      <c r="E4" s="274"/>
-      <c r="F4" s="274"/>
-      <c r="G4" s="274"/>
-      <c r="H4" s="274"/>
-      <c r="I4" s="274"/>
-      <c r="J4" s="278"/>
-      <c r="K4" s="279"/>
-      <c r="L4" s="280"/>
-      <c r="M4" s="278"/>
-      <c r="N4" s="279"/>
-      <c r="O4" s="279"/>
-      <c r="P4" s="279"/>
-      <c r="Q4" s="279"/>
-      <c r="R4" s="280"/>
-      <c r="S4" s="274"/>
-      <c r="T4" s="274"/>
-      <c r="U4" s="274"/>
-      <c r="V4" s="274"/>
-      <c r="W4" s="274"/>
-      <c r="X4" s="274"/>
-      <c r="Y4" s="274"/>
-      <c r="Z4" s="274"/>
-      <c r="AA4" s="274"/>
-      <c r="AB4" s="274"/>
-      <c r="AC4" s="274"/>
-      <c r="AD4" s="274"/>
-      <c r="AE4" s="274"/>
-      <c r="AF4" s="274"/>
-      <c r="AG4" s="274"/>
-      <c r="AH4" s="274"/>
-      <c r="AI4" s="274"/>
-      <c r="AJ4" s="274"/>
-      <c r="AK4" s="274"/>
-      <c r="AL4" s="274"/>
-      <c r="AM4" s="274"/>
-      <c r="AN4" s="274"/>
-      <c r="AO4" s="274"/>
-      <c r="AP4" s="274"/>
-      <c r="AQ4" s="274"/>
-      <c r="AR4" s="274"/>
-      <c r="AS4" s="274"/>
-      <c r="AT4" s="274"/>
-      <c r="AU4" s="274"/>
-      <c r="AV4" s="274"/>
-      <c r="AW4" s="274"/>
+      <c r="B4" s="243"/>
+      <c r="C4" s="243"/>
+      <c r="D4" s="243"/>
+      <c r="E4" s="243"/>
+      <c r="F4" s="243"/>
+      <c r="G4" s="243"/>
+      <c r="H4" s="243"/>
+      <c r="I4" s="243"/>
+      <c r="J4" s="247"/>
+      <c r="K4" s="248"/>
+      <c r="L4" s="249"/>
+      <c r="M4" s="247"/>
+      <c r="N4" s="248"/>
+      <c r="O4" s="248"/>
+      <c r="P4" s="248"/>
+      <c r="Q4" s="248"/>
+      <c r="R4" s="249"/>
+      <c r="S4" s="243"/>
+      <c r="T4" s="243"/>
+      <c r="U4" s="243"/>
+      <c r="V4" s="243"/>
+      <c r="W4" s="243"/>
+      <c r="X4" s="243"/>
+      <c r="Y4" s="243"/>
+      <c r="Z4" s="243"/>
+      <c r="AA4" s="243"/>
+      <c r="AB4" s="243"/>
+      <c r="AC4" s="243"/>
+      <c r="AD4" s="243"/>
+      <c r="AE4" s="243"/>
+      <c r="AF4" s="243"/>
+      <c r="AG4" s="243"/>
+      <c r="AH4" s="243"/>
+      <c r="AI4" s="243"/>
+      <c r="AJ4" s="243"/>
+      <c r="AK4" s="243"/>
+      <c r="AL4" s="243"/>
+      <c r="AM4" s="243"/>
+      <c r="AN4" s="243"/>
+      <c r="AO4" s="243"/>
+      <c r="AP4" s="243"/>
+      <c r="AQ4" s="243"/>
+      <c r="AR4" s="243"/>
+      <c r="AS4" s="243"/>
+      <c r="AT4" s="243"/>
+      <c r="AU4" s="243"/>
+      <c r="AV4" s="243"/>
+      <c r="AW4" s="243"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
-      <c r="B5" s="266">
+      <c r="B5" s="251">
         <v>1</v>
       </c>
-      <c r="C5" s="266"/>
-      <c r="D5" s="266"/>
-      <c r="E5" s="247">
+      <c r="C5" s="251"/>
+      <c r="D5" s="251"/>
+      <c r="E5" s="252">
         <v>43717</v>
       </c>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="247"/>
-      <c r="J5" s="248" t="s">
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="252"/>
+      <c r="J5" s="253" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="249"/>
-      <c r="L5" s="250"/>
-      <c r="M5" s="248" t="s">
+      <c r="K5" s="254"/>
+      <c r="L5" s="255"/>
+      <c r="M5" s="253" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="249"/>
-      <c r="O5" s="249"/>
-      <c r="P5" s="249"/>
-      <c r="Q5" s="249"/>
-      <c r="R5" s="250"/>
-      <c r="S5" s="254" t="s">
+      <c r="N5" s="254"/>
+      <c r="O5" s="254"/>
+      <c r="P5" s="254"/>
+      <c r="Q5" s="254"/>
+      <c r="R5" s="255"/>
+      <c r="S5" s="250" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="254"/>
-      <c r="U5" s="254"/>
-      <c r="V5" s="265" t="s">
+      <c r="T5" s="250"/>
+      <c r="U5" s="250"/>
+      <c r="V5" s="259" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="265"/>
-      <c r="X5" s="265"/>
-      <c r="Y5" s="265"/>
-      <c r="Z5" s="265"/>
-      <c r="AA5" s="265"/>
-      <c r="AB5" s="265"/>
-      <c r="AC5" s="265"/>
-      <c r="AD5" s="265"/>
-      <c r="AE5" s="265"/>
-      <c r="AF5" s="265"/>
-      <c r="AG5" s="265"/>
-      <c r="AH5" s="265"/>
-      <c r="AI5" s="265"/>
-      <c r="AJ5" s="265"/>
-      <c r="AK5" s="265"/>
-      <c r="AL5" s="265"/>
-      <c r="AM5" s="265"/>
-      <c r="AN5" s="254" t="s">
+      <c r="W5" s="259"/>
+      <c r="X5" s="259"/>
+      <c r="Y5" s="259"/>
+      <c r="Z5" s="259"/>
+      <c r="AA5" s="259"/>
+      <c r="AB5" s="259"/>
+      <c r="AC5" s="259"/>
+      <c r="AD5" s="259"/>
+      <c r="AE5" s="259"/>
+      <c r="AF5" s="259"/>
+      <c r="AG5" s="259"/>
+      <c r="AH5" s="259"/>
+      <c r="AI5" s="259"/>
+      <c r="AJ5" s="259"/>
+      <c r="AK5" s="259"/>
+      <c r="AL5" s="259"/>
+      <c r="AM5" s="259"/>
+      <c r="AN5" s="250" t="s">
         <v>108</v>
       </c>
-      <c r="AO5" s="254"/>
-      <c r="AP5" s="254"/>
-      <c r="AQ5" s="254"/>
-      <c r="AR5" s="254"/>
-      <c r="AS5" s="254"/>
-      <c r="AT5" s="254"/>
-      <c r="AU5" s="254"/>
-      <c r="AV5" s="254"/>
-      <c r="AW5" s="254"/>
+      <c r="AO5" s="250"/>
+      <c r="AP5" s="250"/>
+      <c r="AQ5" s="250"/>
+      <c r="AR5" s="250"/>
+      <c r="AS5" s="250"/>
+      <c r="AT5" s="250"/>
+      <c r="AU5" s="250"/>
+      <c r="AV5" s="250"/>
+      <c r="AW5" s="250"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="56"/>
-      <c r="B6" s="266"/>
-      <c r="C6" s="266"/>
-      <c r="D6" s="266"/>
-      <c r="E6" s="247"/>
-      <c r="F6" s="247"/>
-      <c r="G6" s="247"/>
-      <c r="H6" s="247"/>
-      <c r="I6" s="247"/>
-      <c r="J6" s="248"/>
-      <c r="K6" s="249"/>
-      <c r="L6" s="250"/>
-      <c r="M6" s="269"/>
-      <c r="N6" s="270"/>
-      <c r="O6" s="270"/>
-      <c r="P6" s="270"/>
-      <c r="Q6" s="270"/>
-      <c r="R6" s="271"/>
-      <c r="S6" s="254"/>
-      <c r="T6" s="254"/>
-      <c r="U6" s="254"/>
-      <c r="V6" s="265"/>
-      <c r="W6" s="265"/>
-      <c r="X6" s="265"/>
-      <c r="Y6" s="265"/>
-      <c r="Z6" s="265"/>
-      <c r="AA6" s="265"/>
-      <c r="AB6" s="265"/>
-      <c r="AC6" s="265"/>
-      <c r="AD6" s="265"/>
-      <c r="AE6" s="265"/>
-      <c r="AF6" s="265"/>
-      <c r="AG6" s="265"/>
-      <c r="AH6" s="265"/>
-      <c r="AI6" s="265"/>
-      <c r="AJ6" s="265"/>
-      <c r="AK6" s="265"/>
-      <c r="AL6" s="265"/>
-      <c r="AM6" s="265"/>
-      <c r="AN6" s="254"/>
-      <c r="AO6" s="254"/>
-      <c r="AP6" s="254"/>
-      <c r="AQ6" s="254"/>
-      <c r="AR6" s="254"/>
-      <c r="AS6" s="254"/>
-      <c r="AT6" s="254"/>
-      <c r="AU6" s="254"/>
-      <c r="AV6" s="254"/>
-      <c r="AW6" s="254"/>
+      <c r="B6" s="251"/>
+      <c r="C6" s="251"/>
+      <c r="D6" s="251"/>
+      <c r="E6" s="252"/>
+      <c r="F6" s="252"/>
+      <c r="G6" s="252"/>
+      <c r="H6" s="252"/>
+      <c r="I6" s="252"/>
+      <c r="J6" s="253"/>
+      <c r="K6" s="254"/>
+      <c r="L6" s="255"/>
+      <c r="M6" s="256"/>
+      <c r="N6" s="257"/>
+      <c r="O6" s="257"/>
+      <c r="P6" s="257"/>
+      <c r="Q6" s="257"/>
+      <c r="R6" s="258"/>
+      <c r="S6" s="250"/>
+      <c r="T6" s="250"/>
+      <c r="U6" s="250"/>
+      <c r="V6" s="259"/>
+      <c r="W6" s="259"/>
+      <c r="X6" s="259"/>
+      <c r="Y6" s="259"/>
+      <c r="Z6" s="259"/>
+      <c r="AA6" s="259"/>
+      <c r="AB6" s="259"/>
+      <c r="AC6" s="259"/>
+      <c r="AD6" s="259"/>
+      <c r="AE6" s="259"/>
+      <c r="AF6" s="259"/>
+      <c r="AG6" s="259"/>
+      <c r="AH6" s="259"/>
+      <c r="AI6" s="259"/>
+      <c r="AJ6" s="259"/>
+      <c r="AK6" s="259"/>
+      <c r="AL6" s="259"/>
+      <c r="AM6" s="259"/>
+      <c r="AN6" s="250"/>
+      <c r="AO6" s="250"/>
+      <c r="AP6" s="250"/>
+      <c r="AQ6" s="250"/>
+      <c r="AR6" s="250"/>
+      <c r="AS6" s="250"/>
+      <c r="AT6" s="250"/>
+      <c r="AU6" s="250"/>
+      <c r="AV6" s="250"/>
+      <c r="AW6" s="250"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
-      <c r="B7" s="266"/>
-      <c r="C7" s="266"/>
-      <c r="D7" s="266"/>
-      <c r="E7" s="247"/>
-      <c r="F7" s="247"/>
-      <c r="G7" s="247"/>
-      <c r="H7" s="247"/>
-      <c r="I7" s="247"/>
-      <c r="J7" s="248"/>
-      <c r="K7" s="249"/>
-      <c r="L7" s="250"/>
-      <c r="M7" s="269"/>
-      <c r="N7" s="270"/>
-      <c r="O7" s="270"/>
-      <c r="P7" s="270"/>
-      <c r="Q7" s="270"/>
-      <c r="R7" s="271"/>
-      <c r="S7" s="254"/>
-      <c r="T7" s="254"/>
-      <c r="U7" s="254"/>
-      <c r="V7" s="265"/>
-      <c r="W7" s="265"/>
-      <c r="X7" s="265"/>
-      <c r="Y7" s="265"/>
-      <c r="Z7" s="265"/>
-      <c r="AA7" s="265"/>
-      <c r="AB7" s="265"/>
-      <c r="AC7" s="265"/>
-      <c r="AD7" s="265"/>
-      <c r="AE7" s="265"/>
-      <c r="AF7" s="265"/>
-      <c r="AG7" s="265"/>
-      <c r="AH7" s="265"/>
-      <c r="AI7" s="265"/>
-      <c r="AJ7" s="265"/>
-      <c r="AK7" s="265"/>
-      <c r="AL7" s="265"/>
-      <c r="AM7" s="265"/>
-      <c r="AN7" s="254"/>
-      <c r="AO7" s="254"/>
-      <c r="AP7" s="254"/>
-      <c r="AQ7" s="254"/>
-      <c r="AR7" s="254"/>
-      <c r="AS7" s="254"/>
-      <c r="AT7" s="254"/>
-      <c r="AU7" s="254"/>
-      <c r="AV7" s="254"/>
-      <c r="AW7" s="254"/>
+      <c r="B7" s="251"/>
+      <c r="C7" s="251"/>
+      <c r="D7" s="251"/>
+      <c r="E7" s="252"/>
+      <c r="F7" s="252"/>
+      <c r="G7" s="252"/>
+      <c r="H7" s="252"/>
+      <c r="I7" s="252"/>
+      <c r="J7" s="253"/>
+      <c r="K7" s="254"/>
+      <c r="L7" s="255"/>
+      <c r="M7" s="256"/>
+      <c r="N7" s="257"/>
+      <c r="O7" s="257"/>
+      <c r="P7" s="257"/>
+      <c r="Q7" s="257"/>
+      <c r="R7" s="258"/>
+      <c r="S7" s="250"/>
+      <c r="T7" s="250"/>
+      <c r="U7" s="250"/>
+      <c r="V7" s="259"/>
+      <c r="W7" s="259"/>
+      <c r="X7" s="259"/>
+      <c r="Y7" s="259"/>
+      <c r="Z7" s="259"/>
+      <c r="AA7" s="259"/>
+      <c r="AB7" s="259"/>
+      <c r="AC7" s="259"/>
+      <c r="AD7" s="259"/>
+      <c r="AE7" s="259"/>
+      <c r="AF7" s="259"/>
+      <c r="AG7" s="259"/>
+      <c r="AH7" s="259"/>
+      <c r="AI7" s="259"/>
+      <c r="AJ7" s="259"/>
+      <c r="AK7" s="259"/>
+      <c r="AL7" s="259"/>
+      <c r="AM7" s="259"/>
+      <c r="AN7" s="250"/>
+      <c r="AO7" s="250"/>
+      <c r="AP7" s="250"/>
+      <c r="AQ7" s="250"/>
+      <c r="AR7" s="250"/>
+      <c r="AS7" s="250"/>
+      <c r="AT7" s="250"/>
+      <c r="AU7" s="250"/>
+      <c r="AV7" s="250"/>
+      <c r="AW7" s="250"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
-      <c r="B8" s="266"/>
-      <c r="C8" s="266"/>
-      <c r="D8" s="266"/>
-      <c r="E8" s="247"/>
-      <c r="F8" s="247"/>
-      <c r="G8" s="247"/>
-      <c r="H8" s="247"/>
-      <c r="I8" s="247"/>
-      <c r="J8" s="248"/>
-      <c r="K8" s="249"/>
-      <c r="L8" s="250"/>
-      <c r="M8" s="269"/>
-      <c r="N8" s="270"/>
-      <c r="O8" s="270"/>
-      <c r="P8" s="270"/>
-      <c r="Q8" s="270"/>
-      <c r="R8" s="271"/>
-      <c r="S8" s="254"/>
-      <c r="T8" s="254"/>
-      <c r="U8" s="254"/>
-      <c r="V8" s="265"/>
-      <c r="W8" s="265"/>
-      <c r="X8" s="265"/>
-      <c r="Y8" s="265"/>
-      <c r="Z8" s="265"/>
-      <c r="AA8" s="265"/>
-      <c r="AB8" s="265"/>
-      <c r="AC8" s="265"/>
-      <c r="AD8" s="265"/>
-      <c r="AE8" s="265"/>
-      <c r="AF8" s="265"/>
-      <c r="AG8" s="265"/>
-      <c r="AH8" s="265"/>
-      <c r="AI8" s="265"/>
-      <c r="AJ8" s="265"/>
-      <c r="AK8" s="265"/>
-      <c r="AL8" s="265"/>
-      <c r="AM8" s="265"/>
-      <c r="AN8" s="254"/>
-      <c r="AO8" s="254"/>
-      <c r="AP8" s="254"/>
-      <c r="AQ8" s="254"/>
-      <c r="AR8" s="254"/>
-      <c r="AS8" s="254"/>
-      <c r="AT8" s="254"/>
-      <c r="AU8" s="254"/>
-      <c r="AV8" s="254"/>
-      <c r="AW8" s="254"/>
+      <c r="B8" s="251"/>
+      <c r="C8" s="251"/>
+      <c r="D8" s="251"/>
+      <c r="E8" s="252"/>
+      <c r="F8" s="252"/>
+      <c r="G8" s="252"/>
+      <c r="H8" s="252"/>
+      <c r="I8" s="252"/>
+      <c r="J8" s="253"/>
+      <c r="K8" s="254"/>
+      <c r="L8" s="255"/>
+      <c r="M8" s="256"/>
+      <c r="N8" s="257"/>
+      <c r="O8" s="257"/>
+      <c r="P8" s="257"/>
+      <c r="Q8" s="257"/>
+      <c r="R8" s="258"/>
+      <c r="S8" s="250"/>
+      <c r="T8" s="250"/>
+      <c r="U8" s="250"/>
+      <c r="V8" s="259"/>
+      <c r="W8" s="259"/>
+      <c r="X8" s="259"/>
+      <c r="Y8" s="259"/>
+      <c r="Z8" s="259"/>
+      <c r="AA8" s="259"/>
+      <c r="AB8" s="259"/>
+      <c r="AC8" s="259"/>
+      <c r="AD8" s="259"/>
+      <c r="AE8" s="259"/>
+      <c r="AF8" s="259"/>
+      <c r="AG8" s="259"/>
+      <c r="AH8" s="259"/>
+      <c r="AI8" s="259"/>
+      <c r="AJ8" s="259"/>
+      <c r="AK8" s="259"/>
+      <c r="AL8" s="259"/>
+      <c r="AM8" s="259"/>
+      <c r="AN8" s="250"/>
+      <c r="AO8" s="250"/>
+      <c r="AP8" s="250"/>
+      <c r="AQ8" s="250"/>
+      <c r="AR8" s="250"/>
+      <c r="AS8" s="250"/>
+      <c r="AT8" s="250"/>
+      <c r="AU8" s="250"/>
+      <c r="AV8" s="250"/>
+      <c r="AW8" s="250"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
-      <c r="B9" s="266"/>
-      <c r="C9" s="266"/>
-      <c r="D9" s="266"/>
-      <c r="E9" s="247"/>
-      <c r="F9" s="247"/>
-      <c r="G9" s="247"/>
-      <c r="H9" s="247"/>
-      <c r="I9" s="247"/>
-      <c r="J9" s="248"/>
-      <c r="K9" s="249"/>
-      <c r="L9" s="250"/>
-      <c r="M9" s="269"/>
-      <c r="N9" s="270"/>
-      <c r="O9" s="270"/>
-      <c r="P9" s="270"/>
-      <c r="Q9" s="270"/>
-      <c r="R9" s="271"/>
-      <c r="S9" s="254"/>
-      <c r="T9" s="254"/>
-      <c r="U9" s="254"/>
-      <c r="V9" s="265"/>
-      <c r="W9" s="265"/>
-      <c r="X9" s="265"/>
-      <c r="Y9" s="265"/>
-      <c r="Z9" s="265"/>
-      <c r="AA9" s="265"/>
-      <c r="AB9" s="265"/>
-      <c r="AC9" s="265"/>
-      <c r="AD9" s="265"/>
-      <c r="AE9" s="265"/>
-      <c r="AF9" s="265"/>
-      <c r="AG9" s="265"/>
-      <c r="AH9" s="265"/>
-      <c r="AI9" s="265"/>
-      <c r="AJ9" s="265"/>
-      <c r="AK9" s="265"/>
-      <c r="AL9" s="265"/>
-      <c r="AM9" s="265"/>
-      <c r="AN9" s="254"/>
-      <c r="AO9" s="254"/>
-      <c r="AP9" s="254"/>
-      <c r="AQ9" s="254"/>
-      <c r="AR9" s="254"/>
-      <c r="AS9" s="254"/>
-      <c r="AT9" s="254"/>
-      <c r="AU9" s="254"/>
-      <c r="AV9" s="254"/>
-      <c r="AW9" s="254"/>
+      <c r="B9" s="251"/>
+      <c r="C9" s="251"/>
+      <c r="D9" s="251"/>
+      <c r="E9" s="252"/>
+      <c r="F9" s="252"/>
+      <c r="G9" s="252"/>
+      <c r="H9" s="252"/>
+      <c r="I9" s="252"/>
+      <c r="J9" s="253"/>
+      <c r="K9" s="254"/>
+      <c r="L9" s="255"/>
+      <c r="M9" s="256"/>
+      <c r="N9" s="257"/>
+      <c r="O9" s="257"/>
+      <c r="P9" s="257"/>
+      <c r="Q9" s="257"/>
+      <c r="R9" s="258"/>
+      <c r="S9" s="250"/>
+      <c r="T9" s="250"/>
+      <c r="U9" s="250"/>
+      <c r="V9" s="259"/>
+      <c r="W9" s="259"/>
+      <c r="X9" s="259"/>
+      <c r="Y9" s="259"/>
+      <c r="Z9" s="259"/>
+      <c r="AA9" s="259"/>
+      <c r="AB9" s="259"/>
+      <c r="AC9" s="259"/>
+      <c r="AD9" s="259"/>
+      <c r="AE9" s="259"/>
+      <c r="AF9" s="259"/>
+      <c r="AG9" s="259"/>
+      <c r="AH9" s="259"/>
+      <c r="AI9" s="259"/>
+      <c r="AJ9" s="259"/>
+      <c r="AK9" s="259"/>
+      <c r="AL9" s="259"/>
+      <c r="AM9" s="259"/>
+      <c r="AN9" s="250"/>
+      <c r="AO9" s="250"/>
+      <c r="AP9" s="250"/>
+      <c r="AQ9" s="250"/>
+      <c r="AR9" s="250"/>
+      <c r="AS9" s="250"/>
+      <c r="AT9" s="250"/>
+      <c r="AU9" s="250"/>
+      <c r="AV9" s="250"/>
+      <c r="AW9" s="250"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
-      <c r="B10" s="266"/>
-      <c r="C10" s="266"/>
-      <c r="D10" s="266"/>
-      <c r="E10" s="247"/>
-      <c r="F10" s="247"/>
-      <c r="G10" s="247"/>
-      <c r="H10" s="247"/>
-      <c r="I10" s="247"/>
-      <c r="J10" s="248"/>
-      <c r="K10" s="249"/>
-      <c r="L10" s="250"/>
-      <c r="M10" s="269"/>
-      <c r="N10" s="270"/>
-      <c r="O10" s="270"/>
-      <c r="P10" s="270"/>
-      <c r="Q10" s="270"/>
-      <c r="R10" s="271"/>
-      <c r="S10" s="254"/>
-      <c r="T10" s="254"/>
-      <c r="U10" s="254"/>
-      <c r="V10" s="265"/>
-      <c r="W10" s="265"/>
-      <c r="X10" s="265"/>
-      <c r="Y10" s="265"/>
-      <c r="Z10" s="265"/>
-      <c r="AA10" s="265"/>
-      <c r="AB10" s="265"/>
-      <c r="AC10" s="265"/>
-      <c r="AD10" s="265"/>
-      <c r="AE10" s="265"/>
-      <c r="AF10" s="265"/>
-      <c r="AG10" s="265"/>
-      <c r="AH10" s="265"/>
-      <c r="AI10" s="265"/>
-      <c r="AJ10" s="265"/>
-      <c r="AK10" s="265"/>
-      <c r="AL10" s="265"/>
-      <c r="AM10" s="265"/>
-      <c r="AN10" s="254"/>
-      <c r="AO10" s="254"/>
-      <c r="AP10" s="254"/>
-      <c r="AQ10" s="254"/>
-      <c r="AR10" s="254"/>
-      <c r="AS10" s="254"/>
-      <c r="AT10" s="254"/>
-      <c r="AU10" s="254"/>
-      <c r="AV10" s="254"/>
-      <c r="AW10" s="254"/>
+      <c r="B10" s="251"/>
+      <c r="C10" s="251"/>
+      <c r="D10" s="251"/>
+      <c r="E10" s="252"/>
+      <c r="F10" s="252"/>
+      <c r="G10" s="252"/>
+      <c r="H10" s="252"/>
+      <c r="I10" s="252"/>
+      <c r="J10" s="253"/>
+      <c r="K10" s="254"/>
+      <c r="L10" s="255"/>
+      <c r="M10" s="256"/>
+      <c r="N10" s="257"/>
+      <c r="O10" s="257"/>
+      <c r="P10" s="257"/>
+      <c r="Q10" s="257"/>
+      <c r="R10" s="258"/>
+      <c r="S10" s="250"/>
+      <c r="T10" s="250"/>
+      <c r="U10" s="250"/>
+      <c r="V10" s="259"/>
+      <c r="W10" s="259"/>
+      <c r="X10" s="259"/>
+      <c r="Y10" s="259"/>
+      <c r="Z10" s="259"/>
+      <c r="AA10" s="259"/>
+      <c r="AB10" s="259"/>
+      <c r="AC10" s="259"/>
+      <c r="AD10" s="259"/>
+      <c r="AE10" s="259"/>
+      <c r="AF10" s="259"/>
+      <c r="AG10" s="259"/>
+      <c r="AH10" s="259"/>
+      <c r="AI10" s="259"/>
+      <c r="AJ10" s="259"/>
+      <c r="AK10" s="259"/>
+      <c r="AL10" s="259"/>
+      <c r="AM10" s="259"/>
+      <c r="AN10" s="250"/>
+      <c r="AO10" s="250"/>
+      <c r="AP10" s="250"/>
+      <c r="AQ10" s="250"/>
+      <c r="AR10" s="250"/>
+      <c r="AS10" s="250"/>
+      <c r="AT10" s="250"/>
+      <c r="AU10" s="250"/>
+      <c r="AV10" s="250"/>
+      <c r="AW10" s="250"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="266"/>
-      <c r="C11" s="266"/>
-      <c r="D11" s="266"/>
-      <c r="E11" s="247"/>
-      <c r="F11" s="247"/>
-      <c r="G11" s="247"/>
-      <c r="H11" s="247"/>
-      <c r="I11" s="247"/>
-      <c r="J11" s="248"/>
-      <c r="K11" s="249"/>
-      <c r="L11" s="250"/>
-      <c r="M11" s="261"/>
-      <c r="N11" s="259"/>
-      <c r="O11" s="259"/>
-      <c r="P11" s="259"/>
-      <c r="Q11" s="259"/>
-      <c r="R11" s="260"/>
-      <c r="S11" s="254"/>
-      <c r="T11" s="254"/>
-      <c r="U11" s="254"/>
-      <c r="V11" s="255"/>
-      <c r="W11" s="267"/>
-      <c r="X11" s="267"/>
-      <c r="Y11" s="267"/>
-      <c r="Z11" s="267"/>
-      <c r="AA11" s="267"/>
-      <c r="AB11" s="267"/>
-      <c r="AC11" s="267"/>
-      <c r="AD11" s="267"/>
-      <c r="AE11" s="267"/>
-      <c r="AF11" s="267"/>
-      <c r="AG11" s="267"/>
-      <c r="AH11" s="267"/>
-      <c r="AI11" s="267"/>
-      <c r="AJ11" s="267"/>
-      <c r="AK11" s="267"/>
-      <c r="AL11" s="267"/>
-      <c r="AM11" s="268"/>
-      <c r="AN11" s="254"/>
-      <c r="AO11" s="254"/>
-      <c r="AP11" s="254"/>
-      <c r="AQ11" s="254"/>
-      <c r="AR11" s="254"/>
-      <c r="AS11" s="254"/>
-      <c r="AT11" s="254"/>
-      <c r="AU11" s="254"/>
-      <c r="AV11" s="254"/>
-      <c r="AW11" s="254"/>
+      <c r="B11" s="251"/>
+      <c r="C11" s="251"/>
+      <c r="D11" s="251"/>
+      <c r="E11" s="252"/>
+      <c r="F11" s="252"/>
+      <c r="G11" s="252"/>
+      <c r="H11" s="252"/>
+      <c r="I11" s="252"/>
+      <c r="J11" s="253"/>
+      <c r="K11" s="254"/>
+      <c r="L11" s="255"/>
+      <c r="M11" s="263"/>
+      <c r="N11" s="264"/>
+      <c r="O11" s="264"/>
+      <c r="P11" s="264"/>
+      <c r="Q11" s="264"/>
+      <c r="R11" s="265"/>
+      <c r="S11" s="250"/>
+      <c r="T11" s="250"/>
+      <c r="U11" s="250"/>
+      <c r="V11" s="266"/>
+      <c r="W11" s="272"/>
+      <c r="X11" s="272"/>
+      <c r="Y11" s="272"/>
+      <c r="Z11" s="272"/>
+      <c r="AA11" s="272"/>
+      <c r="AB11" s="272"/>
+      <c r="AC11" s="272"/>
+      <c r="AD11" s="272"/>
+      <c r="AE11" s="272"/>
+      <c r="AF11" s="272"/>
+      <c r="AG11" s="272"/>
+      <c r="AH11" s="272"/>
+      <c r="AI11" s="272"/>
+      <c r="AJ11" s="272"/>
+      <c r="AK11" s="272"/>
+      <c r="AL11" s="272"/>
+      <c r="AM11" s="273"/>
+      <c r="AN11" s="250"/>
+      <c r="AO11" s="250"/>
+      <c r="AP11" s="250"/>
+      <c r="AQ11" s="250"/>
+      <c r="AR11" s="250"/>
+      <c r="AS11" s="250"/>
+      <c r="AT11" s="250"/>
+      <c r="AU11" s="250"/>
+      <c r="AV11" s="250"/>
+      <c r="AW11" s="250"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="244"/>
-      <c r="C12" s="245"/>
-      <c r="D12" s="246"/>
-      <c r="E12" s="247"/>
-      <c r="F12" s="247"/>
-      <c r="G12" s="247"/>
-      <c r="H12" s="247"/>
-      <c r="I12" s="247"/>
-      <c r="J12" s="248"/>
-      <c r="K12" s="249"/>
-      <c r="L12" s="250"/>
-      <c r="M12" s="261"/>
-      <c r="N12" s="259"/>
-      <c r="O12" s="259"/>
-      <c r="P12" s="259"/>
-      <c r="Q12" s="259"/>
-      <c r="R12" s="260"/>
-      <c r="S12" s="254"/>
-      <c r="T12" s="254"/>
-      <c r="U12" s="254"/>
-      <c r="V12" s="255"/>
-      <c r="W12" s="256"/>
-      <c r="X12" s="256"/>
-      <c r="Y12" s="256"/>
-      <c r="Z12" s="256"/>
-      <c r="AA12" s="256"/>
-      <c r="AB12" s="256"/>
-      <c r="AC12" s="256"/>
-      <c r="AD12" s="256"/>
-      <c r="AE12" s="256"/>
-      <c r="AF12" s="256"/>
-      <c r="AG12" s="256"/>
-      <c r="AH12" s="256"/>
-      <c r="AI12" s="256"/>
-      <c r="AJ12" s="256"/>
-      <c r="AK12" s="256"/>
-      <c r="AL12" s="256"/>
-      <c r="AM12" s="257"/>
-      <c r="AN12" s="241"/>
-      <c r="AO12" s="242"/>
-      <c r="AP12" s="242"/>
-      <c r="AQ12" s="242"/>
-      <c r="AR12" s="243"/>
-      <c r="AS12" s="241"/>
-      <c r="AT12" s="242"/>
-      <c r="AU12" s="242"/>
-      <c r="AV12" s="242"/>
-      <c r="AW12" s="243"/>
+      <c r="B12" s="260"/>
+      <c r="C12" s="261"/>
+      <c r="D12" s="262"/>
+      <c r="E12" s="252"/>
+      <c r="F12" s="252"/>
+      <c r="G12" s="252"/>
+      <c r="H12" s="252"/>
+      <c r="I12" s="252"/>
+      <c r="J12" s="253"/>
+      <c r="K12" s="254"/>
+      <c r="L12" s="255"/>
+      <c r="M12" s="263"/>
+      <c r="N12" s="264"/>
+      <c r="O12" s="264"/>
+      <c r="P12" s="264"/>
+      <c r="Q12" s="264"/>
+      <c r="R12" s="265"/>
+      <c r="S12" s="250"/>
+      <c r="T12" s="250"/>
+      <c r="U12" s="250"/>
+      <c r="V12" s="266"/>
+      <c r="W12" s="267"/>
+      <c r="X12" s="267"/>
+      <c r="Y12" s="267"/>
+      <c r="Z12" s="267"/>
+      <c r="AA12" s="267"/>
+      <c r="AB12" s="267"/>
+      <c r="AC12" s="267"/>
+      <c r="AD12" s="267"/>
+      <c r="AE12" s="267"/>
+      <c r="AF12" s="267"/>
+      <c r="AG12" s="267"/>
+      <c r="AH12" s="267"/>
+      <c r="AI12" s="267"/>
+      <c r="AJ12" s="267"/>
+      <c r="AK12" s="267"/>
+      <c r="AL12" s="267"/>
+      <c r="AM12" s="268"/>
+      <c r="AN12" s="269"/>
+      <c r="AO12" s="270"/>
+      <c r="AP12" s="270"/>
+      <c r="AQ12" s="270"/>
+      <c r="AR12" s="271"/>
+      <c r="AS12" s="269"/>
+      <c r="AT12" s="270"/>
+      <c r="AU12" s="270"/>
+      <c r="AV12" s="270"/>
+      <c r="AW12" s="271"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
-      <c r="B13" s="244"/>
-      <c r="C13" s="245"/>
-      <c r="D13" s="246"/>
-      <c r="E13" s="247"/>
-      <c r="F13" s="247"/>
-      <c r="G13" s="247"/>
-      <c r="H13" s="247"/>
-      <c r="I13" s="247"/>
-      <c r="J13" s="248"/>
-      <c r="K13" s="249"/>
-      <c r="L13" s="250"/>
-      <c r="M13" s="258"/>
-      <c r="N13" s="259"/>
-      <c r="O13" s="259"/>
-      <c r="P13" s="259"/>
-      <c r="Q13" s="259"/>
-      <c r="R13" s="260"/>
-      <c r="S13" s="254"/>
-      <c r="T13" s="254"/>
-      <c r="U13" s="254"/>
-      <c r="V13" s="255"/>
-      <c r="W13" s="256"/>
-      <c r="X13" s="256"/>
-      <c r="Y13" s="256"/>
-      <c r="Z13" s="256"/>
-      <c r="AA13" s="256"/>
-      <c r="AB13" s="256"/>
-      <c r="AC13" s="256"/>
-      <c r="AD13" s="256"/>
-      <c r="AE13" s="256"/>
-      <c r="AF13" s="256"/>
-      <c r="AG13" s="256"/>
-      <c r="AH13" s="256"/>
-      <c r="AI13" s="256"/>
-      <c r="AJ13" s="256"/>
-      <c r="AK13" s="256"/>
-      <c r="AL13" s="256"/>
-      <c r="AM13" s="257"/>
-      <c r="AN13" s="241"/>
-      <c r="AO13" s="242"/>
-      <c r="AP13" s="242"/>
-      <c r="AQ13" s="242"/>
-      <c r="AR13" s="243"/>
-      <c r="AS13" s="241"/>
-      <c r="AT13" s="242"/>
-      <c r="AU13" s="242"/>
-      <c r="AV13" s="242"/>
-      <c r="AW13" s="243"/>
+      <c r="B13" s="260"/>
+      <c r="C13" s="261"/>
+      <c r="D13" s="262"/>
+      <c r="E13" s="252"/>
+      <c r="F13" s="252"/>
+      <c r="G13" s="252"/>
+      <c r="H13" s="252"/>
+      <c r="I13" s="252"/>
+      <c r="J13" s="253"/>
+      <c r="K13" s="254"/>
+      <c r="L13" s="255"/>
+      <c r="M13" s="274"/>
+      <c r="N13" s="264"/>
+      <c r="O13" s="264"/>
+      <c r="P13" s="264"/>
+      <c r="Q13" s="264"/>
+      <c r="R13" s="265"/>
+      <c r="S13" s="250"/>
+      <c r="T13" s="250"/>
+      <c r="U13" s="250"/>
+      <c r="V13" s="266"/>
+      <c r="W13" s="267"/>
+      <c r="X13" s="267"/>
+      <c r="Y13" s="267"/>
+      <c r="Z13" s="267"/>
+      <c r="AA13" s="267"/>
+      <c r="AB13" s="267"/>
+      <c r="AC13" s="267"/>
+      <c r="AD13" s="267"/>
+      <c r="AE13" s="267"/>
+      <c r="AF13" s="267"/>
+      <c r="AG13" s="267"/>
+      <c r="AH13" s="267"/>
+      <c r="AI13" s="267"/>
+      <c r="AJ13" s="267"/>
+      <c r="AK13" s="267"/>
+      <c r="AL13" s="267"/>
+      <c r="AM13" s="268"/>
+      <c r="AN13" s="269"/>
+      <c r="AO13" s="270"/>
+      <c r="AP13" s="270"/>
+      <c r="AQ13" s="270"/>
+      <c r="AR13" s="271"/>
+      <c r="AS13" s="269"/>
+      <c r="AT13" s="270"/>
+      <c r="AU13" s="270"/>
+      <c r="AV13" s="270"/>
+      <c r="AW13" s="271"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
-      <c r="B14" s="244"/>
-      <c r="C14" s="245"/>
-      <c r="D14" s="246"/>
-      <c r="E14" s="247"/>
-      <c r="F14" s="247"/>
-      <c r="G14" s="247"/>
-      <c r="H14" s="247"/>
-      <c r="I14" s="247"/>
-      <c r="J14" s="248"/>
-      <c r="K14" s="249"/>
-      <c r="L14" s="250"/>
-      <c r="M14" s="258"/>
-      <c r="N14" s="259"/>
-      <c r="O14" s="259"/>
-      <c r="P14" s="259"/>
-      <c r="Q14" s="259"/>
-      <c r="R14" s="260"/>
-      <c r="S14" s="254"/>
-      <c r="T14" s="254"/>
-      <c r="U14" s="254"/>
-      <c r="V14" s="264"/>
-      <c r="W14" s="265"/>
-      <c r="X14" s="265"/>
-      <c r="Y14" s="265"/>
-      <c r="Z14" s="265"/>
-      <c r="AA14" s="265"/>
-      <c r="AB14" s="265"/>
-      <c r="AC14" s="265"/>
-      <c r="AD14" s="265"/>
-      <c r="AE14" s="265"/>
-      <c r="AF14" s="265"/>
-      <c r="AG14" s="265"/>
-      <c r="AH14" s="265"/>
-      <c r="AI14" s="265"/>
-      <c r="AJ14" s="265"/>
-      <c r="AK14" s="265"/>
-      <c r="AL14" s="265"/>
-      <c r="AM14" s="265"/>
-      <c r="AN14" s="254"/>
-      <c r="AO14" s="254"/>
-      <c r="AP14" s="254"/>
-      <c r="AQ14" s="254"/>
-      <c r="AR14" s="254"/>
-      <c r="AS14" s="241"/>
-      <c r="AT14" s="242"/>
-      <c r="AU14" s="242"/>
-      <c r="AV14" s="242"/>
-      <c r="AW14" s="243"/>
+      <c r="B14" s="260"/>
+      <c r="C14" s="261"/>
+      <c r="D14" s="262"/>
+      <c r="E14" s="252"/>
+      <c r="F14" s="252"/>
+      <c r="G14" s="252"/>
+      <c r="H14" s="252"/>
+      <c r="I14" s="252"/>
+      <c r="J14" s="253"/>
+      <c r="K14" s="254"/>
+      <c r="L14" s="255"/>
+      <c r="M14" s="274"/>
+      <c r="N14" s="264"/>
+      <c r="O14" s="264"/>
+      <c r="P14" s="264"/>
+      <c r="Q14" s="264"/>
+      <c r="R14" s="265"/>
+      <c r="S14" s="250"/>
+      <c r="T14" s="250"/>
+      <c r="U14" s="250"/>
+      <c r="V14" s="275"/>
+      <c r="W14" s="259"/>
+      <c r="X14" s="259"/>
+      <c r="Y14" s="259"/>
+      <c r="Z14" s="259"/>
+      <c r="AA14" s="259"/>
+      <c r="AB14" s="259"/>
+      <c r="AC14" s="259"/>
+      <c r="AD14" s="259"/>
+      <c r="AE14" s="259"/>
+      <c r="AF14" s="259"/>
+      <c r="AG14" s="259"/>
+      <c r="AH14" s="259"/>
+      <c r="AI14" s="259"/>
+      <c r="AJ14" s="259"/>
+      <c r="AK14" s="259"/>
+      <c r="AL14" s="259"/>
+      <c r="AM14" s="259"/>
+      <c r="AN14" s="250"/>
+      <c r="AO14" s="250"/>
+      <c r="AP14" s="250"/>
+      <c r="AQ14" s="250"/>
+      <c r="AR14" s="250"/>
+      <c r="AS14" s="269"/>
+      <c r="AT14" s="270"/>
+      <c r="AU14" s="270"/>
+      <c r="AV14" s="270"/>
+      <c r="AW14" s="271"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
-      <c r="B15" s="244"/>
-      <c r="C15" s="245"/>
-      <c r="D15" s="246"/>
-      <c r="E15" s="247"/>
-      <c r="F15" s="247"/>
-      <c r="G15" s="247"/>
-      <c r="H15" s="247"/>
-      <c r="I15" s="247"/>
-      <c r="J15" s="248"/>
-      <c r="K15" s="249"/>
-      <c r="L15" s="250"/>
-      <c r="M15" s="261"/>
-      <c r="N15" s="259"/>
-      <c r="O15" s="259"/>
-      <c r="P15" s="259"/>
-      <c r="Q15" s="259"/>
-      <c r="R15" s="260"/>
-      <c r="S15" s="254"/>
-      <c r="T15" s="254"/>
-      <c r="U15" s="254"/>
-      <c r="V15" s="255"/>
-      <c r="W15" s="256"/>
-      <c r="X15" s="256"/>
-      <c r="Y15" s="256"/>
-      <c r="Z15" s="256"/>
-      <c r="AA15" s="256"/>
-      <c r="AB15" s="256"/>
-      <c r="AC15" s="256"/>
-      <c r="AD15" s="256"/>
-      <c r="AE15" s="256"/>
-      <c r="AF15" s="256"/>
-      <c r="AG15" s="256"/>
-      <c r="AH15" s="256"/>
-      <c r="AI15" s="256"/>
-      <c r="AJ15" s="256"/>
-      <c r="AK15" s="256"/>
-      <c r="AL15" s="256"/>
-      <c r="AM15" s="257"/>
-      <c r="AN15" s="241"/>
-      <c r="AO15" s="242"/>
-      <c r="AP15" s="242"/>
-      <c r="AQ15" s="242"/>
-      <c r="AR15" s="243"/>
-      <c r="AS15" s="241"/>
-      <c r="AT15" s="242"/>
-      <c r="AU15" s="242"/>
-      <c r="AV15" s="242"/>
-      <c r="AW15" s="243"/>
+      <c r="B15" s="260"/>
+      <c r="C15" s="261"/>
+      <c r="D15" s="262"/>
+      <c r="E15" s="252"/>
+      <c r="F15" s="252"/>
+      <c r="G15" s="252"/>
+      <c r="H15" s="252"/>
+      <c r="I15" s="252"/>
+      <c r="J15" s="253"/>
+      <c r="K15" s="254"/>
+      <c r="L15" s="255"/>
+      <c r="M15" s="263"/>
+      <c r="N15" s="264"/>
+      <c r="O15" s="264"/>
+      <c r="P15" s="264"/>
+      <c r="Q15" s="264"/>
+      <c r="R15" s="265"/>
+      <c r="S15" s="250"/>
+      <c r="T15" s="250"/>
+      <c r="U15" s="250"/>
+      <c r="V15" s="266"/>
+      <c r="W15" s="267"/>
+      <c r="X15" s="267"/>
+      <c r="Y15" s="267"/>
+      <c r="Z15" s="267"/>
+      <c r="AA15" s="267"/>
+      <c r="AB15" s="267"/>
+      <c r="AC15" s="267"/>
+      <c r="AD15" s="267"/>
+      <c r="AE15" s="267"/>
+      <c r="AF15" s="267"/>
+      <c r="AG15" s="267"/>
+      <c r="AH15" s="267"/>
+      <c r="AI15" s="267"/>
+      <c r="AJ15" s="267"/>
+      <c r="AK15" s="267"/>
+      <c r="AL15" s="267"/>
+      <c r="AM15" s="268"/>
+      <c r="AN15" s="269"/>
+      <c r="AO15" s="270"/>
+      <c r="AP15" s="270"/>
+      <c r="AQ15" s="270"/>
+      <c r="AR15" s="271"/>
+      <c r="AS15" s="269"/>
+      <c r="AT15" s="270"/>
+      <c r="AU15" s="270"/>
+      <c r="AV15" s="270"/>
+      <c r="AW15" s="271"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
-      <c r="B16" s="244"/>
-      <c r="C16" s="245"/>
-      <c r="D16" s="246"/>
-      <c r="E16" s="247"/>
-      <c r="F16" s="247"/>
-      <c r="G16" s="247"/>
-      <c r="H16" s="247"/>
-      <c r="I16" s="247"/>
-      <c r="J16" s="248"/>
-      <c r="K16" s="249"/>
-      <c r="L16" s="250"/>
-      <c r="M16" s="261"/>
-      <c r="N16" s="259"/>
-      <c r="O16" s="259"/>
-      <c r="P16" s="259"/>
-      <c r="Q16" s="259"/>
-      <c r="R16" s="260"/>
-      <c r="S16" s="254"/>
-      <c r="T16" s="254"/>
-      <c r="U16" s="254"/>
-      <c r="V16" s="255"/>
-      <c r="W16" s="256"/>
-      <c r="X16" s="256"/>
-      <c r="Y16" s="256"/>
-      <c r="Z16" s="256"/>
-      <c r="AA16" s="256"/>
-      <c r="AB16" s="256"/>
-      <c r="AC16" s="256"/>
-      <c r="AD16" s="256"/>
-      <c r="AE16" s="256"/>
-      <c r="AF16" s="256"/>
-      <c r="AG16" s="256"/>
-      <c r="AH16" s="256"/>
-      <c r="AI16" s="256"/>
-      <c r="AJ16" s="256"/>
-      <c r="AK16" s="256"/>
-      <c r="AL16" s="256"/>
-      <c r="AM16" s="257"/>
-      <c r="AN16" s="241"/>
-      <c r="AO16" s="242"/>
-      <c r="AP16" s="242"/>
-      <c r="AQ16" s="242"/>
-      <c r="AR16" s="243"/>
-      <c r="AS16" s="241"/>
-      <c r="AT16" s="242"/>
-      <c r="AU16" s="242"/>
-      <c r="AV16" s="242"/>
-      <c r="AW16" s="243"/>
+      <c r="B16" s="260"/>
+      <c r="C16" s="261"/>
+      <c r="D16" s="262"/>
+      <c r="E16" s="252"/>
+      <c r="F16" s="252"/>
+      <c r="G16" s="252"/>
+      <c r="H16" s="252"/>
+      <c r="I16" s="252"/>
+      <c r="J16" s="253"/>
+      <c r="K16" s="254"/>
+      <c r="L16" s="255"/>
+      <c r="M16" s="263"/>
+      <c r="N16" s="264"/>
+      <c r="O16" s="264"/>
+      <c r="P16" s="264"/>
+      <c r="Q16" s="264"/>
+      <c r="R16" s="265"/>
+      <c r="S16" s="250"/>
+      <c r="T16" s="250"/>
+      <c r="U16" s="250"/>
+      <c r="V16" s="266"/>
+      <c r="W16" s="267"/>
+      <c r="X16" s="267"/>
+      <c r="Y16" s="267"/>
+      <c r="Z16" s="267"/>
+      <c r="AA16" s="267"/>
+      <c r="AB16" s="267"/>
+      <c r="AC16" s="267"/>
+      <c r="AD16" s="267"/>
+      <c r="AE16" s="267"/>
+      <c r="AF16" s="267"/>
+      <c r="AG16" s="267"/>
+      <c r="AH16" s="267"/>
+      <c r="AI16" s="267"/>
+      <c r="AJ16" s="267"/>
+      <c r="AK16" s="267"/>
+      <c r="AL16" s="267"/>
+      <c r="AM16" s="268"/>
+      <c r="AN16" s="269"/>
+      <c r="AO16" s="270"/>
+      <c r="AP16" s="270"/>
+      <c r="AQ16" s="270"/>
+      <c r="AR16" s="271"/>
+      <c r="AS16" s="269"/>
+      <c r="AT16" s="270"/>
+      <c r="AU16" s="270"/>
+      <c r="AV16" s="270"/>
+      <c r="AW16" s="271"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
-      <c r="B17" s="244"/>
-      <c r="C17" s="245"/>
-      <c r="D17" s="246"/>
-      <c r="E17" s="247"/>
-      <c r="F17" s="247"/>
-      <c r="G17" s="247"/>
-      <c r="H17" s="247"/>
-      <c r="I17" s="247"/>
-      <c r="J17" s="248"/>
-      <c r="K17" s="249"/>
-      <c r="L17" s="250"/>
-      <c r="M17" s="261"/>
-      <c r="N17" s="259"/>
-      <c r="O17" s="259"/>
-      <c r="P17" s="259"/>
-      <c r="Q17" s="259"/>
-      <c r="R17" s="262"/>
-      <c r="S17" s="263"/>
-      <c r="T17" s="263"/>
-      <c r="U17" s="263"/>
-      <c r="V17" s="255"/>
-      <c r="W17" s="256"/>
-      <c r="X17" s="256"/>
-      <c r="Y17" s="256"/>
-      <c r="Z17" s="256"/>
-      <c r="AA17" s="256"/>
-      <c r="AB17" s="256"/>
-      <c r="AC17" s="256"/>
-      <c r="AD17" s="256"/>
-      <c r="AE17" s="256"/>
-      <c r="AF17" s="256"/>
-      <c r="AG17" s="256"/>
-      <c r="AH17" s="256"/>
-      <c r="AI17" s="256"/>
-      <c r="AJ17" s="256"/>
-      <c r="AK17" s="256"/>
-      <c r="AL17" s="256"/>
-      <c r="AM17" s="257"/>
-      <c r="AN17" s="241"/>
-      <c r="AO17" s="242"/>
-      <c r="AP17" s="242"/>
-      <c r="AQ17" s="242"/>
-      <c r="AR17" s="243"/>
-      <c r="AS17" s="241"/>
-      <c r="AT17" s="242"/>
-      <c r="AU17" s="242"/>
-      <c r="AV17" s="242"/>
-      <c r="AW17" s="243"/>
+      <c r="B17" s="260"/>
+      <c r="C17" s="261"/>
+      <c r="D17" s="262"/>
+      <c r="E17" s="252"/>
+      <c r="F17" s="252"/>
+      <c r="G17" s="252"/>
+      <c r="H17" s="252"/>
+      <c r="I17" s="252"/>
+      <c r="J17" s="253"/>
+      <c r="K17" s="254"/>
+      <c r="L17" s="255"/>
+      <c r="M17" s="263"/>
+      <c r="N17" s="264"/>
+      <c r="O17" s="264"/>
+      <c r="P17" s="264"/>
+      <c r="Q17" s="264"/>
+      <c r="R17" s="276"/>
+      <c r="S17" s="277"/>
+      <c r="T17" s="277"/>
+      <c r="U17" s="277"/>
+      <c r="V17" s="266"/>
+      <c r="W17" s="267"/>
+      <c r="X17" s="267"/>
+      <c r="Y17" s="267"/>
+      <c r="Z17" s="267"/>
+      <c r="AA17" s="267"/>
+      <c r="AB17" s="267"/>
+      <c r="AC17" s="267"/>
+      <c r="AD17" s="267"/>
+      <c r="AE17" s="267"/>
+      <c r="AF17" s="267"/>
+      <c r="AG17" s="267"/>
+      <c r="AH17" s="267"/>
+      <c r="AI17" s="267"/>
+      <c r="AJ17" s="267"/>
+      <c r="AK17" s="267"/>
+      <c r="AL17" s="267"/>
+      <c r="AM17" s="268"/>
+      <c r="AN17" s="269"/>
+      <c r="AO17" s="270"/>
+      <c r="AP17" s="270"/>
+      <c r="AQ17" s="270"/>
+      <c r="AR17" s="271"/>
+      <c r="AS17" s="269"/>
+      <c r="AT17" s="270"/>
+      <c r="AU17" s="270"/>
+      <c r="AV17" s="270"/>
+      <c r="AW17" s="271"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
-      <c r="B18" s="244"/>
-      <c r="C18" s="245"/>
-      <c r="D18" s="246"/>
-      <c r="E18" s="247"/>
-      <c r="F18" s="247"/>
-      <c r="G18" s="247"/>
-      <c r="H18" s="247"/>
-      <c r="I18" s="247"/>
-      <c r="J18" s="248"/>
-      <c r="K18" s="249"/>
-      <c r="L18" s="250"/>
-      <c r="M18" s="258"/>
-      <c r="N18" s="259"/>
-      <c r="O18" s="259"/>
-      <c r="P18" s="259"/>
-      <c r="Q18" s="259"/>
-      <c r="R18" s="260"/>
-      <c r="S18" s="254"/>
-      <c r="T18" s="254"/>
-      <c r="U18" s="254"/>
-      <c r="V18" s="255"/>
-      <c r="W18" s="256"/>
-      <c r="X18" s="256"/>
-      <c r="Y18" s="256"/>
-      <c r="Z18" s="256"/>
-      <c r="AA18" s="256"/>
-      <c r="AB18" s="256"/>
-      <c r="AC18" s="256"/>
-      <c r="AD18" s="256"/>
-      <c r="AE18" s="256"/>
-      <c r="AF18" s="256"/>
-      <c r="AG18" s="256"/>
-      <c r="AH18" s="256"/>
-      <c r="AI18" s="256"/>
-      <c r="AJ18" s="256"/>
-      <c r="AK18" s="256"/>
-      <c r="AL18" s="256"/>
-      <c r="AM18" s="257"/>
-      <c r="AN18" s="241"/>
-      <c r="AO18" s="242"/>
-      <c r="AP18" s="242"/>
-      <c r="AQ18" s="242"/>
-      <c r="AR18" s="243"/>
-      <c r="AS18" s="241"/>
-      <c r="AT18" s="242"/>
-      <c r="AU18" s="242"/>
-      <c r="AV18" s="242"/>
-      <c r="AW18" s="243"/>
+      <c r="B18" s="260"/>
+      <c r="C18" s="261"/>
+      <c r="D18" s="262"/>
+      <c r="E18" s="252"/>
+      <c r="F18" s="252"/>
+      <c r="G18" s="252"/>
+      <c r="H18" s="252"/>
+      <c r="I18" s="252"/>
+      <c r="J18" s="253"/>
+      <c r="K18" s="254"/>
+      <c r="L18" s="255"/>
+      <c r="M18" s="274"/>
+      <c r="N18" s="264"/>
+      <c r="O18" s="264"/>
+      <c r="P18" s="264"/>
+      <c r="Q18" s="264"/>
+      <c r="R18" s="265"/>
+      <c r="S18" s="250"/>
+      <c r="T18" s="250"/>
+      <c r="U18" s="250"/>
+      <c r="V18" s="266"/>
+      <c r="W18" s="267"/>
+      <c r="X18" s="267"/>
+      <c r="Y18" s="267"/>
+      <c r="Z18" s="267"/>
+      <c r="AA18" s="267"/>
+      <c r="AB18" s="267"/>
+      <c r="AC18" s="267"/>
+      <c r="AD18" s="267"/>
+      <c r="AE18" s="267"/>
+      <c r="AF18" s="267"/>
+      <c r="AG18" s="267"/>
+      <c r="AH18" s="267"/>
+      <c r="AI18" s="267"/>
+      <c r="AJ18" s="267"/>
+      <c r="AK18" s="267"/>
+      <c r="AL18" s="267"/>
+      <c r="AM18" s="268"/>
+      <c r="AN18" s="269"/>
+      <c r="AO18" s="270"/>
+      <c r="AP18" s="270"/>
+      <c r="AQ18" s="270"/>
+      <c r="AR18" s="271"/>
+      <c r="AS18" s="269"/>
+      <c r="AT18" s="270"/>
+      <c r="AU18" s="270"/>
+      <c r="AV18" s="270"/>
+      <c r="AW18" s="271"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
-      <c r="B19" s="244"/>
-      <c r="C19" s="245"/>
-      <c r="D19" s="246"/>
-      <c r="E19" s="247"/>
-      <c r="F19" s="247"/>
-      <c r="G19" s="247"/>
-      <c r="H19" s="247"/>
-      <c r="I19" s="247"/>
-      <c r="J19" s="248"/>
-      <c r="K19" s="249"/>
-      <c r="L19" s="250"/>
-      <c r="M19" s="261"/>
-      <c r="N19" s="259"/>
-      <c r="O19" s="259"/>
-      <c r="P19" s="259"/>
-      <c r="Q19" s="259"/>
-      <c r="R19" s="260"/>
-      <c r="S19" s="254"/>
-      <c r="T19" s="254"/>
-      <c r="U19" s="254"/>
-      <c r="V19" s="255"/>
-      <c r="W19" s="256"/>
-      <c r="X19" s="256"/>
-      <c r="Y19" s="256"/>
-      <c r="Z19" s="256"/>
-      <c r="AA19" s="256"/>
-      <c r="AB19" s="256"/>
-      <c r="AC19" s="256"/>
-      <c r="AD19" s="256"/>
-      <c r="AE19" s="256"/>
-      <c r="AF19" s="256"/>
-      <c r="AG19" s="256"/>
-      <c r="AH19" s="256"/>
-      <c r="AI19" s="256"/>
-      <c r="AJ19" s="256"/>
-      <c r="AK19" s="256"/>
-      <c r="AL19" s="256"/>
-      <c r="AM19" s="257"/>
-      <c r="AN19" s="254"/>
-      <c r="AO19" s="254"/>
-      <c r="AP19" s="254"/>
-      <c r="AQ19" s="254"/>
-      <c r="AR19" s="254"/>
-      <c r="AS19" s="241"/>
-      <c r="AT19" s="242"/>
-      <c r="AU19" s="242"/>
-      <c r="AV19" s="242"/>
-      <c r="AW19" s="243"/>
+      <c r="B19" s="260"/>
+      <c r="C19" s="261"/>
+      <c r="D19" s="262"/>
+      <c r="E19" s="252"/>
+      <c r="F19" s="252"/>
+      <c r="G19" s="252"/>
+      <c r="H19" s="252"/>
+      <c r="I19" s="252"/>
+      <c r="J19" s="253"/>
+      <c r="K19" s="254"/>
+      <c r="L19" s="255"/>
+      <c r="M19" s="263"/>
+      <c r="N19" s="264"/>
+      <c r="O19" s="264"/>
+      <c r="P19" s="264"/>
+      <c r="Q19" s="264"/>
+      <c r="R19" s="265"/>
+      <c r="S19" s="250"/>
+      <c r="T19" s="250"/>
+      <c r="U19" s="250"/>
+      <c r="V19" s="266"/>
+      <c r="W19" s="267"/>
+      <c r="X19" s="267"/>
+      <c r="Y19" s="267"/>
+      <c r="Z19" s="267"/>
+      <c r="AA19" s="267"/>
+      <c r="AB19" s="267"/>
+      <c r="AC19" s="267"/>
+      <c r="AD19" s="267"/>
+      <c r="AE19" s="267"/>
+      <c r="AF19" s="267"/>
+      <c r="AG19" s="267"/>
+      <c r="AH19" s="267"/>
+      <c r="AI19" s="267"/>
+      <c r="AJ19" s="267"/>
+      <c r="AK19" s="267"/>
+      <c r="AL19" s="267"/>
+      <c r="AM19" s="268"/>
+      <c r="AN19" s="250"/>
+      <c r="AO19" s="250"/>
+      <c r="AP19" s="250"/>
+      <c r="AQ19" s="250"/>
+      <c r="AR19" s="250"/>
+      <c r="AS19" s="269"/>
+      <c r="AT19" s="270"/>
+      <c r="AU19" s="270"/>
+      <c r="AV19" s="270"/>
+      <c r="AW19" s="271"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
-      <c r="B20" s="244"/>
-      <c r="C20" s="245"/>
-      <c r="D20" s="246"/>
-      <c r="E20" s="247"/>
-      <c r="F20" s="247"/>
-      <c r="G20" s="247"/>
-      <c r="H20" s="247"/>
-      <c r="I20" s="247"/>
-      <c r="J20" s="248"/>
-      <c r="K20" s="249"/>
-      <c r="L20" s="250"/>
-      <c r="M20" s="261"/>
-      <c r="N20" s="259"/>
-      <c r="O20" s="259"/>
-      <c r="P20" s="259"/>
-      <c r="Q20" s="259"/>
-      <c r="R20" s="260"/>
-      <c r="S20" s="241"/>
-      <c r="T20" s="242"/>
-      <c r="U20" s="243"/>
-      <c r="V20" s="255"/>
-      <c r="W20" s="256"/>
-      <c r="X20" s="256"/>
-      <c r="Y20" s="256"/>
-      <c r="Z20" s="256"/>
-      <c r="AA20" s="256"/>
-      <c r="AB20" s="256"/>
-      <c r="AC20" s="256"/>
-      <c r="AD20" s="256"/>
-      <c r="AE20" s="256"/>
-      <c r="AF20" s="256"/>
-      <c r="AG20" s="256"/>
-      <c r="AH20" s="256"/>
-      <c r="AI20" s="256"/>
-      <c r="AJ20" s="256"/>
-      <c r="AK20" s="256"/>
-      <c r="AL20" s="256"/>
-      <c r="AM20" s="257"/>
-      <c r="AN20" s="241"/>
-      <c r="AO20" s="242"/>
-      <c r="AP20" s="242"/>
-      <c r="AQ20" s="242"/>
-      <c r="AR20" s="243"/>
-      <c r="AS20" s="241"/>
-      <c r="AT20" s="242"/>
-      <c r="AU20" s="242"/>
-      <c r="AV20" s="242"/>
-      <c r="AW20" s="243"/>
+      <c r="B20" s="260"/>
+      <c r="C20" s="261"/>
+      <c r="D20" s="262"/>
+      <c r="E20" s="252"/>
+      <c r="F20" s="252"/>
+      <c r="G20" s="252"/>
+      <c r="H20" s="252"/>
+      <c r="I20" s="252"/>
+      <c r="J20" s="253"/>
+      <c r="K20" s="254"/>
+      <c r="L20" s="255"/>
+      <c r="M20" s="263"/>
+      <c r="N20" s="264"/>
+      <c r="O20" s="264"/>
+      <c r="P20" s="264"/>
+      <c r="Q20" s="264"/>
+      <c r="R20" s="265"/>
+      <c r="S20" s="269"/>
+      <c r="T20" s="270"/>
+      <c r="U20" s="271"/>
+      <c r="V20" s="266"/>
+      <c r="W20" s="267"/>
+      <c r="X20" s="267"/>
+      <c r="Y20" s="267"/>
+      <c r="Z20" s="267"/>
+      <c r="AA20" s="267"/>
+      <c r="AB20" s="267"/>
+      <c r="AC20" s="267"/>
+      <c r="AD20" s="267"/>
+      <c r="AE20" s="267"/>
+      <c r="AF20" s="267"/>
+      <c r="AG20" s="267"/>
+      <c r="AH20" s="267"/>
+      <c r="AI20" s="267"/>
+      <c r="AJ20" s="267"/>
+      <c r="AK20" s="267"/>
+      <c r="AL20" s="267"/>
+      <c r="AM20" s="268"/>
+      <c r="AN20" s="269"/>
+      <c r="AO20" s="270"/>
+      <c r="AP20" s="270"/>
+      <c r="AQ20" s="270"/>
+      <c r="AR20" s="271"/>
+      <c r="AS20" s="269"/>
+      <c r="AT20" s="270"/>
+      <c r="AU20" s="270"/>
+      <c r="AV20" s="270"/>
+      <c r="AW20" s="271"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
-      <c r="B21" s="244"/>
-      <c r="C21" s="245"/>
-      <c r="D21" s="246"/>
-      <c r="E21" s="247"/>
-      <c r="F21" s="247"/>
-      <c r="G21" s="247"/>
-      <c r="H21" s="247"/>
-      <c r="I21" s="247"/>
-      <c r="J21" s="248"/>
-      <c r="K21" s="249"/>
-      <c r="L21" s="250"/>
-      <c r="M21" s="261"/>
-      <c r="N21" s="259"/>
-      <c r="O21" s="259"/>
-      <c r="P21" s="259"/>
-      <c r="Q21" s="259"/>
-      <c r="R21" s="260"/>
-      <c r="S21" s="254"/>
-      <c r="T21" s="254"/>
-      <c r="U21" s="254"/>
-      <c r="V21" s="255"/>
-      <c r="W21" s="256"/>
-      <c r="X21" s="256"/>
-      <c r="Y21" s="256"/>
-      <c r="Z21" s="256"/>
-      <c r="AA21" s="256"/>
-      <c r="AB21" s="256"/>
-      <c r="AC21" s="256"/>
-      <c r="AD21" s="256"/>
-      <c r="AE21" s="256"/>
-      <c r="AF21" s="256"/>
-      <c r="AG21" s="256"/>
-      <c r="AH21" s="256"/>
-      <c r="AI21" s="256"/>
-      <c r="AJ21" s="256"/>
-      <c r="AK21" s="256"/>
-      <c r="AL21" s="256"/>
-      <c r="AM21" s="257"/>
-      <c r="AN21" s="241"/>
-      <c r="AO21" s="242"/>
-      <c r="AP21" s="242"/>
-      <c r="AQ21" s="242"/>
-      <c r="AR21" s="243"/>
-      <c r="AS21" s="241"/>
-      <c r="AT21" s="242"/>
-      <c r="AU21" s="242"/>
-      <c r="AV21" s="242"/>
-      <c r="AW21" s="243"/>
+      <c r="B21" s="260"/>
+      <c r="C21" s="261"/>
+      <c r="D21" s="262"/>
+      <c r="E21" s="252"/>
+      <c r="F21" s="252"/>
+      <c r="G21" s="252"/>
+      <c r="H21" s="252"/>
+      <c r="I21" s="252"/>
+      <c r="J21" s="253"/>
+      <c r="K21" s="254"/>
+      <c r="L21" s="255"/>
+      <c r="M21" s="263"/>
+      <c r="N21" s="264"/>
+      <c r="O21" s="264"/>
+      <c r="P21" s="264"/>
+      <c r="Q21" s="264"/>
+      <c r="R21" s="265"/>
+      <c r="S21" s="250"/>
+      <c r="T21" s="250"/>
+      <c r="U21" s="250"/>
+      <c r="V21" s="266"/>
+      <c r="W21" s="267"/>
+      <c r="X21" s="267"/>
+      <c r="Y21" s="267"/>
+      <c r="Z21" s="267"/>
+      <c r="AA21" s="267"/>
+      <c r="AB21" s="267"/>
+      <c r="AC21" s="267"/>
+      <c r="AD21" s="267"/>
+      <c r="AE21" s="267"/>
+      <c r="AF21" s="267"/>
+      <c r="AG21" s="267"/>
+      <c r="AH21" s="267"/>
+      <c r="AI21" s="267"/>
+      <c r="AJ21" s="267"/>
+      <c r="AK21" s="267"/>
+      <c r="AL21" s="267"/>
+      <c r="AM21" s="268"/>
+      <c r="AN21" s="269"/>
+      <c r="AO21" s="270"/>
+      <c r="AP21" s="270"/>
+      <c r="AQ21" s="270"/>
+      <c r="AR21" s="271"/>
+      <c r="AS21" s="269"/>
+      <c r="AT21" s="270"/>
+      <c r="AU21" s="270"/>
+      <c r="AV21" s="270"/>
+      <c r="AW21" s="271"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
-      <c r="B22" s="244"/>
-      <c r="C22" s="245"/>
-      <c r="D22" s="246"/>
-      <c r="E22" s="247"/>
-      <c r="F22" s="247"/>
-      <c r="G22" s="247"/>
-      <c r="H22" s="247"/>
-      <c r="I22" s="247"/>
-      <c r="J22" s="248"/>
-      <c r="K22" s="249"/>
-      <c r="L22" s="250"/>
-      <c r="M22" s="261"/>
-      <c r="N22" s="259"/>
-      <c r="O22" s="259"/>
-      <c r="P22" s="259"/>
-      <c r="Q22" s="259"/>
-      <c r="R22" s="260"/>
-      <c r="S22" s="254"/>
-      <c r="T22" s="254"/>
-      <c r="U22" s="254"/>
-      <c r="V22" s="255"/>
-      <c r="W22" s="256"/>
-      <c r="X22" s="256"/>
-      <c r="Y22" s="256"/>
-      <c r="Z22" s="256"/>
-      <c r="AA22" s="256"/>
-      <c r="AB22" s="256"/>
-      <c r="AC22" s="256"/>
-      <c r="AD22" s="256"/>
-      <c r="AE22" s="256"/>
-      <c r="AF22" s="256"/>
-      <c r="AG22" s="256"/>
-      <c r="AH22" s="256"/>
-      <c r="AI22" s="256"/>
-      <c r="AJ22" s="256"/>
-      <c r="AK22" s="256"/>
-      <c r="AL22" s="256"/>
-      <c r="AM22" s="257"/>
-      <c r="AN22" s="241"/>
-      <c r="AO22" s="242"/>
-      <c r="AP22" s="242"/>
-      <c r="AQ22" s="242"/>
-      <c r="AR22" s="243"/>
-      <c r="AS22" s="241"/>
-      <c r="AT22" s="242"/>
-      <c r="AU22" s="242"/>
-      <c r="AV22" s="242"/>
-      <c r="AW22" s="243"/>
+      <c r="B22" s="260"/>
+      <c r="C22" s="261"/>
+      <c r="D22" s="262"/>
+      <c r="E22" s="252"/>
+      <c r="F22" s="252"/>
+      <c r="G22" s="252"/>
+      <c r="H22" s="252"/>
+      <c r="I22" s="252"/>
+      <c r="J22" s="253"/>
+      <c r="K22" s="254"/>
+      <c r="L22" s="255"/>
+      <c r="M22" s="263"/>
+      <c r="N22" s="264"/>
+      <c r="O22" s="264"/>
+      <c r="P22" s="264"/>
+      <c r="Q22" s="264"/>
+      <c r="R22" s="265"/>
+      <c r="S22" s="250"/>
+      <c r="T22" s="250"/>
+      <c r="U22" s="250"/>
+      <c r="V22" s="266"/>
+      <c r="W22" s="267"/>
+      <c r="X22" s="267"/>
+      <c r="Y22" s="267"/>
+      <c r="Z22" s="267"/>
+      <c r="AA22" s="267"/>
+      <c r="AB22" s="267"/>
+      <c r="AC22" s="267"/>
+      <c r="AD22" s="267"/>
+      <c r="AE22" s="267"/>
+      <c r="AF22" s="267"/>
+      <c r="AG22" s="267"/>
+      <c r="AH22" s="267"/>
+      <c r="AI22" s="267"/>
+      <c r="AJ22" s="267"/>
+      <c r="AK22" s="267"/>
+      <c r="AL22" s="267"/>
+      <c r="AM22" s="268"/>
+      <c r="AN22" s="269"/>
+      <c r="AO22" s="270"/>
+      <c r="AP22" s="270"/>
+      <c r="AQ22" s="270"/>
+      <c r="AR22" s="271"/>
+      <c r="AS22" s="269"/>
+      <c r="AT22" s="270"/>
+      <c r="AU22" s="270"/>
+      <c r="AV22" s="270"/>
+      <c r="AW22" s="271"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
-      <c r="B23" s="244"/>
-      <c r="C23" s="245"/>
-      <c r="D23" s="246"/>
-      <c r="E23" s="247"/>
-      <c r="F23" s="247"/>
-      <c r="G23" s="247"/>
-      <c r="H23" s="247"/>
-      <c r="I23" s="247"/>
-      <c r="J23" s="248"/>
-      <c r="K23" s="249"/>
-      <c r="L23" s="250"/>
-      <c r="M23" s="261"/>
-      <c r="N23" s="259"/>
-      <c r="O23" s="259"/>
-      <c r="P23" s="259"/>
-      <c r="Q23" s="259"/>
-      <c r="R23" s="260"/>
-      <c r="S23" s="254"/>
-      <c r="T23" s="254"/>
-      <c r="U23" s="254"/>
-      <c r="V23" s="255"/>
-      <c r="W23" s="256"/>
-      <c r="X23" s="256"/>
-      <c r="Y23" s="256"/>
-      <c r="Z23" s="256"/>
-      <c r="AA23" s="256"/>
-      <c r="AB23" s="256"/>
-      <c r="AC23" s="256"/>
-      <c r="AD23" s="256"/>
-      <c r="AE23" s="256"/>
-      <c r="AF23" s="256"/>
-      <c r="AG23" s="256"/>
-      <c r="AH23" s="256"/>
-      <c r="AI23" s="256"/>
-      <c r="AJ23" s="256"/>
-      <c r="AK23" s="256"/>
-      <c r="AL23" s="256"/>
-      <c r="AM23" s="257"/>
-      <c r="AN23" s="241"/>
-      <c r="AO23" s="242"/>
-      <c r="AP23" s="242"/>
-      <c r="AQ23" s="242"/>
-      <c r="AR23" s="243"/>
-      <c r="AS23" s="241"/>
-      <c r="AT23" s="242"/>
-      <c r="AU23" s="242"/>
-      <c r="AV23" s="242"/>
-      <c r="AW23" s="243"/>
+      <c r="B23" s="260"/>
+      <c r="C23" s="261"/>
+      <c r="D23" s="262"/>
+      <c r="E23" s="252"/>
+      <c r="F23" s="252"/>
+      <c r="G23" s="252"/>
+      <c r="H23" s="252"/>
+      <c r="I23" s="252"/>
+      <c r="J23" s="253"/>
+      <c r="K23" s="254"/>
+      <c r="L23" s="255"/>
+      <c r="M23" s="263"/>
+      <c r="N23" s="264"/>
+      <c r="O23" s="264"/>
+      <c r="P23" s="264"/>
+      <c r="Q23" s="264"/>
+      <c r="R23" s="265"/>
+      <c r="S23" s="250"/>
+      <c r="T23" s="250"/>
+      <c r="U23" s="250"/>
+      <c r="V23" s="266"/>
+      <c r="W23" s="267"/>
+      <c r="X23" s="267"/>
+      <c r="Y23" s="267"/>
+      <c r="Z23" s="267"/>
+      <c r="AA23" s="267"/>
+      <c r="AB23" s="267"/>
+      <c r="AC23" s="267"/>
+      <c r="AD23" s="267"/>
+      <c r="AE23" s="267"/>
+      <c r="AF23" s="267"/>
+      <c r="AG23" s="267"/>
+      <c r="AH23" s="267"/>
+      <c r="AI23" s="267"/>
+      <c r="AJ23" s="267"/>
+      <c r="AK23" s="267"/>
+      <c r="AL23" s="267"/>
+      <c r="AM23" s="268"/>
+      <c r="AN23" s="269"/>
+      <c r="AO23" s="270"/>
+      <c r="AP23" s="270"/>
+      <c r="AQ23" s="270"/>
+      <c r="AR23" s="271"/>
+      <c r="AS23" s="269"/>
+      <c r="AT23" s="270"/>
+      <c r="AU23" s="270"/>
+      <c r="AV23" s="270"/>
+      <c r="AW23" s="271"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
-      <c r="B24" s="244"/>
-      <c r="C24" s="245"/>
-      <c r="D24" s="246"/>
-      <c r="E24" s="247"/>
-      <c r="F24" s="247"/>
-      <c r="G24" s="247"/>
-      <c r="H24" s="247"/>
-      <c r="I24" s="247"/>
-      <c r="J24" s="248"/>
-      <c r="K24" s="249"/>
-      <c r="L24" s="250"/>
-      <c r="M24" s="261"/>
-      <c r="N24" s="259"/>
-      <c r="O24" s="259"/>
-      <c r="P24" s="259"/>
-      <c r="Q24" s="259"/>
-      <c r="R24" s="260"/>
-      <c r="S24" s="254"/>
-      <c r="T24" s="254"/>
-      <c r="U24" s="254"/>
-      <c r="V24" s="255"/>
-      <c r="W24" s="256"/>
-      <c r="X24" s="256"/>
-      <c r="Y24" s="256"/>
-      <c r="Z24" s="256"/>
-      <c r="AA24" s="256"/>
-      <c r="AB24" s="256"/>
-      <c r="AC24" s="256"/>
-      <c r="AD24" s="256"/>
-      <c r="AE24" s="256"/>
-      <c r="AF24" s="256"/>
-      <c r="AG24" s="256"/>
-      <c r="AH24" s="256"/>
-      <c r="AI24" s="256"/>
-      <c r="AJ24" s="256"/>
-      <c r="AK24" s="256"/>
-      <c r="AL24" s="256"/>
-      <c r="AM24" s="257"/>
-      <c r="AN24" s="241"/>
-      <c r="AO24" s="242"/>
-      <c r="AP24" s="242"/>
-      <c r="AQ24" s="242"/>
-      <c r="AR24" s="243"/>
-      <c r="AS24" s="241"/>
-      <c r="AT24" s="242"/>
-      <c r="AU24" s="242"/>
-      <c r="AV24" s="242"/>
-      <c r="AW24" s="243"/>
+      <c r="B24" s="260"/>
+      <c r="C24" s="261"/>
+      <c r="D24" s="262"/>
+      <c r="E24" s="252"/>
+      <c r="F24" s="252"/>
+      <c r="G24" s="252"/>
+      <c r="H24" s="252"/>
+      <c r="I24" s="252"/>
+      <c r="J24" s="253"/>
+      <c r="K24" s="254"/>
+      <c r="L24" s="255"/>
+      <c r="M24" s="263"/>
+      <c r="N24" s="264"/>
+      <c r="O24" s="264"/>
+      <c r="P24" s="264"/>
+      <c r="Q24" s="264"/>
+      <c r="R24" s="265"/>
+      <c r="S24" s="250"/>
+      <c r="T24" s="250"/>
+      <c r="U24" s="250"/>
+      <c r="V24" s="266"/>
+      <c r="W24" s="267"/>
+      <c r="X24" s="267"/>
+      <c r="Y24" s="267"/>
+      <c r="Z24" s="267"/>
+      <c r="AA24" s="267"/>
+      <c r="AB24" s="267"/>
+      <c r="AC24" s="267"/>
+      <c r="AD24" s="267"/>
+      <c r="AE24" s="267"/>
+      <c r="AF24" s="267"/>
+      <c r="AG24" s="267"/>
+      <c r="AH24" s="267"/>
+      <c r="AI24" s="267"/>
+      <c r="AJ24" s="267"/>
+      <c r="AK24" s="267"/>
+      <c r="AL24" s="267"/>
+      <c r="AM24" s="268"/>
+      <c r="AN24" s="269"/>
+      <c r="AO24" s="270"/>
+      <c r="AP24" s="270"/>
+      <c r="AQ24" s="270"/>
+      <c r="AR24" s="271"/>
+      <c r="AS24" s="269"/>
+      <c r="AT24" s="270"/>
+      <c r="AU24" s="270"/>
+      <c r="AV24" s="270"/>
+      <c r="AW24" s="271"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="54"/>
-      <c r="B25" s="244"/>
-      <c r="C25" s="245"/>
-      <c r="D25" s="246"/>
-      <c r="E25" s="247"/>
-      <c r="F25" s="247"/>
-      <c r="G25" s="247"/>
-      <c r="H25" s="247"/>
-      <c r="I25" s="247"/>
-      <c r="J25" s="248"/>
-      <c r="K25" s="249"/>
-      <c r="L25" s="250"/>
-      <c r="M25" s="258"/>
-      <c r="N25" s="259"/>
-      <c r="O25" s="259"/>
-      <c r="P25" s="259"/>
-      <c r="Q25" s="259"/>
-      <c r="R25" s="260"/>
-      <c r="S25" s="254"/>
-      <c r="T25" s="254"/>
-      <c r="U25" s="254"/>
-      <c r="V25" s="255"/>
-      <c r="W25" s="256"/>
-      <c r="X25" s="256"/>
-      <c r="Y25" s="256"/>
-      <c r="Z25" s="256"/>
-      <c r="AA25" s="256"/>
-      <c r="AB25" s="256"/>
-      <c r="AC25" s="256"/>
-      <c r="AD25" s="256"/>
-      <c r="AE25" s="256"/>
-      <c r="AF25" s="256"/>
-      <c r="AG25" s="256"/>
-      <c r="AH25" s="256"/>
-      <c r="AI25" s="256"/>
-      <c r="AJ25" s="256"/>
-      <c r="AK25" s="256"/>
-      <c r="AL25" s="256"/>
-      <c r="AM25" s="257"/>
-      <c r="AN25" s="241"/>
-      <c r="AO25" s="242"/>
-      <c r="AP25" s="242"/>
-      <c r="AQ25" s="242"/>
-      <c r="AR25" s="243"/>
-      <c r="AS25" s="241"/>
-      <c r="AT25" s="242"/>
-      <c r="AU25" s="242"/>
-      <c r="AV25" s="242"/>
-      <c r="AW25" s="243"/>
+      <c r="B25" s="260"/>
+      <c r="C25" s="261"/>
+      <c r="D25" s="262"/>
+      <c r="E25" s="252"/>
+      <c r="F25" s="252"/>
+      <c r="G25" s="252"/>
+      <c r="H25" s="252"/>
+      <c r="I25" s="252"/>
+      <c r="J25" s="253"/>
+      <c r="K25" s="254"/>
+      <c r="L25" s="255"/>
+      <c r="M25" s="274"/>
+      <c r="N25" s="264"/>
+      <c r="O25" s="264"/>
+      <c r="P25" s="264"/>
+      <c r="Q25" s="264"/>
+      <c r="R25" s="265"/>
+      <c r="S25" s="250"/>
+      <c r="T25" s="250"/>
+      <c r="U25" s="250"/>
+      <c r="V25" s="266"/>
+      <c r="W25" s="267"/>
+      <c r="X25" s="267"/>
+      <c r="Y25" s="267"/>
+      <c r="Z25" s="267"/>
+      <c r="AA25" s="267"/>
+      <c r="AB25" s="267"/>
+      <c r="AC25" s="267"/>
+      <c r="AD25" s="267"/>
+      <c r="AE25" s="267"/>
+      <c r="AF25" s="267"/>
+      <c r="AG25" s="267"/>
+      <c r="AH25" s="267"/>
+      <c r="AI25" s="267"/>
+      <c r="AJ25" s="267"/>
+      <c r="AK25" s="267"/>
+      <c r="AL25" s="267"/>
+      <c r="AM25" s="268"/>
+      <c r="AN25" s="269"/>
+      <c r="AO25" s="270"/>
+      <c r="AP25" s="270"/>
+      <c r="AQ25" s="270"/>
+      <c r="AR25" s="271"/>
+      <c r="AS25" s="269"/>
+      <c r="AT25" s="270"/>
+      <c r="AU25" s="270"/>
+      <c r="AV25" s="270"/>
+      <c r="AW25" s="271"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="54"/>
-      <c r="B26" s="244"/>
-      <c r="C26" s="245"/>
-      <c r="D26" s="246"/>
-      <c r="E26" s="247"/>
-      <c r="F26" s="247"/>
-      <c r="G26" s="247"/>
-      <c r="H26" s="247"/>
-      <c r="I26" s="247"/>
-      <c r="J26" s="248"/>
-      <c r="K26" s="249"/>
-      <c r="L26" s="250"/>
-      <c r="M26" s="258"/>
-      <c r="N26" s="259"/>
-      <c r="O26" s="259"/>
-      <c r="P26" s="259"/>
-      <c r="Q26" s="259"/>
-      <c r="R26" s="260"/>
-      <c r="S26" s="254"/>
-      <c r="T26" s="254"/>
-      <c r="U26" s="254"/>
-      <c r="V26" s="255"/>
-      <c r="W26" s="256"/>
-      <c r="X26" s="256"/>
-      <c r="Y26" s="256"/>
-      <c r="Z26" s="256"/>
-      <c r="AA26" s="256"/>
-      <c r="AB26" s="256"/>
-      <c r="AC26" s="256"/>
-      <c r="AD26" s="256"/>
-      <c r="AE26" s="256"/>
-      <c r="AF26" s="256"/>
-      <c r="AG26" s="256"/>
-      <c r="AH26" s="256"/>
-      <c r="AI26" s="256"/>
-      <c r="AJ26" s="256"/>
-      <c r="AK26" s="256"/>
-      <c r="AL26" s="256"/>
-      <c r="AM26" s="257"/>
-      <c r="AN26" s="241"/>
-      <c r="AO26" s="242"/>
-      <c r="AP26" s="242"/>
-      <c r="AQ26" s="242"/>
-      <c r="AR26" s="243"/>
-      <c r="AS26" s="241"/>
-      <c r="AT26" s="242"/>
-      <c r="AU26" s="242"/>
-      <c r="AV26" s="242"/>
-      <c r="AW26" s="243"/>
+      <c r="B26" s="260"/>
+      <c r="C26" s="261"/>
+      <c r="D26" s="262"/>
+      <c r="E26" s="252"/>
+      <c r="F26" s="252"/>
+      <c r="G26" s="252"/>
+      <c r="H26" s="252"/>
+      <c r="I26" s="252"/>
+      <c r="J26" s="253"/>
+      <c r="K26" s="254"/>
+      <c r="L26" s="255"/>
+      <c r="M26" s="274"/>
+      <c r="N26" s="264"/>
+      <c r="O26" s="264"/>
+      <c r="P26" s="264"/>
+      <c r="Q26" s="264"/>
+      <c r="R26" s="265"/>
+      <c r="S26" s="250"/>
+      <c r="T26" s="250"/>
+      <c r="U26" s="250"/>
+      <c r="V26" s="266"/>
+      <c r="W26" s="267"/>
+      <c r="X26" s="267"/>
+      <c r="Y26" s="267"/>
+      <c r="Z26" s="267"/>
+      <c r="AA26" s="267"/>
+      <c r="AB26" s="267"/>
+      <c r="AC26" s="267"/>
+      <c r="AD26" s="267"/>
+      <c r="AE26" s="267"/>
+      <c r="AF26" s="267"/>
+      <c r="AG26" s="267"/>
+      <c r="AH26" s="267"/>
+      <c r="AI26" s="267"/>
+      <c r="AJ26" s="267"/>
+      <c r="AK26" s="267"/>
+      <c r="AL26" s="267"/>
+      <c r="AM26" s="268"/>
+      <c r="AN26" s="269"/>
+      <c r="AO26" s="270"/>
+      <c r="AP26" s="270"/>
+      <c r="AQ26" s="270"/>
+      <c r="AR26" s="271"/>
+      <c r="AS26" s="269"/>
+      <c r="AT26" s="270"/>
+      <c r="AU26" s="270"/>
+      <c r="AV26" s="270"/>
+      <c r="AW26" s="271"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="54"/>
-      <c r="B27" s="244"/>
-      <c r="C27" s="245"/>
-      <c r="D27" s="246"/>
-      <c r="E27" s="247"/>
-      <c r="F27" s="247"/>
-      <c r="G27" s="247"/>
-      <c r="H27" s="247"/>
-      <c r="I27" s="247"/>
-      <c r="J27" s="248"/>
-      <c r="K27" s="249"/>
-      <c r="L27" s="250"/>
-      <c r="M27" s="258"/>
-      <c r="N27" s="259"/>
-      <c r="O27" s="259"/>
-      <c r="P27" s="259"/>
-      <c r="Q27" s="259"/>
-      <c r="R27" s="260"/>
-      <c r="S27" s="254"/>
-      <c r="T27" s="254"/>
-      <c r="U27" s="254"/>
-      <c r="V27" s="255"/>
-      <c r="W27" s="256"/>
-      <c r="X27" s="256"/>
-      <c r="Y27" s="256"/>
-      <c r="Z27" s="256"/>
-      <c r="AA27" s="256"/>
-      <c r="AB27" s="256"/>
-      <c r="AC27" s="256"/>
-      <c r="AD27" s="256"/>
-      <c r="AE27" s="256"/>
-      <c r="AF27" s="256"/>
-      <c r="AG27" s="256"/>
-      <c r="AH27" s="256"/>
-      <c r="AI27" s="256"/>
-      <c r="AJ27" s="256"/>
-      <c r="AK27" s="256"/>
-      <c r="AL27" s="256"/>
-      <c r="AM27" s="257"/>
-      <c r="AN27" s="241"/>
-      <c r="AO27" s="242"/>
-      <c r="AP27" s="242"/>
-      <c r="AQ27" s="242"/>
-      <c r="AR27" s="243"/>
-      <c r="AS27" s="241"/>
-      <c r="AT27" s="242"/>
-      <c r="AU27" s="242"/>
-      <c r="AV27" s="242"/>
-      <c r="AW27" s="243"/>
+      <c r="B27" s="260"/>
+      <c r="C27" s="261"/>
+      <c r="D27" s="262"/>
+      <c r="E27" s="252"/>
+      <c r="F27" s="252"/>
+      <c r="G27" s="252"/>
+      <c r="H27" s="252"/>
+      <c r="I27" s="252"/>
+      <c r="J27" s="253"/>
+      <c r="K27" s="254"/>
+      <c r="L27" s="255"/>
+      <c r="M27" s="274"/>
+      <c r="N27" s="264"/>
+      <c r="O27" s="264"/>
+      <c r="P27" s="264"/>
+      <c r="Q27" s="264"/>
+      <c r="R27" s="265"/>
+      <c r="S27" s="250"/>
+      <c r="T27" s="250"/>
+      <c r="U27" s="250"/>
+      <c r="V27" s="266"/>
+      <c r="W27" s="267"/>
+      <c r="X27" s="267"/>
+      <c r="Y27" s="267"/>
+      <c r="Z27" s="267"/>
+      <c r="AA27" s="267"/>
+      <c r="AB27" s="267"/>
+      <c r="AC27" s="267"/>
+      <c r="AD27" s="267"/>
+      <c r="AE27" s="267"/>
+      <c r="AF27" s="267"/>
+      <c r="AG27" s="267"/>
+      <c r="AH27" s="267"/>
+      <c r="AI27" s="267"/>
+      <c r="AJ27" s="267"/>
+      <c r="AK27" s="267"/>
+      <c r="AL27" s="267"/>
+      <c r="AM27" s="268"/>
+      <c r="AN27" s="269"/>
+      <c r="AO27" s="270"/>
+      <c r="AP27" s="270"/>
+      <c r="AQ27" s="270"/>
+      <c r="AR27" s="271"/>
+      <c r="AS27" s="269"/>
+      <c r="AT27" s="270"/>
+      <c r="AU27" s="270"/>
+      <c r="AV27" s="270"/>
+      <c r="AW27" s="271"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
-      <c r="B28" s="244"/>
-      <c r="C28" s="245"/>
-      <c r="D28" s="246"/>
-      <c r="E28" s="247"/>
-      <c r="F28" s="247"/>
-      <c r="G28" s="247"/>
-      <c r="H28" s="247"/>
-      <c r="I28" s="247"/>
-      <c r="J28" s="248"/>
-      <c r="K28" s="249"/>
-      <c r="L28" s="250"/>
-      <c r="M28" s="261"/>
-      <c r="N28" s="259"/>
-      <c r="O28" s="259"/>
-      <c r="P28" s="259"/>
-      <c r="Q28" s="259"/>
-      <c r="R28" s="260"/>
-      <c r="S28" s="254"/>
-      <c r="T28" s="254"/>
-      <c r="U28" s="254"/>
-      <c r="V28" s="255"/>
-      <c r="W28" s="256"/>
-      <c r="X28" s="256"/>
-      <c r="Y28" s="256"/>
-      <c r="Z28" s="256"/>
-      <c r="AA28" s="256"/>
-      <c r="AB28" s="256"/>
-      <c r="AC28" s="256"/>
-      <c r="AD28" s="256"/>
-      <c r="AE28" s="256"/>
-      <c r="AF28" s="256"/>
-      <c r="AG28" s="256"/>
-      <c r="AH28" s="256"/>
-      <c r="AI28" s="256"/>
-      <c r="AJ28" s="256"/>
-      <c r="AK28" s="256"/>
-      <c r="AL28" s="256"/>
-      <c r="AM28" s="257"/>
-      <c r="AN28" s="241"/>
-      <c r="AO28" s="242"/>
-      <c r="AP28" s="242"/>
-      <c r="AQ28" s="242"/>
-      <c r="AR28" s="243"/>
-      <c r="AS28" s="241"/>
-      <c r="AT28" s="242"/>
-      <c r="AU28" s="242"/>
-      <c r="AV28" s="242"/>
-      <c r="AW28" s="243"/>
+      <c r="B28" s="260"/>
+      <c r="C28" s="261"/>
+      <c r="D28" s="262"/>
+      <c r="E28" s="252"/>
+      <c r="F28" s="252"/>
+      <c r="G28" s="252"/>
+      <c r="H28" s="252"/>
+      <c r="I28" s="252"/>
+      <c r="J28" s="253"/>
+      <c r="K28" s="254"/>
+      <c r="L28" s="255"/>
+      <c r="M28" s="263"/>
+      <c r="N28" s="264"/>
+      <c r="O28" s="264"/>
+      <c r="P28" s="264"/>
+      <c r="Q28" s="264"/>
+      <c r="R28" s="265"/>
+      <c r="S28" s="250"/>
+      <c r="T28" s="250"/>
+      <c r="U28" s="250"/>
+      <c r="V28" s="266"/>
+      <c r="W28" s="267"/>
+      <c r="X28" s="267"/>
+      <c r="Y28" s="267"/>
+      <c r="Z28" s="267"/>
+      <c r="AA28" s="267"/>
+      <c r="AB28" s="267"/>
+      <c r="AC28" s="267"/>
+      <c r="AD28" s="267"/>
+      <c r="AE28" s="267"/>
+      <c r="AF28" s="267"/>
+      <c r="AG28" s="267"/>
+      <c r="AH28" s="267"/>
+      <c r="AI28" s="267"/>
+      <c r="AJ28" s="267"/>
+      <c r="AK28" s="267"/>
+      <c r="AL28" s="267"/>
+      <c r="AM28" s="268"/>
+      <c r="AN28" s="269"/>
+      <c r="AO28" s="270"/>
+      <c r="AP28" s="270"/>
+      <c r="AQ28" s="270"/>
+      <c r="AR28" s="271"/>
+      <c r="AS28" s="269"/>
+      <c r="AT28" s="270"/>
+      <c r="AU28" s="270"/>
+      <c r="AV28" s="270"/>
+      <c r="AW28" s="271"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="54"/>
-      <c r="B29" s="244"/>
-      <c r="C29" s="245"/>
-      <c r="D29" s="246"/>
-      <c r="E29" s="247"/>
-      <c r="F29" s="247"/>
-      <c r="G29" s="247"/>
-      <c r="H29" s="247"/>
-      <c r="I29" s="247"/>
-      <c r="J29" s="248"/>
-      <c r="K29" s="249"/>
-      <c r="L29" s="250"/>
-      <c r="M29" s="261"/>
-      <c r="N29" s="259"/>
-      <c r="O29" s="259"/>
-      <c r="P29" s="259"/>
-      <c r="Q29" s="259"/>
-      <c r="R29" s="260"/>
-      <c r="S29" s="254"/>
-      <c r="T29" s="254"/>
-      <c r="U29" s="254"/>
-      <c r="V29" s="255"/>
-      <c r="W29" s="256"/>
-      <c r="X29" s="256"/>
-      <c r="Y29" s="256"/>
-      <c r="Z29" s="256"/>
-      <c r="AA29" s="256"/>
-      <c r="AB29" s="256"/>
-      <c r="AC29" s="256"/>
-      <c r="AD29" s="256"/>
-      <c r="AE29" s="256"/>
-      <c r="AF29" s="256"/>
-      <c r="AG29" s="256"/>
-      <c r="AH29" s="256"/>
-      <c r="AI29" s="256"/>
-      <c r="AJ29" s="256"/>
-      <c r="AK29" s="256"/>
-      <c r="AL29" s="256"/>
-      <c r="AM29" s="257"/>
-      <c r="AN29" s="241"/>
-      <c r="AO29" s="242"/>
-      <c r="AP29" s="242"/>
-      <c r="AQ29" s="242"/>
-      <c r="AR29" s="243"/>
-      <c r="AS29" s="241"/>
-      <c r="AT29" s="242"/>
-      <c r="AU29" s="242"/>
-      <c r="AV29" s="242"/>
-      <c r="AW29" s="243"/>
+      <c r="B29" s="260"/>
+      <c r="C29" s="261"/>
+      <c r="D29" s="262"/>
+      <c r="E29" s="252"/>
+      <c r="F29" s="252"/>
+      <c r="G29" s="252"/>
+      <c r="H29" s="252"/>
+      <c r="I29" s="252"/>
+      <c r="J29" s="253"/>
+      <c r="K29" s="254"/>
+      <c r="L29" s="255"/>
+      <c r="M29" s="263"/>
+      <c r="N29" s="264"/>
+      <c r="O29" s="264"/>
+      <c r="P29" s="264"/>
+      <c r="Q29" s="264"/>
+      <c r="R29" s="265"/>
+      <c r="S29" s="250"/>
+      <c r="T29" s="250"/>
+      <c r="U29" s="250"/>
+      <c r="V29" s="266"/>
+      <c r="W29" s="267"/>
+      <c r="X29" s="267"/>
+      <c r="Y29" s="267"/>
+      <c r="Z29" s="267"/>
+      <c r="AA29" s="267"/>
+      <c r="AB29" s="267"/>
+      <c r="AC29" s="267"/>
+      <c r="AD29" s="267"/>
+      <c r="AE29" s="267"/>
+      <c r="AF29" s="267"/>
+      <c r="AG29" s="267"/>
+      <c r="AH29" s="267"/>
+      <c r="AI29" s="267"/>
+      <c r="AJ29" s="267"/>
+      <c r="AK29" s="267"/>
+      <c r="AL29" s="267"/>
+      <c r="AM29" s="268"/>
+      <c r="AN29" s="269"/>
+      <c r="AO29" s="270"/>
+      <c r="AP29" s="270"/>
+      <c r="AQ29" s="270"/>
+      <c r="AR29" s="271"/>
+      <c r="AS29" s="269"/>
+      <c r="AT29" s="270"/>
+      <c r="AU29" s="270"/>
+      <c r="AV29" s="270"/>
+      <c r="AW29" s="271"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
-      <c r="B30" s="244"/>
-      <c r="C30" s="245"/>
-      <c r="D30" s="246"/>
-      <c r="E30" s="247"/>
-      <c r="F30" s="247"/>
-      <c r="G30" s="247"/>
-      <c r="H30" s="247"/>
-      <c r="I30" s="247"/>
-      <c r="J30" s="248"/>
-      <c r="K30" s="249"/>
-      <c r="L30" s="250"/>
-      <c r="M30" s="258"/>
-      <c r="N30" s="259"/>
-      <c r="O30" s="259"/>
-      <c r="P30" s="259"/>
-      <c r="Q30" s="259"/>
-      <c r="R30" s="260"/>
-      <c r="S30" s="254"/>
-      <c r="T30" s="254"/>
-      <c r="U30" s="254"/>
-      <c r="V30" s="255"/>
-      <c r="W30" s="256"/>
-      <c r="X30" s="256"/>
-      <c r="Y30" s="256"/>
-      <c r="Z30" s="256"/>
-      <c r="AA30" s="256"/>
-      <c r="AB30" s="256"/>
-      <c r="AC30" s="256"/>
-      <c r="AD30" s="256"/>
-      <c r="AE30" s="256"/>
-      <c r="AF30" s="256"/>
-      <c r="AG30" s="256"/>
-      <c r="AH30" s="256"/>
-      <c r="AI30" s="256"/>
-      <c r="AJ30" s="256"/>
-      <c r="AK30" s="256"/>
-      <c r="AL30" s="256"/>
-      <c r="AM30" s="257"/>
-      <c r="AN30" s="241"/>
-      <c r="AO30" s="242"/>
-      <c r="AP30" s="242"/>
-      <c r="AQ30" s="242"/>
-      <c r="AR30" s="243"/>
-      <c r="AS30" s="241"/>
-      <c r="AT30" s="242"/>
-      <c r="AU30" s="242"/>
-      <c r="AV30" s="242"/>
-      <c r="AW30" s="243"/>
+      <c r="B30" s="260"/>
+      <c r="C30" s="261"/>
+      <c r="D30" s="262"/>
+      <c r="E30" s="252"/>
+      <c r="F30" s="252"/>
+      <c r="G30" s="252"/>
+      <c r="H30" s="252"/>
+      <c r="I30" s="252"/>
+      <c r="J30" s="253"/>
+      <c r="K30" s="254"/>
+      <c r="L30" s="255"/>
+      <c r="M30" s="274"/>
+      <c r="N30" s="264"/>
+      <c r="O30" s="264"/>
+      <c r="P30" s="264"/>
+      <c r="Q30" s="264"/>
+      <c r="R30" s="265"/>
+      <c r="S30" s="250"/>
+      <c r="T30" s="250"/>
+      <c r="U30" s="250"/>
+      <c r="V30" s="266"/>
+      <c r="W30" s="267"/>
+      <c r="X30" s="267"/>
+      <c r="Y30" s="267"/>
+      <c r="Z30" s="267"/>
+      <c r="AA30" s="267"/>
+      <c r="AB30" s="267"/>
+      <c r="AC30" s="267"/>
+      <c r="AD30" s="267"/>
+      <c r="AE30" s="267"/>
+      <c r="AF30" s="267"/>
+      <c r="AG30" s="267"/>
+      <c r="AH30" s="267"/>
+      <c r="AI30" s="267"/>
+      <c r="AJ30" s="267"/>
+      <c r="AK30" s="267"/>
+      <c r="AL30" s="267"/>
+      <c r="AM30" s="268"/>
+      <c r="AN30" s="269"/>
+      <c r="AO30" s="270"/>
+      <c r="AP30" s="270"/>
+      <c r="AQ30" s="270"/>
+      <c r="AR30" s="271"/>
+      <c r="AS30" s="269"/>
+      <c r="AT30" s="270"/>
+      <c r="AU30" s="270"/>
+      <c r="AV30" s="270"/>
+      <c r="AW30" s="271"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
-      <c r="B31" s="244"/>
-      <c r="C31" s="245"/>
-      <c r="D31" s="246"/>
-      <c r="E31" s="247"/>
-      <c r="F31" s="247"/>
-      <c r="G31" s="247"/>
-      <c r="H31" s="247"/>
-      <c r="I31" s="247"/>
-      <c r="J31" s="248"/>
-      <c r="K31" s="249"/>
-      <c r="L31" s="250"/>
-      <c r="M31" s="258"/>
-      <c r="N31" s="259"/>
-      <c r="O31" s="259"/>
-      <c r="P31" s="259"/>
-      <c r="Q31" s="259"/>
-      <c r="R31" s="260"/>
-      <c r="S31" s="254"/>
-      <c r="T31" s="254"/>
-      <c r="U31" s="254"/>
-      <c r="V31" s="255"/>
-      <c r="W31" s="256"/>
-      <c r="X31" s="256"/>
-      <c r="Y31" s="256"/>
-      <c r="Z31" s="256"/>
-      <c r="AA31" s="256"/>
-      <c r="AB31" s="256"/>
-      <c r="AC31" s="256"/>
-      <c r="AD31" s="256"/>
-      <c r="AE31" s="256"/>
-      <c r="AF31" s="256"/>
-      <c r="AG31" s="256"/>
-      <c r="AH31" s="256"/>
-      <c r="AI31" s="256"/>
-      <c r="AJ31" s="256"/>
-      <c r="AK31" s="256"/>
-      <c r="AL31" s="256"/>
-      <c r="AM31" s="257"/>
-      <c r="AN31" s="241"/>
-      <c r="AO31" s="242"/>
-      <c r="AP31" s="242"/>
-      <c r="AQ31" s="242"/>
-      <c r="AR31" s="243"/>
-      <c r="AS31" s="241"/>
-      <c r="AT31" s="242"/>
-      <c r="AU31" s="242"/>
-      <c r="AV31" s="242"/>
-      <c r="AW31" s="243"/>
+      <c r="B31" s="260"/>
+      <c r="C31" s="261"/>
+      <c r="D31" s="262"/>
+      <c r="E31" s="252"/>
+      <c r="F31" s="252"/>
+      <c r="G31" s="252"/>
+      <c r="H31" s="252"/>
+      <c r="I31" s="252"/>
+      <c r="J31" s="253"/>
+      <c r="K31" s="254"/>
+      <c r="L31" s="255"/>
+      <c r="M31" s="274"/>
+      <c r="N31" s="264"/>
+      <c r="O31" s="264"/>
+      <c r="P31" s="264"/>
+      <c r="Q31" s="264"/>
+      <c r="R31" s="265"/>
+      <c r="S31" s="250"/>
+      <c r="T31" s="250"/>
+      <c r="U31" s="250"/>
+      <c r="V31" s="266"/>
+      <c r="W31" s="267"/>
+      <c r="X31" s="267"/>
+      <c r="Y31" s="267"/>
+      <c r="Z31" s="267"/>
+      <c r="AA31" s="267"/>
+      <c r="AB31" s="267"/>
+      <c r="AC31" s="267"/>
+      <c r="AD31" s="267"/>
+      <c r="AE31" s="267"/>
+      <c r="AF31" s="267"/>
+      <c r="AG31" s="267"/>
+      <c r="AH31" s="267"/>
+      <c r="AI31" s="267"/>
+      <c r="AJ31" s="267"/>
+      <c r="AK31" s="267"/>
+      <c r="AL31" s="267"/>
+      <c r="AM31" s="268"/>
+      <c r="AN31" s="269"/>
+      <c r="AO31" s="270"/>
+      <c r="AP31" s="270"/>
+      <c r="AQ31" s="270"/>
+      <c r="AR31" s="271"/>
+      <c r="AS31" s="269"/>
+      <c r="AT31" s="270"/>
+      <c r="AU31" s="270"/>
+      <c r="AV31" s="270"/>
+      <c r="AW31" s="271"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
-      <c r="B32" s="244"/>
-      <c r="C32" s="245"/>
-      <c r="D32" s="246"/>
-      <c r="E32" s="247"/>
-      <c r="F32" s="247"/>
-      <c r="G32" s="247"/>
-      <c r="H32" s="247"/>
-      <c r="I32" s="247"/>
-      <c r="J32" s="248"/>
-      <c r="K32" s="249"/>
-      <c r="L32" s="250"/>
-      <c r="M32" s="258"/>
-      <c r="N32" s="259"/>
-      <c r="O32" s="259"/>
-      <c r="P32" s="259"/>
-      <c r="Q32" s="259"/>
-      <c r="R32" s="260"/>
-      <c r="S32" s="254"/>
-      <c r="T32" s="254"/>
-      <c r="U32" s="254"/>
-      <c r="V32" s="255"/>
-      <c r="W32" s="256"/>
-      <c r="X32" s="256"/>
-      <c r="Y32" s="256"/>
-      <c r="Z32" s="256"/>
-      <c r="AA32" s="256"/>
-      <c r="AB32" s="256"/>
-      <c r="AC32" s="256"/>
-      <c r="AD32" s="256"/>
-      <c r="AE32" s="256"/>
-      <c r="AF32" s="256"/>
-      <c r="AG32" s="256"/>
-      <c r="AH32" s="256"/>
-      <c r="AI32" s="256"/>
-      <c r="AJ32" s="256"/>
-      <c r="AK32" s="256"/>
-      <c r="AL32" s="256"/>
-      <c r="AM32" s="257"/>
-      <c r="AN32" s="241"/>
-      <c r="AO32" s="242"/>
-      <c r="AP32" s="242"/>
-      <c r="AQ32" s="242"/>
-      <c r="AR32" s="243"/>
-      <c r="AS32" s="241"/>
-      <c r="AT32" s="242"/>
-      <c r="AU32" s="242"/>
-      <c r="AV32" s="242"/>
-      <c r="AW32" s="243"/>
+      <c r="B32" s="260"/>
+      <c r="C32" s="261"/>
+      <c r="D32" s="262"/>
+      <c r="E32" s="252"/>
+      <c r="F32" s="252"/>
+      <c r="G32" s="252"/>
+      <c r="H32" s="252"/>
+      <c r="I32" s="252"/>
+      <c r="J32" s="253"/>
+      <c r="K32" s="254"/>
+      <c r="L32" s="255"/>
+      <c r="M32" s="274"/>
+      <c r="N32" s="264"/>
+      <c r="O32" s="264"/>
+      <c r="P32" s="264"/>
+      <c r="Q32" s="264"/>
+      <c r="R32" s="265"/>
+      <c r="S32" s="250"/>
+      <c r="T32" s="250"/>
+      <c r="U32" s="250"/>
+      <c r="V32" s="266"/>
+      <c r="W32" s="267"/>
+      <c r="X32" s="267"/>
+      <c r="Y32" s="267"/>
+      <c r="Z32" s="267"/>
+      <c r="AA32" s="267"/>
+      <c r="AB32" s="267"/>
+      <c r="AC32" s="267"/>
+      <c r="AD32" s="267"/>
+      <c r="AE32" s="267"/>
+      <c r="AF32" s="267"/>
+      <c r="AG32" s="267"/>
+      <c r="AH32" s="267"/>
+      <c r="AI32" s="267"/>
+      <c r="AJ32" s="267"/>
+      <c r="AK32" s="267"/>
+      <c r="AL32" s="267"/>
+      <c r="AM32" s="268"/>
+      <c r="AN32" s="269"/>
+      <c r="AO32" s="270"/>
+      <c r="AP32" s="270"/>
+      <c r="AQ32" s="270"/>
+      <c r="AR32" s="271"/>
+      <c r="AS32" s="269"/>
+      <c r="AT32" s="270"/>
+      <c r="AU32" s="270"/>
+      <c r="AV32" s="270"/>
+      <c r="AW32" s="271"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="244"/>
-      <c r="C33" s="245"/>
-      <c r="D33" s="246"/>
-      <c r="E33" s="247"/>
-      <c r="F33" s="247"/>
-      <c r="G33" s="247"/>
-      <c r="H33" s="247"/>
-      <c r="I33" s="247"/>
-      <c r="J33" s="248"/>
-      <c r="K33" s="249"/>
-      <c r="L33" s="250"/>
-      <c r="M33" s="258"/>
-      <c r="N33" s="259"/>
-      <c r="O33" s="259"/>
-      <c r="P33" s="259"/>
-      <c r="Q33" s="259"/>
-      <c r="R33" s="260"/>
-      <c r="S33" s="254"/>
-      <c r="T33" s="254"/>
-      <c r="U33" s="254"/>
-      <c r="V33" s="255"/>
-      <c r="W33" s="256"/>
-      <c r="X33" s="256"/>
-      <c r="Y33" s="256"/>
-      <c r="Z33" s="256"/>
-      <c r="AA33" s="256"/>
-      <c r="AB33" s="256"/>
-      <c r="AC33" s="256"/>
-      <c r="AD33" s="256"/>
-      <c r="AE33" s="256"/>
-      <c r="AF33" s="256"/>
-      <c r="AG33" s="256"/>
-      <c r="AH33" s="256"/>
-      <c r="AI33" s="256"/>
-      <c r="AJ33" s="256"/>
-      <c r="AK33" s="256"/>
-      <c r="AL33" s="256"/>
-      <c r="AM33" s="257"/>
-      <c r="AN33" s="241"/>
-      <c r="AO33" s="242"/>
-      <c r="AP33" s="242"/>
-      <c r="AQ33" s="242"/>
-      <c r="AR33" s="243"/>
-      <c r="AS33" s="241"/>
-      <c r="AT33" s="242"/>
-      <c r="AU33" s="242"/>
-      <c r="AV33" s="242"/>
-      <c r="AW33" s="243"/>
+      <c r="B33" s="260"/>
+      <c r="C33" s="261"/>
+      <c r="D33" s="262"/>
+      <c r="E33" s="252"/>
+      <c r="F33" s="252"/>
+      <c r="G33" s="252"/>
+      <c r="H33" s="252"/>
+      <c r="I33" s="252"/>
+      <c r="J33" s="253"/>
+      <c r="K33" s="254"/>
+      <c r="L33" s="255"/>
+      <c r="M33" s="274"/>
+      <c r="N33" s="264"/>
+      <c r="O33" s="264"/>
+      <c r="P33" s="264"/>
+      <c r="Q33" s="264"/>
+      <c r="R33" s="265"/>
+      <c r="S33" s="250"/>
+      <c r="T33" s="250"/>
+      <c r="U33" s="250"/>
+      <c r="V33" s="266"/>
+      <c r="W33" s="267"/>
+      <c r="X33" s="267"/>
+      <c r="Y33" s="267"/>
+      <c r="Z33" s="267"/>
+      <c r="AA33" s="267"/>
+      <c r="AB33" s="267"/>
+      <c r="AC33" s="267"/>
+      <c r="AD33" s="267"/>
+      <c r="AE33" s="267"/>
+      <c r="AF33" s="267"/>
+      <c r="AG33" s="267"/>
+      <c r="AH33" s="267"/>
+      <c r="AI33" s="267"/>
+      <c r="AJ33" s="267"/>
+      <c r="AK33" s="267"/>
+      <c r="AL33" s="267"/>
+      <c r="AM33" s="268"/>
+      <c r="AN33" s="269"/>
+      <c r="AO33" s="270"/>
+      <c r="AP33" s="270"/>
+      <c r="AQ33" s="270"/>
+      <c r="AR33" s="271"/>
+      <c r="AS33" s="269"/>
+      <c r="AT33" s="270"/>
+      <c r="AU33" s="270"/>
+      <c r="AV33" s="270"/>
+      <c r="AW33" s="271"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="244"/>
-      <c r="C34" s="245"/>
-      <c r="D34" s="246"/>
-      <c r="E34" s="247"/>
-      <c r="F34" s="247"/>
-      <c r="G34" s="247"/>
-      <c r="H34" s="247"/>
-      <c r="I34" s="247"/>
-      <c r="J34" s="248"/>
-      <c r="K34" s="249"/>
-      <c r="L34" s="250"/>
-      <c r="M34" s="251"/>
-      <c r="N34" s="252"/>
-      <c r="O34" s="252"/>
-      <c r="P34" s="252"/>
-      <c r="Q34" s="252"/>
-      <c r="R34" s="253"/>
-      <c r="S34" s="254"/>
-      <c r="T34" s="254"/>
-      <c r="U34" s="254"/>
-      <c r="V34" s="255"/>
-      <c r="W34" s="256"/>
-      <c r="X34" s="256"/>
-      <c r="Y34" s="256"/>
-      <c r="Z34" s="256"/>
-      <c r="AA34" s="256"/>
-      <c r="AB34" s="256"/>
-      <c r="AC34" s="256"/>
-      <c r="AD34" s="256"/>
-      <c r="AE34" s="256"/>
-      <c r="AF34" s="256"/>
-      <c r="AG34" s="256"/>
-      <c r="AH34" s="256"/>
-      <c r="AI34" s="256"/>
-      <c r="AJ34" s="256"/>
-      <c r="AK34" s="256"/>
-      <c r="AL34" s="256"/>
-      <c r="AM34" s="257"/>
-      <c r="AN34" s="241"/>
-      <c r="AO34" s="242"/>
-      <c r="AP34" s="242"/>
-      <c r="AQ34" s="242"/>
-      <c r="AR34" s="243"/>
-      <c r="AS34" s="241"/>
-      <c r="AT34" s="242"/>
-      <c r="AU34" s="242"/>
-      <c r="AV34" s="242"/>
-      <c r="AW34" s="243"/>
+      <c r="B34" s="260"/>
+      <c r="C34" s="261"/>
+      <c r="D34" s="262"/>
+      <c r="E34" s="252"/>
+      <c r="F34" s="252"/>
+      <c r="G34" s="252"/>
+      <c r="H34" s="252"/>
+      <c r="I34" s="252"/>
+      <c r="J34" s="253"/>
+      <c r="K34" s="254"/>
+      <c r="L34" s="255"/>
+      <c r="M34" s="278"/>
+      <c r="N34" s="279"/>
+      <c r="O34" s="279"/>
+      <c r="P34" s="279"/>
+      <c r="Q34" s="279"/>
+      <c r="R34" s="280"/>
+      <c r="S34" s="250"/>
+      <c r="T34" s="250"/>
+      <c r="U34" s="250"/>
+      <c r="V34" s="266"/>
+      <c r="W34" s="267"/>
+      <c r="X34" s="267"/>
+      <c r="Y34" s="267"/>
+      <c r="Z34" s="267"/>
+      <c r="AA34" s="267"/>
+      <c r="AB34" s="267"/>
+      <c r="AC34" s="267"/>
+      <c r="AD34" s="267"/>
+      <c r="AE34" s="267"/>
+      <c r="AF34" s="267"/>
+      <c r="AG34" s="267"/>
+      <c r="AH34" s="267"/>
+      <c r="AI34" s="267"/>
+      <c r="AJ34" s="267"/>
+      <c r="AK34" s="267"/>
+      <c r="AL34" s="267"/>
+      <c r="AM34" s="268"/>
+      <c r="AN34" s="269"/>
+      <c r="AO34" s="270"/>
+      <c r="AP34" s="270"/>
+      <c r="AQ34" s="270"/>
+      <c r="AR34" s="271"/>
+      <c r="AS34" s="269"/>
+      <c r="AT34" s="270"/>
+      <c r="AU34" s="270"/>
+      <c r="AV34" s="270"/>
+      <c r="AW34" s="271"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -8816,230 +9042,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9199,11 +9210,11 @@
       <c r="AL2" s="35"/>
       <c r="AM2" s="35"/>
       <c r="AN2" s="36"/>
-      <c r="AO2" s="285"/>
-      <c r="AP2" s="286"/>
-      <c r="AQ2" s="286"/>
-      <c r="AR2" s="286"/>
-      <c r="AS2" s="287"/>
+      <c r="AO2" s="281"/>
+      <c r="AP2" s="282"/>
+      <c r="AQ2" s="282"/>
+      <c r="AR2" s="282"/>
+      <c r="AS2" s="283"/>
       <c r="AT2" s="34" t="s">
         <v>26</v>
       </c>
@@ -9212,14 +9223,14 @@
       <c r="AW2" s="35"/>
       <c r="AX2" s="35"/>
       <c r="AY2" s="36"/>
-      <c r="AZ2" s="288"/>
-      <c r="BA2" s="289"/>
-      <c r="BB2" s="289"/>
-      <c r="BC2" s="289"/>
-      <c r="BD2" s="289"/>
-      <c r="BE2" s="289"/>
-      <c r="BF2" s="289"/>
-      <c r="BG2" s="290"/>
+      <c r="AZ2" s="284"/>
+      <c r="BA2" s="285"/>
+      <c r="BB2" s="285"/>
+      <c r="BC2" s="285"/>
+      <c r="BD2" s="285"/>
+      <c r="BE2" s="285"/>
+      <c r="BF2" s="285"/>
+      <c r="BG2" s="286"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="33"/>
@@ -10968,10 +10979,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="29"/>
-      <c r="B50" s="291" t="s">
+      <c r="B50" s="289" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="292"/>
+      <c r="C50" s="290"/>
       <c r="D50" s="87" t="s">
         <v>90</v>
       </c>
@@ -11054,10 +11065,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="29"/>
-      <c r="B51" s="281">
+      <c r="B51" s="291">
         <v>1</v>
       </c>
-      <c r="C51" s="282"/>
+      <c r="C51" s="292"/>
       <c r="D51" s="81" t="s">
         <v>109</v>
       </c>
@@ -11089,16 +11100,16 @@
       <c r="AB51" s="85"/>
       <c r="AC51" s="85"/>
       <c r="AD51" s="86"/>
-      <c r="AE51" s="283" t="s">
+      <c r="AE51" s="287" t="s">
         <v>99</v>
       </c>
-      <c r="AF51" s="284"/>
-      <c r="AG51" s="283"/>
-      <c r="AH51" s="284"/>
-      <c r="AI51" s="283"/>
-      <c r="AJ51" s="284"/>
-      <c r="AK51" s="283"/>
-      <c r="AL51" s="284"/>
+      <c r="AF51" s="288"/>
+      <c r="AG51" s="287"/>
+      <c r="AH51" s="288"/>
+      <c r="AI51" s="287"/>
+      <c r="AJ51" s="288"/>
+      <c r="AK51" s="287"/>
+      <c r="AL51" s="288"/>
       <c r="AM51" s="82" t="s">
         <v>227</v>
       </c>
@@ -11132,10 +11143,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="29"/>
-      <c r="B52" s="281">
+      <c r="B52" s="291">
         <v>2</v>
       </c>
-      <c r="C52" s="282"/>
+      <c r="C52" s="292"/>
       <c r="D52" s="108" t="s">
         <v>109</v>
       </c>
@@ -11167,16 +11178,16 @@
       <c r="AB52" s="85"/>
       <c r="AC52" s="85"/>
       <c r="AD52" s="109"/>
-      <c r="AE52" s="283" t="s">
+      <c r="AE52" s="287" t="s">
         <v>99</v>
       </c>
-      <c r="AF52" s="284"/>
-      <c r="AG52" s="283"/>
-      <c r="AH52" s="284"/>
-      <c r="AI52" s="283"/>
-      <c r="AJ52" s="284"/>
-      <c r="AK52" s="283"/>
-      <c r="AL52" s="284"/>
+      <c r="AF52" s="288"/>
+      <c r="AG52" s="287"/>
+      <c r="AH52" s="288"/>
+      <c r="AI52" s="287"/>
+      <c r="AJ52" s="288"/>
+      <c r="AK52" s="287"/>
+      <c r="AL52" s="288"/>
       <c r="AM52" s="82" t="s">
         <v>115</v>
       </c>
@@ -11210,10 +11221,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="29"/>
-      <c r="B53" s="281">
+      <c r="B53" s="291">
         <v>3</v>
       </c>
-      <c r="C53" s="282"/>
+      <c r="C53" s="292"/>
       <c r="D53" s="108" t="s">
         <v>109</v>
       </c>
@@ -11245,16 +11256,16 @@
       <c r="AB53" s="85"/>
       <c r="AC53" s="85"/>
       <c r="AD53" s="109"/>
-      <c r="AE53" s="283" t="s">
+      <c r="AE53" s="287" t="s">
         <v>99</v>
       </c>
-      <c r="AF53" s="284"/>
-      <c r="AG53" s="283"/>
-      <c r="AH53" s="284"/>
-      <c r="AI53" s="283"/>
-      <c r="AJ53" s="284"/>
-      <c r="AK53" s="283"/>
-      <c r="AL53" s="284"/>
+      <c r="AF53" s="288"/>
+      <c r="AG53" s="287"/>
+      <c r="AH53" s="288"/>
+      <c r="AI53" s="287"/>
+      <c r="AJ53" s="288"/>
+      <c r="AK53" s="287"/>
+      <c r="AL53" s="288"/>
       <c r="AM53" s="82" t="s">
         <v>228</v>
       </c>
@@ -11288,10 +11299,10 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="29"/>
-      <c r="B54" s="281">
+      <c r="B54" s="291">
         <v>4</v>
       </c>
-      <c r="C54" s="282"/>
+      <c r="C54" s="292"/>
       <c r="D54" s="108" t="s">
         <v>110</v>
       </c>
@@ -11323,16 +11334,16 @@
       <c r="AB54" s="85"/>
       <c r="AC54" s="85"/>
       <c r="AD54" s="109"/>
-      <c r="AE54" s="283" t="s">
+      <c r="AE54" s="287" t="s">
         <v>99</v>
       </c>
-      <c r="AF54" s="284"/>
-      <c r="AG54" s="283"/>
-      <c r="AH54" s="284"/>
-      <c r="AI54" s="283"/>
-      <c r="AJ54" s="284"/>
-      <c r="AK54" s="283"/>
-      <c r="AL54" s="284"/>
+      <c r="AF54" s="288"/>
+      <c r="AG54" s="287"/>
+      <c r="AH54" s="288"/>
+      <c r="AI54" s="287"/>
+      <c r="AJ54" s="288"/>
+      <c r="AK54" s="287"/>
+      <c r="AL54" s="288"/>
       <c r="AM54" s="82" t="s">
         <v>116</v>
       </c>
@@ -11366,10 +11377,10 @@
     </row>
     <row r="55" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A55" s="29"/>
-      <c r="B55" s="281">
+      <c r="B55" s="291">
         <v>5</v>
       </c>
-      <c r="C55" s="282"/>
+      <c r="C55" s="292"/>
       <c r="D55" s="108" t="s">
         <v>110</v>
       </c>
@@ -11401,16 +11412,16 @@
       <c r="AB55" s="85"/>
       <c r="AC55" s="85"/>
       <c r="AD55" s="109"/>
-      <c r="AE55" s="283" t="s">
+      <c r="AE55" s="287" t="s">
         <v>99</v>
       </c>
-      <c r="AF55" s="284"/>
-      <c r="AG55" s="283"/>
-      <c r="AH55" s="284"/>
-      <c r="AI55" s="283"/>
-      <c r="AJ55" s="284"/>
-      <c r="AK55" s="283"/>
-      <c r="AL55" s="284"/>
+      <c r="AF55" s="288"/>
+      <c r="AG55" s="287"/>
+      <c r="AH55" s="288"/>
+      <c r="AI55" s="287"/>
+      <c r="AJ55" s="288"/>
+      <c r="AK55" s="287"/>
+      <c r="AL55" s="288"/>
       <c r="AM55" s="82" t="s">
         <v>117</v>
       </c>
@@ -11444,10 +11455,10 @@
     </row>
     <row r="56" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A56" s="29"/>
-      <c r="B56" s="281">
+      <c r="B56" s="291">
         <v>6</v>
       </c>
-      <c r="C56" s="282"/>
+      <c r="C56" s="292"/>
       <c r="D56" s="108" t="s">
         <v>110</v>
       </c>
@@ -11479,16 +11490,16 @@
       <c r="AB56" s="85"/>
       <c r="AC56" s="85"/>
       <c r="AD56" s="109"/>
-      <c r="AE56" s="283" t="s">
+      <c r="AE56" s="287" t="s">
         <v>99</v>
       </c>
-      <c r="AF56" s="284"/>
-      <c r="AG56" s="283"/>
-      <c r="AH56" s="284"/>
-      <c r="AI56" s="283"/>
-      <c r="AJ56" s="284"/>
-      <c r="AK56" s="283"/>
-      <c r="AL56" s="284"/>
+      <c r="AF56" s="288"/>
+      <c r="AG56" s="287"/>
+      <c r="AH56" s="288"/>
+      <c r="AI56" s="287"/>
+      <c r="AJ56" s="288"/>
+      <c r="AK56" s="287"/>
+      <c r="AL56" s="288"/>
       <c r="AM56" s="82" t="s">
         <v>118</v>
       </c>
@@ -11522,10 +11533,10 @@
     </row>
     <row r="57" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A57" s="29"/>
-      <c r="B57" s="281">
+      <c r="B57" s="291">
         <v>7</v>
       </c>
-      <c r="C57" s="282"/>
+      <c r="C57" s="292"/>
       <c r="D57" s="108" t="s">
         <v>110</v>
       </c>
@@ -11557,16 +11568,16 @@
       <c r="AB57" s="85"/>
       <c r="AC57" s="85"/>
       <c r="AD57" s="109"/>
-      <c r="AE57" s="283" t="s">
+      <c r="AE57" s="287" t="s">
         <v>99</v>
       </c>
-      <c r="AF57" s="284"/>
-      <c r="AG57" s="283"/>
-      <c r="AH57" s="284"/>
-      <c r="AI57" s="283"/>
-      <c r="AJ57" s="284"/>
-      <c r="AK57" s="283"/>
-      <c r="AL57" s="284"/>
+      <c r="AF57" s="288"/>
+      <c r="AG57" s="287"/>
+      <c r="AH57" s="288"/>
+      <c r="AI57" s="287"/>
+      <c r="AJ57" s="288"/>
+      <c r="AK57" s="287"/>
+      <c r="AL57" s="288"/>
       <c r="AM57" s="82" t="s">
         <v>119</v>
       </c>
@@ -11605,6 +11616,36 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="AE56:AF56"/>
+    <mergeCell ref="AG56:AH56"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AI56:AJ56"/>
+    <mergeCell ref="AK56:AL56"/>
+    <mergeCell ref="AE55:AF55"/>
+    <mergeCell ref="AG55:AH55"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AK55:AL55"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="AE57:AF57"/>
+    <mergeCell ref="AG57:AH57"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AK57:AL57"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK51:AL51"/>
@@ -11613,36 +11654,6 @@
     <mergeCell ref="AI51:AJ51"/>
     <mergeCell ref="AE51:AF51"/>
     <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="AE57:AF57"/>
-    <mergeCell ref="AG57:AH57"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="AK57:AL57"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="AI56:AJ56"/>
-    <mergeCell ref="AK56:AL56"/>
-    <mergeCell ref="AE55:AF55"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="AK55:AL55"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="AE56:AF56"/>
-    <mergeCell ref="AG56:AH56"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11788,7 +11799,7 @@
       <c r="CR1" s="35"/>
       <c r="CS1" s="35"/>
       <c r="CT1" s="36"/>
-      <c r="CU1" s="288" t="str">
+      <c r="CU1" s="284" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -11919,7 +11930,7 @@
       <c r="CR2" s="35"/>
       <c r="CS2" s="35"/>
       <c r="CT2" s="36"/>
-      <c r="CU2" s="288"/>
+      <c r="CU2" s="284"/>
       <c r="CV2" s="293"/>
       <c r="CW2" s="293"/>
       <c r="CX2" s="293"/>
@@ -12136,22 +12147,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="274" t="s">
+      <c r="C6" s="243" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="274" t="s">
+      <c r="D6" s="243" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="274" t="s">
+      <c r="E6" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="274" t="s">
+      <c r="F6" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="274" t="s">
+      <c r="G6" s="243" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="274" t="s">
+      <c r="H6" s="243" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="302" t="s">
@@ -12160,13 +12171,13 @@
       <c r="J6" s="302" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="274" t="s">
+      <c r="K6" s="243" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="274" t="s">
+      <c r="L6" s="243" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="274" t="s">
+      <c r="M6" s="243" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="73" t="s">
@@ -12181,17 +12192,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="274"/>
-      <c r="D7" s="274"/>
-      <c r="E7" s="274"/>
-      <c r="F7" s="274"/>
-      <c r="G7" s="274"/>
-      <c r="H7" s="274"/>
+      <c r="C7" s="243"/>
+      <c r="D7" s="243"/>
+      <c r="E7" s="243"/>
+      <c r="F7" s="243"/>
+      <c r="G7" s="243"/>
+      <c r="H7" s="243"/>
       <c r="I7" s="302"/>
       <c r="J7" s="302"/>
-      <c r="K7" s="274"/>
-      <c r="L7" s="274"/>
-      <c r="M7" s="274"/>
+      <c r="K7" s="243"/>
+      <c r="L7" s="243"/>
+      <c r="M7" s="243"/>
       <c r="N7" s="43" t="s">
         <v>74</v>
       </c>
@@ -12310,22 +12321,22 @@
     <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
-      <c r="C12" s="274" t="s">
+      <c r="C12" s="243" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="274" t="s">
+      <c r="D12" s="243" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="274" t="s">
+      <c r="E12" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="274" t="s">
+      <c r="F12" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="274" t="s">
+      <c r="G12" s="243" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="274" t="s">
+      <c r="H12" s="243" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="303" t="s">
@@ -12334,13 +12345,13 @@
       <c r="J12" s="302" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="274" t="s">
+      <c r="K12" s="243" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="274" t="s">
+      <c r="L12" s="243" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="274" t="s">
+      <c r="M12" s="243" t="s">
         <v>33</v>
       </c>
       <c r="N12" s="73" t="s">
@@ -12355,17 +12366,17 @@
     <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="274"/>
-      <c r="D13" s="274"/>
-      <c r="E13" s="274"/>
-      <c r="F13" s="274"/>
-      <c r="G13" s="274"/>
-      <c r="H13" s="274"/>
+      <c r="C13" s="243"/>
+      <c r="D13" s="243"/>
+      <c r="E13" s="243"/>
+      <c r="F13" s="243"/>
+      <c r="G13" s="243"/>
+      <c r="H13" s="243"/>
       <c r="I13" s="304"/>
       <c r="J13" s="302"/>
-      <c r="K13" s="274"/>
-      <c r="L13" s="274"/>
-      <c r="M13" s="274"/>
+      <c r="K13" s="243"/>
+      <c r="L13" s="243"/>
+      <c r="M13" s="243"/>
       <c r="N13" s="43" t="s">
         <v>74</v>
       </c>
@@ -12628,22 +12639,22 @@
     </row>
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="112"/>
-      <c r="C22" s="274" t="s">
+      <c r="C22" s="243" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="274" t="s">
+      <c r="D22" s="243" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="274" t="s">
+      <c r="E22" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="274" t="s">
+      <c r="F22" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="274" t="s">
+      <c r="G22" s="243" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="274" t="s">
+      <c r="H22" s="243" t="s">
         <v>29</v>
       </c>
       <c r="I22" s="302" t="s">
@@ -12652,13 +12663,13 @@
       <c r="J22" s="302" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="274" t="s">
+      <c r="K22" s="243" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="274" t="s">
+      <c r="L22" s="243" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="274" t="s">
+      <c r="M22" s="243" t="s">
         <v>33</v>
       </c>
       <c r="N22" s="73" t="s">
@@ -12672,17 +12683,17 @@
     </row>
     <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B23" s="112"/>
-      <c r="C23" s="274"/>
-      <c r="D23" s="274"/>
-      <c r="E23" s="274"/>
-      <c r="F23" s="274"/>
-      <c r="G23" s="274"/>
-      <c r="H23" s="274"/>
+      <c r="C23" s="243"/>
+      <c r="D23" s="243"/>
+      <c r="E23" s="243"/>
+      <c r="F23" s="243"/>
+      <c r="G23" s="243"/>
+      <c r="H23" s="243"/>
       <c r="I23" s="302"/>
       <c r="J23" s="302"/>
-      <c r="K23" s="274"/>
-      <c r="L23" s="274"/>
-      <c r="M23" s="274"/>
+      <c r="K23" s="243"/>
+      <c r="L23" s="243"/>
+      <c r="M23" s="243"/>
       <c r="N23" s="110" t="s">
         <v>74</v>
       </c>
@@ -13002,22 +13013,22 @@
     </row>
     <row r="32" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="112"/>
-      <c r="C32" s="274" t="s">
+      <c r="C32" s="243" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="274" t="s">
+      <c r="D32" s="243" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="274" t="s">
+      <c r="E32" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="274" t="s">
+      <c r="F32" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="274" t="s">
+      <c r="G32" s="243" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="274" t="s">
+      <c r="H32" s="243" t="s">
         <v>29</v>
       </c>
       <c r="I32" s="302" t="s">
@@ -13026,13 +13037,13 @@
       <c r="J32" s="302" t="s">
         <v>46</v>
       </c>
-      <c r="K32" s="274" t="s">
+      <c r="K32" s="243" t="s">
         <v>31</v>
       </c>
-      <c r="L32" s="274" t="s">
+      <c r="L32" s="243" t="s">
         <v>30</v>
       </c>
-      <c r="M32" s="274" t="s">
+      <c r="M32" s="243" t="s">
         <v>33</v>
       </c>
       <c r="N32" s="73" t="s">
@@ -13046,17 +13057,17 @@
     </row>
     <row r="33" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B33" s="112"/>
-      <c r="C33" s="274"/>
-      <c r="D33" s="274"/>
-      <c r="E33" s="274"/>
-      <c r="F33" s="274"/>
-      <c r="G33" s="274"/>
-      <c r="H33" s="274"/>
+      <c r="C33" s="243"/>
+      <c r="D33" s="243"/>
+      <c r="E33" s="243"/>
+      <c r="F33" s="243"/>
+      <c r="G33" s="243"/>
+      <c r="H33" s="243"/>
       <c r="I33" s="302"/>
       <c r="J33" s="302"/>
-      <c r="K33" s="274"/>
-      <c r="L33" s="274"/>
-      <c r="M33" s="274"/>
+      <c r="K33" s="243"/>
+      <c r="L33" s="243"/>
+      <c r="M33" s="243"/>
       <c r="N33" s="114" t="s">
         <v>74</v>
       </c>
@@ -13241,6 +13252,46 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="M22:M23"/>
     <mergeCell ref="Q22:Q23"/>
@@ -13249,46 +13300,6 @@
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="M12:M13"/>
     <mergeCell ref="L12:L13"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -13358,7 +13369,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="285">
+      <c r="AI1" s="281">
         <f>変更履歴!E5</f>
         <v>43717</v>
       </c>
@@ -13374,7 +13385,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="288" t="str">
+      <c r="AT1" s="284" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -13445,7 +13456,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="288"/>
+      <c r="AT2" s="284"/>
       <c r="AU2" s="293"/>
       <c r="AV2" s="293"/>
       <c r="AW2" s="293"/>
@@ -16301,7 +16312,7 @@
         <v>37</v>
       </c>
       <c r="AB62" s="224" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AC62" s="24"/>
       <c r="AD62" s="24"/>
@@ -17134,7 +17145,7 @@
         <v>37</v>
       </c>
       <c r="AB81" s="224" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AC81" s="24"/>
       <c r="AD81" s="24"/>
@@ -17943,7 +17954,7 @@
       <c r="L100" s="24"/>
       <c r="M100" s="24"/>
       <c r="N100" s="24" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="O100" s="24"/>
       <c r="P100" s="24"/>
@@ -18039,56 +18050,60 @@
       <c r="AU101" s="24"/>
       <c r="AV101" s="76"/>
     </row>
-    <row r="102" spans="2:48" s="115" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B102" s="116"/>
-      <c r="C102" s="116"/>
-      <c r="D102" s="117"/>
-      <c r="E102" s="117"/>
-      <c r="F102" s="118"/>
-      <c r="G102" s="116"/>
-      <c r="H102" s="117"/>
-      <c r="I102" s="117"/>
-      <c r="J102" s="117"/>
-      <c r="K102" s="118"/>
-      <c r="L102" s="117"/>
-      <c r="M102" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="N102" s="78"/>
-      <c r="O102" s="78"/>
-      <c r="P102" s="78"/>
-      <c r="Q102" s="78"/>
-      <c r="R102" s="78"/>
-      <c r="S102" s="78"/>
-      <c r="T102" s="78"/>
-      <c r="U102" s="78"/>
-      <c r="V102" s="78"/>
-      <c r="W102" s="78"/>
-      <c r="X102" s="78"/>
-      <c r="Y102" s="78"/>
-      <c r="Z102" s="78"/>
-      <c r="AA102" s="78"/>
-      <c r="AB102" s="78"/>
-      <c r="AC102" s="78"/>
-      <c r="AD102" s="78"/>
-      <c r="AE102" s="78"/>
-      <c r="AF102" s="78"/>
-      <c r="AG102" s="78"/>
-      <c r="AH102" s="78"/>
-      <c r="AI102" s="117"/>
-      <c r="AJ102" s="117"/>
-      <c r="AK102" s="117"/>
-      <c r="AL102" s="117"/>
-      <c r="AM102" s="117"/>
-      <c r="AN102" s="117"/>
-      <c r="AO102" s="117"/>
-      <c r="AP102" s="117"/>
-      <c r="AQ102" s="117"/>
-      <c r="AR102" s="117"/>
-      <c r="AS102" s="117"/>
-      <c r="AT102" s="117"/>
-      <c r="AU102" s="117"/>
-      <c r="AV102" s="118"/>
+    <row r="102" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B102" s="75"/>
+      <c r="C102" s="75"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="76"/>
+      <c r="G102" s="75"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="76"/>
+      <c r="L102" s="24"/>
+      <c r="M102" s="24"/>
+      <c r="N102" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="O102" s="24"/>
+      <c r="P102" s="24"/>
+      <c r="Q102" s="24"/>
+      <c r="R102" s="24"/>
+      <c r="S102" s="24"/>
+      <c r="T102" s="24"/>
+      <c r="U102" s="24"/>
+      <c r="V102" s="24"/>
+      <c r="W102" s="24"/>
+      <c r="X102" s="24"/>
+      <c r="Y102" s="24"/>
+      <c r="Z102" s="24"/>
+      <c r="AA102" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB102" s="224" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC102" s="24"/>
+      <c r="AD102" s="24"/>
+      <c r="AE102" s="24"/>
+      <c r="AF102" s="24"/>
+      <c r="AG102" s="24"/>
+      <c r="AH102" s="24"/>
+      <c r="AI102" s="24"/>
+      <c r="AJ102" s="24"/>
+      <c r="AK102" s="24"/>
+      <c r="AL102" s="24"/>
+      <c r="AM102" s="24"/>
+      <c r="AN102" s="24"/>
+      <c r="AO102" s="24"/>
+      <c r="AP102" s="24"/>
+      <c r="AQ102" s="24"/>
+      <c r="AR102" s="24"/>
+      <c r="AS102" s="24"/>
+      <c r="AT102" s="24"/>
+      <c r="AU102" s="24"/>
+      <c r="AV102" s="76"/>
     </row>
     <row r="103" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B103" s="75"/>
@@ -18104,7 +18119,7 @@
       <c r="L103" s="24"/>
       <c r="M103" s="24"/>
       <c r="N103" s="24" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="O103" s="24"/>
       <c r="P103" s="24"/>
@@ -18121,8 +18136,8 @@
       <c r="AA103" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="AB103" s="24" t="s">
-        <v>390</v>
+      <c r="AB103" s="224" t="s">
+        <v>410</v>
       </c>
       <c r="AC103" s="24"/>
       <c r="AD103" s="24"/>
@@ -18130,9 +18145,7 @@
       <c r="AF103" s="24"/>
       <c r="AG103" s="24"/>
       <c r="AH103" s="24"/>
-      <c r="AI103" s="24" t="s">
-        <v>180</v>
-      </c>
+      <c r="AI103" s="24"/>
       <c r="AJ103" s="24"/>
       <c r="AK103" s="24"/>
       <c r="AL103" s="24"/>
@@ -18147,60 +18160,56 @@
       <c r="AU103" s="24"/>
       <c r="AV103" s="76"/>
     </row>
-    <row r="104" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B104" s="75"/>
-      <c r="C104" s="75"/>
-      <c r="D104" s="24"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="76"/>
-      <c r="G104" s="75"/>
-      <c r="H104" s="24"/>
-      <c r="I104" s="24"/>
-      <c r="J104" s="24"/>
-      <c r="K104" s="76"/>
-      <c r="L104" s="24"/>
-      <c r="M104" s="24"/>
-      <c r="N104" s="24" t="s">
-        <v>398</v>
-      </c>
-      <c r="O104" s="24"/>
-      <c r="P104" s="24"/>
-      <c r="Q104" s="24"/>
-      <c r="R104" s="24"/>
-      <c r="S104" s="24"/>
-      <c r="T104" s="24"/>
-      <c r="U104" s="24"/>
-      <c r="V104" s="24"/>
-      <c r="W104" s="24"/>
-      <c r="X104" s="24"/>
-      <c r="Y104" s="24"/>
-      <c r="Z104" s="24"/>
-      <c r="AA104" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB104" s="224" t="s">
-        <v>443</v>
-      </c>
-      <c r="AC104" s="24"/>
-      <c r="AD104" s="24"/>
-      <c r="AE104" s="24"/>
-      <c r="AF104" s="24"/>
-      <c r="AG104" s="24"/>
-      <c r="AH104" s="24"/>
-      <c r="AI104" s="24"/>
-      <c r="AJ104" s="24"/>
-      <c r="AK104" s="24"/>
-      <c r="AL104" s="24"/>
-      <c r="AM104" s="24"/>
-      <c r="AN104" s="24"/>
-      <c r="AO104" s="24"/>
-      <c r="AP104" s="24"/>
-      <c r="AQ104" s="24"/>
-      <c r="AR104" s="24"/>
-      <c r="AS104" s="24"/>
-      <c r="AT104" s="24"/>
-      <c r="AU104" s="24"/>
-      <c r="AV104" s="76"/>
+    <row r="104" spans="2:48" s="115" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B104" s="116"/>
+      <c r="C104" s="116"/>
+      <c r="D104" s="117"/>
+      <c r="E104" s="117"/>
+      <c r="F104" s="118"/>
+      <c r="G104" s="116"/>
+      <c r="H104" s="117"/>
+      <c r="I104" s="117"/>
+      <c r="J104" s="117"/>
+      <c r="K104" s="118"/>
+      <c r="L104" s="117"/>
+      <c r="M104" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="N104" s="78"/>
+      <c r="O104" s="78"/>
+      <c r="P104" s="78"/>
+      <c r="Q104" s="78"/>
+      <c r="R104" s="78"/>
+      <c r="S104" s="78"/>
+      <c r="T104" s="78"/>
+      <c r="U104" s="78"/>
+      <c r="V104" s="78"/>
+      <c r="W104" s="78"/>
+      <c r="X104" s="78"/>
+      <c r="Y104" s="78"/>
+      <c r="Z104" s="78"/>
+      <c r="AA104" s="78"/>
+      <c r="AB104" s="78"/>
+      <c r="AC104" s="78"/>
+      <c r="AD104" s="78"/>
+      <c r="AE104" s="78"/>
+      <c r="AF104" s="78"/>
+      <c r="AG104" s="78"/>
+      <c r="AH104" s="78"/>
+      <c r="AI104" s="117"/>
+      <c r="AJ104" s="117"/>
+      <c r="AK104" s="117"/>
+      <c r="AL104" s="117"/>
+      <c r="AM104" s="117"/>
+      <c r="AN104" s="117"/>
+      <c r="AO104" s="117"/>
+      <c r="AP104" s="117"/>
+      <c r="AQ104" s="117"/>
+      <c r="AR104" s="117"/>
+      <c r="AS104" s="117"/>
+      <c r="AT104" s="117"/>
+      <c r="AU104" s="117"/>
+      <c r="AV104" s="118"/>
     </row>
     <row r="105" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B105" s="75"/>
@@ -18216,7 +18225,7 @@
       <c r="L105" s="24"/>
       <c r="M105" s="24"/>
       <c r="N105" s="24" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O105" s="24"/>
       <c r="P105" s="24"/>
@@ -18230,8 +18239,11 @@
       <c r="X105" s="24"/>
       <c r="Y105" s="24"/>
       <c r="Z105" s="24"/>
-      <c r="AA105" s="17" t="s">
-        <v>408</v>
+      <c r="AA105" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB105" s="24" t="s">
+        <v>390</v>
       </c>
       <c r="AC105" s="24"/>
       <c r="AD105" s="24"/>
@@ -18239,7 +18251,9 @@
       <c r="AF105" s="24"/>
       <c r="AG105" s="24"/>
       <c r="AH105" s="24"/>
-      <c r="AI105" s="24"/>
+      <c r="AI105" s="24" t="s">
+        <v>180</v>
+      </c>
       <c r="AJ105" s="24"/>
       <c r="AK105" s="24"/>
       <c r="AL105" s="24"/>
@@ -18268,7 +18282,7 @@
       <c r="L106" s="24"/>
       <c r="M106" s="24"/>
       <c r="N106" s="24" t="s">
-        <v>439</v>
+        <v>398</v>
       </c>
       <c r="O106" s="24"/>
       <c r="P106" s="24"/>
@@ -18286,7 +18300,7 @@
         <v>37</v>
       </c>
       <c r="AB106" s="224" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AC106" s="24"/>
       <c r="AD106" s="24"/>
@@ -18323,7 +18337,7 @@
       <c r="L107" s="24"/>
       <c r="M107" s="24"/>
       <c r="N107" s="24" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="O107" s="24"/>
       <c r="P107" s="24"/>
@@ -18337,11 +18351,8 @@
       <c r="X107" s="24"/>
       <c r="Y107" s="24"/>
       <c r="Z107" s="24"/>
-      <c r="AA107" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB107" s="224" t="s">
-        <v>410</v>
+      <c r="AA107" s="17" t="s">
+        <v>408</v>
       </c>
       <c r="AC107" s="24"/>
       <c r="AD107" s="24"/>
@@ -19324,7 +19335,7 @@
         <v>37</v>
       </c>
       <c r="AB129" s="224" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AC129" s="24"/>
       <c r="AD129" s="24"/>
@@ -20133,7 +20144,7 @@
       <c r="L148" s="24"/>
       <c r="M148" s="24"/>
       <c r="N148" s="24" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="O148" s="24"/>
       <c r="P148" s="24"/>
@@ -20229,56 +20240,60 @@
       <c r="AU149" s="24"/>
       <c r="AV149" s="76"/>
     </row>
-    <row r="150" spans="2:48" s="115" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B150" s="116"/>
-      <c r="C150" s="116"/>
-      <c r="D150" s="117"/>
-      <c r="E150" s="117"/>
-      <c r="F150" s="118"/>
-      <c r="G150" s="116"/>
-      <c r="H150" s="117"/>
-      <c r="I150" s="117"/>
-      <c r="J150" s="117"/>
-      <c r="K150" s="118"/>
-      <c r="L150" s="117"/>
-      <c r="M150" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="N150" s="78"/>
-      <c r="O150" s="78"/>
-      <c r="P150" s="78"/>
-      <c r="Q150" s="78"/>
-      <c r="R150" s="78"/>
-      <c r="S150" s="78"/>
-      <c r="T150" s="78"/>
-      <c r="U150" s="78"/>
-      <c r="V150" s="78"/>
-      <c r="W150" s="78"/>
-      <c r="X150" s="78"/>
-      <c r="Y150" s="78"/>
-      <c r="Z150" s="78"/>
-      <c r="AA150" s="78"/>
-      <c r="AB150" s="78"/>
-      <c r="AC150" s="78"/>
-      <c r="AD150" s="78"/>
-      <c r="AE150" s="78"/>
-      <c r="AF150" s="78"/>
-      <c r="AG150" s="78"/>
-      <c r="AH150" s="78"/>
-      <c r="AI150" s="117"/>
-      <c r="AJ150" s="117"/>
-      <c r="AK150" s="117"/>
-      <c r="AL150" s="117"/>
-      <c r="AM150" s="117"/>
-      <c r="AN150" s="117"/>
-      <c r="AO150" s="117"/>
-      <c r="AP150" s="117"/>
-      <c r="AQ150" s="117"/>
-      <c r="AR150" s="117"/>
-      <c r="AS150" s="117"/>
-      <c r="AT150" s="117"/>
-      <c r="AU150" s="117"/>
-      <c r="AV150" s="118"/>
+    <row r="150" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B150" s="75"/>
+      <c r="C150" s="75"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="24"/>
+      <c r="F150" s="76"/>
+      <c r="G150" s="75"/>
+      <c r="H150" s="24"/>
+      <c r="I150" s="24"/>
+      <c r="J150" s="24"/>
+      <c r="K150" s="76"/>
+      <c r="L150" s="24"/>
+      <c r="M150" s="24"/>
+      <c r="N150" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="O150" s="24"/>
+      <c r="P150" s="24"/>
+      <c r="Q150" s="24"/>
+      <c r="R150" s="24"/>
+      <c r="S150" s="24"/>
+      <c r="T150" s="24"/>
+      <c r="U150" s="24"/>
+      <c r="V150" s="24"/>
+      <c r="W150" s="24"/>
+      <c r="X150" s="24"/>
+      <c r="Y150" s="24"/>
+      <c r="Z150" s="24"/>
+      <c r="AA150" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB150" s="224" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC150" s="24"/>
+      <c r="AD150" s="24"/>
+      <c r="AE150" s="24"/>
+      <c r="AF150" s="24"/>
+      <c r="AG150" s="24"/>
+      <c r="AH150" s="24"/>
+      <c r="AI150" s="24"/>
+      <c r="AJ150" s="24"/>
+      <c r="AK150" s="24"/>
+      <c r="AL150" s="24"/>
+      <c r="AM150" s="24"/>
+      <c r="AN150" s="24"/>
+      <c r="AO150" s="24"/>
+      <c r="AP150" s="24"/>
+      <c r="AQ150" s="24"/>
+      <c r="AR150" s="24"/>
+      <c r="AS150" s="24"/>
+      <c r="AT150" s="24"/>
+      <c r="AU150" s="24"/>
+      <c r="AV150" s="76"/>
     </row>
     <row r="151" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B151" s="75"/>
@@ -20294,7 +20309,7 @@
       <c r="L151" s="24"/>
       <c r="M151" s="24"/>
       <c r="N151" s="24" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="O151" s="24"/>
       <c r="P151" s="24"/>
@@ -20311,8 +20326,8 @@
       <c r="AA151" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="AB151" s="24" t="s">
-        <v>390</v>
+      <c r="AB151" s="224" t="s">
+        <v>410</v>
       </c>
       <c r="AC151" s="24"/>
       <c r="AD151" s="24"/>
@@ -20320,9 +20335,7 @@
       <c r="AF151" s="24"/>
       <c r="AG151" s="24"/>
       <c r="AH151" s="24"/>
-      <c r="AI151" s="24" t="s">
-        <v>180</v>
-      </c>
+      <c r="AI151" s="24"/>
       <c r="AJ151" s="24"/>
       <c r="AK151" s="24"/>
       <c r="AL151" s="24"/>
@@ -20337,60 +20350,56 @@
       <c r="AU151" s="24"/>
       <c r="AV151" s="76"/>
     </row>
-    <row r="152" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B152" s="75"/>
-      <c r="C152" s="75"/>
-      <c r="D152" s="24"/>
-      <c r="E152" s="24"/>
-      <c r="F152" s="76"/>
-      <c r="G152" s="75"/>
-      <c r="H152" s="24"/>
-      <c r="I152" s="24"/>
-      <c r="J152" s="24"/>
-      <c r="K152" s="76"/>
-      <c r="L152" s="24"/>
-      <c r="M152" s="24"/>
-      <c r="N152" s="24" t="s">
-        <v>398</v>
-      </c>
-      <c r="O152" s="24"/>
-      <c r="P152" s="24"/>
-      <c r="Q152" s="24"/>
-      <c r="R152" s="24"/>
-      <c r="S152" s="24"/>
-      <c r="T152" s="24"/>
-      <c r="U152" s="24"/>
-      <c r="V152" s="24"/>
-      <c r="W152" s="24"/>
-      <c r="X152" s="24"/>
-      <c r="Y152" s="24"/>
-      <c r="Z152" s="24"/>
-      <c r="AA152" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB152" s="224" t="s">
-        <v>443</v>
-      </c>
-      <c r="AC152" s="24"/>
-      <c r="AD152" s="24"/>
-      <c r="AE152" s="24"/>
-      <c r="AF152" s="24"/>
-      <c r="AG152" s="24"/>
-      <c r="AH152" s="24"/>
-      <c r="AI152" s="24"/>
-      <c r="AJ152" s="24"/>
-      <c r="AK152" s="24"/>
-      <c r="AL152" s="24"/>
-      <c r="AM152" s="24"/>
-      <c r="AN152" s="24"/>
-      <c r="AO152" s="24"/>
-      <c r="AP152" s="24"/>
-      <c r="AQ152" s="24"/>
-      <c r="AR152" s="24"/>
-      <c r="AS152" s="24"/>
-      <c r="AT152" s="24"/>
-      <c r="AU152" s="24"/>
-      <c r="AV152" s="76"/>
+    <row r="152" spans="2:48" s="115" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B152" s="116"/>
+      <c r="C152" s="116"/>
+      <c r="D152" s="117"/>
+      <c r="E152" s="117"/>
+      <c r="F152" s="118"/>
+      <c r="G152" s="116"/>
+      <c r="H152" s="117"/>
+      <c r="I152" s="117"/>
+      <c r="J152" s="117"/>
+      <c r="K152" s="118"/>
+      <c r="L152" s="117"/>
+      <c r="M152" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="N152" s="78"/>
+      <c r="O152" s="78"/>
+      <c r="P152" s="78"/>
+      <c r="Q152" s="78"/>
+      <c r="R152" s="78"/>
+      <c r="S152" s="78"/>
+      <c r="T152" s="78"/>
+      <c r="U152" s="78"/>
+      <c r="V152" s="78"/>
+      <c r="W152" s="78"/>
+      <c r="X152" s="78"/>
+      <c r="Y152" s="78"/>
+      <c r="Z152" s="78"/>
+      <c r="AA152" s="78"/>
+      <c r="AB152" s="78"/>
+      <c r="AC152" s="78"/>
+      <c r="AD152" s="78"/>
+      <c r="AE152" s="78"/>
+      <c r="AF152" s="78"/>
+      <c r="AG152" s="78"/>
+      <c r="AH152" s="78"/>
+      <c r="AI152" s="117"/>
+      <c r="AJ152" s="117"/>
+      <c r="AK152" s="117"/>
+      <c r="AL152" s="117"/>
+      <c r="AM152" s="117"/>
+      <c r="AN152" s="117"/>
+      <c r="AO152" s="117"/>
+      <c r="AP152" s="117"/>
+      <c r="AQ152" s="117"/>
+      <c r="AR152" s="117"/>
+      <c r="AS152" s="117"/>
+      <c r="AT152" s="117"/>
+      <c r="AU152" s="117"/>
+      <c r="AV152" s="118"/>
     </row>
     <row r="153" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B153" s="75"/>
@@ -20406,7 +20415,7 @@
       <c r="L153" s="24"/>
       <c r="M153" s="24"/>
       <c r="N153" s="24" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O153" s="24"/>
       <c r="P153" s="24"/>
@@ -20420,8 +20429,11 @@
       <c r="X153" s="24"/>
       <c r="Y153" s="24"/>
       <c r="Z153" s="24"/>
-      <c r="AA153" s="17" t="s">
-        <v>409</v>
+      <c r="AA153" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB153" s="24" t="s">
+        <v>390</v>
       </c>
       <c r="AC153" s="24"/>
       <c r="AD153" s="24"/>
@@ -20429,7 +20441,9 @@
       <c r="AF153" s="24"/>
       <c r="AG153" s="24"/>
       <c r="AH153" s="24"/>
-      <c r="AI153" s="24"/>
+      <c r="AI153" s="24" t="s">
+        <v>180</v>
+      </c>
       <c r="AJ153" s="24"/>
       <c r="AK153" s="24"/>
       <c r="AL153" s="24"/>
@@ -20458,7 +20472,7 @@
       <c r="L154" s="24"/>
       <c r="M154" s="24"/>
       <c r="N154" s="24" t="s">
-        <v>439</v>
+        <v>398</v>
       </c>
       <c r="O154" s="24"/>
       <c r="P154" s="24"/>
@@ -20476,7 +20490,7 @@
         <v>37</v>
       </c>
       <c r="AB154" s="224" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AC154" s="24"/>
       <c r="AD154" s="24"/>
@@ -20513,7 +20527,7 @@
       <c r="L155" s="24"/>
       <c r="M155" s="24"/>
       <c r="N155" s="24" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="O155" s="24"/>
       <c r="P155" s="24"/>
@@ -20527,11 +20541,8 @@
       <c r="X155" s="24"/>
       <c r="Y155" s="24"/>
       <c r="Z155" s="24"/>
-      <c r="AA155" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB155" s="224" t="s">
-        <v>410</v>
+      <c r="AA155" s="17" t="s">
+        <v>409</v>
       </c>
       <c r="AC155" s="24"/>
       <c r="AD155" s="24"/>
@@ -26963,7 +26974,7 @@
       <c r="L294" s="24"/>
       <c r="M294" s="24"/>
       <c r="N294" s="24" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="O294" s="24"/>
       <c r="P294" s="24"/>
@@ -27059,56 +27070,60 @@
       <c r="AU295" s="24"/>
       <c r="AV295" s="76"/>
     </row>
-    <row r="296" spans="2:48" s="115" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B296" s="116"/>
-      <c r="C296" s="116"/>
-      <c r="D296" s="117"/>
-      <c r="E296" s="117"/>
-      <c r="F296" s="118"/>
-      <c r="G296" s="116"/>
-      <c r="H296" s="117"/>
-      <c r="I296" s="117"/>
-      <c r="J296" s="117"/>
-      <c r="K296" s="118"/>
-      <c r="L296" s="230"/>
-      <c r="M296" s="231" t="s">
-        <v>103</v>
-      </c>
-      <c r="N296" s="231"/>
-      <c r="O296" s="231"/>
-      <c r="P296" s="231"/>
-      <c r="Q296" s="231"/>
-      <c r="R296" s="231"/>
-      <c r="S296" s="231"/>
-      <c r="T296" s="231"/>
-      <c r="U296" s="231"/>
-      <c r="V296" s="231"/>
-      <c r="W296" s="231"/>
-      <c r="X296" s="231"/>
-      <c r="Y296" s="231"/>
-      <c r="Z296" s="231"/>
-      <c r="AA296" s="231"/>
-      <c r="AB296" s="231"/>
-      <c r="AC296" s="231"/>
-      <c r="AD296" s="231"/>
-      <c r="AE296" s="231"/>
-      <c r="AF296" s="78"/>
-      <c r="AG296" s="78"/>
-      <c r="AH296" s="78"/>
-      <c r="AI296" s="117"/>
-      <c r="AJ296" s="117"/>
-      <c r="AK296" s="117"/>
-      <c r="AL296" s="117"/>
-      <c r="AM296" s="117"/>
-      <c r="AN296" s="117"/>
-      <c r="AO296" s="117"/>
-      <c r="AP296" s="117"/>
-      <c r="AQ296" s="117"/>
-      <c r="AR296" s="117"/>
-      <c r="AS296" s="117"/>
-      <c r="AT296" s="117"/>
-      <c r="AU296" s="117"/>
-      <c r="AV296" s="118"/>
+    <row r="296" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B296" s="75"/>
+      <c r="C296" s="75"/>
+      <c r="D296" s="24"/>
+      <c r="E296" s="24"/>
+      <c r="F296" s="76"/>
+      <c r="G296" s="75"/>
+      <c r="H296" s="24"/>
+      <c r="I296" s="24"/>
+      <c r="J296" s="24"/>
+      <c r="K296" s="76"/>
+      <c r="L296" s="24"/>
+      <c r="M296" s="24"/>
+      <c r="N296" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="O296" s="24"/>
+      <c r="P296" s="24"/>
+      <c r="Q296" s="24"/>
+      <c r="R296" s="24"/>
+      <c r="S296" s="24"/>
+      <c r="T296" s="24"/>
+      <c r="U296" s="24"/>
+      <c r="V296" s="24"/>
+      <c r="W296" s="24"/>
+      <c r="X296" s="24"/>
+      <c r="Y296" s="24"/>
+      <c r="Z296" s="24"/>
+      <c r="AA296" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB296" s="224" t="s">
+        <v>444</v>
+      </c>
+      <c r="AC296" s="24"/>
+      <c r="AD296" s="24"/>
+      <c r="AE296" s="24"/>
+      <c r="AF296" s="24"/>
+      <c r="AG296" s="24"/>
+      <c r="AH296" s="24"/>
+      <c r="AI296" s="24"/>
+      <c r="AJ296" s="24"/>
+      <c r="AK296" s="24"/>
+      <c r="AL296" s="24"/>
+      <c r="AM296" s="24"/>
+      <c r="AN296" s="24"/>
+      <c r="AO296" s="24"/>
+      <c r="AP296" s="24"/>
+      <c r="AQ296" s="24"/>
+      <c r="AR296" s="24"/>
+      <c r="AS296" s="24"/>
+      <c r="AT296" s="24"/>
+      <c r="AU296" s="24"/>
+      <c r="AV296" s="76"/>
     </row>
     <row r="297" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B297" s="75"/>
@@ -27121,32 +27136,32 @@
       <c r="I297" s="24"/>
       <c r="J297" s="24"/>
       <c r="K297" s="76"/>
-      <c r="L297" s="230"/>
-      <c r="M297" s="230"/>
-      <c r="N297" s="230" t="s">
-        <v>398</v>
-      </c>
-      <c r="O297" s="230"/>
-      <c r="P297" s="230"/>
-      <c r="Q297" s="230"/>
-      <c r="R297" s="230"/>
-      <c r="S297" s="230"/>
-      <c r="T297" s="230"/>
-      <c r="U297" s="230"/>
-      <c r="V297" s="230"/>
-      <c r="W297" s="230"/>
-      <c r="X297" s="230"/>
-      <c r="Y297" s="230"/>
-      <c r="Z297" s="230"/>
-      <c r="AA297" s="231" t="s">
+      <c r="L297" s="24"/>
+      <c r="M297" s="24"/>
+      <c r="N297" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="O297" s="24"/>
+      <c r="P297" s="24"/>
+      <c r="Q297" s="24"/>
+      <c r="R297" s="24"/>
+      <c r="S297" s="24"/>
+      <c r="T297" s="24"/>
+      <c r="U297" s="24"/>
+      <c r="V297" s="24"/>
+      <c r="W297" s="24"/>
+      <c r="X297" s="24"/>
+      <c r="Y297" s="24"/>
+      <c r="Z297" s="24"/>
+      <c r="AA297" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="AB297" s="232" t="s">
-        <v>421</v>
-      </c>
-      <c r="AC297" s="230"/>
-      <c r="AD297" s="230"/>
-      <c r="AE297" s="230"/>
+      <c r="AB297" s="224" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC297" s="24"/>
+      <c r="AD297" s="24"/>
+      <c r="AE297" s="24"/>
       <c r="AF297" s="24"/>
       <c r="AG297" s="24"/>
       <c r="AH297" s="24"/>
@@ -27165,58 +27180,56 @@
       <c r="AU297" s="24"/>
       <c r="AV297" s="76"/>
     </row>
-    <row r="298" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B298" s="75"/>
-      <c r="C298" s="75"/>
-      <c r="D298" s="24"/>
-      <c r="E298" s="24"/>
-      <c r="F298" s="76"/>
-      <c r="G298" s="75"/>
-      <c r="H298" s="24"/>
-      <c r="I298" s="24"/>
-      <c r="J298" s="24"/>
-      <c r="K298" s="76"/>
+    <row r="298" spans="2:48" s="115" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B298" s="116"/>
+      <c r="C298" s="116"/>
+      <c r="D298" s="117"/>
+      <c r="E298" s="117"/>
+      <c r="F298" s="118"/>
+      <c r="G298" s="116"/>
+      <c r="H298" s="117"/>
+      <c r="I298" s="117"/>
+      <c r="J298" s="117"/>
+      <c r="K298" s="118"/>
       <c r="L298" s="230"/>
-      <c r="M298" s="230"/>
-      <c r="N298" s="230" t="s">
-        <v>416</v>
-      </c>
-      <c r="O298" s="230"/>
-      <c r="P298" s="230"/>
-      <c r="Q298" s="230"/>
-      <c r="R298" s="230"/>
-      <c r="S298" s="230"/>
-      <c r="T298" s="230"/>
-      <c r="U298" s="230"/>
-      <c r="V298" s="230"/>
-      <c r="W298" s="230"/>
-      <c r="X298" s="230"/>
-      <c r="Y298" s="230"/>
-      <c r="Z298" s="230"/>
-      <c r="AA298" s="231" t="s">
-        <v>445</v>
-      </c>
-      <c r="AB298" s="232"/>
-      <c r="AC298" s="230"/>
-      <c r="AD298" s="230"/>
-      <c r="AE298" s="230"/>
-      <c r="AF298" s="24"/>
-      <c r="AG298" s="24"/>
-      <c r="AH298" s="24"/>
-      <c r="AI298" s="24"/>
-      <c r="AJ298" s="24"/>
-      <c r="AK298" s="24"/>
-      <c r="AL298" s="24"/>
-      <c r="AM298" s="24"/>
-      <c r="AN298" s="24"/>
-      <c r="AO298" s="24"/>
-      <c r="AP298" s="24"/>
-      <c r="AQ298" s="24"/>
-      <c r="AR298" s="24"/>
-      <c r="AS298" s="24"/>
-      <c r="AT298" s="24"/>
-      <c r="AU298" s="24"/>
-      <c r="AV298" s="76"/>
+      <c r="M298" s="231" t="s">
+        <v>103</v>
+      </c>
+      <c r="N298" s="231"/>
+      <c r="O298" s="231"/>
+      <c r="P298" s="231"/>
+      <c r="Q298" s="231"/>
+      <c r="R298" s="231"/>
+      <c r="S298" s="231"/>
+      <c r="T298" s="231"/>
+      <c r="U298" s="231"/>
+      <c r="V298" s="231"/>
+      <c r="W298" s="231"/>
+      <c r="X298" s="231"/>
+      <c r="Y298" s="231"/>
+      <c r="Z298" s="231"/>
+      <c r="AA298" s="231"/>
+      <c r="AB298" s="231"/>
+      <c r="AC298" s="231"/>
+      <c r="AD298" s="231"/>
+      <c r="AE298" s="231"/>
+      <c r="AF298" s="78"/>
+      <c r="AG298" s="78"/>
+      <c r="AH298" s="78"/>
+      <c r="AI298" s="117"/>
+      <c r="AJ298" s="117"/>
+      <c r="AK298" s="117"/>
+      <c r="AL298" s="117"/>
+      <c r="AM298" s="117"/>
+      <c r="AN298" s="117"/>
+      <c r="AO298" s="117"/>
+      <c r="AP298" s="117"/>
+      <c r="AQ298" s="117"/>
+      <c r="AR298" s="117"/>
+      <c r="AS298" s="117"/>
+      <c r="AT298" s="117"/>
+      <c r="AU298" s="117"/>
+      <c r="AV298" s="118"/>
     </row>
     <row r="299" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B299" s="75"/>
@@ -27229,32 +27242,32 @@
       <c r="I299" s="24"/>
       <c r="J299" s="24"/>
       <c r="K299" s="76"/>
-      <c r="L299" s="24"/>
-      <c r="M299" s="24"/>
-      <c r="N299" s="24" t="s">
-        <v>439</v>
-      </c>
-      <c r="O299" s="24"/>
-      <c r="P299" s="24"/>
-      <c r="Q299" s="24"/>
-      <c r="R299" s="24"/>
-      <c r="S299" s="24"/>
-      <c r="T299" s="24"/>
-      <c r="U299" s="24"/>
-      <c r="V299" s="24"/>
-      <c r="W299" s="24"/>
-      <c r="X299" s="24"/>
-      <c r="Y299" s="24"/>
-      <c r="Z299" s="24"/>
-      <c r="AA299" s="78" t="s">
+      <c r="L299" s="230"/>
+      <c r="M299" s="230"/>
+      <c r="N299" s="230" t="s">
+        <v>398</v>
+      </c>
+      <c r="O299" s="230"/>
+      <c r="P299" s="230"/>
+      <c r="Q299" s="230"/>
+      <c r="R299" s="230"/>
+      <c r="S299" s="230"/>
+      <c r="T299" s="230"/>
+      <c r="U299" s="230"/>
+      <c r="V299" s="230"/>
+      <c r="W299" s="230"/>
+      <c r="X299" s="230"/>
+      <c r="Y299" s="230"/>
+      <c r="Z299" s="230"/>
+      <c r="AA299" s="231" t="s">
         <v>37</v>
       </c>
-      <c r="AB299" s="224" t="s">
-        <v>446</v>
-      </c>
-      <c r="AC299" s="24"/>
-      <c r="AD299" s="24"/>
-      <c r="AE299" s="24"/>
+      <c r="AB299" s="232" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC299" s="230"/>
+      <c r="AD299" s="230"/>
+      <c r="AE299" s="230"/>
       <c r="AF299" s="24"/>
       <c r="AG299" s="24"/>
       <c r="AH299" s="24"/>
@@ -27284,32 +27297,30 @@
       <c r="I300" s="24"/>
       <c r="J300" s="24"/>
       <c r="K300" s="76"/>
-      <c r="L300" s="24"/>
-      <c r="M300" s="24"/>
-      <c r="N300" s="24" t="s">
-        <v>440</v>
-      </c>
-      <c r="O300" s="24"/>
-      <c r="P300" s="24"/>
-      <c r="Q300" s="24"/>
-      <c r="R300" s="24"/>
-      <c r="S300" s="24"/>
-      <c r="T300" s="24"/>
-      <c r="U300" s="24"/>
-      <c r="V300" s="24"/>
-      <c r="W300" s="24"/>
-      <c r="X300" s="24"/>
-      <c r="Y300" s="24"/>
-      <c r="Z300" s="24"/>
-      <c r="AA300" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB300" s="224" t="s">
-        <v>410</v>
-      </c>
-      <c r="AC300" s="24"/>
-      <c r="AD300" s="24"/>
-      <c r="AE300" s="24"/>
+      <c r="L300" s="230"/>
+      <c r="M300" s="230"/>
+      <c r="N300" s="230" t="s">
+        <v>416</v>
+      </c>
+      <c r="O300" s="230"/>
+      <c r="P300" s="230"/>
+      <c r="Q300" s="230"/>
+      <c r="R300" s="230"/>
+      <c r="S300" s="230"/>
+      <c r="T300" s="230"/>
+      <c r="U300" s="230"/>
+      <c r="V300" s="230"/>
+      <c r="W300" s="230"/>
+      <c r="X300" s="230"/>
+      <c r="Y300" s="230"/>
+      <c r="Z300" s="230"/>
+      <c r="AA300" s="231" t="s">
+        <v>443</v>
+      </c>
+      <c r="AB300" s="232"/>
+      <c r="AC300" s="230"/>
+      <c r="AD300" s="230"/>
+      <c r="AE300" s="230"/>
       <c r="AF300" s="24"/>
       <c r="AG300" s="24"/>
       <c r="AH300" s="24"/>
@@ -28223,56 +28234,60 @@
       <c r="AU319" s="24"/>
       <c r="AV319" s="76"/>
     </row>
-    <row r="320" spans="2:48" s="115" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B320" s="116"/>
-      <c r="C320" s="116"/>
-      <c r="D320" s="117"/>
-      <c r="E320" s="117"/>
-      <c r="F320" s="118"/>
-      <c r="G320" s="116"/>
-      <c r="H320" s="117"/>
-      <c r="I320" s="117"/>
-      <c r="J320" s="117"/>
-      <c r="K320" s="118"/>
-      <c r="L320" s="230"/>
-      <c r="M320" s="231" t="s">
-        <v>103</v>
-      </c>
-      <c r="N320" s="231"/>
-      <c r="O320" s="231"/>
-      <c r="P320" s="231"/>
-      <c r="Q320" s="231"/>
-      <c r="R320" s="231"/>
-      <c r="S320" s="231"/>
-      <c r="T320" s="231"/>
-      <c r="U320" s="231"/>
-      <c r="V320" s="231"/>
-      <c r="W320" s="231"/>
-      <c r="X320" s="231"/>
-      <c r="Y320" s="231"/>
-      <c r="Z320" s="231"/>
-      <c r="AA320" s="231"/>
-      <c r="AB320" s="231"/>
-      <c r="AC320" s="231"/>
-      <c r="AD320" s="231"/>
-      <c r="AE320" s="231"/>
-      <c r="AF320" s="78"/>
-      <c r="AG320" s="78"/>
-      <c r="AH320" s="78"/>
-      <c r="AI320" s="117"/>
-      <c r="AJ320" s="117"/>
-      <c r="AK320" s="117"/>
-      <c r="AL320" s="117"/>
-      <c r="AM320" s="117"/>
-      <c r="AN320" s="117"/>
-      <c r="AO320" s="117"/>
-      <c r="AP320" s="117"/>
-      <c r="AQ320" s="117"/>
-      <c r="AR320" s="117"/>
-      <c r="AS320" s="117"/>
-      <c r="AT320" s="117"/>
-      <c r="AU320" s="117"/>
-      <c r="AV320" s="118"/>
+    <row r="320" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B320" s="75"/>
+      <c r="C320" s="75"/>
+      <c r="D320" s="24"/>
+      <c r="E320" s="24"/>
+      <c r="F320" s="76"/>
+      <c r="G320" s="75"/>
+      <c r="H320" s="24"/>
+      <c r="I320" s="24"/>
+      <c r="J320" s="24"/>
+      <c r="K320" s="76"/>
+      <c r="L320" s="24"/>
+      <c r="M320" s="24"/>
+      <c r="N320" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="O320" s="24"/>
+      <c r="P320" s="24"/>
+      <c r="Q320" s="24"/>
+      <c r="R320" s="24"/>
+      <c r="S320" s="24"/>
+      <c r="T320" s="24"/>
+      <c r="U320" s="24"/>
+      <c r="V320" s="24"/>
+      <c r="W320" s="24"/>
+      <c r="X320" s="24"/>
+      <c r="Y320" s="24"/>
+      <c r="Z320" s="24"/>
+      <c r="AA320" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB320" s="224" t="s">
+        <v>444</v>
+      </c>
+      <c r="AC320" s="24"/>
+      <c r="AD320" s="24"/>
+      <c r="AE320" s="24"/>
+      <c r="AF320" s="24"/>
+      <c r="AG320" s="24"/>
+      <c r="AH320" s="24"/>
+      <c r="AI320" s="24"/>
+      <c r="AJ320" s="24"/>
+      <c r="AK320" s="24"/>
+      <c r="AL320" s="24"/>
+      <c r="AM320" s="24"/>
+      <c r="AN320" s="24"/>
+      <c r="AO320" s="24"/>
+      <c r="AP320" s="24"/>
+      <c r="AQ320" s="24"/>
+      <c r="AR320" s="24"/>
+      <c r="AS320" s="24"/>
+      <c r="AT320" s="24"/>
+      <c r="AU320" s="24"/>
+      <c r="AV320" s="76"/>
     </row>
     <row r="321" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B321" s="75"/>
@@ -28285,32 +28300,32 @@
       <c r="I321" s="24"/>
       <c r="J321" s="24"/>
       <c r="K321" s="76"/>
-      <c r="L321" s="230"/>
-      <c r="M321" s="230"/>
-      <c r="N321" s="230" t="s">
-        <v>398</v>
-      </c>
-      <c r="O321" s="230"/>
-      <c r="P321" s="230"/>
-      <c r="Q321" s="230"/>
-      <c r="R321" s="230"/>
-      <c r="S321" s="230"/>
-      <c r="T321" s="230"/>
-      <c r="U321" s="230"/>
-      <c r="V321" s="230"/>
-      <c r="W321" s="230"/>
-      <c r="X321" s="230"/>
-      <c r="Y321" s="230"/>
-      <c r="Z321" s="230"/>
-      <c r="AA321" s="231" t="s">
+      <c r="L321" s="24"/>
+      <c r="M321" s="24"/>
+      <c r="N321" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="O321" s="24"/>
+      <c r="P321" s="24"/>
+      <c r="Q321" s="24"/>
+      <c r="R321" s="24"/>
+      <c r="S321" s="24"/>
+      <c r="T321" s="24"/>
+      <c r="U321" s="24"/>
+      <c r="V321" s="24"/>
+      <c r="W321" s="24"/>
+      <c r="X321" s="24"/>
+      <c r="Y321" s="24"/>
+      <c r="Z321" s="24"/>
+      <c r="AA321" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="AB321" s="232" t="s">
-        <v>421</v>
-      </c>
-      <c r="AC321" s="230"/>
-      <c r="AD321" s="230"/>
-      <c r="AE321" s="230"/>
+      <c r="AB321" s="224" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC321" s="24"/>
+      <c r="AD321" s="24"/>
+      <c r="AE321" s="24"/>
       <c r="AF321" s="24"/>
       <c r="AG321" s="24"/>
       <c r="AH321" s="24"/>
@@ -28329,60 +28344,56 @@
       <c r="AU321" s="24"/>
       <c r="AV321" s="76"/>
     </row>
-    <row r="322" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B322" s="75"/>
-      <c r="C322" s="75"/>
-      <c r="D322" s="24"/>
-      <c r="E322" s="24"/>
-      <c r="F322" s="76"/>
-      <c r="G322" s="75"/>
-      <c r="H322" s="24"/>
-      <c r="I322" s="24"/>
-      <c r="J322" s="24"/>
-      <c r="K322" s="76"/>
+    <row r="322" spans="2:48" s="115" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B322" s="116"/>
+      <c r="C322" s="116"/>
+      <c r="D322" s="117"/>
+      <c r="E322" s="117"/>
+      <c r="F322" s="118"/>
+      <c r="G322" s="116"/>
+      <c r="H322" s="117"/>
+      <c r="I322" s="117"/>
+      <c r="J322" s="117"/>
+      <c r="K322" s="118"/>
       <c r="L322" s="230"/>
-      <c r="M322" s="230"/>
-      <c r="N322" s="230" t="s">
-        <v>416</v>
-      </c>
-      <c r="O322" s="230"/>
-      <c r="P322" s="230"/>
-      <c r="Q322" s="230"/>
-      <c r="R322" s="230"/>
-      <c r="S322" s="230"/>
-      <c r="T322" s="230"/>
-      <c r="U322" s="230"/>
-      <c r="V322" s="230"/>
-      <c r="W322" s="230"/>
-      <c r="X322" s="230"/>
-      <c r="Y322" s="230"/>
-      <c r="Z322" s="230"/>
-      <c r="AA322" s="231" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB322" s="232" t="s">
-        <v>422</v>
-      </c>
-      <c r="AC322" s="230"/>
-      <c r="AD322" s="230"/>
-      <c r="AE322" s="230"/>
-      <c r="AF322" s="24"/>
-      <c r="AG322" s="24"/>
-      <c r="AH322" s="24"/>
-      <c r="AI322" s="24"/>
-      <c r="AJ322" s="24"/>
-      <c r="AK322" s="24"/>
-      <c r="AL322" s="24"/>
-      <c r="AM322" s="24"/>
-      <c r="AN322" s="24"/>
-      <c r="AO322" s="24"/>
-      <c r="AP322" s="24"/>
-      <c r="AQ322" s="24"/>
-      <c r="AR322" s="24"/>
-      <c r="AS322" s="24"/>
-      <c r="AT322" s="24"/>
-      <c r="AU322" s="24"/>
-      <c r="AV322" s="76"/>
+      <c r="M322" s="231" t="s">
+        <v>103</v>
+      </c>
+      <c r="N322" s="231"/>
+      <c r="O322" s="231"/>
+      <c r="P322" s="231"/>
+      <c r="Q322" s="231"/>
+      <c r="R322" s="231"/>
+      <c r="S322" s="231"/>
+      <c r="T322" s="231"/>
+      <c r="U322" s="231"/>
+      <c r="V322" s="231"/>
+      <c r="W322" s="231"/>
+      <c r="X322" s="231"/>
+      <c r="Y322" s="231"/>
+      <c r="Z322" s="231"/>
+      <c r="AA322" s="231"/>
+      <c r="AB322" s="231"/>
+      <c r="AC322" s="231"/>
+      <c r="AD322" s="231"/>
+      <c r="AE322" s="231"/>
+      <c r="AF322" s="78"/>
+      <c r="AG322" s="78"/>
+      <c r="AH322" s="78"/>
+      <c r="AI322" s="117"/>
+      <c r="AJ322" s="117"/>
+      <c r="AK322" s="117"/>
+      <c r="AL322" s="117"/>
+      <c r="AM322" s="117"/>
+      <c r="AN322" s="117"/>
+      <c r="AO322" s="117"/>
+      <c r="AP322" s="117"/>
+      <c r="AQ322" s="117"/>
+      <c r="AR322" s="117"/>
+      <c r="AS322" s="117"/>
+      <c r="AT322" s="117"/>
+      <c r="AU322" s="117"/>
+      <c r="AV322" s="118"/>
     </row>
     <row r="323" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B323" s="75"/>
@@ -28395,32 +28406,32 @@
       <c r="I323" s="24"/>
       <c r="J323" s="24"/>
       <c r="K323" s="76"/>
-      <c r="L323" s="24"/>
-      <c r="M323" s="24"/>
-      <c r="N323" s="24" t="s">
-        <v>439</v>
-      </c>
-      <c r="O323" s="24"/>
-      <c r="P323" s="24"/>
-      <c r="Q323" s="24"/>
-      <c r="R323" s="24"/>
-      <c r="S323" s="24"/>
-      <c r="T323" s="24"/>
-      <c r="U323" s="24"/>
-      <c r="V323" s="24"/>
-      <c r="W323" s="24"/>
-      <c r="X323" s="24"/>
-      <c r="Y323" s="24"/>
-      <c r="Z323" s="24"/>
-      <c r="AA323" s="78" t="s">
+      <c r="L323" s="230"/>
+      <c r="M323" s="230"/>
+      <c r="N323" s="230" t="s">
+        <v>398</v>
+      </c>
+      <c r="O323" s="230"/>
+      <c r="P323" s="230"/>
+      <c r="Q323" s="230"/>
+      <c r="R323" s="230"/>
+      <c r="S323" s="230"/>
+      <c r="T323" s="230"/>
+      <c r="U323" s="230"/>
+      <c r="V323" s="230"/>
+      <c r="W323" s="230"/>
+      <c r="X323" s="230"/>
+      <c r="Y323" s="230"/>
+      <c r="Z323" s="230"/>
+      <c r="AA323" s="231" t="s">
         <v>37</v>
       </c>
-      <c r="AB323" s="224" t="s">
-        <v>446</v>
-      </c>
-      <c r="AC323" s="24"/>
-      <c r="AD323" s="24"/>
-      <c r="AE323" s="24"/>
+      <c r="AB323" s="232" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC323" s="230"/>
+      <c r="AD323" s="230"/>
+      <c r="AE323" s="230"/>
       <c r="AF323" s="24"/>
       <c r="AG323" s="24"/>
       <c r="AH323" s="24"/>
@@ -28450,32 +28461,32 @@
       <c r="I324" s="24"/>
       <c r="J324" s="24"/>
       <c r="K324" s="76"/>
-      <c r="L324" s="24"/>
-      <c r="M324" s="24"/>
-      <c r="N324" s="24" t="s">
-        <v>440</v>
-      </c>
-      <c r="O324" s="24"/>
-      <c r="P324" s="24"/>
-      <c r="Q324" s="24"/>
-      <c r="R324" s="24"/>
-      <c r="S324" s="24"/>
-      <c r="T324" s="24"/>
-      <c r="U324" s="24"/>
-      <c r="V324" s="24"/>
-      <c r="W324" s="24"/>
-      <c r="X324" s="24"/>
-      <c r="Y324" s="24"/>
-      <c r="Z324" s="24"/>
-      <c r="AA324" s="78" t="s">
+      <c r="L324" s="230"/>
+      <c r="M324" s="230"/>
+      <c r="N324" s="230" t="s">
+        <v>416</v>
+      </c>
+      <c r="O324" s="230"/>
+      <c r="P324" s="230"/>
+      <c r="Q324" s="230"/>
+      <c r="R324" s="230"/>
+      <c r="S324" s="230"/>
+      <c r="T324" s="230"/>
+      <c r="U324" s="230"/>
+      <c r="V324" s="230"/>
+      <c r="W324" s="230"/>
+      <c r="X324" s="230"/>
+      <c r="Y324" s="230"/>
+      <c r="Z324" s="230"/>
+      <c r="AA324" s="231" t="s">
         <v>37</v>
       </c>
-      <c r="AB324" s="224" t="s">
-        <v>410</v>
-      </c>
-      <c r="AC324" s="24"/>
-      <c r="AD324" s="24"/>
-      <c r="AE324" s="24"/>
+      <c r="AB324" s="232" t="s">
+        <v>422</v>
+      </c>
+      <c r="AC324" s="230"/>
+      <c r="AD324" s="230"/>
+      <c r="AE324" s="230"/>
       <c r="AF324" s="24"/>
       <c r="AG324" s="24"/>
       <c r="AH324" s="24"/>
@@ -29389,56 +29400,60 @@
       <c r="AU343" s="24"/>
       <c r="AV343" s="76"/>
     </row>
-    <row r="344" spans="2:48" s="115" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B344" s="116"/>
-      <c r="C344" s="116"/>
-      <c r="D344" s="117"/>
-      <c r="E344" s="117"/>
-      <c r="F344" s="118"/>
-      <c r="G344" s="116"/>
-      <c r="H344" s="117"/>
-      <c r="I344" s="117"/>
-      <c r="J344" s="117"/>
-      <c r="K344" s="118"/>
-      <c r="L344" s="230"/>
-      <c r="M344" s="231" t="s">
-        <v>103</v>
-      </c>
-      <c r="N344" s="231"/>
-      <c r="O344" s="231"/>
-      <c r="P344" s="231"/>
-      <c r="Q344" s="231"/>
-      <c r="R344" s="231"/>
-      <c r="S344" s="231"/>
-      <c r="T344" s="231"/>
-      <c r="U344" s="231"/>
-      <c r="V344" s="231"/>
-      <c r="W344" s="231"/>
-      <c r="X344" s="231"/>
-      <c r="Y344" s="231"/>
-      <c r="Z344" s="231"/>
-      <c r="AA344" s="231"/>
-      <c r="AB344" s="231"/>
-      <c r="AC344" s="231"/>
-      <c r="AD344" s="231"/>
-      <c r="AE344" s="231"/>
-      <c r="AF344" s="78"/>
-      <c r="AG344" s="78"/>
-      <c r="AH344" s="78"/>
-      <c r="AI344" s="117"/>
-      <c r="AJ344" s="117"/>
-      <c r="AK344" s="117"/>
-      <c r="AL344" s="117"/>
-      <c r="AM344" s="117"/>
-      <c r="AN344" s="117"/>
-      <c r="AO344" s="117"/>
-      <c r="AP344" s="117"/>
-      <c r="AQ344" s="117"/>
-      <c r="AR344" s="117"/>
-      <c r="AS344" s="117"/>
-      <c r="AT344" s="117"/>
-      <c r="AU344" s="117"/>
-      <c r="AV344" s="118"/>
+    <row r="344" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B344" s="75"/>
+      <c r="C344" s="75"/>
+      <c r="D344" s="24"/>
+      <c r="E344" s="24"/>
+      <c r="F344" s="76"/>
+      <c r="G344" s="75"/>
+      <c r="H344" s="24"/>
+      <c r="I344" s="24"/>
+      <c r="J344" s="24"/>
+      <c r="K344" s="76"/>
+      <c r="L344" s="24"/>
+      <c r="M344" s="24"/>
+      <c r="N344" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="O344" s="24"/>
+      <c r="P344" s="24"/>
+      <c r="Q344" s="24"/>
+      <c r="R344" s="24"/>
+      <c r="S344" s="24"/>
+      <c r="T344" s="24"/>
+      <c r="U344" s="24"/>
+      <c r="V344" s="24"/>
+      <c r="W344" s="24"/>
+      <c r="X344" s="24"/>
+      <c r="Y344" s="24"/>
+      <c r="Z344" s="24"/>
+      <c r="AA344" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB344" s="224" t="s">
+        <v>444</v>
+      </c>
+      <c r="AC344" s="24"/>
+      <c r="AD344" s="24"/>
+      <c r="AE344" s="24"/>
+      <c r="AF344" s="24"/>
+      <c r="AG344" s="24"/>
+      <c r="AH344" s="24"/>
+      <c r="AI344" s="24"/>
+      <c r="AJ344" s="24"/>
+      <c r="AK344" s="24"/>
+      <c r="AL344" s="24"/>
+      <c r="AM344" s="24"/>
+      <c r="AN344" s="24"/>
+      <c r="AO344" s="24"/>
+      <c r="AP344" s="24"/>
+      <c r="AQ344" s="24"/>
+      <c r="AR344" s="24"/>
+      <c r="AS344" s="24"/>
+      <c r="AT344" s="24"/>
+      <c r="AU344" s="24"/>
+      <c r="AV344" s="76"/>
     </row>
     <row r="345" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B345" s="75"/>
@@ -29451,32 +29466,32 @@
       <c r="I345" s="24"/>
       <c r="J345" s="24"/>
       <c r="K345" s="76"/>
-      <c r="L345" s="230"/>
-      <c r="M345" s="230"/>
-      <c r="N345" s="230" t="s">
-        <v>416</v>
-      </c>
-      <c r="O345" s="230"/>
-      <c r="P345" s="230"/>
-      <c r="Q345" s="230"/>
-      <c r="R345" s="230"/>
-      <c r="S345" s="230"/>
-      <c r="T345" s="230"/>
-      <c r="U345" s="230"/>
-      <c r="V345" s="230"/>
-      <c r="W345" s="230"/>
-      <c r="X345" s="230"/>
-      <c r="Y345" s="230"/>
-      <c r="Z345" s="230"/>
-      <c r="AA345" s="231" t="s">
+      <c r="L345" s="24"/>
+      <c r="M345" s="24"/>
+      <c r="N345" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="O345" s="24"/>
+      <c r="P345" s="24"/>
+      <c r="Q345" s="24"/>
+      <c r="R345" s="24"/>
+      <c r="S345" s="24"/>
+      <c r="T345" s="24"/>
+      <c r="U345" s="24"/>
+      <c r="V345" s="24"/>
+      <c r="W345" s="24"/>
+      <c r="X345" s="24"/>
+      <c r="Y345" s="24"/>
+      <c r="Z345" s="24"/>
+      <c r="AA345" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="AB345" s="232" t="s">
-        <v>423</v>
-      </c>
-      <c r="AC345" s="230"/>
-      <c r="AD345" s="230"/>
-      <c r="AE345" s="230"/>
+      <c r="AB345" s="224" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC345" s="24"/>
+      <c r="AD345" s="24"/>
+      <c r="AE345" s="24"/>
       <c r="AF345" s="24"/>
       <c r="AG345" s="24"/>
       <c r="AH345" s="24"/>
@@ -29495,60 +29510,56 @@
       <c r="AU345" s="24"/>
       <c r="AV345" s="76"/>
     </row>
-    <row r="346" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B346" s="75"/>
-      <c r="C346" s="75"/>
-      <c r="D346" s="24"/>
-      <c r="E346" s="24"/>
-      <c r="F346" s="76"/>
-      <c r="G346" s="75"/>
-      <c r="H346" s="24"/>
-      <c r="I346" s="24"/>
-      <c r="J346" s="24"/>
-      <c r="K346" s="76"/>
-      <c r="L346" s="24"/>
-      <c r="M346" s="24"/>
-      <c r="N346" s="24" t="s">
-        <v>439</v>
-      </c>
-      <c r="O346" s="24"/>
-      <c r="P346" s="24"/>
-      <c r="Q346" s="24"/>
-      <c r="R346" s="24"/>
-      <c r="S346" s="24"/>
-      <c r="T346" s="24"/>
-      <c r="U346" s="24"/>
-      <c r="V346" s="24"/>
-      <c r="W346" s="24"/>
-      <c r="X346" s="24"/>
-      <c r="Y346" s="24"/>
-      <c r="Z346" s="24"/>
-      <c r="AA346" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB346" s="224" t="s">
-        <v>446</v>
-      </c>
-      <c r="AC346" s="24"/>
-      <c r="AD346" s="24"/>
-      <c r="AE346" s="24"/>
-      <c r="AF346" s="24"/>
-      <c r="AG346" s="24"/>
-      <c r="AH346" s="24"/>
-      <c r="AI346" s="24"/>
-      <c r="AJ346" s="24"/>
-      <c r="AK346" s="24"/>
-      <c r="AL346" s="24"/>
-      <c r="AM346" s="24"/>
-      <c r="AN346" s="24"/>
-      <c r="AO346" s="24"/>
-      <c r="AP346" s="24"/>
-      <c r="AQ346" s="24"/>
-      <c r="AR346" s="24"/>
-      <c r="AS346" s="24"/>
-      <c r="AT346" s="24"/>
-      <c r="AU346" s="24"/>
-      <c r="AV346" s="76"/>
+    <row r="346" spans="2:48" s="115" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B346" s="116"/>
+      <c r="C346" s="116"/>
+      <c r="D346" s="117"/>
+      <c r="E346" s="117"/>
+      <c r="F346" s="118"/>
+      <c r="G346" s="116"/>
+      <c r="H346" s="117"/>
+      <c r="I346" s="117"/>
+      <c r="J346" s="117"/>
+      <c r="K346" s="118"/>
+      <c r="L346" s="230"/>
+      <c r="M346" s="231" t="s">
+        <v>103</v>
+      </c>
+      <c r="N346" s="231"/>
+      <c r="O346" s="231"/>
+      <c r="P346" s="231"/>
+      <c r="Q346" s="231"/>
+      <c r="R346" s="231"/>
+      <c r="S346" s="231"/>
+      <c r="T346" s="231"/>
+      <c r="U346" s="231"/>
+      <c r="V346" s="231"/>
+      <c r="W346" s="231"/>
+      <c r="X346" s="231"/>
+      <c r="Y346" s="231"/>
+      <c r="Z346" s="231"/>
+      <c r="AA346" s="231"/>
+      <c r="AB346" s="231"/>
+      <c r="AC346" s="231"/>
+      <c r="AD346" s="231"/>
+      <c r="AE346" s="231"/>
+      <c r="AF346" s="78"/>
+      <c r="AG346" s="78"/>
+      <c r="AH346" s="78"/>
+      <c r="AI346" s="117"/>
+      <c r="AJ346" s="117"/>
+      <c r="AK346" s="117"/>
+      <c r="AL346" s="117"/>
+      <c r="AM346" s="117"/>
+      <c r="AN346" s="117"/>
+      <c r="AO346" s="117"/>
+      <c r="AP346" s="117"/>
+      <c r="AQ346" s="117"/>
+      <c r="AR346" s="117"/>
+      <c r="AS346" s="117"/>
+      <c r="AT346" s="117"/>
+      <c r="AU346" s="117"/>
+      <c r="AV346" s="118"/>
     </row>
     <row r="347" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B347" s="75"/>
@@ -29561,32 +29572,32 @@
       <c r="I347" s="24"/>
       <c r="J347" s="24"/>
       <c r="K347" s="76"/>
-      <c r="L347" s="24"/>
-      <c r="M347" s="24"/>
-      <c r="N347" s="24" t="s">
-        <v>440</v>
-      </c>
-      <c r="O347" s="24"/>
-      <c r="P347" s="24"/>
-      <c r="Q347" s="24"/>
-      <c r="R347" s="24"/>
-      <c r="S347" s="24"/>
-      <c r="T347" s="24"/>
-      <c r="U347" s="24"/>
-      <c r="V347" s="24"/>
-      <c r="W347" s="24"/>
-      <c r="X347" s="24"/>
-      <c r="Y347" s="24"/>
-      <c r="Z347" s="24"/>
-      <c r="AA347" s="78" t="s">
+      <c r="L347" s="230"/>
+      <c r="M347" s="230"/>
+      <c r="N347" s="230" t="s">
+        <v>416</v>
+      </c>
+      <c r="O347" s="230"/>
+      <c r="P347" s="230"/>
+      <c r="Q347" s="230"/>
+      <c r="R347" s="230"/>
+      <c r="S347" s="230"/>
+      <c r="T347" s="230"/>
+      <c r="U347" s="230"/>
+      <c r="V347" s="230"/>
+      <c r="W347" s="230"/>
+      <c r="X347" s="230"/>
+      <c r="Y347" s="230"/>
+      <c r="Z347" s="230"/>
+      <c r="AA347" s="231" t="s">
         <v>37</v>
       </c>
-      <c r="AB347" s="224" t="s">
-        <v>410</v>
-      </c>
-      <c r="AC347" s="24"/>
-      <c r="AD347" s="24"/>
-      <c r="AE347" s="24"/>
+      <c r="AB347" s="232" t="s">
+        <v>423</v>
+      </c>
+      <c r="AC347" s="230"/>
+      <c r="AD347" s="230"/>
+      <c r="AE347" s="230"/>
       <c r="AF347" s="24"/>
       <c r="AG347" s="24"/>
       <c r="AH347" s="24"/>
@@ -30500,56 +30511,60 @@
       <c r="AU366" s="24"/>
       <c r="AV366" s="76"/>
     </row>
-    <row r="367" spans="2:48" s="115" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B367" s="116"/>
-      <c r="C367" s="116"/>
-      <c r="D367" s="117"/>
-      <c r="E367" s="117"/>
-      <c r="F367" s="118"/>
-      <c r="G367" s="116"/>
-      <c r="H367" s="117"/>
-      <c r="I367" s="117"/>
-      <c r="J367" s="117"/>
-      <c r="K367" s="118"/>
-      <c r="L367" s="230"/>
-      <c r="M367" s="231" t="s">
-        <v>103</v>
-      </c>
-      <c r="N367" s="231"/>
-      <c r="O367" s="231"/>
-      <c r="P367" s="231"/>
-      <c r="Q367" s="231"/>
-      <c r="R367" s="231"/>
-      <c r="S367" s="231"/>
-      <c r="T367" s="231"/>
-      <c r="U367" s="231"/>
-      <c r="V367" s="231"/>
-      <c r="W367" s="231"/>
-      <c r="X367" s="231"/>
-      <c r="Y367" s="231"/>
-      <c r="Z367" s="231"/>
-      <c r="AA367" s="231"/>
-      <c r="AB367" s="231"/>
-      <c r="AC367" s="231"/>
-      <c r="AD367" s="231"/>
-      <c r="AE367" s="231"/>
-      <c r="AF367" s="78"/>
-      <c r="AG367" s="78"/>
-      <c r="AH367" s="78"/>
-      <c r="AI367" s="117"/>
-      <c r="AJ367" s="117"/>
-      <c r="AK367" s="117"/>
-      <c r="AL367" s="117"/>
-      <c r="AM367" s="117"/>
-      <c r="AN367" s="117"/>
-      <c r="AO367" s="117"/>
-      <c r="AP367" s="117"/>
-      <c r="AQ367" s="117"/>
-      <c r="AR367" s="117"/>
-      <c r="AS367" s="117"/>
-      <c r="AT367" s="117"/>
-      <c r="AU367" s="117"/>
-      <c r="AV367" s="118"/>
+    <row r="367" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B367" s="75"/>
+      <c r="C367" s="75"/>
+      <c r="D367" s="24"/>
+      <c r="E367" s="24"/>
+      <c r="F367" s="76"/>
+      <c r="G367" s="75"/>
+      <c r="H367" s="24"/>
+      <c r="I367" s="24"/>
+      <c r="J367" s="24"/>
+      <c r="K367" s="76"/>
+      <c r="L367" s="24"/>
+      <c r="M367" s="24"/>
+      <c r="N367" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="O367" s="24"/>
+      <c r="P367" s="24"/>
+      <c r="Q367" s="24"/>
+      <c r="R367" s="24"/>
+      <c r="S367" s="24"/>
+      <c r="T367" s="24"/>
+      <c r="U367" s="24"/>
+      <c r="V367" s="24"/>
+      <c r="W367" s="24"/>
+      <c r="X367" s="24"/>
+      <c r="Y367" s="24"/>
+      <c r="Z367" s="24"/>
+      <c r="AA367" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB367" s="224" t="s">
+        <v>444</v>
+      </c>
+      <c r="AC367" s="24"/>
+      <c r="AD367" s="24"/>
+      <c r="AE367" s="24"/>
+      <c r="AF367" s="24"/>
+      <c r="AG367" s="24"/>
+      <c r="AH367" s="24"/>
+      <c r="AI367" s="24"/>
+      <c r="AJ367" s="24"/>
+      <c r="AK367" s="24"/>
+      <c r="AL367" s="24"/>
+      <c r="AM367" s="24"/>
+      <c r="AN367" s="24"/>
+      <c r="AO367" s="24"/>
+      <c r="AP367" s="24"/>
+      <c r="AQ367" s="24"/>
+      <c r="AR367" s="24"/>
+      <c r="AS367" s="24"/>
+      <c r="AT367" s="24"/>
+      <c r="AU367" s="24"/>
+      <c r="AV367" s="76"/>
     </row>
     <row r="368" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B368" s="75"/>
@@ -30562,32 +30577,32 @@
       <c r="I368" s="24"/>
       <c r="J368" s="24"/>
       <c r="K368" s="76"/>
-      <c r="L368" s="230"/>
-      <c r="M368" s="230"/>
-      <c r="N368" s="230" t="s">
-        <v>416</v>
-      </c>
-      <c r="O368" s="230"/>
-      <c r="P368" s="230"/>
-      <c r="Q368" s="230"/>
-      <c r="R368" s="230"/>
-      <c r="S368" s="230"/>
-      <c r="T368" s="230"/>
-      <c r="U368" s="230"/>
-      <c r="V368" s="230"/>
-      <c r="W368" s="230"/>
-      <c r="X368" s="230"/>
-      <c r="Y368" s="230"/>
-      <c r="Z368" s="230"/>
-      <c r="AA368" s="231" t="s">
+      <c r="L368" s="24"/>
+      <c r="M368" s="24"/>
+      <c r="N368" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="O368" s="24"/>
+      <c r="P368" s="24"/>
+      <c r="Q368" s="24"/>
+      <c r="R368" s="24"/>
+      <c r="S368" s="24"/>
+      <c r="T368" s="24"/>
+      <c r="U368" s="24"/>
+      <c r="V368" s="24"/>
+      <c r="W368" s="24"/>
+      <c r="X368" s="24"/>
+      <c r="Y368" s="24"/>
+      <c r="Z368" s="24"/>
+      <c r="AA368" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="AB368" s="232" t="s">
-        <v>424</v>
-      </c>
-      <c r="AC368" s="230"/>
-      <c r="AD368" s="230"/>
-      <c r="AE368" s="230"/>
+      <c r="AB368" s="224" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC368" s="24"/>
+      <c r="AD368" s="24"/>
+      <c r="AE368" s="24"/>
       <c r="AF368" s="24"/>
       <c r="AG368" s="24"/>
       <c r="AH368" s="24"/>
@@ -30606,60 +30621,56 @@
       <c r="AU368" s="24"/>
       <c r="AV368" s="76"/>
     </row>
-    <row r="369" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B369" s="75"/>
-      <c r="C369" s="75"/>
-      <c r="D369" s="24"/>
-      <c r="E369" s="24"/>
-      <c r="F369" s="76"/>
-      <c r="G369" s="75"/>
-      <c r="H369" s="24"/>
-      <c r="I369" s="24"/>
-      <c r="J369" s="24"/>
-      <c r="K369" s="76"/>
-      <c r="L369" s="24"/>
-      <c r="M369" s="24"/>
-      <c r="N369" s="24" t="s">
-        <v>439</v>
-      </c>
-      <c r="O369" s="24"/>
-      <c r="P369" s="24"/>
-      <c r="Q369" s="24"/>
-      <c r="R369" s="24"/>
-      <c r="S369" s="24"/>
-      <c r="T369" s="24"/>
-      <c r="U369" s="24"/>
-      <c r="V369" s="24"/>
-      <c r="W369" s="24"/>
-      <c r="X369" s="24"/>
-      <c r="Y369" s="24"/>
-      <c r="Z369" s="24"/>
-      <c r="AA369" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB369" s="224" t="s">
-        <v>446</v>
-      </c>
-      <c r="AC369" s="24"/>
-      <c r="AD369" s="24"/>
-      <c r="AE369" s="24"/>
-      <c r="AF369" s="24"/>
-      <c r="AG369" s="24"/>
-      <c r="AH369" s="24"/>
-      <c r="AI369" s="24"/>
-      <c r="AJ369" s="24"/>
-      <c r="AK369" s="24"/>
-      <c r="AL369" s="24"/>
-      <c r="AM369" s="24"/>
-      <c r="AN369" s="24"/>
-      <c r="AO369" s="24"/>
-      <c r="AP369" s="24"/>
-      <c r="AQ369" s="24"/>
-      <c r="AR369" s="24"/>
-      <c r="AS369" s="24"/>
-      <c r="AT369" s="24"/>
-      <c r="AU369" s="24"/>
-      <c r="AV369" s="76"/>
+    <row r="369" spans="2:48" s="115" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B369" s="116"/>
+      <c r="C369" s="116"/>
+      <c r="D369" s="117"/>
+      <c r="E369" s="117"/>
+      <c r="F369" s="118"/>
+      <c r="G369" s="116"/>
+      <c r="H369" s="117"/>
+      <c r="I369" s="117"/>
+      <c r="J369" s="117"/>
+      <c r="K369" s="118"/>
+      <c r="L369" s="230"/>
+      <c r="M369" s="231" t="s">
+        <v>103</v>
+      </c>
+      <c r="N369" s="231"/>
+      <c r="O369" s="231"/>
+      <c r="P369" s="231"/>
+      <c r="Q369" s="231"/>
+      <c r="R369" s="231"/>
+      <c r="S369" s="231"/>
+      <c r="T369" s="231"/>
+      <c r="U369" s="231"/>
+      <c r="V369" s="231"/>
+      <c r="W369" s="231"/>
+      <c r="X369" s="231"/>
+      <c r="Y369" s="231"/>
+      <c r="Z369" s="231"/>
+      <c r="AA369" s="231"/>
+      <c r="AB369" s="231"/>
+      <c r="AC369" s="231"/>
+      <c r="AD369" s="231"/>
+      <c r="AE369" s="231"/>
+      <c r="AF369" s="78"/>
+      <c r="AG369" s="78"/>
+      <c r="AH369" s="78"/>
+      <c r="AI369" s="117"/>
+      <c r="AJ369" s="117"/>
+      <c r="AK369" s="117"/>
+      <c r="AL369" s="117"/>
+      <c r="AM369" s="117"/>
+      <c r="AN369" s="117"/>
+      <c r="AO369" s="117"/>
+      <c r="AP369" s="117"/>
+      <c r="AQ369" s="117"/>
+      <c r="AR369" s="117"/>
+      <c r="AS369" s="117"/>
+      <c r="AT369" s="117"/>
+      <c r="AU369" s="117"/>
+      <c r="AV369" s="118"/>
     </row>
     <row r="370" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B370" s="75"/>
@@ -30672,32 +30683,32 @@
       <c r="I370" s="24"/>
       <c r="J370" s="24"/>
       <c r="K370" s="76"/>
-      <c r="L370" s="24"/>
-      <c r="M370" s="24"/>
-      <c r="N370" s="24" t="s">
-        <v>440</v>
-      </c>
-      <c r="O370" s="24"/>
-      <c r="P370" s="24"/>
-      <c r="Q370" s="24"/>
-      <c r="R370" s="24"/>
-      <c r="S370" s="24"/>
-      <c r="T370" s="24"/>
-      <c r="U370" s="24"/>
-      <c r="V370" s="24"/>
-      <c r="W370" s="24"/>
-      <c r="X370" s="24"/>
-      <c r="Y370" s="24"/>
-      <c r="Z370" s="24"/>
-      <c r="AA370" s="78" t="s">
+      <c r="L370" s="230"/>
+      <c r="M370" s="230"/>
+      <c r="N370" s="230" t="s">
+        <v>416</v>
+      </c>
+      <c r="O370" s="230"/>
+      <c r="P370" s="230"/>
+      <c r="Q370" s="230"/>
+      <c r="R370" s="230"/>
+      <c r="S370" s="230"/>
+      <c r="T370" s="230"/>
+      <c r="U370" s="230"/>
+      <c r="V370" s="230"/>
+      <c r="W370" s="230"/>
+      <c r="X370" s="230"/>
+      <c r="Y370" s="230"/>
+      <c r="Z370" s="230"/>
+      <c r="AA370" s="231" t="s">
         <v>37</v>
       </c>
-      <c r="AB370" s="224" t="s">
-        <v>410</v>
-      </c>
-      <c r="AC370" s="24"/>
-      <c r="AD370" s="24"/>
-      <c r="AE370" s="24"/>
+      <c r="AB370" s="232" t="s">
+        <v>424</v>
+      </c>
+      <c r="AC370" s="230"/>
+      <c r="AD370" s="230"/>
+      <c r="AE370" s="230"/>
       <c r="AF370" s="24"/>
       <c r="AG370" s="24"/>
       <c r="AH370" s="24"/>
@@ -31611,56 +31622,60 @@
       <c r="AU389" s="24"/>
       <c r="AV389" s="76"/>
     </row>
-    <row r="390" spans="2:48" s="115" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B390" s="116"/>
-      <c r="C390" s="116"/>
-      <c r="D390" s="117"/>
-      <c r="E390" s="117"/>
-      <c r="F390" s="118"/>
-      <c r="G390" s="116"/>
-      <c r="H390" s="117"/>
-      <c r="I390" s="117"/>
-      <c r="J390" s="117"/>
-      <c r="K390" s="118"/>
-      <c r="L390" s="230"/>
-      <c r="M390" s="231" t="s">
-        <v>103</v>
-      </c>
-      <c r="N390" s="231"/>
-      <c r="O390" s="231"/>
-      <c r="P390" s="231"/>
-      <c r="Q390" s="231"/>
-      <c r="R390" s="231"/>
-      <c r="S390" s="231"/>
-      <c r="T390" s="231"/>
-      <c r="U390" s="231"/>
-      <c r="V390" s="231"/>
-      <c r="W390" s="231"/>
-      <c r="X390" s="231"/>
-      <c r="Y390" s="231"/>
-      <c r="Z390" s="231"/>
-      <c r="AA390" s="231"/>
-      <c r="AB390" s="231"/>
-      <c r="AC390" s="231"/>
-      <c r="AD390" s="231"/>
-      <c r="AE390" s="231"/>
-      <c r="AF390" s="78"/>
-      <c r="AG390" s="78"/>
-      <c r="AH390" s="78"/>
-      <c r="AI390" s="117"/>
-      <c r="AJ390" s="117"/>
-      <c r="AK390" s="117"/>
-      <c r="AL390" s="117"/>
-      <c r="AM390" s="117"/>
-      <c r="AN390" s="117"/>
-      <c r="AO390" s="117"/>
-      <c r="AP390" s="117"/>
-      <c r="AQ390" s="117"/>
-      <c r="AR390" s="117"/>
-      <c r="AS390" s="117"/>
-      <c r="AT390" s="117"/>
-      <c r="AU390" s="117"/>
-      <c r="AV390" s="118"/>
+    <row r="390" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B390" s="75"/>
+      <c r="C390" s="75"/>
+      <c r="D390" s="24"/>
+      <c r="E390" s="24"/>
+      <c r="F390" s="76"/>
+      <c r="G390" s="75"/>
+      <c r="H390" s="24"/>
+      <c r="I390" s="24"/>
+      <c r="J390" s="24"/>
+      <c r="K390" s="76"/>
+      <c r="L390" s="24"/>
+      <c r="M390" s="24"/>
+      <c r="N390" s="227" t="s">
+        <v>446</v>
+      </c>
+      <c r="O390" s="227"/>
+      <c r="P390" s="227"/>
+      <c r="Q390" s="227"/>
+      <c r="R390" s="227"/>
+      <c r="S390" s="227"/>
+      <c r="T390" s="227"/>
+      <c r="U390" s="227"/>
+      <c r="V390" s="227"/>
+      <c r="W390" s="227"/>
+      <c r="X390" s="227"/>
+      <c r="Y390" s="227"/>
+      <c r="Z390" s="227"/>
+      <c r="AA390" s="228" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB390" s="229" t="s">
+        <v>445</v>
+      </c>
+      <c r="AC390" s="24"/>
+      <c r="AD390" s="24"/>
+      <c r="AE390" s="24"/>
+      <c r="AF390" s="24"/>
+      <c r="AG390" s="24"/>
+      <c r="AH390" s="24"/>
+      <c r="AI390" s="24"/>
+      <c r="AJ390" s="24"/>
+      <c r="AK390" s="24"/>
+      <c r="AL390" s="24"/>
+      <c r="AM390" s="24"/>
+      <c r="AN390" s="24"/>
+      <c r="AO390" s="24"/>
+      <c r="AP390" s="24"/>
+      <c r="AQ390" s="24"/>
+      <c r="AR390" s="24"/>
+      <c r="AS390" s="24"/>
+      <c r="AT390" s="24"/>
+      <c r="AU390" s="24"/>
+      <c r="AV390" s="76"/>
     </row>
     <row r="391" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B391" s="75"/>
@@ -31673,32 +31688,32 @@
       <c r="I391" s="24"/>
       <c r="J391" s="24"/>
       <c r="K391" s="76"/>
-      <c r="L391" s="230"/>
-      <c r="M391" s="230"/>
-      <c r="N391" s="230" t="s">
-        <v>416</v>
-      </c>
-      <c r="O391" s="230"/>
-      <c r="P391" s="230"/>
-      <c r="Q391" s="230"/>
-      <c r="R391" s="230"/>
-      <c r="S391" s="230"/>
-      <c r="T391" s="230"/>
-      <c r="U391" s="230"/>
-      <c r="V391" s="230"/>
-      <c r="W391" s="230"/>
-      <c r="X391" s="230"/>
-      <c r="Y391" s="230"/>
-      <c r="Z391" s="230"/>
-      <c r="AA391" s="231" t="s">
+      <c r="L391" s="24"/>
+      <c r="M391" s="24"/>
+      <c r="N391" s="227" t="s">
+        <v>447</v>
+      </c>
+      <c r="O391" s="227"/>
+      <c r="P391" s="227"/>
+      <c r="Q391" s="227"/>
+      <c r="R391" s="227"/>
+      <c r="S391" s="227"/>
+      <c r="T391" s="227"/>
+      <c r="U391" s="227"/>
+      <c r="V391" s="227"/>
+      <c r="W391" s="227"/>
+      <c r="X391" s="227"/>
+      <c r="Y391" s="227"/>
+      <c r="Z391" s="227"/>
+      <c r="AA391" s="228" t="s">
         <v>37</v>
       </c>
-      <c r="AB391" s="232" t="s">
-        <v>425</v>
-      </c>
-      <c r="AC391" s="230"/>
-      <c r="AD391" s="230"/>
-      <c r="AE391" s="230"/>
+      <c r="AB391" s="229" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC391" s="24"/>
+      <c r="AD391" s="24"/>
+      <c r="AE391" s="24"/>
       <c r="AF391" s="24"/>
       <c r="AG391" s="24"/>
       <c r="AH391" s="24"/>
@@ -31717,60 +31732,56 @@
       <c r="AU391" s="24"/>
       <c r="AV391" s="76"/>
     </row>
-    <row r="392" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B392" s="75"/>
-      <c r="C392" s="75"/>
-      <c r="D392" s="24"/>
-      <c r="E392" s="24"/>
-      <c r="F392" s="76"/>
-      <c r="G392" s="75"/>
-      <c r="H392" s="24"/>
-      <c r="I392" s="24"/>
-      <c r="J392" s="24"/>
-      <c r="K392" s="76"/>
-      <c r="L392" s="24"/>
-      <c r="M392" s="24"/>
-      <c r="N392" s="227" t="s">
-        <v>439</v>
-      </c>
-      <c r="O392" s="227"/>
-      <c r="P392" s="227"/>
-      <c r="Q392" s="227"/>
-      <c r="R392" s="227"/>
-      <c r="S392" s="227"/>
-      <c r="T392" s="227"/>
-      <c r="U392" s="227"/>
-      <c r="V392" s="227"/>
-      <c r="W392" s="227"/>
-      <c r="X392" s="227"/>
-      <c r="Y392" s="227"/>
-      <c r="Z392" s="227"/>
-      <c r="AA392" s="228" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB392" s="229" t="s">
-        <v>447</v>
-      </c>
-      <c r="AC392" s="24"/>
-      <c r="AD392" s="24"/>
-      <c r="AE392" s="24"/>
-      <c r="AF392" s="24"/>
-      <c r="AG392" s="24"/>
-      <c r="AH392" s="24"/>
-      <c r="AI392" s="24"/>
-      <c r="AJ392" s="24"/>
-      <c r="AK392" s="24"/>
-      <c r="AL392" s="24"/>
-      <c r="AM392" s="24"/>
-      <c r="AN392" s="24"/>
-      <c r="AO392" s="24"/>
-      <c r="AP392" s="24"/>
-      <c r="AQ392" s="24"/>
-      <c r="AR392" s="24"/>
-      <c r="AS392" s="24"/>
-      <c r="AT392" s="24"/>
-      <c r="AU392" s="24"/>
-      <c r="AV392" s="76"/>
+    <row r="392" spans="2:48" s="115" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B392" s="116"/>
+      <c r="C392" s="116"/>
+      <c r="D392" s="117"/>
+      <c r="E392" s="117"/>
+      <c r="F392" s="118"/>
+      <c r="G392" s="116"/>
+      <c r="H392" s="117"/>
+      <c r="I392" s="117"/>
+      <c r="J392" s="117"/>
+      <c r="K392" s="118"/>
+      <c r="L392" s="230"/>
+      <c r="M392" s="231" t="s">
+        <v>103</v>
+      </c>
+      <c r="N392" s="231"/>
+      <c r="O392" s="231"/>
+      <c r="P392" s="231"/>
+      <c r="Q392" s="231"/>
+      <c r="R392" s="231"/>
+      <c r="S392" s="231"/>
+      <c r="T392" s="231"/>
+      <c r="U392" s="231"/>
+      <c r="V392" s="231"/>
+      <c r="W392" s="231"/>
+      <c r="X392" s="231"/>
+      <c r="Y392" s="231"/>
+      <c r="Z392" s="231"/>
+      <c r="AA392" s="231"/>
+      <c r="AB392" s="231"/>
+      <c r="AC392" s="231"/>
+      <c r="AD392" s="231"/>
+      <c r="AE392" s="231"/>
+      <c r="AF392" s="78"/>
+      <c r="AG392" s="78"/>
+      <c r="AH392" s="78"/>
+      <c r="AI392" s="117"/>
+      <c r="AJ392" s="117"/>
+      <c r="AK392" s="117"/>
+      <c r="AL392" s="117"/>
+      <c r="AM392" s="117"/>
+      <c r="AN392" s="117"/>
+      <c r="AO392" s="117"/>
+      <c r="AP392" s="117"/>
+      <c r="AQ392" s="117"/>
+      <c r="AR392" s="117"/>
+      <c r="AS392" s="117"/>
+      <c r="AT392" s="117"/>
+      <c r="AU392" s="117"/>
+      <c r="AV392" s="118"/>
     </row>
     <row r="393" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B393" s="75"/>
@@ -31783,32 +31794,32 @@
       <c r="I393" s="24"/>
       <c r="J393" s="24"/>
       <c r="K393" s="76"/>
-      <c r="L393" s="24"/>
-      <c r="M393" s="24"/>
-      <c r="N393" s="227" t="s">
-        <v>440</v>
-      </c>
-      <c r="O393" s="227"/>
-      <c r="P393" s="227"/>
-      <c r="Q393" s="227"/>
-      <c r="R393" s="227"/>
-      <c r="S393" s="227"/>
-      <c r="T393" s="227"/>
-      <c r="U393" s="227"/>
-      <c r="V393" s="227"/>
-      <c r="W393" s="227"/>
-      <c r="X393" s="227"/>
-      <c r="Y393" s="227"/>
-      <c r="Z393" s="227"/>
-      <c r="AA393" s="228" t="s">
+      <c r="L393" s="230"/>
+      <c r="M393" s="230"/>
+      <c r="N393" s="230" t="s">
+        <v>416</v>
+      </c>
+      <c r="O393" s="230"/>
+      <c r="P393" s="230"/>
+      <c r="Q393" s="230"/>
+      <c r="R393" s="230"/>
+      <c r="S393" s="230"/>
+      <c r="T393" s="230"/>
+      <c r="U393" s="230"/>
+      <c r="V393" s="230"/>
+      <c r="W393" s="230"/>
+      <c r="X393" s="230"/>
+      <c r="Y393" s="230"/>
+      <c r="Z393" s="230"/>
+      <c r="AA393" s="231" t="s">
         <v>37</v>
       </c>
-      <c r="AB393" s="229" t="s">
-        <v>410</v>
-      </c>
-      <c r="AC393" s="24"/>
-      <c r="AD393" s="24"/>
-      <c r="AE393" s="24"/>
+      <c r="AB393" s="232" t="s">
+        <v>425</v>
+      </c>
+      <c r="AC393" s="230"/>
+      <c r="AD393" s="230"/>
+      <c r="AE393" s="230"/>
       <c r="AF393" s="24"/>
       <c r="AG393" s="24"/>
       <c r="AH393" s="24"/>
@@ -32722,56 +32733,60 @@
       <c r="AU412" s="24"/>
       <c r="AV412" s="76"/>
     </row>
-    <row r="413" spans="2:48" s="115" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B413" s="116"/>
-      <c r="C413" s="116"/>
-      <c r="D413" s="117"/>
-      <c r="E413" s="117"/>
-      <c r="F413" s="118"/>
-      <c r="G413" s="116"/>
-      <c r="H413" s="117"/>
-      <c r="I413" s="117"/>
-      <c r="J413" s="117"/>
-      <c r="K413" s="118"/>
-      <c r="L413" s="230"/>
-      <c r="M413" s="231" t="s">
-        <v>103</v>
-      </c>
-      <c r="N413" s="231"/>
-      <c r="O413" s="231"/>
-      <c r="P413" s="231"/>
-      <c r="Q413" s="231"/>
-      <c r="R413" s="231"/>
-      <c r="S413" s="231"/>
-      <c r="T413" s="231"/>
-      <c r="U413" s="231"/>
-      <c r="V413" s="231"/>
-      <c r="W413" s="231"/>
-      <c r="X413" s="231"/>
-      <c r="Y413" s="231"/>
-      <c r="Z413" s="231"/>
-      <c r="AA413" s="231"/>
-      <c r="AB413" s="231"/>
-      <c r="AC413" s="231"/>
-      <c r="AD413" s="231"/>
-      <c r="AE413" s="231"/>
-      <c r="AF413" s="78"/>
-      <c r="AG413" s="78"/>
-      <c r="AH413" s="78"/>
-      <c r="AI413" s="117"/>
-      <c r="AJ413" s="117"/>
-      <c r="AK413" s="117"/>
-      <c r="AL413" s="117"/>
-      <c r="AM413" s="117"/>
-      <c r="AN413" s="117"/>
-      <c r="AO413" s="117"/>
-      <c r="AP413" s="117"/>
-      <c r="AQ413" s="117"/>
-      <c r="AR413" s="117"/>
-      <c r="AS413" s="117"/>
-      <c r="AT413" s="117"/>
-      <c r="AU413" s="117"/>
-      <c r="AV413" s="118"/>
+    <row r="413" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B413" s="75"/>
+      <c r="C413" s="75"/>
+      <c r="D413" s="24"/>
+      <c r="E413" s="24"/>
+      <c r="F413" s="76"/>
+      <c r="G413" s="75"/>
+      <c r="H413" s="24"/>
+      <c r="I413" s="24"/>
+      <c r="J413" s="24"/>
+      <c r="K413" s="76"/>
+      <c r="L413" s="24"/>
+      <c r="M413" s="24"/>
+      <c r="N413" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="O413" s="24"/>
+      <c r="P413" s="24"/>
+      <c r="Q413" s="24"/>
+      <c r="R413" s="24"/>
+      <c r="S413" s="24"/>
+      <c r="T413" s="24"/>
+      <c r="U413" s="24"/>
+      <c r="V413" s="24"/>
+      <c r="W413" s="24"/>
+      <c r="X413" s="24"/>
+      <c r="Y413" s="24"/>
+      <c r="Z413" s="24"/>
+      <c r="AA413" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB413" s="224" t="s">
+        <v>444</v>
+      </c>
+      <c r="AC413" s="24"/>
+      <c r="AD413" s="24"/>
+      <c r="AE413" s="24"/>
+      <c r="AF413" s="24"/>
+      <c r="AG413" s="24"/>
+      <c r="AH413" s="24"/>
+      <c r="AI413" s="24"/>
+      <c r="AJ413" s="24"/>
+      <c r="AK413" s="24"/>
+      <c r="AL413" s="24"/>
+      <c r="AM413" s="24"/>
+      <c r="AN413" s="24"/>
+      <c r="AO413" s="24"/>
+      <c r="AP413" s="24"/>
+      <c r="AQ413" s="24"/>
+      <c r="AR413" s="24"/>
+      <c r="AS413" s="24"/>
+      <c r="AT413" s="24"/>
+      <c r="AU413" s="24"/>
+      <c r="AV413" s="76"/>
     </row>
     <row r="414" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B414" s="75"/>
@@ -32784,32 +32799,32 @@
       <c r="I414" s="24"/>
       <c r="J414" s="24"/>
       <c r="K414" s="76"/>
-      <c r="L414" s="230"/>
-      <c r="M414" s="230"/>
-      <c r="N414" s="230" t="s">
-        <v>416</v>
-      </c>
-      <c r="O414" s="230"/>
-      <c r="P414" s="230"/>
-      <c r="Q414" s="230"/>
-      <c r="R414" s="230"/>
-      <c r="S414" s="230"/>
-      <c r="T414" s="230"/>
-      <c r="U414" s="230"/>
-      <c r="V414" s="230"/>
-      <c r="W414" s="230"/>
-      <c r="X414" s="230"/>
-      <c r="Y414" s="230"/>
-      <c r="Z414" s="230"/>
-      <c r="AA414" s="231" t="s">
+      <c r="L414" s="24"/>
+      <c r="M414" s="24"/>
+      <c r="N414" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="O414" s="24"/>
+      <c r="P414" s="24"/>
+      <c r="Q414" s="24"/>
+      <c r="R414" s="24"/>
+      <c r="S414" s="24"/>
+      <c r="T414" s="24"/>
+      <c r="U414" s="24"/>
+      <c r="V414" s="24"/>
+      <c r="W414" s="24"/>
+      <c r="X414" s="24"/>
+      <c r="Y414" s="24"/>
+      <c r="Z414" s="24"/>
+      <c r="AA414" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="AB414" s="232" t="s">
-        <v>426</v>
-      </c>
-      <c r="AC414" s="230"/>
-      <c r="AD414" s="230"/>
-      <c r="AE414" s="230"/>
+      <c r="AB414" s="224" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC414" s="24"/>
+      <c r="AD414" s="24"/>
+      <c r="AE414" s="24"/>
       <c r="AF414" s="24"/>
       <c r="AG414" s="24"/>
       <c r="AH414" s="24"/>
@@ -32828,60 +32843,56 @@
       <c r="AU414" s="24"/>
       <c r="AV414" s="76"/>
     </row>
-    <row r="415" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B415" s="75"/>
-      <c r="C415" s="75"/>
-      <c r="D415" s="24"/>
-      <c r="E415" s="24"/>
-      <c r="F415" s="76"/>
-      <c r="G415" s="75"/>
-      <c r="H415" s="24"/>
-      <c r="I415" s="24"/>
-      <c r="J415" s="24"/>
-      <c r="K415" s="76"/>
-      <c r="L415" s="24"/>
-      <c r="M415" s="24"/>
-      <c r="N415" s="24" t="s">
-        <v>439</v>
-      </c>
-      <c r="O415" s="24"/>
-      <c r="P415" s="24"/>
-      <c r="Q415" s="24"/>
-      <c r="R415" s="24"/>
-      <c r="S415" s="24"/>
-      <c r="T415" s="24"/>
-      <c r="U415" s="24"/>
-      <c r="V415" s="24"/>
-      <c r="W415" s="24"/>
-      <c r="X415" s="24"/>
-      <c r="Y415" s="24"/>
-      <c r="Z415" s="24"/>
-      <c r="AA415" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB415" s="224" t="s">
-        <v>446</v>
-      </c>
-      <c r="AC415" s="24"/>
-      <c r="AD415" s="24"/>
-      <c r="AE415" s="24"/>
-      <c r="AF415" s="24"/>
-      <c r="AG415" s="24"/>
-      <c r="AH415" s="24"/>
-      <c r="AI415" s="24"/>
-      <c r="AJ415" s="24"/>
-      <c r="AK415" s="24"/>
-      <c r="AL415" s="24"/>
-      <c r="AM415" s="24"/>
-      <c r="AN415" s="24"/>
-      <c r="AO415" s="24"/>
-      <c r="AP415" s="24"/>
-      <c r="AQ415" s="24"/>
-      <c r="AR415" s="24"/>
-      <c r="AS415" s="24"/>
-      <c r="AT415" s="24"/>
-      <c r="AU415" s="24"/>
-      <c r="AV415" s="76"/>
+    <row r="415" spans="2:48" s="115" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B415" s="116"/>
+      <c r="C415" s="116"/>
+      <c r="D415" s="117"/>
+      <c r="E415" s="117"/>
+      <c r="F415" s="118"/>
+      <c r="G415" s="116"/>
+      <c r="H415" s="117"/>
+      <c r="I415" s="117"/>
+      <c r="J415" s="117"/>
+      <c r="K415" s="118"/>
+      <c r="L415" s="230"/>
+      <c r="M415" s="231" t="s">
+        <v>103</v>
+      </c>
+      <c r="N415" s="231"/>
+      <c r="O415" s="231"/>
+      <c r="P415" s="231"/>
+      <c r="Q415" s="231"/>
+      <c r="R415" s="231"/>
+      <c r="S415" s="231"/>
+      <c r="T415" s="231"/>
+      <c r="U415" s="231"/>
+      <c r="V415" s="231"/>
+      <c r="W415" s="231"/>
+      <c r="X415" s="231"/>
+      <c r="Y415" s="231"/>
+      <c r="Z415" s="231"/>
+      <c r="AA415" s="231"/>
+      <c r="AB415" s="231"/>
+      <c r="AC415" s="231"/>
+      <c r="AD415" s="231"/>
+      <c r="AE415" s="231"/>
+      <c r="AF415" s="78"/>
+      <c r="AG415" s="78"/>
+      <c r="AH415" s="78"/>
+      <c r="AI415" s="117"/>
+      <c r="AJ415" s="117"/>
+      <c r="AK415" s="117"/>
+      <c r="AL415" s="117"/>
+      <c r="AM415" s="117"/>
+      <c r="AN415" s="117"/>
+      <c r="AO415" s="117"/>
+      <c r="AP415" s="117"/>
+      <c r="AQ415" s="117"/>
+      <c r="AR415" s="117"/>
+      <c r="AS415" s="117"/>
+      <c r="AT415" s="117"/>
+      <c r="AU415" s="117"/>
+      <c r="AV415" s="118"/>
     </row>
     <row r="416" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B416" s="75"/>
@@ -32894,32 +32905,32 @@
       <c r="I416" s="24"/>
       <c r="J416" s="24"/>
       <c r="K416" s="76"/>
-      <c r="L416" s="24"/>
-      <c r="M416" s="24"/>
-      <c r="N416" s="24" t="s">
-        <v>440</v>
-      </c>
-      <c r="O416" s="24"/>
-      <c r="P416" s="24"/>
-      <c r="Q416" s="24"/>
-      <c r="R416" s="24"/>
-      <c r="S416" s="24"/>
-      <c r="T416" s="24"/>
-      <c r="U416" s="24"/>
-      <c r="V416" s="24"/>
-      <c r="W416" s="24"/>
-      <c r="X416" s="24"/>
-      <c r="Y416" s="24"/>
-      <c r="Z416" s="24"/>
-      <c r="AA416" s="78" t="s">
+      <c r="L416" s="230"/>
+      <c r="M416" s="230"/>
+      <c r="N416" s="230" t="s">
+        <v>416</v>
+      </c>
+      <c r="O416" s="230"/>
+      <c r="P416" s="230"/>
+      <c r="Q416" s="230"/>
+      <c r="R416" s="230"/>
+      <c r="S416" s="230"/>
+      <c r="T416" s="230"/>
+      <c r="U416" s="230"/>
+      <c r="V416" s="230"/>
+      <c r="W416" s="230"/>
+      <c r="X416" s="230"/>
+      <c r="Y416" s="230"/>
+      <c r="Z416" s="230"/>
+      <c r="AA416" s="231" t="s">
         <v>37</v>
       </c>
-      <c r="AB416" s="224" t="s">
-        <v>410</v>
-      </c>
-      <c r="AC416" s="24"/>
-      <c r="AD416" s="24"/>
-      <c r="AE416" s="24"/>
+      <c r="AB416" s="232" t="s">
+        <v>426</v>
+      </c>
+      <c r="AC416" s="230"/>
+      <c r="AD416" s="230"/>
+      <c r="AE416" s="230"/>
       <c r="AF416" s="24"/>
       <c r="AG416" s="24"/>
       <c r="AH416" s="24"/>
@@ -42103,7 +42114,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="285">
+      <c r="AI1" s="281">
         <f>変更履歴!E5</f>
         <v>43717</v>
       </c>
@@ -42119,7 +42130,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="288" t="str">
+      <c r="AT1" s="284" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -42190,7 +42201,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="288"/>
+      <c r="AT2" s="284"/>
       <c r="AU2" s="293"/>
       <c r="AV2" s="293"/>
       <c r="AW2" s="293"/>
@@ -46811,7 +46822,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="285">
+      <c r="AI1" s="281">
         <f>変更履歴!E5</f>
         <v>43717</v>
       </c>
@@ -46827,7 +46838,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="288" t="str">
+      <c r="AT1" s="284" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -46898,7 +46909,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="288"/>
+      <c r="AT2" s="284"/>
       <c r="AU2" s="293"/>
       <c r="AV2" s="293"/>
       <c r="AW2" s="293"/>
@@ -47117,12 +47128,12 @@
       <c r="M9" s="308" t="s">
         <v>367</v>
       </c>
-      <c r="N9" s="318"/>
+      <c r="N9" s="312"/>
       <c r="O9" s="309"/>
-      <c r="P9" s="312" t="s">
+      <c r="P9" s="314" t="s">
         <v>368</v>
       </c>
-      <c r="Q9" s="314"/>
+      <c r="Q9" s="315"/>
     </row>
     <row r="10" spans="1:52" s="128" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C10" s="133" t="s">
@@ -47138,9 +47149,9 @@
       <c r="K10" s="310"/>
       <c r="L10" s="311"/>
       <c r="M10" s="310"/>
-      <c r="N10" s="319"/>
+      <c r="N10" s="313"/>
       <c r="O10" s="311"/>
-      <c r="P10" s="315"/>
+      <c r="P10" s="316"/>
       <c r="Q10" s="317"/>
     </row>
     <row r="11" spans="1:52" s="128" customFormat="1" x14ac:dyDescent="0.15">
@@ -47543,16 +47554,16 @@
         <v>214</v>
       </c>
       <c r="N23" s="309"/>
-      <c r="O23" s="312" t="s">
+      <c r="O23" s="314" t="s">
         <v>215</v>
       </c>
-      <c r="P23" s="313"/>
-      <c r="Q23" s="314"/>
-      <c r="R23" s="312" t="s">
+      <c r="P23" s="318"/>
+      <c r="Q23" s="315"/>
+      <c r="R23" s="314" t="s">
         <v>216</v>
       </c>
-      <c r="S23" s="313"/>
-      <c r="T23" s="314"/>
+      <c r="S23" s="318"/>
+      <c r="T23" s="315"/>
       <c r="U23" s="308" t="s">
         <v>217</v>
       </c>
@@ -47612,11 +47623,11 @@
       <c r="L24" s="311"/>
       <c r="M24" s="310"/>
       <c r="N24" s="311"/>
-      <c r="O24" s="315"/>
-      <c r="P24" s="316"/>
+      <c r="O24" s="316"/>
+      <c r="P24" s="319"/>
       <c r="Q24" s="317"/>
-      <c r="R24" s="315"/>
-      <c r="S24" s="316"/>
+      <c r="R24" s="316"/>
+      <c r="S24" s="319"/>
       <c r="T24" s="317"/>
       <c r="U24" s="310"/>
       <c r="V24" s="311"/>
@@ -48229,16 +48240,16 @@
         <v>214</v>
       </c>
       <c r="N33" s="309"/>
-      <c r="O33" s="312" t="s">
+      <c r="O33" s="314" t="s">
         <v>215</v>
       </c>
-      <c r="P33" s="313"/>
-      <c r="Q33" s="314"/>
-      <c r="R33" s="312" t="s">
+      <c r="P33" s="318"/>
+      <c r="Q33" s="315"/>
+      <c r="R33" s="314" t="s">
         <v>216</v>
       </c>
-      <c r="S33" s="313"/>
-      <c r="T33" s="314"/>
+      <c r="S33" s="318"/>
+      <c r="T33" s="315"/>
       <c r="U33" s="308" t="s">
         <v>217</v>
       </c>
@@ -48298,11 +48309,11 @@
       <c r="L34" s="311"/>
       <c r="M34" s="310"/>
       <c r="N34" s="311"/>
-      <c r="O34" s="315"/>
-      <c r="P34" s="316"/>
+      <c r="O34" s="316"/>
+      <c r="P34" s="319"/>
       <c r="Q34" s="317"/>
-      <c r="R34" s="315"/>
-      <c r="S34" s="316"/>
+      <c r="R34" s="316"/>
+      <c r="S34" s="319"/>
       <c r="T34" s="317"/>
       <c r="U34" s="310"/>
       <c r="V34" s="311"/>
@@ -49353,16 +49364,16 @@
         <v>214</v>
       </c>
       <c r="N49" s="309"/>
-      <c r="O49" s="312" t="s">
+      <c r="O49" s="314" t="s">
         <v>215</v>
       </c>
-      <c r="P49" s="313"/>
-      <c r="Q49" s="314"/>
-      <c r="R49" s="312" t="s">
+      <c r="P49" s="318"/>
+      <c r="Q49" s="315"/>
+      <c r="R49" s="314" t="s">
         <v>216</v>
       </c>
-      <c r="S49" s="313"/>
-      <c r="T49" s="314"/>
+      <c r="S49" s="318"/>
+      <c r="T49" s="315"/>
       <c r="U49" s="308" t="s">
         <v>217</v>
       </c>
@@ -49422,11 +49433,11 @@
       <c r="L50" s="311"/>
       <c r="M50" s="310"/>
       <c r="N50" s="311"/>
-      <c r="O50" s="315"/>
-      <c r="P50" s="316"/>
+      <c r="O50" s="316"/>
+      <c r="P50" s="319"/>
       <c r="Q50" s="317"/>
-      <c r="R50" s="315"/>
-      <c r="S50" s="316"/>
+      <c r="R50" s="316"/>
+      <c r="S50" s="319"/>
       <c r="T50" s="317"/>
       <c r="U50" s="310"/>
       <c r="V50" s="311"/>
@@ -60673,13 +60684,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="M9:O10"/>
-    <mergeCell ref="P9:Q10"/>
-    <mergeCell ref="O23:Q24"/>
-    <mergeCell ref="R23:T24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="M23:N24"/>
+    <mergeCell ref="K49:L50"/>
+    <mergeCell ref="M49:N50"/>
+    <mergeCell ref="O49:Q50"/>
+    <mergeCell ref="K33:L34"/>
+    <mergeCell ref="M33:N34"/>
+    <mergeCell ref="O33:Q34"/>
     <mergeCell ref="R49:T50"/>
     <mergeCell ref="U49:V50"/>
     <mergeCell ref="AT1:AZ1"/>
@@ -60690,12 +60700,13 @@
     <mergeCell ref="U33:V34"/>
     <mergeCell ref="R33:T34"/>
     <mergeCell ref="U23:V24"/>
-    <mergeCell ref="K49:L50"/>
-    <mergeCell ref="M49:N50"/>
-    <mergeCell ref="O49:Q50"/>
-    <mergeCell ref="K33:L34"/>
-    <mergeCell ref="M33:N34"/>
-    <mergeCell ref="O33:Q34"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="M9:O10"/>
+    <mergeCell ref="P9:Q10"/>
+    <mergeCell ref="O23:Q24"/>
+    <mergeCell ref="R23:T24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="M23:N24"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -64903,6 +64914,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -65060,35 +65086,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -65110,9 +65111,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K13A_当日詳細実績参照.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K13A_当日詳細実績参照.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2EC14B-4636-4923-B077-D668A2BB7F0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324CBE8B-49E0-4EE9-93F9-6EC0A50D404B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4319,6 +4319,18 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="13" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4328,6 +4340,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4355,90 +4452,23 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="28" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -4458,22 +4488,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4533,13 +4551,10 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4548,14 +4563,17 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="9" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4574,24 +4592,6 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="9" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="13" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -5542,7 +5542,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$40" spid="_x0000_s3191"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$40" spid="_x0000_s3193"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6792,108 +6792,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="236" t="s">
+      <c r="A32" s="240" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="236"/>
-      <c r="C32" s="236"/>
-      <c r="D32" s="236"/>
-      <c r="E32" s="236"/>
-      <c r="F32" s="236"/>
-      <c r="G32" s="236"/>
-      <c r="H32" s="236"/>
-      <c r="I32" s="236"/>
-      <c r="J32" s="236"/>
-      <c r="K32" s="236"/>
-      <c r="L32" s="236"/>
-      <c r="M32" s="236"/>
-      <c r="N32" s="236"/>
-      <c r="O32" s="236"/>
-      <c r="P32" s="236"/>
-      <c r="Q32" s="236"/>
-      <c r="R32" s="236"/>
-      <c r="S32" s="236"/>
-      <c r="T32" s="236"/>
-      <c r="U32" s="236"/>
-      <c r="V32" s="236"/>
-      <c r="W32" s="236"/>
-      <c r="X32" s="236"/>
-      <c r="Y32" s="236"/>
-      <c r="Z32" s="236"/>
-      <c r="AA32" s="236"/>
-      <c r="AB32" s="236"/>
-      <c r="AC32" s="236"/>
-      <c r="AD32" s="236"/>
-      <c r="AE32" s="236"/>
-      <c r="AF32" s="236"/>
-      <c r="AG32" s="236"/>
-      <c r="AH32" s="236"/>
-      <c r="AI32" s="236"/>
-      <c r="AJ32" s="236"/>
-      <c r="AK32" s="236"/>
-      <c r="AL32" s="236"/>
-      <c r="AM32" s="236"/>
-      <c r="AN32" s="236"/>
-      <c r="AO32" s="236"/>
-      <c r="AP32" s="236"/>
-      <c r="AQ32" s="236"/>
-      <c r="AR32" s="236"/>
-      <c r="AS32" s="236"/>
-      <c r="AT32" s="236"/>
-      <c r="AU32" s="236"/>
-      <c r="AV32" s="236"/>
-      <c r="AW32" s="236"/>
+      <c r="B32" s="240"/>
+      <c r="C32" s="240"/>
+      <c r="D32" s="240"/>
+      <c r="E32" s="240"/>
+      <c r="F32" s="240"/>
+      <c r="G32" s="240"/>
+      <c r="H32" s="240"/>
+      <c r="I32" s="240"/>
+      <c r="J32" s="240"/>
+      <c r="K32" s="240"/>
+      <c r="L32" s="240"/>
+      <c r="M32" s="240"/>
+      <c r="N32" s="240"/>
+      <c r="O32" s="240"/>
+      <c r="P32" s="240"/>
+      <c r="Q32" s="240"/>
+      <c r="R32" s="240"/>
+      <c r="S32" s="240"/>
+      <c r="T32" s="240"/>
+      <c r="U32" s="240"/>
+      <c r="V32" s="240"/>
+      <c r="W32" s="240"/>
+      <c r="X32" s="240"/>
+      <c r="Y32" s="240"/>
+      <c r="Z32" s="240"/>
+      <c r="AA32" s="240"/>
+      <c r="AB32" s="240"/>
+      <c r="AC32" s="240"/>
+      <c r="AD32" s="240"/>
+      <c r="AE32" s="240"/>
+      <c r="AF32" s="240"/>
+      <c r="AG32" s="240"/>
+      <c r="AH32" s="240"/>
+      <c r="AI32" s="240"/>
+      <c r="AJ32" s="240"/>
+      <c r="AK32" s="240"/>
+      <c r="AL32" s="240"/>
+      <c r="AM32" s="240"/>
+      <c r="AN32" s="240"/>
+      <c r="AO32" s="240"/>
+      <c r="AP32" s="240"/>
+      <c r="AQ32" s="240"/>
+      <c r="AR32" s="240"/>
+      <c r="AS32" s="240"/>
+      <c r="AT32" s="240"/>
+      <c r="AU32" s="240"/>
+      <c r="AV32" s="240"/>
+      <c r="AW32" s="240"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="237"/>
-      <c r="B33" s="237"/>
-      <c r="C33" s="237"/>
-      <c r="D33" s="237"/>
-      <c r="E33" s="237"/>
-      <c r="F33" s="237"/>
-      <c r="G33" s="237"/>
-      <c r="H33" s="237"/>
-      <c r="I33" s="237"/>
-      <c r="J33" s="237"/>
-      <c r="K33" s="237"/>
-      <c r="L33" s="237"/>
-      <c r="M33" s="237"/>
-      <c r="N33" s="237"/>
-      <c r="O33" s="237"/>
-      <c r="P33" s="237"/>
-      <c r="Q33" s="237"/>
-      <c r="R33" s="237"/>
-      <c r="S33" s="237"/>
-      <c r="T33" s="237"/>
-      <c r="U33" s="237"/>
-      <c r="V33" s="237"/>
-      <c r="W33" s="237"/>
-      <c r="X33" s="237"/>
-      <c r="Y33" s="237"/>
-      <c r="Z33" s="237"/>
-      <c r="AA33" s="237"/>
-      <c r="AB33" s="237"/>
-      <c r="AC33" s="237"/>
-      <c r="AD33" s="237"/>
-      <c r="AE33" s="237"/>
-      <c r="AF33" s="237"/>
-      <c r="AG33" s="237"/>
-      <c r="AH33" s="237"/>
-      <c r="AI33" s="237"/>
-      <c r="AJ33" s="237"/>
-      <c r="AK33" s="237"/>
-      <c r="AL33" s="237"/>
-      <c r="AM33" s="237"/>
-      <c r="AN33" s="237"/>
-      <c r="AO33" s="237"/>
-      <c r="AP33" s="237"/>
-      <c r="AQ33" s="237"/>
-      <c r="AR33" s="237"/>
-      <c r="AS33" s="237"/>
-      <c r="AT33" s="237"/>
-      <c r="AU33" s="237"/>
-      <c r="AV33" s="237"/>
-      <c r="AW33" s="237"/>
+      <c r="A33" s="241"/>
+      <c r="B33" s="241"/>
+      <c r="C33" s="241"/>
+      <c r="D33" s="241"/>
+      <c r="E33" s="241"/>
+      <c r="F33" s="241"/>
+      <c r="G33" s="241"/>
+      <c r="H33" s="241"/>
+      <c r="I33" s="241"/>
+      <c r="J33" s="241"/>
+      <c r="K33" s="241"/>
+      <c r="L33" s="241"/>
+      <c r="M33" s="241"/>
+      <c r="N33" s="241"/>
+      <c r="O33" s="241"/>
+      <c r="P33" s="241"/>
+      <c r="Q33" s="241"/>
+      <c r="R33" s="241"/>
+      <c r="S33" s="241"/>
+      <c r="T33" s="241"/>
+      <c r="U33" s="241"/>
+      <c r="V33" s="241"/>
+      <c r="W33" s="241"/>
+      <c r="X33" s="241"/>
+      <c r="Y33" s="241"/>
+      <c r="Z33" s="241"/>
+      <c r="AA33" s="241"/>
+      <c r="AB33" s="241"/>
+      <c r="AC33" s="241"/>
+      <c r="AD33" s="241"/>
+      <c r="AE33" s="241"/>
+      <c r="AF33" s="241"/>
+      <c r="AG33" s="241"/>
+      <c r="AH33" s="241"/>
+      <c r="AI33" s="241"/>
+      <c r="AJ33" s="241"/>
+      <c r="AK33" s="241"/>
+      <c r="AL33" s="241"/>
+      <c r="AM33" s="241"/>
+      <c r="AN33" s="241"/>
+      <c r="AO33" s="241"/>
+      <c r="AP33" s="241"/>
+      <c r="AQ33" s="241"/>
+      <c r="AR33" s="241"/>
+      <c r="AS33" s="241"/>
+      <c r="AT33" s="241"/>
+      <c r="AU33" s="241"/>
+      <c r="AV33" s="241"/>
+      <c r="AW33" s="241"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -6931,55 +6931,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="238"/>
-      <c r="B35" s="238"/>
-      <c r="C35" s="238"/>
-      <c r="D35" s="238"/>
-      <c r="E35" s="238"/>
-      <c r="F35" s="238"/>
-      <c r="G35" s="238"/>
-      <c r="H35" s="238"/>
-      <c r="I35" s="238"/>
-      <c r="J35" s="238"/>
-      <c r="K35" s="238"/>
-      <c r="L35" s="238"/>
-      <c r="M35" s="238"/>
-      <c r="N35" s="238"/>
-      <c r="O35" s="238"/>
-      <c r="P35" s="238"/>
-      <c r="Q35" s="238"/>
-      <c r="R35" s="238"/>
-      <c r="S35" s="238"/>
-      <c r="T35" s="238"/>
-      <c r="U35" s="238"/>
-      <c r="V35" s="238"/>
-      <c r="W35" s="238"/>
-      <c r="X35" s="238"/>
-      <c r="Y35" s="238"/>
-      <c r="Z35" s="238"/>
-      <c r="AA35" s="238"/>
-      <c r="AB35" s="238"/>
-      <c r="AC35" s="238"/>
-      <c r="AD35" s="238"/>
-      <c r="AE35" s="238"/>
-      <c r="AF35" s="238"/>
-      <c r="AG35" s="238"/>
-      <c r="AH35" s="238"/>
-      <c r="AI35" s="238"/>
-      <c r="AJ35" s="238"/>
-      <c r="AK35" s="238"/>
-      <c r="AL35" s="238"/>
-      <c r="AM35" s="238"/>
-      <c r="AN35" s="238"/>
-      <c r="AO35" s="238"/>
-      <c r="AP35" s="238"/>
-      <c r="AQ35" s="238"/>
-      <c r="AR35" s="238"/>
-      <c r="AS35" s="238"/>
-      <c r="AT35" s="238"/>
-      <c r="AU35" s="238"/>
-      <c r="AV35" s="238"/>
-      <c r="AW35" s="238"/>
+      <c r="A35" s="242"/>
+      <c r="B35" s="242"/>
+      <c r="C35" s="242"/>
+      <c r="D35" s="242"/>
+      <c r="E35" s="242"/>
+      <c r="F35" s="242"/>
+      <c r="G35" s="242"/>
+      <c r="H35" s="242"/>
+      <c r="I35" s="242"/>
+      <c r="J35" s="242"/>
+      <c r="K35" s="242"/>
+      <c r="L35" s="242"/>
+      <c r="M35" s="242"/>
+      <c r="N35" s="242"/>
+      <c r="O35" s="242"/>
+      <c r="P35" s="242"/>
+      <c r="Q35" s="242"/>
+      <c r="R35" s="242"/>
+      <c r="S35" s="242"/>
+      <c r="T35" s="242"/>
+      <c r="U35" s="242"/>
+      <c r="V35" s="242"/>
+      <c r="W35" s="242"/>
+      <c r="X35" s="242"/>
+      <c r="Y35" s="242"/>
+      <c r="Z35" s="242"/>
+      <c r="AA35" s="242"/>
+      <c r="AB35" s="242"/>
+      <c r="AC35" s="242"/>
+      <c r="AD35" s="242"/>
+      <c r="AE35" s="242"/>
+      <c r="AF35" s="242"/>
+      <c r="AG35" s="242"/>
+      <c r="AH35" s="242"/>
+      <c r="AI35" s="242"/>
+      <c r="AJ35" s="242"/>
+      <c r="AK35" s="242"/>
+      <c r="AL35" s="242"/>
+      <c r="AM35" s="242"/>
+      <c r="AN35" s="242"/>
+      <c r="AO35" s="242"/>
+      <c r="AP35" s="242"/>
+      <c r="AQ35" s="242"/>
+      <c r="AR35" s="242"/>
+      <c r="AS35" s="242"/>
+      <c r="AT35" s="242"/>
+      <c r="AU35" s="242"/>
+      <c r="AV35" s="242"/>
+      <c r="AW35" s="242"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -7014,1770 +7014,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="54"/>
-      <c r="B1" s="239" t="s">
+      <c r="B1" s="274" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="239"/>
-      <c r="L1" s="239"/>
-      <c r="M1" s="239"/>
-      <c r="N1" s="239"/>
-      <c r="O1" s="239"/>
-      <c r="P1" s="239"/>
-      <c r="Q1" s="239"/>
-      <c r="R1" s="239"/>
-      <c r="S1" s="239"/>
-      <c r="T1" s="239"/>
-      <c r="U1" s="239"/>
-      <c r="V1" s="239"/>
-      <c r="W1" s="239"/>
-      <c r="X1" s="239"/>
-      <c r="Y1" s="239"/>
-      <c r="Z1" s="239"/>
-      <c r="AA1" s="239"/>
-      <c r="AB1" s="239"/>
-      <c r="AC1" s="239"/>
-      <c r="AD1" s="239"/>
-      <c r="AE1" s="239"/>
-      <c r="AF1" s="239"/>
-      <c r="AG1" s="239"/>
-      <c r="AH1" s="239"/>
-      <c r="AI1" s="239"/>
-      <c r="AJ1" s="239"/>
-      <c r="AK1" s="239"/>
-      <c r="AL1" s="239"/>
-      <c r="AM1" s="239"/>
-      <c r="AN1" s="239"/>
-      <c r="AO1" s="239"/>
-      <c r="AP1" s="239"/>
-      <c r="AQ1" s="239"/>
-      <c r="AR1" s="239"/>
-      <c r="AS1" s="239"/>
-      <c r="AT1" s="239"/>
-      <c r="AU1" s="239"/>
-      <c r="AV1" s="239"/>
-      <c r="AW1" s="239"/>
+      <c r="C1" s="274"/>
+      <c r="D1" s="274"/>
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="274"/>
+      <c r="K1" s="274"/>
+      <c r="L1" s="274"/>
+      <c r="M1" s="274"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="274"/>
+      <c r="P1" s="274"/>
+      <c r="Q1" s="274"/>
+      <c r="R1" s="274"/>
+      <c r="S1" s="274"/>
+      <c r="T1" s="274"/>
+      <c r="U1" s="274"/>
+      <c r="V1" s="274"/>
+      <c r="W1" s="274"/>
+      <c r="X1" s="274"/>
+      <c r="Y1" s="274"/>
+      <c r="Z1" s="274"/>
+      <c r="AA1" s="274"/>
+      <c r="AB1" s="274"/>
+      <c r="AC1" s="274"/>
+      <c r="AD1" s="274"/>
+      <c r="AE1" s="274"/>
+      <c r="AF1" s="274"/>
+      <c r="AG1" s="274"/>
+      <c r="AH1" s="274"/>
+      <c r="AI1" s="274"/>
+      <c r="AJ1" s="274"/>
+      <c r="AK1" s="274"/>
+      <c r="AL1" s="274"/>
+      <c r="AM1" s="274"/>
+      <c r="AN1" s="274"/>
+      <c r="AO1" s="274"/>
+      <c r="AP1" s="274"/>
+      <c r="AQ1" s="274"/>
+      <c r="AR1" s="274"/>
+      <c r="AS1" s="274"/>
+      <c r="AT1" s="274"/>
+      <c r="AU1" s="274"/>
+      <c r="AV1" s="274"/>
+      <c r="AW1" s="274"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="240"/>
-      <c r="F2" s="240"/>
-      <c r="G2" s="240"/>
-      <c r="H2" s="240"/>
-      <c r="I2" s="240"/>
-      <c r="J2" s="240"/>
-      <c r="K2" s="240"/>
-      <c r="L2" s="240"/>
-      <c r="M2" s="240"/>
-      <c r="N2" s="240"/>
-      <c r="O2" s="240"/>
-      <c r="P2" s="240"/>
-      <c r="Q2" s="240"/>
-      <c r="R2" s="240"/>
-      <c r="S2" s="240"/>
-      <c r="T2" s="240"/>
-      <c r="U2" s="240"/>
-      <c r="V2" s="240"/>
-      <c r="W2" s="240"/>
-      <c r="X2" s="240"/>
-      <c r="Y2" s="240"/>
-      <c r="Z2" s="240"/>
-      <c r="AA2" s="240"/>
-      <c r="AB2" s="240"/>
-      <c r="AC2" s="240"/>
-      <c r="AD2" s="240"/>
-      <c r="AE2" s="240"/>
-      <c r="AF2" s="240"/>
-      <c r="AG2" s="240"/>
-      <c r="AH2" s="240"/>
-      <c r="AI2" s="240"/>
-      <c r="AJ2" s="240"/>
-      <c r="AK2" s="240"/>
-      <c r="AL2" s="240"/>
-      <c r="AM2" s="240"/>
-      <c r="AN2" s="240"/>
-      <c r="AO2" s="240"/>
-      <c r="AP2" s="240"/>
-      <c r="AQ2" s="240"/>
-      <c r="AR2" s="240"/>
-      <c r="AS2" s="240"/>
-      <c r="AT2" s="240"/>
-      <c r="AU2" s="240"/>
-      <c r="AV2" s="240"/>
-      <c r="AW2" s="240"/>
+      <c r="B2" s="275"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
+      <c r="G2" s="275"/>
+      <c r="H2" s="275"/>
+      <c r="I2" s="275"/>
+      <c r="J2" s="275"/>
+      <c r="K2" s="275"/>
+      <c r="L2" s="275"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="275"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="275"/>
+      <c r="U2" s="275"/>
+      <c r="V2" s="275"/>
+      <c r="W2" s="275"/>
+      <c r="X2" s="275"/>
+      <c r="Y2" s="275"/>
+      <c r="Z2" s="275"/>
+      <c r="AA2" s="275"/>
+      <c r="AB2" s="275"/>
+      <c r="AC2" s="275"/>
+      <c r="AD2" s="275"/>
+      <c r="AE2" s="275"/>
+      <c r="AF2" s="275"/>
+      <c r="AG2" s="275"/>
+      <c r="AH2" s="275"/>
+      <c r="AI2" s="275"/>
+      <c r="AJ2" s="275"/>
+      <c r="AK2" s="275"/>
+      <c r="AL2" s="275"/>
+      <c r="AM2" s="275"/>
+      <c r="AN2" s="275"/>
+      <c r="AO2" s="275"/>
+      <c r="AP2" s="275"/>
+      <c r="AQ2" s="275"/>
+      <c r="AR2" s="275"/>
+      <c r="AS2" s="275"/>
+      <c r="AT2" s="275"/>
+      <c r="AU2" s="275"/>
+      <c r="AV2" s="275"/>
+      <c r="AW2" s="275"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
-      <c r="B3" s="241" t="s">
+      <c r="B3" s="276" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="241"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="241" t="s">
+      <c r="C3" s="276"/>
+      <c r="D3" s="276"/>
+      <c r="E3" s="276" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="241"/>
-      <c r="G3" s="241"/>
-      <c r="H3" s="241"/>
-      <c r="I3" s="241"/>
-      <c r="J3" s="242" t="s">
+      <c r="F3" s="276"/>
+      <c r="G3" s="276"/>
+      <c r="H3" s="276"/>
+      <c r="I3" s="276"/>
+      <c r="J3" s="277" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="243"/>
-      <c r="L3" s="244"/>
-      <c r="M3" s="242" t="s">
+      <c r="K3" s="278"/>
+      <c r="L3" s="279"/>
+      <c r="M3" s="277" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="243"/>
-      <c r="O3" s="243"/>
-      <c r="P3" s="243"/>
-      <c r="Q3" s="243"/>
-      <c r="R3" s="244"/>
-      <c r="S3" s="241" t="s">
+      <c r="N3" s="278"/>
+      <c r="O3" s="278"/>
+      <c r="P3" s="278"/>
+      <c r="Q3" s="278"/>
+      <c r="R3" s="279"/>
+      <c r="S3" s="276" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="241"/>
-      <c r="U3" s="241"/>
-      <c r="V3" s="241" t="s">
+      <c r="T3" s="276"/>
+      <c r="U3" s="276"/>
+      <c r="V3" s="276" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="241"/>
-      <c r="X3" s="241"/>
-      <c r="Y3" s="241"/>
-      <c r="Z3" s="241"/>
-      <c r="AA3" s="241"/>
-      <c r="AB3" s="241"/>
-      <c r="AC3" s="241"/>
-      <c r="AD3" s="241"/>
-      <c r="AE3" s="241"/>
-      <c r="AF3" s="241"/>
-      <c r="AG3" s="241"/>
-      <c r="AH3" s="241"/>
-      <c r="AI3" s="241"/>
-      <c r="AJ3" s="241"/>
-      <c r="AK3" s="241"/>
-      <c r="AL3" s="241"/>
-      <c r="AM3" s="241"/>
-      <c r="AN3" s="241" t="s">
+      <c r="W3" s="276"/>
+      <c r="X3" s="276"/>
+      <c r="Y3" s="276"/>
+      <c r="Z3" s="276"/>
+      <c r="AA3" s="276"/>
+      <c r="AB3" s="276"/>
+      <c r="AC3" s="276"/>
+      <c r="AD3" s="276"/>
+      <c r="AE3" s="276"/>
+      <c r="AF3" s="276"/>
+      <c r="AG3" s="276"/>
+      <c r="AH3" s="276"/>
+      <c r="AI3" s="276"/>
+      <c r="AJ3" s="276"/>
+      <c r="AK3" s="276"/>
+      <c r="AL3" s="276"/>
+      <c r="AM3" s="276"/>
+      <c r="AN3" s="276" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="241"/>
-      <c r="AP3" s="241"/>
-      <c r="AQ3" s="241"/>
-      <c r="AR3" s="241"/>
-      <c r="AS3" s="241" t="s">
+      <c r="AO3" s="276"/>
+      <c r="AP3" s="276"/>
+      <c r="AQ3" s="276"/>
+      <c r="AR3" s="276"/>
+      <c r="AS3" s="276" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="241"/>
-      <c r="AU3" s="241"/>
-      <c r="AV3" s="241"/>
-      <c r="AW3" s="241"/>
+      <c r="AT3" s="276"/>
+      <c r="AU3" s="276"/>
+      <c r="AV3" s="276"/>
+      <c r="AW3" s="276"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
-      <c r="B4" s="241"/>
-      <c r="C4" s="241"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="241"/>
-      <c r="F4" s="241"/>
-      <c r="G4" s="241"/>
-      <c r="H4" s="241"/>
-      <c r="I4" s="241"/>
-      <c r="J4" s="245"/>
-      <c r="K4" s="246"/>
-      <c r="L4" s="247"/>
-      <c r="M4" s="245"/>
-      <c r="N4" s="246"/>
-      <c r="O4" s="246"/>
-      <c r="P4" s="246"/>
-      <c r="Q4" s="246"/>
-      <c r="R4" s="247"/>
-      <c r="S4" s="241"/>
-      <c r="T4" s="241"/>
-      <c r="U4" s="241"/>
-      <c r="V4" s="241"/>
-      <c r="W4" s="241"/>
-      <c r="X4" s="241"/>
-      <c r="Y4" s="241"/>
-      <c r="Z4" s="241"/>
-      <c r="AA4" s="241"/>
-      <c r="AB4" s="241"/>
-      <c r="AC4" s="241"/>
-      <c r="AD4" s="241"/>
-      <c r="AE4" s="241"/>
-      <c r="AF4" s="241"/>
-      <c r="AG4" s="241"/>
-      <c r="AH4" s="241"/>
-      <c r="AI4" s="241"/>
-      <c r="AJ4" s="241"/>
-      <c r="AK4" s="241"/>
-      <c r="AL4" s="241"/>
-      <c r="AM4" s="241"/>
-      <c r="AN4" s="241"/>
-      <c r="AO4" s="241"/>
-      <c r="AP4" s="241"/>
-      <c r="AQ4" s="241"/>
-      <c r="AR4" s="241"/>
-      <c r="AS4" s="241"/>
-      <c r="AT4" s="241"/>
-      <c r="AU4" s="241"/>
-      <c r="AV4" s="241"/>
-      <c r="AW4" s="241"/>
+      <c r="B4" s="276"/>
+      <c r="C4" s="276"/>
+      <c r="D4" s="276"/>
+      <c r="E4" s="276"/>
+      <c r="F4" s="276"/>
+      <c r="G4" s="276"/>
+      <c r="H4" s="276"/>
+      <c r="I4" s="276"/>
+      <c r="J4" s="280"/>
+      <c r="K4" s="281"/>
+      <c r="L4" s="282"/>
+      <c r="M4" s="280"/>
+      <c r="N4" s="281"/>
+      <c r="O4" s="281"/>
+      <c r="P4" s="281"/>
+      <c r="Q4" s="281"/>
+      <c r="R4" s="282"/>
+      <c r="S4" s="276"/>
+      <c r="T4" s="276"/>
+      <c r="U4" s="276"/>
+      <c r="V4" s="276"/>
+      <c r="W4" s="276"/>
+      <c r="X4" s="276"/>
+      <c r="Y4" s="276"/>
+      <c r="Z4" s="276"/>
+      <c r="AA4" s="276"/>
+      <c r="AB4" s="276"/>
+      <c r="AC4" s="276"/>
+      <c r="AD4" s="276"/>
+      <c r="AE4" s="276"/>
+      <c r="AF4" s="276"/>
+      <c r="AG4" s="276"/>
+      <c r="AH4" s="276"/>
+      <c r="AI4" s="276"/>
+      <c r="AJ4" s="276"/>
+      <c r="AK4" s="276"/>
+      <c r="AL4" s="276"/>
+      <c r="AM4" s="276"/>
+      <c r="AN4" s="276"/>
+      <c r="AO4" s="276"/>
+      <c r="AP4" s="276"/>
+      <c r="AQ4" s="276"/>
+      <c r="AR4" s="276"/>
+      <c r="AS4" s="276"/>
+      <c r="AT4" s="276"/>
+      <c r="AU4" s="276"/>
+      <c r="AV4" s="276"/>
+      <c r="AW4" s="276"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
-      <c r="B5" s="249">
+      <c r="B5" s="268">
         <v>1</v>
       </c>
-      <c r="C5" s="249"/>
-      <c r="D5" s="249"/>
-      <c r="E5" s="250">
+      <c r="C5" s="268"/>
+      <c r="D5" s="268"/>
+      <c r="E5" s="249">
         <v>43717</v>
       </c>
-      <c r="F5" s="250"/>
-      <c r="G5" s="250"/>
-      <c r="H5" s="250"/>
-      <c r="I5" s="250"/>
-      <c r="J5" s="251" t="s">
+      <c r="F5" s="249"/>
+      <c r="G5" s="249"/>
+      <c r="H5" s="249"/>
+      <c r="I5" s="249"/>
+      <c r="J5" s="250" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="252"/>
-      <c r="L5" s="253"/>
-      <c r="M5" s="251" t="s">
+      <c r="K5" s="251"/>
+      <c r="L5" s="252"/>
+      <c r="M5" s="250" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="252"/>
-      <c r="O5" s="252"/>
-      <c r="P5" s="252"/>
-      <c r="Q5" s="252"/>
-      <c r="R5" s="253"/>
-      <c r="S5" s="248" t="s">
+      <c r="N5" s="251"/>
+      <c r="O5" s="251"/>
+      <c r="P5" s="251"/>
+      <c r="Q5" s="251"/>
+      <c r="R5" s="252"/>
+      <c r="S5" s="256" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="248"/>
-      <c r="U5" s="248"/>
-      <c r="V5" s="257" t="s">
+      <c r="T5" s="256"/>
+      <c r="U5" s="256"/>
+      <c r="V5" s="267" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="257"/>
-      <c r="X5" s="257"/>
-      <c r="Y5" s="257"/>
-      <c r="Z5" s="257"/>
-      <c r="AA5" s="257"/>
-      <c r="AB5" s="257"/>
-      <c r="AC5" s="257"/>
-      <c r="AD5" s="257"/>
-      <c r="AE5" s="257"/>
-      <c r="AF5" s="257"/>
-      <c r="AG5" s="257"/>
-      <c r="AH5" s="257"/>
-      <c r="AI5" s="257"/>
-      <c r="AJ5" s="257"/>
-      <c r="AK5" s="257"/>
-      <c r="AL5" s="257"/>
-      <c r="AM5" s="257"/>
-      <c r="AN5" s="248" t="s">
+      <c r="W5" s="267"/>
+      <c r="X5" s="267"/>
+      <c r="Y5" s="267"/>
+      <c r="Z5" s="267"/>
+      <c r="AA5" s="267"/>
+      <c r="AB5" s="267"/>
+      <c r="AC5" s="267"/>
+      <c r="AD5" s="267"/>
+      <c r="AE5" s="267"/>
+      <c r="AF5" s="267"/>
+      <c r="AG5" s="267"/>
+      <c r="AH5" s="267"/>
+      <c r="AI5" s="267"/>
+      <c r="AJ5" s="267"/>
+      <c r="AK5" s="267"/>
+      <c r="AL5" s="267"/>
+      <c r="AM5" s="267"/>
+      <c r="AN5" s="256" t="s">
         <v>108</v>
       </c>
-      <c r="AO5" s="248"/>
-      <c r="AP5" s="248"/>
-      <c r="AQ5" s="248"/>
-      <c r="AR5" s="248"/>
-      <c r="AS5" s="248"/>
-      <c r="AT5" s="248"/>
-      <c r="AU5" s="248"/>
-      <c r="AV5" s="248"/>
-      <c r="AW5" s="248"/>
+      <c r="AO5" s="256"/>
+      <c r="AP5" s="256"/>
+      <c r="AQ5" s="256"/>
+      <c r="AR5" s="256"/>
+      <c r="AS5" s="256"/>
+      <c r="AT5" s="256"/>
+      <c r="AU5" s="256"/>
+      <c r="AV5" s="256"/>
+      <c r="AW5" s="256"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="56"/>
-      <c r="B6" s="249"/>
-      <c r="C6" s="249"/>
-      <c r="D6" s="249"/>
-      <c r="E6" s="250"/>
-      <c r="F6" s="250"/>
-      <c r="G6" s="250"/>
-      <c r="H6" s="250"/>
-      <c r="I6" s="250"/>
-      <c r="J6" s="251"/>
-      <c r="K6" s="252"/>
-      <c r="L6" s="253"/>
-      <c r="M6" s="254"/>
-      <c r="N6" s="255"/>
-      <c r="O6" s="255"/>
-      <c r="P6" s="255"/>
-      <c r="Q6" s="255"/>
-      <c r="R6" s="256"/>
-      <c r="S6" s="248"/>
-      <c r="T6" s="248"/>
-      <c r="U6" s="248"/>
-      <c r="V6" s="257"/>
-      <c r="W6" s="257"/>
-      <c r="X6" s="257"/>
-      <c r="Y6" s="257"/>
-      <c r="Z6" s="257"/>
-      <c r="AA6" s="257"/>
-      <c r="AB6" s="257"/>
-      <c r="AC6" s="257"/>
-      <c r="AD6" s="257"/>
-      <c r="AE6" s="257"/>
-      <c r="AF6" s="257"/>
-      <c r="AG6" s="257"/>
-      <c r="AH6" s="257"/>
-      <c r="AI6" s="257"/>
-      <c r="AJ6" s="257"/>
-      <c r="AK6" s="257"/>
-      <c r="AL6" s="257"/>
-      <c r="AM6" s="257"/>
-      <c r="AN6" s="248"/>
-      <c r="AO6" s="248"/>
-      <c r="AP6" s="248"/>
-      <c r="AQ6" s="248"/>
-      <c r="AR6" s="248"/>
-      <c r="AS6" s="248"/>
-      <c r="AT6" s="248"/>
-      <c r="AU6" s="248"/>
-      <c r="AV6" s="248"/>
-      <c r="AW6" s="248"/>
+      <c r="B6" s="268"/>
+      <c r="C6" s="268"/>
+      <c r="D6" s="268"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="249"/>
+      <c r="I6" s="249"/>
+      <c r="J6" s="250"/>
+      <c r="K6" s="251"/>
+      <c r="L6" s="252"/>
+      <c r="M6" s="271"/>
+      <c r="N6" s="272"/>
+      <c r="O6" s="272"/>
+      <c r="P6" s="272"/>
+      <c r="Q6" s="272"/>
+      <c r="R6" s="273"/>
+      <c r="S6" s="256"/>
+      <c r="T6" s="256"/>
+      <c r="U6" s="256"/>
+      <c r="V6" s="267"/>
+      <c r="W6" s="267"/>
+      <c r="X6" s="267"/>
+      <c r="Y6" s="267"/>
+      <c r="Z6" s="267"/>
+      <c r="AA6" s="267"/>
+      <c r="AB6" s="267"/>
+      <c r="AC6" s="267"/>
+      <c r="AD6" s="267"/>
+      <c r="AE6" s="267"/>
+      <c r="AF6" s="267"/>
+      <c r="AG6" s="267"/>
+      <c r="AH6" s="267"/>
+      <c r="AI6" s="267"/>
+      <c r="AJ6" s="267"/>
+      <c r="AK6" s="267"/>
+      <c r="AL6" s="267"/>
+      <c r="AM6" s="267"/>
+      <c r="AN6" s="256"/>
+      <c r="AO6" s="256"/>
+      <c r="AP6" s="256"/>
+      <c r="AQ6" s="256"/>
+      <c r="AR6" s="256"/>
+      <c r="AS6" s="256"/>
+      <c r="AT6" s="256"/>
+      <c r="AU6" s="256"/>
+      <c r="AV6" s="256"/>
+      <c r="AW6" s="256"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
-      <c r="B7" s="249"/>
-      <c r="C7" s="249"/>
-      <c r="D7" s="249"/>
-      <c r="E7" s="250"/>
-      <c r="F7" s="250"/>
-      <c r="G7" s="250"/>
-      <c r="H7" s="250"/>
-      <c r="I7" s="250"/>
-      <c r="J7" s="251"/>
-      <c r="K7" s="252"/>
-      <c r="L7" s="253"/>
-      <c r="M7" s="254"/>
-      <c r="N7" s="255"/>
-      <c r="O7" s="255"/>
-      <c r="P7" s="255"/>
-      <c r="Q7" s="255"/>
-      <c r="R7" s="256"/>
-      <c r="S7" s="248"/>
-      <c r="T7" s="248"/>
-      <c r="U7" s="248"/>
-      <c r="V7" s="257"/>
-      <c r="W7" s="257"/>
-      <c r="X7" s="257"/>
-      <c r="Y7" s="257"/>
-      <c r="Z7" s="257"/>
-      <c r="AA7" s="257"/>
-      <c r="AB7" s="257"/>
-      <c r="AC7" s="257"/>
-      <c r="AD7" s="257"/>
-      <c r="AE7" s="257"/>
-      <c r="AF7" s="257"/>
-      <c r="AG7" s="257"/>
-      <c r="AH7" s="257"/>
-      <c r="AI7" s="257"/>
-      <c r="AJ7" s="257"/>
-      <c r="AK7" s="257"/>
-      <c r="AL7" s="257"/>
-      <c r="AM7" s="257"/>
-      <c r="AN7" s="248"/>
-      <c r="AO7" s="248"/>
-      <c r="AP7" s="248"/>
-      <c r="AQ7" s="248"/>
-      <c r="AR7" s="248"/>
-      <c r="AS7" s="248"/>
-      <c r="AT7" s="248"/>
-      <c r="AU7" s="248"/>
-      <c r="AV7" s="248"/>
-      <c r="AW7" s="248"/>
+      <c r="B7" s="268"/>
+      <c r="C7" s="268"/>
+      <c r="D7" s="268"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="249"/>
+      <c r="I7" s="249"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251"/>
+      <c r="L7" s="252"/>
+      <c r="M7" s="271"/>
+      <c r="N7" s="272"/>
+      <c r="O7" s="272"/>
+      <c r="P7" s="272"/>
+      <c r="Q7" s="272"/>
+      <c r="R7" s="273"/>
+      <c r="S7" s="256"/>
+      <c r="T7" s="256"/>
+      <c r="U7" s="256"/>
+      <c r="V7" s="267"/>
+      <c r="W7" s="267"/>
+      <c r="X7" s="267"/>
+      <c r="Y7" s="267"/>
+      <c r="Z7" s="267"/>
+      <c r="AA7" s="267"/>
+      <c r="AB7" s="267"/>
+      <c r="AC7" s="267"/>
+      <c r="AD7" s="267"/>
+      <c r="AE7" s="267"/>
+      <c r="AF7" s="267"/>
+      <c r="AG7" s="267"/>
+      <c r="AH7" s="267"/>
+      <c r="AI7" s="267"/>
+      <c r="AJ7" s="267"/>
+      <c r="AK7" s="267"/>
+      <c r="AL7" s="267"/>
+      <c r="AM7" s="267"/>
+      <c r="AN7" s="256"/>
+      <c r="AO7" s="256"/>
+      <c r="AP7" s="256"/>
+      <c r="AQ7" s="256"/>
+      <c r="AR7" s="256"/>
+      <c r="AS7" s="256"/>
+      <c r="AT7" s="256"/>
+      <c r="AU7" s="256"/>
+      <c r="AV7" s="256"/>
+      <c r="AW7" s="256"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
-      <c r="B8" s="249"/>
-      <c r="C8" s="249"/>
-      <c r="D8" s="249"/>
-      <c r="E8" s="250"/>
-      <c r="F8" s="250"/>
-      <c r="G8" s="250"/>
-      <c r="H8" s="250"/>
-      <c r="I8" s="250"/>
-      <c r="J8" s="251"/>
-      <c r="K8" s="252"/>
-      <c r="L8" s="253"/>
-      <c r="M8" s="254"/>
-      <c r="N8" s="255"/>
-      <c r="O8" s="255"/>
-      <c r="P8" s="255"/>
-      <c r="Q8" s="255"/>
-      <c r="R8" s="256"/>
-      <c r="S8" s="248"/>
-      <c r="T8" s="248"/>
-      <c r="U8" s="248"/>
-      <c r="V8" s="257"/>
-      <c r="W8" s="257"/>
-      <c r="X8" s="257"/>
-      <c r="Y8" s="257"/>
-      <c r="Z8" s="257"/>
-      <c r="AA8" s="257"/>
-      <c r="AB8" s="257"/>
-      <c r="AC8" s="257"/>
-      <c r="AD8" s="257"/>
-      <c r="AE8" s="257"/>
-      <c r="AF8" s="257"/>
-      <c r="AG8" s="257"/>
-      <c r="AH8" s="257"/>
-      <c r="AI8" s="257"/>
-      <c r="AJ8" s="257"/>
-      <c r="AK8" s="257"/>
-      <c r="AL8" s="257"/>
-      <c r="AM8" s="257"/>
-      <c r="AN8" s="248"/>
-      <c r="AO8" s="248"/>
-      <c r="AP8" s="248"/>
-      <c r="AQ8" s="248"/>
-      <c r="AR8" s="248"/>
-      <c r="AS8" s="248"/>
-      <c r="AT8" s="248"/>
-      <c r="AU8" s="248"/>
-      <c r="AV8" s="248"/>
-      <c r="AW8" s="248"/>
+      <c r="B8" s="268"/>
+      <c r="C8" s="268"/>
+      <c r="D8" s="268"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="249"/>
+      <c r="I8" s="249"/>
+      <c r="J8" s="250"/>
+      <c r="K8" s="251"/>
+      <c r="L8" s="252"/>
+      <c r="M8" s="271"/>
+      <c r="N8" s="272"/>
+      <c r="O8" s="272"/>
+      <c r="P8" s="272"/>
+      <c r="Q8" s="272"/>
+      <c r="R8" s="273"/>
+      <c r="S8" s="256"/>
+      <c r="T8" s="256"/>
+      <c r="U8" s="256"/>
+      <c r="V8" s="267"/>
+      <c r="W8" s="267"/>
+      <c r="X8" s="267"/>
+      <c r="Y8" s="267"/>
+      <c r="Z8" s="267"/>
+      <c r="AA8" s="267"/>
+      <c r="AB8" s="267"/>
+      <c r="AC8" s="267"/>
+      <c r="AD8" s="267"/>
+      <c r="AE8" s="267"/>
+      <c r="AF8" s="267"/>
+      <c r="AG8" s="267"/>
+      <c r="AH8" s="267"/>
+      <c r="AI8" s="267"/>
+      <c r="AJ8" s="267"/>
+      <c r="AK8" s="267"/>
+      <c r="AL8" s="267"/>
+      <c r="AM8" s="267"/>
+      <c r="AN8" s="256"/>
+      <c r="AO8" s="256"/>
+      <c r="AP8" s="256"/>
+      <c r="AQ8" s="256"/>
+      <c r="AR8" s="256"/>
+      <c r="AS8" s="256"/>
+      <c r="AT8" s="256"/>
+      <c r="AU8" s="256"/>
+      <c r="AV8" s="256"/>
+      <c r="AW8" s="256"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
-      <c r="B9" s="249"/>
-      <c r="C9" s="249"/>
-      <c r="D9" s="249"/>
-      <c r="E9" s="250"/>
-      <c r="F9" s="250"/>
-      <c r="G9" s="250"/>
-      <c r="H9" s="250"/>
-      <c r="I9" s="250"/>
-      <c r="J9" s="251"/>
-      <c r="K9" s="252"/>
-      <c r="L9" s="253"/>
-      <c r="M9" s="254"/>
-      <c r="N9" s="255"/>
-      <c r="O9" s="255"/>
-      <c r="P9" s="255"/>
-      <c r="Q9" s="255"/>
-      <c r="R9" s="256"/>
-      <c r="S9" s="248"/>
-      <c r="T9" s="248"/>
-      <c r="U9" s="248"/>
-      <c r="V9" s="257"/>
-      <c r="W9" s="257"/>
-      <c r="X9" s="257"/>
-      <c r="Y9" s="257"/>
-      <c r="Z9" s="257"/>
-      <c r="AA9" s="257"/>
-      <c r="AB9" s="257"/>
-      <c r="AC9" s="257"/>
-      <c r="AD9" s="257"/>
-      <c r="AE9" s="257"/>
-      <c r="AF9" s="257"/>
-      <c r="AG9" s="257"/>
-      <c r="AH9" s="257"/>
-      <c r="AI9" s="257"/>
-      <c r="AJ9" s="257"/>
-      <c r="AK9" s="257"/>
-      <c r="AL9" s="257"/>
-      <c r="AM9" s="257"/>
-      <c r="AN9" s="248"/>
-      <c r="AO9" s="248"/>
-      <c r="AP9" s="248"/>
-      <c r="AQ9" s="248"/>
-      <c r="AR9" s="248"/>
-      <c r="AS9" s="248"/>
-      <c r="AT9" s="248"/>
-      <c r="AU9" s="248"/>
-      <c r="AV9" s="248"/>
-      <c r="AW9" s="248"/>
+      <c r="B9" s="268"/>
+      <c r="C9" s="268"/>
+      <c r="D9" s="268"/>
+      <c r="E9" s="249"/>
+      <c r="F9" s="249"/>
+      <c r="G9" s="249"/>
+      <c r="H9" s="249"/>
+      <c r="I9" s="249"/>
+      <c r="J9" s="250"/>
+      <c r="K9" s="251"/>
+      <c r="L9" s="252"/>
+      <c r="M9" s="271"/>
+      <c r="N9" s="272"/>
+      <c r="O9" s="272"/>
+      <c r="P9" s="272"/>
+      <c r="Q9" s="272"/>
+      <c r="R9" s="273"/>
+      <c r="S9" s="256"/>
+      <c r="T9" s="256"/>
+      <c r="U9" s="256"/>
+      <c r="V9" s="267"/>
+      <c r="W9" s="267"/>
+      <c r="X9" s="267"/>
+      <c r="Y9" s="267"/>
+      <c r="Z9" s="267"/>
+      <c r="AA9" s="267"/>
+      <c r="AB9" s="267"/>
+      <c r="AC9" s="267"/>
+      <c r="AD9" s="267"/>
+      <c r="AE9" s="267"/>
+      <c r="AF9" s="267"/>
+      <c r="AG9" s="267"/>
+      <c r="AH9" s="267"/>
+      <c r="AI9" s="267"/>
+      <c r="AJ9" s="267"/>
+      <c r="AK9" s="267"/>
+      <c r="AL9" s="267"/>
+      <c r="AM9" s="267"/>
+      <c r="AN9" s="256"/>
+      <c r="AO9" s="256"/>
+      <c r="AP9" s="256"/>
+      <c r="AQ9" s="256"/>
+      <c r="AR9" s="256"/>
+      <c r="AS9" s="256"/>
+      <c r="AT9" s="256"/>
+      <c r="AU9" s="256"/>
+      <c r="AV9" s="256"/>
+      <c r="AW9" s="256"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
-      <c r="B10" s="249"/>
-      <c r="C10" s="249"/>
-      <c r="D10" s="249"/>
-      <c r="E10" s="250"/>
-      <c r="F10" s="250"/>
-      <c r="G10" s="250"/>
-      <c r="H10" s="250"/>
-      <c r="I10" s="250"/>
-      <c r="J10" s="251"/>
-      <c r="K10" s="252"/>
-      <c r="L10" s="253"/>
-      <c r="M10" s="254"/>
-      <c r="N10" s="255"/>
-      <c r="O10" s="255"/>
-      <c r="P10" s="255"/>
-      <c r="Q10" s="255"/>
-      <c r="R10" s="256"/>
-      <c r="S10" s="248"/>
-      <c r="T10" s="248"/>
-      <c r="U10" s="248"/>
-      <c r="V10" s="257"/>
-      <c r="W10" s="257"/>
-      <c r="X10" s="257"/>
-      <c r="Y10" s="257"/>
-      <c r="Z10" s="257"/>
-      <c r="AA10" s="257"/>
-      <c r="AB10" s="257"/>
-      <c r="AC10" s="257"/>
-      <c r="AD10" s="257"/>
-      <c r="AE10" s="257"/>
-      <c r="AF10" s="257"/>
-      <c r="AG10" s="257"/>
-      <c r="AH10" s="257"/>
-      <c r="AI10" s="257"/>
-      <c r="AJ10" s="257"/>
-      <c r="AK10" s="257"/>
-      <c r="AL10" s="257"/>
-      <c r="AM10" s="257"/>
-      <c r="AN10" s="248"/>
-      <c r="AO10" s="248"/>
-      <c r="AP10" s="248"/>
-      <c r="AQ10" s="248"/>
-      <c r="AR10" s="248"/>
-      <c r="AS10" s="248"/>
-      <c r="AT10" s="248"/>
-      <c r="AU10" s="248"/>
-      <c r="AV10" s="248"/>
-      <c r="AW10" s="248"/>
+      <c r="B10" s="268"/>
+      <c r="C10" s="268"/>
+      <c r="D10" s="268"/>
+      <c r="E10" s="249"/>
+      <c r="F10" s="249"/>
+      <c r="G10" s="249"/>
+      <c r="H10" s="249"/>
+      <c r="I10" s="249"/>
+      <c r="J10" s="250"/>
+      <c r="K10" s="251"/>
+      <c r="L10" s="252"/>
+      <c r="M10" s="271"/>
+      <c r="N10" s="272"/>
+      <c r="O10" s="272"/>
+      <c r="P10" s="272"/>
+      <c r="Q10" s="272"/>
+      <c r="R10" s="273"/>
+      <c r="S10" s="256"/>
+      <c r="T10" s="256"/>
+      <c r="U10" s="256"/>
+      <c r="V10" s="267"/>
+      <c r="W10" s="267"/>
+      <c r="X10" s="267"/>
+      <c r="Y10" s="267"/>
+      <c r="Z10" s="267"/>
+      <c r="AA10" s="267"/>
+      <c r="AB10" s="267"/>
+      <c r="AC10" s="267"/>
+      <c r="AD10" s="267"/>
+      <c r="AE10" s="267"/>
+      <c r="AF10" s="267"/>
+      <c r="AG10" s="267"/>
+      <c r="AH10" s="267"/>
+      <c r="AI10" s="267"/>
+      <c r="AJ10" s="267"/>
+      <c r="AK10" s="267"/>
+      <c r="AL10" s="267"/>
+      <c r="AM10" s="267"/>
+      <c r="AN10" s="256"/>
+      <c r="AO10" s="256"/>
+      <c r="AP10" s="256"/>
+      <c r="AQ10" s="256"/>
+      <c r="AR10" s="256"/>
+      <c r="AS10" s="256"/>
+      <c r="AT10" s="256"/>
+      <c r="AU10" s="256"/>
+      <c r="AV10" s="256"/>
+      <c r="AW10" s="256"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="249"/>
-      <c r="C11" s="249"/>
-      <c r="D11" s="249"/>
-      <c r="E11" s="250"/>
-      <c r="F11" s="250"/>
-      <c r="G11" s="250"/>
-      <c r="H11" s="250"/>
-      <c r="I11" s="250"/>
-      <c r="J11" s="251"/>
-      <c r="K11" s="252"/>
-      <c r="L11" s="253"/>
-      <c r="M11" s="261"/>
-      <c r="N11" s="262"/>
-      <c r="O11" s="262"/>
-      <c r="P11" s="262"/>
-      <c r="Q11" s="262"/>
-      <c r="R11" s="263"/>
-      <c r="S11" s="248"/>
-      <c r="T11" s="248"/>
-      <c r="U11" s="248"/>
-      <c r="V11" s="264"/>
-      <c r="W11" s="270"/>
-      <c r="X11" s="270"/>
-      <c r="Y11" s="270"/>
-      <c r="Z11" s="270"/>
-      <c r="AA11" s="270"/>
-      <c r="AB11" s="270"/>
-      <c r="AC11" s="270"/>
-      <c r="AD11" s="270"/>
-      <c r="AE11" s="270"/>
-      <c r="AF11" s="270"/>
-      <c r="AG11" s="270"/>
-      <c r="AH11" s="270"/>
-      <c r="AI11" s="270"/>
-      <c r="AJ11" s="270"/>
-      <c r="AK11" s="270"/>
-      <c r="AL11" s="270"/>
-      <c r="AM11" s="271"/>
-      <c r="AN11" s="248"/>
-      <c r="AO11" s="248"/>
-      <c r="AP11" s="248"/>
-      <c r="AQ11" s="248"/>
-      <c r="AR11" s="248"/>
-      <c r="AS11" s="248"/>
-      <c r="AT11" s="248"/>
-      <c r="AU11" s="248"/>
-      <c r="AV11" s="248"/>
-      <c r="AW11" s="248"/>
+      <c r="B11" s="268"/>
+      <c r="C11" s="268"/>
+      <c r="D11" s="268"/>
+      <c r="E11" s="249"/>
+      <c r="F11" s="249"/>
+      <c r="G11" s="249"/>
+      <c r="H11" s="249"/>
+      <c r="I11" s="249"/>
+      <c r="J11" s="250"/>
+      <c r="K11" s="251"/>
+      <c r="L11" s="252"/>
+      <c r="M11" s="263"/>
+      <c r="N11" s="261"/>
+      <c r="O11" s="261"/>
+      <c r="P11" s="261"/>
+      <c r="Q11" s="261"/>
+      <c r="R11" s="262"/>
+      <c r="S11" s="256"/>
+      <c r="T11" s="256"/>
+      <c r="U11" s="256"/>
+      <c r="V11" s="257"/>
+      <c r="W11" s="269"/>
+      <c r="X11" s="269"/>
+      <c r="Y11" s="269"/>
+      <c r="Z11" s="269"/>
+      <c r="AA11" s="269"/>
+      <c r="AB11" s="269"/>
+      <c r="AC11" s="269"/>
+      <c r="AD11" s="269"/>
+      <c r="AE11" s="269"/>
+      <c r="AF11" s="269"/>
+      <c r="AG11" s="269"/>
+      <c r="AH11" s="269"/>
+      <c r="AI11" s="269"/>
+      <c r="AJ11" s="269"/>
+      <c r="AK11" s="269"/>
+      <c r="AL11" s="269"/>
+      <c r="AM11" s="270"/>
+      <c r="AN11" s="256"/>
+      <c r="AO11" s="256"/>
+      <c r="AP11" s="256"/>
+      <c r="AQ11" s="256"/>
+      <c r="AR11" s="256"/>
+      <c r="AS11" s="256"/>
+      <c r="AT11" s="256"/>
+      <c r="AU11" s="256"/>
+      <c r="AV11" s="256"/>
+      <c r="AW11" s="256"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="258"/>
-      <c r="C12" s="259"/>
-      <c r="D12" s="260"/>
-      <c r="E12" s="250"/>
-      <c r="F12" s="250"/>
-      <c r="G12" s="250"/>
-      <c r="H12" s="250"/>
-      <c r="I12" s="250"/>
-      <c r="J12" s="251"/>
-      <c r="K12" s="252"/>
-      <c r="L12" s="253"/>
-      <c r="M12" s="261"/>
-      <c r="N12" s="262"/>
-      <c r="O12" s="262"/>
-      <c r="P12" s="262"/>
-      <c r="Q12" s="262"/>
-      <c r="R12" s="263"/>
-      <c r="S12" s="248"/>
-      <c r="T12" s="248"/>
-      <c r="U12" s="248"/>
-      <c r="V12" s="264"/>
-      <c r="W12" s="265"/>
-      <c r="X12" s="265"/>
-      <c r="Y12" s="265"/>
-      <c r="Z12" s="265"/>
-      <c r="AA12" s="265"/>
-      <c r="AB12" s="265"/>
-      <c r="AC12" s="265"/>
-      <c r="AD12" s="265"/>
-      <c r="AE12" s="265"/>
-      <c r="AF12" s="265"/>
-      <c r="AG12" s="265"/>
-      <c r="AH12" s="265"/>
-      <c r="AI12" s="265"/>
-      <c r="AJ12" s="265"/>
-      <c r="AK12" s="265"/>
-      <c r="AL12" s="265"/>
-      <c r="AM12" s="266"/>
-      <c r="AN12" s="267"/>
-      <c r="AO12" s="268"/>
-      <c r="AP12" s="268"/>
-      <c r="AQ12" s="268"/>
-      <c r="AR12" s="269"/>
-      <c r="AS12" s="267"/>
-      <c r="AT12" s="268"/>
-      <c r="AU12" s="268"/>
-      <c r="AV12" s="268"/>
-      <c r="AW12" s="269"/>
+      <c r="B12" s="246"/>
+      <c r="C12" s="247"/>
+      <c r="D12" s="248"/>
+      <c r="E12" s="249"/>
+      <c r="F12" s="249"/>
+      <c r="G12" s="249"/>
+      <c r="H12" s="249"/>
+      <c r="I12" s="249"/>
+      <c r="J12" s="250"/>
+      <c r="K12" s="251"/>
+      <c r="L12" s="252"/>
+      <c r="M12" s="263"/>
+      <c r="N12" s="261"/>
+      <c r="O12" s="261"/>
+      <c r="P12" s="261"/>
+      <c r="Q12" s="261"/>
+      <c r="R12" s="262"/>
+      <c r="S12" s="256"/>
+      <c r="T12" s="256"/>
+      <c r="U12" s="256"/>
+      <c r="V12" s="257"/>
+      <c r="W12" s="258"/>
+      <c r="X12" s="258"/>
+      <c r="Y12" s="258"/>
+      <c r="Z12" s="258"/>
+      <c r="AA12" s="258"/>
+      <c r="AB12" s="258"/>
+      <c r="AC12" s="258"/>
+      <c r="AD12" s="258"/>
+      <c r="AE12" s="258"/>
+      <c r="AF12" s="258"/>
+      <c r="AG12" s="258"/>
+      <c r="AH12" s="258"/>
+      <c r="AI12" s="258"/>
+      <c r="AJ12" s="258"/>
+      <c r="AK12" s="258"/>
+      <c r="AL12" s="258"/>
+      <c r="AM12" s="259"/>
+      <c r="AN12" s="243"/>
+      <c r="AO12" s="244"/>
+      <c r="AP12" s="244"/>
+      <c r="AQ12" s="244"/>
+      <c r="AR12" s="245"/>
+      <c r="AS12" s="243"/>
+      <c r="AT12" s="244"/>
+      <c r="AU12" s="244"/>
+      <c r="AV12" s="244"/>
+      <c r="AW12" s="245"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
-      <c r="B13" s="258"/>
-      <c r="C13" s="259"/>
-      <c r="D13" s="260"/>
-      <c r="E13" s="250"/>
-      <c r="F13" s="250"/>
-      <c r="G13" s="250"/>
-      <c r="H13" s="250"/>
-      <c r="I13" s="250"/>
-      <c r="J13" s="251"/>
-      <c r="K13" s="252"/>
-      <c r="L13" s="253"/>
-      <c r="M13" s="272"/>
-      <c r="N13" s="262"/>
-      <c r="O13" s="262"/>
-      <c r="P13" s="262"/>
-      <c r="Q13" s="262"/>
-      <c r="R13" s="263"/>
-      <c r="S13" s="248"/>
-      <c r="T13" s="248"/>
-      <c r="U13" s="248"/>
-      <c r="V13" s="264"/>
-      <c r="W13" s="265"/>
-      <c r="X13" s="265"/>
-      <c r="Y13" s="265"/>
-      <c r="Z13" s="265"/>
-      <c r="AA13" s="265"/>
-      <c r="AB13" s="265"/>
-      <c r="AC13" s="265"/>
-      <c r="AD13" s="265"/>
-      <c r="AE13" s="265"/>
-      <c r="AF13" s="265"/>
-      <c r="AG13" s="265"/>
-      <c r="AH13" s="265"/>
-      <c r="AI13" s="265"/>
-      <c r="AJ13" s="265"/>
-      <c r="AK13" s="265"/>
-      <c r="AL13" s="265"/>
-      <c r="AM13" s="266"/>
-      <c r="AN13" s="267"/>
-      <c r="AO13" s="268"/>
-      <c r="AP13" s="268"/>
-      <c r="AQ13" s="268"/>
-      <c r="AR13" s="269"/>
-      <c r="AS13" s="267"/>
-      <c r="AT13" s="268"/>
-      <c r="AU13" s="268"/>
-      <c r="AV13" s="268"/>
-      <c r="AW13" s="269"/>
+      <c r="B13" s="246"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="248"/>
+      <c r="E13" s="249"/>
+      <c r="F13" s="249"/>
+      <c r="G13" s="249"/>
+      <c r="H13" s="249"/>
+      <c r="I13" s="249"/>
+      <c r="J13" s="250"/>
+      <c r="K13" s="251"/>
+      <c r="L13" s="252"/>
+      <c r="M13" s="260"/>
+      <c r="N13" s="261"/>
+      <c r="O13" s="261"/>
+      <c r="P13" s="261"/>
+      <c r="Q13" s="261"/>
+      <c r="R13" s="262"/>
+      <c r="S13" s="256"/>
+      <c r="T13" s="256"/>
+      <c r="U13" s="256"/>
+      <c r="V13" s="257"/>
+      <c r="W13" s="258"/>
+      <c r="X13" s="258"/>
+      <c r="Y13" s="258"/>
+      <c r="Z13" s="258"/>
+      <c r="AA13" s="258"/>
+      <c r="AB13" s="258"/>
+      <c r="AC13" s="258"/>
+      <c r="AD13" s="258"/>
+      <c r="AE13" s="258"/>
+      <c r="AF13" s="258"/>
+      <c r="AG13" s="258"/>
+      <c r="AH13" s="258"/>
+      <c r="AI13" s="258"/>
+      <c r="AJ13" s="258"/>
+      <c r="AK13" s="258"/>
+      <c r="AL13" s="258"/>
+      <c r="AM13" s="259"/>
+      <c r="AN13" s="243"/>
+      <c r="AO13" s="244"/>
+      <c r="AP13" s="244"/>
+      <c r="AQ13" s="244"/>
+      <c r="AR13" s="245"/>
+      <c r="AS13" s="243"/>
+      <c r="AT13" s="244"/>
+      <c r="AU13" s="244"/>
+      <c r="AV13" s="244"/>
+      <c r="AW13" s="245"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
-      <c r="B14" s="258"/>
-      <c r="C14" s="259"/>
-      <c r="D14" s="260"/>
-      <c r="E14" s="250"/>
-      <c r="F14" s="250"/>
-      <c r="G14" s="250"/>
-      <c r="H14" s="250"/>
-      <c r="I14" s="250"/>
-      <c r="J14" s="251"/>
-      <c r="K14" s="252"/>
-      <c r="L14" s="253"/>
-      <c r="M14" s="272"/>
-      <c r="N14" s="262"/>
-      <c r="O14" s="262"/>
-      <c r="P14" s="262"/>
-      <c r="Q14" s="262"/>
-      <c r="R14" s="263"/>
-      <c r="S14" s="248"/>
-      <c r="T14" s="248"/>
-      <c r="U14" s="248"/>
-      <c r="V14" s="273"/>
-      <c r="W14" s="257"/>
-      <c r="X14" s="257"/>
-      <c r="Y14" s="257"/>
-      <c r="Z14" s="257"/>
-      <c r="AA14" s="257"/>
-      <c r="AB14" s="257"/>
-      <c r="AC14" s="257"/>
-      <c r="AD14" s="257"/>
-      <c r="AE14" s="257"/>
-      <c r="AF14" s="257"/>
-      <c r="AG14" s="257"/>
-      <c r="AH14" s="257"/>
-      <c r="AI14" s="257"/>
-      <c r="AJ14" s="257"/>
-      <c r="AK14" s="257"/>
-      <c r="AL14" s="257"/>
-      <c r="AM14" s="257"/>
-      <c r="AN14" s="248"/>
-      <c r="AO14" s="248"/>
-      <c r="AP14" s="248"/>
-      <c r="AQ14" s="248"/>
-      <c r="AR14" s="248"/>
-      <c r="AS14" s="267"/>
-      <c r="AT14" s="268"/>
-      <c r="AU14" s="268"/>
-      <c r="AV14" s="268"/>
-      <c r="AW14" s="269"/>
+      <c r="B14" s="246"/>
+      <c r="C14" s="247"/>
+      <c r="D14" s="248"/>
+      <c r="E14" s="249"/>
+      <c r="F14" s="249"/>
+      <c r="G14" s="249"/>
+      <c r="H14" s="249"/>
+      <c r="I14" s="249"/>
+      <c r="J14" s="250"/>
+      <c r="K14" s="251"/>
+      <c r="L14" s="252"/>
+      <c r="M14" s="260"/>
+      <c r="N14" s="261"/>
+      <c r="O14" s="261"/>
+      <c r="P14" s="261"/>
+      <c r="Q14" s="261"/>
+      <c r="R14" s="262"/>
+      <c r="S14" s="256"/>
+      <c r="T14" s="256"/>
+      <c r="U14" s="256"/>
+      <c r="V14" s="266"/>
+      <c r="W14" s="267"/>
+      <c r="X14" s="267"/>
+      <c r="Y14" s="267"/>
+      <c r="Z14" s="267"/>
+      <c r="AA14" s="267"/>
+      <c r="AB14" s="267"/>
+      <c r="AC14" s="267"/>
+      <c r="AD14" s="267"/>
+      <c r="AE14" s="267"/>
+      <c r="AF14" s="267"/>
+      <c r="AG14" s="267"/>
+      <c r="AH14" s="267"/>
+      <c r="AI14" s="267"/>
+      <c r="AJ14" s="267"/>
+      <c r="AK14" s="267"/>
+      <c r="AL14" s="267"/>
+      <c r="AM14" s="267"/>
+      <c r="AN14" s="256"/>
+      <c r="AO14" s="256"/>
+      <c r="AP14" s="256"/>
+      <c r="AQ14" s="256"/>
+      <c r="AR14" s="256"/>
+      <c r="AS14" s="243"/>
+      <c r="AT14" s="244"/>
+      <c r="AU14" s="244"/>
+      <c r="AV14" s="244"/>
+      <c r="AW14" s="245"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
-      <c r="B15" s="258"/>
-      <c r="C15" s="259"/>
-      <c r="D15" s="260"/>
-      <c r="E15" s="250"/>
-      <c r="F15" s="250"/>
-      <c r="G15" s="250"/>
-      <c r="H15" s="250"/>
-      <c r="I15" s="250"/>
-      <c r="J15" s="251"/>
-      <c r="K15" s="252"/>
-      <c r="L15" s="253"/>
-      <c r="M15" s="261"/>
-      <c r="N15" s="262"/>
-      <c r="O15" s="262"/>
-      <c r="P15" s="262"/>
-      <c r="Q15" s="262"/>
-      <c r="R15" s="263"/>
-      <c r="S15" s="248"/>
-      <c r="T15" s="248"/>
-      <c r="U15" s="248"/>
-      <c r="V15" s="264"/>
-      <c r="W15" s="265"/>
-      <c r="X15" s="265"/>
-      <c r="Y15" s="265"/>
-      <c r="Z15" s="265"/>
-      <c r="AA15" s="265"/>
-      <c r="AB15" s="265"/>
-      <c r="AC15" s="265"/>
-      <c r="AD15" s="265"/>
-      <c r="AE15" s="265"/>
-      <c r="AF15" s="265"/>
-      <c r="AG15" s="265"/>
-      <c r="AH15" s="265"/>
-      <c r="AI15" s="265"/>
-      <c r="AJ15" s="265"/>
-      <c r="AK15" s="265"/>
-      <c r="AL15" s="265"/>
-      <c r="AM15" s="266"/>
-      <c r="AN15" s="267"/>
-      <c r="AO15" s="268"/>
-      <c r="AP15" s="268"/>
-      <c r="AQ15" s="268"/>
-      <c r="AR15" s="269"/>
-      <c r="AS15" s="267"/>
-      <c r="AT15" s="268"/>
-      <c r="AU15" s="268"/>
-      <c r="AV15" s="268"/>
-      <c r="AW15" s="269"/>
+      <c r="B15" s="246"/>
+      <c r="C15" s="247"/>
+      <c r="D15" s="248"/>
+      <c r="E15" s="249"/>
+      <c r="F15" s="249"/>
+      <c r="G15" s="249"/>
+      <c r="H15" s="249"/>
+      <c r="I15" s="249"/>
+      <c r="J15" s="250"/>
+      <c r="K15" s="251"/>
+      <c r="L15" s="252"/>
+      <c r="M15" s="263"/>
+      <c r="N15" s="261"/>
+      <c r="O15" s="261"/>
+      <c r="P15" s="261"/>
+      <c r="Q15" s="261"/>
+      <c r="R15" s="262"/>
+      <c r="S15" s="256"/>
+      <c r="T15" s="256"/>
+      <c r="U15" s="256"/>
+      <c r="V15" s="257"/>
+      <c r="W15" s="258"/>
+      <c r="X15" s="258"/>
+      <c r="Y15" s="258"/>
+      <c r="Z15" s="258"/>
+      <c r="AA15" s="258"/>
+      <c r="AB15" s="258"/>
+      <c r="AC15" s="258"/>
+      <c r="AD15" s="258"/>
+      <c r="AE15" s="258"/>
+      <c r="AF15" s="258"/>
+      <c r="AG15" s="258"/>
+      <c r="AH15" s="258"/>
+      <c r="AI15" s="258"/>
+      <c r="AJ15" s="258"/>
+      <c r="AK15" s="258"/>
+      <c r="AL15" s="258"/>
+      <c r="AM15" s="259"/>
+      <c r="AN15" s="243"/>
+      <c r="AO15" s="244"/>
+      <c r="AP15" s="244"/>
+      <c r="AQ15" s="244"/>
+      <c r="AR15" s="245"/>
+      <c r="AS15" s="243"/>
+      <c r="AT15" s="244"/>
+      <c r="AU15" s="244"/>
+      <c r="AV15" s="244"/>
+      <c r="AW15" s="245"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
-      <c r="B16" s="258"/>
-      <c r="C16" s="259"/>
-      <c r="D16" s="260"/>
-      <c r="E16" s="250"/>
-      <c r="F16" s="250"/>
-      <c r="G16" s="250"/>
-      <c r="H16" s="250"/>
-      <c r="I16" s="250"/>
-      <c r="J16" s="251"/>
-      <c r="K16" s="252"/>
-      <c r="L16" s="253"/>
-      <c r="M16" s="261"/>
-      <c r="N16" s="262"/>
-      <c r="O16" s="262"/>
-      <c r="P16" s="262"/>
-      <c r="Q16" s="262"/>
-      <c r="R16" s="263"/>
-      <c r="S16" s="248"/>
-      <c r="T16" s="248"/>
-      <c r="U16" s="248"/>
-      <c r="V16" s="264"/>
-      <c r="W16" s="265"/>
-      <c r="X16" s="265"/>
-      <c r="Y16" s="265"/>
-      <c r="Z16" s="265"/>
-      <c r="AA16" s="265"/>
-      <c r="AB16" s="265"/>
-      <c r="AC16" s="265"/>
-      <c r="AD16" s="265"/>
-      <c r="AE16" s="265"/>
-      <c r="AF16" s="265"/>
-      <c r="AG16" s="265"/>
-      <c r="AH16" s="265"/>
-      <c r="AI16" s="265"/>
-      <c r="AJ16" s="265"/>
-      <c r="AK16" s="265"/>
-      <c r="AL16" s="265"/>
-      <c r="AM16" s="266"/>
-      <c r="AN16" s="267"/>
-      <c r="AO16" s="268"/>
-      <c r="AP16" s="268"/>
-      <c r="AQ16" s="268"/>
-      <c r="AR16" s="269"/>
-      <c r="AS16" s="267"/>
-      <c r="AT16" s="268"/>
-      <c r="AU16" s="268"/>
-      <c r="AV16" s="268"/>
-      <c r="AW16" s="269"/>
+      <c r="B16" s="246"/>
+      <c r="C16" s="247"/>
+      <c r="D16" s="248"/>
+      <c r="E16" s="249"/>
+      <c r="F16" s="249"/>
+      <c r="G16" s="249"/>
+      <c r="H16" s="249"/>
+      <c r="I16" s="249"/>
+      <c r="J16" s="250"/>
+      <c r="K16" s="251"/>
+      <c r="L16" s="252"/>
+      <c r="M16" s="263"/>
+      <c r="N16" s="261"/>
+      <c r="O16" s="261"/>
+      <c r="P16" s="261"/>
+      <c r="Q16" s="261"/>
+      <c r="R16" s="262"/>
+      <c r="S16" s="256"/>
+      <c r="T16" s="256"/>
+      <c r="U16" s="256"/>
+      <c r="V16" s="257"/>
+      <c r="W16" s="258"/>
+      <c r="X16" s="258"/>
+      <c r="Y16" s="258"/>
+      <c r="Z16" s="258"/>
+      <c r="AA16" s="258"/>
+      <c r="AB16" s="258"/>
+      <c r="AC16" s="258"/>
+      <c r="AD16" s="258"/>
+      <c r="AE16" s="258"/>
+      <c r="AF16" s="258"/>
+      <c r="AG16" s="258"/>
+      <c r="AH16" s="258"/>
+      <c r="AI16" s="258"/>
+      <c r="AJ16" s="258"/>
+      <c r="AK16" s="258"/>
+      <c r="AL16" s="258"/>
+      <c r="AM16" s="259"/>
+      <c r="AN16" s="243"/>
+      <c r="AO16" s="244"/>
+      <c r="AP16" s="244"/>
+      <c r="AQ16" s="244"/>
+      <c r="AR16" s="245"/>
+      <c r="AS16" s="243"/>
+      <c r="AT16" s="244"/>
+      <c r="AU16" s="244"/>
+      <c r="AV16" s="244"/>
+      <c r="AW16" s="245"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
-      <c r="B17" s="258"/>
-      <c r="C17" s="259"/>
-      <c r="D17" s="260"/>
-      <c r="E17" s="250"/>
-      <c r="F17" s="250"/>
-      <c r="G17" s="250"/>
-      <c r="H17" s="250"/>
-      <c r="I17" s="250"/>
-      <c r="J17" s="251"/>
-      <c r="K17" s="252"/>
-      <c r="L17" s="253"/>
-      <c r="M17" s="261"/>
-      <c r="N17" s="262"/>
-      <c r="O17" s="262"/>
-      <c r="P17" s="262"/>
-      <c r="Q17" s="262"/>
-      <c r="R17" s="274"/>
-      <c r="S17" s="275"/>
-      <c r="T17" s="275"/>
-      <c r="U17" s="275"/>
-      <c r="V17" s="264"/>
-      <c r="W17" s="265"/>
-      <c r="X17" s="265"/>
-      <c r="Y17" s="265"/>
-      <c r="Z17" s="265"/>
-      <c r="AA17" s="265"/>
-      <c r="AB17" s="265"/>
-      <c r="AC17" s="265"/>
-      <c r="AD17" s="265"/>
-      <c r="AE17" s="265"/>
-      <c r="AF17" s="265"/>
-      <c r="AG17" s="265"/>
-      <c r="AH17" s="265"/>
-      <c r="AI17" s="265"/>
-      <c r="AJ17" s="265"/>
-      <c r="AK17" s="265"/>
-      <c r="AL17" s="265"/>
-      <c r="AM17" s="266"/>
-      <c r="AN17" s="267"/>
-      <c r="AO17" s="268"/>
-      <c r="AP17" s="268"/>
-      <c r="AQ17" s="268"/>
-      <c r="AR17" s="269"/>
-      <c r="AS17" s="267"/>
-      <c r="AT17" s="268"/>
-      <c r="AU17" s="268"/>
-      <c r="AV17" s="268"/>
-      <c r="AW17" s="269"/>
+      <c r="B17" s="246"/>
+      <c r="C17" s="247"/>
+      <c r="D17" s="248"/>
+      <c r="E17" s="249"/>
+      <c r="F17" s="249"/>
+      <c r="G17" s="249"/>
+      <c r="H17" s="249"/>
+      <c r="I17" s="249"/>
+      <c r="J17" s="250"/>
+      <c r="K17" s="251"/>
+      <c r="L17" s="252"/>
+      <c r="M17" s="263"/>
+      <c r="N17" s="261"/>
+      <c r="O17" s="261"/>
+      <c r="P17" s="261"/>
+      <c r="Q17" s="261"/>
+      <c r="R17" s="264"/>
+      <c r="S17" s="265"/>
+      <c r="T17" s="265"/>
+      <c r="U17" s="265"/>
+      <c r="V17" s="257"/>
+      <c r="W17" s="258"/>
+      <c r="X17" s="258"/>
+      <c r="Y17" s="258"/>
+      <c r="Z17" s="258"/>
+      <c r="AA17" s="258"/>
+      <c r="AB17" s="258"/>
+      <c r="AC17" s="258"/>
+      <c r="AD17" s="258"/>
+      <c r="AE17" s="258"/>
+      <c r="AF17" s="258"/>
+      <c r="AG17" s="258"/>
+      <c r="AH17" s="258"/>
+      <c r="AI17" s="258"/>
+      <c r="AJ17" s="258"/>
+      <c r="AK17" s="258"/>
+      <c r="AL17" s="258"/>
+      <c r="AM17" s="259"/>
+      <c r="AN17" s="243"/>
+      <c r="AO17" s="244"/>
+      <c r="AP17" s="244"/>
+      <c r="AQ17" s="244"/>
+      <c r="AR17" s="245"/>
+      <c r="AS17" s="243"/>
+      <c r="AT17" s="244"/>
+      <c r="AU17" s="244"/>
+      <c r="AV17" s="244"/>
+      <c r="AW17" s="245"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
-      <c r="B18" s="258"/>
-      <c r="C18" s="259"/>
-      <c r="D18" s="260"/>
-      <c r="E18" s="250"/>
-      <c r="F18" s="250"/>
-      <c r="G18" s="250"/>
-      <c r="H18" s="250"/>
-      <c r="I18" s="250"/>
-      <c r="J18" s="251"/>
-      <c r="K18" s="252"/>
-      <c r="L18" s="253"/>
-      <c r="M18" s="272"/>
-      <c r="N18" s="262"/>
-      <c r="O18" s="262"/>
-      <c r="P18" s="262"/>
-      <c r="Q18" s="262"/>
-      <c r="R18" s="263"/>
-      <c r="S18" s="248"/>
-      <c r="T18" s="248"/>
-      <c r="U18" s="248"/>
-      <c r="V18" s="264"/>
-      <c r="W18" s="265"/>
-      <c r="X18" s="265"/>
-      <c r="Y18" s="265"/>
-      <c r="Z18" s="265"/>
-      <c r="AA18" s="265"/>
-      <c r="AB18" s="265"/>
-      <c r="AC18" s="265"/>
-      <c r="AD18" s="265"/>
-      <c r="AE18" s="265"/>
-      <c r="AF18" s="265"/>
-      <c r="AG18" s="265"/>
-      <c r="AH18" s="265"/>
-      <c r="AI18" s="265"/>
-      <c r="AJ18" s="265"/>
-      <c r="AK18" s="265"/>
-      <c r="AL18" s="265"/>
-      <c r="AM18" s="266"/>
-      <c r="AN18" s="267"/>
-      <c r="AO18" s="268"/>
-      <c r="AP18" s="268"/>
-      <c r="AQ18" s="268"/>
-      <c r="AR18" s="269"/>
-      <c r="AS18" s="267"/>
-      <c r="AT18" s="268"/>
-      <c r="AU18" s="268"/>
-      <c r="AV18" s="268"/>
-      <c r="AW18" s="269"/>
+      <c r="B18" s="246"/>
+      <c r="C18" s="247"/>
+      <c r="D18" s="248"/>
+      <c r="E18" s="249"/>
+      <c r="F18" s="249"/>
+      <c r="G18" s="249"/>
+      <c r="H18" s="249"/>
+      <c r="I18" s="249"/>
+      <c r="J18" s="250"/>
+      <c r="K18" s="251"/>
+      <c r="L18" s="252"/>
+      <c r="M18" s="260"/>
+      <c r="N18" s="261"/>
+      <c r="O18" s="261"/>
+      <c r="P18" s="261"/>
+      <c r="Q18" s="261"/>
+      <c r="R18" s="262"/>
+      <c r="S18" s="256"/>
+      <c r="T18" s="256"/>
+      <c r="U18" s="256"/>
+      <c r="V18" s="257"/>
+      <c r="W18" s="258"/>
+      <c r="X18" s="258"/>
+      <c r="Y18" s="258"/>
+      <c r="Z18" s="258"/>
+      <c r="AA18" s="258"/>
+      <c r="AB18" s="258"/>
+      <c r="AC18" s="258"/>
+      <c r="AD18" s="258"/>
+      <c r="AE18" s="258"/>
+      <c r="AF18" s="258"/>
+      <c r="AG18" s="258"/>
+      <c r="AH18" s="258"/>
+      <c r="AI18" s="258"/>
+      <c r="AJ18" s="258"/>
+      <c r="AK18" s="258"/>
+      <c r="AL18" s="258"/>
+      <c r="AM18" s="259"/>
+      <c r="AN18" s="243"/>
+      <c r="AO18" s="244"/>
+      <c r="AP18" s="244"/>
+      <c r="AQ18" s="244"/>
+      <c r="AR18" s="245"/>
+      <c r="AS18" s="243"/>
+      <c r="AT18" s="244"/>
+      <c r="AU18" s="244"/>
+      <c r="AV18" s="244"/>
+      <c r="AW18" s="245"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
-      <c r="B19" s="258"/>
-      <c r="C19" s="259"/>
-      <c r="D19" s="260"/>
-      <c r="E19" s="250"/>
-      <c r="F19" s="250"/>
-      <c r="G19" s="250"/>
-      <c r="H19" s="250"/>
-      <c r="I19" s="250"/>
-      <c r="J19" s="251"/>
-      <c r="K19" s="252"/>
-      <c r="L19" s="253"/>
-      <c r="M19" s="261"/>
-      <c r="N19" s="262"/>
-      <c r="O19" s="262"/>
-      <c r="P19" s="262"/>
-      <c r="Q19" s="262"/>
-      <c r="R19" s="263"/>
-      <c r="S19" s="248"/>
-      <c r="T19" s="248"/>
-      <c r="U19" s="248"/>
-      <c r="V19" s="264"/>
-      <c r="W19" s="265"/>
-      <c r="X19" s="265"/>
-      <c r="Y19" s="265"/>
-      <c r="Z19" s="265"/>
-      <c r="AA19" s="265"/>
-      <c r="AB19" s="265"/>
-      <c r="AC19" s="265"/>
-      <c r="AD19" s="265"/>
-      <c r="AE19" s="265"/>
-      <c r="AF19" s="265"/>
-      <c r="AG19" s="265"/>
-      <c r="AH19" s="265"/>
-      <c r="AI19" s="265"/>
-      <c r="AJ19" s="265"/>
-      <c r="AK19" s="265"/>
-      <c r="AL19" s="265"/>
-      <c r="AM19" s="266"/>
-      <c r="AN19" s="248"/>
-      <c r="AO19" s="248"/>
-      <c r="AP19" s="248"/>
-      <c r="AQ19" s="248"/>
-      <c r="AR19" s="248"/>
-      <c r="AS19" s="267"/>
-      <c r="AT19" s="268"/>
-      <c r="AU19" s="268"/>
-      <c r="AV19" s="268"/>
-      <c r="AW19" s="269"/>
+      <c r="B19" s="246"/>
+      <c r="C19" s="247"/>
+      <c r="D19" s="248"/>
+      <c r="E19" s="249"/>
+      <c r="F19" s="249"/>
+      <c r="G19" s="249"/>
+      <c r="H19" s="249"/>
+      <c r="I19" s="249"/>
+      <c r="J19" s="250"/>
+      <c r="K19" s="251"/>
+      <c r="L19" s="252"/>
+      <c r="M19" s="263"/>
+      <c r="N19" s="261"/>
+      <c r="O19" s="261"/>
+      <c r="P19" s="261"/>
+      <c r="Q19" s="261"/>
+      <c r="R19" s="262"/>
+      <c r="S19" s="256"/>
+      <c r="T19" s="256"/>
+      <c r="U19" s="256"/>
+      <c r="V19" s="257"/>
+      <c r="W19" s="258"/>
+      <c r="X19" s="258"/>
+      <c r="Y19" s="258"/>
+      <c r="Z19" s="258"/>
+      <c r="AA19" s="258"/>
+      <c r="AB19" s="258"/>
+      <c r="AC19" s="258"/>
+      <c r="AD19" s="258"/>
+      <c r="AE19" s="258"/>
+      <c r="AF19" s="258"/>
+      <c r="AG19" s="258"/>
+      <c r="AH19" s="258"/>
+      <c r="AI19" s="258"/>
+      <c r="AJ19" s="258"/>
+      <c r="AK19" s="258"/>
+      <c r="AL19" s="258"/>
+      <c r="AM19" s="259"/>
+      <c r="AN19" s="256"/>
+      <c r="AO19" s="256"/>
+      <c r="AP19" s="256"/>
+      <c r="AQ19" s="256"/>
+      <c r="AR19" s="256"/>
+      <c r="AS19" s="243"/>
+      <c r="AT19" s="244"/>
+      <c r="AU19" s="244"/>
+      <c r="AV19" s="244"/>
+      <c r="AW19" s="245"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
-      <c r="B20" s="258"/>
-      <c r="C20" s="259"/>
-      <c r="D20" s="260"/>
-      <c r="E20" s="250"/>
-      <c r="F20" s="250"/>
-      <c r="G20" s="250"/>
-      <c r="H20" s="250"/>
-      <c r="I20" s="250"/>
-      <c r="J20" s="251"/>
-      <c r="K20" s="252"/>
-      <c r="L20" s="253"/>
-      <c r="M20" s="261"/>
-      <c r="N20" s="262"/>
-      <c r="O20" s="262"/>
-      <c r="P20" s="262"/>
-      <c r="Q20" s="262"/>
-      <c r="R20" s="263"/>
-      <c r="S20" s="267"/>
-      <c r="T20" s="268"/>
-      <c r="U20" s="269"/>
-      <c r="V20" s="264"/>
-      <c r="W20" s="265"/>
-      <c r="X20" s="265"/>
-      <c r="Y20" s="265"/>
-      <c r="Z20" s="265"/>
-      <c r="AA20" s="265"/>
-      <c r="AB20" s="265"/>
-      <c r="AC20" s="265"/>
-      <c r="AD20" s="265"/>
-      <c r="AE20" s="265"/>
-      <c r="AF20" s="265"/>
-      <c r="AG20" s="265"/>
-      <c r="AH20" s="265"/>
-      <c r="AI20" s="265"/>
-      <c r="AJ20" s="265"/>
-      <c r="AK20" s="265"/>
-      <c r="AL20" s="265"/>
-      <c r="AM20" s="266"/>
-      <c r="AN20" s="267"/>
-      <c r="AO20" s="268"/>
-      <c r="AP20" s="268"/>
-      <c r="AQ20" s="268"/>
-      <c r="AR20" s="269"/>
-      <c r="AS20" s="267"/>
-      <c r="AT20" s="268"/>
-      <c r="AU20" s="268"/>
-      <c r="AV20" s="268"/>
-      <c r="AW20" s="269"/>
+      <c r="B20" s="246"/>
+      <c r="C20" s="247"/>
+      <c r="D20" s="248"/>
+      <c r="E20" s="249"/>
+      <c r="F20" s="249"/>
+      <c r="G20" s="249"/>
+      <c r="H20" s="249"/>
+      <c r="I20" s="249"/>
+      <c r="J20" s="250"/>
+      <c r="K20" s="251"/>
+      <c r="L20" s="252"/>
+      <c r="M20" s="263"/>
+      <c r="N20" s="261"/>
+      <c r="O20" s="261"/>
+      <c r="P20" s="261"/>
+      <c r="Q20" s="261"/>
+      <c r="R20" s="262"/>
+      <c r="S20" s="243"/>
+      <c r="T20" s="244"/>
+      <c r="U20" s="245"/>
+      <c r="V20" s="257"/>
+      <c r="W20" s="258"/>
+      <c r="X20" s="258"/>
+      <c r="Y20" s="258"/>
+      <c r="Z20" s="258"/>
+      <c r="AA20" s="258"/>
+      <c r="AB20" s="258"/>
+      <c r="AC20" s="258"/>
+      <c r="AD20" s="258"/>
+      <c r="AE20" s="258"/>
+      <c r="AF20" s="258"/>
+      <c r="AG20" s="258"/>
+      <c r="AH20" s="258"/>
+      <c r="AI20" s="258"/>
+      <c r="AJ20" s="258"/>
+      <c r="AK20" s="258"/>
+      <c r="AL20" s="258"/>
+      <c r="AM20" s="259"/>
+      <c r="AN20" s="243"/>
+      <c r="AO20" s="244"/>
+      <c r="AP20" s="244"/>
+      <c r="AQ20" s="244"/>
+      <c r="AR20" s="245"/>
+      <c r="AS20" s="243"/>
+      <c r="AT20" s="244"/>
+      <c r="AU20" s="244"/>
+      <c r="AV20" s="244"/>
+      <c r="AW20" s="245"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
-      <c r="B21" s="258"/>
-      <c r="C21" s="259"/>
-      <c r="D21" s="260"/>
-      <c r="E21" s="250"/>
-      <c r="F21" s="250"/>
-      <c r="G21" s="250"/>
-      <c r="H21" s="250"/>
-      <c r="I21" s="250"/>
-      <c r="J21" s="251"/>
-      <c r="K21" s="252"/>
-      <c r="L21" s="253"/>
-      <c r="M21" s="261"/>
-      <c r="N21" s="262"/>
-      <c r="O21" s="262"/>
-      <c r="P21" s="262"/>
-      <c r="Q21" s="262"/>
-      <c r="R21" s="263"/>
-      <c r="S21" s="248"/>
-      <c r="T21" s="248"/>
-      <c r="U21" s="248"/>
-      <c r="V21" s="264"/>
-      <c r="W21" s="265"/>
-      <c r="X21" s="265"/>
-      <c r="Y21" s="265"/>
-      <c r="Z21" s="265"/>
-      <c r="AA21" s="265"/>
-      <c r="AB21" s="265"/>
-      <c r="AC21" s="265"/>
-      <c r="AD21" s="265"/>
-      <c r="AE21" s="265"/>
-      <c r="AF21" s="265"/>
-      <c r="AG21" s="265"/>
-      <c r="AH21" s="265"/>
-      <c r="AI21" s="265"/>
-      <c r="AJ21" s="265"/>
-      <c r="AK21" s="265"/>
-      <c r="AL21" s="265"/>
-      <c r="AM21" s="266"/>
-      <c r="AN21" s="267"/>
-      <c r="AO21" s="268"/>
-      <c r="AP21" s="268"/>
-      <c r="AQ21" s="268"/>
-      <c r="AR21" s="269"/>
-      <c r="AS21" s="267"/>
-      <c r="AT21" s="268"/>
-      <c r="AU21" s="268"/>
-      <c r="AV21" s="268"/>
-      <c r="AW21" s="269"/>
+      <c r="B21" s="246"/>
+      <c r="C21" s="247"/>
+      <c r="D21" s="248"/>
+      <c r="E21" s="249"/>
+      <c r="F21" s="249"/>
+      <c r="G21" s="249"/>
+      <c r="H21" s="249"/>
+      <c r="I21" s="249"/>
+      <c r="J21" s="250"/>
+      <c r="K21" s="251"/>
+      <c r="L21" s="252"/>
+      <c r="M21" s="263"/>
+      <c r="N21" s="261"/>
+      <c r="O21" s="261"/>
+      <c r="P21" s="261"/>
+      <c r="Q21" s="261"/>
+      <c r="R21" s="262"/>
+      <c r="S21" s="256"/>
+      <c r="T21" s="256"/>
+      <c r="U21" s="256"/>
+      <c r="V21" s="257"/>
+      <c r="W21" s="258"/>
+      <c r="X21" s="258"/>
+      <c r="Y21" s="258"/>
+      <c r="Z21" s="258"/>
+      <c r="AA21" s="258"/>
+      <c r="AB21" s="258"/>
+      <c r="AC21" s="258"/>
+      <c r="AD21" s="258"/>
+      <c r="AE21" s="258"/>
+      <c r="AF21" s="258"/>
+      <c r="AG21" s="258"/>
+      <c r="AH21" s="258"/>
+      <c r="AI21" s="258"/>
+      <c r="AJ21" s="258"/>
+      <c r="AK21" s="258"/>
+      <c r="AL21" s="258"/>
+      <c r="AM21" s="259"/>
+      <c r="AN21" s="243"/>
+      <c r="AO21" s="244"/>
+      <c r="AP21" s="244"/>
+      <c r="AQ21" s="244"/>
+      <c r="AR21" s="245"/>
+      <c r="AS21" s="243"/>
+      <c r="AT21" s="244"/>
+      <c r="AU21" s="244"/>
+      <c r="AV21" s="244"/>
+      <c r="AW21" s="245"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
-      <c r="B22" s="258"/>
-      <c r="C22" s="259"/>
-      <c r="D22" s="260"/>
-      <c r="E22" s="250"/>
-      <c r="F22" s="250"/>
-      <c r="G22" s="250"/>
-      <c r="H22" s="250"/>
-      <c r="I22" s="250"/>
-      <c r="J22" s="251"/>
-      <c r="K22" s="252"/>
-      <c r="L22" s="253"/>
-      <c r="M22" s="261"/>
-      <c r="N22" s="262"/>
-      <c r="O22" s="262"/>
-      <c r="P22" s="262"/>
-      <c r="Q22" s="262"/>
-      <c r="R22" s="263"/>
-      <c r="S22" s="248"/>
-      <c r="T22" s="248"/>
-      <c r="U22" s="248"/>
-      <c r="V22" s="264"/>
-      <c r="W22" s="265"/>
-      <c r="X22" s="265"/>
-      <c r="Y22" s="265"/>
-      <c r="Z22" s="265"/>
-      <c r="AA22" s="265"/>
-      <c r="AB22" s="265"/>
-      <c r="AC22" s="265"/>
-      <c r="AD22" s="265"/>
-      <c r="AE22" s="265"/>
-      <c r="AF22" s="265"/>
-      <c r="AG22" s="265"/>
-      <c r="AH22" s="265"/>
-      <c r="AI22" s="265"/>
-      <c r="AJ22" s="265"/>
-      <c r="AK22" s="265"/>
-      <c r="AL22" s="265"/>
-      <c r="AM22" s="266"/>
-      <c r="AN22" s="267"/>
-      <c r="AO22" s="268"/>
-      <c r="AP22" s="268"/>
-      <c r="AQ22" s="268"/>
-      <c r="AR22" s="269"/>
-      <c r="AS22" s="267"/>
-      <c r="AT22" s="268"/>
-      <c r="AU22" s="268"/>
-      <c r="AV22" s="268"/>
-      <c r="AW22" s="269"/>
+      <c r="B22" s="246"/>
+      <c r="C22" s="247"/>
+      <c r="D22" s="248"/>
+      <c r="E22" s="249"/>
+      <c r="F22" s="249"/>
+      <c r="G22" s="249"/>
+      <c r="H22" s="249"/>
+      <c r="I22" s="249"/>
+      <c r="J22" s="250"/>
+      <c r="K22" s="251"/>
+      <c r="L22" s="252"/>
+      <c r="M22" s="263"/>
+      <c r="N22" s="261"/>
+      <c r="O22" s="261"/>
+      <c r="P22" s="261"/>
+      <c r="Q22" s="261"/>
+      <c r="R22" s="262"/>
+      <c r="S22" s="256"/>
+      <c r="T22" s="256"/>
+      <c r="U22" s="256"/>
+      <c r="V22" s="257"/>
+      <c r="W22" s="258"/>
+      <c r="X22" s="258"/>
+      <c r="Y22" s="258"/>
+      <c r="Z22" s="258"/>
+      <c r="AA22" s="258"/>
+      <c r="AB22" s="258"/>
+      <c r="AC22" s="258"/>
+      <c r="AD22" s="258"/>
+      <c r="AE22" s="258"/>
+      <c r="AF22" s="258"/>
+      <c r="AG22" s="258"/>
+      <c r="AH22" s="258"/>
+      <c r="AI22" s="258"/>
+      <c r="AJ22" s="258"/>
+      <c r="AK22" s="258"/>
+      <c r="AL22" s="258"/>
+      <c r="AM22" s="259"/>
+      <c r="AN22" s="243"/>
+      <c r="AO22" s="244"/>
+      <c r="AP22" s="244"/>
+      <c r="AQ22" s="244"/>
+      <c r="AR22" s="245"/>
+      <c r="AS22" s="243"/>
+      <c r="AT22" s="244"/>
+      <c r="AU22" s="244"/>
+      <c r="AV22" s="244"/>
+      <c r="AW22" s="245"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
-      <c r="B23" s="258"/>
-      <c r="C23" s="259"/>
-      <c r="D23" s="260"/>
-      <c r="E23" s="250"/>
-      <c r="F23" s="250"/>
-      <c r="G23" s="250"/>
-      <c r="H23" s="250"/>
-      <c r="I23" s="250"/>
-      <c r="J23" s="251"/>
-      <c r="K23" s="252"/>
-      <c r="L23" s="253"/>
-      <c r="M23" s="261"/>
-      <c r="N23" s="262"/>
-      <c r="O23" s="262"/>
-      <c r="P23" s="262"/>
-      <c r="Q23" s="262"/>
-      <c r="R23" s="263"/>
-      <c r="S23" s="248"/>
-      <c r="T23" s="248"/>
-      <c r="U23" s="248"/>
-      <c r="V23" s="264"/>
-      <c r="W23" s="265"/>
-      <c r="X23" s="265"/>
-      <c r="Y23" s="265"/>
-      <c r="Z23" s="265"/>
-      <c r="AA23" s="265"/>
-      <c r="AB23" s="265"/>
-      <c r="AC23" s="265"/>
-      <c r="AD23" s="265"/>
-      <c r="AE23" s="265"/>
-      <c r="AF23" s="265"/>
-      <c r="AG23" s="265"/>
-      <c r="AH23" s="265"/>
-      <c r="AI23" s="265"/>
-      <c r="AJ23" s="265"/>
-      <c r="AK23" s="265"/>
-      <c r="AL23" s="265"/>
-      <c r="AM23" s="266"/>
-      <c r="AN23" s="267"/>
-      <c r="AO23" s="268"/>
-      <c r="AP23" s="268"/>
-      <c r="AQ23" s="268"/>
-      <c r="AR23" s="269"/>
-      <c r="AS23" s="267"/>
-      <c r="AT23" s="268"/>
-      <c r="AU23" s="268"/>
-      <c r="AV23" s="268"/>
-      <c r="AW23" s="269"/>
+      <c r="B23" s="246"/>
+      <c r="C23" s="247"/>
+      <c r="D23" s="248"/>
+      <c r="E23" s="249"/>
+      <c r="F23" s="249"/>
+      <c r="G23" s="249"/>
+      <c r="H23" s="249"/>
+      <c r="I23" s="249"/>
+      <c r="J23" s="250"/>
+      <c r="K23" s="251"/>
+      <c r="L23" s="252"/>
+      <c r="M23" s="263"/>
+      <c r="N23" s="261"/>
+      <c r="O23" s="261"/>
+      <c r="P23" s="261"/>
+      <c r="Q23" s="261"/>
+      <c r="R23" s="262"/>
+      <c r="S23" s="256"/>
+      <c r="T23" s="256"/>
+      <c r="U23" s="256"/>
+      <c r="V23" s="257"/>
+      <c r="W23" s="258"/>
+      <c r="X23" s="258"/>
+      <c r="Y23" s="258"/>
+      <c r="Z23" s="258"/>
+      <c r="AA23" s="258"/>
+      <c r="AB23" s="258"/>
+      <c r="AC23" s="258"/>
+      <c r="AD23" s="258"/>
+      <c r="AE23" s="258"/>
+      <c r="AF23" s="258"/>
+      <c r="AG23" s="258"/>
+      <c r="AH23" s="258"/>
+      <c r="AI23" s="258"/>
+      <c r="AJ23" s="258"/>
+      <c r="AK23" s="258"/>
+      <c r="AL23" s="258"/>
+      <c r="AM23" s="259"/>
+      <c r="AN23" s="243"/>
+      <c r="AO23" s="244"/>
+      <c r="AP23" s="244"/>
+      <c r="AQ23" s="244"/>
+      <c r="AR23" s="245"/>
+      <c r="AS23" s="243"/>
+      <c r="AT23" s="244"/>
+      <c r="AU23" s="244"/>
+      <c r="AV23" s="244"/>
+      <c r="AW23" s="245"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
-      <c r="B24" s="258"/>
-      <c r="C24" s="259"/>
-      <c r="D24" s="260"/>
-      <c r="E24" s="250"/>
-      <c r="F24" s="250"/>
-      <c r="G24" s="250"/>
-      <c r="H24" s="250"/>
-      <c r="I24" s="250"/>
-      <c r="J24" s="251"/>
-      <c r="K24" s="252"/>
-      <c r="L24" s="253"/>
-      <c r="M24" s="261"/>
-      <c r="N24" s="262"/>
-      <c r="O24" s="262"/>
-      <c r="P24" s="262"/>
-      <c r="Q24" s="262"/>
-      <c r="R24" s="263"/>
-      <c r="S24" s="248"/>
-      <c r="T24" s="248"/>
-      <c r="U24" s="248"/>
-      <c r="V24" s="264"/>
-      <c r="W24" s="265"/>
-      <c r="X24" s="265"/>
-      <c r="Y24" s="265"/>
-      <c r="Z24" s="265"/>
-      <c r="AA24" s="265"/>
-      <c r="AB24" s="265"/>
-      <c r="AC24" s="265"/>
-      <c r="AD24" s="265"/>
-      <c r="AE24" s="265"/>
-      <c r="AF24" s="265"/>
-      <c r="AG24" s="265"/>
-      <c r="AH24" s="265"/>
-      <c r="AI24" s="265"/>
-      <c r="AJ24" s="265"/>
-      <c r="AK24" s="265"/>
-      <c r="AL24" s="265"/>
-      <c r="AM24" s="266"/>
-      <c r="AN24" s="267"/>
-      <c r="AO24" s="268"/>
-      <c r="AP24" s="268"/>
-      <c r="AQ24" s="268"/>
-      <c r="AR24" s="269"/>
-      <c r="AS24" s="267"/>
-      <c r="AT24" s="268"/>
-      <c r="AU24" s="268"/>
-      <c r="AV24" s="268"/>
-      <c r="AW24" s="269"/>
+      <c r="B24" s="246"/>
+      <c r="C24" s="247"/>
+      <c r="D24" s="248"/>
+      <c r="E24" s="249"/>
+      <c r="F24" s="249"/>
+      <c r="G24" s="249"/>
+      <c r="H24" s="249"/>
+      <c r="I24" s="249"/>
+      <c r="J24" s="250"/>
+      <c r="K24" s="251"/>
+      <c r="L24" s="252"/>
+      <c r="M24" s="263"/>
+      <c r="N24" s="261"/>
+      <c r="O24" s="261"/>
+      <c r="P24" s="261"/>
+      <c r="Q24" s="261"/>
+      <c r="R24" s="262"/>
+      <c r="S24" s="256"/>
+      <c r="T24" s="256"/>
+      <c r="U24" s="256"/>
+      <c r="V24" s="257"/>
+      <c r="W24" s="258"/>
+      <c r="X24" s="258"/>
+      <c r="Y24" s="258"/>
+      <c r="Z24" s="258"/>
+      <c r="AA24" s="258"/>
+      <c r="AB24" s="258"/>
+      <c r="AC24" s="258"/>
+      <c r="AD24" s="258"/>
+      <c r="AE24" s="258"/>
+      <c r="AF24" s="258"/>
+      <c r="AG24" s="258"/>
+      <c r="AH24" s="258"/>
+      <c r="AI24" s="258"/>
+      <c r="AJ24" s="258"/>
+      <c r="AK24" s="258"/>
+      <c r="AL24" s="258"/>
+      <c r="AM24" s="259"/>
+      <c r="AN24" s="243"/>
+      <c r="AO24" s="244"/>
+      <c r="AP24" s="244"/>
+      <c r="AQ24" s="244"/>
+      <c r="AR24" s="245"/>
+      <c r="AS24" s="243"/>
+      <c r="AT24" s="244"/>
+      <c r="AU24" s="244"/>
+      <c r="AV24" s="244"/>
+      <c r="AW24" s="245"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="54"/>
-      <c r="B25" s="258"/>
-      <c r="C25" s="259"/>
-      <c r="D25" s="260"/>
-      <c r="E25" s="250"/>
-      <c r="F25" s="250"/>
-      <c r="G25" s="250"/>
-      <c r="H25" s="250"/>
-      <c r="I25" s="250"/>
-      <c r="J25" s="251"/>
-      <c r="K25" s="252"/>
-      <c r="L25" s="253"/>
-      <c r="M25" s="272"/>
-      <c r="N25" s="262"/>
-      <c r="O25" s="262"/>
-      <c r="P25" s="262"/>
-      <c r="Q25" s="262"/>
-      <c r="R25" s="263"/>
-      <c r="S25" s="248"/>
-      <c r="T25" s="248"/>
-      <c r="U25" s="248"/>
-      <c r="V25" s="264"/>
-      <c r="W25" s="265"/>
-      <c r="X25" s="265"/>
-      <c r="Y25" s="265"/>
-      <c r="Z25" s="265"/>
-      <c r="AA25" s="265"/>
-      <c r="AB25" s="265"/>
-      <c r="AC25" s="265"/>
-      <c r="AD25" s="265"/>
-      <c r="AE25" s="265"/>
-      <c r="AF25" s="265"/>
-      <c r="AG25" s="265"/>
-      <c r="AH25" s="265"/>
-      <c r="AI25" s="265"/>
-      <c r="AJ25" s="265"/>
-      <c r="AK25" s="265"/>
-      <c r="AL25" s="265"/>
-      <c r="AM25" s="266"/>
-      <c r="AN25" s="267"/>
-      <c r="AO25" s="268"/>
-      <c r="AP25" s="268"/>
-      <c r="AQ25" s="268"/>
-      <c r="AR25" s="269"/>
-      <c r="AS25" s="267"/>
-      <c r="AT25" s="268"/>
-      <c r="AU25" s="268"/>
-      <c r="AV25" s="268"/>
-      <c r="AW25" s="269"/>
+      <c r="B25" s="246"/>
+      <c r="C25" s="247"/>
+      <c r="D25" s="248"/>
+      <c r="E25" s="249"/>
+      <c r="F25" s="249"/>
+      <c r="G25" s="249"/>
+      <c r="H25" s="249"/>
+      <c r="I25" s="249"/>
+      <c r="J25" s="250"/>
+      <c r="K25" s="251"/>
+      <c r="L25" s="252"/>
+      <c r="M25" s="260"/>
+      <c r="N25" s="261"/>
+      <c r="O25" s="261"/>
+      <c r="P25" s="261"/>
+      <c r="Q25" s="261"/>
+      <c r="R25" s="262"/>
+      <c r="S25" s="256"/>
+      <c r="T25" s="256"/>
+      <c r="U25" s="256"/>
+      <c r="V25" s="257"/>
+      <c r="W25" s="258"/>
+      <c r="X25" s="258"/>
+      <c r="Y25" s="258"/>
+      <c r="Z25" s="258"/>
+      <c r="AA25" s="258"/>
+      <c r="AB25" s="258"/>
+      <c r="AC25" s="258"/>
+      <c r="AD25" s="258"/>
+      <c r="AE25" s="258"/>
+      <c r="AF25" s="258"/>
+      <c r="AG25" s="258"/>
+      <c r="AH25" s="258"/>
+      <c r="AI25" s="258"/>
+      <c r="AJ25" s="258"/>
+      <c r="AK25" s="258"/>
+      <c r="AL25" s="258"/>
+      <c r="AM25" s="259"/>
+      <c r="AN25" s="243"/>
+      <c r="AO25" s="244"/>
+      <c r="AP25" s="244"/>
+      <c r="AQ25" s="244"/>
+      <c r="AR25" s="245"/>
+      <c r="AS25" s="243"/>
+      <c r="AT25" s="244"/>
+      <c r="AU25" s="244"/>
+      <c r="AV25" s="244"/>
+      <c r="AW25" s="245"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="54"/>
-      <c r="B26" s="258"/>
-      <c r="C26" s="259"/>
-      <c r="D26" s="260"/>
-      <c r="E26" s="250"/>
-      <c r="F26" s="250"/>
-      <c r="G26" s="250"/>
-      <c r="H26" s="250"/>
-      <c r="I26" s="250"/>
-      <c r="J26" s="251"/>
-      <c r="K26" s="252"/>
-      <c r="L26" s="253"/>
-      <c r="M26" s="272"/>
-      <c r="N26" s="262"/>
-      <c r="O26" s="262"/>
-      <c r="P26" s="262"/>
-      <c r="Q26" s="262"/>
-      <c r="R26" s="263"/>
-      <c r="S26" s="248"/>
-      <c r="T26" s="248"/>
-      <c r="U26" s="248"/>
-      <c r="V26" s="264"/>
-      <c r="W26" s="265"/>
-      <c r="X26" s="265"/>
-      <c r="Y26" s="265"/>
-      <c r="Z26" s="265"/>
-      <c r="AA26" s="265"/>
-      <c r="AB26" s="265"/>
-      <c r="AC26" s="265"/>
-      <c r="AD26" s="265"/>
-      <c r="AE26" s="265"/>
-      <c r="AF26" s="265"/>
-      <c r="AG26" s="265"/>
-      <c r="AH26" s="265"/>
-      <c r="AI26" s="265"/>
-      <c r="AJ26" s="265"/>
-      <c r="AK26" s="265"/>
-      <c r="AL26" s="265"/>
-      <c r="AM26" s="266"/>
-      <c r="AN26" s="267"/>
-      <c r="AO26" s="268"/>
-      <c r="AP26" s="268"/>
-      <c r="AQ26" s="268"/>
-      <c r="AR26" s="269"/>
-      <c r="AS26" s="267"/>
-      <c r="AT26" s="268"/>
-      <c r="AU26" s="268"/>
-      <c r="AV26" s="268"/>
-      <c r="AW26" s="269"/>
+      <c r="B26" s="246"/>
+      <c r="C26" s="247"/>
+      <c r="D26" s="248"/>
+      <c r="E26" s="249"/>
+      <c r="F26" s="249"/>
+      <c r="G26" s="249"/>
+      <c r="H26" s="249"/>
+      <c r="I26" s="249"/>
+      <c r="J26" s="250"/>
+      <c r="K26" s="251"/>
+      <c r="L26" s="252"/>
+      <c r="M26" s="260"/>
+      <c r="N26" s="261"/>
+      <c r="O26" s="261"/>
+      <c r="P26" s="261"/>
+      <c r="Q26" s="261"/>
+      <c r="R26" s="262"/>
+      <c r="S26" s="256"/>
+      <c r="T26" s="256"/>
+      <c r="U26" s="256"/>
+      <c r="V26" s="257"/>
+      <c r="W26" s="258"/>
+      <c r="X26" s="258"/>
+      <c r="Y26" s="258"/>
+      <c r="Z26" s="258"/>
+      <c r="AA26" s="258"/>
+      <c r="AB26" s="258"/>
+      <c r="AC26" s="258"/>
+      <c r="AD26" s="258"/>
+      <c r="AE26" s="258"/>
+      <c r="AF26" s="258"/>
+      <c r="AG26" s="258"/>
+      <c r="AH26" s="258"/>
+      <c r="AI26" s="258"/>
+      <c r="AJ26" s="258"/>
+      <c r="AK26" s="258"/>
+      <c r="AL26" s="258"/>
+      <c r="AM26" s="259"/>
+      <c r="AN26" s="243"/>
+      <c r="AO26" s="244"/>
+      <c r="AP26" s="244"/>
+      <c r="AQ26" s="244"/>
+      <c r="AR26" s="245"/>
+      <c r="AS26" s="243"/>
+      <c r="AT26" s="244"/>
+      <c r="AU26" s="244"/>
+      <c r="AV26" s="244"/>
+      <c r="AW26" s="245"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="54"/>
-      <c r="B27" s="258"/>
-      <c r="C27" s="259"/>
-      <c r="D27" s="260"/>
-      <c r="E27" s="250"/>
-      <c r="F27" s="250"/>
-      <c r="G27" s="250"/>
-      <c r="H27" s="250"/>
-      <c r="I27" s="250"/>
-      <c r="J27" s="251"/>
-      <c r="K27" s="252"/>
-      <c r="L27" s="253"/>
-      <c r="M27" s="272"/>
-      <c r="N27" s="262"/>
-      <c r="O27" s="262"/>
-      <c r="P27" s="262"/>
-      <c r="Q27" s="262"/>
-      <c r="R27" s="263"/>
-      <c r="S27" s="248"/>
-      <c r="T27" s="248"/>
-      <c r="U27" s="248"/>
-      <c r="V27" s="264"/>
-      <c r="W27" s="265"/>
-      <c r="X27" s="265"/>
-      <c r="Y27" s="265"/>
-      <c r="Z27" s="265"/>
-      <c r="AA27" s="265"/>
-      <c r="AB27" s="265"/>
-      <c r="AC27" s="265"/>
-      <c r="AD27" s="265"/>
-      <c r="AE27" s="265"/>
-      <c r="AF27" s="265"/>
-      <c r="AG27" s="265"/>
-      <c r="AH27" s="265"/>
-      <c r="AI27" s="265"/>
-      <c r="AJ27" s="265"/>
-      <c r="AK27" s="265"/>
-      <c r="AL27" s="265"/>
-      <c r="AM27" s="266"/>
-      <c r="AN27" s="267"/>
-      <c r="AO27" s="268"/>
-      <c r="AP27" s="268"/>
-      <c r="AQ27" s="268"/>
-      <c r="AR27" s="269"/>
-      <c r="AS27" s="267"/>
-      <c r="AT27" s="268"/>
-      <c r="AU27" s="268"/>
-      <c r="AV27" s="268"/>
-      <c r="AW27" s="269"/>
+      <c r="B27" s="246"/>
+      <c r="C27" s="247"/>
+      <c r="D27" s="248"/>
+      <c r="E27" s="249"/>
+      <c r="F27" s="249"/>
+      <c r="G27" s="249"/>
+      <c r="H27" s="249"/>
+      <c r="I27" s="249"/>
+      <c r="J27" s="250"/>
+      <c r="K27" s="251"/>
+      <c r="L27" s="252"/>
+      <c r="M27" s="260"/>
+      <c r="N27" s="261"/>
+      <c r="O27" s="261"/>
+      <c r="P27" s="261"/>
+      <c r="Q27" s="261"/>
+      <c r="R27" s="262"/>
+      <c r="S27" s="256"/>
+      <c r="T27" s="256"/>
+      <c r="U27" s="256"/>
+      <c r="V27" s="257"/>
+      <c r="W27" s="258"/>
+      <c r="X27" s="258"/>
+      <c r="Y27" s="258"/>
+      <c r="Z27" s="258"/>
+      <c r="AA27" s="258"/>
+      <c r="AB27" s="258"/>
+      <c r="AC27" s="258"/>
+      <c r="AD27" s="258"/>
+      <c r="AE27" s="258"/>
+      <c r="AF27" s="258"/>
+      <c r="AG27" s="258"/>
+      <c r="AH27" s="258"/>
+      <c r="AI27" s="258"/>
+      <c r="AJ27" s="258"/>
+      <c r="AK27" s="258"/>
+      <c r="AL27" s="258"/>
+      <c r="AM27" s="259"/>
+      <c r="AN27" s="243"/>
+      <c r="AO27" s="244"/>
+      <c r="AP27" s="244"/>
+      <c r="AQ27" s="244"/>
+      <c r="AR27" s="245"/>
+      <c r="AS27" s="243"/>
+      <c r="AT27" s="244"/>
+      <c r="AU27" s="244"/>
+      <c r="AV27" s="244"/>
+      <c r="AW27" s="245"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
-      <c r="B28" s="258"/>
-      <c r="C28" s="259"/>
-      <c r="D28" s="260"/>
-      <c r="E28" s="250"/>
-      <c r="F28" s="250"/>
-      <c r="G28" s="250"/>
-      <c r="H28" s="250"/>
-      <c r="I28" s="250"/>
-      <c r="J28" s="251"/>
-      <c r="K28" s="252"/>
-      <c r="L28" s="253"/>
-      <c r="M28" s="261"/>
-      <c r="N28" s="262"/>
-      <c r="O28" s="262"/>
-      <c r="P28" s="262"/>
-      <c r="Q28" s="262"/>
-      <c r="R28" s="263"/>
-      <c r="S28" s="248"/>
-      <c r="T28" s="248"/>
-      <c r="U28" s="248"/>
-      <c r="V28" s="264"/>
-      <c r="W28" s="265"/>
-      <c r="X28" s="265"/>
-      <c r="Y28" s="265"/>
-      <c r="Z28" s="265"/>
-      <c r="AA28" s="265"/>
-      <c r="AB28" s="265"/>
-      <c r="AC28" s="265"/>
-      <c r="AD28" s="265"/>
-      <c r="AE28" s="265"/>
-      <c r="AF28" s="265"/>
-      <c r="AG28" s="265"/>
-      <c r="AH28" s="265"/>
-      <c r="AI28" s="265"/>
-      <c r="AJ28" s="265"/>
-      <c r="AK28" s="265"/>
-      <c r="AL28" s="265"/>
-      <c r="AM28" s="266"/>
-      <c r="AN28" s="267"/>
-      <c r="AO28" s="268"/>
-      <c r="AP28" s="268"/>
-      <c r="AQ28" s="268"/>
-      <c r="AR28" s="269"/>
-      <c r="AS28" s="267"/>
-      <c r="AT28" s="268"/>
-      <c r="AU28" s="268"/>
-      <c r="AV28" s="268"/>
-      <c r="AW28" s="269"/>
+      <c r="B28" s="246"/>
+      <c r="C28" s="247"/>
+      <c r="D28" s="248"/>
+      <c r="E28" s="249"/>
+      <c r="F28" s="249"/>
+      <c r="G28" s="249"/>
+      <c r="H28" s="249"/>
+      <c r="I28" s="249"/>
+      <c r="J28" s="250"/>
+      <c r="K28" s="251"/>
+      <c r="L28" s="252"/>
+      <c r="M28" s="263"/>
+      <c r="N28" s="261"/>
+      <c r="O28" s="261"/>
+      <c r="P28" s="261"/>
+      <c r="Q28" s="261"/>
+      <c r="R28" s="262"/>
+      <c r="S28" s="256"/>
+      <c r="T28" s="256"/>
+      <c r="U28" s="256"/>
+      <c r="V28" s="257"/>
+      <c r="W28" s="258"/>
+      <c r="X28" s="258"/>
+      <c r="Y28" s="258"/>
+      <c r="Z28" s="258"/>
+      <c r="AA28" s="258"/>
+      <c r="AB28" s="258"/>
+      <c r="AC28" s="258"/>
+      <c r="AD28" s="258"/>
+      <c r="AE28" s="258"/>
+      <c r="AF28" s="258"/>
+      <c r="AG28" s="258"/>
+      <c r="AH28" s="258"/>
+      <c r="AI28" s="258"/>
+      <c r="AJ28" s="258"/>
+      <c r="AK28" s="258"/>
+      <c r="AL28" s="258"/>
+      <c r="AM28" s="259"/>
+      <c r="AN28" s="243"/>
+      <c r="AO28" s="244"/>
+      <c r="AP28" s="244"/>
+      <c r="AQ28" s="244"/>
+      <c r="AR28" s="245"/>
+      <c r="AS28" s="243"/>
+      <c r="AT28" s="244"/>
+      <c r="AU28" s="244"/>
+      <c r="AV28" s="244"/>
+      <c r="AW28" s="245"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="54"/>
-      <c r="B29" s="258"/>
-      <c r="C29" s="259"/>
-      <c r="D29" s="260"/>
-      <c r="E29" s="250"/>
-      <c r="F29" s="250"/>
-      <c r="G29" s="250"/>
-      <c r="H29" s="250"/>
-      <c r="I29" s="250"/>
-      <c r="J29" s="251"/>
-      <c r="K29" s="252"/>
-      <c r="L29" s="253"/>
-      <c r="M29" s="261"/>
-      <c r="N29" s="262"/>
-      <c r="O29" s="262"/>
-      <c r="P29" s="262"/>
-      <c r="Q29" s="262"/>
-      <c r="R29" s="263"/>
-      <c r="S29" s="248"/>
-      <c r="T29" s="248"/>
-      <c r="U29" s="248"/>
-      <c r="V29" s="264"/>
-      <c r="W29" s="265"/>
-      <c r="X29" s="265"/>
-      <c r="Y29" s="265"/>
-      <c r="Z29" s="265"/>
-      <c r="AA29" s="265"/>
-      <c r="AB29" s="265"/>
-      <c r="AC29" s="265"/>
-      <c r="AD29" s="265"/>
-      <c r="AE29" s="265"/>
-      <c r="AF29" s="265"/>
-      <c r="AG29" s="265"/>
-      <c r="AH29" s="265"/>
-      <c r="AI29" s="265"/>
-      <c r="AJ29" s="265"/>
-      <c r="AK29" s="265"/>
-      <c r="AL29" s="265"/>
-      <c r="AM29" s="266"/>
-      <c r="AN29" s="267"/>
-      <c r="AO29" s="268"/>
-      <c r="AP29" s="268"/>
-      <c r="AQ29" s="268"/>
-      <c r="AR29" s="269"/>
-      <c r="AS29" s="267"/>
-      <c r="AT29" s="268"/>
-      <c r="AU29" s="268"/>
-      <c r="AV29" s="268"/>
-      <c r="AW29" s="269"/>
+      <c r="B29" s="246"/>
+      <c r="C29" s="247"/>
+      <c r="D29" s="248"/>
+      <c r="E29" s="249"/>
+      <c r="F29" s="249"/>
+      <c r="G29" s="249"/>
+      <c r="H29" s="249"/>
+      <c r="I29" s="249"/>
+      <c r="J29" s="250"/>
+      <c r="K29" s="251"/>
+      <c r="L29" s="252"/>
+      <c r="M29" s="263"/>
+      <c r="N29" s="261"/>
+      <c r="O29" s="261"/>
+      <c r="P29" s="261"/>
+      <c r="Q29" s="261"/>
+      <c r="R29" s="262"/>
+      <c r="S29" s="256"/>
+      <c r="T29" s="256"/>
+      <c r="U29" s="256"/>
+      <c r="V29" s="257"/>
+      <c r="W29" s="258"/>
+      <c r="X29" s="258"/>
+      <c r="Y29" s="258"/>
+      <c r="Z29" s="258"/>
+      <c r="AA29" s="258"/>
+      <c r="AB29" s="258"/>
+      <c r="AC29" s="258"/>
+      <c r="AD29" s="258"/>
+      <c r="AE29" s="258"/>
+      <c r="AF29" s="258"/>
+      <c r="AG29" s="258"/>
+      <c r="AH29" s="258"/>
+      <c r="AI29" s="258"/>
+      <c r="AJ29" s="258"/>
+      <c r="AK29" s="258"/>
+      <c r="AL29" s="258"/>
+      <c r="AM29" s="259"/>
+      <c r="AN29" s="243"/>
+      <c r="AO29" s="244"/>
+      <c r="AP29" s="244"/>
+      <c r="AQ29" s="244"/>
+      <c r="AR29" s="245"/>
+      <c r="AS29" s="243"/>
+      <c r="AT29" s="244"/>
+      <c r="AU29" s="244"/>
+      <c r="AV29" s="244"/>
+      <c r="AW29" s="245"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
-      <c r="B30" s="258"/>
-      <c r="C30" s="259"/>
-      <c r="D30" s="260"/>
-      <c r="E30" s="250"/>
-      <c r="F30" s="250"/>
-      <c r="G30" s="250"/>
-      <c r="H30" s="250"/>
-      <c r="I30" s="250"/>
-      <c r="J30" s="251"/>
-      <c r="K30" s="252"/>
-      <c r="L30" s="253"/>
-      <c r="M30" s="272"/>
-      <c r="N30" s="262"/>
-      <c r="O30" s="262"/>
-      <c r="P30" s="262"/>
-      <c r="Q30" s="262"/>
-      <c r="R30" s="263"/>
-      <c r="S30" s="248"/>
-      <c r="T30" s="248"/>
-      <c r="U30" s="248"/>
-      <c r="V30" s="264"/>
-      <c r="W30" s="265"/>
-      <c r="X30" s="265"/>
-      <c r="Y30" s="265"/>
-      <c r="Z30" s="265"/>
-      <c r="AA30" s="265"/>
-      <c r="AB30" s="265"/>
-      <c r="AC30" s="265"/>
-      <c r="AD30" s="265"/>
-      <c r="AE30" s="265"/>
-      <c r="AF30" s="265"/>
-      <c r="AG30" s="265"/>
-      <c r="AH30" s="265"/>
-      <c r="AI30" s="265"/>
-      <c r="AJ30" s="265"/>
-      <c r="AK30" s="265"/>
-      <c r="AL30" s="265"/>
-      <c r="AM30" s="266"/>
-      <c r="AN30" s="267"/>
-      <c r="AO30" s="268"/>
-      <c r="AP30" s="268"/>
-      <c r="AQ30" s="268"/>
-      <c r="AR30" s="269"/>
-      <c r="AS30" s="267"/>
-      <c r="AT30" s="268"/>
-      <c r="AU30" s="268"/>
-      <c r="AV30" s="268"/>
-      <c r="AW30" s="269"/>
+      <c r="B30" s="246"/>
+      <c r="C30" s="247"/>
+      <c r="D30" s="248"/>
+      <c r="E30" s="249"/>
+      <c r="F30" s="249"/>
+      <c r="G30" s="249"/>
+      <c r="H30" s="249"/>
+      <c r="I30" s="249"/>
+      <c r="J30" s="250"/>
+      <c r="K30" s="251"/>
+      <c r="L30" s="252"/>
+      <c r="M30" s="260"/>
+      <c r="N30" s="261"/>
+      <c r="O30" s="261"/>
+      <c r="P30" s="261"/>
+      <c r="Q30" s="261"/>
+      <c r="R30" s="262"/>
+      <c r="S30" s="256"/>
+      <c r="T30" s="256"/>
+      <c r="U30" s="256"/>
+      <c r="V30" s="257"/>
+      <c r="W30" s="258"/>
+      <c r="X30" s="258"/>
+      <c r="Y30" s="258"/>
+      <c r="Z30" s="258"/>
+      <c r="AA30" s="258"/>
+      <c r="AB30" s="258"/>
+      <c r="AC30" s="258"/>
+      <c r="AD30" s="258"/>
+      <c r="AE30" s="258"/>
+      <c r="AF30" s="258"/>
+      <c r="AG30" s="258"/>
+      <c r="AH30" s="258"/>
+      <c r="AI30" s="258"/>
+      <c r="AJ30" s="258"/>
+      <c r="AK30" s="258"/>
+      <c r="AL30" s="258"/>
+      <c r="AM30" s="259"/>
+      <c r="AN30" s="243"/>
+      <c r="AO30" s="244"/>
+      <c r="AP30" s="244"/>
+      <c r="AQ30" s="244"/>
+      <c r="AR30" s="245"/>
+      <c r="AS30" s="243"/>
+      <c r="AT30" s="244"/>
+      <c r="AU30" s="244"/>
+      <c r="AV30" s="244"/>
+      <c r="AW30" s="245"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
-      <c r="B31" s="258"/>
-      <c r="C31" s="259"/>
-      <c r="D31" s="260"/>
-      <c r="E31" s="250"/>
-      <c r="F31" s="250"/>
-      <c r="G31" s="250"/>
-      <c r="H31" s="250"/>
-      <c r="I31" s="250"/>
-      <c r="J31" s="251"/>
-      <c r="K31" s="252"/>
-      <c r="L31" s="253"/>
-      <c r="M31" s="272"/>
-      <c r="N31" s="262"/>
-      <c r="O31" s="262"/>
-      <c r="P31" s="262"/>
-      <c r="Q31" s="262"/>
-      <c r="R31" s="263"/>
-      <c r="S31" s="248"/>
-      <c r="T31" s="248"/>
-      <c r="U31" s="248"/>
-      <c r="V31" s="264"/>
-      <c r="W31" s="265"/>
-      <c r="X31" s="265"/>
-      <c r="Y31" s="265"/>
-      <c r="Z31" s="265"/>
-      <c r="AA31" s="265"/>
-      <c r="AB31" s="265"/>
-      <c r="AC31" s="265"/>
-      <c r="AD31" s="265"/>
-      <c r="AE31" s="265"/>
-      <c r="AF31" s="265"/>
-      <c r="AG31" s="265"/>
-      <c r="AH31" s="265"/>
-      <c r="AI31" s="265"/>
-      <c r="AJ31" s="265"/>
-      <c r="AK31" s="265"/>
-      <c r="AL31" s="265"/>
-      <c r="AM31" s="266"/>
-      <c r="AN31" s="267"/>
-      <c r="AO31" s="268"/>
-      <c r="AP31" s="268"/>
-      <c r="AQ31" s="268"/>
-      <c r="AR31" s="269"/>
-      <c r="AS31" s="267"/>
-      <c r="AT31" s="268"/>
-      <c r="AU31" s="268"/>
-      <c r="AV31" s="268"/>
-      <c r="AW31" s="269"/>
+      <c r="B31" s="246"/>
+      <c r="C31" s="247"/>
+      <c r="D31" s="248"/>
+      <c r="E31" s="249"/>
+      <c r="F31" s="249"/>
+      <c r="G31" s="249"/>
+      <c r="H31" s="249"/>
+      <c r="I31" s="249"/>
+      <c r="J31" s="250"/>
+      <c r="K31" s="251"/>
+      <c r="L31" s="252"/>
+      <c r="M31" s="260"/>
+      <c r="N31" s="261"/>
+      <c r="O31" s="261"/>
+      <c r="P31" s="261"/>
+      <c r="Q31" s="261"/>
+      <c r="R31" s="262"/>
+      <c r="S31" s="256"/>
+      <c r="T31" s="256"/>
+      <c r="U31" s="256"/>
+      <c r="V31" s="257"/>
+      <c r="W31" s="258"/>
+      <c r="X31" s="258"/>
+      <c r="Y31" s="258"/>
+      <c r="Z31" s="258"/>
+      <c r="AA31" s="258"/>
+      <c r="AB31" s="258"/>
+      <c r="AC31" s="258"/>
+      <c r="AD31" s="258"/>
+      <c r="AE31" s="258"/>
+      <c r="AF31" s="258"/>
+      <c r="AG31" s="258"/>
+      <c r="AH31" s="258"/>
+      <c r="AI31" s="258"/>
+      <c r="AJ31" s="258"/>
+      <c r="AK31" s="258"/>
+      <c r="AL31" s="258"/>
+      <c r="AM31" s="259"/>
+      <c r="AN31" s="243"/>
+      <c r="AO31" s="244"/>
+      <c r="AP31" s="244"/>
+      <c r="AQ31" s="244"/>
+      <c r="AR31" s="245"/>
+      <c r="AS31" s="243"/>
+      <c r="AT31" s="244"/>
+      <c r="AU31" s="244"/>
+      <c r="AV31" s="244"/>
+      <c r="AW31" s="245"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
-      <c r="B32" s="258"/>
-      <c r="C32" s="259"/>
-      <c r="D32" s="260"/>
-      <c r="E32" s="250"/>
-      <c r="F32" s="250"/>
-      <c r="G32" s="250"/>
-      <c r="H32" s="250"/>
-      <c r="I32" s="250"/>
-      <c r="J32" s="251"/>
-      <c r="K32" s="252"/>
-      <c r="L32" s="253"/>
-      <c r="M32" s="272"/>
-      <c r="N32" s="262"/>
-      <c r="O32" s="262"/>
-      <c r="P32" s="262"/>
-      <c r="Q32" s="262"/>
-      <c r="R32" s="263"/>
-      <c r="S32" s="248"/>
-      <c r="T32" s="248"/>
-      <c r="U32" s="248"/>
-      <c r="V32" s="264"/>
-      <c r="W32" s="265"/>
-      <c r="X32" s="265"/>
-      <c r="Y32" s="265"/>
-      <c r="Z32" s="265"/>
-      <c r="AA32" s="265"/>
-      <c r="AB32" s="265"/>
-      <c r="AC32" s="265"/>
-      <c r="AD32" s="265"/>
-      <c r="AE32" s="265"/>
-      <c r="AF32" s="265"/>
-      <c r="AG32" s="265"/>
-      <c r="AH32" s="265"/>
-      <c r="AI32" s="265"/>
-      <c r="AJ32" s="265"/>
-      <c r="AK32" s="265"/>
-      <c r="AL32" s="265"/>
-      <c r="AM32" s="266"/>
-      <c r="AN32" s="267"/>
-      <c r="AO32" s="268"/>
-      <c r="AP32" s="268"/>
-      <c r="AQ32" s="268"/>
-      <c r="AR32" s="269"/>
-      <c r="AS32" s="267"/>
-      <c r="AT32" s="268"/>
-      <c r="AU32" s="268"/>
-      <c r="AV32" s="268"/>
-      <c r="AW32" s="269"/>
+      <c r="B32" s="246"/>
+      <c r="C32" s="247"/>
+      <c r="D32" s="248"/>
+      <c r="E32" s="249"/>
+      <c r="F32" s="249"/>
+      <c r="G32" s="249"/>
+      <c r="H32" s="249"/>
+      <c r="I32" s="249"/>
+      <c r="J32" s="250"/>
+      <c r="K32" s="251"/>
+      <c r="L32" s="252"/>
+      <c r="M32" s="260"/>
+      <c r="N32" s="261"/>
+      <c r="O32" s="261"/>
+      <c r="P32" s="261"/>
+      <c r="Q32" s="261"/>
+      <c r="R32" s="262"/>
+      <c r="S32" s="256"/>
+      <c r="T32" s="256"/>
+      <c r="U32" s="256"/>
+      <c r="V32" s="257"/>
+      <c r="W32" s="258"/>
+      <c r="X32" s="258"/>
+      <c r="Y32" s="258"/>
+      <c r="Z32" s="258"/>
+      <c r="AA32" s="258"/>
+      <c r="AB32" s="258"/>
+      <c r="AC32" s="258"/>
+      <c r="AD32" s="258"/>
+      <c r="AE32" s="258"/>
+      <c r="AF32" s="258"/>
+      <c r="AG32" s="258"/>
+      <c r="AH32" s="258"/>
+      <c r="AI32" s="258"/>
+      <c r="AJ32" s="258"/>
+      <c r="AK32" s="258"/>
+      <c r="AL32" s="258"/>
+      <c r="AM32" s="259"/>
+      <c r="AN32" s="243"/>
+      <c r="AO32" s="244"/>
+      <c r="AP32" s="244"/>
+      <c r="AQ32" s="244"/>
+      <c r="AR32" s="245"/>
+      <c r="AS32" s="243"/>
+      <c r="AT32" s="244"/>
+      <c r="AU32" s="244"/>
+      <c r="AV32" s="244"/>
+      <c r="AW32" s="245"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="258"/>
-      <c r="C33" s="259"/>
-      <c r="D33" s="260"/>
-      <c r="E33" s="250"/>
-      <c r="F33" s="250"/>
-      <c r="G33" s="250"/>
-      <c r="H33" s="250"/>
-      <c r="I33" s="250"/>
-      <c r="J33" s="251"/>
-      <c r="K33" s="252"/>
-      <c r="L33" s="253"/>
-      <c r="M33" s="272"/>
-      <c r="N33" s="262"/>
-      <c r="O33" s="262"/>
-      <c r="P33" s="262"/>
-      <c r="Q33" s="262"/>
-      <c r="R33" s="263"/>
-      <c r="S33" s="248"/>
-      <c r="T33" s="248"/>
-      <c r="U33" s="248"/>
-      <c r="V33" s="264"/>
-      <c r="W33" s="265"/>
-      <c r="X33" s="265"/>
-      <c r="Y33" s="265"/>
-      <c r="Z33" s="265"/>
-      <c r="AA33" s="265"/>
-      <c r="AB33" s="265"/>
-      <c r="AC33" s="265"/>
-      <c r="AD33" s="265"/>
-      <c r="AE33" s="265"/>
-      <c r="AF33" s="265"/>
-      <c r="AG33" s="265"/>
-      <c r="AH33" s="265"/>
-      <c r="AI33" s="265"/>
-      <c r="AJ33" s="265"/>
-      <c r="AK33" s="265"/>
-      <c r="AL33" s="265"/>
-      <c r="AM33" s="266"/>
-      <c r="AN33" s="267"/>
-      <c r="AO33" s="268"/>
-      <c r="AP33" s="268"/>
-      <c r="AQ33" s="268"/>
-      <c r="AR33" s="269"/>
-      <c r="AS33" s="267"/>
-      <c r="AT33" s="268"/>
-      <c r="AU33" s="268"/>
-      <c r="AV33" s="268"/>
-      <c r="AW33" s="269"/>
+      <c r="B33" s="246"/>
+      <c r="C33" s="247"/>
+      <c r="D33" s="248"/>
+      <c r="E33" s="249"/>
+      <c r="F33" s="249"/>
+      <c r="G33" s="249"/>
+      <c r="H33" s="249"/>
+      <c r="I33" s="249"/>
+      <c r="J33" s="250"/>
+      <c r="K33" s="251"/>
+      <c r="L33" s="252"/>
+      <c r="M33" s="260"/>
+      <c r="N33" s="261"/>
+      <c r="O33" s="261"/>
+      <c r="P33" s="261"/>
+      <c r="Q33" s="261"/>
+      <c r="R33" s="262"/>
+      <c r="S33" s="256"/>
+      <c r="T33" s="256"/>
+      <c r="U33" s="256"/>
+      <c r="V33" s="257"/>
+      <c r="W33" s="258"/>
+      <c r="X33" s="258"/>
+      <c r="Y33" s="258"/>
+      <c r="Z33" s="258"/>
+      <c r="AA33" s="258"/>
+      <c r="AB33" s="258"/>
+      <c r="AC33" s="258"/>
+      <c r="AD33" s="258"/>
+      <c r="AE33" s="258"/>
+      <c r="AF33" s="258"/>
+      <c r="AG33" s="258"/>
+      <c r="AH33" s="258"/>
+      <c r="AI33" s="258"/>
+      <c r="AJ33" s="258"/>
+      <c r="AK33" s="258"/>
+      <c r="AL33" s="258"/>
+      <c r="AM33" s="259"/>
+      <c r="AN33" s="243"/>
+      <c r="AO33" s="244"/>
+      <c r="AP33" s="244"/>
+      <c r="AQ33" s="244"/>
+      <c r="AR33" s="245"/>
+      <c r="AS33" s="243"/>
+      <c r="AT33" s="244"/>
+      <c r="AU33" s="244"/>
+      <c r="AV33" s="244"/>
+      <c r="AW33" s="245"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="258"/>
-      <c r="C34" s="259"/>
-      <c r="D34" s="260"/>
-      <c r="E34" s="250"/>
-      <c r="F34" s="250"/>
-      <c r="G34" s="250"/>
-      <c r="H34" s="250"/>
-      <c r="I34" s="250"/>
-      <c r="J34" s="251"/>
-      <c r="K34" s="252"/>
-      <c r="L34" s="253"/>
-      <c r="M34" s="276"/>
-      <c r="N34" s="277"/>
-      <c r="O34" s="277"/>
-      <c r="P34" s="277"/>
-      <c r="Q34" s="277"/>
-      <c r="R34" s="278"/>
-      <c r="S34" s="248"/>
-      <c r="T34" s="248"/>
-      <c r="U34" s="248"/>
-      <c r="V34" s="264"/>
-      <c r="W34" s="265"/>
-      <c r="X34" s="265"/>
-      <c r="Y34" s="265"/>
-      <c r="Z34" s="265"/>
-      <c r="AA34" s="265"/>
-      <c r="AB34" s="265"/>
-      <c r="AC34" s="265"/>
-      <c r="AD34" s="265"/>
-      <c r="AE34" s="265"/>
-      <c r="AF34" s="265"/>
-      <c r="AG34" s="265"/>
-      <c r="AH34" s="265"/>
-      <c r="AI34" s="265"/>
-      <c r="AJ34" s="265"/>
-      <c r="AK34" s="265"/>
-      <c r="AL34" s="265"/>
-      <c r="AM34" s="266"/>
-      <c r="AN34" s="267"/>
-      <c r="AO34" s="268"/>
-      <c r="AP34" s="268"/>
-      <c r="AQ34" s="268"/>
-      <c r="AR34" s="269"/>
-      <c r="AS34" s="267"/>
-      <c r="AT34" s="268"/>
-      <c r="AU34" s="268"/>
-      <c r="AV34" s="268"/>
-      <c r="AW34" s="269"/>
+      <c r="B34" s="246"/>
+      <c r="C34" s="247"/>
+      <c r="D34" s="248"/>
+      <c r="E34" s="249"/>
+      <c r="F34" s="249"/>
+      <c r="G34" s="249"/>
+      <c r="H34" s="249"/>
+      <c r="I34" s="249"/>
+      <c r="J34" s="250"/>
+      <c r="K34" s="251"/>
+      <c r="L34" s="252"/>
+      <c r="M34" s="253"/>
+      <c r="N34" s="254"/>
+      <c r="O34" s="254"/>
+      <c r="P34" s="254"/>
+      <c r="Q34" s="254"/>
+      <c r="R34" s="255"/>
+      <c r="S34" s="256"/>
+      <c r="T34" s="256"/>
+      <c r="U34" s="256"/>
+      <c r="V34" s="257"/>
+      <c r="W34" s="258"/>
+      <c r="X34" s="258"/>
+      <c r="Y34" s="258"/>
+      <c r="Z34" s="258"/>
+      <c r="AA34" s="258"/>
+      <c r="AB34" s="258"/>
+      <c r="AC34" s="258"/>
+      <c r="AD34" s="258"/>
+      <c r="AE34" s="258"/>
+      <c r="AF34" s="258"/>
+      <c r="AG34" s="258"/>
+      <c r="AH34" s="258"/>
+      <c r="AI34" s="258"/>
+      <c r="AJ34" s="258"/>
+      <c r="AK34" s="258"/>
+      <c r="AL34" s="258"/>
+      <c r="AM34" s="259"/>
+      <c r="AN34" s="243"/>
+      <c r="AO34" s="244"/>
+      <c r="AP34" s="244"/>
+      <c r="AQ34" s="244"/>
+      <c r="AR34" s="245"/>
+      <c r="AS34" s="243"/>
+      <c r="AT34" s="244"/>
+      <c r="AU34" s="244"/>
+      <c r="AV34" s="244"/>
+      <c r="AW34" s="245"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -8794,239 +9027,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9186,11 +9186,11 @@
       <c r="AL2" s="35"/>
       <c r="AM2" s="35"/>
       <c r="AN2" s="36"/>
-      <c r="AO2" s="279"/>
-      <c r="AP2" s="280"/>
-      <c r="AQ2" s="280"/>
-      <c r="AR2" s="280"/>
-      <c r="AS2" s="281"/>
+      <c r="AO2" s="289"/>
+      <c r="AP2" s="290"/>
+      <c r="AQ2" s="290"/>
+      <c r="AR2" s="290"/>
+      <c r="AS2" s="291"/>
       <c r="AT2" s="34" t="s">
         <v>26</v>
       </c>
@@ -9199,14 +9199,14 @@
       <c r="AW2" s="35"/>
       <c r="AX2" s="35"/>
       <c r="AY2" s="36"/>
-      <c r="AZ2" s="282"/>
-      <c r="BA2" s="283"/>
-      <c r="BB2" s="283"/>
-      <c r="BC2" s="283"/>
-      <c r="BD2" s="283"/>
-      <c r="BE2" s="283"/>
-      <c r="BF2" s="283"/>
-      <c r="BG2" s="284"/>
+      <c r="AZ2" s="292"/>
+      <c r="BA2" s="293"/>
+      <c r="BB2" s="293"/>
+      <c r="BC2" s="293"/>
+      <c r="BD2" s="293"/>
+      <c r="BE2" s="293"/>
+      <c r="BF2" s="293"/>
+      <c r="BG2" s="294"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="33"/>
@@ -10955,10 +10955,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="29"/>
-      <c r="B50" s="287" t="s">
+      <c r="B50" s="295" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="288"/>
+      <c r="C50" s="296"/>
       <c r="D50" s="85" t="s">
         <v>90</v>
       </c>
@@ -11041,10 +11041,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="29"/>
-      <c r="B51" s="289">
+      <c r="B51" s="283">
         <v>1</v>
       </c>
-      <c r="C51" s="290"/>
+      <c r="C51" s="284"/>
       <c r="D51" s="106" t="s">
         <v>109</v>
       </c>
@@ -11076,16 +11076,16 @@
       <c r="AB51" s="84"/>
       <c r="AC51" s="84"/>
       <c r="AD51" s="107"/>
-      <c r="AE51" s="285" t="s">
+      <c r="AE51" s="287" t="s">
         <v>99</v>
       </c>
-      <c r="AF51" s="286"/>
-      <c r="AG51" s="285"/>
-      <c r="AH51" s="286"/>
-      <c r="AI51" s="285"/>
-      <c r="AJ51" s="286"/>
-      <c r="AK51" s="285"/>
-      <c r="AL51" s="286"/>
+      <c r="AF51" s="288"/>
+      <c r="AG51" s="287"/>
+      <c r="AH51" s="288"/>
+      <c r="AI51" s="287"/>
+      <c r="AJ51" s="288"/>
+      <c r="AK51" s="287"/>
+      <c r="AL51" s="288"/>
       <c r="AM51" s="81" t="s">
         <v>216</v>
       </c>
@@ -11119,10 +11119,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="29"/>
-      <c r="B52" s="289">
+      <c r="B52" s="283">
         <v>2</v>
       </c>
-      <c r="C52" s="290"/>
+      <c r="C52" s="284"/>
       <c r="D52" s="106" t="s">
         <v>110</v>
       </c>
@@ -11132,39 +11132,39 @@
       <c r="H52" s="84"/>
       <c r="I52" s="84"/>
       <c r="J52" s="107"/>
-      <c r="K52" s="324" t="s">
+      <c r="K52" s="236" t="s">
         <v>430</v>
       </c>
-      <c r="L52" s="325"/>
-      <c r="M52" s="325"/>
-      <c r="N52" s="325"/>
-      <c r="O52" s="325"/>
-      <c r="P52" s="325"/>
-      <c r="Q52" s="325"/>
-      <c r="R52" s="325"/>
-      <c r="S52" s="325"/>
-      <c r="T52" s="326"/>
-      <c r="U52" s="324"/>
-      <c r="V52" s="325"/>
-      <c r="W52" s="325"/>
-      <c r="X52" s="325"/>
-      <c r="Y52" s="325"/>
-      <c r="Z52" s="325"/>
-      <c r="AA52" s="325"/>
-      <c r="AB52" s="325"/>
-      <c r="AC52" s="325"/>
-      <c r="AD52" s="326"/>
-      <c r="AE52" s="327" t="s">
+      <c r="L52" s="237"/>
+      <c r="M52" s="237"/>
+      <c r="N52" s="237"/>
+      <c r="O52" s="237"/>
+      <c r="P52" s="237"/>
+      <c r="Q52" s="237"/>
+      <c r="R52" s="237"/>
+      <c r="S52" s="237"/>
+      <c r="T52" s="238"/>
+      <c r="U52" s="236"/>
+      <c r="V52" s="237"/>
+      <c r="W52" s="237"/>
+      <c r="X52" s="237"/>
+      <c r="Y52" s="237"/>
+      <c r="Z52" s="237"/>
+      <c r="AA52" s="237"/>
+      <c r="AB52" s="237"/>
+      <c r="AC52" s="237"/>
+      <c r="AD52" s="238"/>
+      <c r="AE52" s="285" t="s">
         <v>99</v>
       </c>
-      <c r="AF52" s="328"/>
-      <c r="AG52" s="327"/>
-      <c r="AH52" s="328"/>
-      <c r="AI52" s="327"/>
-      <c r="AJ52" s="328"/>
-      <c r="AK52" s="327"/>
-      <c r="AL52" s="328"/>
-      <c r="AM52" s="329" t="s">
+      <c r="AF52" s="286"/>
+      <c r="AG52" s="285"/>
+      <c r="AH52" s="286"/>
+      <c r="AI52" s="285"/>
+      <c r="AJ52" s="286"/>
+      <c r="AK52" s="285"/>
+      <c r="AL52" s="286"/>
+      <c r="AM52" s="239" t="s">
         <v>431</v>
       </c>
       <c r="AN52" s="82"/>
@@ -11197,10 +11197,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="29"/>
-      <c r="B53" s="289">
+      <c r="B53" s="283">
         <v>3</v>
       </c>
-      <c r="C53" s="290"/>
+      <c r="C53" s="284"/>
       <c r="D53" s="106" t="s">
         <v>110</v>
       </c>
@@ -11210,39 +11210,39 @@
       <c r="H53" s="84"/>
       <c r="I53" s="84"/>
       <c r="J53" s="107"/>
-      <c r="K53" s="324" t="s">
+      <c r="K53" s="236" t="s">
         <v>432</v>
       </c>
-      <c r="L53" s="325"/>
-      <c r="M53" s="325"/>
-      <c r="N53" s="325"/>
-      <c r="O53" s="325"/>
-      <c r="P53" s="325"/>
-      <c r="Q53" s="325"/>
-      <c r="R53" s="325"/>
-      <c r="S53" s="325"/>
-      <c r="T53" s="326"/>
-      <c r="U53" s="324"/>
-      <c r="V53" s="325"/>
-      <c r="W53" s="325"/>
-      <c r="X53" s="325"/>
-      <c r="Y53" s="325"/>
-      <c r="Z53" s="325"/>
-      <c r="AA53" s="325"/>
-      <c r="AB53" s="325"/>
-      <c r="AC53" s="325"/>
-      <c r="AD53" s="326"/>
-      <c r="AE53" s="327" t="s">
+      <c r="L53" s="237"/>
+      <c r="M53" s="237"/>
+      <c r="N53" s="237"/>
+      <c r="O53" s="237"/>
+      <c r="P53" s="237"/>
+      <c r="Q53" s="237"/>
+      <c r="R53" s="237"/>
+      <c r="S53" s="237"/>
+      <c r="T53" s="238"/>
+      <c r="U53" s="236"/>
+      <c r="V53" s="237"/>
+      <c r="W53" s="237"/>
+      <c r="X53" s="237"/>
+      <c r="Y53" s="237"/>
+      <c r="Z53" s="237"/>
+      <c r="AA53" s="237"/>
+      <c r="AB53" s="237"/>
+      <c r="AC53" s="237"/>
+      <c r="AD53" s="238"/>
+      <c r="AE53" s="285" t="s">
         <v>99</v>
       </c>
-      <c r="AF53" s="328"/>
-      <c r="AG53" s="327"/>
-      <c r="AH53" s="328"/>
-      <c r="AI53" s="327"/>
-      <c r="AJ53" s="328"/>
-      <c r="AK53" s="327"/>
-      <c r="AL53" s="328"/>
-      <c r="AM53" s="329" t="s">
+      <c r="AF53" s="286"/>
+      <c r="AG53" s="285"/>
+      <c r="AH53" s="286"/>
+      <c r="AI53" s="285"/>
+      <c r="AJ53" s="286"/>
+      <c r="AK53" s="285"/>
+      <c r="AL53" s="286"/>
+      <c r="AM53" s="239" t="s">
         <v>433</v>
       </c>
       <c r="AN53" s="82"/>
@@ -11275,10 +11275,10 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="29"/>
-      <c r="B54" s="289">
+      <c r="B54" s="283">
         <v>4</v>
       </c>
-      <c r="C54" s="290"/>
+      <c r="C54" s="284"/>
       <c r="D54" s="106" t="s">
         <v>110</v>
       </c>
@@ -11288,39 +11288,39 @@
       <c r="H54" s="84"/>
       <c r="I54" s="84"/>
       <c r="J54" s="107"/>
-      <c r="K54" s="324" t="s">
+      <c r="K54" s="236" t="s">
         <v>434</v>
       </c>
-      <c r="L54" s="325"/>
-      <c r="M54" s="325"/>
-      <c r="N54" s="325"/>
-      <c r="O54" s="325"/>
-      <c r="P54" s="325"/>
-      <c r="Q54" s="325"/>
-      <c r="R54" s="325"/>
-      <c r="S54" s="325"/>
-      <c r="T54" s="326"/>
-      <c r="U54" s="324"/>
-      <c r="V54" s="325"/>
-      <c r="W54" s="325"/>
-      <c r="X54" s="325"/>
-      <c r="Y54" s="325"/>
-      <c r="Z54" s="325"/>
-      <c r="AA54" s="325"/>
-      <c r="AB54" s="325"/>
-      <c r="AC54" s="325"/>
-      <c r="AD54" s="326"/>
-      <c r="AE54" s="327" t="s">
+      <c r="L54" s="237"/>
+      <c r="M54" s="237"/>
+      <c r="N54" s="237"/>
+      <c r="O54" s="237"/>
+      <c r="P54" s="237"/>
+      <c r="Q54" s="237"/>
+      <c r="R54" s="237"/>
+      <c r="S54" s="237"/>
+      <c r="T54" s="238"/>
+      <c r="U54" s="236"/>
+      <c r="V54" s="237"/>
+      <c r="W54" s="237"/>
+      <c r="X54" s="237"/>
+      <c r="Y54" s="237"/>
+      <c r="Z54" s="237"/>
+      <c r="AA54" s="237"/>
+      <c r="AB54" s="237"/>
+      <c r="AC54" s="237"/>
+      <c r="AD54" s="238"/>
+      <c r="AE54" s="285" t="s">
         <v>99</v>
       </c>
-      <c r="AF54" s="328"/>
-      <c r="AG54" s="327"/>
-      <c r="AH54" s="328"/>
-      <c r="AI54" s="327"/>
-      <c r="AJ54" s="328"/>
-      <c r="AK54" s="327"/>
-      <c r="AL54" s="328"/>
-      <c r="AM54" s="329" t="s">
+      <c r="AF54" s="286"/>
+      <c r="AG54" s="285"/>
+      <c r="AH54" s="286"/>
+      <c r="AI54" s="285"/>
+      <c r="AJ54" s="286"/>
+      <c r="AK54" s="285"/>
+      <c r="AL54" s="286"/>
+      <c r="AM54" s="239" t="s">
         <v>435</v>
       </c>
       <c r="AN54" s="82"/>
@@ -11353,10 +11353,10 @@
     </row>
     <row r="55" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A55" s="29"/>
-      <c r="B55" s="289">
+      <c r="B55" s="283">
         <v>5</v>
       </c>
-      <c r="C55" s="290"/>
+      <c r="C55" s="284"/>
       <c r="D55" s="106" t="s">
         <v>110</v>
       </c>
@@ -11366,39 +11366,39 @@
       <c r="H55" s="84"/>
       <c r="I55" s="84"/>
       <c r="J55" s="107"/>
-      <c r="K55" s="324" t="s">
+      <c r="K55" s="236" t="s">
         <v>436</v>
       </c>
-      <c r="L55" s="325"/>
-      <c r="M55" s="325"/>
-      <c r="N55" s="325"/>
-      <c r="O55" s="325"/>
-      <c r="P55" s="325"/>
-      <c r="Q55" s="325"/>
-      <c r="R55" s="325"/>
-      <c r="S55" s="325"/>
-      <c r="T55" s="326"/>
-      <c r="U55" s="324"/>
-      <c r="V55" s="325"/>
-      <c r="W55" s="325"/>
-      <c r="X55" s="325"/>
-      <c r="Y55" s="325"/>
-      <c r="Z55" s="325"/>
-      <c r="AA55" s="325"/>
-      <c r="AB55" s="325"/>
-      <c r="AC55" s="325"/>
-      <c r="AD55" s="326"/>
-      <c r="AE55" s="327" t="s">
+      <c r="L55" s="237"/>
+      <c r="M55" s="237"/>
+      <c r="N55" s="237"/>
+      <c r="O55" s="237"/>
+      <c r="P55" s="237"/>
+      <c r="Q55" s="237"/>
+      <c r="R55" s="237"/>
+      <c r="S55" s="237"/>
+      <c r="T55" s="238"/>
+      <c r="U55" s="236"/>
+      <c r="V55" s="237"/>
+      <c r="W55" s="237"/>
+      <c r="X55" s="237"/>
+      <c r="Y55" s="237"/>
+      <c r="Z55" s="237"/>
+      <c r="AA55" s="237"/>
+      <c r="AB55" s="237"/>
+      <c r="AC55" s="237"/>
+      <c r="AD55" s="238"/>
+      <c r="AE55" s="285" t="s">
         <v>99</v>
       </c>
-      <c r="AF55" s="328"/>
-      <c r="AG55" s="327"/>
-      <c r="AH55" s="328"/>
-      <c r="AI55" s="327"/>
-      <c r="AJ55" s="328"/>
-      <c r="AK55" s="327"/>
-      <c r="AL55" s="328"/>
-      <c r="AM55" s="329" t="s">
+      <c r="AF55" s="286"/>
+      <c r="AG55" s="285"/>
+      <c r="AH55" s="286"/>
+      <c r="AI55" s="285"/>
+      <c r="AJ55" s="286"/>
+      <c r="AK55" s="285"/>
+      <c r="AL55" s="286"/>
+      <c r="AM55" s="239" t="s">
         <v>437</v>
       </c>
       <c r="AN55" s="82"/>
@@ -11436,6 +11436,27 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="AZ2:BG2"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="AE55:AF55"/>
+    <mergeCell ref="AG55:AH55"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AK55:AL55"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="AE51:AF51"/>
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B54:C54"/>
@@ -11443,27 +11464,6 @@
     <mergeCell ref="AG54:AH54"/>
     <mergeCell ref="AE52:AF52"/>
     <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="AE51:AF51"/>
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="AI51:AJ51"/>
-    <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="AE55:AF55"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="AK55:AL55"/>
-    <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="AZ2:BG2"/>
-    <mergeCell ref="B50:C50"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11587,20 +11587,20 @@
       <c r="CA1" s="35"/>
       <c r="CB1" s="35"/>
       <c r="CC1" s="36"/>
-      <c r="CD1" s="293">
+      <c r="CD1" s="299">
         <f>変更履歴!E5</f>
         <v>43717</v>
       </c>
-      <c r="CE1" s="294"/>
-      <c r="CF1" s="294"/>
-      <c r="CG1" s="294"/>
-      <c r="CH1" s="294"/>
-      <c r="CI1" s="294"/>
-      <c r="CJ1" s="294"/>
-      <c r="CK1" s="294"/>
-      <c r="CL1" s="294"/>
-      <c r="CM1" s="294"/>
-      <c r="CN1" s="295"/>
+      <c r="CE1" s="300"/>
+      <c r="CF1" s="300"/>
+      <c r="CG1" s="300"/>
+      <c r="CH1" s="300"/>
+      <c r="CI1" s="300"/>
+      <c r="CJ1" s="300"/>
+      <c r="CK1" s="300"/>
+      <c r="CL1" s="300"/>
+      <c r="CM1" s="300"/>
+      <c r="CN1" s="301"/>
       <c r="CO1" s="34" t="s">
         <v>25</v>
       </c>
@@ -11609,23 +11609,23 @@
       <c r="CR1" s="35"/>
       <c r="CS1" s="35"/>
       <c r="CT1" s="36"/>
-      <c r="CU1" s="282" t="str">
+      <c r="CU1" s="292" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="CV1" s="291"/>
-      <c r="CW1" s="291"/>
-      <c r="CX1" s="291"/>
-      <c r="CY1" s="291"/>
-      <c r="CZ1" s="291"/>
-      <c r="DA1" s="291"/>
-      <c r="DB1" s="291"/>
-      <c r="DC1" s="291"/>
-      <c r="DD1" s="291"/>
-      <c r="DE1" s="291"/>
-      <c r="DF1" s="291"/>
-      <c r="DG1" s="291"/>
-      <c r="DH1" s="292"/>
+      <c r="CV1" s="297"/>
+      <c r="CW1" s="297"/>
+      <c r="CX1" s="297"/>
+      <c r="CY1" s="297"/>
+      <c r="CZ1" s="297"/>
+      <c r="DA1" s="297"/>
+      <c r="DB1" s="297"/>
+      <c r="DC1" s="297"/>
+      <c r="DD1" s="297"/>
+      <c r="DE1" s="297"/>
+      <c r="DF1" s="297"/>
+      <c r="DG1" s="297"/>
+      <c r="DH1" s="298"/>
     </row>
     <row r="2" spans="1:113" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -11680,39 +11680,39 @@
       <c r="AQ2" s="91"/>
       <c r="AR2" s="91"/>
       <c r="AS2" s="92"/>
-      <c r="AT2" s="297" t="str">
+      <c r="AT2" s="303" t="str">
         <f>'１．機能概要'!W2</f>
         <v>当日詳細実績参照</v>
       </c>
-      <c r="AU2" s="298"/>
-      <c r="AV2" s="298"/>
-      <c r="AW2" s="298"/>
-      <c r="AX2" s="298"/>
-      <c r="AY2" s="298"/>
-      <c r="AZ2" s="298"/>
-      <c r="BA2" s="298"/>
-      <c r="BB2" s="298"/>
-      <c r="BC2" s="298"/>
-      <c r="BD2" s="298"/>
-      <c r="BE2" s="298"/>
-      <c r="BF2" s="298"/>
-      <c r="BG2" s="298"/>
-      <c r="BH2" s="298"/>
-      <c r="BI2" s="298"/>
-      <c r="BJ2" s="298"/>
-      <c r="BK2" s="298"/>
-      <c r="BL2" s="298"/>
-      <c r="BM2" s="298"/>
-      <c r="BN2" s="298"/>
-      <c r="BO2" s="298"/>
-      <c r="BP2" s="298"/>
-      <c r="BQ2" s="298"/>
-      <c r="BR2" s="298"/>
-      <c r="BS2" s="298"/>
-      <c r="BT2" s="298"/>
-      <c r="BU2" s="298"/>
-      <c r="BV2" s="298"/>
-      <c r="BW2" s="299"/>
+      <c r="AU2" s="304"/>
+      <c r="AV2" s="304"/>
+      <c r="AW2" s="304"/>
+      <c r="AX2" s="304"/>
+      <c r="AY2" s="304"/>
+      <c r="AZ2" s="304"/>
+      <c r="BA2" s="304"/>
+      <c r="BB2" s="304"/>
+      <c r="BC2" s="304"/>
+      <c r="BD2" s="304"/>
+      <c r="BE2" s="304"/>
+      <c r="BF2" s="304"/>
+      <c r="BG2" s="304"/>
+      <c r="BH2" s="304"/>
+      <c r="BI2" s="304"/>
+      <c r="BJ2" s="304"/>
+      <c r="BK2" s="304"/>
+      <c r="BL2" s="304"/>
+      <c r="BM2" s="304"/>
+      <c r="BN2" s="304"/>
+      <c r="BO2" s="304"/>
+      <c r="BP2" s="304"/>
+      <c r="BQ2" s="304"/>
+      <c r="BR2" s="304"/>
+      <c r="BS2" s="304"/>
+      <c r="BT2" s="304"/>
+      <c r="BU2" s="304"/>
+      <c r="BV2" s="304"/>
+      <c r="BW2" s="305"/>
       <c r="BX2" s="34" t="s">
         <v>24</v>
       </c>
@@ -11721,17 +11721,17 @@
       <c r="CA2" s="35"/>
       <c r="CB2" s="35"/>
       <c r="CC2" s="36"/>
-      <c r="CD2" s="296"/>
-      <c r="CE2" s="291"/>
-      <c r="CF2" s="291"/>
-      <c r="CG2" s="291"/>
-      <c r="CH2" s="291"/>
-      <c r="CI2" s="291"/>
-      <c r="CJ2" s="291"/>
-      <c r="CK2" s="291"/>
-      <c r="CL2" s="291"/>
-      <c r="CM2" s="291"/>
-      <c r="CN2" s="292"/>
+      <c r="CD2" s="302"/>
+      <c r="CE2" s="297"/>
+      <c r="CF2" s="297"/>
+      <c r="CG2" s="297"/>
+      <c r="CH2" s="297"/>
+      <c r="CI2" s="297"/>
+      <c r="CJ2" s="297"/>
+      <c r="CK2" s="297"/>
+      <c r="CL2" s="297"/>
+      <c r="CM2" s="297"/>
+      <c r="CN2" s="298"/>
       <c r="CO2" s="34" t="s">
         <v>26</v>
       </c>
@@ -11740,20 +11740,20 @@
       <c r="CR2" s="35"/>
       <c r="CS2" s="35"/>
       <c r="CT2" s="36"/>
-      <c r="CU2" s="282"/>
-      <c r="CV2" s="291"/>
-      <c r="CW2" s="291"/>
-      <c r="CX2" s="291"/>
-      <c r="CY2" s="291"/>
-      <c r="CZ2" s="291"/>
-      <c r="DA2" s="291"/>
-      <c r="DB2" s="291"/>
-      <c r="DC2" s="291"/>
-      <c r="DD2" s="291"/>
-      <c r="DE2" s="291"/>
-      <c r="DF2" s="291"/>
-      <c r="DG2" s="291"/>
-      <c r="DH2" s="292"/>
+      <c r="CU2" s="292"/>
+      <c r="CV2" s="297"/>
+      <c r="CW2" s="297"/>
+      <c r="CX2" s="297"/>
+      <c r="CY2" s="297"/>
+      <c r="CZ2" s="297"/>
+      <c r="DA2" s="297"/>
+      <c r="DB2" s="297"/>
+      <c r="DC2" s="297"/>
+      <c r="DD2" s="297"/>
+      <c r="DE2" s="297"/>
+      <c r="DF2" s="297"/>
+      <c r="DG2" s="297"/>
+      <c r="DH2" s="298"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="50"/>
@@ -11957,37 +11957,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="241" t="s">
+      <c r="C6" s="276" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="241" t="s">
+      <c r="D6" s="276" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="241" t="s">
+      <c r="E6" s="276" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="241" t="s">
+      <c r="F6" s="276" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="241" t="s">
+      <c r="G6" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="241" t="s">
+      <c r="H6" s="276" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="300" t="s">
+      <c r="I6" s="306" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="300" t="s">
+      <c r="J6" s="306" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="241" t="s">
+      <c r="K6" s="276" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="241" t="s">
+      <c r="L6" s="276" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="241" t="s">
+      <c r="M6" s="276" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="73" t="s">
@@ -11995,24 +11995,24 @@
       </c>
       <c r="O6" s="73"/>
       <c r="P6" s="73"/>
-      <c r="Q6" s="300" t="s">
+      <c r="Q6" s="306" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="241"/>
-      <c r="D7" s="241"/>
-      <c r="E7" s="241"/>
-      <c r="F7" s="241"/>
-      <c r="G7" s="241"/>
-      <c r="H7" s="241"/>
-      <c r="I7" s="300"/>
-      <c r="J7" s="300"/>
-      <c r="K7" s="241"/>
-      <c r="L7" s="241"/>
-      <c r="M7" s="241"/>
+      <c r="C7" s="276"/>
+      <c r="D7" s="276"/>
+      <c r="E7" s="276"/>
+      <c r="F7" s="276"/>
+      <c r="G7" s="276"/>
+      <c r="H7" s="276"/>
+      <c r="I7" s="306"/>
+      <c r="J7" s="306"/>
+      <c r="K7" s="276"/>
+      <c r="L7" s="276"/>
+      <c r="M7" s="276"/>
       <c r="N7" s="43" t="s">
         <v>74</v>
       </c>
@@ -12022,7 +12022,7 @@
       <c r="P7" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="Q7" s="300"/>
+      <c r="Q7" s="306"/>
     </row>
     <row r="8" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
@@ -12131,37 +12131,37 @@
     <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
-      <c r="C12" s="241" t="s">
+      <c r="C12" s="276" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="241" t="s">
+      <c r="D12" s="276" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="241" t="s">
+      <c r="E12" s="276" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="241" t="s">
+      <c r="F12" s="276" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="241" t="s">
+      <c r="G12" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="241" t="s">
+      <c r="H12" s="276" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="301" t="s">
+      <c r="I12" s="307" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="300" t="s">
+      <c r="J12" s="306" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="241" t="s">
+      <c r="K12" s="276" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="241" t="s">
+      <c r="L12" s="276" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="241" t="s">
+      <c r="M12" s="276" t="s">
         <v>33</v>
       </c>
       <c r="N12" s="73" t="s">
@@ -12169,24 +12169,24 @@
       </c>
       <c r="O12" s="73"/>
       <c r="P12" s="73"/>
-      <c r="Q12" s="301" t="s">
+      <c r="Q12" s="307" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="241"/>
-      <c r="D13" s="241"/>
-      <c r="E13" s="241"/>
-      <c r="F13" s="241"/>
-      <c r="G13" s="241"/>
-      <c r="H13" s="241"/>
-      <c r="I13" s="302"/>
-      <c r="J13" s="300"/>
-      <c r="K13" s="241"/>
-      <c r="L13" s="241"/>
-      <c r="M13" s="241"/>
+      <c r="C13" s="276"/>
+      <c r="D13" s="276"/>
+      <c r="E13" s="276"/>
+      <c r="F13" s="276"/>
+      <c r="G13" s="276"/>
+      <c r="H13" s="276"/>
+      <c r="I13" s="308"/>
+      <c r="J13" s="306"/>
+      <c r="K13" s="276"/>
+      <c r="L13" s="276"/>
+      <c r="M13" s="276"/>
       <c r="N13" s="43" t="s">
         <v>74</v>
       </c>
@@ -12196,7 +12196,7 @@
       <c r="P13" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="Q13" s="302"/>
+      <c r="Q13" s="308"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
@@ -12449,37 +12449,37 @@
     </row>
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="110"/>
-      <c r="C22" s="241" t="s">
+      <c r="C22" s="276" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="241" t="s">
+      <c r="D22" s="276" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="241" t="s">
+      <c r="E22" s="276" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="241" t="s">
+      <c r="F22" s="276" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="241" t="s">
+      <c r="G22" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="241" t="s">
+      <c r="H22" s="276" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="300" t="s">
+      <c r="I22" s="306" t="s">
         <v>45</v>
       </c>
-      <c r="J22" s="300" t="s">
+      <c r="J22" s="306" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="241" t="s">
+      <c r="K22" s="276" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="241" t="s">
+      <c r="L22" s="276" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="241" t="s">
+      <c r="M22" s="276" t="s">
         <v>33</v>
       </c>
       <c r="N22" s="73" t="s">
@@ -12487,23 +12487,23 @@
       </c>
       <c r="O22" s="73"/>
       <c r="P22" s="73"/>
-      <c r="Q22" s="300" t="s">
+      <c r="Q22" s="306" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B23" s="110"/>
-      <c r="C23" s="241"/>
-      <c r="D23" s="241"/>
-      <c r="E23" s="241"/>
-      <c r="F23" s="241"/>
-      <c r="G23" s="241"/>
-      <c r="H23" s="241"/>
-      <c r="I23" s="300"/>
-      <c r="J23" s="300"/>
-      <c r="K23" s="241"/>
-      <c r="L23" s="241"/>
-      <c r="M23" s="241"/>
+      <c r="C23" s="276"/>
+      <c r="D23" s="276"/>
+      <c r="E23" s="276"/>
+      <c r="F23" s="276"/>
+      <c r="G23" s="276"/>
+      <c r="H23" s="276"/>
+      <c r="I23" s="306"/>
+      <c r="J23" s="306"/>
+      <c r="K23" s="276"/>
+      <c r="L23" s="276"/>
+      <c r="M23" s="276"/>
       <c r="N23" s="108" t="s">
         <v>74</v>
       </c>
@@ -12513,7 +12513,7 @@
       <c r="P23" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="Q23" s="300"/>
+      <c r="Q23" s="306"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
@@ -12823,37 +12823,37 @@
     </row>
     <row r="32" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="110"/>
-      <c r="C32" s="241" t="s">
+      <c r="C32" s="276" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="241" t="s">
+      <c r="D32" s="276" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="241" t="s">
+      <c r="E32" s="276" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="241" t="s">
+      <c r="F32" s="276" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="241" t="s">
+      <c r="G32" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="241" t="s">
+      <c r="H32" s="276" t="s">
         <v>29</v>
       </c>
-      <c r="I32" s="300" t="s">
+      <c r="I32" s="306" t="s">
         <v>45</v>
       </c>
-      <c r="J32" s="300" t="s">
+      <c r="J32" s="306" t="s">
         <v>46</v>
       </c>
-      <c r="K32" s="241" t="s">
+      <c r="K32" s="276" t="s">
         <v>31</v>
       </c>
-      <c r="L32" s="241" t="s">
+      <c r="L32" s="276" t="s">
         <v>30</v>
       </c>
-      <c r="M32" s="241" t="s">
+      <c r="M32" s="276" t="s">
         <v>33</v>
       </c>
       <c r="N32" s="73" t="s">
@@ -12861,23 +12861,23 @@
       </c>
       <c r="O32" s="73"/>
       <c r="P32" s="73"/>
-      <c r="Q32" s="300" t="s">
+      <c r="Q32" s="306" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B33" s="110"/>
-      <c r="C33" s="241"/>
-      <c r="D33" s="241"/>
-      <c r="E33" s="241"/>
-      <c r="F33" s="241"/>
-      <c r="G33" s="241"/>
-      <c r="H33" s="241"/>
-      <c r="I33" s="300"/>
-      <c r="J33" s="300"/>
-      <c r="K33" s="241"/>
-      <c r="L33" s="241"/>
-      <c r="M33" s="241"/>
+      <c r="C33" s="276"/>
+      <c r="D33" s="276"/>
+      <c r="E33" s="276"/>
+      <c r="F33" s="276"/>
+      <c r="G33" s="276"/>
+      <c r="H33" s="276"/>
+      <c r="I33" s="306"/>
+      <c r="J33" s="306"/>
+      <c r="K33" s="276"/>
+      <c r="L33" s="276"/>
+      <c r="M33" s="276"/>
       <c r="N33" s="112" t="s">
         <v>74</v>
       </c>
@@ -12887,7 +12887,7 @@
       <c r="P33" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="Q33" s="300"/>
+      <c r="Q33" s="306"/>
     </row>
     <row r="34" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
@@ -13062,28 +13062,24 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="C12:C13"/>
@@ -13092,24 +13088,28 @@
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -13179,14 +13179,14 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="279">
+      <c r="AI1" s="289">
         <f>変更履歴!E5</f>
         <v>43717</v>
       </c>
-      <c r="AJ1" s="298"/>
-      <c r="AK1" s="298"/>
-      <c r="AL1" s="298"/>
-      <c r="AM1" s="299"/>
+      <c r="AJ1" s="304"/>
+      <c r="AK1" s="304"/>
+      <c r="AL1" s="304"/>
+      <c r="AM1" s="305"/>
       <c r="AN1" s="34" t="s">
         <v>25</v>
       </c>
@@ -13195,16 +13195,16 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="282" t="str">
+      <c r="AT1" s="292" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="291"/>
-      <c r="AV1" s="291"/>
-      <c r="AW1" s="291"/>
-      <c r="AX1" s="291"/>
-      <c r="AY1" s="291"/>
-      <c r="AZ1" s="292"/>
+      <c r="AU1" s="297"/>
+      <c r="AV1" s="297"/>
+      <c r="AW1" s="297"/>
+      <c r="AX1" s="297"/>
+      <c r="AY1" s="297"/>
+      <c r="AZ1" s="298"/>
     </row>
     <row r="2" spans="1:52" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -13232,32 +13232,32 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="39"/>
-      <c r="S2" s="297" t="str">
+      <c r="S2" s="303" t="str">
         <f>'１．機能概要'!W2</f>
         <v>当日詳細実績参照</v>
       </c>
-      <c r="T2" s="298"/>
-      <c r="U2" s="298"/>
-      <c r="V2" s="298"/>
-      <c r="W2" s="298"/>
-      <c r="X2" s="298"/>
-      <c r="Y2" s="298"/>
-      <c r="Z2" s="298"/>
-      <c r="AA2" s="298"/>
-      <c r="AB2" s="298"/>
-      <c r="AC2" s="298"/>
-      <c r="AD2" s="299"/>
+      <c r="T2" s="304"/>
+      <c r="U2" s="304"/>
+      <c r="V2" s="304"/>
+      <c r="W2" s="304"/>
+      <c r="X2" s="304"/>
+      <c r="Y2" s="304"/>
+      <c r="Z2" s="304"/>
+      <c r="AA2" s="304"/>
+      <c r="AB2" s="304"/>
+      <c r="AC2" s="304"/>
+      <c r="AD2" s="305"/>
       <c r="AE2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="35"/>
       <c r="AG2" s="35"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="296"/>
-      <c r="AJ2" s="291"/>
-      <c r="AK2" s="291"/>
-      <c r="AL2" s="291"/>
-      <c r="AM2" s="292"/>
+      <c r="AI2" s="302"/>
+      <c r="AJ2" s="297"/>
+      <c r="AK2" s="297"/>
+      <c r="AL2" s="297"/>
+      <c r="AM2" s="298"/>
       <c r="AN2" s="34" t="s">
         <v>26</v>
       </c>
@@ -13266,13 +13266,13 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="282"/>
-      <c r="AU2" s="291"/>
-      <c r="AV2" s="291"/>
-      <c r="AW2" s="291"/>
-      <c r="AX2" s="291"/>
-      <c r="AY2" s="291"/>
-      <c r="AZ2" s="292"/>
+      <c r="AT2" s="292"/>
+      <c r="AU2" s="297"/>
+      <c r="AV2" s="297"/>
+      <c r="AW2" s="297"/>
+      <c r="AX2" s="297"/>
+      <c r="AY2" s="297"/>
+      <c r="AZ2" s="298"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="57"/>
@@ -15179,7 +15179,7 @@
       <c r="F41" s="76"/>
       <c r="G41" s="75"/>
       <c r="K41" s="76"/>
-      <c r="N41" s="17" t="s">
+      <c r="O41" s="17" t="s">
         <v>364</v>
       </c>
       <c r="AA41" s="17" t="s">
@@ -15196,7 +15196,7 @@
       <c r="F42" s="76"/>
       <c r="G42" s="75"/>
       <c r="K42" s="76"/>
-      <c r="N42" s="17" t="s">
+      <c r="O42" s="17" t="s">
         <v>365</v>
       </c>
       <c r="AA42" s="17" t="s">
@@ -15224,7 +15224,7 @@
       <c r="F44" s="76"/>
       <c r="G44" s="75"/>
       <c r="K44" s="76"/>
-      <c r="N44" s="17" t="s">
+      <c r="O44" s="17" t="s">
         <v>372</v>
       </c>
       <c r="AA44" s="17" t="s">
@@ -15241,7 +15241,7 @@
       <c r="F45" s="76"/>
       <c r="G45" s="75"/>
       <c r="K45" s="76"/>
-      <c r="N45" s="17" t="s">
+      <c r="O45" s="17" t="s">
         <v>374</v>
       </c>
       <c r="AA45" s="17" t="s">
@@ -17763,10 +17763,10 @@
       <c r="K100" s="76"/>
       <c r="L100" s="24"/>
       <c r="M100" s="24"/>
-      <c r="N100" s="24" t="s">
+      <c r="N100" s="24"/>
+      <c r="O100" s="24" t="s">
         <v>429</v>
       </c>
-      <c r="O100" s="24"/>
       <c r="P100" s="24"/>
       <c r="Q100" s="24"/>
       <c r="R100" s="24"/>
@@ -17818,10 +17818,10 @@
       <c r="K101" s="76"/>
       <c r="L101" s="24"/>
       <c r="M101" s="24"/>
-      <c r="N101" s="24" t="s">
+      <c r="N101" s="24"/>
+      <c r="O101" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="O101" s="24"/>
       <c r="P101" s="24"/>
       <c r="Q101" s="24"/>
       <c r="R101" s="24"/>
@@ -19843,10 +19843,10 @@
       <c r="K146" s="76"/>
       <c r="L146" s="24"/>
       <c r="M146" s="24"/>
-      <c r="N146" s="24" t="s">
+      <c r="N146" s="24"/>
+      <c r="O146" s="24" t="s">
         <v>429</v>
       </c>
-      <c r="O146" s="24"/>
       <c r="P146" s="24"/>
       <c r="Q146" s="24"/>
       <c r="R146" s="24"/>
@@ -19898,10 +19898,10 @@
       <c r="K147" s="76"/>
       <c r="L147" s="24"/>
       <c r="M147" s="24"/>
-      <c r="N147" s="24" t="s">
+      <c r="N147" s="24"/>
+      <c r="O147" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="O147" s="24"/>
       <c r="P147" s="24"/>
       <c r="Q147" s="24"/>
       <c r="R147" s="24"/>
@@ -21038,7 +21038,7 @@
       <c r="F172" s="76"/>
       <c r="G172" s="75"/>
       <c r="K172" s="76"/>
-      <c r="N172" s="17" t="s">
+      <c r="O172" s="17" t="s">
         <v>364</v>
       </c>
       <c r="AA172" s="17" t="s">
@@ -21055,7 +21055,7 @@
       <c r="F173" s="76"/>
       <c r="G173" s="75"/>
       <c r="K173" s="76"/>
-      <c r="N173" s="17" t="s">
+      <c r="O173" s="17" t="s">
         <v>365</v>
       </c>
       <c r="AA173" s="17" t="s">
@@ -26563,10 +26563,10 @@
       <c r="K290" s="76"/>
       <c r="L290" s="24"/>
       <c r="M290" s="24"/>
-      <c r="N290" s="24" t="s">
+      <c r="N290" s="24"/>
+      <c r="O290" s="24" t="s">
         <v>429</v>
       </c>
-      <c r="O290" s="24"/>
       <c r="P290" s="24"/>
       <c r="Q290" s="24"/>
       <c r="R290" s="24"/>
@@ -26618,10 +26618,10 @@
       <c r="K291" s="76"/>
       <c r="L291" s="24"/>
       <c r="M291" s="24"/>
-      <c r="N291" s="24" t="s">
+      <c r="N291" s="24"/>
+      <c r="O291" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="O291" s="24"/>
       <c r="P291" s="24"/>
       <c r="Q291" s="24"/>
       <c r="R291" s="24"/>
@@ -27617,10 +27617,10 @@
       <c r="K312" s="76"/>
       <c r="L312" s="24"/>
       <c r="M312" s="24"/>
-      <c r="N312" s="24" t="s">
+      <c r="N312" s="24"/>
+      <c r="O312" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="O312" s="24"/>
       <c r="P312" s="24"/>
       <c r="Q312" s="24"/>
       <c r="R312" s="24"/>
@@ -27672,10 +27672,10 @@
       <c r="K313" s="76"/>
       <c r="L313" s="24"/>
       <c r="M313" s="24"/>
-      <c r="N313" s="24" t="s">
+      <c r="N313" s="24"/>
+      <c r="O313" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="O313" s="24"/>
       <c r="P313" s="24"/>
       <c r="Q313" s="24"/>
       <c r="R313" s="24"/>
@@ -28673,10 +28673,10 @@
       <c r="K334" s="76"/>
       <c r="L334" s="24"/>
       <c r="M334" s="24"/>
-      <c r="N334" s="24" t="s">
+      <c r="N334" s="24"/>
+      <c r="O334" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="O334" s="24"/>
       <c r="P334" s="24"/>
       <c r="Q334" s="24"/>
       <c r="R334" s="24"/>
@@ -28728,10 +28728,10 @@
       <c r="K335" s="76"/>
       <c r="L335" s="24"/>
       <c r="M335" s="24"/>
-      <c r="N335" s="24" t="s">
+      <c r="N335" s="24"/>
+      <c r="O335" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="O335" s="24"/>
       <c r="P335" s="24"/>
       <c r="Q335" s="24"/>
       <c r="R335" s="24"/>
@@ -29674,10 +29674,10 @@
       <c r="K355" s="76"/>
       <c r="L355" s="24"/>
       <c r="M355" s="24"/>
-      <c r="N355" s="24" t="s">
+      <c r="N355" s="24"/>
+      <c r="O355" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="O355" s="24"/>
       <c r="P355" s="24"/>
       <c r="Q355" s="24"/>
       <c r="R355" s="24"/>
@@ -29729,10 +29729,10 @@
       <c r="K356" s="76"/>
       <c r="L356" s="24"/>
       <c r="M356" s="24"/>
-      <c r="N356" s="24" t="s">
+      <c r="N356" s="24"/>
+      <c r="O356" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="O356" s="24"/>
       <c r="P356" s="24"/>
       <c r="Q356" s="24"/>
       <c r="R356" s="24"/>
@@ -30675,10 +30675,10 @@
       <c r="K376" s="76"/>
       <c r="L376" s="24"/>
       <c r="M376" s="24"/>
-      <c r="N376" s="225" t="s">
+      <c r="N376" s="24"/>
+      <c r="O376" s="225" t="s">
         <v>390</v>
       </c>
-      <c r="O376" s="225"/>
       <c r="P376" s="225"/>
       <c r="Q376" s="225"/>
       <c r="R376" s="225"/>
@@ -30730,10 +30730,10 @@
       <c r="K377" s="76"/>
       <c r="L377" s="24"/>
       <c r="M377" s="24"/>
-      <c r="N377" s="225" t="s">
+      <c r="N377" s="24"/>
+      <c r="O377" s="225" t="s">
         <v>391</v>
       </c>
-      <c r="O377" s="225"/>
       <c r="P377" s="225"/>
       <c r="Q377" s="225"/>
       <c r="R377" s="225"/>
@@ -31676,10 +31676,10 @@
       <c r="K397" s="76"/>
       <c r="L397" s="24"/>
       <c r="M397" s="24"/>
-      <c r="N397" s="225" t="s">
+      <c r="N397" s="24"/>
+      <c r="O397" s="225" t="s">
         <v>390</v>
       </c>
-      <c r="O397" s="225"/>
       <c r="P397" s="225"/>
       <c r="Q397" s="225"/>
       <c r="R397" s="225"/>
@@ -31731,10 +31731,10 @@
       <c r="K398" s="76"/>
       <c r="L398" s="24"/>
       <c r="M398" s="24"/>
-      <c r="N398" s="225" t="s">
+      <c r="N398" s="24"/>
+      <c r="O398" s="225" t="s">
         <v>391</v>
       </c>
-      <c r="O398" s="225"/>
       <c r="P398" s="225"/>
       <c r="Q398" s="225"/>
       <c r="R398" s="225"/>
@@ -32623,7 +32623,7 @@
       <c r="F417" s="76"/>
       <c r="G417" s="75"/>
       <c r="K417" s="76"/>
-      <c r="N417" s="17" t="s">
+      <c r="O417" s="17" t="s">
         <v>364</v>
       </c>
       <c r="AA417" s="17" t="s">
@@ -32640,7 +32640,7 @@
       <c r="F418" s="76"/>
       <c r="G418" s="75"/>
       <c r="K418" s="76"/>
-      <c r="N418" s="17" t="s">
+      <c r="O418" s="17" t="s">
         <v>365</v>
       </c>
       <c r="AA418" s="17" t="s">
@@ -41044,14 +41044,14 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="279">
+      <c r="AI1" s="289">
         <f>変更履歴!E5</f>
         <v>43717</v>
       </c>
-      <c r="AJ1" s="298"/>
-      <c r="AK1" s="298"/>
-      <c r="AL1" s="298"/>
-      <c r="AM1" s="299"/>
+      <c r="AJ1" s="304"/>
+      <c r="AK1" s="304"/>
+      <c r="AL1" s="304"/>
+      <c r="AM1" s="305"/>
       <c r="AN1" s="34" t="s">
         <v>25</v>
       </c>
@@ -41060,16 +41060,16 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="282" t="str">
+      <c r="AT1" s="292" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="291"/>
-      <c r="AV1" s="291"/>
-      <c r="AW1" s="291"/>
-      <c r="AX1" s="291"/>
-      <c r="AY1" s="291"/>
-      <c r="AZ1" s="292"/>
+      <c r="AU1" s="297"/>
+      <c r="AV1" s="297"/>
+      <c r="AW1" s="297"/>
+      <c r="AX1" s="297"/>
+      <c r="AY1" s="297"/>
+      <c r="AZ1" s="298"/>
     </row>
     <row r="2" spans="1:52" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -41097,32 +41097,32 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="39"/>
-      <c r="S2" s="297" t="str">
+      <c r="S2" s="303" t="str">
         <f>'１．機能概要'!W2</f>
         <v>当日詳細実績参照</v>
       </c>
-      <c r="T2" s="298"/>
-      <c r="U2" s="298"/>
-      <c r="V2" s="298"/>
-      <c r="W2" s="298"/>
-      <c r="X2" s="298"/>
-      <c r="Y2" s="298"/>
-      <c r="Z2" s="298"/>
-      <c r="AA2" s="298"/>
-      <c r="AB2" s="298"/>
-      <c r="AC2" s="298"/>
-      <c r="AD2" s="299"/>
+      <c r="T2" s="304"/>
+      <c r="U2" s="304"/>
+      <c r="V2" s="304"/>
+      <c r="W2" s="304"/>
+      <c r="X2" s="304"/>
+      <c r="Y2" s="304"/>
+      <c r="Z2" s="304"/>
+      <c r="AA2" s="304"/>
+      <c r="AB2" s="304"/>
+      <c r="AC2" s="304"/>
+      <c r="AD2" s="305"/>
       <c r="AE2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="35"/>
       <c r="AG2" s="35"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="296"/>
-      <c r="AJ2" s="291"/>
-      <c r="AK2" s="291"/>
-      <c r="AL2" s="291"/>
-      <c r="AM2" s="292"/>
+      <c r="AI2" s="302"/>
+      <c r="AJ2" s="297"/>
+      <c r="AK2" s="297"/>
+      <c r="AL2" s="297"/>
+      <c r="AM2" s="298"/>
       <c r="AN2" s="34" t="s">
         <v>26</v>
       </c>
@@ -41131,13 +41131,13 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="282"/>
-      <c r="AU2" s="291"/>
-      <c r="AV2" s="291"/>
-      <c r="AW2" s="291"/>
-      <c r="AX2" s="291"/>
-      <c r="AY2" s="291"/>
-      <c r="AZ2" s="292"/>
+      <c r="AT2" s="292"/>
+      <c r="AU2" s="297"/>
+      <c r="AV2" s="297"/>
+      <c r="AW2" s="297"/>
+      <c r="AX2" s="297"/>
+      <c r="AY2" s="297"/>
+      <c r="AZ2" s="298"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="57"/>
@@ -41366,7 +41366,7 @@
       <c r="AW6" s="20"/>
     </row>
     <row r="7" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B7" s="303">
+      <c r="B7" s="309">
         <v>1</v>
       </c>
       <c r="C7" s="21" t="s">
@@ -41420,7 +41420,7 @@
       <c r="AW7" s="23"/>
     </row>
     <row r="8" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B8" s="304"/>
+      <c r="B8" s="310"/>
       <c r="C8" s="25"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -41470,7 +41470,7 @@
       <c r="AW8" s="27"/>
     </row>
     <row r="9" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B9" s="303">
+      <c r="B9" s="309">
         <v>2</v>
       </c>
       <c r="C9" s="21" t="s">
@@ -41530,7 +41530,7 @@
       <c r="AW9" s="23"/>
     </row>
     <row r="10" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B10" s="305"/>
+      <c r="B10" s="311"/>
       <c r="C10" s="75"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
@@ -41580,7 +41580,7 @@
       <c r="AW10" s="27"/>
     </row>
     <row r="11" spans="1:52" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="303">
+      <c r="B11" s="309">
         <v>3</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -41634,7 +41634,7 @@
       <c r="AW11" s="23"/>
     </row>
     <row r="12" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B12" s="304"/>
+      <c r="B12" s="310"/>
       <c r="C12" s="75"/>
       <c r="I12" s="76"/>
       <c r="J12" s="75"/>
@@ -45752,14 +45752,14 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="279">
+      <c r="AI1" s="289">
         <f>変更履歴!E5</f>
         <v>43717</v>
       </c>
-      <c r="AJ1" s="298"/>
-      <c r="AK1" s="298"/>
-      <c r="AL1" s="298"/>
-      <c r="AM1" s="299"/>
+      <c r="AJ1" s="304"/>
+      <c r="AK1" s="304"/>
+      <c r="AL1" s="304"/>
+      <c r="AM1" s="305"/>
       <c r="AN1" s="34" t="s">
         <v>25</v>
       </c>
@@ -45768,16 +45768,16 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="282" t="str">
+      <c r="AT1" s="292" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="291"/>
-      <c r="AV1" s="291"/>
-      <c r="AW1" s="291"/>
-      <c r="AX1" s="291"/>
-      <c r="AY1" s="291"/>
-      <c r="AZ1" s="292"/>
+      <c r="AU1" s="297"/>
+      <c r="AV1" s="297"/>
+      <c r="AW1" s="297"/>
+      <c r="AX1" s="297"/>
+      <c r="AY1" s="297"/>
+      <c r="AZ1" s="298"/>
     </row>
     <row r="2" spans="1:52" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -45805,32 +45805,32 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="39"/>
-      <c r="S2" s="297" t="str">
+      <c r="S2" s="303" t="str">
         <f>'１．機能概要'!W2</f>
         <v>当日詳細実績参照</v>
       </c>
-      <c r="T2" s="298"/>
-      <c r="U2" s="298"/>
-      <c r="V2" s="298"/>
-      <c r="W2" s="298"/>
-      <c r="X2" s="298"/>
-      <c r="Y2" s="298"/>
-      <c r="Z2" s="298"/>
-      <c r="AA2" s="298"/>
-      <c r="AB2" s="298"/>
-      <c r="AC2" s="298"/>
-      <c r="AD2" s="299"/>
+      <c r="T2" s="304"/>
+      <c r="U2" s="304"/>
+      <c r="V2" s="304"/>
+      <c r="W2" s="304"/>
+      <c r="X2" s="304"/>
+      <c r="Y2" s="304"/>
+      <c r="Z2" s="304"/>
+      <c r="AA2" s="304"/>
+      <c r="AB2" s="304"/>
+      <c r="AC2" s="304"/>
+      <c r="AD2" s="305"/>
       <c r="AE2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="35"/>
       <c r="AG2" s="35"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="296"/>
-      <c r="AJ2" s="291"/>
-      <c r="AK2" s="291"/>
-      <c r="AL2" s="291"/>
-      <c r="AM2" s="292"/>
+      <c r="AI2" s="302"/>
+      <c r="AJ2" s="297"/>
+      <c r="AK2" s="297"/>
+      <c r="AL2" s="297"/>
+      <c r="AM2" s="298"/>
       <c r="AN2" s="34" t="s">
         <v>26</v>
       </c>
@@ -45839,13 +45839,13 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="282"/>
-      <c r="AU2" s="291"/>
-      <c r="AV2" s="291"/>
-      <c r="AW2" s="291"/>
-      <c r="AX2" s="291"/>
-      <c r="AY2" s="291"/>
-      <c r="AZ2" s="292"/>
+      <c r="AT2" s="292"/>
+      <c r="AU2" s="297"/>
+      <c r="AV2" s="297"/>
+      <c r="AW2" s="297"/>
+      <c r="AX2" s="297"/>
+      <c r="AY2" s="297"/>
+      <c r="AZ2" s="298"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="57"/>
@@ -46051,19 +46051,19 @@
       <c r="J9" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="K9" s="306" t="s">
+      <c r="K9" s="312" t="s">
         <v>353</v>
       </c>
-      <c r="L9" s="307"/>
-      <c r="M9" s="306" t="s">
+      <c r="L9" s="313"/>
+      <c r="M9" s="312" t="s">
         <v>354</v>
       </c>
-      <c r="N9" s="310"/>
-      <c r="O9" s="307"/>
-      <c r="P9" s="312" t="s">
+      <c r="N9" s="322"/>
+      <c r="O9" s="313"/>
+      <c r="P9" s="316" t="s">
         <v>355</v>
       </c>
-      <c r="Q9" s="313"/>
+      <c r="Q9" s="318"/>
     </row>
     <row r="10" spans="1:52" s="126" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C10" s="131" t="s">
@@ -46076,13 +46076,13 @@
       <c r="H10" s="132"/>
       <c r="I10" s="132"/>
       <c r="J10" s="133"/>
-      <c r="K10" s="308"/>
-      <c r="L10" s="309"/>
-      <c r="M10" s="308"/>
-      <c r="N10" s="311"/>
-      <c r="O10" s="309"/>
-      <c r="P10" s="314"/>
-      <c r="Q10" s="315"/>
+      <c r="K10" s="314"/>
+      <c r="L10" s="315"/>
+      <c r="M10" s="314"/>
+      <c r="N10" s="323"/>
+      <c r="O10" s="315"/>
+      <c r="P10" s="319"/>
+      <c r="Q10" s="321"/>
     </row>
     <row r="11" spans="1:52" s="126" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C11" s="134" t="s">
@@ -46476,28 +46476,28 @@
       <c r="J23" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="K23" s="306" t="s">
+      <c r="K23" s="312" t="s">
         <v>313</v>
       </c>
-      <c r="L23" s="307"/>
-      <c r="M23" s="306" t="s">
+      <c r="L23" s="313"/>
+      <c r="M23" s="312" t="s">
         <v>205</v>
       </c>
-      <c r="N23" s="307"/>
-      <c r="O23" s="312" t="s">
+      <c r="N23" s="313"/>
+      <c r="O23" s="316" t="s">
         <v>206</v>
       </c>
-      <c r="P23" s="316"/>
-      <c r="Q23" s="313"/>
-      <c r="R23" s="312" t="s">
+      <c r="P23" s="317"/>
+      <c r="Q23" s="318"/>
+      <c r="R23" s="316" t="s">
         <v>207</v>
       </c>
-      <c r="S23" s="316"/>
-      <c r="T23" s="313"/>
-      <c r="U23" s="306" t="s">
+      <c r="S23" s="317"/>
+      <c r="T23" s="318"/>
+      <c r="U23" s="312" t="s">
         <v>208</v>
       </c>
-      <c r="V23" s="307"/>
+      <c r="V23" s="313"/>
       <c r="W23" s="51"/>
       <c r="X23" s="51"/>
       <c r="Y23" s="51"/>
@@ -46549,18 +46549,18 @@
       <c r="H24" s="64"/>
       <c r="I24" s="64"/>
       <c r="J24" s="65"/>
-      <c r="K24" s="308"/>
-      <c r="L24" s="309"/>
-      <c r="M24" s="308"/>
-      <c r="N24" s="309"/>
-      <c r="O24" s="314"/>
-      <c r="P24" s="317"/>
-      <c r="Q24" s="315"/>
-      <c r="R24" s="314"/>
-      <c r="S24" s="317"/>
-      <c r="T24" s="315"/>
-      <c r="U24" s="308"/>
-      <c r="V24" s="309"/>
+      <c r="K24" s="314"/>
+      <c r="L24" s="315"/>
+      <c r="M24" s="314"/>
+      <c r="N24" s="315"/>
+      <c r="O24" s="319"/>
+      <c r="P24" s="320"/>
+      <c r="Q24" s="321"/>
+      <c r="R24" s="319"/>
+      <c r="S24" s="320"/>
+      <c r="T24" s="321"/>
+      <c r="U24" s="314"/>
+      <c r="V24" s="315"/>
       <c r="W24" s="51"/>
       <c r="X24" s="51"/>
       <c r="Y24" s="51"/>
@@ -47162,28 +47162,28 @@
       <c r="J33" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="K33" s="306" t="s">
+      <c r="K33" s="312" t="s">
         <v>313</v>
       </c>
-      <c r="L33" s="307"/>
-      <c r="M33" s="306" t="s">
+      <c r="L33" s="313"/>
+      <c r="M33" s="312" t="s">
         <v>205</v>
       </c>
-      <c r="N33" s="307"/>
-      <c r="O33" s="312" t="s">
+      <c r="N33" s="313"/>
+      <c r="O33" s="316" t="s">
         <v>206</v>
       </c>
-      <c r="P33" s="316"/>
-      <c r="Q33" s="313"/>
-      <c r="R33" s="312" t="s">
+      <c r="P33" s="317"/>
+      <c r="Q33" s="318"/>
+      <c r="R33" s="316" t="s">
         <v>207</v>
       </c>
-      <c r="S33" s="316"/>
-      <c r="T33" s="313"/>
-      <c r="U33" s="306" t="s">
+      <c r="S33" s="317"/>
+      <c r="T33" s="318"/>
+      <c r="U33" s="312" t="s">
         <v>208</v>
       </c>
-      <c r="V33" s="307"/>
+      <c r="V33" s="313"/>
       <c r="W33" s="51"/>
       <c r="X33" s="51"/>
       <c r="Y33" s="51"/>
@@ -47235,18 +47235,18 @@
       <c r="H34" s="64"/>
       <c r="I34" s="64"/>
       <c r="J34" s="65"/>
-      <c r="K34" s="308"/>
-      <c r="L34" s="309"/>
-      <c r="M34" s="308"/>
-      <c r="N34" s="309"/>
-      <c r="O34" s="314"/>
-      <c r="P34" s="317"/>
-      <c r="Q34" s="315"/>
-      <c r="R34" s="314"/>
-      <c r="S34" s="317"/>
-      <c r="T34" s="315"/>
-      <c r="U34" s="308"/>
-      <c r="V34" s="309"/>
+      <c r="K34" s="314"/>
+      <c r="L34" s="315"/>
+      <c r="M34" s="314"/>
+      <c r="N34" s="315"/>
+      <c r="O34" s="319"/>
+      <c r="P34" s="320"/>
+      <c r="Q34" s="321"/>
+      <c r="R34" s="319"/>
+      <c r="S34" s="320"/>
+      <c r="T34" s="321"/>
+      <c r="U34" s="314"/>
+      <c r="V34" s="315"/>
       <c r="W34" s="51"/>
       <c r="X34" s="51"/>
       <c r="Y34" s="51"/>
@@ -48286,28 +48286,28 @@
       <c r="J49" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="K49" s="306" t="s">
+      <c r="K49" s="312" t="s">
         <v>313</v>
       </c>
-      <c r="L49" s="307"/>
-      <c r="M49" s="306" t="s">
+      <c r="L49" s="313"/>
+      <c r="M49" s="312" t="s">
         <v>205</v>
       </c>
-      <c r="N49" s="307"/>
-      <c r="O49" s="312" t="s">
+      <c r="N49" s="313"/>
+      <c r="O49" s="316" t="s">
         <v>206</v>
       </c>
-      <c r="P49" s="316"/>
-      <c r="Q49" s="313"/>
-      <c r="R49" s="312" t="s">
+      <c r="P49" s="317"/>
+      <c r="Q49" s="318"/>
+      <c r="R49" s="316" t="s">
         <v>207</v>
       </c>
-      <c r="S49" s="316"/>
-      <c r="T49" s="313"/>
-      <c r="U49" s="306" t="s">
+      <c r="S49" s="317"/>
+      <c r="T49" s="318"/>
+      <c r="U49" s="312" t="s">
         <v>208</v>
       </c>
-      <c r="V49" s="307"/>
+      <c r="V49" s="313"/>
       <c r="W49" s="51"/>
       <c r="X49" s="51"/>
       <c r="Y49" s="51"/>
@@ -48359,18 +48359,18 @@
       <c r="H50" s="64"/>
       <c r="I50" s="64"/>
       <c r="J50" s="65"/>
-      <c r="K50" s="308"/>
-      <c r="L50" s="309"/>
-      <c r="M50" s="308"/>
-      <c r="N50" s="309"/>
-      <c r="O50" s="314"/>
-      <c r="P50" s="317"/>
-      <c r="Q50" s="315"/>
-      <c r="R50" s="314"/>
-      <c r="S50" s="317"/>
-      <c r="T50" s="315"/>
-      <c r="U50" s="308"/>
-      <c r="V50" s="309"/>
+      <c r="K50" s="314"/>
+      <c r="L50" s="315"/>
+      <c r="M50" s="314"/>
+      <c r="N50" s="315"/>
+      <c r="O50" s="319"/>
+      <c r="P50" s="320"/>
+      <c r="Q50" s="321"/>
+      <c r="R50" s="319"/>
+      <c r="S50" s="320"/>
+      <c r="T50" s="321"/>
+      <c r="U50" s="314"/>
+      <c r="V50" s="315"/>
       <c r="W50" s="51"/>
       <c r="X50" s="51"/>
       <c r="Y50" s="51"/>
@@ -59614,12 +59614,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="K49:L50"/>
-    <mergeCell ref="M49:N50"/>
-    <mergeCell ref="O49:Q50"/>
-    <mergeCell ref="K33:L34"/>
-    <mergeCell ref="M33:N34"/>
-    <mergeCell ref="O33:Q34"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="M9:O10"/>
+    <mergeCell ref="P9:Q10"/>
+    <mergeCell ref="O23:Q24"/>
+    <mergeCell ref="R23:T24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="M23:N24"/>
     <mergeCell ref="R49:T50"/>
     <mergeCell ref="U49:V50"/>
     <mergeCell ref="AT1:AZ1"/>
@@ -59630,13 +59631,12 @@
     <mergeCell ref="U33:V34"/>
     <mergeCell ref="R33:T34"/>
     <mergeCell ref="U23:V24"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="M9:O10"/>
-    <mergeCell ref="P9:Q10"/>
-    <mergeCell ref="O23:Q24"/>
-    <mergeCell ref="R23:T24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="M23:N24"/>
+    <mergeCell ref="K49:L50"/>
+    <mergeCell ref="M49:N50"/>
+    <mergeCell ref="O49:Q50"/>
+    <mergeCell ref="K33:L34"/>
+    <mergeCell ref="M33:N34"/>
+    <mergeCell ref="O33:Q34"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -59784,89 +59784,89 @@
       <c r="CX2" s="150"/>
     </row>
     <row r="3" spans="2:102" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="318" t="s">
+      <c r="B3" s="324" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="319"/>
-      <c r="D3" s="319"/>
-      <c r="E3" s="319"/>
-      <c r="F3" s="319"/>
-      <c r="G3" s="319"/>
-      <c r="H3" s="319"/>
-      <c r="I3" s="319"/>
-      <c r="J3" s="319"/>
-      <c r="K3" s="319"/>
-      <c r="L3" s="319"/>
-      <c r="M3" s="319"/>
-      <c r="N3" s="319"/>
-      <c r="O3" s="319"/>
-      <c r="P3" s="319"/>
-      <c r="Q3" s="319"/>
-      <c r="R3" s="319"/>
-      <c r="S3" s="319"/>
-      <c r="T3" s="319"/>
-      <c r="U3" s="319"/>
-      <c r="V3" s="319"/>
-      <c r="W3" s="319"/>
-      <c r="X3" s="319"/>
-      <c r="Y3" s="319"/>
-      <c r="Z3" s="319"/>
-      <c r="AA3" s="319"/>
-      <c r="AB3" s="319"/>
-      <c r="AC3" s="319"/>
-      <c r="AD3" s="319"/>
-      <c r="AE3" s="319"/>
-      <c r="AF3" s="319"/>
-      <c r="AG3" s="319"/>
-      <c r="AH3" s="319"/>
-      <c r="AI3" s="319"/>
-      <c r="AJ3" s="319"/>
-      <c r="AK3" s="319"/>
-      <c r="AL3" s="319"/>
-      <c r="AM3" s="319"/>
-      <c r="AN3" s="319"/>
-      <c r="AO3" s="319"/>
-      <c r="AP3" s="319"/>
-      <c r="AQ3" s="319"/>
-      <c r="AR3" s="319"/>
-      <c r="AS3" s="319"/>
-      <c r="AT3" s="319"/>
-      <c r="AU3" s="319"/>
-      <c r="AV3" s="319"/>
-      <c r="AW3" s="319"/>
-      <c r="AX3" s="319"/>
-      <c r="AY3" s="319"/>
-      <c r="AZ3" s="319"/>
-      <c r="BA3" s="319"/>
-      <c r="BB3" s="319"/>
-      <c r="BC3" s="319"/>
-      <c r="BD3" s="319"/>
-      <c r="BE3" s="319"/>
-      <c r="BF3" s="319"/>
-      <c r="BG3" s="319"/>
-      <c r="BH3" s="319"/>
-      <c r="BI3" s="319"/>
-      <c r="BJ3" s="319"/>
-      <c r="BK3" s="319"/>
-      <c r="BL3" s="319"/>
-      <c r="BM3" s="319"/>
-      <c r="BN3" s="319"/>
-      <c r="BO3" s="319"/>
-      <c r="BP3" s="319"/>
-      <c r="BQ3" s="319"/>
-      <c r="BR3" s="319"/>
-      <c r="BS3" s="319"/>
-      <c r="BT3" s="319"/>
-      <c r="BU3" s="319"/>
-      <c r="BV3" s="319"/>
-      <c r="BW3" s="319"/>
-      <c r="BX3" s="319"/>
-      <c r="BY3" s="319"/>
-      <c r="BZ3" s="319"/>
-      <c r="CA3" s="319"/>
-      <c r="CB3" s="319"/>
-      <c r="CC3" s="319"/>
-      <c r="CD3" s="320"/>
+      <c r="C3" s="325"/>
+      <c r="D3" s="325"/>
+      <c r="E3" s="325"/>
+      <c r="F3" s="325"/>
+      <c r="G3" s="325"/>
+      <c r="H3" s="325"/>
+      <c r="I3" s="325"/>
+      <c r="J3" s="325"/>
+      <c r="K3" s="325"/>
+      <c r="L3" s="325"/>
+      <c r="M3" s="325"/>
+      <c r="N3" s="325"/>
+      <c r="O3" s="325"/>
+      <c r="P3" s="325"/>
+      <c r="Q3" s="325"/>
+      <c r="R3" s="325"/>
+      <c r="S3" s="325"/>
+      <c r="T3" s="325"/>
+      <c r="U3" s="325"/>
+      <c r="V3" s="325"/>
+      <c r="W3" s="325"/>
+      <c r="X3" s="325"/>
+      <c r="Y3" s="325"/>
+      <c r="Z3" s="325"/>
+      <c r="AA3" s="325"/>
+      <c r="AB3" s="325"/>
+      <c r="AC3" s="325"/>
+      <c r="AD3" s="325"/>
+      <c r="AE3" s="325"/>
+      <c r="AF3" s="325"/>
+      <c r="AG3" s="325"/>
+      <c r="AH3" s="325"/>
+      <c r="AI3" s="325"/>
+      <c r="AJ3" s="325"/>
+      <c r="AK3" s="325"/>
+      <c r="AL3" s="325"/>
+      <c r="AM3" s="325"/>
+      <c r="AN3" s="325"/>
+      <c r="AO3" s="325"/>
+      <c r="AP3" s="325"/>
+      <c r="AQ3" s="325"/>
+      <c r="AR3" s="325"/>
+      <c r="AS3" s="325"/>
+      <c r="AT3" s="325"/>
+      <c r="AU3" s="325"/>
+      <c r="AV3" s="325"/>
+      <c r="AW3" s="325"/>
+      <c r="AX3" s="325"/>
+      <c r="AY3" s="325"/>
+      <c r="AZ3" s="325"/>
+      <c r="BA3" s="325"/>
+      <c r="BB3" s="325"/>
+      <c r="BC3" s="325"/>
+      <c r="BD3" s="325"/>
+      <c r="BE3" s="325"/>
+      <c r="BF3" s="325"/>
+      <c r="BG3" s="325"/>
+      <c r="BH3" s="325"/>
+      <c r="BI3" s="325"/>
+      <c r="BJ3" s="325"/>
+      <c r="BK3" s="325"/>
+      <c r="BL3" s="325"/>
+      <c r="BM3" s="325"/>
+      <c r="BN3" s="325"/>
+      <c r="BO3" s="325"/>
+      <c r="BP3" s="325"/>
+      <c r="BQ3" s="325"/>
+      <c r="BR3" s="325"/>
+      <c r="BS3" s="325"/>
+      <c r="BT3" s="325"/>
+      <c r="BU3" s="325"/>
+      <c r="BV3" s="325"/>
+      <c r="BW3" s="325"/>
+      <c r="BX3" s="325"/>
+      <c r="BY3" s="325"/>
+      <c r="BZ3" s="325"/>
+      <c r="CA3" s="325"/>
+      <c r="CB3" s="325"/>
+      <c r="CC3" s="325"/>
+      <c r="CD3" s="326"/>
       <c r="CE3" s="151" t="s">
         <v>237</v>
       </c>
@@ -59893,87 +59893,87 @@
       <c r="CX3" s="156"/>
     </row>
     <row r="4" spans="2:102" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="321"/>
-      <c r="C4" s="322"/>
-      <c r="D4" s="322"/>
-      <c r="E4" s="322"/>
-      <c r="F4" s="322"/>
-      <c r="G4" s="322"/>
-      <c r="H4" s="322"/>
-      <c r="I4" s="322"/>
-      <c r="J4" s="322"/>
-      <c r="K4" s="322"/>
-      <c r="L4" s="322"/>
-      <c r="M4" s="322"/>
-      <c r="N4" s="322"/>
-      <c r="O4" s="322"/>
-      <c r="P4" s="322"/>
-      <c r="Q4" s="322"/>
-      <c r="R4" s="322"/>
-      <c r="S4" s="322"/>
-      <c r="T4" s="322"/>
-      <c r="U4" s="322"/>
-      <c r="V4" s="322"/>
-      <c r="W4" s="322"/>
-      <c r="X4" s="322"/>
-      <c r="Y4" s="322"/>
-      <c r="Z4" s="322"/>
-      <c r="AA4" s="322"/>
-      <c r="AB4" s="322"/>
-      <c r="AC4" s="322"/>
-      <c r="AD4" s="322"/>
-      <c r="AE4" s="322"/>
-      <c r="AF4" s="322"/>
-      <c r="AG4" s="322"/>
-      <c r="AH4" s="322"/>
-      <c r="AI4" s="322"/>
-      <c r="AJ4" s="322"/>
-      <c r="AK4" s="322"/>
-      <c r="AL4" s="322"/>
-      <c r="AM4" s="322"/>
-      <c r="AN4" s="322"/>
-      <c r="AO4" s="322"/>
-      <c r="AP4" s="322"/>
-      <c r="AQ4" s="322"/>
-      <c r="AR4" s="322"/>
-      <c r="AS4" s="322"/>
-      <c r="AT4" s="322"/>
-      <c r="AU4" s="322"/>
-      <c r="AV4" s="322"/>
-      <c r="AW4" s="322"/>
-      <c r="AX4" s="322"/>
-      <c r="AY4" s="322"/>
-      <c r="AZ4" s="322"/>
-      <c r="BA4" s="322"/>
-      <c r="BB4" s="322"/>
-      <c r="BC4" s="322"/>
-      <c r="BD4" s="322"/>
-      <c r="BE4" s="322"/>
-      <c r="BF4" s="322"/>
-      <c r="BG4" s="322"/>
-      <c r="BH4" s="322"/>
-      <c r="BI4" s="322"/>
-      <c r="BJ4" s="322"/>
-      <c r="BK4" s="322"/>
-      <c r="BL4" s="322"/>
-      <c r="BM4" s="322"/>
-      <c r="BN4" s="322"/>
-      <c r="BO4" s="322"/>
-      <c r="BP4" s="322"/>
-      <c r="BQ4" s="322"/>
-      <c r="BR4" s="322"/>
-      <c r="BS4" s="322"/>
-      <c r="BT4" s="322"/>
-      <c r="BU4" s="322"/>
-      <c r="BV4" s="322"/>
-      <c r="BW4" s="322"/>
-      <c r="BX4" s="322"/>
-      <c r="BY4" s="322"/>
-      <c r="BZ4" s="322"/>
-      <c r="CA4" s="322"/>
-      <c r="CB4" s="322"/>
-      <c r="CC4" s="322"/>
-      <c r="CD4" s="323"/>
+      <c r="B4" s="327"/>
+      <c r="C4" s="328"/>
+      <c r="D4" s="328"/>
+      <c r="E4" s="328"/>
+      <c r="F4" s="328"/>
+      <c r="G4" s="328"/>
+      <c r="H4" s="328"/>
+      <c r="I4" s="328"/>
+      <c r="J4" s="328"/>
+      <c r="K4" s="328"/>
+      <c r="L4" s="328"/>
+      <c r="M4" s="328"/>
+      <c r="N4" s="328"/>
+      <c r="O4" s="328"/>
+      <c r="P4" s="328"/>
+      <c r="Q4" s="328"/>
+      <c r="R4" s="328"/>
+      <c r="S4" s="328"/>
+      <c r="T4" s="328"/>
+      <c r="U4" s="328"/>
+      <c r="V4" s="328"/>
+      <c r="W4" s="328"/>
+      <c r="X4" s="328"/>
+      <c r="Y4" s="328"/>
+      <c r="Z4" s="328"/>
+      <c r="AA4" s="328"/>
+      <c r="AB4" s="328"/>
+      <c r="AC4" s="328"/>
+      <c r="AD4" s="328"/>
+      <c r="AE4" s="328"/>
+      <c r="AF4" s="328"/>
+      <c r="AG4" s="328"/>
+      <c r="AH4" s="328"/>
+      <c r="AI4" s="328"/>
+      <c r="AJ4" s="328"/>
+      <c r="AK4" s="328"/>
+      <c r="AL4" s="328"/>
+      <c r="AM4" s="328"/>
+      <c r="AN4" s="328"/>
+      <c r="AO4" s="328"/>
+      <c r="AP4" s="328"/>
+      <c r="AQ4" s="328"/>
+      <c r="AR4" s="328"/>
+      <c r="AS4" s="328"/>
+      <c r="AT4" s="328"/>
+      <c r="AU4" s="328"/>
+      <c r="AV4" s="328"/>
+      <c r="AW4" s="328"/>
+      <c r="AX4" s="328"/>
+      <c r="AY4" s="328"/>
+      <c r="AZ4" s="328"/>
+      <c r="BA4" s="328"/>
+      <c r="BB4" s="328"/>
+      <c r="BC4" s="328"/>
+      <c r="BD4" s="328"/>
+      <c r="BE4" s="328"/>
+      <c r="BF4" s="328"/>
+      <c r="BG4" s="328"/>
+      <c r="BH4" s="328"/>
+      <c r="BI4" s="328"/>
+      <c r="BJ4" s="328"/>
+      <c r="BK4" s="328"/>
+      <c r="BL4" s="328"/>
+      <c r="BM4" s="328"/>
+      <c r="BN4" s="328"/>
+      <c r="BO4" s="328"/>
+      <c r="BP4" s="328"/>
+      <c r="BQ4" s="328"/>
+      <c r="BR4" s="328"/>
+      <c r="BS4" s="328"/>
+      <c r="BT4" s="328"/>
+      <c r="BU4" s="328"/>
+      <c r="BV4" s="328"/>
+      <c r="BW4" s="328"/>
+      <c r="BX4" s="328"/>
+      <c r="BY4" s="328"/>
+      <c r="BZ4" s="328"/>
+      <c r="CA4" s="328"/>
+      <c r="CB4" s="328"/>
+      <c r="CC4" s="328"/>
+      <c r="CD4" s="329"/>
       <c r="CE4" s="157" t="s">
         <v>239</v>
       </c>
@@ -63850,6 +63850,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -64007,15 +64016,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
@@ -64033,6 +64033,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -64048,12 +64056,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K13A_当日詳細実績参照.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K13A_当日詳細実績参照.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324CBE8B-49E0-4EE9-93F9-6EC0A50D404B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83967411-9201-46CD-BBA2-A41385206F83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2404,10 +2404,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>INNER JOIN 作業計画データ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>パラメータ.金型番号</t>
     <rPh sb="6" eb="8">
       <t>カナガタ</t>
@@ -2952,6 +2948,10 @@
     <rPh sb="2" eb="4">
       <t>ゲンショウ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>LEFT JOIN 作業計画データ</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -4340,91 +4340,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4452,23 +4367,90 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="28" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -4493,6 +4475,24 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -4551,10 +4551,13 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4563,17 +4566,14 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="9" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5542,7 +5542,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$40" spid="_x0000_s3193"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$40" spid="_x0000_s3195"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7014,1779 +7014,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="54"/>
-      <c r="B1" s="274" t="s">
+      <c r="B1" s="243" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="274"/>
-      <c r="D1" s="274"/>
-      <c r="E1" s="274"/>
-      <c r="F1" s="274"/>
-      <c r="G1" s="274"/>
-      <c r="H1" s="274"/>
-      <c r="I1" s="274"/>
-      <c r="J1" s="274"/>
-      <c r="K1" s="274"/>
-      <c r="L1" s="274"/>
-      <c r="M1" s="274"/>
-      <c r="N1" s="274"/>
-      <c r="O1" s="274"/>
-      <c r="P1" s="274"/>
-      <c r="Q1" s="274"/>
-      <c r="R1" s="274"/>
-      <c r="S1" s="274"/>
-      <c r="T1" s="274"/>
-      <c r="U1" s="274"/>
-      <c r="V1" s="274"/>
-      <c r="W1" s="274"/>
-      <c r="X1" s="274"/>
-      <c r="Y1" s="274"/>
-      <c r="Z1" s="274"/>
-      <c r="AA1" s="274"/>
-      <c r="AB1" s="274"/>
-      <c r="AC1" s="274"/>
-      <c r="AD1" s="274"/>
-      <c r="AE1" s="274"/>
-      <c r="AF1" s="274"/>
-      <c r="AG1" s="274"/>
-      <c r="AH1" s="274"/>
-      <c r="AI1" s="274"/>
-      <c r="AJ1" s="274"/>
-      <c r="AK1" s="274"/>
-      <c r="AL1" s="274"/>
-      <c r="AM1" s="274"/>
-      <c r="AN1" s="274"/>
-      <c r="AO1" s="274"/>
-      <c r="AP1" s="274"/>
-      <c r="AQ1" s="274"/>
-      <c r="AR1" s="274"/>
-      <c r="AS1" s="274"/>
-      <c r="AT1" s="274"/>
-      <c r="AU1" s="274"/>
-      <c r="AV1" s="274"/>
-      <c r="AW1" s="274"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
+      <c r="F1" s="243"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="243"/>
+      <c r="I1" s="243"/>
+      <c r="J1" s="243"/>
+      <c r="K1" s="243"/>
+      <c r="L1" s="243"/>
+      <c r="M1" s="243"/>
+      <c r="N1" s="243"/>
+      <c r="O1" s="243"/>
+      <c r="P1" s="243"/>
+      <c r="Q1" s="243"/>
+      <c r="R1" s="243"/>
+      <c r="S1" s="243"/>
+      <c r="T1" s="243"/>
+      <c r="U1" s="243"/>
+      <c r="V1" s="243"/>
+      <c r="W1" s="243"/>
+      <c r="X1" s="243"/>
+      <c r="Y1" s="243"/>
+      <c r="Z1" s="243"/>
+      <c r="AA1" s="243"/>
+      <c r="AB1" s="243"/>
+      <c r="AC1" s="243"/>
+      <c r="AD1" s="243"/>
+      <c r="AE1" s="243"/>
+      <c r="AF1" s="243"/>
+      <c r="AG1" s="243"/>
+      <c r="AH1" s="243"/>
+      <c r="AI1" s="243"/>
+      <c r="AJ1" s="243"/>
+      <c r="AK1" s="243"/>
+      <c r="AL1" s="243"/>
+      <c r="AM1" s="243"/>
+      <c r="AN1" s="243"/>
+      <c r="AO1" s="243"/>
+      <c r="AP1" s="243"/>
+      <c r="AQ1" s="243"/>
+      <c r="AR1" s="243"/>
+      <c r="AS1" s="243"/>
+      <c r="AT1" s="243"/>
+      <c r="AU1" s="243"/>
+      <c r="AV1" s="243"/>
+      <c r="AW1" s="243"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
-      <c r="B2" s="275"/>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
-      <c r="G2" s="275"/>
-      <c r="H2" s="275"/>
-      <c r="I2" s="275"/>
-      <c r="J2" s="275"/>
-      <c r="K2" s="275"/>
-      <c r="L2" s="275"/>
-      <c r="M2" s="275"/>
-      <c r="N2" s="275"/>
-      <c r="O2" s="275"/>
-      <c r="P2" s="275"/>
-      <c r="Q2" s="275"/>
-      <c r="R2" s="275"/>
-      <c r="S2" s="275"/>
-      <c r="T2" s="275"/>
-      <c r="U2" s="275"/>
-      <c r="V2" s="275"/>
-      <c r="W2" s="275"/>
-      <c r="X2" s="275"/>
-      <c r="Y2" s="275"/>
-      <c r="Z2" s="275"/>
-      <c r="AA2" s="275"/>
-      <c r="AB2" s="275"/>
-      <c r="AC2" s="275"/>
-      <c r="AD2" s="275"/>
-      <c r="AE2" s="275"/>
-      <c r="AF2" s="275"/>
-      <c r="AG2" s="275"/>
-      <c r="AH2" s="275"/>
-      <c r="AI2" s="275"/>
-      <c r="AJ2" s="275"/>
-      <c r="AK2" s="275"/>
-      <c r="AL2" s="275"/>
-      <c r="AM2" s="275"/>
-      <c r="AN2" s="275"/>
-      <c r="AO2" s="275"/>
-      <c r="AP2" s="275"/>
-      <c r="AQ2" s="275"/>
-      <c r="AR2" s="275"/>
-      <c r="AS2" s="275"/>
-      <c r="AT2" s="275"/>
-      <c r="AU2" s="275"/>
-      <c r="AV2" s="275"/>
-      <c r="AW2" s="275"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="244"/>
+      <c r="J2" s="244"/>
+      <c r="K2" s="244"/>
+      <c r="L2" s="244"/>
+      <c r="M2" s="244"/>
+      <c r="N2" s="244"/>
+      <c r="O2" s="244"/>
+      <c r="P2" s="244"/>
+      <c r="Q2" s="244"/>
+      <c r="R2" s="244"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="244"/>
+      <c r="U2" s="244"/>
+      <c r="V2" s="244"/>
+      <c r="W2" s="244"/>
+      <c r="X2" s="244"/>
+      <c r="Y2" s="244"/>
+      <c r="Z2" s="244"/>
+      <c r="AA2" s="244"/>
+      <c r="AB2" s="244"/>
+      <c r="AC2" s="244"/>
+      <c r="AD2" s="244"/>
+      <c r="AE2" s="244"/>
+      <c r="AF2" s="244"/>
+      <c r="AG2" s="244"/>
+      <c r="AH2" s="244"/>
+      <c r="AI2" s="244"/>
+      <c r="AJ2" s="244"/>
+      <c r="AK2" s="244"/>
+      <c r="AL2" s="244"/>
+      <c r="AM2" s="244"/>
+      <c r="AN2" s="244"/>
+      <c r="AO2" s="244"/>
+      <c r="AP2" s="244"/>
+      <c r="AQ2" s="244"/>
+      <c r="AR2" s="244"/>
+      <c r="AS2" s="244"/>
+      <c r="AT2" s="244"/>
+      <c r="AU2" s="244"/>
+      <c r="AV2" s="244"/>
+      <c r="AW2" s="244"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
-      <c r="B3" s="276" t="s">
+      <c r="B3" s="245" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="276"/>
-      <c r="D3" s="276"/>
-      <c r="E3" s="276" t="s">
+      <c r="C3" s="245"/>
+      <c r="D3" s="245"/>
+      <c r="E3" s="245" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="276"/>
-      <c r="G3" s="276"/>
-      <c r="H3" s="276"/>
-      <c r="I3" s="276"/>
-      <c r="J3" s="277" t="s">
+      <c r="F3" s="245"/>
+      <c r="G3" s="245"/>
+      <c r="H3" s="245"/>
+      <c r="I3" s="245"/>
+      <c r="J3" s="246" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="278"/>
-      <c r="L3" s="279"/>
-      <c r="M3" s="277" t="s">
+      <c r="K3" s="247"/>
+      <c r="L3" s="248"/>
+      <c r="M3" s="246" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="278"/>
-      <c r="O3" s="278"/>
-      <c r="P3" s="278"/>
-      <c r="Q3" s="278"/>
-      <c r="R3" s="279"/>
-      <c r="S3" s="276" t="s">
+      <c r="N3" s="247"/>
+      <c r="O3" s="247"/>
+      <c r="P3" s="247"/>
+      <c r="Q3" s="247"/>
+      <c r="R3" s="248"/>
+      <c r="S3" s="245" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="276"/>
-      <c r="U3" s="276"/>
-      <c r="V3" s="276" t="s">
+      <c r="T3" s="245"/>
+      <c r="U3" s="245"/>
+      <c r="V3" s="245" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="276"/>
-      <c r="X3" s="276"/>
-      <c r="Y3" s="276"/>
-      <c r="Z3" s="276"/>
-      <c r="AA3" s="276"/>
-      <c r="AB3" s="276"/>
-      <c r="AC3" s="276"/>
-      <c r="AD3" s="276"/>
-      <c r="AE3" s="276"/>
-      <c r="AF3" s="276"/>
-      <c r="AG3" s="276"/>
-      <c r="AH3" s="276"/>
-      <c r="AI3" s="276"/>
-      <c r="AJ3" s="276"/>
-      <c r="AK3" s="276"/>
-      <c r="AL3" s="276"/>
-      <c r="AM3" s="276"/>
-      <c r="AN3" s="276" t="s">
+      <c r="W3" s="245"/>
+      <c r="X3" s="245"/>
+      <c r="Y3" s="245"/>
+      <c r="Z3" s="245"/>
+      <c r="AA3" s="245"/>
+      <c r="AB3" s="245"/>
+      <c r="AC3" s="245"/>
+      <c r="AD3" s="245"/>
+      <c r="AE3" s="245"/>
+      <c r="AF3" s="245"/>
+      <c r="AG3" s="245"/>
+      <c r="AH3" s="245"/>
+      <c r="AI3" s="245"/>
+      <c r="AJ3" s="245"/>
+      <c r="AK3" s="245"/>
+      <c r="AL3" s="245"/>
+      <c r="AM3" s="245"/>
+      <c r="AN3" s="245" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="276"/>
-      <c r="AP3" s="276"/>
-      <c r="AQ3" s="276"/>
-      <c r="AR3" s="276"/>
-      <c r="AS3" s="276" t="s">
+      <c r="AO3" s="245"/>
+      <c r="AP3" s="245"/>
+      <c r="AQ3" s="245"/>
+      <c r="AR3" s="245"/>
+      <c r="AS3" s="245" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="276"/>
-      <c r="AU3" s="276"/>
-      <c r="AV3" s="276"/>
-      <c r="AW3" s="276"/>
+      <c r="AT3" s="245"/>
+      <c r="AU3" s="245"/>
+      <c r="AV3" s="245"/>
+      <c r="AW3" s="245"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
-      <c r="B4" s="276"/>
-      <c r="C4" s="276"/>
-      <c r="D4" s="276"/>
-      <c r="E4" s="276"/>
-      <c r="F4" s="276"/>
-      <c r="G4" s="276"/>
-      <c r="H4" s="276"/>
-      <c r="I4" s="276"/>
-      <c r="J4" s="280"/>
-      <c r="K4" s="281"/>
-      <c r="L4" s="282"/>
-      <c r="M4" s="280"/>
-      <c r="N4" s="281"/>
-      <c r="O4" s="281"/>
-      <c r="P4" s="281"/>
-      <c r="Q4" s="281"/>
-      <c r="R4" s="282"/>
-      <c r="S4" s="276"/>
-      <c r="T4" s="276"/>
-      <c r="U4" s="276"/>
-      <c r="V4" s="276"/>
-      <c r="W4" s="276"/>
-      <c r="X4" s="276"/>
-      <c r="Y4" s="276"/>
-      <c r="Z4" s="276"/>
-      <c r="AA4" s="276"/>
-      <c r="AB4" s="276"/>
-      <c r="AC4" s="276"/>
-      <c r="AD4" s="276"/>
-      <c r="AE4" s="276"/>
-      <c r="AF4" s="276"/>
-      <c r="AG4" s="276"/>
-      <c r="AH4" s="276"/>
-      <c r="AI4" s="276"/>
-      <c r="AJ4" s="276"/>
-      <c r="AK4" s="276"/>
-      <c r="AL4" s="276"/>
-      <c r="AM4" s="276"/>
-      <c r="AN4" s="276"/>
-      <c r="AO4" s="276"/>
-      <c r="AP4" s="276"/>
-      <c r="AQ4" s="276"/>
-      <c r="AR4" s="276"/>
-      <c r="AS4" s="276"/>
-      <c r="AT4" s="276"/>
-      <c r="AU4" s="276"/>
-      <c r="AV4" s="276"/>
-      <c r="AW4" s="276"/>
+      <c r="B4" s="245"/>
+      <c r="C4" s="245"/>
+      <c r="D4" s="245"/>
+      <c r="E4" s="245"/>
+      <c r="F4" s="245"/>
+      <c r="G4" s="245"/>
+      <c r="H4" s="245"/>
+      <c r="I4" s="245"/>
+      <c r="J4" s="249"/>
+      <c r="K4" s="250"/>
+      <c r="L4" s="251"/>
+      <c r="M4" s="249"/>
+      <c r="N4" s="250"/>
+      <c r="O4" s="250"/>
+      <c r="P4" s="250"/>
+      <c r="Q4" s="250"/>
+      <c r="R4" s="251"/>
+      <c r="S4" s="245"/>
+      <c r="T4" s="245"/>
+      <c r="U4" s="245"/>
+      <c r="V4" s="245"/>
+      <c r="W4" s="245"/>
+      <c r="X4" s="245"/>
+      <c r="Y4" s="245"/>
+      <c r="Z4" s="245"/>
+      <c r="AA4" s="245"/>
+      <c r="AB4" s="245"/>
+      <c r="AC4" s="245"/>
+      <c r="AD4" s="245"/>
+      <c r="AE4" s="245"/>
+      <c r="AF4" s="245"/>
+      <c r="AG4" s="245"/>
+      <c r="AH4" s="245"/>
+      <c r="AI4" s="245"/>
+      <c r="AJ4" s="245"/>
+      <c r="AK4" s="245"/>
+      <c r="AL4" s="245"/>
+      <c r="AM4" s="245"/>
+      <c r="AN4" s="245"/>
+      <c r="AO4" s="245"/>
+      <c r="AP4" s="245"/>
+      <c r="AQ4" s="245"/>
+      <c r="AR4" s="245"/>
+      <c r="AS4" s="245"/>
+      <c r="AT4" s="245"/>
+      <c r="AU4" s="245"/>
+      <c r="AV4" s="245"/>
+      <c r="AW4" s="245"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
-      <c r="B5" s="268">
+      <c r="B5" s="253">
         <v>1</v>
       </c>
-      <c r="C5" s="268"/>
-      <c r="D5" s="268"/>
-      <c r="E5" s="249">
+      <c r="C5" s="253"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="254">
         <v>43717</v>
       </c>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="249"/>
-      <c r="J5" s="250" t="s">
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="254"/>
+      <c r="J5" s="255" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="251"/>
-      <c r="L5" s="252"/>
-      <c r="M5" s="250" t="s">
+      <c r="K5" s="256"/>
+      <c r="L5" s="257"/>
+      <c r="M5" s="255" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="251"/>
-      <c r="O5" s="251"/>
-      <c r="P5" s="251"/>
-      <c r="Q5" s="251"/>
-      <c r="R5" s="252"/>
-      <c r="S5" s="256" t="s">
+      <c r="N5" s="256"/>
+      <c r="O5" s="256"/>
+      <c r="P5" s="256"/>
+      <c r="Q5" s="256"/>
+      <c r="R5" s="257"/>
+      <c r="S5" s="252" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="256"/>
-      <c r="U5" s="256"/>
-      <c r="V5" s="267" t="s">
+      <c r="T5" s="252"/>
+      <c r="U5" s="252"/>
+      <c r="V5" s="261" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="267"/>
-      <c r="X5" s="267"/>
-      <c r="Y5" s="267"/>
-      <c r="Z5" s="267"/>
-      <c r="AA5" s="267"/>
-      <c r="AB5" s="267"/>
-      <c r="AC5" s="267"/>
-      <c r="AD5" s="267"/>
-      <c r="AE5" s="267"/>
-      <c r="AF5" s="267"/>
-      <c r="AG5" s="267"/>
-      <c r="AH5" s="267"/>
-      <c r="AI5" s="267"/>
-      <c r="AJ5" s="267"/>
-      <c r="AK5" s="267"/>
-      <c r="AL5" s="267"/>
-      <c r="AM5" s="267"/>
-      <c r="AN5" s="256" t="s">
+      <c r="W5" s="261"/>
+      <c r="X5" s="261"/>
+      <c r="Y5" s="261"/>
+      <c r="Z5" s="261"/>
+      <c r="AA5" s="261"/>
+      <c r="AB5" s="261"/>
+      <c r="AC5" s="261"/>
+      <c r="AD5" s="261"/>
+      <c r="AE5" s="261"/>
+      <c r="AF5" s="261"/>
+      <c r="AG5" s="261"/>
+      <c r="AH5" s="261"/>
+      <c r="AI5" s="261"/>
+      <c r="AJ5" s="261"/>
+      <c r="AK5" s="261"/>
+      <c r="AL5" s="261"/>
+      <c r="AM5" s="261"/>
+      <c r="AN5" s="252" t="s">
         <v>108</v>
       </c>
-      <c r="AO5" s="256"/>
-      <c r="AP5" s="256"/>
-      <c r="AQ5" s="256"/>
-      <c r="AR5" s="256"/>
-      <c r="AS5" s="256"/>
-      <c r="AT5" s="256"/>
-      <c r="AU5" s="256"/>
-      <c r="AV5" s="256"/>
-      <c r="AW5" s="256"/>
+      <c r="AO5" s="252"/>
+      <c r="AP5" s="252"/>
+      <c r="AQ5" s="252"/>
+      <c r="AR5" s="252"/>
+      <c r="AS5" s="252"/>
+      <c r="AT5" s="252"/>
+      <c r="AU5" s="252"/>
+      <c r="AV5" s="252"/>
+      <c r="AW5" s="252"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="56"/>
-      <c r="B6" s="268"/>
-      <c r="C6" s="268"/>
-      <c r="D6" s="268"/>
-      <c r="E6" s="249"/>
-      <c r="F6" s="249"/>
-      <c r="G6" s="249"/>
-      <c r="H6" s="249"/>
-      <c r="I6" s="249"/>
-      <c r="J6" s="250"/>
-      <c r="K6" s="251"/>
-      <c r="L6" s="252"/>
-      <c r="M6" s="271"/>
-      <c r="N6" s="272"/>
-      <c r="O6" s="272"/>
-      <c r="P6" s="272"/>
-      <c r="Q6" s="272"/>
-      <c r="R6" s="273"/>
-      <c r="S6" s="256"/>
-      <c r="T6" s="256"/>
-      <c r="U6" s="256"/>
-      <c r="V6" s="267"/>
-      <c r="W6" s="267"/>
-      <c r="X6" s="267"/>
-      <c r="Y6" s="267"/>
-      <c r="Z6" s="267"/>
-      <c r="AA6" s="267"/>
-      <c r="AB6" s="267"/>
-      <c r="AC6" s="267"/>
-      <c r="AD6" s="267"/>
-      <c r="AE6" s="267"/>
-      <c r="AF6" s="267"/>
-      <c r="AG6" s="267"/>
-      <c r="AH6" s="267"/>
-      <c r="AI6" s="267"/>
-      <c r="AJ6" s="267"/>
-      <c r="AK6" s="267"/>
-      <c r="AL6" s="267"/>
-      <c r="AM6" s="267"/>
-      <c r="AN6" s="256"/>
-      <c r="AO6" s="256"/>
-      <c r="AP6" s="256"/>
-      <c r="AQ6" s="256"/>
-      <c r="AR6" s="256"/>
-      <c r="AS6" s="256"/>
-      <c r="AT6" s="256"/>
-      <c r="AU6" s="256"/>
-      <c r="AV6" s="256"/>
-      <c r="AW6" s="256"/>
+      <c r="B6" s="253"/>
+      <c r="C6" s="253"/>
+      <c r="D6" s="253"/>
+      <c r="E6" s="254"/>
+      <c r="F6" s="254"/>
+      <c r="G6" s="254"/>
+      <c r="H6" s="254"/>
+      <c r="I6" s="254"/>
+      <c r="J6" s="255"/>
+      <c r="K6" s="256"/>
+      <c r="L6" s="257"/>
+      <c r="M6" s="258"/>
+      <c r="N6" s="259"/>
+      <c r="O6" s="259"/>
+      <c r="P6" s="259"/>
+      <c r="Q6" s="259"/>
+      <c r="R6" s="260"/>
+      <c r="S6" s="252"/>
+      <c r="T6" s="252"/>
+      <c r="U6" s="252"/>
+      <c r="V6" s="261"/>
+      <c r="W6" s="261"/>
+      <c r="X6" s="261"/>
+      <c r="Y6" s="261"/>
+      <c r="Z6" s="261"/>
+      <c r="AA6" s="261"/>
+      <c r="AB6" s="261"/>
+      <c r="AC6" s="261"/>
+      <c r="AD6" s="261"/>
+      <c r="AE6" s="261"/>
+      <c r="AF6" s="261"/>
+      <c r="AG6" s="261"/>
+      <c r="AH6" s="261"/>
+      <c r="AI6" s="261"/>
+      <c r="AJ6" s="261"/>
+      <c r="AK6" s="261"/>
+      <c r="AL6" s="261"/>
+      <c r="AM6" s="261"/>
+      <c r="AN6" s="252"/>
+      <c r="AO6" s="252"/>
+      <c r="AP6" s="252"/>
+      <c r="AQ6" s="252"/>
+      <c r="AR6" s="252"/>
+      <c r="AS6" s="252"/>
+      <c r="AT6" s="252"/>
+      <c r="AU6" s="252"/>
+      <c r="AV6" s="252"/>
+      <c r="AW6" s="252"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
-      <c r="B7" s="268"/>
-      <c r="C7" s="268"/>
-      <c r="D7" s="268"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="249"/>
-      <c r="J7" s="250"/>
-      <c r="K7" s="251"/>
-      <c r="L7" s="252"/>
-      <c r="M7" s="271"/>
-      <c r="N7" s="272"/>
-      <c r="O7" s="272"/>
-      <c r="P7" s="272"/>
-      <c r="Q7" s="272"/>
-      <c r="R7" s="273"/>
-      <c r="S7" s="256"/>
-      <c r="T7" s="256"/>
-      <c r="U7" s="256"/>
-      <c r="V7" s="267"/>
-      <c r="W7" s="267"/>
-      <c r="X7" s="267"/>
-      <c r="Y7" s="267"/>
-      <c r="Z7" s="267"/>
-      <c r="AA7" s="267"/>
-      <c r="AB7" s="267"/>
-      <c r="AC7" s="267"/>
-      <c r="AD7" s="267"/>
-      <c r="AE7" s="267"/>
-      <c r="AF7" s="267"/>
-      <c r="AG7" s="267"/>
-      <c r="AH7" s="267"/>
-      <c r="AI7" s="267"/>
-      <c r="AJ7" s="267"/>
-      <c r="AK7" s="267"/>
-      <c r="AL7" s="267"/>
-      <c r="AM7" s="267"/>
-      <c r="AN7" s="256"/>
-      <c r="AO7" s="256"/>
-      <c r="AP7" s="256"/>
-      <c r="AQ7" s="256"/>
-      <c r="AR7" s="256"/>
-      <c r="AS7" s="256"/>
-      <c r="AT7" s="256"/>
-      <c r="AU7" s="256"/>
-      <c r="AV7" s="256"/>
-      <c r="AW7" s="256"/>
+      <c r="B7" s="253"/>
+      <c r="C7" s="253"/>
+      <c r="D7" s="253"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="254"/>
+      <c r="J7" s="255"/>
+      <c r="K7" s="256"/>
+      <c r="L7" s="257"/>
+      <c r="M7" s="258"/>
+      <c r="N7" s="259"/>
+      <c r="O7" s="259"/>
+      <c r="P7" s="259"/>
+      <c r="Q7" s="259"/>
+      <c r="R7" s="260"/>
+      <c r="S7" s="252"/>
+      <c r="T7" s="252"/>
+      <c r="U7" s="252"/>
+      <c r="V7" s="261"/>
+      <c r="W7" s="261"/>
+      <c r="X7" s="261"/>
+      <c r="Y7" s="261"/>
+      <c r="Z7" s="261"/>
+      <c r="AA7" s="261"/>
+      <c r="AB7" s="261"/>
+      <c r="AC7" s="261"/>
+      <c r="AD7" s="261"/>
+      <c r="AE7" s="261"/>
+      <c r="AF7" s="261"/>
+      <c r="AG7" s="261"/>
+      <c r="AH7" s="261"/>
+      <c r="AI7" s="261"/>
+      <c r="AJ7" s="261"/>
+      <c r="AK7" s="261"/>
+      <c r="AL7" s="261"/>
+      <c r="AM7" s="261"/>
+      <c r="AN7" s="252"/>
+      <c r="AO7" s="252"/>
+      <c r="AP7" s="252"/>
+      <c r="AQ7" s="252"/>
+      <c r="AR7" s="252"/>
+      <c r="AS7" s="252"/>
+      <c r="AT7" s="252"/>
+      <c r="AU7" s="252"/>
+      <c r="AV7" s="252"/>
+      <c r="AW7" s="252"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
-      <c r="B8" s="268"/>
-      <c r="C8" s="268"/>
-      <c r="D8" s="268"/>
-      <c r="E8" s="249"/>
-      <c r="F8" s="249"/>
-      <c r="G8" s="249"/>
-      <c r="H8" s="249"/>
-      <c r="I8" s="249"/>
-      <c r="J8" s="250"/>
-      <c r="K8" s="251"/>
-      <c r="L8" s="252"/>
-      <c r="M8" s="271"/>
-      <c r="N8" s="272"/>
-      <c r="O8" s="272"/>
-      <c r="P8" s="272"/>
-      <c r="Q8" s="272"/>
-      <c r="R8" s="273"/>
-      <c r="S8" s="256"/>
-      <c r="T8" s="256"/>
-      <c r="U8" s="256"/>
-      <c r="V8" s="267"/>
-      <c r="W8" s="267"/>
-      <c r="X8" s="267"/>
-      <c r="Y8" s="267"/>
-      <c r="Z8" s="267"/>
-      <c r="AA8" s="267"/>
-      <c r="AB8" s="267"/>
-      <c r="AC8" s="267"/>
-      <c r="AD8" s="267"/>
-      <c r="AE8" s="267"/>
-      <c r="AF8" s="267"/>
-      <c r="AG8" s="267"/>
-      <c r="AH8" s="267"/>
-      <c r="AI8" s="267"/>
-      <c r="AJ8" s="267"/>
-      <c r="AK8" s="267"/>
-      <c r="AL8" s="267"/>
-      <c r="AM8" s="267"/>
-      <c r="AN8" s="256"/>
-      <c r="AO8" s="256"/>
-      <c r="AP8" s="256"/>
-      <c r="AQ8" s="256"/>
-      <c r="AR8" s="256"/>
-      <c r="AS8" s="256"/>
-      <c r="AT8" s="256"/>
-      <c r="AU8" s="256"/>
-      <c r="AV8" s="256"/>
-      <c r="AW8" s="256"/>
+      <c r="B8" s="253"/>
+      <c r="C8" s="253"/>
+      <c r="D8" s="253"/>
+      <c r="E8" s="254"/>
+      <c r="F8" s="254"/>
+      <c r="G8" s="254"/>
+      <c r="H8" s="254"/>
+      <c r="I8" s="254"/>
+      <c r="J8" s="255"/>
+      <c r="K8" s="256"/>
+      <c r="L8" s="257"/>
+      <c r="M8" s="258"/>
+      <c r="N8" s="259"/>
+      <c r="O8" s="259"/>
+      <c r="P8" s="259"/>
+      <c r="Q8" s="259"/>
+      <c r="R8" s="260"/>
+      <c r="S8" s="252"/>
+      <c r="T8" s="252"/>
+      <c r="U8" s="252"/>
+      <c r="V8" s="261"/>
+      <c r="W8" s="261"/>
+      <c r="X8" s="261"/>
+      <c r="Y8" s="261"/>
+      <c r="Z8" s="261"/>
+      <c r="AA8" s="261"/>
+      <c r="AB8" s="261"/>
+      <c r="AC8" s="261"/>
+      <c r="AD8" s="261"/>
+      <c r="AE8" s="261"/>
+      <c r="AF8" s="261"/>
+      <c r="AG8" s="261"/>
+      <c r="AH8" s="261"/>
+      <c r="AI8" s="261"/>
+      <c r="AJ8" s="261"/>
+      <c r="AK8" s="261"/>
+      <c r="AL8" s="261"/>
+      <c r="AM8" s="261"/>
+      <c r="AN8" s="252"/>
+      <c r="AO8" s="252"/>
+      <c r="AP8" s="252"/>
+      <c r="AQ8" s="252"/>
+      <c r="AR8" s="252"/>
+      <c r="AS8" s="252"/>
+      <c r="AT8" s="252"/>
+      <c r="AU8" s="252"/>
+      <c r="AV8" s="252"/>
+      <c r="AW8" s="252"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
-      <c r="B9" s="268"/>
-      <c r="C9" s="268"/>
-      <c r="D9" s="268"/>
-      <c r="E9" s="249"/>
-      <c r="F9" s="249"/>
-      <c r="G9" s="249"/>
-      <c r="H9" s="249"/>
-      <c r="I9" s="249"/>
-      <c r="J9" s="250"/>
-      <c r="K9" s="251"/>
-      <c r="L9" s="252"/>
-      <c r="M9" s="271"/>
-      <c r="N9" s="272"/>
-      <c r="O9" s="272"/>
-      <c r="P9" s="272"/>
-      <c r="Q9" s="272"/>
-      <c r="R9" s="273"/>
-      <c r="S9" s="256"/>
-      <c r="T9" s="256"/>
-      <c r="U9" s="256"/>
-      <c r="V9" s="267"/>
-      <c r="W9" s="267"/>
-      <c r="X9" s="267"/>
-      <c r="Y9" s="267"/>
-      <c r="Z9" s="267"/>
-      <c r="AA9" s="267"/>
-      <c r="AB9" s="267"/>
-      <c r="AC9" s="267"/>
-      <c r="AD9" s="267"/>
-      <c r="AE9" s="267"/>
-      <c r="AF9" s="267"/>
-      <c r="AG9" s="267"/>
-      <c r="AH9" s="267"/>
-      <c r="AI9" s="267"/>
-      <c r="AJ9" s="267"/>
-      <c r="AK9" s="267"/>
-      <c r="AL9" s="267"/>
-      <c r="AM9" s="267"/>
-      <c r="AN9" s="256"/>
-      <c r="AO9" s="256"/>
-      <c r="AP9" s="256"/>
-      <c r="AQ9" s="256"/>
-      <c r="AR9" s="256"/>
-      <c r="AS9" s="256"/>
-      <c r="AT9" s="256"/>
-      <c r="AU9" s="256"/>
-      <c r="AV9" s="256"/>
-      <c r="AW9" s="256"/>
+      <c r="B9" s="253"/>
+      <c r="C9" s="253"/>
+      <c r="D9" s="253"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="254"/>
+      <c r="I9" s="254"/>
+      <c r="J9" s="255"/>
+      <c r="K9" s="256"/>
+      <c r="L9" s="257"/>
+      <c r="M9" s="258"/>
+      <c r="N9" s="259"/>
+      <c r="O9" s="259"/>
+      <c r="P9" s="259"/>
+      <c r="Q9" s="259"/>
+      <c r="R9" s="260"/>
+      <c r="S9" s="252"/>
+      <c r="T9" s="252"/>
+      <c r="U9" s="252"/>
+      <c r="V9" s="261"/>
+      <c r="W9" s="261"/>
+      <c r="X9" s="261"/>
+      <c r="Y9" s="261"/>
+      <c r="Z9" s="261"/>
+      <c r="AA9" s="261"/>
+      <c r="AB9" s="261"/>
+      <c r="AC9" s="261"/>
+      <c r="AD9" s="261"/>
+      <c r="AE9" s="261"/>
+      <c r="AF9" s="261"/>
+      <c r="AG9" s="261"/>
+      <c r="AH9" s="261"/>
+      <c r="AI9" s="261"/>
+      <c r="AJ9" s="261"/>
+      <c r="AK9" s="261"/>
+      <c r="AL9" s="261"/>
+      <c r="AM9" s="261"/>
+      <c r="AN9" s="252"/>
+      <c r="AO9" s="252"/>
+      <c r="AP9" s="252"/>
+      <c r="AQ9" s="252"/>
+      <c r="AR9" s="252"/>
+      <c r="AS9" s="252"/>
+      <c r="AT9" s="252"/>
+      <c r="AU9" s="252"/>
+      <c r="AV9" s="252"/>
+      <c r="AW9" s="252"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
-      <c r="B10" s="268"/>
-      <c r="C10" s="268"/>
-      <c r="D10" s="268"/>
-      <c r="E10" s="249"/>
-      <c r="F10" s="249"/>
-      <c r="G10" s="249"/>
-      <c r="H10" s="249"/>
-      <c r="I10" s="249"/>
-      <c r="J10" s="250"/>
-      <c r="K10" s="251"/>
-      <c r="L10" s="252"/>
-      <c r="M10" s="271"/>
-      <c r="N10" s="272"/>
-      <c r="O10" s="272"/>
-      <c r="P10" s="272"/>
-      <c r="Q10" s="272"/>
-      <c r="R10" s="273"/>
-      <c r="S10" s="256"/>
-      <c r="T10" s="256"/>
-      <c r="U10" s="256"/>
-      <c r="V10" s="267"/>
-      <c r="W10" s="267"/>
-      <c r="X10" s="267"/>
-      <c r="Y10" s="267"/>
-      <c r="Z10" s="267"/>
-      <c r="AA10" s="267"/>
-      <c r="AB10" s="267"/>
-      <c r="AC10" s="267"/>
-      <c r="AD10" s="267"/>
-      <c r="AE10" s="267"/>
-      <c r="AF10" s="267"/>
-      <c r="AG10" s="267"/>
-      <c r="AH10" s="267"/>
-      <c r="AI10" s="267"/>
-      <c r="AJ10" s="267"/>
-      <c r="AK10" s="267"/>
-      <c r="AL10" s="267"/>
-      <c r="AM10" s="267"/>
-      <c r="AN10" s="256"/>
-      <c r="AO10" s="256"/>
-      <c r="AP10" s="256"/>
-      <c r="AQ10" s="256"/>
-      <c r="AR10" s="256"/>
-      <c r="AS10" s="256"/>
-      <c r="AT10" s="256"/>
-      <c r="AU10" s="256"/>
-      <c r="AV10" s="256"/>
-      <c r="AW10" s="256"/>
+      <c r="B10" s="253"/>
+      <c r="C10" s="253"/>
+      <c r="D10" s="253"/>
+      <c r="E10" s="254"/>
+      <c r="F10" s="254"/>
+      <c r="G10" s="254"/>
+      <c r="H10" s="254"/>
+      <c r="I10" s="254"/>
+      <c r="J10" s="255"/>
+      <c r="K10" s="256"/>
+      <c r="L10" s="257"/>
+      <c r="M10" s="258"/>
+      <c r="N10" s="259"/>
+      <c r="O10" s="259"/>
+      <c r="P10" s="259"/>
+      <c r="Q10" s="259"/>
+      <c r="R10" s="260"/>
+      <c r="S10" s="252"/>
+      <c r="T10" s="252"/>
+      <c r="U10" s="252"/>
+      <c r="V10" s="261"/>
+      <c r="W10" s="261"/>
+      <c r="X10" s="261"/>
+      <c r="Y10" s="261"/>
+      <c r="Z10" s="261"/>
+      <c r="AA10" s="261"/>
+      <c r="AB10" s="261"/>
+      <c r="AC10" s="261"/>
+      <c r="AD10" s="261"/>
+      <c r="AE10" s="261"/>
+      <c r="AF10" s="261"/>
+      <c r="AG10" s="261"/>
+      <c r="AH10" s="261"/>
+      <c r="AI10" s="261"/>
+      <c r="AJ10" s="261"/>
+      <c r="AK10" s="261"/>
+      <c r="AL10" s="261"/>
+      <c r="AM10" s="261"/>
+      <c r="AN10" s="252"/>
+      <c r="AO10" s="252"/>
+      <c r="AP10" s="252"/>
+      <c r="AQ10" s="252"/>
+      <c r="AR10" s="252"/>
+      <c r="AS10" s="252"/>
+      <c r="AT10" s="252"/>
+      <c r="AU10" s="252"/>
+      <c r="AV10" s="252"/>
+      <c r="AW10" s="252"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="268"/>
-      <c r="C11" s="268"/>
-      <c r="D11" s="268"/>
-      <c r="E11" s="249"/>
-      <c r="F11" s="249"/>
-      <c r="G11" s="249"/>
-      <c r="H11" s="249"/>
-      <c r="I11" s="249"/>
-      <c r="J11" s="250"/>
-      <c r="K11" s="251"/>
-      <c r="L11" s="252"/>
-      <c r="M11" s="263"/>
-      <c r="N11" s="261"/>
-      <c r="O11" s="261"/>
-      <c r="P11" s="261"/>
-      <c r="Q11" s="261"/>
-      <c r="R11" s="262"/>
-      <c r="S11" s="256"/>
-      <c r="T11" s="256"/>
-      <c r="U11" s="256"/>
-      <c r="V11" s="257"/>
-      <c r="W11" s="269"/>
-      <c r="X11" s="269"/>
-      <c r="Y11" s="269"/>
-      <c r="Z11" s="269"/>
-      <c r="AA11" s="269"/>
-      <c r="AB11" s="269"/>
-      <c r="AC11" s="269"/>
-      <c r="AD11" s="269"/>
-      <c r="AE11" s="269"/>
-      <c r="AF11" s="269"/>
-      <c r="AG11" s="269"/>
-      <c r="AH11" s="269"/>
-      <c r="AI11" s="269"/>
-      <c r="AJ11" s="269"/>
-      <c r="AK11" s="269"/>
-      <c r="AL11" s="269"/>
-      <c r="AM11" s="270"/>
-      <c r="AN11" s="256"/>
-      <c r="AO11" s="256"/>
-      <c r="AP11" s="256"/>
-      <c r="AQ11" s="256"/>
-      <c r="AR11" s="256"/>
-      <c r="AS11" s="256"/>
-      <c r="AT11" s="256"/>
-      <c r="AU11" s="256"/>
-      <c r="AV11" s="256"/>
-      <c r="AW11" s="256"/>
+      <c r="B11" s="253"/>
+      <c r="C11" s="253"/>
+      <c r="D11" s="253"/>
+      <c r="E11" s="254"/>
+      <c r="F11" s="254"/>
+      <c r="G11" s="254"/>
+      <c r="H11" s="254"/>
+      <c r="I11" s="254"/>
+      <c r="J11" s="255"/>
+      <c r="K11" s="256"/>
+      <c r="L11" s="257"/>
+      <c r="M11" s="265"/>
+      <c r="N11" s="266"/>
+      <c r="O11" s="266"/>
+      <c r="P11" s="266"/>
+      <c r="Q11" s="266"/>
+      <c r="R11" s="267"/>
+      <c r="S11" s="252"/>
+      <c r="T11" s="252"/>
+      <c r="U11" s="252"/>
+      <c r="V11" s="268"/>
+      <c r="W11" s="274"/>
+      <c r="X11" s="274"/>
+      <c r="Y11" s="274"/>
+      <c r="Z11" s="274"/>
+      <c r="AA11" s="274"/>
+      <c r="AB11" s="274"/>
+      <c r="AC11" s="274"/>
+      <c r="AD11" s="274"/>
+      <c r="AE11" s="274"/>
+      <c r="AF11" s="274"/>
+      <c r="AG11" s="274"/>
+      <c r="AH11" s="274"/>
+      <c r="AI11" s="274"/>
+      <c r="AJ11" s="274"/>
+      <c r="AK11" s="274"/>
+      <c r="AL11" s="274"/>
+      <c r="AM11" s="275"/>
+      <c r="AN11" s="252"/>
+      <c r="AO11" s="252"/>
+      <c r="AP11" s="252"/>
+      <c r="AQ11" s="252"/>
+      <c r="AR11" s="252"/>
+      <c r="AS11" s="252"/>
+      <c r="AT11" s="252"/>
+      <c r="AU11" s="252"/>
+      <c r="AV11" s="252"/>
+      <c r="AW11" s="252"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="246"/>
-      <c r="C12" s="247"/>
-      <c r="D12" s="248"/>
-      <c r="E12" s="249"/>
-      <c r="F12" s="249"/>
-      <c r="G12" s="249"/>
-      <c r="H12" s="249"/>
-      <c r="I12" s="249"/>
-      <c r="J12" s="250"/>
-      <c r="K12" s="251"/>
-      <c r="L12" s="252"/>
-      <c r="M12" s="263"/>
-      <c r="N12" s="261"/>
-      <c r="O12" s="261"/>
-      <c r="P12" s="261"/>
-      <c r="Q12" s="261"/>
-      <c r="R12" s="262"/>
-      <c r="S12" s="256"/>
-      <c r="T12" s="256"/>
-      <c r="U12" s="256"/>
-      <c r="V12" s="257"/>
-      <c r="W12" s="258"/>
-      <c r="X12" s="258"/>
-      <c r="Y12" s="258"/>
-      <c r="Z12" s="258"/>
-      <c r="AA12" s="258"/>
-      <c r="AB12" s="258"/>
-      <c r="AC12" s="258"/>
-      <c r="AD12" s="258"/>
-      <c r="AE12" s="258"/>
-      <c r="AF12" s="258"/>
-      <c r="AG12" s="258"/>
-      <c r="AH12" s="258"/>
-      <c r="AI12" s="258"/>
-      <c r="AJ12" s="258"/>
-      <c r="AK12" s="258"/>
-      <c r="AL12" s="258"/>
-      <c r="AM12" s="259"/>
-      <c r="AN12" s="243"/>
-      <c r="AO12" s="244"/>
-      <c r="AP12" s="244"/>
-      <c r="AQ12" s="244"/>
-      <c r="AR12" s="245"/>
-      <c r="AS12" s="243"/>
-      <c r="AT12" s="244"/>
-      <c r="AU12" s="244"/>
-      <c r="AV12" s="244"/>
-      <c r="AW12" s="245"/>
+      <c r="B12" s="262"/>
+      <c r="C12" s="263"/>
+      <c r="D12" s="264"/>
+      <c r="E12" s="254"/>
+      <c r="F12" s="254"/>
+      <c r="G12" s="254"/>
+      <c r="H12" s="254"/>
+      <c r="I12" s="254"/>
+      <c r="J12" s="255"/>
+      <c r="K12" s="256"/>
+      <c r="L12" s="257"/>
+      <c r="M12" s="265"/>
+      <c r="N12" s="266"/>
+      <c r="O12" s="266"/>
+      <c r="P12" s="266"/>
+      <c r="Q12" s="266"/>
+      <c r="R12" s="267"/>
+      <c r="S12" s="252"/>
+      <c r="T12" s="252"/>
+      <c r="U12" s="252"/>
+      <c r="V12" s="268"/>
+      <c r="W12" s="269"/>
+      <c r="X12" s="269"/>
+      <c r="Y12" s="269"/>
+      <c r="Z12" s="269"/>
+      <c r="AA12" s="269"/>
+      <c r="AB12" s="269"/>
+      <c r="AC12" s="269"/>
+      <c r="AD12" s="269"/>
+      <c r="AE12" s="269"/>
+      <c r="AF12" s="269"/>
+      <c r="AG12" s="269"/>
+      <c r="AH12" s="269"/>
+      <c r="AI12" s="269"/>
+      <c r="AJ12" s="269"/>
+      <c r="AK12" s="269"/>
+      <c r="AL12" s="269"/>
+      <c r="AM12" s="270"/>
+      <c r="AN12" s="271"/>
+      <c r="AO12" s="272"/>
+      <c r="AP12" s="272"/>
+      <c r="AQ12" s="272"/>
+      <c r="AR12" s="273"/>
+      <c r="AS12" s="271"/>
+      <c r="AT12" s="272"/>
+      <c r="AU12" s="272"/>
+      <c r="AV12" s="272"/>
+      <c r="AW12" s="273"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
-      <c r="B13" s="246"/>
-      <c r="C13" s="247"/>
-      <c r="D13" s="248"/>
-      <c r="E13" s="249"/>
-      <c r="F13" s="249"/>
-      <c r="G13" s="249"/>
-      <c r="H13" s="249"/>
-      <c r="I13" s="249"/>
-      <c r="J13" s="250"/>
-      <c r="K13" s="251"/>
-      <c r="L13" s="252"/>
-      <c r="M13" s="260"/>
-      <c r="N13" s="261"/>
-      <c r="O13" s="261"/>
-      <c r="P13" s="261"/>
-      <c r="Q13" s="261"/>
-      <c r="R13" s="262"/>
-      <c r="S13" s="256"/>
-      <c r="T13" s="256"/>
-      <c r="U13" s="256"/>
-      <c r="V13" s="257"/>
-      <c r="W13" s="258"/>
-      <c r="X13" s="258"/>
-      <c r="Y13" s="258"/>
-      <c r="Z13" s="258"/>
-      <c r="AA13" s="258"/>
-      <c r="AB13" s="258"/>
-      <c r="AC13" s="258"/>
-      <c r="AD13" s="258"/>
-      <c r="AE13" s="258"/>
-      <c r="AF13" s="258"/>
-      <c r="AG13" s="258"/>
-      <c r="AH13" s="258"/>
-      <c r="AI13" s="258"/>
-      <c r="AJ13" s="258"/>
-      <c r="AK13" s="258"/>
-      <c r="AL13" s="258"/>
-      <c r="AM13" s="259"/>
-      <c r="AN13" s="243"/>
-      <c r="AO13" s="244"/>
-      <c r="AP13" s="244"/>
-      <c r="AQ13" s="244"/>
-      <c r="AR13" s="245"/>
-      <c r="AS13" s="243"/>
-      <c r="AT13" s="244"/>
-      <c r="AU13" s="244"/>
-      <c r="AV13" s="244"/>
-      <c r="AW13" s="245"/>
+      <c r="B13" s="262"/>
+      <c r="C13" s="263"/>
+      <c r="D13" s="264"/>
+      <c r="E13" s="254"/>
+      <c r="F13" s="254"/>
+      <c r="G13" s="254"/>
+      <c r="H13" s="254"/>
+      <c r="I13" s="254"/>
+      <c r="J13" s="255"/>
+      <c r="K13" s="256"/>
+      <c r="L13" s="257"/>
+      <c r="M13" s="276"/>
+      <c r="N13" s="266"/>
+      <c r="O13" s="266"/>
+      <c r="P13" s="266"/>
+      <c r="Q13" s="266"/>
+      <c r="R13" s="267"/>
+      <c r="S13" s="252"/>
+      <c r="T13" s="252"/>
+      <c r="U13" s="252"/>
+      <c r="V13" s="268"/>
+      <c r="W13" s="269"/>
+      <c r="X13" s="269"/>
+      <c r="Y13" s="269"/>
+      <c r="Z13" s="269"/>
+      <c r="AA13" s="269"/>
+      <c r="AB13" s="269"/>
+      <c r="AC13" s="269"/>
+      <c r="AD13" s="269"/>
+      <c r="AE13" s="269"/>
+      <c r="AF13" s="269"/>
+      <c r="AG13" s="269"/>
+      <c r="AH13" s="269"/>
+      <c r="AI13" s="269"/>
+      <c r="AJ13" s="269"/>
+      <c r="AK13" s="269"/>
+      <c r="AL13" s="269"/>
+      <c r="AM13" s="270"/>
+      <c r="AN13" s="271"/>
+      <c r="AO13" s="272"/>
+      <c r="AP13" s="272"/>
+      <c r="AQ13" s="272"/>
+      <c r="AR13" s="273"/>
+      <c r="AS13" s="271"/>
+      <c r="AT13" s="272"/>
+      <c r="AU13" s="272"/>
+      <c r="AV13" s="272"/>
+      <c r="AW13" s="273"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
-      <c r="B14" s="246"/>
-      <c r="C14" s="247"/>
-      <c r="D14" s="248"/>
-      <c r="E14" s="249"/>
-      <c r="F14" s="249"/>
-      <c r="G14" s="249"/>
-      <c r="H14" s="249"/>
-      <c r="I14" s="249"/>
-      <c r="J14" s="250"/>
-      <c r="K14" s="251"/>
-      <c r="L14" s="252"/>
-      <c r="M14" s="260"/>
-      <c r="N14" s="261"/>
-      <c r="O14" s="261"/>
-      <c r="P14" s="261"/>
-      <c r="Q14" s="261"/>
-      <c r="R14" s="262"/>
-      <c r="S14" s="256"/>
-      <c r="T14" s="256"/>
-      <c r="U14" s="256"/>
-      <c r="V14" s="266"/>
-      <c r="W14" s="267"/>
-      <c r="X14" s="267"/>
-      <c r="Y14" s="267"/>
-      <c r="Z14" s="267"/>
-      <c r="AA14" s="267"/>
-      <c r="AB14" s="267"/>
-      <c r="AC14" s="267"/>
-      <c r="AD14" s="267"/>
-      <c r="AE14" s="267"/>
-      <c r="AF14" s="267"/>
-      <c r="AG14" s="267"/>
-      <c r="AH14" s="267"/>
-      <c r="AI14" s="267"/>
-      <c r="AJ14" s="267"/>
-      <c r="AK14" s="267"/>
-      <c r="AL14" s="267"/>
-      <c r="AM14" s="267"/>
-      <c r="AN14" s="256"/>
-      <c r="AO14" s="256"/>
-      <c r="AP14" s="256"/>
-      <c r="AQ14" s="256"/>
-      <c r="AR14" s="256"/>
-      <c r="AS14" s="243"/>
-      <c r="AT14" s="244"/>
-      <c r="AU14" s="244"/>
-      <c r="AV14" s="244"/>
-      <c r="AW14" s="245"/>
+      <c r="B14" s="262"/>
+      <c r="C14" s="263"/>
+      <c r="D14" s="264"/>
+      <c r="E14" s="254"/>
+      <c r="F14" s="254"/>
+      <c r="G14" s="254"/>
+      <c r="H14" s="254"/>
+      <c r="I14" s="254"/>
+      <c r="J14" s="255"/>
+      <c r="K14" s="256"/>
+      <c r="L14" s="257"/>
+      <c r="M14" s="276"/>
+      <c r="N14" s="266"/>
+      <c r="O14" s="266"/>
+      <c r="P14" s="266"/>
+      <c r="Q14" s="266"/>
+      <c r="R14" s="267"/>
+      <c r="S14" s="252"/>
+      <c r="T14" s="252"/>
+      <c r="U14" s="252"/>
+      <c r="V14" s="277"/>
+      <c r="W14" s="261"/>
+      <c r="X14" s="261"/>
+      <c r="Y14" s="261"/>
+      <c r="Z14" s="261"/>
+      <c r="AA14" s="261"/>
+      <c r="AB14" s="261"/>
+      <c r="AC14" s="261"/>
+      <c r="AD14" s="261"/>
+      <c r="AE14" s="261"/>
+      <c r="AF14" s="261"/>
+      <c r="AG14" s="261"/>
+      <c r="AH14" s="261"/>
+      <c r="AI14" s="261"/>
+      <c r="AJ14" s="261"/>
+      <c r="AK14" s="261"/>
+      <c r="AL14" s="261"/>
+      <c r="AM14" s="261"/>
+      <c r="AN14" s="252"/>
+      <c r="AO14" s="252"/>
+      <c r="AP14" s="252"/>
+      <c r="AQ14" s="252"/>
+      <c r="AR14" s="252"/>
+      <c r="AS14" s="271"/>
+      <c r="AT14" s="272"/>
+      <c r="AU14" s="272"/>
+      <c r="AV14" s="272"/>
+      <c r="AW14" s="273"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
-      <c r="B15" s="246"/>
-      <c r="C15" s="247"/>
-      <c r="D15" s="248"/>
-      <c r="E15" s="249"/>
-      <c r="F15" s="249"/>
-      <c r="G15" s="249"/>
-      <c r="H15" s="249"/>
-      <c r="I15" s="249"/>
-      <c r="J15" s="250"/>
-      <c r="K15" s="251"/>
-      <c r="L15" s="252"/>
-      <c r="M15" s="263"/>
-      <c r="N15" s="261"/>
-      <c r="O15" s="261"/>
-      <c r="P15" s="261"/>
-      <c r="Q15" s="261"/>
-      <c r="R15" s="262"/>
-      <c r="S15" s="256"/>
-      <c r="T15" s="256"/>
-      <c r="U15" s="256"/>
-      <c r="V15" s="257"/>
-      <c r="W15" s="258"/>
-      <c r="X15" s="258"/>
-      <c r="Y15" s="258"/>
-      <c r="Z15" s="258"/>
-      <c r="AA15" s="258"/>
-      <c r="AB15" s="258"/>
-      <c r="AC15" s="258"/>
-      <c r="AD15" s="258"/>
-      <c r="AE15" s="258"/>
-      <c r="AF15" s="258"/>
-      <c r="AG15" s="258"/>
-      <c r="AH15" s="258"/>
-      <c r="AI15" s="258"/>
-      <c r="AJ15" s="258"/>
-      <c r="AK15" s="258"/>
-      <c r="AL15" s="258"/>
-      <c r="AM15" s="259"/>
-      <c r="AN15" s="243"/>
-      <c r="AO15" s="244"/>
-      <c r="AP15" s="244"/>
-      <c r="AQ15" s="244"/>
-      <c r="AR15" s="245"/>
-      <c r="AS15" s="243"/>
-      <c r="AT15" s="244"/>
-      <c r="AU15" s="244"/>
-      <c r="AV15" s="244"/>
-      <c r="AW15" s="245"/>
+      <c r="B15" s="262"/>
+      <c r="C15" s="263"/>
+      <c r="D15" s="264"/>
+      <c r="E15" s="254"/>
+      <c r="F15" s="254"/>
+      <c r="G15" s="254"/>
+      <c r="H15" s="254"/>
+      <c r="I15" s="254"/>
+      <c r="J15" s="255"/>
+      <c r="K15" s="256"/>
+      <c r="L15" s="257"/>
+      <c r="M15" s="265"/>
+      <c r="N15" s="266"/>
+      <c r="O15" s="266"/>
+      <c r="P15" s="266"/>
+      <c r="Q15" s="266"/>
+      <c r="R15" s="267"/>
+      <c r="S15" s="252"/>
+      <c r="T15" s="252"/>
+      <c r="U15" s="252"/>
+      <c r="V15" s="268"/>
+      <c r="W15" s="269"/>
+      <c r="X15" s="269"/>
+      <c r="Y15" s="269"/>
+      <c r="Z15" s="269"/>
+      <c r="AA15" s="269"/>
+      <c r="AB15" s="269"/>
+      <c r="AC15" s="269"/>
+      <c r="AD15" s="269"/>
+      <c r="AE15" s="269"/>
+      <c r="AF15" s="269"/>
+      <c r="AG15" s="269"/>
+      <c r="AH15" s="269"/>
+      <c r="AI15" s="269"/>
+      <c r="AJ15" s="269"/>
+      <c r="AK15" s="269"/>
+      <c r="AL15" s="269"/>
+      <c r="AM15" s="270"/>
+      <c r="AN15" s="271"/>
+      <c r="AO15" s="272"/>
+      <c r="AP15" s="272"/>
+      <c r="AQ15" s="272"/>
+      <c r="AR15" s="273"/>
+      <c r="AS15" s="271"/>
+      <c r="AT15" s="272"/>
+      <c r="AU15" s="272"/>
+      <c r="AV15" s="272"/>
+      <c r="AW15" s="273"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
-      <c r="B16" s="246"/>
-      <c r="C16" s="247"/>
-      <c r="D16" s="248"/>
-      <c r="E16" s="249"/>
-      <c r="F16" s="249"/>
-      <c r="G16" s="249"/>
-      <c r="H16" s="249"/>
-      <c r="I16" s="249"/>
-      <c r="J16" s="250"/>
-      <c r="K16" s="251"/>
-      <c r="L16" s="252"/>
-      <c r="M16" s="263"/>
-      <c r="N16" s="261"/>
-      <c r="O16" s="261"/>
-      <c r="P16" s="261"/>
-      <c r="Q16" s="261"/>
-      <c r="R16" s="262"/>
-      <c r="S16" s="256"/>
-      <c r="T16" s="256"/>
-      <c r="U16" s="256"/>
-      <c r="V16" s="257"/>
-      <c r="W16" s="258"/>
-      <c r="X16" s="258"/>
-      <c r="Y16" s="258"/>
-      <c r="Z16" s="258"/>
-      <c r="AA16" s="258"/>
-      <c r="AB16" s="258"/>
-      <c r="AC16" s="258"/>
-      <c r="AD16" s="258"/>
-      <c r="AE16" s="258"/>
-      <c r="AF16" s="258"/>
-      <c r="AG16" s="258"/>
-      <c r="AH16" s="258"/>
-      <c r="AI16" s="258"/>
-      <c r="AJ16" s="258"/>
-      <c r="AK16" s="258"/>
-      <c r="AL16" s="258"/>
-      <c r="AM16" s="259"/>
-      <c r="AN16" s="243"/>
-      <c r="AO16" s="244"/>
-      <c r="AP16" s="244"/>
-      <c r="AQ16" s="244"/>
-      <c r="AR16" s="245"/>
-      <c r="AS16" s="243"/>
-      <c r="AT16" s="244"/>
-      <c r="AU16" s="244"/>
-      <c r="AV16" s="244"/>
-      <c r="AW16" s="245"/>
+      <c r="B16" s="262"/>
+      <c r="C16" s="263"/>
+      <c r="D16" s="264"/>
+      <c r="E16" s="254"/>
+      <c r="F16" s="254"/>
+      <c r="G16" s="254"/>
+      <c r="H16" s="254"/>
+      <c r="I16" s="254"/>
+      <c r="J16" s="255"/>
+      <c r="K16" s="256"/>
+      <c r="L16" s="257"/>
+      <c r="M16" s="265"/>
+      <c r="N16" s="266"/>
+      <c r="O16" s="266"/>
+      <c r="P16" s="266"/>
+      <c r="Q16" s="266"/>
+      <c r="R16" s="267"/>
+      <c r="S16" s="252"/>
+      <c r="T16" s="252"/>
+      <c r="U16" s="252"/>
+      <c r="V16" s="268"/>
+      <c r="W16" s="269"/>
+      <c r="X16" s="269"/>
+      <c r="Y16" s="269"/>
+      <c r="Z16" s="269"/>
+      <c r="AA16" s="269"/>
+      <c r="AB16" s="269"/>
+      <c r="AC16" s="269"/>
+      <c r="AD16" s="269"/>
+      <c r="AE16" s="269"/>
+      <c r="AF16" s="269"/>
+      <c r="AG16" s="269"/>
+      <c r="AH16" s="269"/>
+      <c r="AI16" s="269"/>
+      <c r="AJ16" s="269"/>
+      <c r="AK16" s="269"/>
+      <c r="AL16" s="269"/>
+      <c r="AM16" s="270"/>
+      <c r="AN16" s="271"/>
+      <c r="AO16" s="272"/>
+      <c r="AP16" s="272"/>
+      <c r="AQ16" s="272"/>
+      <c r="AR16" s="273"/>
+      <c r="AS16" s="271"/>
+      <c r="AT16" s="272"/>
+      <c r="AU16" s="272"/>
+      <c r="AV16" s="272"/>
+      <c r="AW16" s="273"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
-      <c r="B17" s="246"/>
-      <c r="C17" s="247"/>
-      <c r="D17" s="248"/>
-      <c r="E17" s="249"/>
-      <c r="F17" s="249"/>
-      <c r="G17" s="249"/>
-      <c r="H17" s="249"/>
-      <c r="I17" s="249"/>
-      <c r="J17" s="250"/>
-      <c r="K17" s="251"/>
-      <c r="L17" s="252"/>
-      <c r="M17" s="263"/>
-      <c r="N17" s="261"/>
-      <c r="O17" s="261"/>
-      <c r="P17" s="261"/>
-      <c r="Q17" s="261"/>
-      <c r="R17" s="264"/>
-      <c r="S17" s="265"/>
-      <c r="T17" s="265"/>
-      <c r="U17" s="265"/>
-      <c r="V17" s="257"/>
-      <c r="W17" s="258"/>
-      <c r="X17" s="258"/>
-      <c r="Y17" s="258"/>
-      <c r="Z17" s="258"/>
-      <c r="AA17" s="258"/>
-      <c r="AB17" s="258"/>
-      <c r="AC17" s="258"/>
-      <c r="AD17" s="258"/>
-      <c r="AE17" s="258"/>
-      <c r="AF17" s="258"/>
-      <c r="AG17" s="258"/>
-      <c r="AH17" s="258"/>
-      <c r="AI17" s="258"/>
-      <c r="AJ17" s="258"/>
-      <c r="AK17" s="258"/>
-      <c r="AL17" s="258"/>
-      <c r="AM17" s="259"/>
-      <c r="AN17" s="243"/>
-      <c r="AO17" s="244"/>
-      <c r="AP17" s="244"/>
-      <c r="AQ17" s="244"/>
-      <c r="AR17" s="245"/>
-      <c r="AS17" s="243"/>
-      <c r="AT17" s="244"/>
-      <c r="AU17" s="244"/>
-      <c r="AV17" s="244"/>
-      <c r="AW17" s="245"/>
+      <c r="B17" s="262"/>
+      <c r="C17" s="263"/>
+      <c r="D17" s="264"/>
+      <c r="E17" s="254"/>
+      <c r="F17" s="254"/>
+      <c r="G17" s="254"/>
+      <c r="H17" s="254"/>
+      <c r="I17" s="254"/>
+      <c r="J17" s="255"/>
+      <c r="K17" s="256"/>
+      <c r="L17" s="257"/>
+      <c r="M17" s="265"/>
+      <c r="N17" s="266"/>
+      <c r="O17" s="266"/>
+      <c r="P17" s="266"/>
+      <c r="Q17" s="266"/>
+      <c r="R17" s="278"/>
+      <c r="S17" s="279"/>
+      <c r="T17" s="279"/>
+      <c r="U17" s="279"/>
+      <c r="V17" s="268"/>
+      <c r="W17" s="269"/>
+      <c r="X17" s="269"/>
+      <c r="Y17" s="269"/>
+      <c r="Z17" s="269"/>
+      <c r="AA17" s="269"/>
+      <c r="AB17" s="269"/>
+      <c r="AC17" s="269"/>
+      <c r="AD17" s="269"/>
+      <c r="AE17" s="269"/>
+      <c r="AF17" s="269"/>
+      <c r="AG17" s="269"/>
+      <c r="AH17" s="269"/>
+      <c r="AI17" s="269"/>
+      <c r="AJ17" s="269"/>
+      <c r="AK17" s="269"/>
+      <c r="AL17" s="269"/>
+      <c r="AM17" s="270"/>
+      <c r="AN17" s="271"/>
+      <c r="AO17" s="272"/>
+      <c r="AP17" s="272"/>
+      <c r="AQ17" s="272"/>
+      <c r="AR17" s="273"/>
+      <c r="AS17" s="271"/>
+      <c r="AT17" s="272"/>
+      <c r="AU17" s="272"/>
+      <c r="AV17" s="272"/>
+      <c r="AW17" s="273"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
-      <c r="B18" s="246"/>
-      <c r="C18" s="247"/>
-      <c r="D18" s="248"/>
-      <c r="E18" s="249"/>
-      <c r="F18" s="249"/>
-      <c r="G18" s="249"/>
-      <c r="H18" s="249"/>
-      <c r="I18" s="249"/>
-      <c r="J18" s="250"/>
-      <c r="K18" s="251"/>
-      <c r="L18" s="252"/>
-      <c r="M18" s="260"/>
-      <c r="N18" s="261"/>
-      <c r="O18" s="261"/>
-      <c r="P18" s="261"/>
-      <c r="Q18" s="261"/>
-      <c r="R18" s="262"/>
-      <c r="S18" s="256"/>
-      <c r="T18" s="256"/>
-      <c r="U18" s="256"/>
-      <c r="V18" s="257"/>
-      <c r="W18" s="258"/>
-      <c r="X18" s="258"/>
-      <c r="Y18" s="258"/>
-      <c r="Z18" s="258"/>
-      <c r="AA18" s="258"/>
-      <c r="AB18" s="258"/>
-      <c r="AC18" s="258"/>
-      <c r="AD18" s="258"/>
-      <c r="AE18" s="258"/>
-      <c r="AF18" s="258"/>
-      <c r="AG18" s="258"/>
-      <c r="AH18" s="258"/>
-      <c r="AI18" s="258"/>
-      <c r="AJ18" s="258"/>
-      <c r="AK18" s="258"/>
-      <c r="AL18" s="258"/>
-      <c r="AM18" s="259"/>
-      <c r="AN18" s="243"/>
-      <c r="AO18" s="244"/>
-      <c r="AP18" s="244"/>
-      <c r="AQ18" s="244"/>
-      <c r="AR18" s="245"/>
-      <c r="AS18" s="243"/>
-      <c r="AT18" s="244"/>
-      <c r="AU18" s="244"/>
-      <c r="AV18" s="244"/>
-      <c r="AW18" s="245"/>
+      <c r="B18" s="262"/>
+      <c r="C18" s="263"/>
+      <c r="D18" s="264"/>
+      <c r="E18" s="254"/>
+      <c r="F18" s="254"/>
+      <c r="G18" s="254"/>
+      <c r="H18" s="254"/>
+      <c r="I18" s="254"/>
+      <c r="J18" s="255"/>
+      <c r="K18" s="256"/>
+      <c r="L18" s="257"/>
+      <c r="M18" s="276"/>
+      <c r="N18" s="266"/>
+      <c r="O18" s="266"/>
+      <c r="P18" s="266"/>
+      <c r="Q18" s="266"/>
+      <c r="R18" s="267"/>
+      <c r="S18" s="252"/>
+      <c r="T18" s="252"/>
+      <c r="U18" s="252"/>
+      <c r="V18" s="268"/>
+      <c r="W18" s="269"/>
+      <c r="X18" s="269"/>
+      <c r="Y18" s="269"/>
+      <c r="Z18" s="269"/>
+      <c r="AA18" s="269"/>
+      <c r="AB18" s="269"/>
+      <c r="AC18" s="269"/>
+      <c r="AD18" s="269"/>
+      <c r="AE18" s="269"/>
+      <c r="AF18" s="269"/>
+      <c r="AG18" s="269"/>
+      <c r="AH18" s="269"/>
+      <c r="AI18" s="269"/>
+      <c r="AJ18" s="269"/>
+      <c r="AK18" s="269"/>
+      <c r="AL18" s="269"/>
+      <c r="AM18" s="270"/>
+      <c r="AN18" s="271"/>
+      <c r="AO18" s="272"/>
+      <c r="AP18" s="272"/>
+      <c r="AQ18" s="272"/>
+      <c r="AR18" s="273"/>
+      <c r="AS18" s="271"/>
+      <c r="AT18" s="272"/>
+      <c r="AU18" s="272"/>
+      <c r="AV18" s="272"/>
+      <c r="AW18" s="273"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
-      <c r="B19" s="246"/>
-      <c r="C19" s="247"/>
-      <c r="D19" s="248"/>
-      <c r="E19" s="249"/>
-      <c r="F19" s="249"/>
-      <c r="G19" s="249"/>
-      <c r="H19" s="249"/>
-      <c r="I19" s="249"/>
-      <c r="J19" s="250"/>
-      <c r="K19" s="251"/>
-      <c r="L19" s="252"/>
-      <c r="M19" s="263"/>
-      <c r="N19" s="261"/>
-      <c r="O19" s="261"/>
-      <c r="P19" s="261"/>
-      <c r="Q19" s="261"/>
-      <c r="R19" s="262"/>
-      <c r="S19" s="256"/>
-      <c r="T19" s="256"/>
-      <c r="U19" s="256"/>
-      <c r="V19" s="257"/>
-      <c r="W19" s="258"/>
-      <c r="X19" s="258"/>
-      <c r="Y19" s="258"/>
-      <c r="Z19" s="258"/>
-      <c r="AA19" s="258"/>
-      <c r="AB19" s="258"/>
-      <c r="AC19" s="258"/>
-      <c r="AD19" s="258"/>
-      <c r="AE19" s="258"/>
-      <c r="AF19" s="258"/>
-      <c r="AG19" s="258"/>
-      <c r="AH19" s="258"/>
-      <c r="AI19" s="258"/>
-      <c r="AJ19" s="258"/>
-      <c r="AK19" s="258"/>
-      <c r="AL19" s="258"/>
-      <c r="AM19" s="259"/>
-      <c r="AN19" s="256"/>
-      <c r="AO19" s="256"/>
-      <c r="AP19" s="256"/>
-      <c r="AQ19" s="256"/>
-      <c r="AR19" s="256"/>
-      <c r="AS19" s="243"/>
-      <c r="AT19" s="244"/>
-      <c r="AU19" s="244"/>
-      <c r="AV19" s="244"/>
-      <c r="AW19" s="245"/>
+      <c r="B19" s="262"/>
+      <c r="C19" s="263"/>
+      <c r="D19" s="264"/>
+      <c r="E19" s="254"/>
+      <c r="F19" s="254"/>
+      <c r="G19" s="254"/>
+      <c r="H19" s="254"/>
+      <c r="I19" s="254"/>
+      <c r="J19" s="255"/>
+      <c r="K19" s="256"/>
+      <c r="L19" s="257"/>
+      <c r="M19" s="265"/>
+      <c r="N19" s="266"/>
+      <c r="O19" s="266"/>
+      <c r="P19" s="266"/>
+      <c r="Q19" s="266"/>
+      <c r="R19" s="267"/>
+      <c r="S19" s="252"/>
+      <c r="T19" s="252"/>
+      <c r="U19" s="252"/>
+      <c r="V19" s="268"/>
+      <c r="W19" s="269"/>
+      <c r="X19" s="269"/>
+      <c r="Y19" s="269"/>
+      <c r="Z19" s="269"/>
+      <c r="AA19" s="269"/>
+      <c r="AB19" s="269"/>
+      <c r="AC19" s="269"/>
+      <c r="AD19" s="269"/>
+      <c r="AE19" s="269"/>
+      <c r="AF19" s="269"/>
+      <c r="AG19" s="269"/>
+      <c r="AH19" s="269"/>
+      <c r="AI19" s="269"/>
+      <c r="AJ19" s="269"/>
+      <c r="AK19" s="269"/>
+      <c r="AL19" s="269"/>
+      <c r="AM19" s="270"/>
+      <c r="AN19" s="252"/>
+      <c r="AO19" s="252"/>
+      <c r="AP19" s="252"/>
+      <c r="AQ19" s="252"/>
+      <c r="AR19" s="252"/>
+      <c r="AS19" s="271"/>
+      <c r="AT19" s="272"/>
+      <c r="AU19" s="272"/>
+      <c r="AV19" s="272"/>
+      <c r="AW19" s="273"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
-      <c r="B20" s="246"/>
-      <c r="C20" s="247"/>
-      <c r="D20" s="248"/>
-      <c r="E20" s="249"/>
-      <c r="F20" s="249"/>
-      <c r="G20" s="249"/>
-      <c r="H20" s="249"/>
-      <c r="I20" s="249"/>
-      <c r="J20" s="250"/>
-      <c r="K20" s="251"/>
-      <c r="L20" s="252"/>
-      <c r="M20" s="263"/>
-      <c r="N20" s="261"/>
-      <c r="O20" s="261"/>
-      <c r="P20" s="261"/>
-      <c r="Q20" s="261"/>
-      <c r="R20" s="262"/>
-      <c r="S20" s="243"/>
-      <c r="T20" s="244"/>
-      <c r="U20" s="245"/>
-      <c r="V20" s="257"/>
-      <c r="W20" s="258"/>
-      <c r="X20" s="258"/>
-      <c r="Y20" s="258"/>
-      <c r="Z20" s="258"/>
-      <c r="AA20" s="258"/>
-      <c r="AB20" s="258"/>
-      <c r="AC20" s="258"/>
-      <c r="AD20" s="258"/>
-      <c r="AE20" s="258"/>
-      <c r="AF20" s="258"/>
-      <c r="AG20" s="258"/>
-      <c r="AH20" s="258"/>
-      <c r="AI20" s="258"/>
-      <c r="AJ20" s="258"/>
-      <c r="AK20" s="258"/>
-      <c r="AL20" s="258"/>
-      <c r="AM20" s="259"/>
-      <c r="AN20" s="243"/>
-      <c r="AO20" s="244"/>
-      <c r="AP20" s="244"/>
-      <c r="AQ20" s="244"/>
-      <c r="AR20" s="245"/>
-      <c r="AS20" s="243"/>
-      <c r="AT20" s="244"/>
-      <c r="AU20" s="244"/>
-      <c r="AV20" s="244"/>
-      <c r="AW20" s="245"/>
+      <c r="B20" s="262"/>
+      <c r="C20" s="263"/>
+      <c r="D20" s="264"/>
+      <c r="E20" s="254"/>
+      <c r="F20" s="254"/>
+      <c r="G20" s="254"/>
+      <c r="H20" s="254"/>
+      <c r="I20" s="254"/>
+      <c r="J20" s="255"/>
+      <c r="K20" s="256"/>
+      <c r="L20" s="257"/>
+      <c r="M20" s="265"/>
+      <c r="N20" s="266"/>
+      <c r="O20" s="266"/>
+      <c r="P20" s="266"/>
+      <c r="Q20" s="266"/>
+      <c r="R20" s="267"/>
+      <c r="S20" s="271"/>
+      <c r="T20" s="272"/>
+      <c r="U20" s="273"/>
+      <c r="V20" s="268"/>
+      <c r="W20" s="269"/>
+      <c r="X20" s="269"/>
+      <c r="Y20" s="269"/>
+      <c r="Z20" s="269"/>
+      <c r="AA20" s="269"/>
+      <c r="AB20" s="269"/>
+      <c r="AC20" s="269"/>
+      <c r="AD20" s="269"/>
+      <c r="AE20" s="269"/>
+      <c r="AF20" s="269"/>
+      <c r="AG20" s="269"/>
+      <c r="AH20" s="269"/>
+      <c r="AI20" s="269"/>
+      <c r="AJ20" s="269"/>
+      <c r="AK20" s="269"/>
+      <c r="AL20" s="269"/>
+      <c r="AM20" s="270"/>
+      <c r="AN20" s="271"/>
+      <c r="AO20" s="272"/>
+      <c r="AP20" s="272"/>
+      <c r="AQ20" s="272"/>
+      <c r="AR20" s="273"/>
+      <c r="AS20" s="271"/>
+      <c r="AT20" s="272"/>
+      <c r="AU20" s="272"/>
+      <c r="AV20" s="272"/>
+      <c r="AW20" s="273"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
-      <c r="B21" s="246"/>
-      <c r="C21" s="247"/>
-      <c r="D21" s="248"/>
-      <c r="E21" s="249"/>
-      <c r="F21" s="249"/>
-      <c r="G21" s="249"/>
-      <c r="H21" s="249"/>
-      <c r="I21" s="249"/>
-      <c r="J21" s="250"/>
-      <c r="K21" s="251"/>
-      <c r="L21" s="252"/>
-      <c r="M21" s="263"/>
-      <c r="N21" s="261"/>
-      <c r="O21" s="261"/>
-      <c r="P21" s="261"/>
-      <c r="Q21" s="261"/>
-      <c r="R21" s="262"/>
-      <c r="S21" s="256"/>
-      <c r="T21" s="256"/>
-      <c r="U21" s="256"/>
-      <c r="V21" s="257"/>
-      <c r="W21" s="258"/>
-      <c r="X21" s="258"/>
-      <c r="Y21" s="258"/>
-      <c r="Z21" s="258"/>
-      <c r="AA21" s="258"/>
-      <c r="AB21" s="258"/>
-      <c r="AC21" s="258"/>
-      <c r="AD21" s="258"/>
-      <c r="AE21" s="258"/>
-      <c r="AF21" s="258"/>
-      <c r="AG21" s="258"/>
-      <c r="AH21" s="258"/>
-      <c r="AI21" s="258"/>
-      <c r="AJ21" s="258"/>
-      <c r="AK21" s="258"/>
-      <c r="AL21" s="258"/>
-      <c r="AM21" s="259"/>
-      <c r="AN21" s="243"/>
-      <c r="AO21" s="244"/>
-      <c r="AP21" s="244"/>
-      <c r="AQ21" s="244"/>
-      <c r="AR21" s="245"/>
-      <c r="AS21" s="243"/>
-      <c r="AT21" s="244"/>
-      <c r="AU21" s="244"/>
-      <c r="AV21" s="244"/>
-      <c r="AW21" s="245"/>
+      <c r="B21" s="262"/>
+      <c r="C21" s="263"/>
+      <c r="D21" s="264"/>
+      <c r="E21" s="254"/>
+      <c r="F21" s="254"/>
+      <c r="G21" s="254"/>
+      <c r="H21" s="254"/>
+      <c r="I21" s="254"/>
+      <c r="J21" s="255"/>
+      <c r="K21" s="256"/>
+      <c r="L21" s="257"/>
+      <c r="M21" s="265"/>
+      <c r="N21" s="266"/>
+      <c r="O21" s="266"/>
+      <c r="P21" s="266"/>
+      <c r="Q21" s="266"/>
+      <c r="R21" s="267"/>
+      <c r="S21" s="252"/>
+      <c r="T21" s="252"/>
+      <c r="U21" s="252"/>
+      <c r="V21" s="268"/>
+      <c r="W21" s="269"/>
+      <c r="X21" s="269"/>
+      <c r="Y21" s="269"/>
+      <c r="Z21" s="269"/>
+      <c r="AA21" s="269"/>
+      <c r="AB21" s="269"/>
+      <c r="AC21" s="269"/>
+      <c r="AD21" s="269"/>
+      <c r="AE21" s="269"/>
+      <c r="AF21" s="269"/>
+      <c r="AG21" s="269"/>
+      <c r="AH21" s="269"/>
+      <c r="AI21" s="269"/>
+      <c r="AJ21" s="269"/>
+      <c r="AK21" s="269"/>
+      <c r="AL21" s="269"/>
+      <c r="AM21" s="270"/>
+      <c r="AN21" s="271"/>
+      <c r="AO21" s="272"/>
+      <c r="AP21" s="272"/>
+      <c r="AQ21" s="272"/>
+      <c r="AR21" s="273"/>
+      <c r="AS21" s="271"/>
+      <c r="AT21" s="272"/>
+      <c r="AU21" s="272"/>
+      <c r="AV21" s="272"/>
+      <c r="AW21" s="273"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
-      <c r="B22" s="246"/>
-      <c r="C22" s="247"/>
-      <c r="D22" s="248"/>
-      <c r="E22" s="249"/>
-      <c r="F22" s="249"/>
-      <c r="G22" s="249"/>
-      <c r="H22" s="249"/>
-      <c r="I22" s="249"/>
-      <c r="J22" s="250"/>
-      <c r="K22" s="251"/>
-      <c r="L22" s="252"/>
-      <c r="M22" s="263"/>
-      <c r="N22" s="261"/>
-      <c r="O22" s="261"/>
-      <c r="P22" s="261"/>
-      <c r="Q22" s="261"/>
-      <c r="R22" s="262"/>
-      <c r="S22" s="256"/>
-      <c r="T22" s="256"/>
-      <c r="U22" s="256"/>
-      <c r="V22" s="257"/>
-      <c r="W22" s="258"/>
-      <c r="X22" s="258"/>
-      <c r="Y22" s="258"/>
-      <c r="Z22" s="258"/>
-      <c r="AA22" s="258"/>
-      <c r="AB22" s="258"/>
-      <c r="AC22" s="258"/>
-      <c r="AD22" s="258"/>
-      <c r="AE22" s="258"/>
-      <c r="AF22" s="258"/>
-      <c r="AG22" s="258"/>
-      <c r="AH22" s="258"/>
-      <c r="AI22" s="258"/>
-      <c r="AJ22" s="258"/>
-      <c r="AK22" s="258"/>
-      <c r="AL22" s="258"/>
-      <c r="AM22" s="259"/>
-      <c r="AN22" s="243"/>
-      <c r="AO22" s="244"/>
-      <c r="AP22" s="244"/>
-      <c r="AQ22" s="244"/>
-      <c r="AR22" s="245"/>
-      <c r="AS22" s="243"/>
-      <c r="AT22" s="244"/>
-      <c r="AU22" s="244"/>
-      <c r="AV22" s="244"/>
-      <c r="AW22" s="245"/>
+      <c r="B22" s="262"/>
+      <c r="C22" s="263"/>
+      <c r="D22" s="264"/>
+      <c r="E22" s="254"/>
+      <c r="F22" s="254"/>
+      <c r="G22" s="254"/>
+      <c r="H22" s="254"/>
+      <c r="I22" s="254"/>
+      <c r="J22" s="255"/>
+      <c r="K22" s="256"/>
+      <c r="L22" s="257"/>
+      <c r="M22" s="265"/>
+      <c r="N22" s="266"/>
+      <c r="O22" s="266"/>
+      <c r="P22" s="266"/>
+      <c r="Q22" s="266"/>
+      <c r="R22" s="267"/>
+      <c r="S22" s="252"/>
+      <c r="T22" s="252"/>
+      <c r="U22" s="252"/>
+      <c r="V22" s="268"/>
+      <c r="W22" s="269"/>
+      <c r="X22" s="269"/>
+      <c r="Y22" s="269"/>
+      <c r="Z22" s="269"/>
+      <c r="AA22" s="269"/>
+      <c r="AB22" s="269"/>
+      <c r="AC22" s="269"/>
+      <c r="AD22" s="269"/>
+      <c r="AE22" s="269"/>
+      <c r="AF22" s="269"/>
+      <c r="AG22" s="269"/>
+      <c r="AH22" s="269"/>
+      <c r="AI22" s="269"/>
+      <c r="AJ22" s="269"/>
+      <c r="AK22" s="269"/>
+      <c r="AL22" s="269"/>
+      <c r="AM22" s="270"/>
+      <c r="AN22" s="271"/>
+      <c r="AO22" s="272"/>
+      <c r="AP22" s="272"/>
+      <c r="AQ22" s="272"/>
+      <c r="AR22" s="273"/>
+      <c r="AS22" s="271"/>
+      <c r="AT22" s="272"/>
+      <c r="AU22" s="272"/>
+      <c r="AV22" s="272"/>
+      <c r="AW22" s="273"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
-      <c r="B23" s="246"/>
-      <c r="C23" s="247"/>
-      <c r="D23" s="248"/>
-      <c r="E23" s="249"/>
-      <c r="F23" s="249"/>
-      <c r="G23" s="249"/>
-      <c r="H23" s="249"/>
-      <c r="I23" s="249"/>
-      <c r="J23" s="250"/>
-      <c r="K23" s="251"/>
-      <c r="L23" s="252"/>
-      <c r="M23" s="263"/>
-      <c r="N23" s="261"/>
-      <c r="O23" s="261"/>
-      <c r="P23" s="261"/>
-      <c r="Q23" s="261"/>
-      <c r="R23" s="262"/>
-      <c r="S23" s="256"/>
-      <c r="T23" s="256"/>
-      <c r="U23" s="256"/>
-      <c r="V23" s="257"/>
-      <c r="W23" s="258"/>
-      <c r="X23" s="258"/>
-      <c r="Y23" s="258"/>
-      <c r="Z23" s="258"/>
-      <c r="AA23" s="258"/>
-      <c r="AB23" s="258"/>
-      <c r="AC23" s="258"/>
-      <c r="AD23" s="258"/>
-      <c r="AE23" s="258"/>
-      <c r="AF23" s="258"/>
-      <c r="AG23" s="258"/>
-      <c r="AH23" s="258"/>
-      <c r="AI23" s="258"/>
-      <c r="AJ23" s="258"/>
-      <c r="AK23" s="258"/>
-      <c r="AL23" s="258"/>
-      <c r="AM23" s="259"/>
-      <c r="AN23" s="243"/>
-      <c r="AO23" s="244"/>
-      <c r="AP23" s="244"/>
-      <c r="AQ23" s="244"/>
-      <c r="AR23" s="245"/>
-      <c r="AS23" s="243"/>
-      <c r="AT23" s="244"/>
-      <c r="AU23" s="244"/>
-      <c r="AV23" s="244"/>
-      <c r="AW23" s="245"/>
+      <c r="B23" s="262"/>
+      <c r="C23" s="263"/>
+      <c r="D23" s="264"/>
+      <c r="E23" s="254"/>
+      <c r="F23" s="254"/>
+      <c r="G23" s="254"/>
+      <c r="H23" s="254"/>
+      <c r="I23" s="254"/>
+      <c r="J23" s="255"/>
+      <c r="K23" s="256"/>
+      <c r="L23" s="257"/>
+      <c r="M23" s="265"/>
+      <c r="N23" s="266"/>
+      <c r="O23" s="266"/>
+      <c r="P23" s="266"/>
+      <c r="Q23" s="266"/>
+      <c r="R23" s="267"/>
+      <c r="S23" s="252"/>
+      <c r="T23" s="252"/>
+      <c r="U23" s="252"/>
+      <c r="V23" s="268"/>
+      <c r="W23" s="269"/>
+      <c r="X23" s="269"/>
+      <c r="Y23" s="269"/>
+      <c r="Z23" s="269"/>
+      <c r="AA23" s="269"/>
+      <c r="AB23" s="269"/>
+      <c r="AC23" s="269"/>
+      <c r="AD23" s="269"/>
+      <c r="AE23" s="269"/>
+      <c r="AF23" s="269"/>
+      <c r="AG23" s="269"/>
+      <c r="AH23" s="269"/>
+      <c r="AI23" s="269"/>
+      <c r="AJ23" s="269"/>
+      <c r="AK23" s="269"/>
+      <c r="AL23" s="269"/>
+      <c r="AM23" s="270"/>
+      <c r="AN23" s="271"/>
+      <c r="AO23" s="272"/>
+      <c r="AP23" s="272"/>
+      <c r="AQ23" s="272"/>
+      <c r="AR23" s="273"/>
+      <c r="AS23" s="271"/>
+      <c r="AT23" s="272"/>
+      <c r="AU23" s="272"/>
+      <c r="AV23" s="272"/>
+      <c r="AW23" s="273"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
-      <c r="B24" s="246"/>
-      <c r="C24" s="247"/>
-      <c r="D24" s="248"/>
-      <c r="E24" s="249"/>
-      <c r="F24" s="249"/>
-      <c r="G24" s="249"/>
-      <c r="H24" s="249"/>
-      <c r="I24" s="249"/>
-      <c r="J24" s="250"/>
-      <c r="K24" s="251"/>
-      <c r="L24" s="252"/>
-      <c r="M24" s="263"/>
-      <c r="N24" s="261"/>
-      <c r="O24" s="261"/>
-      <c r="P24" s="261"/>
-      <c r="Q24" s="261"/>
-      <c r="R24" s="262"/>
-      <c r="S24" s="256"/>
-      <c r="T24" s="256"/>
-      <c r="U24" s="256"/>
-      <c r="V24" s="257"/>
-      <c r="W24" s="258"/>
-      <c r="X24" s="258"/>
-      <c r="Y24" s="258"/>
-      <c r="Z24" s="258"/>
-      <c r="AA24" s="258"/>
-      <c r="AB24" s="258"/>
-      <c r="AC24" s="258"/>
-      <c r="AD24" s="258"/>
-      <c r="AE24" s="258"/>
-      <c r="AF24" s="258"/>
-      <c r="AG24" s="258"/>
-      <c r="AH24" s="258"/>
-      <c r="AI24" s="258"/>
-      <c r="AJ24" s="258"/>
-      <c r="AK24" s="258"/>
-      <c r="AL24" s="258"/>
-      <c r="AM24" s="259"/>
-      <c r="AN24" s="243"/>
-      <c r="AO24" s="244"/>
-      <c r="AP24" s="244"/>
-      <c r="AQ24" s="244"/>
-      <c r="AR24" s="245"/>
-      <c r="AS24" s="243"/>
-      <c r="AT24" s="244"/>
-      <c r="AU24" s="244"/>
-      <c r="AV24" s="244"/>
-      <c r="AW24" s="245"/>
+      <c r="B24" s="262"/>
+      <c r="C24" s="263"/>
+      <c r="D24" s="264"/>
+      <c r="E24" s="254"/>
+      <c r="F24" s="254"/>
+      <c r="G24" s="254"/>
+      <c r="H24" s="254"/>
+      <c r="I24" s="254"/>
+      <c r="J24" s="255"/>
+      <c r="K24" s="256"/>
+      <c r="L24" s="257"/>
+      <c r="M24" s="265"/>
+      <c r="N24" s="266"/>
+      <c r="O24" s="266"/>
+      <c r="P24" s="266"/>
+      <c r="Q24" s="266"/>
+      <c r="R24" s="267"/>
+      <c r="S24" s="252"/>
+      <c r="T24" s="252"/>
+      <c r="U24" s="252"/>
+      <c r="V24" s="268"/>
+      <c r="W24" s="269"/>
+      <c r="X24" s="269"/>
+      <c r="Y24" s="269"/>
+      <c r="Z24" s="269"/>
+      <c r="AA24" s="269"/>
+      <c r="AB24" s="269"/>
+      <c r="AC24" s="269"/>
+      <c r="AD24" s="269"/>
+      <c r="AE24" s="269"/>
+      <c r="AF24" s="269"/>
+      <c r="AG24" s="269"/>
+      <c r="AH24" s="269"/>
+      <c r="AI24" s="269"/>
+      <c r="AJ24" s="269"/>
+      <c r="AK24" s="269"/>
+      <c r="AL24" s="269"/>
+      <c r="AM24" s="270"/>
+      <c r="AN24" s="271"/>
+      <c r="AO24" s="272"/>
+      <c r="AP24" s="272"/>
+      <c r="AQ24" s="272"/>
+      <c r="AR24" s="273"/>
+      <c r="AS24" s="271"/>
+      <c r="AT24" s="272"/>
+      <c r="AU24" s="272"/>
+      <c r="AV24" s="272"/>
+      <c r="AW24" s="273"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="54"/>
-      <c r="B25" s="246"/>
-      <c r="C25" s="247"/>
-      <c r="D25" s="248"/>
-      <c r="E25" s="249"/>
-      <c r="F25" s="249"/>
-      <c r="G25" s="249"/>
-      <c r="H25" s="249"/>
-      <c r="I25" s="249"/>
-      <c r="J25" s="250"/>
-      <c r="K25" s="251"/>
-      <c r="L25" s="252"/>
-      <c r="M25" s="260"/>
-      <c r="N25" s="261"/>
-      <c r="O25" s="261"/>
-      <c r="P25" s="261"/>
-      <c r="Q25" s="261"/>
-      <c r="R25" s="262"/>
-      <c r="S25" s="256"/>
-      <c r="T25" s="256"/>
-      <c r="U25" s="256"/>
-      <c r="V25" s="257"/>
-      <c r="W25" s="258"/>
-      <c r="X25" s="258"/>
-      <c r="Y25" s="258"/>
-      <c r="Z25" s="258"/>
-      <c r="AA25" s="258"/>
-      <c r="AB25" s="258"/>
-      <c r="AC25" s="258"/>
-      <c r="AD25" s="258"/>
-      <c r="AE25" s="258"/>
-      <c r="AF25" s="258"/>
-      <c r="AG25" s="258"/>
-      <c r="AH25" s="258"/>
-      <c r="AI25" s="258"/>
-      <c r="AJ25" s="258"/>
-      <c r="AK25" s="258"/>
-      <c r="AL25" s="258"/>
-      <c r="AM25" s="259"/>
-      <c r="AN25" s="243"/>
-      <c r="AO25" s="244"/>
-      <c r="AP25" s="244"/>
-      <c r="AQ25" s="244"/>
-      <c r="AR25" s="245"/>
-      <c r="AS25" s="243"/>
-      <c r="AT25" s="244"/>
-      <c r="AU25" s="244"/>
-      <c r="AV25" s="244"/>
-      <c r="AW25" s="245"/>
+      <c r="B25" s="262"/>
+      <c r="C25" s="263"/>
+      <c r="D25" s="264"/>
+      <c r="E25" s="254"/>
+      <c r="F25" s="254"/>
+      <c r="G25" s="254"/>
+      <c r="H25" s="254"/>
+      <c r="I25" s="254"/>
+      <c r="J25" s="255"/>
+      <c r="K25" s="256"/>
+      <c r="L25" s="257"/>
+      <c r="M25" s="276"/>
+      <c r="N25" s="266"/>
+      <c r="O25" s="266"/>
+      <c r="P25" s="266"/>
+      <c r="Q25" s="266"/>
+      <c r="R25" s="267"/>
+      <c r="S25" s="252"/>
+      <c r="T25" s="252"/>
+      <c r="U25" s="252"/>
+      <c r="V25" s="268"/>
+      <c r="W25" s="269"/>
+      <c r="X25" s="269"/>
+      <c r="Y25" s="269"/>
+      <c r="Z25" s="269"/>
+      <c r="AA25" s="269"/>
+      <c r="AB25" s="269"/>
+      <c r="AC25" s="269"/>
+      <c r="AD25" s="269"/>
+      <c r="AE25" s="269"/>
+      <c r="AF25" s="269"/>
+      <c r="AG25" s="269"/>
+      <c r="AH25" s="269"/>
+      <c r="AI25" s="269"/>
+      <c r="AJ25" s="269"/>
+      <c r="AK25" s="269"/>
+      <c r="AL25" s="269"/>
+      <c r="AM25" s="270"/>
+      <c r="AN25" s="271"/>
+      <c r="AO25" s="272"/>
+      <c r="AP25" s="272"/>
+      <c r="AQ25" s="272"/>
+      <c r="AR25" s="273"/>
+      <c r="AS25" s="271"/>
+      <c r="AT25" s="272"/>
+      <c r="AU25" s="272"/>
+      <c r="AV25" s="272"/>
+      <c r="AW25" s="273"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="54"/>
-      <c r="B26" s="246"/>
-      <c r="C26" s="247"/>
-      <c r="D26" s="248"/>
-      <c r="E26" s="249"/>
-      <c r="F26" s="249"/>
-      <c r="G26" s="249"/>
-      <c r="H26" s="249"/>
-      <c r="I26" s="249"/>
-      <c r="J26" s="250"/>
-      <c r="K26" s="251"/>
-      <c r="L26" s="252"/>
-      <c r="M26" s="260"/>
-      <c r="N26" s="261"/>
-      <c r="O26" s="261"/>
-      <c r="P26" s="261"/>
-      <c r="Q26" s="261"/>
-      <c r="R26" s="262"/>
-      <c r="S26" s="256"/>
-      <c r="T26" s="256"/>
-      <c r="U26" s="256"/>
-      <c r="V26" s="257"/>
-      <c r="W26" s="258"/>
-      <c r="X26" s="258"/>
-      <c r="Y26" s="258"/>
-      <c r="Z26" s="258"/>
-      <c r="AA26" s="258"/>
-      <c r="AB26" s="258"/>
-      <c r="AC26" s="258"/>
-      <c r="AD26" s="258"/>
-      <c r="AE26" s="258"/>
-      <c r="AF26" s="258"/>
-      <c r="AG26" s="258"/>
-      <c r="AH26" s="258"/>
-      <c r="AI26" s="258"/>
-      <c r="AJ26" s="258"/>
-      <c r="AK26" s="258"/>
-      <c r="AL26" s="258"/>
-      <c r="AM26" s="259"/>
-      <c r="AN26" s="243"/>
-      <c r="AO26" s="244"/>
-      <c r="AP26" s="244"/>
-      <c r="AQ26" s="244"/>
-      <c r="AR26" s="245"/>
-      <c r="AS26" s="243"/>
-      <c r="AT26" s="244"/>
-      <c r="AU26" s="244"/>
-      <c r="AV26" s="244"/>
-      <c r="AW26" s="245"/>
+      <c r="B26" s="262"/>
+      <c r="C26" s="263"/>
+      <c r="D26" s="264"/>
+      <c r="E26" s="254"/>
+      <c r="F26" s="254"/>
+      <c r="G26" s="254"/>
+      <c r="H26" s="254"/>
+      <c r="I26" s="254"/>
+      <c r="J26" s="255"/>
+      <c r="K26" s="256"/>
+      <c r="L26" s="257"/>
+      <c r="M26" s="276"/>
+      <c r="N26" s="266"/>
+      <c r="O26" s="266"/>
+      <c r="P26" s="266"/>
+      <c r="Q26" s="266"/>
+      <c r="R26" s="267"/>
+      <c r="S26" s="252"/>
+      <c r="T26" s="252"/>
+      <c r="U26" s="252"/>
+      <c r="V26" s="268"/>
+      <c r="W26" s="269"/>
+      <c r="X26" s="269"/>
+      <c r="Y26" s="269"/>
+      <c r="Z26" s="269"/>
+      <c r="AA26" s="269"/>
+      <c r="AB26" s="269"/>
+      <c r="AC26" s="269"/>
+      <c r="AD26" s="269"/>
+      <c r="AE26" s="269"/>
+      <c r="AF26" s="269"/>
+      <c r="AG26" s="269"/>
+      <c r="AH26" s="269"/>
+      <c r="AI26" s="269"/>
+      <c r="AJ26" s="269"/>
+      <c r="AK26" s="269"/>
+      <c r="AL26" s="269"/>
+      <c r="AM26" s="270"/>
+      <c r="AN26" s="271"/>
+      <c r="AO26" s="272"/>
+      <c r="AP26" s="272"/>
+      <c r="AQ26" s="272"/>
+      <c r="AR26" s="273"/>
+      <c r="AS26" s="271"/>
+      <c r="AT26" s="272"/>
+      <c r="AU26" s="272"/>
+      <c r="AV26" s="272"/>
+      <c r="AW26" s="273"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="54"/>
-      <c r="B27" s="246"/>
-      <c r="C27" s="247"/>
-      <c r="D27" s="248"/>
-      <c r="E27" s="249"/>
-      <c r="F27" s="249"/>
-      <c r="G27" s="249"/>
-      <c r="H27" s="249"/>
-      <c r="I27" s="249"/>
-      <c r="J27" s="250"/>
-      <c r="K27" s="251"/>
-      <c r="L27" s="252"/>
-      <c r="M27" s="260"/>
-      <c r="N27" s="261"/>
-      <c r="O27" s="261"/>
-      <c r="P27" s="261"/>
-      <c r="Q27" s="261"/>
-      <c r="R27" s="262"/>
-      <c r="S27" s="256"/>
-      <c r="T27" s="256"/>
-      <c r="U27" s="256"/>
-      <c r="V27" s="257"/>
-      <c r="W27" s="258"/>
-      <c r="X27" s="258"/>
-      <c r="Y27" s="258"/>
-      <c r="Z27" s="258"/>
-      <c r="AA27" s="258"/>
-      <c r="AB27" s="258"/>
-      <c r="AC27" s="258"/>
-      <c r="AD27" s="258"/>
-      <c r="AE27" s="258"/>
-      <c r="AF27" s="258"/>
-      <c r="AG27" s="258"/>
-      <c r="AH27" s="258"/>
-      <c r="AI27" s="258"/>
-      <c r="AJ27" s="258"/>
-      <c r="AK27" s="258"/>
-      <c r="AL27" s="258"/>
-      <c r="AM27" s="259"/>
-      <c r="AN27" s="243"/>
-      <c r="AO27" s="244"/>
-      <c r="AP27" s="244"/>
-      <c r="AQ27" s="244"/>
-      <c r="AR27" s="245"/>
-      <c r="AS27" s="243"/>
-      <c r="AT27" s="244"/>
-      <c r="AU27" s="244"/>
-      <c r="AV27" s="244"/>
-      <c r="AW27" s="245"/>
+      <c r="B27" s="262"/>
+      <c r="C27" s="263"/>
+      <c r="D27" s="264"/>
+      <c r="E27" s="254"/>
+      <c r="F27" s="254"/>
+      <c r="G27" s="254"/>
+      <c r="H27" s="254"/>
+      <c r="I27" s="254"/>
+      <c r="J27" s="255"/>
+      <c r="K27" s="256"/>
+      <c r="L27" s="257"/>
+      <c r="M27" s="276"/>
+      <c r="N27" s="266"/>
+      <c r="O27" s="266"/>
+      <c r="P27" s="266"/>
+      <c r="Q27" s="266"/>
+      <c r="R27" s="267"/>
+      <c r="S27" s="252"/>
+      <c r="T27" s="252"/>
+      <c r="U27" s="252"/>
+      <c r="V27" s="268"/>
+      <c r="W27" s="269"/>
+      <c r="X27" s="269"/>
+      <c r="Y27" s="269"/>
+      <c r="Z27" s="269"/>
+      <c r="AA27" s="269"/>
+      <c r="AB27" s="269"/>
+      <c r="AC27" s="269"/>
+      <c r="AD27" s="269"/>
+      <c r="AE27" s="269"/>
+      <c r="AF27" s="269"/>
+      <c r="AG27" s="269"/>
+      <c r="AH27" s="269"/>
+      <c r="AI27" s="269"/>
+      <c r="AJ27" s="269"/>
+      <c r="AK27" s="269"/>
+      <c r="AL27" s="269"/>
+      <c r="AM27" s="270"/>
+      <c r="AN27" s="271"/>
+      <c r="AO27" s="272"/>
+      <c r="AP27" s="272"/>
+      <c r="AQ27" s="272"/>
+      <c r="AR27" s="273"/>
+      <c r="AS27" s="271"/>
+      <c r="AT27" s="272"/>
+      <c r="AU27" s="272"/>
+      <c r="AV27" s="272"/>
+      <c r="AW27" s="273"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
-      <c r="B28" s="246"/>
-      <c r="C28" s="247"/>
-      <c r="D28" s="248"/>
-      <c r="E28" s="249"/>
-      <c r="F28" s="249"/>
-      <c r="G28" s="249"/>
-      <c r="H28" s="249"/>
-      <c r="I28" s="249"/>
-      <c r="J28" s="250"/>
-      <c r="K28" s="251"/>
-      <c r="L28" s="252"/>
-      <c r="M28" s="263"/>
-      <c r="N28" s="261"/>
-      <c r="O28" s="261"/>
-      <c r="P28" s="261"/>
-      <c r="Q28" s="261"/>
-      <c r="R28" s="262"/>
-      <c r="S28" s="256"/>
-      <c r="T28" s="256"/>
-      <c r="U28" s="256"/>
-      <c r="V28" s="257"/>
-      <c r="W28" s="258"/>
-      <c r="X28" s="258"/>
-      <c r="Y28" s="258"/>
-      <c r="Z28" s="258"/>
-      <c r="AA28" s="258"/>
-      <c r="AB28" s="258"/>
-      <c r="AC28" s="258"/>
-      <c r="AD28" s="258"/>
-      <c r="AE28" s="258"/>
-      <c r="AF28" s="258"/>
-      <c r="AG28" s="258"/>
-      <c r="AH28" s="258"/>
-      <c r="AI28" s="258"/>
-      <c r="AJ28" s="258"/>
-      <c r="AK28" s="258"/>
-      <c r="AL28" s="258"/>
-      <c r="AM28" s="259"/>
-      <c r="AN28" s="243"/>
-      <c r="AO28" s="244"/>
-      <c r="AP28" s="244"/>
-      <c r="AQ28" s="244"/>
-      <c r="AR28" s="245"/>
-      <c r="AS28" s="243"/>
-      <c r="AT28" s="244"/>
-      <c r="AU28" s="244"/>
-      <c r="AV28" s="244"/>
-      <c r="AW28" s="245"/>
+      <c r="B28" s="262"/>
+      <c r="C28" s="263"/>
+      <c r="D28" s="264"/>
+      <c r="E28" s="254"/>
+      <c r="F28" s="254"/>
+      <c r="G28" s="254"/>
+      <c r="H28" s="254"/>
+      <c r="I28" s="254"/>
+      <c r="J28" s="255"/>
+      <c r="K28" s="256"/>
+      <c r="L28" s="257"/>
+      <c r="M28" s="265"/>
+      <c r="N28" s="266"/>
+      <c r="O28" s="266"/>
+      <c r="P28" s="266"/>
+      <c r="Q28" s="266"/>
+      <c r="R28" s="267"/>
+      <c r="S28" s="252"/>
+      <c r="T28" s="252"/>
+      <c r="U28" s="252"/>
+      <c r="V28" s="268"/>
+      <c r="W28" s="269"/>
+      <c r="X28" s="269"/>
+      <c r="Y28" s="269"/>
+      <c r="Z28" s="269"/>
+      <c r="AA28" s="269"/>
+      <c r="AB28" s="269"/>
+      <c r="AC28" s="269"/>
+      <c r="AD28" s="269"/>
+      <c r="AE28" s="269"/>
+      <c r="AF28" s="269"/>
+      <c r="AG28" s="269"/>
+      <c r="AH28" s="269"/>
+      <c r="AI28" s="269"/>
+      <c r="AJ28" s="269"/>
+      <c r="AK28" s="269"/>
+      <c r="AL28" s="269"/>
+      <c r="AM28" s="270"/>
+      <c r="AN28" s="271"/>
+      <c r="AO28" s="272"/>
+      <c r="AP28" s="272"/>
+      <c r="AQ28" s="272"/>
+      <c r="AR28" s="273"/>
+      <c r="AS28" s="271"/>
+      <c r="AT28" s="272"/>
+      <c r="AU28" s="272"/>
+      <c r="AV28" s="272"/>
+      <c r="AW28" s="273"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="54"/>
-      <c r="B29" s="246"/>
-      <c r="C29" s="247"/>
-      <c r="D29" s="248"/>
-      <c r="E29" s="249"/>
-      <c r="F29" s="249"/>
-      <c r="G29" s="249"/>
-      <c r="H29" s="249"/>
-      <c r="I29" s="249"/>
-      <c r="J29" s="250"/>
-      <c r="K29" s="251"/>
-      <c r="L29" s="252"/>
-      <c r="M29" s="263"/>
-      <c r="N29" s="261"/>
-      <c r="O29" s="261"/>
-      <c r="P29" s="261"/>
-      <c r="Q29" s="261"/>
-      <c r="R29" s="262"/>
-      <c r="S29" s="256"/>
-      <c r="T29" s="256"/>
-      <c r="U29" s="256"/>
-      <c r="V29" s="257"/>
-      <c r="W29" s="258"/>
-      <c r="X29" s="258"/>
-      <c r="Y29" s="258"/>
-      <c r="Z29" s="258"/>
-      <c r="AA29" s="258"/>
-      <c r="AB29" s="258"/>
-      <c r="AC29" s="258"/>
-      <c r="AD29" s="258"/>
-      <c r="AE29" s="258"/>
-      <c r="AF29" s="258"/>
-      <c r="AG29" s="258"/>
-      <c r="AH29" s="258"/>
-      <c r="AI29" s="258"/>
-      <c r="AJ29" s="258"/>
-      <c r="AK29" s="258"/>
-      <c r="AL29" s="258"/>
-      <c r="AM29" s="259"/>
-      <c r="AN29" s="243"/>
-      <c r="AO29" s="244"/>
-      <c r="AP29" s="244"/>
-      <c r="AQ29" s="244"/>
-      <c r="AR29" s="245"/>
-      <c r="AS29" s="243"/>
-      <c r="AT29" s="244"/>
-      <c r="AU29" s="244"/>
-      <c r="AV29" s="244"/>
-      <c r="AW29" s="245"/>
+      <c r="B29" s="262"/>
+      <c r="C29" s="263"/>
+      <c r="D29" s="264"/>
+      <c r="E29" s="254"/>
+      <c r="F29" s="254"/>
+      <c r="G29" s="254"/>
+      <c r="H29" s="254"/>
+      <c r="I29" s="254"/>
+      <c r="J29" s="255"/>
+      <c r="K29" s="256"/>
+      <c r="L29" s="257"/>
+      <c r="M29" s="265"/>
+      <c r="N29" s="266"/>
+      <c r="O29" s="266"/>
+      <c r="P29" s="266"/>
+      <c r="Q29" s="266"/>
+      <c r="R29" s="267"/>
+      <c r="S29" s="252"/>
+      <c r="T29" s="252"/>
+      <c r="U29" s="252"/>
+      <c r="V29" s="268"/>
+      <c r="W29" s="269"/>
+      <c r="X29" s="269"/>
+      <c r="Y29" s="269"/>
+      <c r="Z29" s="269"/>
+      <c r="AA29" s="269"/>
+      <c r="AB29" s="269"/>
+      <c r="AC29" s="269"/>
+      <c r="AD29" s="269"/>
+      <c r="AE29" s="269"/>
+      <c r="AF29" s="269"/>
+      <c r="AG29" s="269"/>
+      <c r="AH29" s="269"/>
+      <c r="AI29" s="269"/>
+      <c r="AJ29" s="269"/>
+      <c r="AK29" s="269"/>
+      <c r="AL29" s="269"/>
+      <c r="AM29" s="270"/>
+      <c r="AN29" s="271"/>
+      <c r="AO29" s="272"/>
+      <c r="AP29" s="272"/>
+      <c r="AQ29" s="272"/>
+      <c r="AR29" s="273"/>
+      <c r="AS29" s="271"/>
+      <c r="AT29" s="272"/>
+      <c r="AU29" s="272"/>
+      <c r="AV29" s="272"/>
+      <c r="AW29" s="273"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
-      <c r="B30" s="246"/>
-      <c r="C30" s="247"/>
-      <c r="D30" s="248"/>
-      <c r="E30" s="249"/>
-      <c r="F30" s="249"/>
-      <c r="G30" s="249"/>
-      <c r="H30" s="249"/>
-      <c r="I30" s="249"/>
-      <c r="J30" s="250"/>
-      <c r="K30" s="251"/>
-      <c r="L30" s="252"/>
-      <c r="M30" s="260"/>
-      <c r="N30" s="261"/>
-      <c r="O30" s="261"/>
-      <c r="P30" s="261"/>
-      <c r="Q30" s="261"/>
-      <c r="R30" s="262"/>
-      <c r="S30" s="256"/>
-      <c r="T30" s="256"/>
-      <c r="U30" s="256"/>
-      <c r="V30" s="257"/>
-      <c r="W30" s="258"/>
-      <c r="X30" s="258"/>
-      <c r="Y30" s="258"/>
-      <c r="Z30" s="258"/>
-      <c r="AA30" s="258"/>
-      <c r="AB30" s="258"/>
-      <c r="AC30" s="258"/>
-      <c r="AD30" s="258"/>
-      <c r="AE30" s="258"/>
-      <c r="AF30" s="258"/>
-      <c r="AG30" s="258"/>
-      <c r="AH30" s="258"/>
-      <c r="AI30" s="258"/>
-      <c r="AJ30" s="258"/>
-      <c r="AK30" s="258"/>
-      <c r="AL30" s="258"/>
-      <c r="AM30" s="259"/>
-      <c r="AN30" s="243"/>
-      <c r="AO30" s="244"/>
-      <c r="AP30" s="244"/>
-      <c r="AQ30" s="244"/>
-      <c r="AR30" s="245"/>
-      <c r="AS30" s="243"/>
-      <c r="AT30" s="244"/>
-      <c r="AU30" s="244"/>
-      <c r="AV30" s="244"/>
-      <c r="AW30" s="245"/>
+      <c r="B30" s="262"/>
+      <c r="C30" s="263"/>
+      <c r="D30" s="264"/>
+      <c r="E30" s="254"/>
+      <c r="F30" s="254"/>
+      <c r="G30" s="254"/>
+      <c r="H30" s="254"/>
+      <c r="I30" s="254"/>
+      <c r="J30" s="255"/>
+      <c r="K30" s="256"/>
+      <c r="L30" s="257"/>
+      <c r="M30" s="276"/>
+      <c r="N30" s="266"/>
+      <c r="O30" s="266"/>
+      <c r="P30" s="266"/>
+      <c r="Q30" s="266"/>
+      <c r="R30" s="267"/>
+      <c r="S30" s="252"/>
+      <c r="T30" s="252"/>
+      <c r="U30" s="252"/>
+      <c r="V30" s="268"/>
+      <c r="W30" s="269"/>
+      <c r="X30" s="269"/>
+      <c r="Y30" s="269"/>
+      <c r="Z30" s="269"/>
+      <c r="AA30" s="269"/>
+      <c r="AB30" s="269"/>
+      <c r="AC30" s="269"/>
+      <c r="AD30" s="269"/>
+      <c r="AE30" s="269"/>
+      <c r="AF30" s="269"/>
+      <c r="AG30" s="269"/>
+      <c r="AH30" s="269"/>
+      <c r="AI30" s="269"/>
+      <c r="AJ30" s="269"/>
+      <c r="AK30" s="269"/>
+      <c r="AL30" s="269"/>
+      <c r="AM30" s="270"/>
+      <c r="AN30" s="271"/>
+      <c r="AO30" s="272"/>
+      <c r="AP30" s="272"/>
+      <c r="AQ30" s="272"/>
+      <c r="AR30" s="273"/>
+      <c r="AS30" s="271"/>
+      <c r="AT30" s="272"/>
+      <c r="AU30" s="272"/>
+      <c r="AV30" s="272"/>
+      <c r="AW30" s="273"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
-      <c r="B31" s="246"/>
-      <c r="C31" s="247"/>
-      <c r="D31" s="248"/>
-      <c r="E31" s="249"/>
-      <c r="F31" s="249"/>
-      <c r="G31" s="249"/>
-      <c r="H31" s="249"/>
-      <c r="I31" s="249"/>
-      <c r="J31" s="250"/>
-      <c r="K31" s="251"/>
-      <c r="L31" s="252"/>
-      <c r="M31" s="260"/>
-      <c r="N31" s="261"/>
-      <c r="O31" s="261"/>
-      <c r="P31" s="261"/>
-      <c r="Q31" s="261"/>
-      <c r="R31" s="262"/>
-      <c r="S31" s="256"/>
-      <c r="T31" s="256"/>
-      <c r="U31" s="256"/>
-      <c r="V31" s="257"/>
-      <c r="W31" s="258"/>
-      <c r="X31" s="258"/>
-      <c r="Y31" s="258"/>
-      <c r="Z31" s="258"/>
-      <c r="AA31" s="258"/>
-      <c r="AB31" s="258"/>
-      <c r="AC31" s="258"/>
-      <c r="AD31" s="258"/>
-      <c r="AE31" s="258"/>
-      <c r="AF31" s="258"/>
-      <c r="AG31" s="258"/>
-      <c r="AH31" s="258"/>
-      <c r="AI31" s="258"/>
-      <c r="AJ31" s="258"/>
-      <c r="AK31" s="258"/>
-      <c r="AL31" s="258"/>
-      <c r="AM31" s="259"/>
-      <c r="AN31" s="243"/>
-      <c r="AO31" s="244"/>
-      <c r="AP31" s="244"/>
-      <c r="AQ31" s="244"/>
-      <c r="AR31" s="245"/>
-      <c r="AS31" s="243"/>
-      <c r="AT31" s="244"/>
-      <c r="AU31" s="244"/>
-      <c r="AV31" s="244"/>
-      <c r="AW31" s="245"/>
+      <c r="B31" s="262"/>
+      <c r="C31" s="263"/>
+      <c r="D31" s="264"/>
+      <c r="E31" s="254"/>
+      <c r="F31" s="254"/>
+      <c r="G31" s="254"/>
+      <c r="H31" s="254"/>
+      <c r="I31" s="254"/>
+      <c r="J31" s="255"/>
+      <c r="K31" s="256"/>
+      <c r="L31" s="257"/>
+      <c r="M31" s="276"/>
+      <c r="N31" s="266"/>
+      <c r="O31" s="266"/>
+      <c r="P31" s="266"/>
+      <c r="Q31" s="266"/>
+      <c r="R31" s="267"/>
+      <c r="S31" s="252"/>
+      <c r="T31" s="252"/>
+      <c r="U31" s="252"/>
+      <c r="V31" s="268"/>
+      <c r="W31" s="269"/>
+      <c r="X31" s="269"/>
+      <c r="Y31" s="269"/>
+      <c r="Z31" s="269"/>
+      <c r="AA31" s="269"/>
+      <c r="AB31" s="269"/>
+      <c r="AC31" s="269"/>
+      <c r="AD31" s="269"/>
+      <c r="AE31" s="269"/>
+      <c r="AF31" s="269"/>
+      <c r="AG31" s="269"/>
+      <c r="AH31" s="269"/>
+      <c r="AI31" s="269"/>
+      <c r="AJ31" s="269"/>
+      <c r="AK31" s="269"/>
+      <c r="AL31" s="269"/>
+      <c r="AM31" s="270"/>
+      <c r="AN31" s="271"/>
+      <c r="AO31" s="272"/>
+      <c r="AP31" s="272"/>
+      <c r="AQ31" s="272"/>
+      <c r="AR31" s="273"/>
+      <c r="AS31" s="271"/>
+      <c r="AT31" s="272"/>
+      <c r="AU31" s="272"/>
+      <c r="AV31" s="272"/>
+      <c r="AW31" s="273"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
-      <c r="B32" s="246"/>
-      <c r="C32" s="247"/>
-      <c r="D32" s="248"/>
-      <c r="E32" s="249"/>
-      <c r="F32" s="249"/>
-      <c r="G32" s="249"/>
-      <c r="H32" s="249"/>
-      <c r="I32" s="249"/>
-      <c r="J32" s="250"/>
-      <c r="K32" s="251"/>
-      <c r="L32" s="252"/>
-      <c r="M32" s="260"/>
-      <c r="N32" s="261"/>
-      <c r="O32" s="261"/>
-      <c r="P32" s="261"/>
-      <c r="Q32" s="261"/>
-      <c r="R32" s="262"/>
-      <c r="S32" s="256"/>
-      <c r="T32" s="256"/>
-      <c r="U32" s="256"/>
-      <c r="V32" s="257"/>
-      <c r="W32" s="258"/>
-      <c r="X32" s="258"/>
-      <c r="Y32" s="258"/>
-      <c r="Z32" s="258"/>
-      <c r="AA32" s="258"/>
-      <c r="AB32" s="258"/>
-      <c r="AC32" s="258"/>
-      <c r="AD32" s="258"/>
-      <c r="AE32" s="258"/>
-      <c r="AF32" s="258"/>
-      <c r="AG32" s="258"/>
-      <c r="AH32" s="258"/>
-      <c r="AI32" s="258"/>
-      <c r="AJ32" s="258"/>
-      <c r="AK32" s="258"/>
-      <c r="AL32" s="258"/>
-      <c r="AM32" s="259"/>
-      <c r="AN32" s="243"/>
-      <c r="AO32" s="244"/>
-      <c r="AP32" s="244"/>
-      <c r="AQ32" s="244"/>
-      <c r="AR32" s="245"/>
-      <c r="AS32" s="243"/>
-      <c r="AT32" s="244"/>
-      <c r="AU32" s="244"/>
-      <c r="AV32" s="244"/>
-      <c r="AW32" s="245"/>
+      <c r="B32" s="262"/>
+      <c r="C32" s="263"/>
+      <c r="D32" s="264"/>
+      <c r="E32" s="254"/>
+      <c r="F32" s="254"/>
+      <c r="G32" s="254"/>
+      <c r="H32" s="254"/>
+      <c r="I32" s="254"/>
+      <c r="J32" s="255"/>
+      <c r="K32" s="256"/>
+      <c r="L32" s="257"/>
+      <c r="M32" s="276"/>
+      <c r="N32" s="266"/>
+      <c r="O32" s="266"/>
+      <c r="P32" s="266"/>
+      <c r="Q32" s="266"/>
+      <c r="R32" s="267"/>
+      <c r="S32" s="252"/>
+      <c r="T32" s="252"/>
+      <c r="U32" s="252"/>
+      <c r="V32" s="268"/>
+      <c r="W32" s="269"/>
+      <c r="X32" s="269"/>
+      <c r="Y32" s="269"/>
+      <c r="Z32" s="269"/>
+      <c r="AA32" s="269"/>
+      <c r="AB32" s="269"/>
+      <c r="AC32" s="269"/>
+      <c r="AD32" s="269"/>
+      <c r="AE32" s="269"/>
+      <c r="AF32" s="269"/>
+      <c r="AG32" s="269"/>
+      <c r="AH32" s="269"/>
+      <c r="AI32" s="269"/>
+      <c r="AJ32" s="269"/>
+      <c r="AK32" s="269"/>
+      <c r="AL32" s="269"/>
+      <c r="AM32" s="270"/>
+      <c r="AN32" s="271"/>
+      <c r="AO32" s="272"/>
+      <c r="AP32" s="272"/>
+      <c r="AQ32" s="272"/>
+      <c r="AR32" s="273"/>
+      <c r="AS32" s="271"/>
+      <c r="AT32" s="272"/>
+      <c r="AU32" s="272"/>
+      <c r="AV32" s="272"/>
+      <c r="AW32" s="273"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="246"/>
-      <c r="C33" s="247"/>
-      <c r="D33" s="248"/>
-      <c r="E33" s="249"/>
-      <c r="F33" s="249"/>
-      <c r="G33" s="249"/>
-      <c r="H33" s="249"/>
-      <c r="I33" s="249"/>
-      <c r="J33" s="250"/>
-      <c r="K33" s="251"/>
-      <c r="L33" s="252"/>
-      <c r="M33" s="260"/>
-      <c r="N33" s="261"/>
-      <c r="O33" s="261"/>
-      <c r="P33" s="261"/>
-      <c r="Q33" s="261"/>
-      <c r="R33" s="262"/>
-      <c r="S33" s="256"/>
-      <c r="T33" s="256"/>
-      <c r="U33" s="256"/>
-      <c r="V33" s="257"/>
-      <c r="W33" s="258"/>
-      <c r="X33" s="258"/>
-      <c r="Y33" s="258"/>
-      <c r="Z33" s="258"/>
-      <c r="AA33" s="258"/>
-      <c r="AB33" s="258"/>
-      <c r="AC33" s="258"/>
-      <c r="AD33" s="258"/>
-      <c r="AE33" s="258"/>
-      <c r="AF33" s="258"/>
-      <c r="AG33" s="258"/>
-      <c r="AH33" s="258"/>
-      <c r="AI33" s="258"/>
-      <c r="AJ33" s="258"/>
-      <c r="AK33" s="258"/>
-      <c r="AL33" s="258"/>
-      <c r="AM33" s="259"/>
-      <c r="AN33" s="243"/>
-      <c r="AO33" s="244"/>
-      <c r="AP33" s="244"/>
-      <c r="AQ33" s="244"/>
-      <c r="AR33" s="245"/>
-      <c r="AS33" s="243"/>
-      <c r="AT33" s="244"/>
-      <c r="AU33" s="244"/>
-      <c r="AV33" s="244"/>
-      <c r="AW33" s="245"/>
+      <c r="B33" s="262"/>
+      <c r="C33" s="263"/>
+      <c r="D33" s="264"/>
+      <c r="E33" s="254"/>
+      <c r="F33" s="254"/>
+      <c r="G33" s="254"/>
+      <c r="H33" s="254"/>
+      <c r="I33" s="254"/>
+      <c r="J33" s="255"/>
+      <c r="K33" s="256"/>
+      <c r="L33" s="257"/>
+      <c r="M33" s="276"/>
+      <c r="N33" s="266"/>
+      <c r="O33" s="266"/>
+      <c r="P33" s="266"/>
+      <c r="Q33" s="266"/>
+      <c r="R33" s="267"/>
+      <c r="S33" s="252"/>
+      <c r="T33" s="252"/>
+      <c r="U33" s="252"/>
+      <c r="V33" s="268"/>
+      <c r="W33" s="269"/>
+      <c r="X33" s="269"/>
+      <c r="Y33" s="269"/>
+      <c r="Z33" s="269"/>
+      <c r="AA33" s="269"/>
+      <c r="AB33" s="269"/>
+      <c r="AC33" s="269"/>
+      <c r="AD33" s="269"/>
+      <c r="AE33" s="269"/>
+      <c r="AF33" s="269"/>
+      <c r="AG33" s="269"/>
+      <c r="AH33" s="269"/>
+      <c r="AI33" s="269"/>
+      <c r="AJ33" s="269"/>
+      <c r="AK33" s="269"/>
+      <c r="AL33" s="269"/>
+      <c r="AM33" s="270"/>
+      <c r="AN33" s="271"/>
+      <c r="AO33" s="272"/>
+      <c r="AP33" s="272"/>
+      <c r="AQ33" s="272"/>
+      <c r="AR33" s="273"/>
+      <c r="AS33" s="271"/>
+      <c r="AT33" s="272"/>
+      <c r="AU33" s="272"/>
+      <c r="AV33" s="272"/>
+      <c r="AW33" s="273"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="246"/>
-      <c r="C34" s="247"/>
-      <c r="D34" s="248"/>
-      <c r="E34" s="249"/>
-      <c r="F34" s="249"/>
-      <c r="G34" s="249"/>
-      <c r="H34" s="249"/>
-      <c r="I34" s="249"/>
-      <c r="J34" s="250"/>
-      <c r="K34" s="251"/>
-      <c r="L34" s="252"/>
-      <c r="M34" s="253"/>
-      <c r="N34" s="254"/>
-      <c r="O34" s="254"/>
-      <c r="P34" s="254"/>
-      <c r="Q34" s="254"/>
-      <c r="R34" s="255"/>
-      <c r="S34" s="256"/>
-      <c r="T34" s="256"/>
-      <c r="U34" s="256"/>
-      <c r="V34" s="257"/>
-      <c r="W34" s="258"/>
-      <c r="X34" s="258"/>
-      <c r="Y34" s="258"/>
-      <c r="Z34" s="258"/>
-      <c r="AA34" s="258"/>
-      <c r="AB34" s="258"/>
-      <c r="AC34" s="258"/>
-      <c r="AD34" s="258"/>
-      <c r="AE34" s="258"/>
-      <c r="AF34" s="258"/>
-      <c r="AG34" s="258"/>
-      <c r="AH34" s="258"/>
-      <c r="AI34" s="258"/>
-      <c r="AJ34" s="258"/>
-      <c r="AK34" s="258"/>
-      <c r="AL34" s="258"/>
-      <c r="AM34" s="259"/>
-      <c r="AN34" s="243"/>
-      <c r="AO34" s="244"/>
-      <c r="AP34" s="244"/>
-      <c r="AQ34" s="244"/>
-      <c r="AR34" s="245"/>
-      <c r="AS34" s="243"/>
-      <c r="AT34" s="244"/>
-      <c r="AU34" s="244"/>
-      <c r="AV34" s="244"/>
-      <c r="AW34" s="245"/>
+      <c r="B34" s="262"/>
+      <c r="C34" s="263"/>
+      <c r="D34" s="264"/>
+      <c r="E34" s="254"/>
+      <c r="F34" s="254"/>
+      <c r="G34" s="254"/>
+      <c r="H34" s="254"/>
+      <c r="I34" s="254"/>
+      <c r="J34" s="255"/>
+      <c r="K34" s="256"/>
+      <c r="L34" s="257"/>
+      <c r="M34" s="280"/>
+      <c r="N34" s="281"/>
+      <c r="O34" s="281"/>
+      <c r="P34" s="281"/>
+      <c r="Q34" s="281"/>
+      <c r="R34" s="282"/>
+      <c r="S34" s="252"/>
+      <c r="T34" s="252"/>
+      <c r="U34" s="252"/>
+      <c r="V34" s="268"/>
+      <c r="W34" s="269"/>
+      <c r="X34" s="269"/>
+      <c r="Y34" s="269"/>
+      <c r="Z34" s="269"/>
+      <c r="AA34" s="269"/>
+      <c r="AB34" s="269"/>
+      <c r="AC34" s="269"/>
+      <c r="AD34" s="269"/>
+      <c r="AE34" s="269"/>
+      <c r="AF34" s="269"/>
+      <c r="AG34" s="269"/>
+      <c r="AH34" s="269"/>
+      <c r="AI34" s="269"/>
+      <c r="AJ34" s="269"/>
+      <c r="AK34" s="269"/>
+      <c r="AL34" s="269"/>
+      <c r="AM34" s="270"/>
+      <c r="AN34" s="271"/>
+      <c r="AO34" s="272"/>
+      <c r="AP34" s="272"/>
+      <c r="AQ34" s="272"/>
+      <c r="AR34" s="273"/>
+      <c r="AS34" s="271"/>
+      <c r="AT34" s="272"/>
+      <c r="AU34" s="272"/>
+      <c r="AV34" s="272"/>
+      <c r="AW34" s="273"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -8803,230 +9018,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9186,11 +9186,11 @@
       <c r="AL2" s="35"/>
       <c r="AM2" s="35"/>
       <c r="AN2" s="36"/>
-      <c r="AO2" s="289"/>
-      <c r="AP2" s="290"/>
-      <c r="AQ2" s="290"/>
-      <c r="AR2" s="290"/>
-      <c r="AS2" s="291"/>
+      <c r="AO2" s="283"/>
+      <c r="AP2" s="284"/>
+      <c r="AQ2" s="284"/>
+      <c r="AR2" s="284"/>
+      <c r="AS2" s="285"/>
       <c r="AT2" s="34" t="s">
         <v>26</v>
       </c>
@@ -9199,14 +9199,14 @@
       <c r="AW2" s="35"/>
       <c r="AX2" s="35"/>
       <c r="AY2" s="36"/>
-      <c r="AZ2" s="292"/>
-      <c r="BA2" s="293"/>
-      <c r="BB2" s="293"/>
-      <c r="BC2" s="293"/>
-      <c r="BD2" s="293"/>
-      <c r="BE2" s="293"/>
-      <c r="BF2" s="293"/>
-      <c r="BG2" s="294"/>
+      <c r="AZ2" s="286"/>
+      <c r="BA2" s="287"/>
+      <c r="BB2" s="287"/>
+      <c r="BC2" s="287"/>
+      <c r="BD2" s="287"/>
+      <c r="BE2" s="287"/>
+      <c r="BF2" s="287"/>
+      <c r="BG2" s="288"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="33"/>
@@ -10955,10 +10955,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="29"/>
-      <c r="B50" s="295" t="s">
+      <c r="B50" s="289" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="296"/>
+      <c r="C50" s="290"/>
       <c r="D50" s="85" t="s">
         <v>90</v>
       </c>
@@ -11041,10 +11041,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="29"/>
-      <c r="B51" s="283">
+      <c r="B51" s="291">
         <v>1</v>
       </c>
-      <c r="C51" s="284"/>
+      <c r="C51" s="292"/>
       <c r="D51" s="106" t="s">
         <v>109</v>
       </c>
@@ -11055,7 +11055,7 @@
       <c r="I51" s="84"/>
       <c r="J51" s="107"/>
       <c r="K51" s="106" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L51" s="84"/>
       <c r="M51" s="84"/>
@@ -11076,16 +11076,16 @@
       <c r="AB51" s="84"/>
       <c r="AC51" s="84"/>
       <c r="AD51" s="107"/>
-      <c r="AE51" s="287" t="s">
+      <c r="AE51" s="295" t="s">
         <v>99</v>
       </c>
-      <c r="AF51" s="288"/>
-      <c r="AG51" s="287"/>
-      <c r="AH51" s="288"/>
-      <c r="AI51" s="287"/>
-      <c r="AJ51" s="288"/>
-      <c r="AK51" s="287"/>
-      <c r="AL51" s="288"/>
+      <c r="AF51" s="296"/>
+      <c r="AG51" s="295"/>
+      <c r="AH51" s="296"/>
+      <c r="AI51" s="295"/>
+      <c r="AJ51" s="296"/>
+      <c r="AK51" s="295"/>
+      <c r="AL51" s="296"/>
       <c r="AM51" s="81" t="s">
         <v>216</v>
       </c>
@@ -11119,10 +11119,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="29"/>
-      <c r="B52" s="283">
+      <c r="B52" s="291">
         <v>2</v>
       </c>
-      <c r="C52" s="284"/>
+      <c r="C52" s="292"/>
       <c r="D52" s="106" t="s">
         <v>110</v>
       </c>
@@ -11133,7 +11133,7 @@
       <c r="I52" s="84"/>
       <c r="J52" s="107"/>
       <c r="K52" s="236" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L52" s="237"/>
       <c r="M52" s="237"/>
@@ -11154,18 +11154,18 @@
       <c r="AB52" s="237"/>
       <c r="AC52" s="237"/>
       <c r="AD52" s="238"/>
-      <c r="AE52" s="285" t="s">
+      <c r="AE52" s="293" t="s">
         <v>99</v>
       </c>
-      <c r="AF52" s="286"/>
-      <c r="AG52" s="285"/>
-      <c r="AH52" s="286"/>
-      <c r="AI52" s="285"/>
-      <c r="AJ52" s="286"/>
-      <c r="AK52" s="285"/>
-      <c r="AL52" s="286"/>
+      <c r="AF52" s="294"/>
+      <c r="AG52" s="293"/>
+      <c r="AH52" s="294"/>
+      <c r="AI52" s="293"/>
+      <c r="AJ52" s="294"/>
+      <c r="AK52" s="293"/>
+      <c r="AL52" s="294"/>
       <c r="AM52" s="239" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AN52" s="82"/>
       <c r="AO52" s="82"/>
@@ -11197,10 +11197,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="29"/>
-      <c r="B53" s="283">
+      <c r="B53" s="291">
         <v>3</v>
       </c>
-      <c r="C53" s="284"/>
+      <c r="C53" s="292"/>
       <c r="D53" s="106" t="s">
         <v>110</v>
       </c>
@@ -11211,7 +11211,7 @@
       <c r="I53" s="84"/>
       <c r="J53" s="107"/>
       <c r="K53" s="236" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L53" s="237"/>
       <c r="M53" s="237"/>
@@ -11232,18 +11232,18 @@
       <c r="AB53" s="237"/>
       <c r="AC53" s="237"/>
       <c r="AD53" s="238"/>
-      <c r="AE53" s="285" t="s">
+      <c r="AE53" s="293" t="s">
         <v>99</v>
       </c>
-      <c r="AF53" s="286"/>
-      <c r="AG53" s="285"/>
-      <c r="AH53" s="286"/>
-      <c r="AI53" s="285"/>
-      <c r="AJ53" s="286"/>
-      <c r="AK53" s="285"/>
-      <c r="AL53" s="286"/>
+      <c r="AF53" s="294"/>
+      <c r="AG53" s="293"/>
+      <c r="AH53" s="294"/>
+      <c r="AI53" s="293"/>
+      <c r="AJ53" s="294"/>
+      <c r="AK53" s="293"/>
+      <c r="AL53" s="294"/>
       <c r="AM53" s="239" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AN53" s="82"/>
       <c r="AO53" s="82"/>
@@ -11275,10 +11275,10 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="29"/>
-      <c r="B54" s="283">
+      <c r="B54" s="291">
         <v>4</v>
       </c>
-      <c r="C54" s="284"/>
+      <c r="C54" s="292"/>
       <c r="D54" s="106" t="s">
         <v>110</v>
       </c>
@@ -11289,7 +11289,7 @@
       <c r="I54" s="84"/>
       <c r="J54" s="107"/>
       <c r="K54" s="236" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L54" s="237"/>
       <c r="M54" s="237"/>
@@ -11310,18 +11310,18 @@
       <c r="AB54" s="237"/>
       <c r="AC54" s="237"/>
       <c r="AD54" s="238"/>
-      <c r="AE54" s="285" t="s">
+      <c r="AE54" s="293" t="s">
         <v>99</v>
       </c>
-      <c r="AF54" s="286"/>
-      <c r="AG54" s="285"/>
-      <c r="AH54" s="286"/>
-      <c r="AI54" s="285"/>
-      <c r="AJ54" s="286"/>
-      <c r="AK54" s="285"/>
-      <c r="AL54" s="286"/>
+      <c r="AF54" s="294"/>
+      <c r="AG54" s="293"/>
+      <c r="AH54" s="294"/>
+      <c r="AI54" s="293"/>
+      <c r="AJ54" s="294"/>
+      <c r="AK54" s="293"/>
+      <c r="AL54" s="294"/>
       <c r="AM54" s="239" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AN54" s="82"/>
       <c r="AO54" s="82"/>
@@ -11353,10 +11353,10 @@
     </row>
     <row r="55" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A55" s="29"/>
-      <c r="B55" s="283">
+      <c r="B55" s="291">
         <v>5</v>
       </c>
-      <c r="C55" s="284"/>
+      <c r="C55" s="292"/>
       <c r="D55" s="106" t="s">
         <v>110</v>
       </c>
@@ -11367,7 +11367,7 @@
       <c r="I55" s="84"/>
       <c r="J55" s="107"/>
       <c r="K55" s="236" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L55" s="237"/>
       <c r="M55" s="237"/>
@@ -11388,18 +11388,18 @@
       <c r="AB55" s="237"/>
       <c r="AC55" s="237"/>
       <c r="AD55" s="238"/>
-      <c r="AE55" s="285" t="s">
+      <c r="AE55" s="293" t="s">
         <v>99</v>
       </c>
-      <c r="AF55" s="286"/>
-      <c r="AG55" s="285"/>
-      <c r="AH55" s="286"/>
-      <c r="AI55" s="285"/>
-      <c r="AJ55" s="286"/>
-      <c r="AK55" s="285"/>
-      <c r="AL55" s="286"/>
+      <c r="AF55" s="294"/>
+      <c r="AG55" s="293"/>
+      <c r="AH55" s="294"/>
+      <c r="AI55" s="293"/>
+      <c r="AJ55" s="294"/>
+      <c r="AK55" s="293"/>
+      <c r="AL55" s="294"/>
       <c r="AM55" s="239" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AN55" s="82"/>
       <c r="AO55" s="82"/>
@@ -11436,6 +11436,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="B50:C50"/>
@@ -11452,18 +11464,6 @@
     <mergeCell ref="AI51:AJ51"/>
     <mergeCell ref="AK51:AL51"/>
     <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11609,7 +11609,7 @@
       <c r="CR1" s="35"/>
       <c r="CS1" s="35"/>
       <c r="CT1" s="36"/>
-      <c r="CU1" s="292" t="str">
+      <c r="CU1" s="286" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -11740,7 +11740,7 @@
       <c r="CR2" s="35"/>
       <c r="CS2" s="35"/>
       <c r="CT2" s="36"/>
-      <c r="CU2" s="292"/>
+      <c r="CU2" s="286"/>
       <c r="CV2" s="297"/>
       <c r="CW2" s="297"/>
       <c r="CX2" s="297"/>
@@ -11957,22 +11957,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="276" t="s">
+      <c r="C6" s="245" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="276" t="s">
+      <c r="D6" s="245" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="276" t="s">
+      <c r="E6" s="245" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="276" t="s">
+      <c r="F6" s="245" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="276" t="s">
+      <c r="G6" s="245" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="276" t="s">
+      <c r="H6" s="245" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="306" t="s">
@@ -11981,13 +11981,13 @@
       <c r="J6" s="306" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="276" t="s">
+      <c r="K6" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="276" t="s">
+      <c r="L6" s="245" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="276" t="s">
+      <c r="M6" s="245" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="73" t="s">
@@ -12002,17 +12002,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="276"/>
-      <c r="D7" s="276"/>
-      <c r="E7" s="276"/>
-      <c r="F7" s="276"/>
-      <c r="G7" s="276"/>
-      <c r="H7" s="276"/>
+      <c r="C7" s="245"/>
+      <c r="D7" s="245"/>
+      <c r="E7" s="245"/>
+      <c r="F7" s="245"/>
+      <c r="G7" s="245"/>
+      <c r="H7" s="245"/>
       <c r="I7" s="306"/>
       <c r="J7" s="306"/>
-      <c r="K7" s="276"/>
-      <c r="L7" s="276"/>
-      <c r="M7" s="276"/>
+      <c r="K7" s="245"/>
+      <c r="L7" s="245"/>
+      <c r="M7" s="245"/>
       <c r="N7" s="43" t="s">
         <v>74</v>
       </c>
@@ -12131,22 +12131,22 @@
     <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
-      <c r="C12" s="276" t="s">
+      <c r="C12" s="245" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="276" t="s">
+      <c r="D12" s="245" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="276" t="s">
+      <c r="E12" s="245" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="276" t="s">
+      <c r="F12" s="245" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="276" t="s">
+      <c r="G12" s="245" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="276" t="s">
+      <c r="H12" s="245" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="307" t="s">
@@ -12155,13 +12155,13 @@
       <c r="J12" s="306" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="276" t="s">
+      <c r="K12" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="276" t="s">
+      <c r="L12" s="245" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="276" t="s">
+      <c r="M12" s="245" t="s">
         <v>33</v>
       </c>
       <c r="N12" s="73" t="s">
@@ -12176,17 +12176,17 @@
     <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="276"/>
-      <c r="D13" s="276"/>
-      <c r="E13" s="276"/>
-      <c r="F13" s="276"/>
-      <c r="G13" s="276"/>
-      <c r="H13" s="276"/>
+      <c r="C13" s="245"/>
+      <c r="D13" s="245"/>
+      <c r="E13" s="245"/>
+      <c r="F13" s="245"/>
+      <c r="G13" s="245"/>
+      <c r="H13" s="245"/>
       <c r="I13" s="308"/>
       <c r="J13" s="306"/>
-      <c r="K13" s="276"/>
-      <c r="L13" s="276"/>
-      <c r="M13" s="276"/>
+      <c r="K13" s="245"/>
+      <c r="L13" s="245"/>
+      <c r="M13" s="245"/>
       <c r="N13" s="43" t="s">
         <v>74</v>
       </c>
@@ -12255,10 +12255,10 @@
         <v>105</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>134</v>
@@ -12288,7 +12288,7 @@
         <v>34</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Q15" s="8"/>
     </row>
@@ -12449,22 +12449,22 @@
     </row>
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="110"/>
-      <c r="C22" s="276" t="s">
+      <c r="C22" s="245" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="276" t="s">
+      <c r="D22" s="245" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="276" t="s">
+      <c r="E22" s="245" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="276" t="s">
+      <c r="F22" s="245" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="276" t="s">
+      <c r="G22" s="245" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="276" t="s">
+      <c r="H22" s="245" t="s">
         <v>29</v>
       </c>
       <c r="I22" s="306" t="s">
@@ -12473,13 +12473,13 @@
       <c r="J22" s="306" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="276" t="s">
+      <c r="K22" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="276" t="s">
+      <c r="L22" s="245" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="276" t="s">
+      <c r="M22" s="245" t="s">
         <v>33</v>
       </c>
       <c r="N22" s="73" t="s">
@@ -12493,17 +12493,17 @@
     </row>
     <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B23" s="110"/>
-      <c r="C23" s="276"/>
-      <c r="D23" s="276"/>
-      <c r="E23" s="276"/>
-      <c r="F23" s="276"/>
-      <c r="G23" s="276"/>
-      <c r="H23" s="276"/>
+      <c r="C23" s="245"/>
+      <c r="D23" s="245"/>
+      <c r="E23" s="245"/>
+      <c r="F23" s="245"/>
+      <c r="G23" s="245"/>
+      <c r="H23" s="245"/>
       <c r="I23" s="306"/>
       <c r="J23" s="306"/>
-      <c r="K23" s="276"/>
-      <c r="L23" s="276"/>
-      <c r="M23" s="276"/>
+      <c r="K23" s="245"/>
+      <c r="L23" s="245"/>
+      <c r="M23" s="245"/>
       <c r="N23" s="108" t="s">
         <v>74</v>
       </c>
@@ -12823,22 +12823,22 @@
     </row>
     <row r="32" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="110"/>
-      <c r="C32" s="276" t="s">
+      <c r="C32" s="245" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="276" t="s">
+      <c r="D32" s="245" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="276" t="s">
+      <c r="E32" s="245" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="276" t="s">
+      <c r="F32" s="245" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="276" t="s">
+      <c r="G32" s="245" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="276" t="s">
+      <c r="H32" s="245" t="s">
         <v>29</v>
       </c>
       <c r="I32" s="306" t="s">
@@ -12847,13 +12847,13 @@
       <c r="J32" s="306" t="s">
         <v>46</v>
       </c>
-      <c r="K32" s="276" t="s">
+      <c r="K32" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="L32" s="276" t="s">
+      <c r="L32" s="245" t="s">
         <v>30</v>
       </c>
-      <c r="M32" s="276" t="s">
+      <c r="M32" s="245" t="s">
         <v>33</v>
       </c>
       <c r="N32" s="73" t="s">
@@ -12867,17 +12867,17 @@
     </row>
     <row r="33" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B33" s="110"/>
-      <c r="C33" s="276"/>
-      <c r="D33" s="276"/>
-      <c r="E33" s="276"/>
-      <c r="F33" s="276"/>
-      <c r="G33" s="276"/>
-      <c r="H33" s="276"/>
+      <c r="C33" s="245"/>
+      <c r="D33" s="245"/>
+      <c r="E33" s="245"/>
+      <c r="F33" s="245"/>
+      <c r="G33" s="245"/>
+      <c r="H33" s="245"/>
       <c r="I33" s="306"/>
       <c r="J33" s="306"/>
-      <c r="K33" s="276"/>
-      <c r="L33" s="276"/>
-      <c r="M33" s="276"/>
+      <c r="K33" s="245"/>
+      <c r="L33" s="245"/>
+      <c r="M33" s="245"/>
       <c r="N33" s="112" t="s">
         <v>74</v>
       </c>
@@ -13062,6 +13062,46 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="M22:M23"/>
     <mergeCell ref="Q22:Q23"/>
@@ -13070,46 +13110,6 @@
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="M12:M13"/>
     <mergeCell ref="L12:L13"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -13179,7 +13179,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="289">
+      <c r="AI1" s="283">
         <f>変更履歴!E5</f>
         <v>43717</v>
       </c>
@@ -13195,7 +13195,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="292" t="str">
+      <c r="AT1" s="286" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -13266,7 +13266,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="292"/>
+      <c r="AT2" s="286"/>
       <c r="AU2" s="297"/>
       <c r="AV2" s="297"/>
       <c r="AW2" s="297"/>
@@ -14571,7 +14571,7 @@
       <c r="J29" s="22"/>
       <c r="K29" s="23"/>
       <c r="L29" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M29" s="22"/>
       <c r="N29" s="22"/>
@@ -14677,7 +14677,7 @@
       <c r="L31" s="24"/>
       <c r="M31" s="24"/>
       <c r="N31" s="24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
@@ -14830,7 +14830,7 @@
       <c r="L34" s="24"/>
       <c r="M34" s="24"/>
       <c r="N34" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O34" s="24"/>
       <c r="P34" s="24"/>
@@ -14881,7 +14881,7 @@
       <c r="L35" s="24"/>
       <c r="M35" s="24"/>
       <c r="N35" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O35" s="24"/>
       <c r="P35" s="24"/>
@@ -14932,7 +14932,7 @@
       <c r="L36" s="24"/>
       <c r="M36" s="24"/>
       <c r="N36" s="24" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O36" s="24"/>
       <c r="P36" s="24"/>
@@ -14983,7 +14983,7 @@
       <c r="L37" s="24"/>
       <c r="M37" s="24"/>
       <c r="N37" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O37" s="24"/>
       <c r="P37" s="24"/>
@@ -15214,7 +15214,7 @@
       <c r="G43" s="75"/>
       <c r="K43" s="76"/>
       <c r="N43" s="17" t="s">
-        <v>376</v>
+        <v>438</v>
       </c>
       <c r="AV43" s="76"/>
     </row>
@@ -15372,7 +15372,7 @@
       <c r="L48" s="24"/>
       <c r="M48" s="24"/>
       <c r="N48" s="78" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O48" s="24"/>
       <c r="P48" s="24"/>
@@ -15390,7 +15390,7 @@
         <v>37</v>
       </c>
       <c r="AB48" s="111" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC48" s="24"/>
       <c r="AD48" s="24"/>
@@ -15690,7 +15690,7 @@
       <c r="L54" s="24"/>
       <c r="M54" s="24"/>
       <c r="N54" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O54" s="24"/>
       <c r="P54" s="24"/>
@@ -15741,7 +15741,7 @@
       <c r="L55" s="24"/>
       <c r="M55" s="24"/>
       <c r="N55" s="24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O55" s="24"/>
       <c r="P55" s="24"/>
@@ -15792,7 +15792,7 @@
       <c r="L56" s="24"/>
       <c r="M56" s="24"/>
       <c r="N56" s="24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O56" s="24"/>
       <c r="P56" s="24"/>
@@ -15945,7 +15945,7 @@
       <c r="L59" s="24"/>
       <c r="M59" s="24"/>
       <c r="N59" s="24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O59" s="24"/>
       <c r="P59" s="24"/>
@@ -16047,7 +16047,7 @@
       <c r="L61" s="24"/>
       <c r="M61" s="24"/>
       <c r="N61" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O61" s="24"/>
       <c r="P61" s="24"/>
@@ -16065,7 +16065,7 @@
         <v>37</v>
       </c>
       <c r="AB61" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AC61" s="24"/>
       <c r="AD61" s="24"/>
@@ -16104,7 +16104,7 @@
       <c r="L62" s="24"/>
       <c r="M62" s="24"/>
       <c r="N62" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O62" s="24"/>
       <c r="P62" s="24"/>
@@ -16122,7 +16122,7 @@
         <v>37</v>
       </c>
       <c r="AB62" s="222" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AC62" s="24"/>
       <c r="AD62" s="24"/>
@@ -16159,7 +16159,7 @@
       <c r="L63" s="24"/>
       <c r="M63" s="24"/>
       <c r="N63" s="24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O63" s="24"/>
       <c r="P63" s="24"/>
@@ -16174,7 +16174,7 @@
       <c r="Y63" s="24"/>
       <c r="Z63" s="24"/>
       <c r="AA63" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AC63" s="24"/>
       <c r="AD63" s="24"/>
@@ -16204,7 +16204,7 @@
       <c r="G64" s="75"/>
       <c r="K64" s="76"/>
       <c r="M64" s="223" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AA64" s="223"/>
       <c r="AB64" s="224"/>
@@ -16219,7 +16219,7 @@
       <c r="K65" s="76"/>
       <c r="M65" s="223"/>
       <c r="N65" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AA65" s="223"/>
       <c r="AB65" s="224"/>
@@ -16234,7 +16234,7 @@
       <c r="K66" s="76"/>
       <c r="M66" s="223"/>
       <c r="N66" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AA66" s="223"/>
       <c r="AB66" s="224"/>
@@ -16300,7 +16300,7 @@
       <c r="K68" s="76"/>
       <c r="M68" s="223"/>
       <c r="N68" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AA68" s="223"/>
       <c r="AB68" s="224"/>
@@ -16321,7 +16321,7 @@
       <c r="L69" s="24"/>
       <c r="M69" s="24"/>
       <c r="N69" s="24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O69" s="24"/>
       <c r="P69" s="24"/>
@@ -16523,7 +16523,7 @@
       <c r="L73" s="24"/>
       <c r="M73" s="24"/>
       <c r="N73" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O73" s="24"/>
       <c r="P73" s="24"/>
@@ -16574,7 +16574,7 @@
       <c r="L74" s="24"/>
       <c r="M74" s="24"/>
       <c r="N74" s="24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O74" s="24"/>
       <c r="P74" s="24"/>
@@ -16625,7 +16625,7 @@
       <c r="L75" s="24"/>
       <c r="M75" s="24"/>
       <c r="N75" s="24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O75" s="24"/>
       <c r="P75" s="24"/>
@@ -16778,7 +16778,7 @@
       <c r="L78" s="24"/>
       <c r="M78" s="24"/>
       <c r="N78" s="24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O78" s="24"/>
       <c r="P78" s="24"/>
@@ -16880,7 +16880,7 @@
       <c r="L80" s="24"/>
       <c r="M80" s="24"/>
       <c r="N80" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O80" s="24"/>
       <c r="P80" s="24"/>
@@ -16898,7 +16898,7 @@
         <v>37</v>
       </c>
       <c r="AB80" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AC80" s="24"/>
       <c r="AD80" s="24"/>
@@ -16937,7 +16937,7 @@
       <c r="L81" s="24"/>
       <c r="M81" s="24"/>
       <c r="N81" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O81" s="24"/>
       <c r="P81" s="24"/>
@@ -16955,7 +16955,7 @@
         <v>37</v>
       </c>
       <c r="AB81" s="222" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AC81" s="24"/>
       <c r="AD81" s="24"/>
@@ -16992,7 +16992,7 @@
       <c r="L82" s="24"/>
       <c r="M82" s="24"/>
       <c r="N82" s="24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O82" s="24"/>
       <c r="P82" s="24"/>
@@ -17007,7 +17007,7 @@
       <c r="Y82" s="24"/>
       <c r="Z82" s="24"/>
       <c r="AA82" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AC82" s="24"/>
       <c r="AD82" s="24"/>
@@ -17037,7 +17037,7 @@
       <c r="G83" s="75"/>
       <c r="K83" s="76"/>
       <c r="M83" s="223" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AA83" s="223"/>
       <c r="AB83" s="224"/>
@@ -17052,7 +17052,7 @@
       <c r="K84" s="76"/>
       <c r="M84" s="223"/>
       <c r="N84" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AA84" s="223"/>
       <c r="AB84" s="224"/>
@@ -17067,7 +17067,7 @@
       <c r="K85" s="76"/>
       <c r="M85" s="223"/>
       <c r="N85" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AA85" s="223"/>
       <c r="AB85" s="224"/>
@@ -17133,7 +17133,7 @@
       <c r="K87" s="76"/>
       <c r="M87" s="223"/>
       <c r="N87" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AA87" s="223"/>
       <c r="AB87" s="224"/>
@@ -17154,7 +17154,7 @@
       <c r="L88" s="24"/>
       <c r="M88" s="24"/>
       <c r="N88" s="24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O88" s="24"/>
       <c r="P88" s="24"/>
@@ -17356,7 +17356,7 @@
       <c r="L92" s="24"/>
       <c r="M92" s="24"/>
       <c r="N92" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O92" s="24"/>
       <c r="P92" s="24"/>
@@ -17407,7 +17407,7 @@
       <c r="L93" s="24"/>
       <c r="M93" s="24"/>
       <c r="N93" s="24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O93" s="24"/>
       <c r="P93" s="24"/>
@@ -17458,7 +17458,7 @@
       <c r="L94" s="24"/>
       <c r="M94" s="24"/>
       <c r="N94" s="24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O94" s="24"/>
       <c r="P94" s="24"/>
@@ -17509,7 +17509,7 @@
       <c r="L95" s="24"/>
       <c r="M95" s="24"/>
       <c r="N95" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O95" s="24"/>
       <c r="P95" s="24"/>
@@ -17662,7 +17662,7 @@
       <c r="L98" s="24"/>
       <c r="M98" s="24"/>
       <c r="N98" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O98" s="24"/>
       <c r="P98" s="24"/>
@@ -17713,7 +17713,7 @@
       <c r="L99" s="24"/>
       <c r="M99" s="24"/>
       <c r="N99" s="24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O99" s="24"/>
       <c r="P99" s="24"/>
@@ -17765,7 +17765,7 @@
       <c r="M100" s="24"/>
       <c r="N100" s="24"/>
       <c r="O100" s="24" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="P100" s="24"/>
       <c r="Q100" s="24"/>
@@ -17782,7 +17782,7 @@
         <v>122</v>
       </c>
       <c r="AB100" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AC100" s="24"/>
       <c r="AD100" s="24"/>
@@ -17820,7 +17820,7 @@
       <c r="M101" s="24"/>
       <c r="N101" s="24"/>
       <c r="O101" s="24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P101" s="24"/>
       <c r="Q101" s="24"/>
@@ -17837,7 +17837,7 @@
         <v>122</v>
       </c>
       <c r="AB101" s="24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AC101" s="24"/>
       <c r="AD101" s="24"/>
@@ -17925,7 +17925,7 @@
       <c r="L103" s="24"/>
       <c r="M103" s="24"/>
       <c r="N103" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O103" s="24"/>
       <c r="P103" s="24"/>
@@ -17943,7 +17943,7 @@
         <v>37</v>
       </c>
       <c r="AB103" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AC103" s="24"/>
       <c r="AD103" s="24"/>
@@ -17982,7 +17982,7 @@
       <c r="L104" s="24"/>
       <c r="M104" s="24"/>
       <c r="N104" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O104" s="24"/>
       <c r="P104" s="24"/>
@@ -18000,7 +18000,7 @@
         <v>37</v>
       </c>
       <c r="AB104" s="222" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AC104" s="24"/>
       <c r="AD104" s="24"/>
@@ -18037,7 +18037,7 @@
       <c r="L105" s="24"/>
       <c r="M105" s="24"/>
       <c r="N105" s="24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O105" s="24"/>
       <c r="P105" s="24"/>
@@ -18052,7 +18052,7 @@
       <c r="Y105" s="24"/>
       <c r="Z105" s="24"/>
       <c r="AA105" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AC105" s="24"/>
       <c r="AD105" s="24"/>
@@ -18082,7 +18082,7 @@
       <c r="G106" s="75"/>
       <c r="K106" s="76"/>
       <c r="M106" s="223" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AA106" s="223"/>
       <c r="AB106" s="224"/>
@@ -18097,7 +18097,7 @@
       <c r="K107" s="76"/>
       <c r="M107" s="223"/>
       <c r="N107" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AA107" s="223"/>
       <c r="AB107" s="224"/>
@@ -18112,7 +18112,7 @@
       <c r="K108" s="76"/>
       <c r="M108" s="223"/>
       <c r="N108" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AA108" s="223"/>
       <c r="AB108" s="224"/>
@@ -18133,7 +18133,7 @@
       <c r="L109" s="24"/>
       <c r="M109" s="24"/>
       <c r="N109" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O109" s="24"/>
       <c r="P109" s="24"/>
@@ -18229,7 +18229,7 @@
       <c r="K111" s="76"/>
       <c r="M111" s="223"/>
       <c r="N111" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AA111" s="223"/>
       <c r="AB111" s="224"/>
@@ -18250,7 +18250,7 @@
       <c r="L112" s="24"/>
       <c r="M112" s="24"/>
       <c r="N112" s="24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O112" s="24"/>
       <c r="P112" s="24"/>
@@ -18401,7 +18401,7 @@
       <c r="L115" s="24"/>
       <c r="M115" s="24"/>
       <c r="N115" s="24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O115" s="24"/>
       <c r="P115" s="24"/>
@@ -18603,7 +18603,7 @@
       <c r="L119" s="24"/>
       <c r="M119" s="24"/>
       <c r="N119" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O119" s="24"/>
       <c r="P119" s="24"/>
@@ -18654,7 +18654,7 @@
       <c r="L120" s="24"/>
       <c r="M120" s="24"/>
       <c r="N120" s="24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O120" s="24"/>
       <c r="P120" s="24"/>
@@ -18705,7 +18705,7 @@
       <c r="L121" s="24"/>
       <c r="M121" s="24"/>
       <c r="N121" s="24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O121" s="24"/>
       <c r="P121" s="24"/>
@@ -18858,7 +18858,7 @@
       <c r="L124" s="24"/>
       <c r="M124" s="24"/>
       <c r="N124" s="24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O124" s="24"/>
       <c r="P124" s="24"/>
@@ -18960,7 +18960,7 @@
       <c r="L126" s="24"/>
       <c r="M126" s="24"/>
       <c r="N126" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O126" s="24"/>
       <c r="P126" s="24"/>
@@ -18978,7 +18978,7 @@
         <v>37</v>
       </c>
       <c r="AB126" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AC126" s="24"/>
       <c r="AD126" s="24"/>
@@ -19017,7 +19017,7 @@
       <c r="L127" s="24"/>
       <c r="M127" s="24"/>
       <c r="N127" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O127" s="24"/>
       <c r="P127" s="24"/>
@@ -19035,7 +19035,7 @@
         <v>37</v>
       </c>
       <c r="AB127" s="222" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AC127" s="24"/>
       <c r="AD127" s="24"/>
@@ -19072,7 +19072,7 @@
       <c r="L128" s="24"/>
       <c r="M128" s="24"/>
       <c r="N128" s="24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O128" s="24"/>
       <c r="P128" s="24"/>
@@ -19087,7 +19087,7 @@
       <c r="Y128" s="24"/>
       <c r="Z128" s="24"/>
       <c r="AA128" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AC128" s="24"/>
       <c r="AD128" s="24"/>
@@ -19117,7 +19117,7 @@
       <c r="G129" s="75"/>
       <c r="K129" s="76"/>
       <c r="M129" s="223" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AA129" s="223"/>
       <c r="AB129" s="224"/>
@@ -19132,7 +19132,7 @@
       <c r="K130" s="76"/>
       <c r="M130" s="223"/>
       <c r="N130" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AA130" s="223"/>
       <c r="AB130" s="224"/>
@@ -19147,7 +19147,7 @@
       <c r="K131" s="76"/>
       <c r="M131" s="223"/>
       <c r="N131" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AA131" s="223"/>
       <c r="AB131" s="224"/>
@@ -19213,7 +19213,7 @@
       <c r="K133" s="76"/>
       <c r="M133" s="223"/>
       <c r="N133" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AA133" s="223"/>
       <c r="AB133" s="224"/>
@@ -19234,7 +19234,7 @@
       <c r="L134" s="24"/>
       <c r="M134" s="24"/>
       <c r="N134" s="24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O134" s="24"/>
       <c r="P134" s="24"/>
@@ -19436,7 +19436,7 @@
       <c r="L138" s="24"/>
       <c r="M138" s="24"/>
       <c r="N138" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O138" s="24"/>
       <c r="P138" s="24"/>
@@ -19487,7 +19487,7 @@
       <c r="L139" s="24"/>
       <c r="M139" s="24"/>
       <c r="N139" s="24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O139" s="24"/>
       <c r="P139" s="24"/>
@@ -19538,7 +19538,7 @@
       <c r="L140" s="24"/>
       <c r="M140" s="24"/>
       <c r="N140" s="24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O140" s="24"/>
       <c r="P140" s="24"/>
@@ -19589,7 +19589,7 @@
       <c r="L141" s="24"/>
       <c r="M141" s="24"/>
       <c r="N141" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O141" s="24"/>
       <c r="P141" s="24"/>
@@ -19742,7 +19742,7 @@
       <c r="L144" s="24"/>
       <c r="M144" s="24"/>
       <c r="N144" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O144" s="24"/>
       <c r="P144" s="24"/>
@@ -19793,7 +19793,7 @@
       <c r="L145" s="24"/>
       <c r="M145" s="24"/>
       <c r="N145" s="24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O145" s="24"/>
       <c r="P145" s="24"/>
@@ -19845,7 +19845,7 @@
       <c r="M146" s="24"/>
       <c r="N146" s="24"/>
       <c r="O146" s="24" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="P146" s="24"/>
       <c r="Q146" s="24"/>
@@ -19862,7 +19862,7 @@
         <v>122</v>
       </c>
       <c r="AB146" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AC146" s="24"/>
       <c r="AD146" s="24"/>
@@ -19900,7 +19900,7 @@
       <c r="M147" s="24"/>
       <c r="N147" s="24"/>
       <c r="O147" s="24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P147" s="24"/>
       <c r="Q147" s="24"/>
@@ -19917,7 +19917,7 @@
         <v>122</v>
       </c>
       <c r="AB147" s="24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AC147" s="24"/>
       <c r="AD147" s="24"/>
@@ -20005,7 +20005,7 @@
       <c r="L149" s="24"/>
       <c r="M149" s="24"/>
       <c r="N149" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O149" s="24"/>
       <c r="P149" s="24"/>
@@ -20023,7 +20023,7 @@
         <v>37</v>
       </c>
       <c r="AB149" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AC149" s="24"/>
       <c r="AD149" s="24"/>
@@ -20062,7 +20062,7 @@
       <c r="L150" s="24"/>
       <c r="M150" s="24"/>
       <c r="N150" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O150" s="24"/>
       <c r="P150" s="24"/>
@@ -20080,7 +20080,7 @@
         <v>37</v>
       </c>
       <c r="AB150" s="222" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AC150" s="24"/>
       <c r="AD150" s="24"/>
@@ -20117,7 +20117,7 @@
       <c r="L151" s="24"/>
       <c r="M151" s="24"/>
       <c r="N151" s="24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O151" s="24"/>
       <c r="P151" s="24"/>
@@ -20132,7 +20132,7 @@
       <c r="Y151" s="24"/>
       <c r="Z151" s="24"/>
       <c r="AA151" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AC151" s="24"/>
       <c r="AD151" s="24"/>
@@ -20162,7 +20162,7 @@
       <c r="G152" s="75"/>
       <c r="K152" s="76"/>
       <c r="M152" s="223" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AA152" s="223"/>
       <c r="AB152" s="224"/>
@@ -20177,7 +20177,7 @@
       <c r="K153" s="76"/>
       <c r="M153" s="223"/>
       <c r="N153" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AA153" s="223"/>
       <c r="AB153" s="224"/>
@@ -20192,7 +20192,7 @@
       <c r="K154" s="76"/>
       <c r="M154" s="223"/>
       <c r="N154" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AA154" s="223"/>
       <c r="AB154" s="224"/>
@@ -20213,7 +20213,7 @@
       <c r="L155" s="24"/>
       <c r="M155" s="24"/>
       <c r="N155" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O155" s="24"/>
       <c r="P155" s="24"/>
@@ -20309,7 +20309,7 @@
       <c r="K157" s="76"/>
       <c r="M157" s="223"/>
       <c r="N157" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AA157" s="223"/>
       <c r="AB157" s="224"/>
@@ -20330,7 +20330,7 @@
       <c r="L158" s="24"/>
       <c r="M158" s="24"/>
       <c r="N158" s="24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O158" s="24"/>
       <c r="P158" s="24"/>
@@ -20430,7 +20430,7 @@
       <c r="J160" s="22"/>
       <c r="K160" s="23"/>
       <c r="L160" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M160" s="22"/>
       <c r="N160" s="22"/>
@@ -20536,7 +20536,7 @@
       <c r="L162" s="24"/>
       <c r="M162" s="24"/>
       <c r="N162" s="24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O162" s="24"/>
       <c r="P162" s="24"/>
@@ -20689,7 +20689,7 @@
       <c r="L165" s="24"/>
       <c r="M165" s="24"/>
       <c r="N165" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O165" s="24"/>
       <c r="P165" s="24"/>
@@ -20740,7 +20740,7 @@
       <c r="L166" s="24"/>
       <c r="M166" s="24"/>
       <c r="N166" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O166" s="24"/>
       <c r="P166" s="24"/>
@@ -20791,7 +20791,7 @@
       <c r="L167" s="24"/>
       <c r="M167" s="24"/>
       <c r="N167" s="24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O167" s="24"/>
       <c r="P167" s="24"/>
@@ -20842,7 +20842,7 @@
       <c r="L168" s="24"/>
       <c r="M168" s="24"/>
       <c r="N168" s="24" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O168" s="24"/>
       <c r="P168" s="24"/>
@@ -21186,7 +21186,7 @@
       <c r="L176" s="24"/>
       <c r="M176" s="24"/>
       <c r="N176" s="78" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O176" s="24"/>
       <c r="P176" s="24"/>
@@ -21204,7 +21204,7 @@
         <v>37</v>
       </c>
       <c r="AB176" s="111" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC176" s="24"/>
       <c r="AD176" s="24"/>
@@ -21504,7 +21504,7 @@
       <c r="L182" s="228"/>
       <c r="M182" s="228"/>
       <c r="N182" s="228" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O182" s="228"/>
       <c r="P182" s="228"/>
@@ -21555,7 +21555,7 @@
       <c r="L183" s="228"/>
       <c r="M183" s="228"/>
       <c r="N183" s="228" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O183" s="228"/>
       <c r="P183" s="228"/>
@@ -21606,7 +21606,7 @@
       <c r="L184" s="228"/>
       <c r="M184" s="228"/>
       <c r="N184" s="228" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O184" s="228"/>
       <c r="P184" s="228"/>
@@ -21708,7 +21708,7 @@
       <c r="L186" s="228"/>
       <c r="M186" s="228"/>
       <c r="N186" s="228" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O186" s="228"/>
       <c r="P186" s="228"/>
@@ -21810,7 +21810,7 @@
       <c r="L188" s="228"/>
       <c r="M188" s="228"/>
       <c r="N188" s="228" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O188" s="228"/>
       <c r="P188" s="228"/>
@@ -21828,7 +21828,7 @@
         <v>37</v>
       </c>
       <c r="AB188" s="230" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AC188" s="228"/>
       <c r="AD188" s="228"/>
@@ -21859,7 +21859,7 @@
       <c r="K189" s="76"/>
       <c r="L189" s="231"/>
       <c r="M189" s="232" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N189" s="231"/>
       <c r="O189" s="231"/>
@@ -21891,7 +21891,7 @@
       <c r="L190" s="231"/>
       <c r="M190" s="232"/>
       <c r="N190" s="231" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O190" s="231"/>
       <c r="P190" s="231"/>
@@ -21922,7 +21922,7 @@
       <c r="L191" s="231"/>
       <c r="M191" s="232"/>
       <c r="N191" s="231" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O191" s="231"/>
       <c r="P191" s="231"/>
@@ -22004,7 +22004,7 @@
       <c r="L193" s="231"/>
       <c r="M193" s="232"/>
       <c r="N193" s="231" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O193" s="231"/>
       <c r="P193" s="231"/>
@@ -22040,7 +22040,7 @@
       <c r="L194" s="228"/>
       <c r="M194" s="228"/>
       <c r="N194" s="228" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O194" s="228"/>
       <c r="P194" s="228"/>
@@ -22242,7 +22242,7 @@
       <c r="L198" s="228"/>
       <c r="M198" s="228"/>
       <c r="N198" s="228" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O198" s="228"/>
       <c r="P198" s="228"/>
@@ -22293,7 +22293,7 @@
       <c r="L199" s="228"/>
       <c r="M199" s="228"/>
       <c r="N199" s="228" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O199" s="228"/>
       <c r="P199" s="228"/>
@@ -22344,7 +22344,7 @@
       <c r="L200" s="228"/>
       <c r="M200" s="228"/>
       <c r="N200" s="228" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O200" s="228"/>
       <c r="P200" s="228"/>
@@ -22446,7 +22446,7 @@
       <c r="L202" s="228"/>
       <c r="M202" s="228"/>
       <c r="N202" s="228" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O202" s="228"/>
       <c r="P202" s="228"/>
@@ -22548,7 +22548,7 @@
       <c r="L204" s="228"/>
       <c r="M204" s="228"/>
       <c r="N204" s="225" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O204" s="225"/>
       <c r="P204" s="225"/>
@@ -22566,7 +22566,7 @@
         <v>37</v>
       </c>
       <c r="AB204" s="227" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AC204" s="225"/>
       <c r="AD204" s="225"/>
@@ -22603,7 +22603,7 @@
       <c r="L205" s="228"/>
       <c r="M205" s="228"/>
       <c r="N205" s="225" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O205" s="225"/>
       <c r="P205" s="225"/>
@@ -22621,7 +22621,7 @@
         <v>37</v>
       </c>
       <c r="AB205" s="227" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AC205" s="225"/>
       <c r="AD205" s="225"/>
@@ -22652,7 +22652,7 @@
       <c r="K206" s="76"/>
       <c r="L206" s="231"/>
       <c r="M206" s="232" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N206" s="231"/>
       <c r="O206" s="231"/>
@@ -22684,7 +22684,7 @@
       <c r="L207" s="231"/>
       <c r="M207" s="232"/>
       <c r="N207" s="231" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O207" s="231"/>
       <c r="P207" s="231"/>
@@ -22715,7 +22715,7 @@
       <c r="L208" s="231"/>
       <c r="M208" s="232"/>
       <c r="N208" s="231" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O208" s="231"/>
       <c r="P208" s="231"/>
@@ -22797,7 +22797,7 @@
       <c r="L210" s="231"/>
       <c r="M210" s="232"/>
       <c r="N210" s="231" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O210" s="231"/>
       <c r="P210" s="231"/>
@@ -22833,7 +22833,7 @@
       <c r="L211" s="228"/>
       <c r="M211" s="228"/>
       <c r="N211" s="228" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O211" s="228"/>
       <c r="P211" s="228"/>
@@ -23035,7 +23035,7 @@
       <c r="L215" s="228"/>
       <c r="M215" s="228"/>
       <c r="N215" s="228" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O215" s="228"/>
       <c r="P215" s="228"/>
@@ -23086,7 +23086,7 @@
       <c r="L216" s="228"/>
       <c r="M216" s="228"/>
       <c r="N216" s="228" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O216" s="228"/>
       <c r="P216" s="228"/>
@@ -23137,7 +23137,7 @@
       <c r="L217" s="228"/>
       <c r="M217" s="228"/>
       <c r="N217" s="228" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O217" s="228"/>
       <c r="P217" s="228"/>
@@ -23239,7 +23239,7 @@
       <c r="L219" s="228"/>
       <c r="M219" s="228"/>
       <c r="N219" s="228" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O219" s="228"/>
       <c r="P219" s="228"/>
@@ -23341,7 +23341,7 @@
       <c r="L221" s="228"/>
       <c r="M221" s="228"/>
       <c r="N221" s="228" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O221" s="228"/>
       <c r="P221" s="228"/>
@@ -23359,7 +23359,7 @@
         <v>37</v>
       </c>
       <c r="AB221" s="230" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AC221" s="228"/>
       <c r="AD221" s="228"/>
@@ -23396,7 +23396,7 @@
       <c r="L222" s="228"/>
       <c r="M222" s="228"/>
       <c r="N222" s="228" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O222" s="228"/>
       <c r="P222" s="228"/>
@@ -23414,7 +23414,7 @@
         <v>37</v>
       </c>
       <c r="AB222" s="230" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AC222" s="228"/>
       <c r="AD222" s="228"/>
@@ -23445,7 +23445,7 @@
       <c r="K223" s="76"/>
       <c r="L223" s="231"/>
       <c r="M223" s="232" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N223" s="231"/>
       <c r="O223" s="231"/>
@@ -23477,7 +23477,7 @@
       <c r="L224" s="231"/>
       <c r="M224" s="232"/>
       <c r="N224" s="231" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O224" s="231"/>
       <c r="P224" s="231"/>
@@ -23508,7 +23508,7 @@
       <c r="L225" s="231"/>
       <c r="M225" s="232"/>
       <c r="N225" s="231" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O225" s="231"/>
       <c r="P225" s="231"/>
@@ -23590,7 +23590,7 @@
       <c r="L227" s="231"/>
       <c r="M227" s="232"/>
       <c r="N227" s="231" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O227" s="231"/>
       <c r="P227" s="231"/>
@@ -23626,7 +23626,7 @@
       <c r="L228" s="228"/>
       <c r="M228" s="228"/>
       <c r="N228" s="228" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O228" s="228"/>
       <c r="P228" s="228"/>
@@ -23828,7 +23828,7 @@
       <c r="L232" s="228"/>
       <c r="M232" s="228"/>
       <c r="N232" s="228" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O232" s="228"/>
       <c r="P232" s="228"/>
@@ -23879,7 +23879,7 @@
       <c r="L233" s="228"/>
       <c r="M233" s="228"/>
       <c r="N233" s="228" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O233" s="228"/>
       <c r="P233" s="228"/>
@@ -23930,7 +23930,7 @@
       <c r="L234" s="228"/>
       <c r="M234" s="228"/>
       <c r="N234" s="228" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O234" s="228"/>
       <c r="P234" s="228"/>
@@ -24032,7 +24032,7 @@
       <c r="L236" s="228"/>
       <c r="M236" s="228"/>
       <c r="N236" s="228" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O236" s="228"/>
       <c r="P236" s="228"/>
@@ -24134,7 +24134,7 @@
       <c r="L238" s="228"/>
       <c r="M238" s="228"/>
       <c r="N238" s="228" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O238" s="228"/>
       <c r="P238" s="228"/>
@@ -24152,7 +24152,7 @@
         <v>37</v>
       </c>
       <c r="AB238" s="230" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AC238" s="228"/>
       <c r="AD238" s="228"/>
@@ -24189,7 +24189,7 @@
       <c r="L239" s="228"/>
       <c r="M239" s="228"/>
       <c r="N239" s="228" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O239" s="228"/>
       <c r="P239" s="228"/>
@@ -24207,7 +24207,7 @@
         <v>37</v>
       </c>
       <c r="AB239" s="230" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AC239" s="228"/>
       <c r="AD239" s="228"/>
@@ -24238,7 +24238,7 @@
       <c r="K240" s="76"/>
       <c r="L240" s="231"/>
       <c r="M240" s="232" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N240" s="231"/>
       <c r="O240" s="231"/>
@@ -24270,7 +24270,7 @@
       <c r="L241" s="231"/>
       <c r="M241" s="232"/>
       <c r="N241" s="231" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O241" s="231"/>
       <c r="P241" s="231"/>
@@ -24301,7 +24301,7 @@
       <c r="L242" s="231"/>
       <c r="M242" s="232"/>
       <c r="N242" s="231" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O242" s="231"/>
       <c r="P242" s="231"/>
@@ -24383,7 +24383,7 @@
       <c r="L244" s="231"/>
       <c r="M244" s="232"/>
       <c r="N244" s="231" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O244" s="231"/>
       <c r="P244" s="231"/>
@@ -24419,7 +24419,7 @@
       <c r="L245" s="228"/>
       <c r="M245" s="228"/>
       <c r="N245" s="228" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O245" s="228"/>
       <c r="P245" s="228"/>
@@ -24621,7 +24621,7 @@
       <c r="L249" s="228"/>
       <c r="M249" s="228"/>
       <c r="N249" s="228" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O249" s="228"/>
       <c r="P249" s="228"/>
@@ -24672,7 +24672,7 @@
       <c r="L250" s="228"/>
       <c r="M250" s="228"/>
       <c r="N250" s="228" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O250" s="228"/>
       <c r="P250" s="228"/>
@@ -24723,7 +24723,7 @@
       <c r="L251" s="228"/>
       <c r="M251" s="228"/>
       <c r="N251" s="228" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O251" s="228"/>
       <c r="P251" s="228"/>
@@ -24825,7 +24825,7 @@
       <c r="L253" s="228"/>
       <c r="M253" s="228"/>
       <c r="N253" s="228" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O253" s="228"/>
       <c r="P253" s="228"/>
@@ -24927,7 +24927,7 @@
       <c r="L255" s="228"/>
       <c r="M255" s="228"/>
       <c r="N255" s="228" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O255" s="228"/>
       <c r="P255" s="228"/>
@@ -24945,7 +24945,7 @@
         <v>37</v>
       </c>
       <c r="AB255" s="230" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AC255" s="228"/>
       <c r="AD255" s="228"/>
@@ -24982,7 +24982,7 @@
       <c r="L256" s="228"/>
       <c r="M256" s="228"/>
       <c r="N256" s="228" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O256" s="228"/>
       <c r="P256" s="228"/>
@@ -25000,7 +25000,7 @@
         <v>37</v>
       </c>
       <c r="AB256" s="230" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AC256" s="228"/>
       <c r="AD256" s="228"/>
@@ -25031,7 +25031,7 @@
       <c r="K257" s="76"/>
       <c r="L257" s="231"/>
       <c r="M257" s="232" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N257" s="231"/>
       <c r="O257" s="231"/>
@@ -25063,7 +25063,7 @@
       <c r="L258" s="231"/>
       <c r="M258" s="232"/>
       <c r="N258" s="231" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O258" s="231"/>
       <c r="P258" s="231"/>
@@ -25094,7 +25094,7 @@
       <c r="L259" s="231"/>
       <c r="M259" s="232"/>
       <c r="N259" s="231" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O259" s="231"/>
       <c r="P259" s="231"/>
@@ -25176,7 +25176,7 @@
       <c r="L261" s="231"/>
       <c r="M261" s="232"/>
       <c r="N261" s="231" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O261" s="231"/>
       <c r="P261" s="231"/>
@@ -25212,7 +25212,7 @@
       <c r="L262" s="228"/>
       <c r="M262" s="228"/>
       <c r="N262" s="228" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O262" s="228"/>
       <c r="P262" s="228"/>
@@ -25414,7 +25414,7 @@
       <c r="L266" s="228"/>
       <c r="M266" s="228"/>
       <c r="N266" s="228" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O266" s="228"/>
       <c r="P266" s="228"/>
@@ -25465,7 +25465,7 @@
       <c r="L267" s="228"/>
       <c r="M267" s="228"/>
       <c r="N267" s="228" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O267" s="228"/>
       <c r="P267" s="228"/>
@@ -25516,7 +25516,7 @@
       <c r="L268" s="228"/>
       <c r="M268" s="228"/>
       <c r="N268" s="228" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O268" s="228"/>
       <c r="P268" s="228"/>
@@ -25618,7 +25618,7 @@
       <c r="L270" s="228"/>
       <c r="M270" s="228"/>
       <c r="N270" s="228" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O270" s="228"/>
       <c r="P270" s="228"/>
@@ -25720,7 +25720,7 @@
       <c r="L272" s="228"/>
       <c r="M272" s="228"/>
       <c r="N272" s="228" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O272" s="228"/>
       <c r="P272" s="228"/>
@@ -25738,7 +25738,7 @@
         <v>37</v>
       </c>
       <c r="AB272" s="230" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AC272" s="228"/>
       <c r="AD272" s="228"/>
@@ -25775,7 +25775,7 @@
       <c r="L273" s="228"/>
       <c r="M273" s="228"/>
       <c r="N273" s="228" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O273" s="228"/>
       <c r="P273" s="228"/>
@@ -25793,7 +25793,7 @@
         <v>37</v>
       </c>
       <c r="AB273" s="230" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AC273" s="228"/>
       <c r="AD273" s="228"/>
@@ -25824,7 +25824,7 @@
       <c r="K274" s="76"/>
       <c r="L274" s="231"/>
       <c r="M274" s="232" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N274" s="231"/>
       <c r="O274" s="231"/>
@@ -25856,7 +25856,7 @@
       <c r="L275" s="231"/>
       <c r="M275" s="232"/>
       <c r="N275" s="231" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O275" s="231"/>
       <c r="P275" s="231"/>
@@ -25887,7 +25887,7 @@
       <c r="L276" s="231"/>
       <c r="M276" s="232"/>
       <c r="N276" s="231" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O276" s="231"/>
       <c r="P276" s="231"/>
@@ -25969,7 +25969,7 @@
       <c r="L278" s="231"/>
       <c r="M278" s="232"/>
       <c r="N278" s="231" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O278" s="231"/>
       <c r="P278" s="231"/>
@@ -26005,7 +26005,7 @@
       <c r="L279" s="228"/>
       <c r="M279" s="228"/>
       <c r="N279" s="228" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O279" s="228"/>
       <c r="P279" s="228"/>
@@ -26207,7 +26207,7 @@
       <c r="L283" s="228"/>
       <c r="M283" s="228"/>
       <c r="N283" s="228" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O283" s="228"/>
       <c r="P283" s="228"/>
@@ -26258,7 +26258,7 @@
       <c r="L284" s="228"/>
       <c r="M284" s="228"/>
       <c r="N284" s="228" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O284" s="228"/>
       <c r="P284" s="228"/>
@@ -26309,7 +26309,7 @@
       <c r="L285" s="228"/>
       <c r="M285" s="228"/>
       <c r="N285" s="228" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O285" s="228"/>
       <c r="P285" s="228"/>
@@ -26360,7 +26360,7 @@
       <c r="L286" s="24"/>
       <c r="M286" s="24"/>
       <c r="N286" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O286" s="24"/>
       <c r="P286" s="24"/>
@@ -26462,7 +26462,7 @@
       <c r="L288" s="228"/>
       <c r="M288" s="228"/>
       <c r="N288" s="228" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O288" s="228"/>
       <c r="P288" s="228"/>
@@ -26513,7 +26513,7 @@
       <c r="L289" s="24"/>
       <c r="M289" s="24"/>
       <c r="N289" s="24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O289" s="24"/>
       <c r="P289" s="24"/>
@@ -26565,7 +26565,7 @@
       <c r="M290" s="24"/>
       <c r="N290" s="24"/>
       <c r="O290" s="24" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="P290" s="24"/>
       <c r="Q290" s="24"/>
@@ -26582,7 +26582,7 @@
         <v>122</v>
       </c>
       <c r="AB290" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AC290" s="24"/>
       <c r="AD290" s="24"/>
@@ -26620,7 +26620,7 @@
       <c r="M291" s="24"/>
       <c r="N291" s="24"/>
       <c r="O291" s="24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P291" s="24"/>
       <c r="Q291" s="24"/>
@@ -26637,7 +26637,7 @@
         <v>122</v>
       </c>
       <c r="AB291" s="24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AC291" s="24"/>
       <c r="AD291" s="24"/>
@@ -26725,7 +26725,7 @@
       <c r="L293" s="228"/>
       <c r="M293" s="228"/>
       <c r="N293" s="228" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O293" s="228"/>
       <c r="P293" s="228"/>
@@ -26743,7 +26743,7 @@
         <v>37</v>
       </c>
       <c r="AB293" s="230" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AC293" s="228"/>
       <c r="AD293" s="228"/>
@@ -26780,7 +26780,7 @@
       <c r="L294" s="228"/>
       <c r="M294" s="228"/>
       <c r="N294" s="228" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O294" s="228"/>
       <c r="P294" s="228"/>
@@ -26795,7 +26795,7 @@
       <c r="Y294" s="228"/>
       <c r="Z294" s="228"/>
       <c r="AA294" s="229" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AB294" s="230"/>
       <c r="AC294" s="228"/>
@@ -26827,7 +26827,7 @@
       <c r="K295" s="76"/>
       <c r="L295" s="231"/>
       <c r="M295" s="232" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N295" s="231"/>
       <c r="O295" s="231"/>
@@ -26859,7 +26859,7 @@
       <c r="L296" s="231"/>
       <c r="M296" s="232"/>
       <c r="N296" s="231" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O296" s="231"/>
       <c r="P296" s="231"/>
@@ -26890,7 +26890,7 @@
       <c r="L297" s="231"/>
       <c r="M297" s="232"/>
       <c r="N297" s="231" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O297" s="231"/>
       <c r="P297" s="231"/>
@@ -26926,7 +26926,7 @@
       <c r="L298" s="24"/>
       <c r="M298" s="24"/>
       <c r="N298" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O298" s="24"/>
       <c r="P298" s="24"/>
@@ -27023,7 +27023,7 @@
       <c r="L300" s="231"/>
       <c r="M300" s="232"/>
       <c r="N300" s="231" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O300" s="231"/>
       <c r="P300" s="231"/>
@@ -27059,7 +27059,7 @@
       <c r="L301" s="228"/>
       <c r="M301" s="228"/>
       <c r="N301" s="228" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O301" s="228"/>
       <c r="P301" s="228"/>
@@ -27261,7 +27261,7 @@
       <c r="L305" s="228"/>
       <c r="M305" s="228"/>
       <c r="N305" s="228" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O305" s="228"/>
       <c r="P305" s="228"/>
@@ -27312,7 +27312,7 @@
       <c r="L306" s="228"/>
       <c r="M306" s="228"/>
       <c r="N306" s="228" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O306" s="228"/>
       <c r="P306" s="228"/>
@@ -27363,7 +27363,7 @@
       <c r="L307" s="228"/>
       <c r="M307" s="228"/>
       <c r="N307" s="228" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O307" s="228"/>
       <c r="P307" s="228"/>
@@ -27414,7 +27414,7 @@
       <c r="L308" s="24"/>
       <c r="M308" s="24"/>
       <c r="N308" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O308" s="24"/>
       <c r="P308" s="24"/>
@@ -27516,7 +27516,7 @@
       <c r="L310" s="228"/>
       <c r="M310" s="228"/>
       <c r="N310" s="228" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O310" s="228"/>
       <c r="P310" s="228"/>
@@ -27567,7 +27567,7 @@
       <c r="L311" s="24"/>
       <c r="M311" s="24"/>
       <c r="N311" s="24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O311" s="24"/>
       <c r="P311" s="24"/>
@@ -27619,7 +27619,7 @@
       <c r="M312" s="24"/>
       <c r="N312" s="24"/>
       <c r="O312" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P312" s="24"/>
       <c r="Q312" s="24"/>
@@ -27636,7 +27636,7 @@
         <v>122</v>
       </c>
       <c r="AB312" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AC312" s="24"/>
       <c r="AD312" s="24"/>
@@ -27674,7 +27674,7 @@
       <c r="M313" s="24"/>
       <c r="N313" s="24"/>
       <c r="O313" s="24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P313" s="24"/>
       <c r="Q313" s="24"/>
@@ -27691,7 +27691,7 @@
         <v>122</v>
       </c>
       <c r="AB313" s="24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AC313" s="24"/>
       <c r="AD313" s="24"/>
@@ -27779,7 +27779,7 @@
       <c r="L315" s="228"/>
       <c r="M315" s="228"/>
       <c r="N315" s="228" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O315" s="228"/>
       <c r="P315" s="228"/>
@@ -27797,7 +27797,7 @@
         <v>37</v>
       </c>
       <c r="AB315" s="230" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AC315" s="228"/>
       <c r="AD315" s="228"/>
@@ -27834,7 +27834,7 @@
       <c r="L316" s="228"/>
       <c r="M316" s="228"/>
       <c r="N316" s="228" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O316" s="228"/>
       <c r="P316" s="228"/>
@@ -27852,7 +27852,7 @@
         <v>37</v>
       </c>
       <c r="AB316" s="230" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AC316" s="228"/>
       <c r="AD316" s="228"/>
@@ -27883,7 +27883,7 @@
       <c r="K317" s="76"/>
       <c r="L317" s="231"/>
       <c r="M317" s="232" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N317" s="231"/>
       <c r="O317" s="231"/>
@@ -27915,7 +27915,7 @@
       <c r="L318" s="231"/>
       <c r="M318" s="232"/>
       <c r="N318" s="231" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O318" s="231"/>
       <c r="P318" s="231"/>
@@ -27946,7 +27946,7 @@
       <c r="L319" s="231"/>
       <c r="M319" s="232"/>
       <c r="N319" s="231" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O319" s="231"/>
       <c r="P319" s="231"/>
@@ -27982,7 +27982,7 @@
       <c r="L320" s="24"/>
       <c r="M320" s="24"/>
       <c r="N320" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O320" s="24"/>
       <c r="P320" s="24"/>
@@ -28079,7 +28079,7 @@
       <c r="L322" s="231"/>
       <c r="M322" s="232"/>
       <c r="N322" s="231" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O322" s="231"/>
       <c r="P322" s="231"/>
@@ -28115,7 +28115,7 @@
       <c r="L323" s="228"/>
       <c r="M323" s="228"/>
       <c r="N323" s="228" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O323" s="228"/>
       <c r="P323" s="228"/>
@@ -28317,7 +28317,7 @@
       <c r="L327" s="228"/>
       <c r="M327" s="228"/>
       <c r="N327" s="228" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O327" s="228"/>
       <c r="P327" s="228"/>
@@ -28368,7 +28368,7 @@
       <c r="L328" s="228"/>
       <c r="M328" s="228"/>
       <c r="N328" s="228" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O328" s="228"/>
       <c r="P328" s="228"/>
@@ -28419,7 +28419,7 @@
       <c r="L329" s="228"/>
       <c r="M329" s="228"/>
       <c r="N329" s="228" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O329" s="228"/>
       <c r="P329" s="228"/>
@@ -28470,7 +28470,7 @@
       <c r="L330" s="24"/>
       <c r="M330" s="24"/>
       <c r="N330" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O330" s="24"/>
       <c r="P330" s="24"/>
@@ -28572,7 +28572,7 @@
       <c r="L332" s="228"/>
       <c r="M332" s="228"/>
       <c r="N332" s="228" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O332" s="228"/>
       <c r="P332" s="228"/>
@@ -28623,7 +28623,7 @@
       <c r="L333" s="24"/>
       <c r="M333" s="24"/>
       <c r="N333" s="24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O333" s="24"/>
       <c r="P333" s="24"/>
@@ -28675,7 +28675,7 @@
       <c r="M334" s="24"/>
       <c r="N334" s="24"/>
       <c r="O334" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P334" s="24"/>
       <c r="Q334" s="24"/>
@@ -28692,7 +28692,7 @@
         <v>122</v>
       </c>
       <c r="AB334" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AC334" s="24"/>
       <c r="AD334" s="24"/>
@@ -28730,7 +28730,7 @@
       <c r="M335" s="24"/>
       <c r="N335" s="24"/>
       <c r="O335" s="24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P335" s="24"/>
       <c r="Q335" s="24"/>
@@ -28747,7 +28747,7 @@
         <v>122</v>
       </c>
       <c r="AB335" s="24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AC335" s="24"/>
       <c r="AD335" s="24"/>
@@ -28835,7 +28835,7 @@
       <c r="L337" s="228"/>
       <c r="M337" s="228"/>
       <c r="N337" s="228" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O337" s="228"/>
       <c r="P337" s="228"/>
@@ -28853,7 +28853,7 @@
         <v>37</v>
       </c>
       <c r="AB337" s="230" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AC337" s="228"/>
       <c r="AD337" s="228"/>
@@ -28884,7 +28884,7 @@
       <c r="K338" s="76"/>
       <c r="L338" s="231"/>
       <c r="M338" s="232" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N338" s="231"/>
       <c r="O338" s="231"/>
@@ -28916,7 +28916,7 @@
       <c r="L339" s="231"/>
       <c r="M339" s="232"/>
       <c r="N339" s="231" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O339" s="231"/>
       <c r="P339" s="231"/>
@@ -28947,7 +28947,7 @@
       <c r="L340" s="231"/>
       <c r="M340" s="232"/>
       <c r="N340" s="231" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O340" s="231"/>
       <c r="P340" s="231"/>
@@ -28983,7 +28983,7 @@
       <c r="L341" s="24"/>
       <c r="M341" s="24"/>
       <c r="N341" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O341" s="24"/>
       <c r="P341" s="24"/>
@@ -29080,7 +29080,7 @@
       <c r="L343" s="231"/>
       <c r="M343" s="232"/>
       <c r="N343" s="231" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O343" s="231"/>
       <c r="P343" s="231"/>
@@ -29116,7 +29116,7 @@
       <c r="L344" s="228"/>
       <c r="M344" s="228"/>
       <c r="N344" s="228" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O344" s="228"/>
       <c r="P344" s="228"/>
@@ -29318,7 +29318,7 @@
       <c r="L348" s="228"/>
       <c r="M348" s="228"/>
       <c r="N348" s="228" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O348" s="228"/>
       <c r="P348" s="228"/>
@@ -29369,7 +29369,7 @@
       <c r="L349" s="228"/>
       <c r="M349" s="228"/>
       <c r="N349" s="228" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O349" s="228"/>
       <c r="P349" s="228"/>
@@ -29420,7 +29420,7 @@
       <c r="L350" s="228"/>
       <c r="M350" s="228"/>
       <c r="N350" s="228" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O350" s="228"/>
       <c r="P350" s="228"/>
@@ -29471,7 +29471,7 @@
       <c r="L351" s="24"/>
       <c r="M351" s="24"/>
       <c r="N351" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O351" s="24"/>
       <c r="P351" s="24"/>
@@ -29573,7 +29573,7 @@
       <c r="L353" s="228"/>
       <c r="M353" s="228"/>
       <c r="N353" s="228" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O353" s="228"/>
       <c r="P353" s="228"/>
@@ -29624,7 +29624,7 @@
       <c r="L354" s="24"/>
       <c r="M354" s="24"/>
       <c r="N354" s="24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O354" s="24"/>
       <c r="P354" s="24"/>
@@ -29676,7 +29676,7 @@
       <c r="M355" s="24"/>
       <c r="N355" s="24"/>
       <c r="O355" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P355" s="24"/>
       <c r="Q355" s="24"/>
@@ -29693,7 +29693,7 @@
         <v>122</v>
       </c>
       <c r="AB355" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AC355" s="24"/>
       <c r="AD355" s="24"/>
@@ -29731,7 +29731,7 @@
       <c r="M356" s="24"/>
       <c r="N356" s="24"/>
       <c r="O356" s="24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P356" s="24"/>
       <c r="Q356" s="24"/>
@@ -29748,7 +29748,7 @@
         <v>122</v>
       </c>
       <c r="AB356" s="24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AC356" s="24"/>
       <c r="AD356" s="24"/>
@@ -29836,7 +29836,7 @@
       <c r="L358" s="228"/>
       <c r="M358" s="228"/>
       <c r="N358" s="228" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O358" s="228"/>
       <c r="P358" s="228"/>
@@ -29854,7 +29854,7 @@
         <v>37</v>
       </c>
       <c r="AB358" s="230" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AC358" s="228"/>
       <c r="AD358" s="228"/>
@@ -29885,7 +29885,7 @@
       <c r="K359" s="76"/>
       <c r="L359" s="231"/>
       <c r="M359" s="232" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N359" s="231"/>
       <c r="O359" s="231"/>
@@ -29917,7 +29917,7 @@
       <c r="L360" s="231"/>
       <c r="M360" s="232"/>
       <c r="N360" s="231" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O360" s="231"/>
       <c r="P360" s="231"/>
@@ -29948,7 +29948,7 @@
       <c r="L361" s="231"/>
       <c r="M361" s="232"/>
       <c r="N361" s="231" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O361" s="231"/>
       <c r="P361" s="231"/>
@@ -29984,7 +29984,7 @@
       <c r="L362" s="24"/>
       <c r="M362" s="24"/>
       <c r="N362" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O362" s="24"/>
       <c r="P362" s="24"/>
@@ -30081,7 +30081,7 @@
       <c r="L364" s="231"/>
       <c r="M364" s="232"/>
       <c r="N364" s="231" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O364" s="231"/>
       <c r="P364" s="231"/>
@@ -30117,7 +30117,7 @@
       <c r="L365" s="228"/>
       <c r="M365" s="228"/>
       <c r="N365" s="228" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O365" s="228"/>
       <c r="P365" s="228"/>
@@ -30319,7 +30319,7 @@
       <c r="L369" s="228"/>
       <c r="M369" s="228"/>
       <c r="N369" s="228" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O369" s="228"/>
       <c r="P369" s="228"/>
@@ -30370,7 +30370,7 @@
       <c r="L370" s="228"/>
       <c r="M370" s="228"/>
       <c r="N370" s="228" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O370" s="228"/>
       <c r="P370" s="228"/>
@@ -30421,7 +30421,7 @@
       <c r="L371" s="228"/>
       <c r="M371" s="228"/>
       <c r="N371" s="228" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O371" s="228"/>
       <c r="P371" s="228"/>
@@ -30472,7 +30472,7 @@
       <c r="L372" s="24"/>
       <c r="M372" s="24"/>
       <c r="N372" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O372" s="24"/>
       <c r="P372" s="24"/>
@@ -30574,7 +30574,7 @@
       <c r="L374" s="228"/>
       <c r="M374" s="228"/>
       <c r="N374" s="228" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O374" s="228"/>
       <c r="P374" s="228"/>
@@ -30625,7 +30625,7 @@
       <c r="L375" s="24"/>
       <c r="M375" s="24"/>
       <c r="N375" s="225" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O375" s="225"/>
       <c r="P375" s="225"/>
@@ -30677,7 +30677,7 @@
       <c r="M376" s="24"/>
       <c r="N376" s="24"/>
       <c r="O376" s="225" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P376" s="225"/>
       <c r="Q376" s="225"/>
@@ -30694,7 +30694,7 @@
         <v>122</v>
       </c>
       <c r="AB376" s="225" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AC376" s="225"/>
       <c r="AD376" s="225"/>
@@ -30732,7 +30732,7 @@
       <c r="M377" s="24"/>
       <c r="N377" s="24"/>
       <c r="O377" s="225" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P377" s="225"/>
       <c r="Q377" s="225"/>
@@ -30749,7 +30749,7 @@
         <v>122</v>
       </c>
       <c r="AB377" s="225" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AC377" s="225"/>
       <c r="AD377" s="225"/>
@@ -30837,7 +30837,7 @@
       <c r="L379" s="228"/>
       <c r="M379" s="228"/>
       <c r="N379" s="228" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O379" s="228"/>
       <c r="P379" s="228"/>
@@ -30855,7 +30855,7 @@
         <v>37</v>
       </c>
       <c r="AB379" s="230" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AC379" s="228"/>
       <c r="AD379" s="228"/>
@@ -30886,7 +30886,7 @@
       <c r="K380" s="76"/>
       <c r="L380" s="231"/>
       <c r="M380" s="232" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N380" s="231"/>
       <c r="O380" s="231"/>
@@ -30918,7 +30918,7 @@
       <c r="L381" s="231"/>
       <c r="M381" s="232"/>
       <c r="N381" s="231" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O381" s="231"/>
       <c r="P381" s="231"/>
@@ -30949,7 +30949,7 @@
       <c r="L382" s="231"/>
       <c r="M382" s="232"/>
       <c r="N382" s="231" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O382" s="231"/>
       <c r="P382" s="231"/>
@@ -30985,7 +30985,7 @@
       <c r="L383" s="24"/>
       <c r="M383" s="24"/>
       <c r="N383" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O383" s="24"/>
       <c r="P383" s="24"/>
@@ -31082,7 +31082,7 @@
       <c r="L385" s="231"/>
       <c r="M385" s="232"/>
       <c r="N385" s="231" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O385" s="231"/>
       <c r="P385" s="231"/>
@@ -31118,7 +31118,7 @@
       <c r="L386" s="228"/>
       <c r="M386" s="228"/>
       <c r="N386" s="228" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O386" s="228"/>
       <c r="P386" s="228"/>
@@ -31320,7 +31320,7 @@
       <c r="L390" s="228"/>
       <c r="M390" s="228"/>
       <c r="N390" s="228" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O390" s="228"/>
       <c r="P390" s="228"/>
@@ -31371,7 +31371,7 @@
       <c r="L391" s="228"/>
       <c r="M391" s="228"/>
       <c r="N391" s="228" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O391" s="228"/>
       <c r="P391" s="228"/>
@@ -31422,7 +31422,7 @@
       <c r="L392" s="228"/>
       <c r="M392" s="228"/>
       <c r="N392" s="228" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O392" s="228"/>
       <c r="P392" s="228"/>
@@ -31473,7 +31473,7 @@
       <c r="L393" s="24"/>
       <c r="M393" s="24"/>
       <c r="N393" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O393" s="24"/>
       <c r="P393" s="24"/>
@@ -31575,7 +31575,7 @@
       <c r="L395" s="228"/>
       <c r="M395" s="228"/>
       <c r="N395" s="228" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O395" s="228"/>
       <c r="P395" s="228"/>
@@ -31626,7 +31626,7 @@
       <c r="L396" s="24"/>
       <c r="M396" s="24"/>
       <c r="N396" s="225" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O396" s="225"/>
       <c r="P396" s="225"/>
@@ -31678,7 +31678,7 @@
       <c r="M397" s="24"/>
       <c r="N397" s="24"/>
       <c r="O397" s="225" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P397" s="225"/>
       <c r="Q397" s="225"/>
@@ -31695,7 +31695,7 @@
         <v>122</v>
       </c>
       <c r="AB397" s="225" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AC397" s="225"/>
       <c r="AD397" s="225"/>
@@ -31733,7 +31733,7 @@
       <c r="M398" s="24"/>
       <c r="N398" s="24"/>
       <c r="O398" s="225" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P398" s="225"/>
       <c r="Q398" s="225"/>
@@ -31750,7 +31750,7 @@
         <v>122</v>
       </c>
       <c r="AB398" s="225" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AC398" s="225"/>
       <c r="AD398" s="225"/>
@@ -31838,7 +31838,7 @@
       <c r="L400" s="228"/>
       <c r="M400" s="228"/>
       <c r="N400" s="228" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O400" s="228"/>
       <c r="P400" s="228"/>
@@ -31856,7 +31856,7 @@
         <v>37</v>
       </c>
       <c r="AB400" s="230" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AC400" s="228"/>
       <c r="AD400" s="228"/>
@@ -31887,7 +31887,7 @@
       <c r="K401" s="76"/>
       <c r="L401" s="231"/>
       <c r="M401" s="232" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N401" s="231"/>
       <c r="O401" s="231"/>
@@ -31919,7 +31919,7 @@
       <c r="L402" s="231"/>
       <c r="M402" s="232"/>
       <c r="N402" s="231" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O402" s="231"/>
       <c r="P402" s="231"/>
@@ -31950,7 +31950,7 @@
       <c r="L403" s="231"/>
       <c r="M403" s="232"/>
       <c r="N403" s="231" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O403" s="231"/>
       <c r="P403" s="231"/>
@@ -31986,7 +31986,7 @@
       <c r="L404" s="24"/>
       <c r="M404" s="24"/>
       <c r="N404" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O404" s="24"/>
       <c r="P404" s="24"/>
@@ -32083,7 +32083,7 @@
       <c r="L406" s="231"/>
       <c r="M406" s="232"/>
       <c r="N406" s="231" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O406" s="231"/>
       <c r="P406" s="231"/>
@@ -32119,7 +32119,7 @@
       <c r="L407" s="228"/>
       <c r="M407" s="228"/>
       <c r="N407" s="228" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O407" s="228"/>
       <c r="P407" s="228"/>
@@ -32376,7 +32376,7 @@
       <c r="L412" s="228"/>
       <c r="M412" s="228"/>
       <c r="N412" s="228" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O412" s="228"/>
       <c r="P412" s="228"/>
@@ -32771,7 +32771,7 @@
       <c r="L421" s="24"/>
       <c r="M421" s="24"/>
       <c r="N421" s="78" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O421" s="24"/>
       <c r="P421" s="24"/>
@@ -32789,7 +32789,7 @@
         <v>37</v>
       </c>
       <c r="AB421" s="111" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC421" s="24"/>
       <c r="AD421" s="24"/>
@@ -32938,7 +32938,7 @@
       <c r="L424" s="228"/>
       <c r="M424" s="228"/>
       <c r="N424" s="225" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O424" s="225"/>
       <c r="P424" s="225"/>
@@ -32956,7 +32956,7 @@
         <v>37</v>
       </c>
       <c r="AB424" s="227" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AC424" s="225"/>
       <c r="AD424" s="225"/>
@@ -32987,7 +32987,7 @@
       <c r="K425" s="76"/>
       <c r="L425" s="231"/>
       <c r="M425" s="232" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N425" s="231"/>
       <c r="O425" s="231"/>
@@ -33050,7 +33050,7 @@
       <c r="L427" s="231"/>
       <c r="M427" s="232"/>
       <c r="N427" s="231" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O427" s="231"/>
       <c r="P427" s="231"/>
@@ -41044,7 +41044,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="289">
+      <c r="AI1" s="283">
         <f>変更履歴!E5</f>
         <v>43717</v>
       </c>
@@ -41060,7 +41060,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="292" t="str">
+      <c r="AT1" s="286" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -41131,7 +41131,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="292"/>
+      <c r="AT2" s="286"/>
       <c r="AU2" s="297"/>
       <c r="AV2" s="297"/>
       <c r="AW2" s="297"/>
@@ -45752,7 +45752,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="289">
+      <c r="AI1" s="283">
         <f>変更履歴!E5</f>
         <v>43717</v>
       </c>
@@ -45768,7 +45768,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="292" t="str">
+      <c r="AT1" s="286" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -45839,7 +45839,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="292"/>
+      <c r="AT2" s="286"/>
       <c r="AU2" s="297"/>
       <c r="AV2" s="297"/>
       <c r="AW2" s="297"/>
@@ -46058,12 +46058,12 @@
       <c r="M9" s="312" t="s">
         <v>354</v>
       </c>
-      <c r="N9" s="322"/>
+      <c r="N9" s="316"/>
       <c r="O9" s="313"/>
-      <c r="P9" s="316" t="s">
+      <c r="P9" s="318" t="s">
         <v>355</v>
       </c>
-      <c r="Q9" s="318"/>
+      <c r="Q9" s="319"/>
     </row>
     <row r="10" spans="1:52" s="126" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C10" s="131" t="s">
@@ -46079,9 +46079,9 @@
       <c r="K10" s="314"/>
       <c r="L10" s="315"/>
       <c r="M10" s="314"/>
-      <c r="N10" s="323"/>
+      <c r="N10" s="317"/>
       <c r="O10" s="315"/>
-      <c r="P10" s="319"/>
+      <c r="P10" s="320"/>
       <c r="Q10" s="321"/>
     </row>
     <row r="11" spans="1:52" s="126" customFormat="1" x14ac:dyDescent="0.15">
@@ -46484,16 +46484,16 @@
         <v>205</v>
       </c>
       <c r="N23" s="313"/>
-      <c r="O23" s="316" t="s">
+      <c r="O23" s="318" t="s">
         <v>206</v>
       </c>
-      <c r="P23" s="317"/>
-      <c r="Q23" s="318"/>
-      <c r="R23" s="316" t="s">
+      <c r="P23" s="322"/>
+      <c r="Q23" s="319"/>
+      <c r="R23" s="318" t="s">
         <v>207</v>
       </c>
-      <c r="S23" s="317"/>
-      <c r="T23" s="318"/>
+      <c r="S23" s="322"/>
+      <c r="T23" s="319"/>
       <c r="U23" s="312" t="s">
         <v>208</v>
       </c>
@@ -46553,11 +46553,11 @@
       <c r="L24" s="315"/>
       <c r="M24" s="314"/>
       <c r="N24" s="315"/>
-      <c r="O24" s="319"/>
-      <c r="P24" s="320"/>
+      <c r="O24" s="320"/>
+      <c r="P24" s="323"/>
       <c r="Q24" s="321"/>
-      <c r="R24" s="319"/>
-      <c r="S24" s="320"/>
+      <c r="R24" s="320"/>
+      <c r="S24" s="323"/>
       <c r="T24" s="321"/>
       <c r="U24" s="314"/>
       <c r="V24" s="315"/>
@@ -47170,16 +47170,16 @@
         <v>205</v>
       </c>
       <c r="N33" s="313"/>
-      <c r="O33" s="316" t="s">
+      <c r="O33" s="318" t="s">
         <v>206</v>
       </c>
-      <c r="P33" s="317"/>
-      <c r="Q33" s="318"/>
-      <c r="R33" s="316" t="s">
+      <c r="P33" s="322"/>
+      <c r="Q33" s="319"/>
+      <c r="R33" s="318" t="s">
         <v>207</v>
       </c>
-      <c r="S33" s="317"/>
-      <c r="T33" s="318"/>
+      <c r="S33" s="322"/>
+      <c r="T33" s="319"/>
       <c r="U33" s="312" t="s">
         <v>208</v>
       </c>
@@ -47239,11 +47239,11 @@
       <c r="L34" s="315"/>
       <c r="M34" s="314"/>
       <c r="N34" s="315"/>
-      <c r="O34" s="319"/>
-      <c r="P34" s="320"/>
+      <c r="O34" s="320"/>
+      <c r="P34" s="323"/>
       <c r="Q34" s="321"/>
-      <c r="R34" s="319"/>
-      <c r="S34" s="320"/>
+      <c r="R34" s="320"/>
+      <c r="S34" s="323"/>
       <c r="T34" s="321"/>
       <c r="U34" s="314"/>
       <c r="V34" s="315"/>
@@ -48294,16 +48294,16 @@
         <v>205</v>
       </c>
       <c r="N49" s="313"/>
-      <c r="O49" s="316" t="s">
+      <c r="O49" s="318" t="s">
         <v>206</v>
       </c>
-      <c r="P49" s="317"/>
-      <c r="Q49" s="318"/>
-      <c r="R49" s="316" t="s">
+      <c r="P49" s="322"/>
+      <c r="Q49" s="319"/>
+      <c r="R49" s="318" t="s">
         <v>207</v>
       </c>
-      <c r="S49" s="317"/>
-      <c r="T49" s="318"/>
+      <c r="S49" s="322"/>
+      <c r="T49" s="319"/>
       <c r="U49" s="312" t="s">
         <v>208</v>
       </c>
@@ -48363,11 +48363,11 @@
       <c r="L50" s="315"/>
       <c r="M50" s="314"/>
       <c r="N50" s="315"/>
-      <c r="O50" s="319"/>
-      <c r="P50" s="320"/>
+      <c r="O50" s="320"/>
+      <c r="P50" s="323"/>
       <c r="Q50" s="321"/>
-      <c r="R50" s="319"/>
-      <c r="S50" s="320"/>
+      <c r="R50" s="320"/>
+      <c r="S50" s="323"/>
       <c r="T50" s="321"/>
       <c r="U50" s="314"/>
       <c r="V50" s="315"/>
@@ -59614,13 +59614,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="M9:O10"/>
-    <mergeCell ref="P9:Q10"/>
-    <mergeCell ref="O23:Q24"/>
-    <mergeCell ref="R23:T24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="M23:N24"/>
+    <mergeCell ref="K49:L50"/>
+    <mergeCell ref="M49:N50"/>
+    <mergeCell ref="O49:Q50"/>
+    <mergeCell ref="K33:L34"/>
+    <mergeCell ref="M33:N34"/>
+    <mergeCell ref="O33:Q34"/>
     <mergeCell ref="R49:T50"/>
     <mergeCell ref="U49:V50"/>
     <mergeCell ref="AT1:AZ1"/>
@@ -59631,12 +59630,13 @@
     <mergeCell ref="U33:V34"/>
     <mergeCell ref="R33:T34"/>
     <mergeCell ref="U23:V24"/>
-    <mergeCell ref="K49:L50"/>
-    <mergeCell ref="M49:N50"/>
-    <mergeCell ref="O49:Q50"/>
-    <mergeCell ref="K33:L34"/>
-    <mergeCell ref="M33:N34"/>
-    <mergeCell ref="O33:Q34"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="M9:O10"/>
+    <mergeCell ref="P9:Q10"/>
+    <mergeCell ref="O23:Q24"/>
+    <mergeCell ref="R23:T24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="M23:N24"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -63850,15 +63850,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -64016,6 +64007,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
@@ -64033,14 +64033,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -64056,4 +64048,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K13A_当日詳細実績参照.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K13A_当日詳細実績参照.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83967411-9201-46CD-BBA2-A41385206F83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF6B8A4-5D58-4891-8336-60101910FEA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1648,10 +1648,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>Search condition</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>(検索条件)</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -2954,6 +2950,23 @@
     <t>LEFT JOIN 作業計画データ</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Search </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>criteria</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -2963,7 +2976,7 @@
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3295,6 +3308,14 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="MS UI Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -4340,6 +4361,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4367,90 +4473,17 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="28" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -4475,18 +4508,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4551,13 +4572,10 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4566,14 +4584,17 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="9" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5542,7 +5563,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$40" spid="_x0000_s3195"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$40" spid="_x0000_s3197"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7014,1770 +7035,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="54"/>
-      <c r="B1" s="243" t="s">
+      <c r="B1" s="274" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="243"/>
-      <c r="I1" s="243"/>
-      <c r="J1" s="243"/>
-      <c r="K1" s="243"/>
-      <c r="L1" s="243"/>
-      <c r="M1" s="243"/>
-      <c r="N1" s="243"/>
-      <c r="O1" s="243"/>
-      <c r="P1" s="243"/>
-      <c r="Q1" s="243"/>
-      <c r="R1" s="243"/>
-      <c r="S1" s="243"/>
-      <c r="T1" s="243"/>
-      <c r="U1" s="243"/>
-      <c r="V1" s="243"/>
-      <c r="W1" s="243"/>
-      <c r="X1" s="243"/>
-      <c r="Y1" s="243"/>
-      <c r="Z1" s="243"/>
-      <c r="AA1" s="243"/>
-      <c r="AB1" s="243"/>
-      <c r="AC1" s="243"/>
-      <c r="AD1" s="243"/>
-      <c r="AE1" s="243"/>
-      <c r="AF1" s="243"/>
-      <c r="AG1" s="243"/>
-      <c r="AH1" s="243"/>
-      <c r="AI1" s="243"/>
-      <c r="AJ1" s="243"/>
-      <c r="AK1" s="243"/>
-      <c r="AL1" s="243"/>
-      <c r="AM1" s="243"/>
-      <c r="AN1" s="243"/>
-      <c r="AO1" s="243"/>
-      <c r="AP1" s="243"/>
-      <c r="AQ1" s="243"/>
-      <c r="AR1" s="243"/>
-      <c r="AS1" s="243"/>
-      <c r="AT1" s="243"/>
-      <c r="AU1" s="243"/>
-      <c r="AV1" s="243"/>
-      <c r="AW1" s="243"/>
+      <c r="C1" s="274"/>
+      <c r="D1" s="274"/>
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="274"/>
+      <c r="K1" s="274"/>
+      <c r="L1" s="274"/>
+      <c r="M1" s="274"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="274"/>
+      <c r="P1" s="274"/>
+      <c r="Q1" s="274"/>
+      <c r="R1" s="274"/>
+      <c r="S1" s="274"/>
+      <c r="T1" s="274"/>
+      <c r="U1" s="274"/>
+      <c r="V1" s="274"/>
+      <c r="W1" s="274"/>
+      <c r="X1" s="274"/>
+      <c r="Y1" s="274"/>
+      <c r="Z1" s="274"/>
+      <c r="AA1" s="274"/>
+      <c r="AB1" s="274"/>
+      <c r="AC1" s="274"/>
+      <c r="AD1" s="274"/>
+      <c r="AE1" s="274"/>
+      <c r="AF1" s="274"/>
+      <c r="AG1" s="274"/>
+      <c r="AH1" s="274"/>
+      <c r="AI1" s="274"/>
+      <c r="AJ1" s="274"/>
+      <c r="AK1" s="274"/>
+      <c r="AL1" s="274"/>
+      <c r="AM1" s="274"/>
+      <c r="AN1" s="274"/>
+      <c r="AO1" s="274"/>
+      <c r="AP1" s="274"/>
+      <c r="AQ1" s="274"/>
+      <c r="AR1" s="274"/>
+      <c r="AS1" s="274"/>
+      <c r="AT1" s="274"/>
+      <c r="AU1" s="274"/>
+      <c r="AV1" s="274"/>
+      <c r="AW1" s="274"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="244"/>
-      <c r="I2" s="244"/>
-      <c r="J2" s="244"/>
-      <c r="K2" s="244"/>
-      <c r="L2" s="244"/>
-      <c r="M2" s="244"/>
-      <c r="N2" s="244"/>
-      <c r="O2" s="244"/>
-      <c r="P2" s="244"/>
-      <c r="Q2" s="244"/>
-      <c r="R2" s="244"/>
-      <c r="S2" s="244"/>
-      <c r="T2" s="244"/>
-      <c r="U2" s="244"/>
-      <c r="V2" s="244"/>
-      <c r="W2" s="244"/>
-      <c r="X2" s="244"/>
-      <c r="Y2" s="244"/>
-      <c r="Z2" s="244"/>
-      <c r="AA2" s="244"/>
-      <c r="AB2" s="244"/>
-      <c r="AC2" s="244"/>
-      <c r="AD2" s="244"/>
-      <c r="AE2" s="244"/>
-      <c r="AF2" s="244"/>
-      <c r="AG2" s="244"/>
-      <c r="AH2" s="244"/>
-      <c r="AI2" s="244"/>
-      <c r="AJ2" s="244"/>
-      <c r="AK2" s="244"/>
-      <c r="AL2" s="244"/>
-      <c r="AM2" s="244"/>
-      <c r="AN2" s="244"/>
-      <c r="AO2" s="244"/>
-      <c r="AP2" s="244"/>
-      <c r="AQ2" s="244"/>
-      <c r="AR2" s="244"/>
-      <c r="AS2" s="244"/>
-      <c r="AT2" s="244"/>
-      <c r="AU2" s="244"/>
-      <c r="AV2" s="244"/>
-      <c r="AW2" s="244"/>
+      <c r="B2" s="275"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
+      <c r="G2" s="275"/>
+      <c r="H2" s="275"/>
+      <c r="I2" s="275"/>
+      <c r="J2" s="275"/>
+      <c r="K2" s="275"/>
+      <c r="L2" s="275"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="275"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="275"/>
+      <c r="U2" s="275"/>
+      <c r="V2" s="275"/>
+      <c r="W2" s="275"/>
+      <c r="X2" s="275"/>
+      <c r="Y2" s="275"/>
+      <c r="Z2" s="275"/>
+      <c r="AA2" s="275"/>
+      <c r="AB2" s="275"/>
+      <c r="AC2" s="275"/>
+      <c r="AD2" s="275"/>
+      <c r="AE2" s="275"/>
+      <c r="AF2" s="275"/>
+      <c r="AG2" s="275"/>
+      <c r="AH2" s="275"/>
+      <c r="AI2" s="275"/>
+      <c r="AJ2" s="275"/>
+      <c r="AK2" s="275"/>
+      <c r="AL2" s="275"/>
+      <c r="AM2" s="275"/>
+      <c r="AN2" s="275"/>
+      <c r="AO2" s="275"/>
+      <c r="AP2" s="275"/>
+      <c r="AQ2" s="275"/>
+      <c r="AR2" s="275"/>
+      <c r="AS2" s="275"/>
+      <c r="AT2" s="275"/>
+      <c r="AU2" s="275"/>
+      <c r="AV2" s="275"/>
+      <c r="AW2" s="275"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
-      <c r="B3" s="245" t="s">
+      <c r="B3" s="276" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="245"/>
-      <c r="D3" s="245"/>
-      <c r="E3" s="245" t="s">
+      <c r="C3" s="276"/>
+      <c r="D3" s="276"/>
+      <c r="E3" s="276" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="245"/>
-      <c r="G3" s="245"/>
-      <c r="H3" s="245"/>
-      <c r="I3" s="245"/>
-      <c r="J3" s="246" t="s">
+      <c r="F3" s="276"/>
+      <c r="G3" s="276"/>
+      <c r="H3" s="276"/>
+      <c r="I3" s="276"/>
+      <c r="J3" s="277" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="247"/>
-      <c r="L3" s="248"/>
-      <c r="M3" s="246" t="s">
+      <c r="K3" s="278"/>
+      <c r="L3" s="279"/>
+      <c r="M3" s="277" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="247"/>
-      <c r="O3" s="247"/>
-      <c r="P3" s="247"/>
-      <c r="Q3" s="247"/>
-      <c r="R3" s="248"/>
-      <c r="S3" s="245" t="s">
+      <c r="N3" s="278"/>
+      <c r="O3" s="278"/>
+      <c r="P3" s="278"/>
+      <c r="Q3" s="278"/>
+      <c r="R3" s="279"/>
+      <c r="S3" s="276" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="245"/>
-      <c r="U3" s="245"/>
-      <c r="V3" s="245" t="s">
+      <c r="T3" s="276"/>
+      <c r="U3" s="276"/>
+      <c r="V3" s="276" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="245"/>
-      <c r="X3" s="245"/>
-      <c r="Y3" s="245"/>
-      <c r="Z3" s="245"/>
-      <c r="AA3" s="245"/>
-      <c r="AB3" s="245"/>
-      <c r="AC3" s="245"/>
-      <c r="AD3" s="245"/>
-      <c r="AE3" s="245"/>
-      <c r="AF3" s="245"/>
-      <c r="AG3" s="245"/>
-      <c r="AH3" s="245"/>
-      <c r="AI3" s="245"/>
-      <c r="AJ3" s="245"/>
-      <c r="AK3" s="245"/>
-      <c r="AL3" s="245"/>
-      <c r="AM3" s="245"/>
-      <c r="AN3" s="245" t="s">
+      <c r="W3" s="276"/>
+      <c r="X3" s="276"/>
+      <c r="Y3" s="276"/>
+      <c r="Z3" s="276"/>
+      <c r="AA3" s="276"/>
+      <c r="AB3" s="276"/>
+      <c r="AC3" s="276"/>
+      <c r="AD3" s="276"/>
+      <c r="AE3" s="276"/>
+      <c r="AF3" s="276"/>
+      <c r="AG3" s="276"/>
+      <c r="AH3" s="276"/>
+      <c r="AI3" s="276"/>
+      <c r="AJ3" s="276"/>
+      <c r="AK3" s="276"/>
+      <c r="AL3" s="276"/>
+      <c r="AM3" s="276"/>
+      <c r="AN3" s="276" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="245"/>
-      <c r="AP3" s="245"/>
-      <c r="AQ3" s="245"/>
-      <c r="AR3" s="245"/>
-      <c r="AS3" s="245" t="s">
+      <c r="AO3" s="276"/>
+      <c r="AP3" s="276"/>
+      <c r="AQ3" s="276"/>
+      <c r="AR3" s="276"/>
+      <c r="AS3" s="276" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="245"/>
-      <c r="AU3" s="245"/>
-      <c r="AV3" s="245"/>
-      <c r="AW3" s="245"/>
+      <c r="AT3" s="276"/>
+      <c r="AU3" s="276"/>
+      <c r="AV3" s="276"/>
+      <c r="AW3" s="276"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
-      <c r="B4" s="245"/>
-      <c r="C4" s="245"/>
-      <c r="D4" s="245"/>
-      <c r="E4" s="245"/>
-      <c r="F4" s="245"/>
-      <c r="G4" s="245"/>
-      <c r="H4" s="245"/>
-      <c r="I4" s="245"/>
-      <c r="J4" s="249"/>
-      <c r="K4" s="250"/>
-      <c r="L4" s="251"/>
-      <c r="M4" s="249"/>
-      <c r="N4" s="250"/>
-      <c r="O4" s="250"/>
-      <c r="P4" s="250"/>
-      <c r="Q4" s="250"/>
-      <c r="R4" s="251"/>
-      <c r="S4" s="245"/>
-      <c r="T4" s="245"/>
-      <c r="U4" s="245"/>
-      <c r="V4" s="245"/>
-      <c r="W4" s="245"/>
-      <c r="X4" s="245"/>
-      <c r="Y4" s="245"/>
-      <c r="Z4" s="245"/>
-      <c r="AA4" s="245"/>
-      <c r="AB4" s="245"/>
-      <c r="AC4" s="245"/>
-      <c r="AD4" s="245"/>
-      <c r="AE4" s="245"/>
-      <c r="AF4" s="245"/>
-      <c r="AG4" s="245"/>
-      <c r="AH4" s="245"/>
-      <c r="AI4" s="245"/>
-      <c r="AJ4" s="245"/>
-      <c r="AK4" s="245"/>
-      <c r="AL4" s="245"/>
-      <c r="AM4" s="245"/>
-      <c r="AN4" s="245"/>
-      <c r="AO4" s="245"/>
-      <c r="AP4" s="245"/>
-      <c r="AQ4" s="245"/>
-      <c r="AR4" s="245"/>
-      <c r="AS4" s="245"/>
-      <c r="AT4" s="245"/>
-      <c r="AU4" s="245"/>
-      <c r="AV4" s="245"/>
-      <c r="AW4" s="245"/>
+      <c r="B4" s="276"/>
+      <c r="C4" s="276"/>
+      <c r="D4" s="276"/>
+      <c r="E4" s="276"/>
+      <c r="F4" s="276"/>
+      <c r="G4" s="276"/>
+      <c r="H4" s="276"/>
+      <c r="I4" s="276"/>
+      <c r="J4" s="280"/>
+      <c r="K4" s="281"/>
+      <c r="L4" s="282"/>
+      <c r="M4" s="280"/>
+      <c r="N4" s="281"/>
+      <c r="O4" s="281"/>
+      <c r="P4" s="281"/>
+      <c r="Q4" s="281"/>
+      <c r="R4" s="282"/>
+      <c r="S4" s="276"/>
+      <c r="T4" s="276"/>
+      <c r="U4" s="276"/>
+      <c r="V4" s="276"/>
+      <c r="W4" s="276"/>
+      <c r="X4" s="276"/>
+      <c r="Y4" s="276"/>
+      <c r="Z4" s="276"/>
+      <c r="AA4" s="276"/>
+      <c r="AB4" s="276"/>
+      <c r="AC4" s="276"/>
+      <c r="AD4" s="276"/>
+      <c r="AE4" s="276"/>
+      <c r="AF4" s="276"/>
+      <c r="AG4" s="276"/>
+      <c r="AH4" s="276"/>
+      <c r="AI4" s="276"/>
+      <c r="AJ4" s="276"/>
+      <c r="AK4" s="276"/>
+      <c r="AL4" s="276"/>
+      <c r="AM4" s="276"/>
+      <c r="AN4" s="276"/>
+      <c r="AO4" s="276"/>
+      <c r="AP4" s="276"/>
+      <c r="AQ4" s="276"/>
+      <c r="AR4" s="276"/>
+      <c r="AS4" s="276"/>
+      <c r="AT4" s="276"/>
+      <c r="AU4" s="276"/>
+      <c r="AV4" s="276"/>
+      <c r="AW4" s="276"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
-      <c r="B5" s="253">
+      <c r="B5" s="268">
         <v>1</v>
       </c>
-      <c r="C5" s="253"/>
-      <c r="D5" s="253"/>
-      <c r="E5" s="254">
+      <c r="C5" s="268"/>
+      <c r="D5" s="268"/>
+      <c r="E5" s="249">
         <v>43717</v>
       </c>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="254"/>
-      <c r="I5" s="254"/>
-      <c r="J5" s="255" t="s">
+      <c r="F5" s="249"/>
+      <c r="G5" s="249"/>
+      <c r="H5" s="249"/>
+      <c r="I5" s="249"/>
+      <c r="J5" s="250" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="256"/>
-      <c r="L5" s="257"/>
-      <c r="M5" s="255" t="s">
+      <c r="K5" s="251"/>
+      <c r="L5" s="252"/>
+      <c r="M5" s="250" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="256"/>
-      <c r="O5" s="256"/>
-      <c r="P5" s="256"/>
-      <c r="Q5" s="256"/>
-      <c r="R5" s="257"/>
-      <c r="S5" s="252" t="s">
+      <c r="N5" s="251"/>
+      <c r="O5" s="251"/>
+      <c r="P5" s="251"/>
+      <c r="Q5" s="251"/>
+      <c r="R5" s="252"/>
+      <c r="S5" s="256" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="252"/>
-      <c r="U5" s="252"/>
-      <c r="V5" s="261" t="s">
+      <c r="T5" s="256"/>
+      <c r="U5" s="256"/>
+      <c r="V5" s="267" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="261"/>
-      <c r="X5" s="261"/>
-      <c r="Y5" s="261"/>
-      <c r="Z5" s="261"/>
-      <c r="AA5" s="261"/>
-      <c r="AB5" s="261"/>
-      <c r="AC5" s="261"/>
-      <c r="AD5" s="261"/>
-      <c r="AE5" s="261"/>
-      <c r="AF5" s="261"/>
-      <c r="AG5" s="261"/>
-      <c r="AH5" s="261"/>
-      <c r="AI5" s="261"/>
-      <c r="AJ5" s="261"/>
-      <c r="AK5" s="261"/>
-      <c r="AL5" s="261"/>
-      <c r="AM5" s="261"/>
-      <c r="AN5" s="252" t="s">
+      <c r="W5" s="267"/>
+      <c r="X5" s="267"/>
+      <c r="Y5" s="267"/>
+      <c r="Z5" s="267"/>
+      <c r="AA5" s="267"/>
+      <c r="AB5" s="267"/>
+      <c r="AC5" s="267"/>
+      <c r="AD5" s="267"/>
+      <c r="AE5" s="267"/>
+      <c r="AF5" s="267"/>
+      <c r="AG5" s="267"/>
+      <c r="AH5" s="267"/>
+      <c r="AI5" s="267"/>
+      <c r="AJ5" s="267"/>
+      <c r="AK5" s="267"/>
+      <c r="AL5" s="267"/>
+      <c r="AM5" s="267"/>
+      <c r="AN5" s="256" t="s">
         <v>108</v>
       </c>
-      <c r="AO5" s="252"/>
-      <c r="AP5" s="252"/>
-      <c r="AQ5" s="252"/>
-      <c r="AR5" s="252"/>
-      <c r="AS5" s="252"/>
-      <c r="AT5" s="252"/>
-      <c r="AU5" s="252"/>
-      <c r="AV5" s="252"/>
-      <c r="AW5" s="252"/>
+      <c r="AO5" s="256"/>
+      <c r="AP5" s="256"/>
+      <c r="AQ5" s="256"/>
+      <c r="AR5" s="256"/>
+      <c r="AS5" s="256"/>
+      <c r="AT5" s="256"/>
+      <c r="AU5" s="256"/>
+      <c r="AV5" s="256"/>
+      <c r="AW5" s="256"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="56"/>
-      <c r="B6" s="253"/>
-      <c r="C6" s="253"/>
-      <c r="D6" s="253"/>
-      <c r="E6" s="254"/>
-      <c r="F6" s="254"/>
-      <c r="G6" s="254"/>
-      <c r="H6" s="254"/>
-      <c r="I6" s="254"/>
-      <c r="J6" s="255"/>
-      <c r="K6" s="256"/>
-      <c r="L6" s="257"/>
-      <c r="M6" s="258"/>
-      <c r="N6" s="259"/>
-      <c r="O6" s="259"/>
-      <c r="P6" s="259"/>
-      <c r="Q6" s="259"/>
-      <c r="R6" s="260"/>
-      <c r="S6" s="252"/>
-      <c r="T6" s="252"/>
-      <c r="U6" s="252"/>
-      <c r="V6" s="261"/>
-      <c r="W6" s="261"/>
-      <c r="X6" s="261"/>
-      <c r="Y6" s="261"/>
-      <c r="Z6" s="261"/>
-      <c r="AA6" s="261"/>
-      <c r="AB6" s="261"/>
-      <c r="AC6" s="261"/>
-      <c r="AD6" s="261"/>
-      <c r="AE6" s="261"/>
-      <c r="AF6" s="261"/>
-      <c r="AG6" s="261"/>
-      <c r="AH6" s="261"/>
-      <c r="AI6" s="261"/>
-      <c r="AJ6" s="261"/>
-      <c r="AK6" s="261"/>
-      <c r="AL6" s="261"/>
-      <c r="AM6" s="261"/>
-      <c r="AN6" s="252"/>
-      <c r="AO6" s="252"/>
-      <c r="AP6" s="252"/>
-      <c r="AQ6" s="252"/>
-      <c r="AR6" s="252"/>
-      <c r="AS6" s="252"/>
-      <c r="AT6" s="252"/>
-      <c r="AU6" s="252"/>
-      <c r="AV6" s="252"/>
-      <c r="AW6" s="252"/>
+      <c r="B6" s="268"/>
+      <c r="C6" s="268"/>
+      <c r="D6" s="268"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="249"/>
+      <c r="I6" s="249"/>
+      <c r="J6" s="250"/>
+      <c r="K6" s="251"/>
+      <c r="L6" s="252"/>
+      <c r="M6" s="271"/>
+      <c r="N6" s="272"/>
+      <c r="O6" s="272"/>
+      <c r="P6" s="272"/>
+      <c r="Q6" s="272"/>
+      <c r="R6" s="273"/>
+      <c r="S6" s="256"/>
+      <c r="T6" s="256"/>
+      <c r="U6" s="256"/>
+      <c r="V6" s="267"/>
+      <c r="W6" s="267"/>
+      <c r="X6" s="267"/>
+      <c r="Y6" s="267"/>
+      <c r="Z6" s="267"/>
+      <c r="AA6" s="267"/>
+      <c r="AB6" s="267"/>
+      <c r="AC6" s="267"/>
+      <c r="AD6" s="267"/>
+      <c r="AE6" s="267"/>
+      <c r="AF6" s="267"/>
+      <c r="AG6" s="267"/>
+      <c r="AH6" s="267"/>
+      <c r="AI6" s="267"/>
+      <c r="AJ6" s="267"/>
+      <c r="AK6" s="267"/>
+      <c r="AL6" s="267"/>
+      <c r="AM6" s="267"/>
+      <c r="AN6" s="256"/>
+      <c r="AO6" s="256"/>
+      <c r="AP6" s="256"/>
+      <c r="AQ6" s="256"/>
+      <c r="AR6" s="256"/>
+      <c r="AS6" s="256"/>
+      <c r="AT6" s="256"/>
+      <c r="AU6" s="256"/>
+      <c r="AV6" s="256"/>
+      <c r="AW6" s="256"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
-      <c r="B7" s="253"/>
-      <c r="C7" s="253"/>
-      <c r="D7" s="253"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="254"/>
-      <c r="H7" s="254"/>
-      <c r="I7" s="254"/>
-      <c r="J7" s="255"/>
-      <c r="K7" s="256"/>
-      <c r="L7" s="257"/>
-      <c r="M7" s="258"/>
-      <c r="N7" s="259"/>
-      <c r="O7" s="259"/>
-      <c r="P7" s="259"/>
-      <c r="Q7" s="259"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="252"/>
-      <c r="T7" s="252"/>
-      <c r="U7" s="252"/>
-      <c r="V7" s="261"/>
-      <c r="W7" s="261"/>
-      <c r="X7" s="261"/>
-      <c r="Y7" s="261"/>
-      <c r="Z7" s="261"/>
-      <c r="AA7" s="261"/>
-      <c r="AB7" s="261"/>
-      <c r="AC7" s="261"/>
-      <c r="AD7" s="261"/>
-      <c r="AE7" s="261"/>
-      <c r="AF7" s="261"/>
-      <c r="AG7" s="261"/>
-      <c r="AH7" s="261"/>
-      <c r="AI7" s="261"/>
-      <c r="AJ7" s="261"/>
-      <c r="AK7" s="261"/>
-      <c r="AL7" s="261"/>
-      <c r="AM7" s="261"/>
-      <c r="AN7" s="252"/>
-      <c r="AO7" s="252"/>
-      <c r="AP7" s="252"/>
-      <c r="AQ7" s="252"/>
-      <c r="AR7" s="252"/>
-      <c r="AS7" s="252"/>
-      <c r="AT7" s="252"/>
-      <c r="AU7" s="252"/>
-      <c r="AV7" s="252"/>
-      <c r="AW7" s="252"/>
+      <c r="B7" s="268"/>
+      <c r="C7" s="268"/>
+      <c r="D7" s="268"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="249"/>
+      <c r="I7" s="249"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251"/>
+      <c r="L7" s="252"/>
+      <c r="M7" s="271"/>
+      <c r="N7" s="272"/>
+      <c r="O7" s="272"/>
+      <c r="P7" s="272"/>
+      <c r="Q7" s="272"/>
+      <c r="R7" s="273"/>
+      <c r="S7" s="256"/>
+      <c r="T7" s="256"/>
+      <c r="U7" s="256"/>
+      <c r="V7" s="267"/>
+      <c r="W7" s="267"/>
+      <c r="X7" s="267"/>
+      <c r="Y7" s="267"/>
+      <c r="Z7" s="267"/>
+      <c r="AA7" s="267"/>
+      <c r="AB7" s="267"/>
+      <c r="AC7" s="267"/>
+      <c r="AD7" s="267"/>
+      <c r="AE7" s="267"/>
+      <c r="AF7" s="267"/>
+      <c r="AG7" s="267"/>
+      <c r="AH7" s="267"/>
+      <c r="AI7" s="267"/>
+      <c r="AJ7" s="267"/>
+      <c r="AK7" s="267"/>
+      <c r="AL7" s="267"/>
+      <c r="AM7" s="267"/>
+      <c r="AN7" s="256"/>
+      <c r="AO7" s="256"/>
+      <c r="AP7" s="256"/>
+      <c r="AQ7" s="256"/>
+      <c r="AR7" s="256"/>
+      <c r="AS7" s="256"/>
+      <c r="AT7" s="256"/>
+      <c r="AU7" s="256"/>
+      <c r="AV7" s="256"/>
+      <c r="AW7" s="256"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
-      <c r="B8" s="253"/>
-      <c r="C8" s="253"/>
-      <c r="D8" s="253"/>
-      <c r="E8" s="254"/>
-      <c r="F8" s="254"/>
-      <c r="G8" s="254"/>
-      <c r="H8" s="254"/>
-      <c r="I8" s="254"/>
-      <c r="J8" s="255"/>
-      <c r="K8" s="256"/>
-      <c r="L8" s="257"/>
-      <c r="M8" s="258"/>
-      <c r="N8" s="259"/>
-      <c r="O8" s="259"/>
-      <c r="P8" s="259"/>
-      <c r="Q8" s="259"/>
-      <c r="R8" s="260"/>
-      <c r="S8" s="252"/>
-      <c r="T8" s="252"/>
-      <c r="U8" s="252"/>
-      <c r="V8" s="261"/>
-      <c r="W8" s="261"/>
-      <c r="X8" s="261"/>
-      <c r="Y8" s="261"/>
-      <c r="Z8" s="261"/>
-      <c r="AA8" s="261"/>
-      <c r="AB8" s="261"/>
-      <c r="AC8" s="261"/>
-      <c r="AD8" s="261"/>
-      <c r="AE8" s="261"/>
-      <c r="AF8" s="261"/>
-      <c r="AG8" s="261"/>
-      <c r="AH8" s="261"/>
-      <c r="AI8" s="261"/>
-      <c r="AJ8" s="261"/>
-      <c r="AK8" s="261"/>
-      <c r="AL8" s="261"/>
-      <c r="AM8" s="261"/>
-      <c r="AN8" s="252"/>
-      <c r="AO8" s="252"/>
-      <c r="AP8" s="252"/>
-      <c r="AQ8" s="252"/>
-      <c r="AR8" s="252"/>
-      <c r="AS8" s="252"/>
-      <c r="AT8" s="252"/>
-      <c r="AU8" s="252"/>
-      <c r="AV8" s="252"/>
-      <c r="AW8" s="252"/>
+      <c r="B8" s="268"/>
+      <c r="C8" s="268"/>
+      <c r="D8" s="268"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="249"/>
+      <c r="I8" s="249"/>
+      <c r="J8" s="250"/>
+      <c r="K8" s="251"/>
+      <c r="L8" s="252"/>
+      <c r="M8" s="271"/>
+      <c r="N8" s="272"/>
+      <c r="O8" s="272"/>
+      <c r="P8" s="272"/>
+      <c r="Q8" s="272"/>
+      <c r="R8" s="273"/>
+      <c r="S8" s="256"/>
+      <c r="T8" s="256"/>
+      <c r="U8" s="256"/>
+      <c r="V8" s="267"/>
+      <c r="W8" s="267"/>
+      <c r="X8" s="267"/>
+      <c r="Y8" s="267"/>
+      <c r="Z8" s="267"/>
+      <c r="AA8" s="267"/>
+      <c r="AB8" s="267"/>
+      <c r="AC8" s="267"/>
+      <c r="AD8" s="267"/>
+      <c r="AE8" s="267"/>
+      <c r="AF8" s="267"/>
+      <c r="AG8" s="267"/>
+      <c r="AH8" s="267"/>
+      <c r="AI8" s="267"/>
+      <c r="AJ8" s="267"/>
+      <c r="AK8" s="267"/>
+      <c r="AL8" s="267"/>
+      <c r="AM8" s="267"/>
+      <c r="AN8" s="256"/>
+      <c r="AO8" s="256"/>
+      <c r="AP8" s="256"/>
+      <c r="AQ8" s="256"/>
+      <c r="AR8" s="256"/>
+      <c r="AS8" s="256"/>
+      <c r="AT8" s="256"/>
+      <c r="AU8" s="256"/>
+      <c r="AV8" s="256"/>
+      <c r="AW8" s="256"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
-      <c r="B9" s="253"/>
-      <c r="C9" s="253"/>
-      <c r="D9" s="253"/>
-      <c r="E9" s="254"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="254"/>
-      <c r="H9" s="254"/>
-      <c r="I9" s="254"/>
-      <c r="J9" s="255"/>
-      <c r="K9" s="256"/>
-      <c r="L9" s="257"/>
-      <c r="M9" s="258"/>
-      <c r="N9" s="259"/>
-      <c r="O9" s="259"/>
-      <c r="P9" s="259"/>
-      <c r="Q9" s="259"/>
-      <c r="R9" s="260"/>
-      <c r="S9" s="252"/>
-      <c r="T9" s="252"/>
-      <c r="U9" s="252"/>
-      <c r="V9" s="261"/>
-      <c r="W9" s="261"/>
-      <c r="X9" s="261"/>
-      <c r="Y9" s="261"/>
-      <c r="Z9" s="261"/>
-      <c r="AA9" s="261"/>
-      <c r="AB9" s="261"/>
-      <c r="AC9" s="261"/>
-      <c r="AD9" s="261"/>
-      <c r="AE9" s="261"/>
-      <c r="AF9" s="261"/>
-      <c r="AG9" s="261"/>
-      <c r="AH9" s="261"/>
-      <c r="AI9" s="261"/>
-      <c r="AJ9" s="261"/>
-      <c r="AK9" s="261"/>
-      <c r="AL9" s="261"/>
-      <c r="AM9" s="261"/>
-      <c r="AN9" s="252"/>
-      <c r="AO9" s="252"/>
-      <c r="AP9" s="252"/>
-      <c r="AQ9" s="252"/>
-      <c r="AR9" s="252"/>
-      <c r="AS9" s="252"/>
-      <c r="AT9" s="252"/>
-      <c r="AU9" s="252"/>
-      <c r="AV9" s="252"/>
-      <c r="AW9" s="252"/>
+      <c r="B9" s="268"/>
+      <c r="C9" s="268"/>
+      <c r="D9" s="268"/>
+      <c r="E9" s="249"/>
+      <c r="F9" s="249"/>
+      <c r="G9" s="249"/>
+      <c r="H9" s="249"/>
+      <c r="I9" s="249"/>
+      <c r="J9" s="250"/>
+      <c r="K9" s="251"/>
+      <c r="L9" s="252"/>
+      <c r="M9" s="271"/>
+      <c r="N9" s="272"/>
+      <c r="O9" s="272"/>
+      <c r="P9" s="272"/>
+      <c r="Q9" s="272"/>
+      <c r="R9" s="273"/>
+      <c r="S9" s="256"/>
+      <c r="T9" s="256"/>
+      <c r="U9" s="256"/>
+      <c r="V9" s="267"/>
+      <c r="W9" s="267"/>
+      <c r="X9" s="267"/>
+      <c r="Y9" s="267"/>
+      <c r="Z9" s="267"/>
+      <c r="AA9" s="267"/>
+      <c r="AB9" s="267"/>
+      <c r="AC9" s="267"/>
+      <c r="AD9" s="267"/>
+      <c r="AE9" s="267"/>
+      <c r="AF9" s="267"/>
+      <c r="AG9" s="267"/>
+      <c r="AH9" s="267"/>
+      <c r="AI9" s="267"/>
+      <c r="AJ9" s="267"/>
+      <c r="AK9" s="267"/>
+      <c r="AL9" s="267"/>
+      <c r="AM9" s="267"/>
+      <c r="AN9" s="256"/>
+      <c r="AO9" s="256"/>
+      <c r="AP9" s="256"/>
+      <c r="AQ9" s="256"/>
+      <c r="AR9" s="256"/>
+      <c r="AS9" s="256"/>
+      <c r="AT9" s="256"/>
+      <c r="AU9" s="256"/>
+      <c r="AV9" s="256"/>
+      <c r="AW9" s="256"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
-      <c r="B10" s="253"/>
-      <c r="C10" s="253"/>
-      <c r="D10" s="253"/>
-      <c r="E10" s="254"/>
-      <c r="F10" s="254"/>
-      <c r="G10" s="254"/>
-      <c r="H10" s="254"/>
-      <c r="I10" s="254"/>
-      <c r="J10" s="255"/>
-      <c r="K10" s="256"/>
-      <c r="L10" s="257"/>
-      <c r="M10" s="258"/>
-      <c r="N10" s="259"/>
-      <c r="O10" s="259"/>
-      <c r="P10" s="259"/>
-      <c r="Q10" s="259"/>
-      <c r="R10" s="260"/>
-      <c r="S10" s="252"/>
-      <c r="T10" s="252"/>
-      <c r="U10" s="252"/>
-      <c r="V10" s="261"/>
-      <c r="W10" s="261"/>
-      <c r="X10" s="261"/>
-      <c r="Y10" s="261"/>
-      <c r="Z10" s="261"/>
-      <c r="AA10" s="261"/>
-      <c r="AB10" s="261"/>
-      <c r="AC10" s="261"/>
-      <c r="AD10" s="261"/>
-      <c r="AE10" s="261"/>
-      <c r="AF10" s="261"/>
-      <c r="AG10" s="261"/>
-      <c r="AH10" s="261"/>
-      <c r="AI10" s="261"/>
-      <c r="AJ10" s="261"/>
-      <c r="AK10" s="261"/>
-      <c r="AL10" s="261"/>
-      <c r="AM10" s="261"/>
-      <c r="AN10" s="252"/>
-      <c r="AO10" s="252"/>
-      <c r="AP10" s="252"/>
-      <c r="AQ10" s="252"/>
-      <c r="AR10" s="252"/>
-      <c r="AS10" s="252"/>
-      <c r="AT10" s="252"/>
-      <c r="AU10" s="252"/>
-      <c r="AV10" s="252"/>
-      <c r="AW10" s="252"/>
+      <c r="B10" s="268"/>
+      <c r="C10" s="268"/>
+      <c r="D10" s="268"/>
+      <c r="E10" s="249"/>
+      <c r="F10" s="249"/>
+      <c r="G10" s="249"/>
+      <c r="H10" s="249"/>
+      <c r="I10" s="249"/>
+      <c r="J10" s="250"/>
+      <c r="K10" s="251"/>
+      <c r="L10" s="252"/>
+      <c r="M10" s="271"/>
+      <c r="N10" s="272"/>
+      <c r="O10" s="272"/>
+      <c r="P10" s="272"/>
+      <c r="Q10" s="272"/>
+      <c r="R10" s="273"/>
+      <c r="S10" s="256"/>
+      <c r="T10" s="256"/>
+      <c r="U10" s="256"/>
+      <c r="V10" s="267"/>
+      <c r="W10" s="267"/>
+      <c r="X10" s="267"/>
+      <c r="Y10" s="267"/>
+      <c r="Z10" s="267"/>
+      <c r="AA10" s="267"/>
+      <c r="AB10" s="267"/>
+      <c r="AC10" s="267"/>
+      <c r="AD10" s="267"/>
+      <c r="AE10" s="267"/>
+      <c r="AF10" s="267"/>
+      <c r="AG10" s="267"/>
+      <c r="AH10" s="267"/>
+      <c r="AI10" s="267"/>
+      <c r="AJ10" s="267"/>
+      <c r="AK10" s="267"/>
+      <c r="AL10" s="267"/>
+      <c r="AM10" s="267"/>
+      <c r="AN10" s="256"/>
+      <c r="AO10" s="256"/>
+      <c r="AP10" s="256"/>
+      <c r="AQ10" s="256"/>
+      <c r="AR10" s="256"/>
+      <c r="AS10" s="256"/>
+      <c r="AT10" s="256"/>
+      <c r="AU10" s="256"/>
+      <c r="AV10" s="256"/>
+      <c r="AW10" s="256"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="253"/>
-      <c r="C11" s="253"/>
-      <c r="D11" s="253"/>
-      <c r="E11" s="254"/>
-      <c r="F11" s="254"/>
-      <c r="G11" s="254"/>
-      <c r="H11" s="254"/>
-      <c r="I11" s="254"/>
-      <c r="J11" s="255"/>
-      <c r="K11" s="256"/>
-      <c r="L11" s="257"/>
-      <c r="M11" s="265"/>
-      <c r="N11" s="266"/>
-      <c r="O11" s="266"/>
-      <c r="P11" s="266"/>
-      <c r="Q11" s="266"/>
-      <c r="R11" s="267"/>
-      <c r="S11" s="252"/>
-      <c r="T11" s="252"/>
-      <c r="U11" s="252"/>
-      <c r="V11" s="268"/>
-      <c r="W11" s="274"/>
-      <c r="X11" s="274"/>
-      <c r="Y11" s="274"/>
-      <c r="Z11" s="274"/>
-      <c r="AA11" s="274"/>
-      <c r="AB11" s="274"/>
-      <c r="AC11" s="274"/>
-      <c r="AD11" s="274"/>
-      <c r="AE11" s="274"/>
-      <c r="AF11" s="274"/>
-      <c r="AG11" s="274"/>
-      <c r="AH11" s="274"/>
-      <c r="AI11" s="274"/>
-      <c r="AJ11" s="274"/>
-      <c r="AK11" s="274"/>
-      <c r="AL11" s="274"/>
-      <c r="AM11" s="275"/>
-      <c r="AN11" s="252"/>
-      <c r="AO11" s="252"/>
-      <c r="AP11" s="252"/>
-      <c r="AQ11" s="252"/>
-      <c r="AR11" s="252"/>
-      <c r="AS11" s="252"/>
-      <c r="AT11" s="252"/>
-      <c r="AU11" s="252"/>
-      <c r="AV11" s="252"/>
-      <c r="AW11" s="252"/>
+      <c r="B11" s="268"/>
+      <c r="C11" s="268"/>
+      <c r="D11" s="268"/>
+      <c r="E11" s="249"/>
+      <c r="F11" s="249"/>
+      <c r="G11" s="249"/>
+      <c r="H11" s="249"/>
+      <c r="I11" s="249"/>
+      <c r="J11" s="250"/>
+      <c r="K11" s="251"/>
+      <c r="L11" s="252"/>
+      <c r="M11" s="263"/>
+      <c r="N11" s="261"/>
+      <c r="O11" s="261"/>
+      <c r="P11" s="261"/>
+      <c r="Q11" s="261"/>
+      <c r="R11" s="262"/>
+      <c r="S11" s="256"/>
+      <c r="T11" s="256"/>
+      <c r="U11" s="256"/>
+      <c r="V11" s="257"/>
+      <c r="W11" s="269"/>
+      <c r="X11" s="269"/>
+      <c r="Y11" s="269"/>
+      <c r="Z11" s="269"/>
+      <c r="AA11" s="269"/>
+      <c r="AB11" s="269"/>
+      <c r="AC11" s="269"/>
+      <c r="AD11" s="269"/>
+      <c r="AE11" s="269"/>
+      <c r="AF11" s="269"/>
+      <c r="AG11" s="269"/>
+      <c r="AH11" s="269"/>
+      <c r="AI11" s="269"/>
+      <c r="AJ11" s="269"/>
+      <c r="AK11" s="269"/>
+      <c r="AL11" s="269"/>
+      <c r="AM11" s="270"/>
+      <c r="AN11" s="256"/>
+      <c r="AO11" s="256"/>
+      <c r="AP11" s="256"/>
+      <c r="AQ11" s="256"/>
+      <c r="AR11" s="256"/>
+      <c r="AS11" s="256"/>
+      <c r="AT11" s="256"/>
+      <c r="AU11" s="256"/>
+      <c r="AV11" s="256"/>
+      <c r="AW11" s="256"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="262"/>
-      <c r="C12" s="263"/>
-      <c r="D12" s="264"/>
-      <c r="E12" s="254"/>
-      <c r="F12" s="254"/>
-      <c r="G12" s="254"/>
-      <c r="H12" s="254"/>
-      <c r="I12" s="254"/>
-      <c r="J12" s="255"/>
-      <c r="K12" s="256"/>
-      <c r="L12" s="257"/>
-      <c r="M12" s="265"/>
-      <c r="N12" s="266"/>
-      <c r="O12" s="266"/>
-      <c r="P12" s="266"/>
-      <c r="Q12" s="266"/>
-      <c r="R12" s="267"/>
-      <c r="S12" s="252"/>
-      <c r="T12" s="252"/>
-      <c r="U12" s="252"/>
-      <c r="V12" s="268"/>
-      <c r="W12" s="269"/>
-      <c r="X12" s="269"/>
-      <c r="Y12" s="269"/>
-      <c r="Z12" s="269"/>
-      <c r="AA12" s="269"/>
-      <c r="AB12" s="269"/>
-      <c r="AC12" s="269"/>
-      <c r="AD12" s="269"/>
-      <c r="AE12" s="269"/>
-      <c r="AF12" s="269"/>
-      <c r="AG12" s="269"/>
-      <c r="AH12" s="269"/>
-      <c r="AI12" s="269"/>
-      <c r="AJ12" s="269"/>
-      <c r="AK12" s="269"/>
-      <c r="AL12" s="269"/>
-      <c r="AM12" s="270"/>
-      <c r="AN12" s="271"/>
-      <c r="AO12" s="272"/>
-      <c r="AP12" s="272"/>
-      <c r="AQ12" s="272"/>
-      <c r="AR12" s="273"/>
-      <c r="AS12" s="271"/>
-      <c r="AT12" s="272"/>
-      <c r="AU12" s="272"/>
-      <c r="AV12" s="272"/>
-      <c r="AW12" s="273"/>
+      <c r="B12" s="246"/>
+      <c r="C12" s="247"/>
+      <c r="D12" s="248"/>
+      <c r="E12" s="249"/>
+      <c r="F12" s="249"/>
+      <c r="G12" s="249"/>
+      <c r="H12" s="249"/>
+      <c r="I12" s="249"/>
+      <c r="J12" s="250"/>
+      <c r="K12" s="251"/>
+      <c r="L12" s="252"/>
+      <c r="M12" s="263"/>
+      <c r="N12" s="261"/>
+      <c r="O12" s="261"/>
+      <c r="P12" s="261"/>
+      <c r="Q12" s="261"/>
+      <c r="R12" s="262"/>
+      <c r="S12" s="256"/>
+      <c r="T12" s="256"/>
+      <c r="U12" s="256"/>
+      <c r="V12" s="257"/>
+      <c r="W12" s="258"/>
+      <c r="X12" s="258"/>
+      <c r="Y12" s="258"/>
+      <c r="Z12" s="258"/>
+      <c r="AA12" s="258"/>
+      <c r="AB12" s="258"/>
+      <c r="AC12" s="258"/>
+      <c r="AD12" s="258"/>
+      <c r="AE12" s="258"/>
+      <c r="AF12" s="258"/>
+      <c r="AG12" s="258"/>
+      <c r="AH12" s="258"/>
+      <c r="AI12" s="258"/>
+      <c r="AJ12" s="258"/>
+      <c r="AK12" s="258"/>
+      <c r="AL12" s="258"/>
+      <c r="AM12" s="259"/>
+      <c r="AN12" s="243"/>
+      <c r="AO12" s="244"/>
+      <c r="AP12" s="244"/>
+      <c r="AQ12" s="244"/>
+      <c r="AR12" s="245"/>
+      <c r="AS12" s="243"/>
+      <c r="AT12" s="244"/>
+      <c r="AU12" s="244"/>
+      <c r="AV12" s="244"/>
+      <c r="AW12" s="245"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
-      <c r="B13" s="262"/>
-      <c r="C13" s="263"/>
-      <c r="D13" s="264"/>
-      <c r="E13" s="254"/>
-      <c r="F13" s="254"/>
-      <c r="G13" s="254"/>
-      <c r="H13" s="254"/>
-      <c r="I13" s="254"/>
-      <c r="J13" s="255"/>
-      <c r="K13" s="256"/>
-      <c r="L13" s="257"/>
-      <c r="M13" s="276"/>
-      <c r="N13" s="266"/>
-      <c r="O13" s="266"/>
-      <c r="P13" s="266"/>
-      <c r="Q13" s="266"/>
-      <c r="R13" s="267"/>
-      <c r="S13" s="252"/>
-      <c r="T13" s="252"/>
-      <c r="U13" s="252"/>
-      <c r="V13" s="268"/>
-      <c r="W13" s="269"/>
-      <c r="X13" s="269"/>
-      <c r="Y13" s="269"/>
-      <c r="Z13" s="269"/>
-      <c r="AA13" s="269"/>
-      <c r="AB13" s="269"/>
-      <c r="AC13" s="269"/>
-      <c r="AD13" s="269"/>
-      <c r="AE13" s="269"/>
-      <c r="AF13" s="269"/>
-      <c r="AG13" s="269"/>
-      <c r="AH13" s="269"/>
-      <c r="AI13" s="269"/>
-      <c r="AJ13" s="269"/>
-      <c r="AK13" s="269"/>
-      <c r="AL13" s="269"/>
-      <c r="AM13" s="270"/>
-      <c r="AN13" s="271"/>
-      <c r="AO13" s="272"/>
-      <c r="AP13" s="272"/>
-      <c r="AQ13" s="272"/>
-      <c r="AR13" s="273"/>
-      <c r="AS13" s="271"/>
-      <c r="AT13" s="272"/>
-      <c r="AU13" s="272"/>
-      <c r="AV13" s="272"/>
-      <c r="AW13" s="273"/>
+      <c r="B13" s="246"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="248"/>
+      <c r="E13" s="249"/>
+      <c r="F13" s="249"/>
+      <c r="G13" s="249"/>
+      <c r="H13" s="249"/>
+      <c r="I13" s="249"/>
+      <c r="J13" s="250"/>
+      <c r="K13" s="251"/>
+      <c r="L13" s="252"/>
+      <c r="M13" s="260"/>
+      <c r="N13" s="261"/>
+      <c r="O13" s="261"/>
+      <c r="P13" s="261"/>
+      <c r="Q13" s="261"/>
+      <c r="R13" s="262"/>
+      <c r="S13" s="256"/>
+      <c r="T13" s="256"/>
+      <c r="U13" s="256"/>
+      <c r="V13" s="257"/>
+      <c r="W13" s="258"/>
+      <c r="X13" s="258"/>
+      <c r="Y13" s="258"/>
+      <c r="Z13" s="258"/>
+      <c r="AA13" s="258"/>
+      <c r="AB13" s="258"/>
+      <c r="AC13" s="258"/>
+      <c r="AD13" s="258"/>
+      <c r="AE13" s="258"/>
+      <c r="AF13" s="258"/>
+      <c r="AG13" s="258"/>
+      <c r="AH13" s="258"/>
+      <c r="AI13" s="258"/>
+      <c r="AJ13" s="258"/>
+      <c r="AK13" s="258"/>
+      <c r="AL13" s="258"/>
+      <c r="AM13" s="259"/>
+      <c r="AN13" s="243"/>
+      <c r="AO13" s="244"/>
+      <c r="AP13" s="244"/>
+      <c r="AQ13" s="244"/>
+      <c r="AR13" s="245"/>
+      <c r="AS13" s="243"/>
+      <c r="AT13" s="244"/>
+      <c r="AU13" s="244"/>
+      <c r="AV13" s="244"/>
+      <c r="AW13" s="245"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
-      <c r="B14" s="262"/>
-      <c r="C14" s="263"/>
-      <c r="D14" s="264"/>
-      <c r="E14" s="254"/>
-      <c r="F14" s="254"/>
-      <c r="G14" s="254"/>
-      <c r="H14" s="254"/>
-      <c r="I14" s="254"/>
-      <c r="J14" s="255"/>
-      <c r="K14" s="256"/>
-      <c r="L14" s="257"/>
-      <c r="M14" s="276"/>
-      <c r="N14" s="266"/>
-      <c r="O14" s="266"/>
-      <c r="P14" s="266"/>
-      <c r="Q14" s="266"/>
-      <c r="R14" s="267"/>
-      <c r="S14" s="252"/>
-      <c r="T14" s="252"/>
-      <c r="U14" s="252"/>
-      <c r="V14" s="277"/>
-      <c r="W14" s="261"/>
-      <c r="X14" s="261"/>
-      <c r="Y14" s="261"/>
-      <c r="Z14" s="261"/>
-      <c r="AA14" s="261"/>
-      <c r="AB14" s="261"/>
-      <c r="AC14" s="261"/>
-      <c r="AD14" s="261"/>
-      <c r="AE14" s="261"/>
-      <c r="AF14" s="261"/>
-      <c r="AG14" s="261"/>
-      <c r="AH14" s="261"/>
-      <c r="AI14" s="261"/>
-      <c r="AJ14" s="261"/>
-      <c r="AK14" s="261"/>
-      <c r="AL14" s="261"/>
-      <c r="AM14" s="261"/>
-      <c r="AN14" s="252"/>
-      <c r="AO14" s="252"/>
-      <c r="AP14" s="252"/>
-      <c r="AQ14" s="252"/>
-      <c r="AR14" s="252"/>
-      <c r="AS14" s="271"/>
-      <c r="AT14" s="272"/>
-      <c r="AU14" s="272"/>
-      <c r="AV14" s="272"/>
-      <c r="AW14" s="273"/>
+      <c r="B14" s="246"/>
+      <c r="C14" s="247"/>
+      <c r="D14" s="248"/>
+      <c r="E14" s="249"/>
+      <c r="F14" s="249"/>
+      <c r="G14" s="249"/>
+      <c r="H14" s="249"/>
+      <c r="I14" s="249"/>
+      <c r="J14" s="250"/>
+      <c r="K14" s="251"/>
+      <c r="L14" s="252"/>
+      <c r="M14" s="260"/>
+      <c r="N14" s="261"/>
+      <c r="O14" s="261"/>
+      <c r="P14" s="261"/>
+      <c r="Q14" s="261"/>
+      <c r="R14" s="262"/>
+      <c r="S14" s="256"/>
+      <c r="T14" s="256"/>
+      <c r="U14" s="256"/>
+      <c r="V14" s="266"/>
+      <c r="W14" s="267"/>
+      <c r="X14" s="267"/>
+      <c r="Y14" s="267"/>
+      <c r="Z14" s="267"/>
+      <c r="AA14" s="267"/>
+      <c r="AB14" s="267"/>
+      <c r="AC14" s="267"/>
+      <c r="AD14" s="267"/>
+      <c r="AE14" s="267"/>
+      <c r="AF14" s="267"/>
+      <c r="AG14" s="267"/>
+      <c r="AH14" s="267"/>
+      <c r="AI14" s="267"/>
+      <c r="AJ14" s="267"/>
+      <c r="AK14" s="267"/>
+      <c r="AL14" s="267"/>
+      <c r="AM14" s="267"/>
+      <c r="AN14" s="256"/>
+      <c r="AO14" s="256"/>
+      <c r="AP14" s="256"/>
+      <c r="AQ14" s="256"/>
+      <c r="AR14" s="256"/>
+      <c r="AS14" s="243"/>
+      <c r="AT14" s="244"/>
+      <c r="AU14" s="244"/>
+      <c r="AV14" s="244"/>
+      <c r="AW14" s="245"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
-      <c r="B15" s="262"/>
-      <c r="C15" s="263"/>
-      <c r="D15" s="264"/>
-      <c r="E15" s="254"/>
-      <c r="F15" s="254"/>
-      <c r="G15" s="254"/>
-      <c r="H15" s="254"/>
-      <c r="I15" s="254"/>
-      <c r="J15" s="255"/>
-      <c r="K15" s="256"/>
-      <c r="L15" s="257"/>
-      <c r="M15" s="265"/>
-      <c r="N15" s="266"/>
-      <c r="O15" s="266"/>
-      <c r="P15" s="266"/>
-      <c r="Q15" s="266"/>
-      <c r="R15" s="267"/>
-      <c r="S15" s="252"/>
-      <c r="T15" s="252"/>
-      <c r="U15" s="252"/>
-      <c r="V15" s="268"/>
-      <c r="W15" s="269"/>
-      <c r="X15" s="269"/>
-      <c r="Y15" s="269"/>
-      <c r="Z15" s="269"/>
-      <c r="AA15" s="269"/>
-      <c r="AB15" s="269"/>
-      <c r="AC15" s="269"/>
-      <c r="AD15" s="269"/>
-      <c r="AE15" s="269"/>
-      <c r="AF15" s="269"/>
-      <c r="AG15" s="269"/>
-      <c r="AH15" s="269"/>
-      <c r="AI15" s="269"/>
-      <c r="AJ15" s="269"/>
-      <c r="AK15" s="269"/>
-      <c r="AL15" s="269"/>
-      <c r="AM15" s="270"/>
-      <c r="AN15" s="271"/>
-      <c r="AO15" s="272"/>
-      <c r="AP15" s="272"/>
-      <c r="AQ15" s="272"/>
-      <c r="AR15" s="273"/>
-      <c r="AS15" s="271"/>
-      <c r="AT15" s="272"/>
-      <c r="AU15" s="272"/>
-      <c r="AV15" s="272"/>
-      <c r="AW15" s="273"/>
+      <c r="B15" s="246"/>
+      <c r="C15" s="247"/>
+      <c r="D15" s="248"/>
+      <c r="E15" s="249"/>
+      <c r="F15" s="249"/>
+      <c r="G15" s="249"/>
+      <c r="H15" s="249"/>
+      <c r="I15" s="249"/>
+      <c r="J15" s="250"/>
+      <c r="K15" s="251"/>
+      <c r="L15" s="252"/>
+      <c r="M15" s="263"/>
+      <c r="N15" s="261"/>
+      <c r="O15" s="261"/>
+      <c r="P15" s="261"/>
+      <c r="Q15" s="261"/>
+      <c r="R15" s="262"/>
+      <c r="S15" s="256"/>
+      <c r="T15" s="256"/>
+      <c r="U15" s="256"/>
+      <c r="V15" s="257"/>
+      <c r="W15" s="258"/>
+      <c r="X15" s="258"/>
+      <c r="Y15" s="258"/>
+      <c r="Z15" s="258"/>
+      <c r="AA15" s="258"/>
+      <c r="AB15" s="258"/>
+      <c r="AC15" s="258"/>
+      <c r="AD15" s="258"/>
+      <c r="AE15" s="258"/>
+      <c r="AF15" s="258"/>
+      <c r="AG15" s="258"/>
+      <c r="AH15" s="258"/>
+      <c r="AI15" s="258"/>
+      <c r="AJ15" s="258"/>
+      <c r="AK15" s="258"/>
+      <c r="AL15" s="258"/>
+      <c r="AM15" s="259"/>
+      <c r="AN15" s="243"/>
+      <c r="AO15" s="244"/>
+      <c r="AP15" s="244"/>
+      <c r="AQ15" s="244"/>
+      <c r="AR15" s="245"/>
+      <c r="AS15" s="243"/>
+      <c r="AT15" s="244"/>
+      <c r="AU15" s="244"/>
+      <c r="AV15" s="244"/>
+      <c r="AW15" s="245"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
-      <c r="B16" s="262"/>
-      <c r="C16" s="263"/>
-      <c r="D16" s="264"/>
-      <c r="E16" s="254"/>
-      <c r="F16" s="254"/>
-      <c r="G16" s="254"/>
-      <c r="H16" s="254"/>
-      <c r="I16" s="254"/>
-      <c r="J16" s="255"/>
-      <c r="K16" s="256"/>
-      <c r="L16" s="257"/>
-      <c r="M16" s="265"/>
-      <c r="N16" s="266"/>
-      <c r="O16" s="266"/>
-      <c r="P16" s="266"/>
-      <c r="Q16" s="266"/>
-      <c r="R16" s="267"/>
-      <c r="S16" s="252"/>
-      <c r="T16" s="252"/>
-      <c r="U16" s="252"/>
-      <c r="V16" s="268"/>
-      <c r="W16" s="269"/>
-      <c r="X16" s="269"/>
-      <c r="Y16" s="269"/>
-      <c r="Z16" s="269"/>
-      <c r="AA16" s="269"/>
-      <c r="AB16" s="269"/>
-      <c r="AC16" s="269"/>
-      <c r="AD16" s="269"/>
-      <c r="AE16" s="269"/>
-      <c r="AF16" s="269"/>
-      <c r="AG16" s="269"/>
-      <c r="AH16" s="269"/>
-      <c r="AI16" s="269"/>
-      <c r="AJ16" s="269"/>
-      <c r="AK16" s="269"/>
-      <c r="AL16" s="269"/>
-      <c r="AM16" s="270"/>
-      <c r="AN16" s="271"/>
-      <c r="AO16" s="272"/>
-      <c r="AP16" s="272"/>
-      <c r="AQ16" s="272"/>
-      <c r="AR16" s="273"/>
-      <c r="AS16" s="271"/>
-      <c r="AT16" s="272"/>
-      <c r="AU16" s="272"/>
-      <c r="AV16" s="272"/>
-      <c r="AW16" s="273"/>
+      <c r="B16" s="246"/>
+      <c r="C16" s="247"/>
+      <c r="D16" s="248"/>
+      <c r="E16" s="249"/>
+      <c r="F16" s="249"/>
+      <c r="G16" s="249"/>
+      <c r="H16" s="249"/>
+      <c r="I16" s="249"/>
+      <c r="J16" s="250"/>
+      <c r="K16" s="251"/>
+      <c r="L16" s="252"/>
+      <c r="M16" s="263"/>
+      <c r="N16" s="261"/>
+      <c r="O16" s="261"/>
+      <c r="P16" s="261"/>
+      <c r="Q16" s="261"/>
+      <c r="R16" s="262"/>
+      <c r="S16" s="256"/>
+      <c r="T16" s="256"/>
+      <c r="U16" s="256"/>
+      <c r="V16" s="257"/>
+      <c r="W16" s="258"/>
+      <c r="X16" s="258"/>
+      <c r="Y16" s="258"/>
+      <c r="Z16" s="258"/>
+      <c r="AA16" s="258"/>
+      <c r="AB16" s="258"/>
+      <c r="AC16" s="258"/>
+      <c r="AD16" s="258"/>
+      <c r="AE16" s="258"/>
+      <c r="AF16" s="258"/>
+      <c r="AG16" s="258"/>
+      <c r="AH16" s="258"/>
+      <c r="AI16" s="258"/>
+      <c r="AJ16" s="258"/>
+      <c r="AK16" s="258"/>
+      <c r="AL16" s="258"/>
+      <c r="AM16" s="259"/>
+      <c r="AN16" s="243"/>
+      <c r="AO16" s="244"/>
+      <c r="AP16" s="244"/>
+      <c r="AQ16" s="244"/>
+      <c r="AR16" s="245"/>
+      <c r="AS16" s="243"/>
+      <c r="AT16" s="244"/>
+      <c r="AU16" s="244"/>
+      <c r="AV16" s="244"/>
+      <c r="AW16" s="245"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
-      <c r="B17" s="262"/>
-      <c r="C17" s="263"/>
-      <c r="D17" s="264"/>
-      <c r="E17" s="254"/>
-      <c r="F17" s="254"/>
-      <c r="G17" s="254"/>
-      <c r="H17" s="254"/>
-      <c r="I17" s="254"/>
-      <c r="J17" s="255"/>
-      <c r="K17" s="256"/>
-      <c r="L17" s="257"/>
-      <c r="M17" s="265"/>
-      <c r="N17" s="266"/>
-      <c r="O17" s="266"/>
-      <c r="P17" s="266"/>
-      <c r="Q17" s="266"/>
-      <c r="R17" s="278"/>
-      <c r="S17" s="279"/>
-      <c r="T17" s="279"/>
-      <c r="U17" s="279"/>
-      <c r="V17" s="268"/>
-      <c r="W17" s="269"/>
-      <c r="X17" s="269"/>
-      <c r="Y17" s="269"/>
-      <c r="Z17" s="269"/>
-      <c r="AA17" s="269"/>
-      <c r="AB17" s="269"/>
-      <c r="AC17" s="269"/>
-      <c r="AD17" s="269"/>
-      <c r="AE17" s="269"/>
-      <c r="AF17" s="269"/>
-      <c r="AG17" s="269"/>
-      <c r="AH17" s="269"/>
-      <c r="AI17" s="269"/>
-      <c r="AJ17" s="269"/>
-      <c r="AK17" s="269"/>
-      <c r="AL17" s="269"/>
-      <c r="AM17" s="270"/>
-      <c r="AN17" s="271"/>
-      <c r="AO17" s="272"/>
-      <c r="AP17" s="272"/>
-      <c r="AQ17" s="272"/>
-      <c r="AR17" s="273"/>
-      <c r="AS17" s="271"/>
-      <c r="AT17" s="272"/>
-      <c r="AU17" s="272"/>
-      <c r="AV17" s="272"/>
-      <c r="AW17" s="273"/>
+      <c r="B17" s="246"/>
+      <c r="C17" s="247"/>
+      <c r="D17" s="248"/>
+      <c r="E17" s="249"/>
+      <c r="F17" s="249"/>
+      <c r="G17" s="249"/>
+      <c r="H17" s="249"/>
+      <c r="I17" s="249"/>
+      <c r="J17" s="250"/>
+      <c r="K17" s="251"/>
+      <c r="L17" s="252"/>
+      <c r="M17" s="263"/>
+      <c r="N17" s="261"/>
+      <c r="O17" s="261"/>
+      <c r="P17" s="261"/>
+      <c r="Q17" s="261"/>
+      <c r="R17" s="264"/>
+      <c r="S17" s="265"/>
+      <c r="T17" s="265"/>
+      <c r="U17" s="265"/>
+      <c r="V17" s="257"/>
+      <c r="W17" s="258"/>
+      <c r="X17" s="258"/>
+      <c r="Y17" s="258"/>
+      <c r="Z17" s="258"/>
+      <c r="AA17" s="258"/>
+      <c r="AB17" s="258"/>
+      <c r="AC17" s="258"/>
+      <c r="AD17" s="258"/>
+      <c r="AE17" s="258"/>
+      <c r="AF17" s="258"/>
+      <c r="AG17" s="258"/>
+      <c r="AH17" s="258"/>
+      <c r="AI17" s="258"/>
+      <c r="AJ17" s="258"/>
+      <c r="AK17" s="258"/>
+      <c r="AL17" s="258"/>
+      <c r="AM17" s="259"/>
+      <c r="AN17" s="243"/>
+      <c r="AO17" s="244"/>
+      <c r="AP17" s="244"/>
+      <c r="AQ17" s="244"/>
+      <c r="AR17" s="245"/>
+      <c r="AS17" s="243"/>
+      <c r="AT17" s="244"/>
+      <c r="AU17" s="244"/>
+      <c r="AV17" s="244"/>
+      <c r="AW17" s="245"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
-      <c r="B18" s="262"/>
-      <c r="C18" s="263"/>
-      <c r="D18" s="264"/>
-      <c r="E18" s="254"/>
-      <c r="F18" s="254"/>
-      <c r="G18" s="254"/>
-      <c r="H18" s="254"/>
-      <c r="I18" s="254"/>
-      <c r="J18" s="255"/>
-      <c r="K18" s="256"/>
-      <c r="L18" s="257"/>
-      <c r="M18" s="276"/>
-      <c r="N18" s="266"/>
-      <c r="O18" s="266"/>
-      <c r="P18" s="266"/>
-      <c r="Q18" s="266"/>
-      <c r="R18" s="267"/>
-      <c r="S18" s="252"/>
-      <c r="T18" s="252"/>
-      <c r="U18" s="252"/>
-      <c r="V18" s="268"/>
-      <c r="W18" s="269"/>
-      <c r="X18" s="269"/>
-      <c r="Y18" s="269"/>
-      <c r="Z18" s="269"/>
-      <c r="AA18" s="269"/>
-      <c r="AB18" s="269"/>
-      <c r="AC18" s="269"/>
-      <c r="AD18" s="269"/>
-      <c r="AE18" s="269"/>
-      <c r="AF18" s="269"/>
-      <c r="AG18" s="269"/>
-      <c r="AH18" s="269"/>
-      <c r="AI18" s="269"/>
-      <c r="AJ18" s="269"/>
-      <c r="AK18" s="269"/>
-      <c r="AL18" s="269"/>
-      <c r="AM18" s="270"/>
-      <c r="AN18" s="271"/>
-      <c r="AO18" s="272"/>
-      <c r="AP18" s="272"/>
-      <c r="AQ18" s="272"/>
-      <c r="AR18" s="273"/>
-      <c r="AS18" s="271"/>
-      <c r="AT18" s="272"/>
-      <c r="AU18" s="272"/>
-      <c r="AV18" s="272"/>
-      <c r="AW18" s="273"/>
+      <c r="B18" s="246"/>
+      <c r="C18" s="247"/>
+      <c r="D18" s="248"/>
+      <c r="E18" s="249"/>
+      <c r="F18" s="249"/>
+      <c r="G18" s="249"/>
+      <c r="H18" s="249"/>
+      <c r="I18" s="249"/>
+      <c r="J18" s="250"/>
+      <c r="K18" s="251"/>
+      <c r="L18" s="252"/>
+      <c r="M18" s="260"/>
+      <c r="N18" s="261"/>
+      <c r="O18" s="261"/>
+      <c r="P18" s="261"/>
+      <c r="Q18" s="261"/>
+      <c r="R18" s="262"/>
+      <c r="S18" s="256"/>
+      <c r="T18" s="256"/>
+      <c r="U18" s="256"/>
+      <c r="V18" s="257"/>
+      <c r="W18" s="258"/>
+      <c r="X18" s="258"/>
+      <c r="Y18" s="258"/>
+      <c r="Z18" s="258"/>
+      <c r="AA18" s="258"/>
+      <c r="AB18" s="258"/>
+      <c r="AC18" s="258"/>
+      <c r="AD18" s="258"/>
+      <c r="AE18" s="258"/>
+      <c r="AF18" s="258"/>
+      <c r="AG18" s="258"/>
+      <c r="AH18" s="258"/>
+      <c r="AI18" s="258"/>
+      <c r="AJ18" s="258"/>
+      <c r="AK18" s="258"/>
+      <c r="AL18" s="258"/>
+      <c r="AM18" s="259"/>
+      <c r="AN18" s="243"/>
+      <c r="AO18" s="244"/>
+      <c r="AP18" s="244"/>
+      <c r="AQ18" s="244"/>
+      <c r="AR18" s="245"/>
+      <c r="AS18" s="243"/>
+      <c r="AT18" s="244"/>
+      <c r="AU18" s="244"/>
+      <c r="AV18" s="244"/>
+      <c r="AW18" s="245"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
-      <c r="B19" s="262"/>
-      <c r="C19" s="263"/>
-      <c r="D19" s="264"/>
-      <c r="E19" s="254"/>
-      <c r="F19" s="254"/>
-      <c r="G19" s="254"/>
-      <c r="H19" s="254"/>
-      <c r="I19" s="254"/>
-      <c r="J19" s="255"/>
-      <c r="K19" s="256"/>
-      <c r="L19" s="257"/>
-      <c r="M19" s="265"/>
-      <c r="N19" s="266"/>
-      <c r="O19" s="266"/>
-      <c r="P19" s="266"/>
-      <c r="Q19" s="266"/>
-      <c r="R19" s="267"/>
-      <c r="S19" s="252"/>
-      <c r="T19" s="252"/>
-      <c r="U19" s="252"/>
-      <c r="V19" s="268"/>
-      <c r="W19" s="269"/>
-      <c r="X19" s="269"/>
-      <c r="Y19" s="269"/>
-      <c r="Z19" s="269"/>
-      <c r="AA19" s="269"/>
-      <c r="AB19" s="269"/>
-      <c r="AC19" s="269"/>
-      <c r="AD19" s="269"/>
-      <c r="AE19" s="269"/>
-      <c r="AF19" s="269"/>
-      <c r="AG19" s="269"/>
-      <c r="AH19" s="269"/>
-      <c r="AI19" s="269"/>
-      <c r="AJ19" s="269"/>
-      <c r="AK19" s="269"/>
-      <c r="AL19" s="269"/>
-      <c r="AM19" s="270"/>
-      <c r="AN19" s="252"/>
-      <c r="AO19" s="252"/>
-      <c r="AP19" s="252"/>
-      <c r="AQ19" s="252"/>
-      <c r="AR19" s="252"/>
-      <c r="AS19" s="271"/>
-      <c r="AT19" s="272"/>
-      <c r="AU19" s="272"/>
-      <c r="AV19" s="272"/>
-      <c r="AW19" s="273"/>
+      <c r="B19" s="246"/>
+      <c r="C19" s="247"/>
+      <c r="D19" s="248"/>
+      <c r="E19" s="249"/>
+      <c r="F19" s="249"/>
+      <c r="G19" s="249"/>
+      <c r="H19" s="249"/>
+      <c r="I19" s="249"/>
+      <c r="J19" s="250"/>
+      <c r="K19" s="251"/>
+      <c r="L19" s="252"/>
+      <c r="M19" s="263"/>
+      <c r="N19" s="261"/>
+      <c r="O19" s="261"/>
+      <c r="P19" s="261"/>
+      <c r="Q19" s="261"/>
+      <c r="R19" s="262"/>
+      <c r="S19" s="256"/>
+      <c r="T19" s="256"/>
+      <c r="U19" s="256"/>
+      <c r="V19" s="257"/>
+      <c r="W19" s="258"/>
+      <c r="X19" s="258"/>
+      <c r="Y19" s="258"/>
+      <c r="Z19" s="258"/>
+      <c r="AA19" s="258"/>
+      <c r="AB19" s="258"/>
+      <c r="AC19" s="258"/>
+      <c r="AD19" s="258"/>
+      <c r="AE19" s="258"/>
+      <c r="AF19" s="258"/>
+      <c r="AG19" s="258"/>
+      <c r="AH19" s="258"/>
+      <c r="AI19" s="258"/>
+      <c r="AJ19" s="258"/>
+      <c r="AK19" s="258"/>
+      <c r="AL19" s="258"/>
+      <c r="AM19" s="259"/>
+      <c r="AN19" s="256"/>
+      <c r="AO19" s="256"/>
+      <c r="AP19" s="256"/>
+      <c r="AQ19" s="256"/>
+      <c r="AR19" s="256"/>
+      <c r="AS19" s="243"/>
+      <c r="AT19" s="244"/>
+      <c r="AU19" s="244"/>
+      <c r="AV19" s="244"/>
+      <c r="AW19" s="245"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
-      <c r="B20" s="262"/>
-      <c r="C20" s="263"/>
-      <c r="D20" s="264"/>
-      <c r="E20" s="254"/>
-      <c r="F20" s="254"/>
-      <c r="G20" s="254"/>
-      <c r="H20" s="254"/>
-      <c r="I20" s="254"/>
-      <c r="J20" s="255"/>
-      <c r="K20" s="256"/>
-      <c r="L20" s="257"/>
-      <c r="M20" s="265"/>
-      <c r="N20" s="266"/>
-      <c r="O20" s="266"/>
-      <c r="P20" s="266"/>
-      <c r="Q20" s="266"/>
-      <c r="R20" s="267"/>
-      <c r="S20" s="271"/>
-      <c r="T20" s="272"/>
-      <c r="U20" s="273"/>
-      <c r="V20" s="268"/>
-      <c r="W20" s="269"/>
-      <c r="X20" s="269"/>
-      <c r="Y20" s="269"/>
-      <c r="Z20" s="269"/>
-      <c r="AA20" s="269"/>
-      <c r="AB20" s="269"/>
-      <c r="AC20" s="269"/>
-      <c r="AD20" s="269"/>
-      <c r="AE20" s="269"/>
-      <c r="AF20" s="269"/>
-      <c r="AG20" s="269"/>
-      <c r="AH20" s="269"/>
-      <c r="AI20" s="269"/>
-      <c r="AJ20" s="269"/>
-      <c r="AK20" s="269"/>
-      <c r="AL20" s="269"/>
-      <c r="AM20" s="270"/>
-      <c r="AN20" s="271"/>
-      <c r="AO20" s="272"/>
-      <c r="AP20" s="272"/>
-      <c r="AQ20" s="272"/>
-      <c r="AR20" s="273"/>
-      <c r="AS20" s="271"/>
-      <c r="AT20" s="272"/>
-      <c r="AU20" s="272"/>
-      <c r="AV20" s="272"/>
-      <c r="AW20" s="273"/>
+      <c r="B20" s="246"/>
+      <c r="C20" s="247"/>
+      <c r="D20" s="248"/>
+      <c r="E20" s="249"/>
+      <c r="F20" s="249"/>
+      <c r="G20" s="249"/>
+      <c r="H20" s="249"/>
+      <c r="I20" s="249"/>
+      <c r="J20" s="250"/>
+      <c r="K20" s="251"/>
+      <c r="L20" s="252"/>
+      <c r="M20" s="263"/>
+      <c r="N20" s="261"/>
+      <c r="O20" s="261"/>
+      <c r="P20" s="261"/>
+      <c r="Q20" s="261"/>
+      <c r="R20" s="262"/>
+      <c r="S20" s="243"/>
+      <c r="T20" s="244"/>
+      <c r="U20" s="245"/>
+      <c r="V20" s="257"/>
+      <c r="W20" s="258"/>
+      <c r="X20" s="258"/>
+      <c r="Y20" s="258"/>
+      <c r="Z20" s="258"/>
+      <c r="AA20" s="258"/>
+      <c r="AB20" s="258"/>
+      <c r="AC20" s="258"/>
+      <c r="AD20" s="258"/>
+      <c r="AE20" s="258"/>
+      <c r="AF20" s="258"/>
+      <c r="AG20" s="258"/>
+      <c r="AH20" s="258"/>
+      <c r="AI20" s="258"/>
+      <c r="AJ20" s="258"/>
+      <c r="AK20" s="258"/>
+      <c r="AL20" s="258"/>
+      <c r="AM20" s="259"/>
+      <c r="AN20" s="243"/>
+      <c r="AO20" s="244"/>
+      <c r="AP20" s="244"/>
+      <c r="AQ20" s="244"/>
+      <c r="AR20" s="245"/>
+      <c r="AS20" s="243"/>
+      <c r="AT20" s="244"/>
+      <c r="AU20" s="244"/>
+      <c r="AV20" s="244"/>
+      <c r="AW20" s="245"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
-      <c r="B21" s="262"/>
-      <c r="C21" s="263"/>
-      <c r="D21" s="264"/>
-      <c r="E21" s="254"/>
-      <c r="F21" s="254"/>
-      <c r="G21" s="254"/>
-      <c r="H21" s="254"/>
-      <c r="I21" s="254"/>
-      <c r="J21" s="255"/>
-      <c r="K21" s="256"/>
-      <c r="L21" s="257"/>
-      <c r="M21" s="265"/>
-      <c r="N21" s="266"/>
-      <c r="O21" s="266"/>
-      <c r="P21" s="266"/>
-      <c r="Q21" s="266"/>
-      <c r="R21" s="267"/>
-      <c r="S21" s="252"/>
-      <c r="T21" s="252"/>
-      <c r="U21" s="252"/>
-      <c r="V21" s="268"/>
-      <c r="W21" s="269"/>
-      <c r="X21" s="269"/>
-      <c r="Y21" s="269"/>
-      <c r="Z21" s="269"/>
-      <c r="AA21" s="269"/>
-      <c r="AB21" s="269"/>
-      <c r="AC21" s="269"/>
-      <c r="AD21" s="269"/>
-      <c r="AE21" s="269"/>
-      <c r="AF21" s="269"/>
-      <c r="AG21" s="269"/>
-      <c r="AH21" s="269"/>
-      <c r="AI21" s="269"/>
-      <c r="AJ21" s="269"/>
-      <c r="AK21" s="269"/>
-      <c r="AL21" s="269"/>
-      <c r="AM21" s="270"/>
-      <c r="AN21" s="271"/>
-      <c r="AO21" s="272"/>
-      <c r="AP21" s="272"/>
-      <c r="AQ21" s="272"/>
-      <c r="AR21" s="273"/>
-      <c r="AS21" s="271"/>
-      <c r="AT21" s="272"/>
-      <c r="AU21" s="272"/>
-      <c r="AV21" s="272"/>
-      <c r="AW21" s="273"/>
+      <c r="B21" s="246"/>
+      <c r="C21" s="247"/>
+      <c r="D21" s="248"/>
+      <c r="E21" s="249"/>
+      <c r="F21" s="249"/>
+      <c r="G21" s="249"/>
+      <c r="H21" s="249"/>
+      <c r="I21" s="249"/>
+      <c r="J21" s="250"/>
+      <c r="K21" s="251"/>
+      <c r="L21" s="252"/>
+      <c r="M21" s="263"/>
+      <c r="N21" s="261"/>
+      <c r="O21" s="261"/>
+      <c r="P21" s="261"/>
+      <c r="Q21" s="261"/>
+      <c r="R21" s="262"/>
+      <c r="S21" s="256"/>
+      <c r="T21" s="256"/>
+      <c r="U21" s="256"/>
+      <c r="V21" s="257"/>
+      <c r="W21" s="258"/>
+      <c r="X21" s="258"/>
+      <c r="Y21" s="258"/>
+      <c r="Z21" s="258"/>
+      <c r="AA21" s="258"/>
+      <c r="AB21" s="258"/>
+      <c r="AC21" s="258"/>
+      <c r="AD21" s="258"/>
+      <c r="AE21" s="258"/>
+      <c r="AF21" s="258"/>
+      <c r="AG21" s="258"/>
+      <c r="AH21" s="258"/>
+      <c r="AI21" s="258"/>
+      <c r="AJ21" s="258"/>
+      <c r="AK21" s="258"/>
+      <c r="AL21" s="258"/>
+      <c r="AM21" s="259"/>
+      <c r="AN21" s="243"/>
+      <c r="AO21" s="244"/>
+      <c r="AP21" s="244"/>
+      <c r="AQ21" s="244"/>
+      <c r="AR21" s="245"/>
+      <c r="AS21" s="243"/>
+      <c r="AT21" s="244"/>
+      <c r="AU21" s="244"/>
+      <c r="AV21" s="244"/>
+      <c r="AW21" s="245"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
-      <c r="B22" s="262"/>
-      <c r="C22" s="263"/>
-      <c r="D22" s="264"/>
-      <c r="E22" s="254"/>
-      <c r="F22" s="254"/>
-      <c r="G22" s="254"/>
-      <c r="H22" s="254"/>
-      <c r="I22" s="254"/>
-      <c r="J22" s="255"/>
-      <c r="K22" s="256"/>
-      <c r="L22" s="257"/>
-      <c r="M22" s="265"/>
-      <c r="N22" s="266"/>
-      <c r="O22" s="266"/>
-      <c r="P22" s="266"/>
-      <c r="Q22" s="266"/>
-      <c r="R22" s="267"/>
-      <c r="S22" s="252"/>
-      <c r="T22" s="252"/>
-      <c r="U22" s="252"/>
-      <c r="V22" s="268"/>
-      <c r="W22" s="269"/>
-      <c r="X22" s="269"/>
-      <c r="Y22" s="269"/>
-      <c r="Z22" s="269"/>
-      <c r="AA22" s="269"/>
-      <c r="AB22" s="269"/>
-      <c r="AC22" s="269"/>
-      <c r="AD22" s="269"/>
-      <c r="AE22" s="269"/>
-      <c r="AF22" s="269"/>
-      <c r="AG22" s="269"/>
-      <c r="AH22" s="269"/>
-      <c r="AI22" s="269"/>
-      <c r="AJ22" s="269"/>
-      <c r="AK22" s="269"/>
-      <c r="AL22" s="269"/>
-      <c r="AM22" s="270"/>
-      <c r="AN22" s="271"/>
-      <c r="AO22" s="272"/>
-      <c r="AP22" s="272"/>
-      <c r="AQ22" s="272"/>
-      <c r="AR22" s="273"/>
-      <c r="AS22" s="271"/>
-      <c r="AT22" s="272"/>
-      <c r="AU22" s="272"/>
-      <c r="AV22" s="272"/>
-      <c r="AW22" s="273"/>
+      <c r="B22" s="246"/>
+      <c r="C22" s="247"/>
+      <c r="D22" s="248"/>
+      <c r="E22" s="249"/>
+      <c r="F22" s="249"/>
+      <c r="G22" s="249"/>
+      <c r="H22" s="249"/>
+      <c r="I22" s="249"/>
+      <c r="J22" s="250"/>
+      <c r="K22" s="251"/>
+      <c r="L22" s="252"/>
+      <c r="M22" s="263"/>
+      <c r="N22" s="261"/>
+      <c r="O22" s="261"/>
+      <c r="P22" s="261"/>
+      <c r="Q22" s="261"/>
+      <c r="R22" s="262"/>
+      <c r="S22" s="256"/>
+      <c r="T22" s="256"/>
+      <c r="U22" s="256"/>
+      <c r="V22" s="257"/>
+      <c r="W22" s="258"/>
+      <c r="X22" s="258"/>
+      <c r="Y22" s="258"/>
+      <c r="Z22" s="258"/>
+      <c r="AA22" s="258"/>
+      <c r="AB22" s="258"/>
+      <c r="AC22" s="258"/>
+      <c r="AD22" s="258"/>
+      <c r="AE22" s="258"/>
+      <c r="AF22" s="258"/>
+      <c r="AG22" s="258"/>
+      <c r="AH22" s="258"/>
+      <c r="AI22" s="258"/>
+      <c r="AJ22" s="258"/>
+      <c r="AK22" s="258"/>
+      <c r="AL22" s="258"/>
+      <c r="AM22" s="259"/>
+      <c r="AN22" s="243"/>
+      <c r="AO22" s="244"/>
+      <c r="AP22" s="244"/>
+      <c r="AQ22" s="244"/>
+      <c r="AR22" s="245"/>
+      <c r="AS22" s="243"/>
+      <c r="AT22" s="244"/>
+      <c r="AU22" s="244"/>
+      <c r="AV22" s="244"/>
+      <c r="AW22" s="245"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
-      <c r="B23" s="262"/>
-      <c r="C23" s="263"/>
-      <c r="D23" s="264"/>
-      <c r="E23" s="254"/>
-      <c r="F23" s="254"/>
-      <c r="G23" s="254"/>
-      <c r="H23" s="254"/>
-      <c r="I23" s="254"/>
-      <c r="J23" s="255"/>
-      <c r="K23" s="256"/>
-      <c r="L23" s="257"/>
-      <c r="M23" s="265"/>
-      <c r="N23" s="266"/>
-      <c r="O23" s="266"/>
-      <c r="P23" s="266"/>
-      <c r="Q23" s="266"/>
-      <c r="R23" s="267"/>
-      <c r="S23" s="252"/>
-      <c r="T23" s="252"/>
-      <c r="U23" s="252"/>
-      <c r="V23" s="268"/>
-      <c r="W23" s="269"/>
-      <c r="X23" s="269"/>
-      <c r="Y23" s="269"/>
-      <c r="Z23" s="269"/>
-      <c r="AA23" s="269"/>
-      <c r="AB23" s="269"/>
-      <c r="AC23" s="269"/>
-      <c r="AD23" s="269"/>
-      <c r="AE23" s="269"/>
-      <c r="AF23" s="269"/>
-      <c r="AG23" s="269"/>
-      <c r="AH23" s="269"/>
-      <c r="AI23" s="269"/>
-      <c r="AJ23" s="269"/>
-      <c r="AK23" s="269"/>
-      <c r="AL23" s="269"/>
-      <c r="AM23" s="270"/>
-      <c r="AN23" s="271"/>
-      <c r="AO23" s="272"/>
-      <c r="AP23" s="272"/>
-      <c r="AQ23" s="272"/>
-      <c r="AR23" s="273"/>
-      <c r="AS23" s="271"/>
-      <c r="AT23" s="272"/>
-      <c r="AU23" s="272"/>
-      <c r="AV23" s="272"/>
-      <c r="AW23" s="273"/>
+      <c r="B23" s="246"/>
+      <c r="C23" s="247"/>
+      <c r="D23" s="248"/>
+      <c r="E23" s="249"/>
+      <c r="F23" s="249"/>
+      <c r="G23" s="249"/>
+      <c r="H23" s="249"/>
+      <c r="I23" s="249"/>
+      <c r="J23" s="250"/>
+      <c r="K23" s="251"/>
+      <c r="L23" s="252"/>
+      <c r="M23" s="263"/>
+      <c r="N23" s="261"/>
+      <c r="O23" s="261"/>
+      <c r="P23" s="261"/>
+      <c r="Q23" s="261"/>
+      <c r="R23" s="262"/>
+      <c r="S23" s="256"/>
+      <c r="T23" s="256"/>
+      <c r="U23" s="256"/>
+      <c r="V23" s="257"/>
+      <c r="W23" s="258"/>
+      <c r="X23" s="258"/>
+      <c r="Y23" s="258"/>
+      <c r="Z23" s="258"/>
+      <c r="AA23" s="258"/>
+      <c r="AB23" s="258"/>
+      <c r="AC23" s="258"/>
+      <c r="AD23" s="258"/>
+      <c r="AE23" s="258"/>
+      <c r="AF23" s="258"/>
+      <c r="AG23" s="258"/>
+      <c r="AH23" s="258"/>
+      <c r="AI23" s="258"/>
+      <c r="AJ23" s="258"/>
+      <c r="AK23" s="258"/>
+      <c r="AL23" s="258"/>
+      <c r="AM23" s="259"/>
+      <c r="AN23" s="243"/>
+      <c r="AO23" s="244"/>
+      <c r="AP23" s="244"/>
+      <c r="AQ23" s="244"/>
+      <c r="AR23" s="245"/>
+      <c r="AS23" s="243"/>
+      <c r="AT23" s="244"/>
+      <c r="AU23" s="244"/>
+      <c r="AV23" s="244"/>
+      <c r="AW23" s="245"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
-      <c r="B24" s="262"/>
-      <c r="C24" s="263"/>
-      <c r="D24" s="264"/>
-      <c r="E24" s="254"/>
-      <c r="F24" s="254"/>
-      <c r="G24" s="254"/>
-      <c r="H24" s="254"/>
-      <c r="I24" s="254"/>
-      <c r="J24" s="255"/>
-      <c r="K24" s="256"/>
-      <c r="L24" s="257"/>
-      <c r="M24" s="265"/>
-      <c r="N24" s="266"/>
-      <c r="O24" s="266"/>
-      <c r="P24" s="266"/>
-      <c r="Q24" s="266"/>
-      <c r="R24" s="267"/>
-      <c r="S24" s="252"/>
-      <c r="T24" s="252"/>
-      <c r="U24" s="252"/>
-      <c r="V24" s="268"/>
-      <c r="W24" s="269"/>
-      <c r="X24" s="269"/>
-      <c r="Y24" s="269"/>
-      <c r="Z24" s="269"/>
-      <c r="AA24" s="269"/>
-      <c r="AB24" s="269"/>
-      <c r="AC24" s="269"/>
-      <c r="AD24" s="269"/>
-      <c r="AE24" s="269"/>
-      <c r="AF24" s="269"/>
-      <c r="AG24" s="269"/>
-      <c r="AH24" s="269"/>
-      <c r="AI24" s="269"/>
-      <c r="AJ24" s="269"/>
-      <c r="AK24" s="269"/>
-      <c r="AL24" s="269"/>
-      <c r="AM24" s="270"/>
-      <c r="AN24" s="271"/>
-      <c r="AO24" s="272"/>
-      <c r="AP24" s="272"/>
-      <c r="AQ24" s="272"/>
-      <c r="AR24" s="273"/>
-      <c r="AS24" s="271"/>
-      <c r="AT24" s="272"/>
-      <c r="AU24" s="272"/>
-      <c r="AV24" s="272"/>
-      <c r="AW24" s="273"/>
+      <c r="B24" s="246"/>
+      <c r="C24" s="247"/>
+      <c r="D24" s="248"/>
+      <c r="E24" s="249"/>
+      <c r="F24" s="249"/>
+      <c r="G24" s="249"/>
+      <c r="H24" s="249"/>
+      <c r="I24" s="249"/>
+      <c r="J24" s="250"/>
+      <c r="K24" s="251"/>
+      <c r="L24" s="252"/>
+      <c r="M24" s="263"/>
+      <c r="N24" s="261"/>
+      <c r="O24" s="261"/>
+      <c r="P24" s="261"/>
+      <c r="Q24" s="261"/>
+      <c r="R24" s="262"/>
+      <c r="S24" s="256"/>
+      <c r="T24" s="256"/>
+      <c r="U24" s="256"/>
+      <c r="V24" s="257"/>
+      <c r="W24" s="258"/>
+      <c r="X24" s="258"/>
+      <c r="Y24" s="258"/>
+      <c r="Z24" s="258"/>
+      <c r="AA24" s="258"/>
+      <c r="AB24" s="258"/>
+      <c r="AC24" s="258"/>
+      <c r="AD24" s="258"/>
+      <c r="AE24" s="258"/>
+      <c r="AF24" s="258"/>
+      <c r="AG24" s="258"/>
+      <c r="AH24" s="258"/>
+      <c r="AI24" s="258"/>
+      <c r="AJ24" s="258"/>
+      <c r="AK24" s="258"/>
+      <c r="AL24" s="258"/>
+      <c r="AM24" s="259"/>
+      <c r="AN24" s="243"/>
+      <c r="AO24" s="244"/>
+      <c r="AP24" s="244"/>
+      <c r="AQ24" s="244"/>
+      <c r="AR24" s="245"/>
+      <c r="AS24" s="243"/>
+      <c r="AT24" s="244"/>
+      <c r="AU24" s="244"/>
+      <c r="AV24" s="244"/>
+      <c r="AW24" s="245"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="54"/>
-      <c r="B25" s="262"/>
-      <c r="C25" s="263"/>
-      <c r="D25" s="264"/>
-      <c r="E25" s="254"/>
-      <c r="F25" s="254"/>
-      <c r="G25" s="254"/>
-      <c r="H25" s="254"/>
-      <c r="I25" s="254"/>
-      <c r="J25" s="255"/>
-      <c r="K25" s="256"/>
-      <c r="L25" s="257"/>
-      <c r="M25" s="276"/>
-      <c r="N25" s="266"/>
-      <c r="O25" s="266"/>
-      <c r="P25" s="266"/>
-      <c r="Q25" s="266"/>
-      <c r="R25" s="267"/>
-      <c r="S25" s="252"/>
-      <c r="T25" s="252"/>
-      <c r="U25" s="252"/>
-      <c r="V25" s="268"/>
-      <c r="W25" s="269"/>
-      <c r="X25" s="269"/>
-      <c r="Y25" s="269"/>
-      <c r="Z25" s="269"/>
-      <c r="AA25" s="269"/>
-      <c r="AB25" s="269"/>
-      <c r="AC25" s="269"/>
-      <c r="AD25" s="269"/>
-      <c r="AE25" s="269"/>
-      <c r="AF25" s="269"/>
-      <c r="AG25" s="269"/>
-      <c r="AH25" s="269"/>
-      <c r="AI25" s="269"/>
-      <c r="AJ25" s="269"/>
-      <c r="AK25" s="269"/>
-      <c r="AL25" s="269"/>
-      <c r="AM25" s="270"/>
-      <c r="AN25" s="271"/>
-      <c r="AO25" s="272"/>
-      <c r="AP25" s="272"/>
-      <c r="AQ25" s="272"/>
-      <c r="AR25" s="273"/>
-      <c r="AS25" s="271"/>
-      <c r="AT25" s="272"/>
-      <c r="AU25" s="272"/>
-      <c r="AV25" s="272"/>
-      <c r="AW25" s="273"/>
+      <c r="B25" s="246"/>
+      <c r="C25" s="247"/>
+      <c r="D25" s="248"/>
+      <c r="E25" s="249"/>
+      <c r="F25" s="249"/>
+      <c r="G25" s="249"/>
+      <c r="H25" s="249"/>
+      <c r="I25" s="249"/>
+      <c r="J25" s="250"/>
+      <c r="K25" s="251"/>
+      <c r="L25" s="252"/>
+      <c r="M25" s="260"/>
+      <c r="N25" s="261"/>
+      <c r="O25" s="261"/>
+      <c r="P25" s="261"/>
+      <c r="Q25" s="261"/>
+      <c r="R25" s="262"/>
+      <c r="S25" s="256"/>
+      <c r="T25" s="256"/>
+      <c r="U25" s="256"/>
+      <c r="V25" s="257"/>
+      <c r="W25" s="258"/>
+      <c r="X25" s="258"/>
+      <c r="Y25" s="258"/>
+      <c r="Z25" s="258"/>
+      <c r="AA25" s="258"/>
+      <c r="AB25" s="258"/>
+      <c r="AC25" s="258"/>
+      <c r="AD25" s="258"/>
+      <c r="AE25" s="258"/>
+      <c r="AF25" s="258"/>
+      <c r="AG25" s="258"/>
+      <c r="AH25" s="258"/>
+      <c r="AI25" s="258"/>
+      <c r="AJ25" s="258"/>
+      <c r="AK25" s="258"/>
+      <c r="AL25" s="258"/>
+      <c r="AM25" s="259"/>
+      <c r="AN25" s="243"/>
+      <c r="AO25" s="244"/>
+      <c r="AP25" s="244"/>
+      <c r="AQ25" s="244"/>
+      <c r="AR25" s="245"/>
+      <c r="AS25" s="243"/>
+      <c r="AT25" s="244"/>
+      <c r="AU25" s="244"/>
+      <c r="AV25" s="244"/>
+      <c r="AW25" s="245"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="54"/>
-      <c r="B26" s="262"/>
-      <c r="C26" s="263"/>
-      <c r="D26" s="264"/>
-      <c r="E26" s="254"/>
-      <c r="F26" s="254"/>
-      <c r="G26" s="254"/>
-      <c r="H26" s="254"/>
-      <c r="I26" s="254"/>
-      <c r="J26" s="255"/>
-      <c r="K26" s="256"/>
-      <c r="L26" s="257"/>
-      <c r="M26" s="276"/>
-      <c r="N26" s="266"/>
-      <c r="O26" s="266"/>
-      <c r="P26" s="266"/>
-      <c r="Q26" s="266"/>
-      <c r="R26" s="267"/>
-      <c r="S26" s="252"/>
-      <c r="T26" s="252"/>
-      <c r="U26" s="252"/>
-      <c r="V26" s="268"/>
-      <c r="W26" s="269"/>
-      <c r="X26" s="269"/>
-      <c r="Y26" s="269"/>
-      <c r="Z26" s="269"/>
-      <c r="AA26" s="269"/>
-      <c r="AB26" s="269"/>
-      <c r="AC26" s="269"/>
-      <c r="AD26" s="269"/>
-      <c r="AE26" s="269"/>
-      <c r="AF26" s="269"/>
-      <c r="AG26" s="269"/>
-      <c r="AH26" s="269"/>
-      <c r="AI26" s="269"/>
-      <c r="AJ26" s="269"/>
-      <c r="AK26" s="269"/>
-      <c r="AL26" s="269"/>
-      <c r="AM26" s="270"/>
-      <c r="AN26" s="271"/>
-      <c r="AO26" s="272"/>
-      <c r="AP26" s="272"/>
-      <c r="AQ26" s="272"/>
-      <c r="AR26" s="273"/>
-      <c r="AS26" s="271"/>
-      <c r="AT26" s="272"/>
-      <c r="AU26" s="272"/>
-      <c r="AV26" s="272"/>
-      <c r="AW26" s="273"/>
+      <c r="B26" s="246"/>
+      <c r="C26" s="247"/>
+      <c r="D26" s="248"/>
+      <c r="E26" s="249"/>
+      <c r="F26" s="249"/>
+      <c r="G26" s="249"/>
+      <c r="H26" s="249"/>
+      <c r="I26" s="249"/>
+      <c r="J26" s="250"/>
+      <c r="K26" s="251"/>
+      <c r="L26" s="252"/>
+      <c r="M26" s="260"/>
+      <c r="N26" s="261"/>
+      <c r="O26" s="261"/>
+      <c r="P26" s="261"/>
+      <c r="Q26" s="261"/>
+      <c r="R26" s="262"/>
+      <c r="S26" s="256"/>
+      <c r="T26" s="256"/>
+      <c r="U26" s="256"/>
+      <c r="V26" s="257"/>
+      <c r="W26" s="258"/>
+      <c r="X26" s="258"/>
+      <c r="Y26" s="258"/>
+      <c r="Z26" s="258"/>
+      <c r="AA26" s="258"/>
+      <c r="AB26" s="258"/>
+      <c r="AC26" s="258"/>
+      <c r="AD26" s="258"/>
+      <c r="AE26" s="258"/>
+      <c r="AF26" s="258"/>
+      <c r="AG26" s="258"/>
+      <c r="AH26" s="258"/>
+      <c r="AI26" s="258"/>
+      <c r="AJ26" s="258"/>
+      <c r="AK26" s="258"/>
+      <c r="AL26" s="258"/>
+      <c r="AM26" s="259"/>
+      <c r="AN26" s="243"/>
+      <c r="AO26" s="244"/>
+      <c r="AP26" s="244"/>
+      <c r="AQ26" s="244"/>
+      <c r="AR26" s="245"/>
+      <c r="AS26" s="243"/>
+      <c r="AT26" s="244"/>
+      <c r="AU26" s="244"/>
+      <c r="AV26" s="244"/>
+      <c r="AW26" s="245"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="54"/>
-      <c r="B27" s="262"/>
-      <c r="C27" s="263"/>
-      <c r="D27" s="264"/>
-      <c r="E27" s="254"/>
-      <c r="F27" s="254"/>
-      <c r="G27" s="254"/>
-      <c r="H27" s="254"/>
-      <c r="I27" s="254"/>
-      <c r="J27" s="255"/>
-      <c r="K27" s="256"/>
-      <c r="L27" s="257"/>
-      <c r="M27" s="276"/>
-      <c r="N27" s="266"/>
-      <c r="O27" s="266"/>
-      <c r="P27" s="266"/>
-      <c r="Q27" s="266"/>
-      <c r="R27" s="267"/>
-      <c r="S27" s="252"/>
-      <c r="T27" s="252"/>
-      <c r="U27" s="252"/>
-      <c r="V27" s="268"/>
-      <c r="W27" s="269"/>
-      <c r="X27" s="269"/>
-      <c r="Y27" s="269"/>
-      <c r="Z27" s="269"/>
-      <c r="AA27" s="269"/>
-      <c r="AB27" s="269"/>
-      <c r="AC27" s="269"/>
-      <c r="AD27" s="269"/>
-      <c r="AE27" s="269"/>
-      <c r="AF27" s="269"/>
-      <c r="AG27" s="269"/>
-      <c r="AH27" s="269"/>
-      <c r="AI27" s="269"/>
-      <c r="AJ27" s="269"/>
-      <c r="AK27" s="269"/>
-      <c r="AL27" s="269"/>
-      <c r="AM27" s="270"/>
-      <c r="AN27" s="271"/>
-      <c r="AO27" s="272"/>
-      <c r="AP27" s="272"/>
-      <c r="AQ27" s="272"/>
-      <c r="AR27" s="273"/>
-      <c r="AS27" s="271"/>
-      <c r="AT27" s="272"/>
-      <c r="AU27" s="272"/>
-      <c r="AV27" s="272"/>
-      <c r="AW27" s="273"/>
+      <c r="B27" s="246"/>
+      <c r="C27" s="247"/>
+      <c r="D27" s="248"/>
+      <c r="E27" s="249"/>
+      <c r="F27" s="249"/>
+      <c r="G27" s="249"/>
+      <c r="H27" s="249"/>
+      <c r="I27" s="249"/>
+      <c r="J27" s="250"/>
+      <c r="K27" s="251"/>
+      <c r="L27" s="252"/>
+      <c r="M27" s="260"/>
+      <c r="N27" s="261"/>
+      <c r="O27" s="261"/>
+      <c r="P27" s="261"/>
+      <c r="Q27" s="261"/>
+      <c r="R27" s="262"/>
+      <c r="S27" s="256"/>
+      <c r="T27" s="256"/>
+      <c r="U27" s="256"/>
+      <c r="V27" s="257"/>
+      <c r="W27" s="258"/>
+      <c r="X27" s="258"/>
+      <c r="Y27" s="258"/>
+      <c r="Z27" s="258"/>
+      <c r="AA27" s="258"/>
+      <c r="AB27" s="258"/>
+      <c r="AC27" s="258"/>
+      <c r="AD27" s="258"/>
+      <c r="AE27" s="258"/>
+      <c r="AF27" s="258"/>
+      <c r="AG27" s="258"/>
+      <c r="AH27" s="258"/>
+      <c r="AI27" s="258"/>
+      <c r="AJ27" s="258"/>
+      <c r="AK27" s="258"/>
+      <c r="AL27" s="258"/>
+      <c r="AM27" s="259"/>
+      <c r="AN27" s="243"/>
+      <c r="AO27" s="244"/>
+      <c r="AP27" s="244"/>
+      <c r="AQ27" s="244"/>
+      <c r="AR27" s="245"/>
+      <c r="AS27" s="243"/>
+      <c r="AT27" s="244"/>
+      <c r="AU27" s="244"/>
+      <c r="AV27" s="244"/>
+      <c r="AW27" s="245"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
-      <c r="B28" s="262"/>
-      <c r="C28" s="263"/>
-      <c r="D28" s="264"/>
-      <c r="E28" s="254"/>
-      <c r="F28" s="254"/>
-      <c r="G28" s="254"/>
-      <c r="H28" s="254"/>
-      <c r="I28" s="254"/>
-      <c r="J28" s="255"/>
-      <c r="K28" s="256"/>
-      <c r="L28" s="257"/>
-      <c r="M28" s="265"/>
-      <c r="N28" s="266"/>
-      <c r="O28" s="266"/>
-      <c r="P28" s="266"/>
-      <c r="Q28" s="266"/>
-      <c r="R28" s="267"/>
-      <c r="S28" s="252"/>
-      <c r="T28" s="252"/>
-      <c r="U28" s="252"/>
-      <c r="V28" s="268"/>
-      <c r="W28" s="269"/>
-      <c r="X28" s="269"/>
-      <c r="Y28" s="269"/>
-      <c r="Z28" s="269"/>
-      <c r="AA28" s="269"/>
-      <c r="AB28" s="269"/>
-      <c r="AC28" s="269"/>
-      <c r="AD28" s="269"/>
-      <c r="AE28" s="269"/>
-      <c r="AF28" s="269"/>
-      <c r="AG28" s="269"/>
-      <c r="AH28" s="269"/>
-      <c r="AI28" s="269"/>
-      <c r="AJ28" s="269"/>
-      <c r="AK28" s="269"/>
-      <c r="AL28" s="269"/>
-      <c r="AM28" s="270"/>
-      <c r="AN28" s="271"/>
-      <c r="AO28" s="272"/>
-      <c r="AP28" s="272"/>
-      <c r="AQ28" s="272"/>
-      <c r="AR28" s="273"/>
-      <c r="AS28" s="271"/>
-      <c r="AT28" s="272"/>
-      <c r="AU28" s="272"/>
-      <c r="AV28" s="272"/>
-      <c r="AW28" s="273"/>
+      <c r="B28" s="246"/>
+      <c r="C28" s="247"/>
+      <c r="D28" s="248"/>
+      <c r="E28" s="249"/>
+      <c r="F28" s="249"/>
+      <c r="G28" s="249"/>
+      <c r="H28" s="249"/>
+      <c r="I28" s="249"/>
+      <c r="J28" s="250"/>
+      <c r="K28" s="251"/>
+      <c r="L28" s="252"/>
+      <c r="M28" s="263"/>
+      <c r="N28" s="261"/>
+      <c r="O28" s="261"/>
+      <c r="P28" s="261"/>
+      <c r="Q28" s="261"/>
+      <c r="R28" s="262"/>
+      <c r="S28" s="256"/>
+      <c r="T28" s="256"/>
+      <c r="U28" s="256"/>
+      <c r="V28" s="257"/>
+      <c r="W28" s="258"/>
+      <c r="X28" s="258"/>
+      <c r="Y28" s="258"/>
+      <c r="Z28" s="258"/>
+      <c r="AA28" s="258"/>
+      <c r="AB28" s="258"/>
+      <c r="AC28" s="258"/>
+      <c r="AD28" s="258"/>
+      <c r="AE28" s="258"/>
+      <c r="AF28" s="258"/>
+      <c r="AG28" s="258"/>
+      <c r="AH28" s="258"/>
+      <c r="AI28" s="258"/>
+      <c r="AJ28" s="258"/>
+      <c r="AK28" s="258"/>
+      <c r="AL28" s="258"/>
+      <c r="AM28" s="259"/>
+      <c r="AN28" s="243"/>
+      <c r="AO28" s="244"/>
+      <c r="AP28" s="244"/>
+      <c r="AQ28" s="244"/>
+      <c r="AR28" s="245"/>
+      <c r="AS28" s="243"/>
+      <c r="AT28" s="244"/>
+      <c r="AU28" s="244"/>
+      <c r="AV28" s="244"/>
+      <c r="AW28" s="245"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="54"/>
-      <c r="B29" s="262"/>
-      <c r="C29" s="263"/>
-      <c r="D29" s="264"/>
-      <c r="E29" s="254"/>
-      <c r="F29" s="254"/>
-      <c r="G29" s="254"/>
-      <c r="H29" s="254"/>
-      <c r="I29" s="254"/>
-      <c r="J29" s="255"/>
-      <c r="K29" s="256"/>
-      <c r="L29" s="257"/>
-      <c r="M29" s="265"/>
-      <c r="N29" s="266"/>
-      <c r="O29" s="266"/>
-      <c r="P29" s="266"/>
-      <c r="Q29" s="266"/>
-      <c r="R29" s="267"/>
-      <c r="S29" s="252"/>
-      <c r="T29" s="252"/>
-      <c r="U29" s="252"/>
-      <c r="V29" s="268"/>
-      <c r="W29" s="269"/>
-      <c r="X29" s="269"/>
-      <c r="Y29" s="269"/>
-      <c r="Z29" s="269"/>
-      <c r="AA29" s="269"/>
-      <c r="AB29" s="269"/>
-      <c r="AC29" s="269"/>
-      <c r="AD29" s="269"/>
-      <c r="AE29" s="269"/>
-      <c r="AF29" s="269"/>
-      <c r="AG29" s="269"/>
-      <c r="AH29" s="269"/>
-      <c r="AI29" s="269"/>
-      <c r="AJ29" s="269"/>
-      <c r="AK29" s="269"/>
-      <c r="AL29" s="269"/>
-      <c r="AM29" s="270"/>
-      <c r="AN29" s="271"/>
-      <c r="AO29" s="272"/>
-      <c r="AP29" s="272"/>
-      <c r="AQ29" s="272"/>
-      <c r="AR29" s="273"/>
-      <c r="AS29" s="271"/>
-      <c r="AT29" s="272"/>
-      <c r="AU29" s="272"/>
-      <c r="AV29" s="272"/>
-      <c r="AW29" s="273"/>
+      <c r="B29" s="246"/>
+      <c r="C29" s="247"/>
+      <c r="D29" s="248"/>
+      <c r="E29" s="249"/>
+      <c r="F29" s="249"/>
+      <c r="G29" s="249"/>
+      <c r="H29" s="249"/>
+      <c r="I29" s="249"/>
+      <c r="J29" s="250"/>
+      <c r="K29" s="251"/>
+      <c r="L29" s="252"/>
+      <c r="M29" s="263"/>
+      <c r="N29" s="261"/>
+      <c r="O29" s="261"/>
+      <c r="P29" s="261"/>
+      <c r="Q29" s="261"/>
+      <c r="R29" s="262"/>
+      <c r="S29" s="256"/>
+      <c r="T29" s="256"/>
+      <c r="U29" s="256"/>
+      <c r="V29" s="257"/>
+      <c r="W29" s="258"/>
+      <c r="X29" s="258"/>
+      <c r="Y29" s="258"/>
+      <c r="Z29" s="258"/>
+      <c r="AA29" s="258"/>
+      <c r="AB29" s="258"/>
+      <c r="AC29" s="258"/>
+      <c r="AD29" s="258"/>
+      <c r="AE29" s="258"/>
+      <c r="AF29" s="258"/>
+      <c r="AG29" s="258"/>
+      <c r="AH29" s="258"/>
+      <c r="AI29" s="258"/>
+      <c r="AJ29" s="258"/>
+      <c r="AK29" s="258"/>
+      <c r="AL29" s="258"/>
+      <c r="AM29" s="259"/>
+      <c r="AN29" s="243"/>
+      <c r="AO29" s="244"/>
+      <c r="AP29" s="244"/>
+      <c r="AQ29" s="244"/>
+      <c r="AR29" s="245"/>
+      <c r="AS29" s="243"/>
+      <c r="AT29" s="244"/>
+      <c r="AU29" s="244"/>
+      <c r="AV29" s="244"/>
+      <c r="AW29" s="245"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
-      <c r="B30" s="262"/>
-      <c r="C30" s="263"/>
-      <c r="D30" s="264"/>
-      <c r="E30" s="254"/>
-      <c r="F30" s="254"/>
-      <c r="G30" s="254"/>
-      <c r="H30" s="254"/>
-      <c r="I30" s="254"/>
-      <c r="J30" s="255"/>
-      <c r="K30" s="256"/>
-      <c r="L30" s="257"/>
-      <c r="M30" s="276"/>
-      <c r="N30" s="266"/>
-      <c r="O30" s="266"/>
-      <c r="P30" s="266"/>
-      <c r="Q30" s="266"/>
-      <c r="R30" s="267"/>
-      <c r="S30" s="252"/>
-      <c r="T30" s="252"/>
-      <c r="U30" s="252"/>
-      <c r="V30" s="268"/>
-      <c r="W30" s="269"/>
-      <c r="X30" s="269"/>
-      <c r="Y30" s="269"/>
-      <c r="Z30" s="269"/>
-      <c r="AA30" s="269"/>
-      <c r="AB30" s="269"/>
-      <c r="AC30" s="269"/>
-      <c r="AD30" s="269"/>
-      <c r="AE30" s="269"/>
-      <c r="AF30" s="269"/>
-      <c r="AG30" s="269"/>
-      <c r="AH30" s="269"/>
-      <c r="AI30" s="269"/>
-      <c r="AJ30" s="269"/>
-      <c r="AK30" s="269"/>
-      <c r="AL30" s="269"/>
-      <c r="AM30" s="270"/>
-      <c r="AN30" s="271"/>
-      <c r="AO30" s="272"/>
-      <c r="AP30" s="272"/>
-      <c r="AQ30" s="272"/>
-      <c r="AR30" s="273"/>
-      <c r="AS30" s="271"/>
-      <c r="AT30" s="272"/>
-      <c r="AU30" s="272"/>
-      <c r="AV30" s="272"/>
-      <c r="AW30" s="273"/>
+      <c r="B30" s="246"/>
+      <c r="C30" s="247"/>
+      <c r="D30" s="248"/>
+      <c r="E30" s="249"/>
+      <c r="F30" s="249"/>
+      <c r="G30" s="249"/>
+      <c r="H30" s="249"/>
+      <c r="I30" s="249"/>
+      <c r="J30" s="250"/>
+      <c r="K30" s="251"/>
+      <c r="L30" s="252"/>
+      <c r="M30" s="260"/>
+      <c r="N30" s="261"/>
+      <c r="O30" s="261"/>
+      <c r="P30" s="261"/>
+      <c r="Q30" s="261"/>
+      <c r="R30" s="262"/>
+      <c r="S30" s="256"/>
+      <c r="T30" s="256"/>
+      <c r="U30" s="256"/>
+      <c r="V30" s="257"/>
+      <c r="W30" s="258"/>
+      <c r="X30" s="258"/>
+      <c r="Y30" s="258"/>
+      <c r="Z30" s="258"/>
+      <c r="AA30" s="258"/>
+      <c r="AB30" s="258"/>
+      <c r="AC30" s="258"/>
+      <c r="AD30" s="258"/>
+      <c r="AE30" s="258"/>
+      <c r="AF30" s="258"/>
+      <c r="AG30" s="258"/>
+      <c r="AH30" s="258"/>
+      <c r="AI30" s="258"/>
+      <c r="AJ30" s="258"/>
+      <c r="AK30" s="258"/>
+      <c r="AL30" s="258"/>
+      <c r="AM30" s="259"/>
+      <c r="AN30" s="243"/>
+      <c r="AO30" s="244"/>
+      <c r="AP30" s="244"/>
+      <c r="AQ30" s="244"/>
+      <c r="AR30" s="245"/>
+      <c r="AS30" s="243"/>
+      <c r="AT30" s="244"/>
+      <c r="AU30" s="244"/>
+      <c r="AV30" s="244"/>
+      <c r="AW30" s="245"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
-      <c r="B31" s="262"/>
-      <c r="C31" s="263"/>
-      <c r="D31" s="264"/>
-      <c r="E31" s="254"/>
-      <c r="F31" s="254"/>
-      <c r="G31" s="254"/>
-      <c r="H31" s="254"/>
-      <c r="I31" s="254"/>
-      <c r="J31" s="255"/>
-      <c r="K31" s="256"/>
-      <c r="L31" s="257"/>
-      <c r="M31" s="276"/>
-      <c r="N31" s="266"/>
-      <c r="O31" s="266"/>
-      <c r="P31" s="266"/>
-      <c r="Q31" s="266"/>
-      <c r="R31" s="267"/>
-      <c r="S31" s="252"/>
-      <c r="T31" s="252"/>
-      <c r="U31" s="252"/>
-      <c r="V31" s="268"/>
-      <c r="W31" s="269"/>
-      <c r="X31" s="269"/>
-      <c r="Y31" s="269"/>
-      <c r="Z31" s="269"/>
-      <c r="AA31" s="269"/>
-      <c r="AB31" s="269"/>
-      <c r="AC31" s="269"/>
-      <c r="AD31" s="269"/>
-      <c r="AE31" s="269"/>
-      <c r="AF31" s="269"/>
-      <c r="AG31" s="269"/>
-      <c r="AH31" s="269"/>
-      <c r="AI31" s="269"/>
-      <c r="AJ31" s="269"/>
-      <c r="AK31" s="269"/>
-      <c r="AL31" s="269"/>
-      <c r="AM31" s="270"/>
-      <c r="AN31" s="271"/>
-      <c r="AO31" s="272"/>
-      <c r="AP31" s="272"/>
-      <c r="AQ31" s="272"/>
-      <c r="AR31" s="273"/>
-      <c r="AS31" s="271"/>
-      <c r="AT31" s="272"/>
-      <c r="AU31" s="272"/>
-      <c r="AV31" s="272"/>
-      <c r="AW31" s="273"/>
+      <c r="B31" s="246"/>
+      <c r="C31" s="247"/>
+      <c r="D31" s="248"/>
+      <c r="E31" s="249"/>
+      <c r="F31" s="249"/>
+      <c r="G31" s="249"/>
+      <c r="H31" s="249"/>
+      <c r="I31" s="249"/>
+      <c r="J31" s="250"/>
+      <c r="K31" s="251"/>
+      <c r="L31" s="252"/>
+      <c r="M31" s="260"/>
+      <c r="N31" s="261"/>
+      <c r="O31" s="261"/>
+      <c r="P31" s="261"/>
+      <c r="Q31" s="261"/>
+      <c r="R31" s="262"/>
+      <c r="S31" s="256"/>
+      <c r="T31" s="256"/>
+      <c r="U31" s="256"/>
+      <c r="V31" s="257"/>
+      <c r="W31" s="258"/>
+      <c r="X31" s="258"/>
+      <c r="Y31" s="258"/>
+      <c r="Z31" s="258"/>
+      <c r="AA31" s="258"/>
+      <c r="AB31" s="258"/>
+      <c r="AC31" s="258"/>
+      <c r="AD31" s="258"/>
+      <c r="AE31" s="258"/>
+      <c r="AF31" s="258"/>
+      <c r="AG31" s="258"/>
+      <c r="AH31" s="258"/>
+      <c r="AI31" s="258"/>
+      <c r="AJ31" s="258"/>
+      <c r="AK31" s="258"/>
+      <c r="AL31" s="258"/>
+      <c r="AM31" s="259"/>
+      <c r="AN31" s="243"/>
+      <c r="AO31" s="244"/>
+      <c r="AP31" s="244"/>
+      <c r="AQ31" s="244"/>
+      <c r="AR31" s="245"/>
+      <c r="AS31" s="243"/>
+      <c r="AT31" s="244"/>
+      <c r="AU31" s="244"/>
+      <c r="AV31" s="244"/>
+      <c r="AW31" s="245"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
-      <c r="B32" s="262"/>
-      <c r="C32" s="263"/>
-      <c r="D32" s="264"/>
-      <c r="E32" s="254"/>
-      <c r="F32" s="254"/>
-      <c r="G32" s="254"/>
-      <c r="H32" s="254"/>
-      <c r="I32" s="254"/>
-      <c r="J32" s="255"/>
-      <c r="K32" s="256"/>
-      <c r="L32" s="257"/>
-      <c r="M32" s="276"/>
-      <c r="N32" s="266"/>
-      <c r="O32" s="266"/>
-      <c r="P32" s="266"/>
-      <c r="Q32" s="266"/>
-      <c r="R32" s="267"/>
-      <c r="S32" s="252"/>
-      <c r="T32" s="252"/>
-      <c r="U32" s="252"/>
-      <c r="V32" s="268"/>
-      <c r="W32" s="269"/>
-      <c r="X32" s="269"/>
-      <c r="Y32" s="269"/>
-      <c r="Z32" s="269"/>
-      <c r="AA32" s="269"/>
-      <c r="AB32" s="269"/>
-      <c r="AC32" s="269"/>
-      <c r="AD32" s="269"/>
-      <c r="AE32" s="269"/>
-      <c r="AF32" s="269"/>
-      <c r="AG32" s="269"/>
-      <c r="AH32" s="269"/>
-      <c r="AI32" s="269"/>
-      <c r="AJ32" s="269"/>
-      <c r="AK32" s="269"/>
-      <c r="AL32" s="269"/>
-      <c r="AM32" s="270"/>
-      <c r="AN32" s="271"/>
-      <c r="AO32" s="272"/>
-      <c r="AP32" s="272"/>
-      <c r="AQ32" s="272"/>
-      <c r="AR32" s="273"/>
-      <c r="AS32" s="271"/>
-      <c r="AT32" s="272"/>
-      <c r="AU32" s="272"/>
-      <c r="AV32" s="272"/>
-      <c r="AW32" s="273"/>
+      <c r="B32" s="246"/>
+      <c r="C32" s="247"/>
+      <c r="D32" s="248"/>
+      <c r="E32" s="249"/>
+      <c r="F32" s="249"/>
+      <c r="G32" s="249"/>
+      <c r="H32" s="249"/>
+      <c r="I32" s="249"/>
+      <c r="J32" s="250"/>
+      <c r="K32" s="251"/>
+      <c r="L32" s="252"/>
+      <c r="M32" s="260"/>
+      <c r="N32" s="261"/>
+      <c r="O32" s="261"/>
+      <c r="P32" s="261"/>
+      <c r="Q32" s="261"/>
+      <c r="R32" s="262"/>
+      <c r="S32" s="256"/>
+      <c r="T32" s="256"/>
+      <c r="U32" s="256"/>
+      <c r="V32" s="257"/>
+      <c r="W32" s="258"/>
+      <c r="X32" s="258"/>
+      <c r="Y32" s="258"/>
+      <c r="Z32" s="258"/>
+      <c r="AA32" s="258"/>
+      <c r="AB32" s="258"/>
+      <c r="AC32" s="258"/>
+      <c r="AD32" s="258"/>
+      <c r="AE32" s="258"/>
+      <c r="AF32" s="258"/>
+      <c r="AG32" s="258"/>
+      <c r="AH32" s="258"/>
+      <c r="AI32" s="258"/>
+      <c r="AJ32" s="258"/>
+      <c r="AK32" s="258"/>
+      <c r="AL32" s="258"/>
+      <c r="AM32" s="259"/>
+      <c r="AN32" s="243"/>
+      <c r="AO32" s="244"/>
+      <c r="AP32" s="244"/>
+      <c r="AQ32" s="244"/>
+      <c r="AR32" s="245"/>
+      <c r="AS32" s="243"/>
+      <c r="AT32" s="244"/>
+      <c r="AU32" s="244"/>
+      <c r="AV32" s="244"/>
+      <c r="AW32" s="245"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="262"/>
-      <c r="C33" s="263"/>
-      <c r="D33" s="264"/>
-      <c r="E33" s="254"/>
-      <c r="F33" s="254"/>
-      <c r="G33" s="254"/>
-      <c r="H33" s="254"/>
-      <c r="I33" s="254"/>
-      <c r="J33" s="255"/>
-      <c r="K33" s="256"/>
-      <c r="L33" s="257"/>
-      <c r="M33" s="276"/>
-      <c r="N33" s="266"/>
-      <c r="O33" s="266"/>
-      <c r="P33" s="266"/>
-      <c r="Q33" s="266"/>
-      <c r="R33" s="267"/>
-      <c r="S33" s="252"/>
-      <c r="T33" s="252"/>
-      <c r="U33" s="252"/>
-      <c r="V33" s="268"/>
-      <c r="W33" s="269"/>
-      <c r="X33" s="269"/>
-      <c r="Y33" s="269"/>
-      <c r="Z33" s="269"/>
-      <c r="AA33" s="269"/>
-      <c r="AB33" s="269"/>
-      <c r="AC33" s="269"/>
-      <c r="AD33" s="269"/>
-      <c r="AE33" s="269"/>
-      <c r="AF33" s="269"/>
-      <c r="AG33" s="269"/>
-      <c r="AH33" s="269"/>
-      <c r="AI33" s="269"/>
-      <c r="AJ33" s="269"/>
-      <c r="AK33" s="269"/>
-      <c r="AL33" s="269"/>
-      <c r="AM33" s="270"/>
-      <c r="AN33" s="271"/>
-      <c r="AO33" s="272"/>
-      <c r="AP33" s="272"/>
-      <c r="AQ33" s="272"/>
-      <c r="AR33" s="273"/>
-      <c r="AS33" s="271"/>
-      <c r="AT33" s="272"/>
-      <c r="AU33" s="272"/>
-      <c r="AV33" s="272"/>
-      <c r="AW33" s="273"/>
+      <c r="B33" s="246"/>
+      <c r="C33" s="247"/>
+      <c r="D33" s="248"/>
+      <c r="E33" s="249"/>
+      <c r="F33" s="249"/>
+      <c r="G33" s="249"/>
+      <c r="H33" s="249"/>
+      <c r="I33" s="249"/>
+      <c r="J33" s="250"/>
+      <c r="K33" s="251"/>
+      <c r="L33" s="252"/>
+      <c r="M33" s="260"/>
+      <c r="N33" s="261"/>
+      <c r="O33" s="261"/>
+      <c r="P33" s="261"/>
+      <c r="Q33" s="261"/>
+      <c r="R33" s="262"/>
+      <c r="S33" s="256"/>
+      <c r="T33" s="256"/>
+      <c r="U33" s="256"/>
+      <c r="V33" s="257"/>
+      <c r="W33" s="258"/>
+      <c r="X33" s="258"/>
+      <c r="Y33" s="258"/>
+      <c r="Z33" s="258"/>
+      <c r="AA33" s="258"/>
+      <c r="AB33" s="258"/>
+      <c r="AC33" s="258"/>
+      <c r="AD33" s="258"/>
+      <c r="AE33" s="258"/>
+      <c r="AF33" s="258"/>
+      <c r="AG33" s="258"/>
+      <c r="AH33" s="258"/>
+      <c r="AI33" s="258"/>
+      <c r="AJ33" s="258"/>
+      <c r="AK33" s="258"/>
+      <c r="AL33" s="258"/>
+      <c r="AM33" s="259"/>
+      <c r="AN33" s="243"/>
+      <c r="AO33" s="244"/>
+      <c r="AP33" s="244"/>
+      <c r="AQ33" s="244"/>
+      <c r="AR33" s="245"/>
+      <c r="AS33" s="243"/>
+      <c r="AT33" s="244"/>
+      <c r="AU33" s="244"/>
+      <c r="AV33" s="244"/>
+      <c r="AW33" s="245"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="262"/>
-      <c r="C34" s="263"/>
-      <c r="D34" s="264"/>
-      <c r="E34" s="254"/>
-      <c r="F34" s="254"/>
-      <c r="G34" s="254"/>
-      <c r="H34" s="254"/>
-      <c r="I34" s="254"/>
-      <c r="J34" s="255"/>
-      <c r="K34" s="256"/>
-      <c r="L34" s="257"/>
-      <c r="M34" s="280"/>
-      <c r="N34" s="281"/>
-      <c r="O34" s="281"/>
-      <c r="P34" s="281"/>
-      <c r="Q34" s="281"/>
-      <c r="R34" s="282"/>
-      <c r="S34" s="252"/>
-      <c r="T34" s="252"/>
-      <c r="U34" s="252"/>
-      <c r="V34" s="268"/>
-      <c r="W34" s="269"/>
-      <c r="X34" s="269"/>
-      <c r="Y34" s="269"/>
-      <c r="Z34" s="269"/>
-      <c r="AA34" s="269"/>
-      <c r="AB34" s="269"/>
-      <c r="AC34" s="269"/>
-      <c r="AD34" s="269"/>
-      <c r="AE34" s="269"/>
-      <c r="AF34" s="269"/>
-      <c r="AG34" s="269"/>
-      <c r="AH34" s="269"/>
-      <c r="AI34" s="269"/>
-      <c r="AJ34" s="269"/>
-      <c r="AK34" s="269"/>
-      <c r="AL34" s="269"/>
-      <c r="AM34" s="270"/>
-      <c r="AN34" s="271"/>
-      <c r="AO34" s="272"/>
-      <c r="AP34" s="272"/>
-      <c r="AQ34" s="272"/>
-      <c r="AR34" s="273"/>
-      <c r="AS34" s="271"/>
-      <c r="AT34" s="272"/>
-      <c r="AU34" s="272"/>
-      <c r="AV34" s="272"/>
-      <c r="AW34" s="273"/>
+      <c r="B34" s="246"/>
+      <c r="C34" s="247"/>
+      <c r="D34" s="248"/>
+      <c r="E34" s="249"/>
+      <c r="F34" s="249"/>
+      <c r="G34" s="249"/>
+      <c r="H34" s="249"/>
+      <c r="I34" s="249"/>
+      <c r="J34" s="250"/>
+      <c r="K34" s="251"/>
+      <c r="L34" s="252"/>
+      <c r="M34" s="253"/>
+      <c r="N34" s="254"/>
+      <c r="O34" s="254"/>
+      <c r="P34" s="254"/>
+      <c r="Q34" s="254"/>
+      <c r="R34" s="255"/>
+      <c r="S34" s="256"/>
+      <c r="T34" s="256"/>
+      <c r="U34" s="256"/>
+      <c r="V34" s="257"/>
+      <c r="W34" s="258"/>
+      <c r="X34" s="258"/>
+      <c r="Y34" s="258"/>
+      <c r="Z34" s="258"/>
+      <c r="AA34" s="258"/>
+      <c r="AB34" s="258"/>
+      <c r="AC34" s="258"/>
+      <c r="AD34" s="258"/>
+      <c r="AE34" s="258"/>
+      <c r="AF34" s="258"/>
+      <c r="AG34" s="258"/>
+      <c r="AH34" s="258"/>
+      <c r="AI34" s="258"/>
+      <c r="AJ34" s="258"/>
+      <c r="AK34" s="258"/>
+      <c r="AL34" s="258"/>
+      <c r="AM34" s="259"/>
+      <c r="AN34" s="243"/>
+      <c r="AO34" s="244"/>
+      <c r="AP34" s="244"/>
+      <c r="AQ34" s="244"/>
+      <c r="AR34" s="245"/>
+      <c r="AS34" s="243"/>
+      <c r="AT34" s="244"/>
+      <c r="AU34" s="244"/>
+      <c r="AV34" s="244"/>
+      <c r="AW34" s="245"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -8794,239 +9048,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9186,11 +9207,11 @@
       <c r="AL2" s="35"/>
       <c r="AM2" s="35"/>
       <c r="AN2" s="36"/>
-      <c r="AO2" s="283"/>
-      <c r="AP2" s="284"/>
-      <c r="AQ2" s="284"/>
-      <c r="AR2" s="284"/>
-      <c r="AS2" s="285"/>
+      <c r="AO2" s="287"/>
+      <c r="AP2" s="288"/>
+      <c r="AQ2" s="288"/>
+      <c r="AR2" s="288"/>
+      <c r="AS2" s="289"/>
       <c r="AT2" s="34" t="s">
         <v>26</v>
       </c>
@@ -9199,14 +9220,14 @@
       <c r="AW2" s="35"/>
       <c r="AX2" s="35"/>
       <c r="AY2" s="36"/>
-      <c r="AZ2" s="286"/>
-      <c r="BA2" s="287"/>
-      <c r="BB2" s="287"/>
-      <c r="BC2" s="287"/>
-      <c r="BD2" s="287"/>
-      <c r="BE2" s="287"/>
-      <c r="BF2" s="287"/>
-      <c r="BG2" s="288"/>
+      <c r="AZ2" s="290"/>
+      <c r="BA2" s="291"/>
+      <c r="BB2" s="291"/>
+      <c r="BC2" s="291"/>
+      <c r="BD2" s="291"/>
+      <c r="BE2" s="291"/>
+      <c r="BF2" s="291"/>
+      <c r="BG2" s="292"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="33"/>
@@ -10955,10 +10976,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="29"/>
-      <c r="B50" s="289" t="s">
+      <c r="B50" s="293" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="290"/>
+      <c r="C50" s="294"/>
       <c r="D50" s="85" t="s">
         <v>90</v>
       </c>
@@ -11041,10 +11062,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="29"/>
-      <c r="B51" s="291">
+      <c r="B51" s="283">
         <v>1</v>
       </c>
-      <c r="C51" s="292"/>
+      <c r="C51" s="284"/>
       <c r="D51" s="106" t="s">
         <v>109</v>
       </c>
@@ -11055,7 +11076,7 @@
       <c r="I51" s="84"/>
       <c r="J51" s="107"/>
       <c r="K51" s="106" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L51" s="84"/>
       <c r="M51" s="84"/>
@@ -11119,10 +11140,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="29"/>
-      <c r="B52" s="291">
+      <c r="B52" s="283">
         <v>2</v>
       </c>
-      <c r="C52" s="292"/>
+      <c r="C52" s="284"/>
       <c r="D52" s="106" t="s">
         <v>110</v>
       </c>
@@ -11133,7 +11154,7 @@
       <c r="I52" s="84"/>
       <c r="J52" s="107"/>
       <c r="K52" s="236" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L52" s="237"/>
       <c r="M52" s="237"/>
@@ -11154,18 +11175,18 @@
       <c r="AB52" s="237"/>
       <c r="AC52" s="237"/>
       <c r="AD52" s="238"/>
-      <c r="AE52" s="293" t="s">
+      <c r="AE52" s="285" t="s">
         <v>99</v>
       </c>
-      <c r="AF52" s="294"/>
-      <c r="AG52" s="293"/>
-      <c r="AH52" s="294"/>
-      <c r="AI52" s="293"/>
-      <c r="AJ52" s="294"/>
-      <c r="AK52" s="293"/>
-      <c r="AL52" s="294"/>
+      <c r="AF52" s="286"/>
+      <c r="AG52" s="285"/>
+      <c r="AH52" s="286"/>
+      <c r="AI52" s="285"/>
+      <c r="AJ52" s="286"/>
+      <c r="AK52" s="285"/>
+      <c r="AL52" s="286"/>
       <c r="AM52" s="239" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AN52" s="82"/>
       <c r="AO52" s="82"/>
@@ -11197,10 +11218,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="29"/>
-      <c r="B53" s="291">
+      <c r="B53" s="283">
         <v>3</v>
       </c>
-      <c r="C53" s="292"/>
+      <c r="C53" s="284"/>
       <c r="D53" s="106" t="s">
         <v>110</v>
       </c>
@@ -11211,7 +11232,7 @@
       <c r="I53" s="84"/>
       <c r="J53" s="107"/>
       <c r="K53" s="236" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L53" s="237"/>
       <c r="M53" s="237"/>
@@ -11232,18 +11253,18 @@
       <c r="AB53" s="237"/>
       <c r="AC53" s="237"/>
       <c r="AD53" s="238"/>
-      <c r="AE53" s="293" t="s">
+      <c r="AE53" s="285" t="s">
         <v>99</v>
       </c>
-      <c r="AF53" s="294"/>
-      <c r="AG53" s="293"/>
-      <c r="AH53" s="294"/>
-      <c r="AI53" s="293"/>
-      <c r="AJ53" s="294"/>
-      <c r="AK53" s="293"/>
-      <c r="AL53" s="294"/>
+      <c r="AF53" s="286"/>
+      <c r="AG53" s="285"/>
+      <c r="AH53" s="286"/>
+      <c r="AI53" s="285"/>
+      <c r="AJ53" s="286"/>
+      <c r="AK53" s="285"/>
+      <c r="AL53" s="286"/>
       <c r="AM53" s="239" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AN53" s="82"/>
       <c r="AO53" s="82"/>
@@ -11275,10 +11296,10 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="29"/>
-      <c r="B54" s="291">
+      <c r="B54" s="283">
         <v>4</v>
       </c>
-      <c r="C54" s="292"/>
+      <c r="C54" s="284"/>
       <c r="D54" s="106" t="s">
         <v>110</v>
       </c>
@@ -11289,7 +11310,7 @@
       <c r="I54" s="84"/>
       <c r="J54" s="107"/>
       <c r="K54" s="236" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L54" s="237"/>
       <c r="M54" s="237"/>
@@ -11310,18 +11331,18 @@
       <c r="AB54" s="237"/>
       <c r="AC54" s="237"/>
       <c r="AD54" s="238"/>
-      <c r="AE54" s="293" t="s">
+      <c r="AE54" s="285" t="s">
         <v>99</v>
       </c>
-      <c r="AF54" s="294"/>
-      <c r="AG54" s="293"/>
-      <c r="AH54" s="294"/>
-      <c r="AI54" s="293"/>
-      <c r="AJ54" s="294"/>
-      <c r="AK54" s="293"/>
-      <c r="AL54" s="294"/>
+      <c r="AF54" s="286"/>
+      <c r="AG54" s="285"/>
+      <c r="AH54" s="286"/>
+      <c r="AI54" s="285"/>
+      <c r="AJ54" s="286"/>
+      <c r="AK54" s="285"/>
+      <c r="AL54" s="286"/>
       <c r="AM54" s="239" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AN54" s="82"/>
       <c r="AO54" s="82"/>
@@ -11353,10 +11374,10 @@
     </row>
     <row r="55" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A55" s="29"/>
-      <c r="B55" s="291">
+      <c r="B55" s="283">
         <v>5</v>
       </c>
-      <c r="C55" s="292"/>
+      <c r="C55" s="284"/>
       <c r="D55" s="106" t="s">
         <v>110</v>
       </c>
@@ -11367,7 +11388,7 @@
       <c r="I55" s="84"/>
       <c r="J55" s="107"/>
       <c r="K55" s="236" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L55" s="237"/>
       <c r="M55" s="237"/>
@@ -11388,18 +11409,18 @@
       <c r="AB55" s="237"/>
       <c r="AC55" s="237"/>
       <c r="AD55" s="238"/>
-      <c r="AE55" s="293" t="s">
+      <c r="AE55" s="285" t="s">
         <v>99</v>
       </c>
-      <c r="AF55" s="294"/>
-      <c r="AG55" s="293"/>
-      <c r="AH55" s="294"/>
-      <c r="AI55" s="293"/>
-      <c r="AJ55" s="294"/>
-      <c r="AK55" s="293"/>
-      <c r="AL55" s="294"/>
+      <c r="AF55" s="286"/>
+      <c r="AG55" s="285"/>
+      <c r="AH55" s="286"/>
+      <c r="AI55" s="285"/>
+      <c r="AJ55" s="286"/>
+      <c r="AK55" s="285"/>
+      <c r="AL55" s="286"/>
       <c r="AM55" s="239" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AN55" s="82"/>
       <c r="AO55" s="82"/>
@@ -11436,18 +11457,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="B50:C50"/>
@@ -11464,6 +11473,18 @@
     <mergeCell ref="AI51:AJ51"/>
     <mergeCell ref="AK51:AL51"/>
     <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11609,7 +11630,7 @@
       <c r="CR1" s="35"/>
       <c r="CS1" s="35"/>
       <c r="CT1" s="36"/>
-      <c r="CU1" s="286" t="str">
+      <c r="CU1" s="290" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -11740,7 +11761,7 @@
       <c r="CR2" s="35"/>
       <c r="CS2" s="35"/>
       <c r="CT2" s="36"/>
-      <c r="CU2" s="286"/>
+      <c r="CU2" s="290"/>
       <c r="CV2" s="297"/>
       <c r="CW2" s="297"/>
       <c r="CX2" s="297"/>
@@ -11957,22 +11978,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="245" t="s">
+      <c r="C6" s="276" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="245" t="s">
+      <c r="D6" s="276" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="245" t="s">
+      <c r="E6" s="276" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="245" t="s">
+      <c r="F6" s="276" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="245" t="s">
+      <c r="G6" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="245" t="s">
+      <c r="H6" s="276" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="306" t="s">
@@ -11981,13 +12002,13 @@
       <c r="J6" s="306" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="245" t="s">
+      <c r="K6" s="276" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="245" t="s">
+      <c r="L6" s="276" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="245" t="s">
+      <c r="M6" s="276" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="73" t="s">
@@ -12002,17 +12023,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="245"/>
-      <c r="D7" s="245"/>
-      <c r="E7" s="245"/>
-      <c r="F7" s="245"/>
-      <c r="G7" s="245"/>
-      <c r="H7" s="245"/>
+      <c r="C7" s="276"/>
+      <c r="D7" s="276"/>
+      <c r="E7" s="276"/>
+      <c r="F7" s="276"/>
+      <c r="G7" s="276"/>
+      <c r="H7" s="276"/>
       <c r="I7" s="306"/>
       <c r="J7" s="306"/>
-      <c r="K7" s="245"/>
-      <c r="L7" s="245"/>
-      <c r="M7" s="245"/>
+      <c r="K7" s="276"/>
+      <c r="L7" s="276"/>
+      <c r="M7" s="276"/>
       <c r="N7" s="43" t="s">
         <v>74</v>
       </c>
@@ -12131,22 +12152,22 @@
     <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
-      <c r="C12" s="245" t="s">
+      <c r="C12" s="276" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="245" t="s">
+      <c r="D12" s="276" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="245" t="s">
+      <c r="E12" s="276" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="245" t="s">
+      <c r="F12" s="276" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="245" t="s">
+      <c r="G12" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="245" t="s">
+      <c r="H12" s="276" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="307" t="s">
@@ -12155,13 +12176,13 @@
       <c r="J12" s="306" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="245" t="s">
+      <c r="K12" s="276" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="245" t="s">
+      <c r="L12" s="276" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="245" t="s">
+      <c r="M12" s="276" t="s">
         <v>33</v>
       </c>
       <c r="N12" s="73" t="s">
@@ -12176,17 +12197,17 @@
     <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="245"/>
-      <c r="D13" s="245"/>
-      <c r="E13" s="245"/>
-      <c r="F13" s="245"/>
-      <c r="G13" s="245"/>
-      <c r="H13" s="245"/>
+      <c r="C13" s="276"/>
+      <c r="D13" s="276"/>
+      <c r="E13" s="276"/>
+      <c r="F13" s="276"/>
+      <c r="G13" s="276"/>
+      <c r="H13" s="276"/>
       <c r="I13" s="308"/>
       <c r="J13" s="306"/>
-      <c r="K13" s="245"/>
-      <c r="L13" s="245"/>
-      <c r="M13" s="245"/>
+      <c r="K13" s="276"/>
+      <c r="L13" s="276"/>
+      <c r="M13" s="276"/>
       <c r="N13" s="43" t="s">
         <v>74</v>
       </c>
@@ -12255,10 +12276,10 @@
         <v>105</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>134</v>
@@ -12288,7 +12309,7 @@
         <v>34</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Q15" s="8"/>
     </row>
@@ -12428,7 +12449,7 @@
         <v>219</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -12449,22 +12470,22 @@
     </row>
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="110"/>
-      <c r="C22" s="245" t="s">
+      <c r="C22" s="276" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="245" t="s">
+      <c r="D22" s="276" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="245" t="s">
+      <c r="E22" s="276" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="245" t="s">
+      <c r="F22" s="276" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="245" t="s">
+      <c r="G22" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="245" t="s">
+      <c r="H22" s="276" t="s">
         <v>29</v>
       </c>
       <c r="I22" s="306" t="s">
@@ -12473,13 +12494,13 @@
       <c r="J22" s="306" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="245" t="s">
+      <c r="K22" s="276" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="245" t="s">
+      <c r="L22" s="276" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="245" t="s">
+      <c r="M22" s="276" t="s">
         <v>33</v>
       </c>
       <c r="N22" s="73" t="s">
@@ -12493,17 +12514,17 @@
     </row>
     <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B23" s="110"/>
-      <c r="C23" s="245"/>
-      <c r="D23" s="245"/>
-      <c r="E23" s="245"/>
-      <c r="F23" s="245"/>
-      <c r="G23" s="245"/>
-      <c r="H23" s="245"/>
+      <c r="C23" s="276"/>
+      <c r="D23" s="276"/>
+      <c r="E23" s="276"/>
+      <c r="F23" s="276"/>
+      <c r="G23" s="276"/>
+      <c r="H23" s="276"/>
       <c r="I23" s="306"/>
       <c r="J23" s="306"/>
-      <c r="K23" s="245"/>
-      <c r="L23" s="245"/>
-      <c r="M23" s="245"/>
+      <c r="K23" s="276"/>
+      <c r="L23" s="276"/>
+      <c r="M23" s="276"/>
       <c r="N23" s="108" t="s">
         <v>74</v>
       </c>
@@ -12572,10 +12593,10 @@
         <v>59</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G25" s="44" t="s">
         <v>50</v>
@@ -12794,7 +12815,7 @@
         <v>35</v>
       </c>
       <c r="Q29" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -12823,22 +12844,22 @@
     </row>
     <row r="32" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="110"/>
-      <c r="C32" s="245" t="s">
+      <c r="C32" s="276" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="245" t="s">
+      <c r="D32" s="276" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="245" t="s">
+      <c r="E32" s="276" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="245" t="s">
+      <c r="F32" s="276" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="245" t="s">
+      <c r="G32" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="245" t="s">
+      <c r="H32" s="276" t="s">
         <v>29</v>
       </c>
       <c r="I32" s="306" t="s">
@@ -12847,13 +12868,13 @@
       <c r="J32" s="306" t="s">
         <v>46</v>
       </c>
-      <c r="K32" s="245" t="s">
+      <c r="K32" s="276" t="s">
         <v>31</v>
       </c>
-      <c r="L32" s="245" t="s">
+      <c r="L32" s="276" t="s">
         <v>30</v>
       </c>
-      <c r="M32" s="245" t="s">
+      <c r="M32" s="276" t="s">
         <v>33</v>
       </c>
       <c r="N32" s="73" t="s">
@@ -12867,17 +12888,17 @@
     </row>
     <row r="33" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B33" s="110"/>
-      <c r="C33" s="245"/>
-      <c r="D33" s="245"/>
-      <c r="E33" s="245"/>
-      <c r="F33" s="245"/>
-      <c r="G33" s="245"/>
-      <c r="H33" s="245"/>
+      <c r="C33" s="276"/>
+      <c r="D33" s="276"/>
+      <c r="E33" s="276"/>
+      <c r="F33" s="276"/>
+      <c r="G33" s="276"/>
+      <c r="H33" s="276"/>
       <c r="I33" s="306"/>
       <c r="J33" s="306"/>
-      <c r="K33" s="245"/>
-      <c r="L33" s="245"/>
-      <c r="M33" s="245"/>
+      <c r="K33" s="276"/>
+      <c r="L33" s="276"/>
+      <c r="M33" s="276"/>
       <c r="N33" s="112" t="s">
         <v>74</v>
       </c>
@@ -12946,10 +12967,10 @@
         <v>186</v>
       </c>
       <c r="E35" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="G35" s="44" t="s">
         <v>50</v>
@@ -12973,7 +12994,7 @@
         <v>34</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>35</v>
@@ -13029,7 +13050,7 @@
         <v>35</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -13062,28 +13083,24 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="C12:C13"/>
@@ -13092,24 +13109,28 @@
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -13179,7 +13200,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="283">
+      <c r="AI1" s="287">
         <f>変更履歴!E5</f>
         <v>43717</v>
       </c>
@@ -13195,7 +13216,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="286" t="str">
+      <c r="AT1" s="290" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -13266,7 +13287,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="286"/>
+      <c r="AT2" s="290"/>
       <c r="AU2" s="297"/>
       <c r="AV2" s="297"/>
       <c r="AW2" s="297"/>
@@ -13569,7 +13590,7 @@
       <c r="K10" s="76"/>
       <c r="L10" s="24"/>
       <c r="M10" s="117" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N10" s="118"/>
       <c r="O10" s="118"/>
@@ -13581,7 +13602,7 @@
       <c r="U10" s="118"/>
       <c r="V10" s="119"/>
       <c r="W10" s="117" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="X10" s="118"/>
       <c r="Y10" s="118"/>
@@ -13591,7 +13612,7 @@
       <c r="AC10" s="118"/>
       <c r="AD10" s="118"/>
       <c r="AE10" s="117" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF10" s="118"/>
       <c r="AG10" s="118"/>
@@ -14564,14 +14585,14 @@
       <c r="E29" s="24"/>
       <c r="F29" s="76"/>
       <c r="G29" s="21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
       <c r="K29" s="23"/>
       <c r="L29" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M29" s="22"/>
       <c r="N29" s="22"/>
@@ -14617,7 +14638,7 @@
       <c r="E30" s="24"/>
       <c r="F30" s="76"/>
       <c r="G30" s="75" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -14677,7 +14698,7 @@
       <c r="L31" s="24"/>
       <c r="M31" s="24"/>
       <c r="N31" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
@@ -14728,7 +14749,7 @@
       <c r="L32" s="24"/>
       <c r="M32" s="24"/>
       <c r="N32" s="24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O32" s="24"/>
       <c r="P32" s="24"/>
@@ -14779,7 +14800,7 @@
       <c r="L33" s="24"/>
       <c r="M33" s="24"/>
       <c r="N33" s="24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O33" s="24"/>
       <c r="P33" s="24"/>
@@ -14830,7 +14851,7 @@
       <c r="L34" s="24"/>
       <c r="M34" s="24"/>
       <c r="N34" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O34" s="24"/>
       <c r="P34" s="24"/>
@@ -14881,7 +14902,7 @@
       <c r="L35" s="24"/>
       <c r="M35" s="24"/>
       <c r="N35" s="24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O35" s="24"/>
       <c r="P35" s="24"/>
@@ -14932,7 +14953,7 @@
       <c r="L36" s="24"/>
       <c r="M36" s="24"/>
       <c r="N36" s="24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O36" s="24"/>
       <c r="P36" s="24"/>
@@ -14983,7 +15004,7 @@
       <c r="L37" s="24"/>
       <c r="M37" s="24"/>
       <c r="N37" s="24" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O37" s="24"/>
       <c r="P37" s="24"/>
@@ -15085,7 +15106,7 @@
       <c r="L39" s="24"/>
       <c r="M39" s="24"/>
       <c r="N39" s="24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O39" s="24"/>
       <c r="P39" s="24"/>
@@ -15136,7 +15157,7 @@
       <c r="L40" s="24"/>
       <c r="M40" s="24"/>
       <c r="N40" s="24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O40" s="24"/>
       <c r="P40" s="24"/>
@@ -15180,13 +15201,13 @@
       <c r="G41" s="75"/>
       <c r="K41" s="76"/>
       <c r="O41" s="17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AA41" s="17" t="s">
         <v>122</v>
       </c>
       <c r="AB41" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AV41" s="76"/>
     </row>
@@ -15197,13 +15218,13 @@
       <c r="G42" s="75"/>
       <c r="K42" s="76"/>
       <c r="O42" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AA42" s="17" t="s">
         <v>122</v>
       </c>
       <c r="AB42" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AV42" s="76"/>
     </row>
@@ -15214,7 +15235,7 @@
       <c r="G43" s="75"/>
       <c r="K43" s="76"/>
       <c r="N43" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AV43" s="76"/>
     </row>
@@ -15225,13 +15246,13 @@
       <c r="G44" s="75"/>
       <c r="K44" s="76"/>
       <c r="O44" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AA44" s="17" t="s">
         <v>122</v>
       </c>
       <c r="AB44" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AV44" s="76"/>
     </row>
@@ -15242,13 +15263,13 @@
       <c r="G45" s="75"/>
       <c r="K45" s="76"/>
       <c r="O45" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AA45" s="17" t="s">
         <v>122</v>
       </c>
       <c r="AB45" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AV45" s="76"/>
     </row>
@@ -15317,7 +15338,7 @@
       <c r="L47" s="24"/>
       <c r="M47" s="24"/>
       <c r="N47" s="78" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O47" s="24"/>
       <c r="P47" s="24"/>
@@ -15372,7 +15393,7 @@
       <c r="L48" s="24"/>
       <c r="M48" s="24"/>
       <c r="N48" s="78" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O48" s="24"/>
       <c r="P48" s="24"/>
@@ -15390,7 +15411,7 @@
         <v>37</v>
       </c>
       <c r="AB48" s="111" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AC48" s="24"/>
       <c r="AD48" s="24"/>
@@ -15427,7 +15448,7 @@
       <c r="L49" s="24"/>
       <c r="M49" s="24"/>
       <c r="N49" s="78" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O49" s="24"/>
       <c r="P49" s="24"/>
@@ -15484,7 +15505,7 @@
       <c r="L50" s="24"/>
       <c r="M50" s="24"/>
       <c r="N50" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O50" s="24"/>
       <c r="P50" s="24"/>
@@ -15502,7 +15523,7 @@
         <v>37</v>
       </c>
       <c r="AB50" s="24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AC50" s="24"/>
       <c r="AD50" s="24"/>
@@ -15586,7 +15607,7 @@
       <c r="J52" s="24"/>
       <c r="K52" s="76"/>
       <c r="L52" s="24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M52" s="24"/>
       <c r="N52" s="24"/>
@@ -15690,7 +15711,7 @@
       <c r="L54" s="24"/>
       <c r="M54" s="24"/>
       <c r="N54" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O54" s="24"/>
       <c r="P54" s="24"/>
@@ -15741,7 +15762,7 @@
       <c r="L55" s="24"/>
       <c r="M55" s="24"/>
       <c r="N55" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O55" s="24"/>
       <c r="P55" s="24"/>
@@ -15792,7 +15813,7 @@
       <c r="L56" s="24"/>
       <c r="M56" s="24"/>
       <c r="N56" s="24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O56" s="24"/>
       <c r="P56" s="24"/>
@@ -15843,7 +15864,7 @@
       <c r="L57" s="24"/>
       <c r="M57" s="24"/>
       <c r="N57" s="24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O57" s="24"/>
       <c r="P57" s="24"/>
@@ -15945,7 +15966,7 @@
       <c r="L59" s="24"/>
       <c r="M59" s="24"/>
       <c r="N59" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O59" s="24"/>
       <c r="P59" s="24"/>
@@ -16047,7 +16068,7 @@
       <c r="L61" s="24"/>
       <c r="M61" s="24"/>
       <c r="N61" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O61" s="24"/>
       <c r="P61" s="24"/>
@@ -16065,7 +16086,7 @@
         <v>37</v>
       </c>
       <c r="AB61" s="24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AC61" s="24"/>
       <c r="AD61" s="24"/>
@@ -16104,7 +16125,7 @@
       <c r="L62" s="24"/>
       <c r="M62" s="24"/>
       <c r="N62" s="24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O62" s="24"/>
       <c r="P62" s="24"/>
@@ -16122,7 +16143,7 @@
         <v>37</v>
       </c>
       <c r="AB62" s="222" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AC62" s="24"/>
       <c r="AD62" s="24"/>
@@ -16159,7 +16180,7 @@
       <c r="L63" s="24"/>
       <c r="M63" s="24"/>
       <c r="N63" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O63" s="24"/>
       <c r="P63" s="24"/>
@@ -16174,7 +16195,7 @@
       <c r="Y63" s="24"/>
       <c r="Z63" s="24"/>
       <c r="AA63" s="17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AC63" s="24"/>
       <c r="AD63" s="24"/>
@@ -16204,7 +16225,7 @@
       <c r="G64" s="75"/>
       <c r="K64" s="76"/>
       <c r="M64" s="223" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AA64" s="223"/>
       <c r="AB64" s="224"/>
@@ -16219,7 +16240,7 @@
       <c r="K65" s="76"/>
       <c r="M65" s="223"/>
       <c r="N65" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AA65" s="223"/>
       <c r="AB65" s="224"/>
@@ -16234,7 +16255,7 @@
       <c r="K66" s="76"/>
       <c r="M66" s="223"/>
       <c r="N66" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AA66" s="223"/>
       <c r="AB66" s="224"/>
@@ -16300,7 +16321,7 @@
       <c r="K68" s="76"/>
       <c r="M68" s="223"/>
       <c r="N68" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AA68" s="223"/>
       <c r="AB68" s="224"/>
@@ -16321,7 +16342,7 @@
       <c r="L69" s="24"/>
       <c r="M69" s="24"/>
       <c r="N69" s="24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O69" s="24"/>
       <c r="P69" s="24"/>
@@ -16419,7 +16440,7 @@
       <c r="J71" s="24"/>
       <c r="K71" s="76"/>
       <c r="L71" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M71" s="24"/>
       <c r="N71" s="24"/>
@@ -16523,7 +16544,7 @@
       <c r="L73" s="24"/>
       <c r="M73" s="24"/>
       <c r="N73" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O73" s="24"/>
       <c r="P73" s="24"/>
@@ -16574,7 +16595,7 @@
       <c r="L74" s="24"/>
       <c r="M74" s="24"/>
       <c r="N74" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O74" s="24"/>
       <c r="P74" s="24"/>
@@ -16625,7 +16646,7 @@
       <c r="L75" s="24"/>
       <c r="M75" s="24"/>
       <c r="N75" s="24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O75" s="24"/>
       <c r="P75" s="24"/>
@@ -16676,7 +16697,7 @@
       <c r="L76" s="24"/>
       <c r="M76" s="24"/>
       <c r="N76" s="24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O76" s="24"/>
       <c r="P76" s="24"/>
@@ -16778,7 +16799,7 @@
       <c r="L78" s="24"/>
       <c r="M78" s="24"/>
       <c r="N78" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O78" s="24"/>
       <c r="P78" s="24"/>
@@ -16880,7 +16901,7 @@
       <c r="L80" s="24"/>
       <c r="M80" s="24"/>
       <c r="N80" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O80" s="24"/>
       <c r="P80" s="24"/>
@@ -16898,7 +16919,7 @@
         <v>37</v>
       </c>
       <c r="AB80" s="24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AC80" s="24"/>
       <c r="AD80" s="24"/>
@@ -16937,7 +16958,7 @@
       <c r="L81" s="24"/>
       <c r="M81" s="24"/>
       <c r="N81" s="24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O81" s="24"/>
       <c r="P81" s="24"/>
@@ -16955,7 +16976,7 @@
         <v>37</v>
       </c>
       <c r="AB81" s="222" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AC81" s="24"/>
       <c r="AD81" s="24"/>
@@ -16992,7 +17013,7 @@
       <c r="L82" s="24"/>
       <c r="M82" s="24"/>
       <c r="N82" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O82" s="24"/>
       <c r="P82" s="24"/>
@@ -17007,7 +17028,7 @@
       <c r="Y82" s="24"/>
       <c r="Z82" s="24"/>
       <c r="AA82" s="17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AC82" s="24"/>
       <c r="AD82" s="24"/>
@@ -17037,7 +17058,7 @@
       <c r="G83" s="75"/>
       <c r="K83" s="76"/>
       <c r="M83" s="223" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AA83" s="223"/>
       <c r="AB83" s="224"/>
@@ -17052,7 +17073,7 @@
       <c r="K84" s="76"/>
       <c r="M84" s="223"/>
       <c r="N84" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AA84" s="223"/>
       <c r="AB84" s="224"/>
@@ -17067,7 +17088,7 @@
       <c r="K85" s="76"/>
       <c r="M85" s="223"/>
       <c r="N85" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AA85" s="223"/>
       <c r="AB85" s="224"/>
@@ -17133,7 +17154,7 @@
       <c r="K87" s="76"/>
       <c r="M87" s="223"/>
       <c r="N87" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AA87" s="223"/>
       <c r="AB87" s="224"/>
@@ -17154,7 +17175,7 @@
       <c r="L88" s="24"/>
       <c r="M88" s="24"/>
       <c r="N88" s="24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O88" s="24"/>
       <c r="P88" s="24"/>
@@ -17252,7 +17273,7 @@
       <c r="J90" s="24"/>
       <c r="K90" s="76"/>
       <c r="L90" s="24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M90" s="24"/>
       <c r="N90" s="24"/>
@@ -17356,7 +17377,7 @@
       <c r="L92" s="24"/>
       <c r="M92" s="24"/>
       <c r="N92" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O92" s="24"/>
       <c r="P92" s="24"/>
@@ -17407,7 +17428,7 @@
       <c r="L93" s="24"/>
       <c r="M93" s="24"/>
       <c r="N93" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O93" s="24"/>
       <c r="P93" s="24"/>
@@ -17458,7 +17479,7 @@
       <c r="L94" s="24"/>
       <c r="M94" s="24"/>
       <c r="N94" s="24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O94" s="24"/>
       <c r="P94" s="24"/>
@@ -17509,7 +17530,7 @@
       <c r="L95" s="24"/>
       <c r="M95" s="24"/>
       <c r="N95" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O95" s="24"/>
       <c r="P95" s="24"/>
@@ -17560,7 +17581,7 @@
       <c r="L96" s="24"/>
       <c r="M96" s="24"/>
       <c r="N96" s="24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O96" s="24"/>
       <c r="P96" s="24"/>
@@ -17662,7 +17683,7 @@
       <c r="L98" s="24"/>
       <c r="M98" s="24"/>
       <c r="N98" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O98" s="24"/>
       <c r="P98" s="24"/>
@@ -17713,7 +17734,7 @@
       <c r="L99" s="24"/>
       <c r="M99" s="24"/>
       <c r="N99" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O99" s="24"/>
       <c r="P99" s="24"/>
@@ -17765,7 +17786,7 @@
       <c r="M100" s="24"/>
       <c r="N100" s="24"/>
       <c r="O100" s="24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P100" s="24"/>
       <c r="Q100" s="24"/>
@@ -17782,7 +17803,7 @@
         <v>122</v>
       </c>
       <c r="AB100" s="24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AC100" s="24"/>
       <c r="AD100" s="24"/>
@@ -17820,7 +17841,7 @@
       <c r="M101" s="24"/>
       <c r="N101" s="24"/>
       <c r="O101" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P101" s="24"/>
       <c r="Q101" s="24"/>
@@ -17837,7 +17858,7 @@
         <v>122</v>
       </c>
       <c r="AB101" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AC101" s="24"/>
       <c r="AD101" s="24"/>
@@ -17925,7 +17946,7 @@
       <c r="L103" s="24"/>
       <c r="M103" s="24"/>
       <c r="N103" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O103" s="24"/>
       <c r="P103" s="24"/>
@@ -17943,7 +17964,7 @@
         <v>37</v>
       </c>
       <c r="AB103" s="24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AC103" s="24"/>
       <c r="AD103" s="24"/>
@@ -17982,7 +18003,7 @@
       <c r="L104" s="24"/>
       <c r="M104" s="24"/>
       <c r="N104" s="24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O104" s="24"/>
       <c r="P104" s="24"/>
@@ -18000,7 +18021,7 @@
         <v>37</v>
       </c>
       <c r="AB104" s="222" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AC104" s="24"/>
       <c r="AD104" s="24"/>
@@ -18037,7 +18058,7 @@
       <c r="L105" s="24"/>
       <c r="M105" s="24"/>
       <c r="N105" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O105" s="24"/>
       <c r="P105" s="24"/>
@@ -18052,7 +18073,7 @@
       <c r="Y105" s="24"/>
       <c r="Z105" s="24"/>
       <c r="AA105" s="17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AC105" s="24"/>
       <c r="AD105" s="24"/>
@@ -18082,7 +18103,7 @@
       <c r="G106" s="75"/>
       <c r="K106" s="76"/>
       <c r="M106" s="223" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AA106" s="223"/>
       <c r="AB106" s="224"/>
@@ -18097,7 +18118,7 @@
       <c r="K107" s="76"/>
       <c r="M107" s="223"/>
       <c r="N107" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AA107" s="223"/>
       <c r="AB107" s="224"/>
@@ -18112,7 +18133,7 @@
       <c r="K108" s="76"/>
       <c r="M108" s="223"/>
       <c r="N108" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AA108" s="223"/>
       <c r="AB108" s="224"/>
@@ -18133,7 +18154,7 @@
       <c r="L109" s="24"/>
       <c r="M109" s="24"/>
       <c r="N109" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O109" s="24"/>
       <c r="P109" s="24"/>
@@ -18229,7 +18250,7 @@
       <c r="K111" s="76"/>
       <c r="M111" s="223"/>
       <c r="N111" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AA111" s="223"/>
       <c r="AB111" s="224"/>
@@ -18250,7 +18271,7 @@
       <c r="L112" s="24"/>
       <c r="M112" s="24"/>
       <c r="N112" s="24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O112" s="24"/>
       <c r="P112" s="24"/>
@@ -18348,7 +18369,7 @@
       <c r="J114" s="24"/>
       <c r="K114" s="76"/>
       <c r="L114" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M114" s="24"/>
       <c r="N114" s="24"/>
@@ -18401,7 +18422,7 @@
       <c r="L115" s="24"/>
       <c r="M115" s="24"/>
       <c r="N115" s="24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O115" s="24"/>
       <c r="P115" s="24"/>
@@ -18499,7 +18520,7 @@
       <c r="J117" s="24"/>
       <c r="K117" s="76"/>
       <c r="L117" s="24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M117" s="24"/>
       <c r="N117" s="24"/>
@@ -18603,7 +18624,7 @@
       <c r="L119" s="24"/>
       <c r="M119" s="24"/>
       <c r="N119" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O119" s="24"/>
       <c r="P119" s="24"/>
@@ -18654,7 +18675,7 @@
       <c r="L120" s="24"/>
       <c r="M120" s="24"/>
       <c r="N120" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O120" s="24"/>
       <c r="P120" s="24"/>
@@ -18705,7 +18726,7 @@
       <c r="L121" s="24"/>
       <c r="M121" s="24"/>
       <c r="N121" s="24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O121" s="24"/>
       <c r="P121" s="24"/>
@@ -18756,7 +18777,7 @@
       <c r="L122" s="24"/>
       <c r="M122" s="24"/>
       <c r="N122" s="24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O122" s="24"/>
       <c r="P122" s="24"/>
@@ -18858,7 +18879,7 @@
       <c r="L124" s="24"/>
       <c r="M124" s="24"/>
       <c r="N124" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O124" s="24"/>
       <c r="P124" s="24"/>
@@ -18960,7 +18981,7 @@
       <c r="L126" s="24"/>
       <c r="M126" s="24"/>
       <c r="N126" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O126" s="24"/>
       <c r="P126" s="24"/>
@@ -18978,7 +18999,7 @@
         <v>37</v>
       </c>
       <c r="AB126" s="24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AC126" s="24"/>
       <c r="AD126" s="24"/>
@@ -19017,7 +19038,7 @@
       <c r="L127" s="24"/>
       <c r="M127" s="24"/>
       <c r="N127" s="24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O127" s="24"/>
       <c r="P127" s="24"/>
@@ -19035,7 +19056,7 @@
         <v>37</v>
       </c>
       <c r="AB127" s="222" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AC127" s="24"/>
       <c r="AD127" s="24"/>
@@ -19072,7 +19093,7 @@
       <c r="L128" s="24"/>
       <c r="M128" s="24"/>
       <c r="N128" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O128" s="24"/>
       <c r="P128" s="24"/>
@@ -19087,7 +19108,7 @@
       <c r="Y128" s="24"/>
       <c r="Z128" s="24"/>
       <c r="AA128" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AC128" s="24"/>
       <c r="AD128" s="24"/>
@@ -19117,7 +19138,7 @@
       <c r="G129" s="75"/>
       <c r="K129" s="76"/>
       <c r="M129" s="223" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AA129" s="223"/>
       <c r="AB129" s="224"/>
@@ -19132,7 +19153,7 @@
       <c r="K130" s="76"/>
       <c r="M130" s="223"/>
       <c r="N130" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AA130" s="223"/>
       <c r="AB130" s="224"/>
@@ -19147,7 +19168,7 @@
       <c r="K131" s="76"/>
       <c r="M131" s="223"/>
       <c r="N131" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AA131" s="223"/>
       <c r="AB131" s="224"/>
@@ -19213,7 +19234,7 @@
       <c r="K133" s="76"/>
       <c r="M133" s="223"/>
       <c r="N133" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AA133" s="223"/>
       <c r="AB133" s="224"/>
@@ -19234,7 +19255,7 @@
       <c r="L134" s="24"/>
       <c r="M134" s="24"/>
       <c r="N134" s="24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O134" s="24"/>
       <c r="P134" s="24"/>
@@ -19332,7 +19353,7 @@
       <c r="J136" s="24"/>
       <c r="K136" s="76"/>
       <c r="L136" s="24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M136" s="24"/>
       <c r="N136" s="24"/>
@@ -19436,7 +19457,7 @@
       <c r="L138" s="24"/>
       <c r="M138" s="24"/>
       <c r="N138" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O138" s="24"/>
       <c r="P138" s="24"/>
@@ -19487,7 +19508,7 @@
       <c r="L139" s="24"/>
       <c r="M139" s="24"/>
       <c r="N139" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O139" s="24"/>
       <c r="P139" s="24"/>
@@ -19538,7 +19559,7 @@
       <c r="L140" s="24"/>
       <c r="M140" s="24"/>
       <c r="N140" s="24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O140" s="24"/>
       <c r="P140" s="24"/>
@@ -19589,7 +19610,7 @@
       <c r="L141" s="24"/>
       <c r="M141" s="24"/>
       <c r="N141" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O141" s="24"/>
       <c r="P141" s="24"/>
@@ -19640,7 +19661,7 @@
       <c r="L142" s="24"/>
       <c r="M142" s="24"/>
       <c r="N142" s="24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O142" s="24"/>
       <c r="P142" s="24"/>
@@ -19742,7 +19763,7 @@
       <c r="L144" s="24"/>
       <c r="M144" s="24"/>
       <c r="N144" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O144" s="24"/>
       <c r="P144" s="24"/>
@@ -19793,7 +19814,7 @@
       <c r="L145" s="24"/>
       <c r="M145" s="24"/>
       <c r="N145" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O145" s="24"/>
       <c r="P145" s="24"/>
@@ -19845,7 +19866,7 @@
       <c r="M146" s="24"/>
       <c r="N146" s="24"/>
       <c r="O146" s="24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P146" s="24"/>
       <c r="Q146" s="24"/>
@@ -19862,7 +19883,7 @@
         <v>122</v>
       </c>
       <c r="AB146" s="24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AC146" s="24"/>
       <c r="AD146" s="24"/>
@@ -19900,7 +19921,7 @@
       <c r="M147" s="24"/>
       <c r="N147" s="24"/>
       <c r="O147" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P147" s="24"/>
       <c r="Q147" s="24"/>
@@ -19917,7 +19938,7 @@
         <v>122</v>
       </c>
       <c r="AB147" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AC147" s="24"/>
       <c r="AD147" s="24"/>
@@ -20005,7 +20026,7 @@
       <c r="L149" s="24"/>
       <c r="M149" s="24"/>
       <c r="N149" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O149" s="24"/>
       <c r="P149" s="24"/>
@@ -20023,7 +20044,7 @@
         <v>37</v>
       </c>
       <c r="AB149" s="24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AC149" s="24"/>
       <c r="AD149" s="24"/>
@@ -20062,7 +20083,7 @@
       <c r="L150" s="24"/>
       <c r="M150" s="24"/>
       <c r="N150" s="24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O150" s="24"/>
       <c r="P150" s="24"/>
@@ -20080,7 +20101,7 @@
         <v>37</v>
       </c>
       <c r="AB150" s="222" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AC150" s="24"/>
       <c r="AD150" s="24"/>
@@ -20117,7 +20138,7 @@
       <c r="L151" s="24"/>
       <c r="M151" s="24"/>
       <c r="N151" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O151" s="24"/>
       <c r="P151" s="24"/>
@@ -20132,7 +20153,7 @@
       <c r="Y151" s="24"/>
       <c r="Z151" s="24"/>
       <c r="AA151" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AC151" s="24"/>
       <c r="AD151" s="24"/>
@@ -20162,7 +20183,7 @@
       <c r="G152" s="75"/>
       <c r="K152" s="76"/>
       <c r="M152" s="223" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AA152" s="223"/>
       <c r="AB152" s="224"/>
@@ -20177,7 +20198,7 @@
       <c r="K153" s="76"/>
       <c r="M153" s="223"/>
       <c r="N153" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AA153" s="223"/>
       <c r="AB153" s="224"/>
@@ -20192,7 +20213,7 @@
       <c r="K154" s="76"/>
       <c r="M154" s="223"/>
       <c r="N154" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AA154" s="223"/>
       <c r="AB154" s="224"/>
@@ -20213,7 +20234,7 @@
       <c r="L155" s="24"/>
       <c r="M155" s="24"/>
       <c r="N155" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O155" s="24"/>
       <c r="P155" s="24"/>
@@ -20309,7 +20330,7 @@
       <c r="K157" s="76"/>
       <c r="M157" s="223"/>
       <c r="N157" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AA157" s="223"/>
       <c r="AB157" s="224"/>
@@ -20330,7 +20351,7 @@
       <c r="L158" s="24"/>
       <c r="M158" s="24"/>
       <c r="N158" s="24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O158" s="24"/>
       <c r="P158" s="24"/>
@@ -20423,14 +20444,14 @@
       <c r="E160" s="24"/>
       <c r="F160" s="76"/>
       <c r="G160" s="21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H160" s="22"/>
       <c r="I160" s="22"/>
       <c r="J160" s="22"/>
       <c r="K160" s="23"/>
       <c r="L160" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M160" s="22"/>
       <c r="N160" s="22"/>
@@ -20476,7 +20497,7 @@
       <c r="E161" s="24"/>
       <c r="F161" s="76"/>
       <c r="G161" s="75" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H161" s="24"/>
       <c r="I161" s="24"/>
@@ -20536,7 +20557,7 @@
       <c r="L162" s="24"/>
       <c r="M162" s="24"/>
       <c r="N162" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O162" s="24"/>
       <c r="P162" s="24"/>
@@ -20587,7 +20608,7 @@
       <c r="L163" s="24"/>
       <c r="M163" s="24"/>
       <c r="N163" s="24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O163" s="24"/>
       <c r="P163" s="24"/>
@@ -20638,7 +20659,7 @@
       <c r="L164" s="24"/>
       <c r="M164" s="24"/>
       <c r="N164" s="24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O164" s="24"/>
       <c r="P164" s="24"/>
@@ -20689,7 +20710,7 @@
       <c r="L165" s="24"/>
       <c r="M165" s="24"/>
       <c r="N165" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O165" s="24"/>
       <c r="P165" s="24"/>
@@ -20740,7 +20761,7 @@
       <c r="L166" s="24"/>
       <c r="M166" s="24"/>
       <c r="N166" s="24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O166" s="24"/>
       <c r="P166" s="24"/>
@@ -20791,7 +20812,7 @@
       <c r="L167" s="24"/>
       <c r="M167" s="24"/>
       <c r="N167" s="24" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O167" s="24"/>
       <c r="P167" s="24"/>
@@ -20842,7 +20863,7 @@
       <c r="L168" s="24"/>
       <c r="M168" s="24"/>
       <c r="N168" s="24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O168" s="24"/>
       <c r="P168" s="24"/>
@@ -20944,7 +20965,7 @@
       <c r="L170" s="24"/>
       <c r="M170" s="24"/>
       <c r="N170" s="24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O170" s="24"/>
       <c r="P170" s="24"/>
@@ -20995,7 +21016,7 @@
       <c r="L171" s="24"/>
       <c r="M171" s="24"/>
       <c r="N171" s="24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O171" s="24"/>
       <c r="P171" s="24"/>
@@ -21039,13 +21060,13 @@
       <c r="G172" s="75"/>
       <c r="K172" s="76"/>
       <c r="O172" s="17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AA172" s="17" t="s">
         <v>122</v>
       </c>
       <c r="AB172" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AV172" s="76"/>
     </row>
@@ -21056,13 +21077,13 @@
       <c r="G173" s="75"/>
       <c r="K173" s="76"/>
       <c r="O173" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AA173" s="17" t="s">
         <v>122</v>
       </c>
       <c r="AB173" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AV173" s="76"/>
     </row>
@@ -21131,7 +21152,7 @@
       <c r="L175" s="24"/>
       <c r="M175" s="24"/>
       <c r="N175" s="78" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O175" s="24"/>
       <c r="P175" s="24"/>
@@ -21186,7 +21207,7 @@
       <c r="L176" s="24"/>
       <c r="M176" s="24"/>
       <c r="N176" s="78" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O176" s="24"/>
       <c r="P176" s="24"/>
@@ -21204,7 +21225,7 @@
         <v>37</v>
       </c>
       <c r="AB176" s="111" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AC176" s="24"/>
       <c r="AD176" s="24"/>
@@ -21241,7 +21262,7 @@
       <c r="L177" s="24"/>
       <c r="M177" s="24"/>
       <c r="N177" s="78" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O177" s="24"/>
       <c r="P177" s="24"/>
@@ -21298,7 +21319,7 @@
       <c r="L178" s="24"/>
       <c r="M178" s="24"/>
       <c r="N178" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O178" s="24"/>
       <c r="P178" s="24"/>
@@ -21316,7 +21337,7 @@
         <v>37</v>
       </c>
       <c r="AB178" s="24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AC178" s="24"/>
       <c r="AD178" s="24"/>
@@ -21400,7 +21421,7 @@
       <c r="J180" s="115"/>
       <c r="K180" s="116"/>
       <c r="L180" s="115" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M180" s="115"/>
       <c r="N180" s="115"/>
@@ -21504,7 +21525,7 @@
       <c r="L182" s="228"/>
       <c r="M182" s="228"/>
       <c r="N182" s="228" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O182" s="228"/>
       <c r="P182" s="228"/>
@@ -21555,7 +21576,7 @@
       <c r="L183" s="228"/>
       <c r="M183" s="228"/>
       <c r="N183" s="228" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O183" s="228"/>
       <c r="P183" s="228"/>
@@ -21606,7 +21627,7 @@
       <c r="L184" s="228"/>
       <c r="M184" s="228"/>
       <c r="N184" s="228" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O184" s="228"/>
       <c r="P184" s="228"/>
@@ -21708,7 +21729,7 @@
       <c r="L186" s="228"/>
       <c r="M186" s="228"/>
       <c r="N186" s="228" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O186" s="228"/>
       <c r="P186" s="228"/>
@@ -21810,7 +21831,7 @@
       <c r="L188" s="228"/>
       <c r="M188" s="228"/>
       <c r="N188" s="228" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O188" s="228"/>
       <c r="P188" s="228"/>
@@ -21828,7 +21849,7 @@
         <v>37</v>
       </c>
       <c r="AB188" s="230" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AC188" s="228"/>
       <c r="AD188" s="228"/>
@@ -21859,7 +21880,7 @@
       <c r="K189" s="76"/>
       <c r="L189" s="231"/>
       <c r="M189" s="232" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N189" s="231"/>
       <c r="O189" s="231"/>
@@ -21891,7 +21912,7 @@
       <c r="L190" s="231"/>
       <c r="M190" s="232"/>
       <c r="N190" s="231" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O190" s="231"/>
       <c r="P190" s="231"/>
@@ -21922,7 +21943,7 @@
       <c r="L191" s="231"/>
       <c r="M191" s="232"/>
       <c r="N191" s="231" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O191" s="231"/>
       <c r="P191" s="231"/>
@@ -22004,7 +22025,7 @@
       <c r="L193" s="231"/>
       <c r="M193" s="232"/>
       <c r="N193" s="231" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O193" s="231"/>
       <c r="P193" s="231"/>
@@ -22040,7 +22061,7 @@
       <c r="L194" s="228"/>
       <c r="M194" s="228"/>
       <c r="N194" s="228" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O194" s="228"/>
       <c r="P194" s="228"/>
@@ -22138,7 +22159,7 @@
       <c r="J196" s="228"/>
       <c r="K196" s="235"/>
       <c r="L196" s="115" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M196" s="115"/>
       <c r="N196" s="115"/>
@@ -22242,7 +22263,7 @@
       <c r="L198" s="228"/>
       <c r="M198" s="228"/>
       <c r="N198" s="228" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O198" s="228"/>
       <c r="P198" s="228"/>
@@ -22293,7 +22314,7 @@
       <c r="L199" s="228"/>
       <c r="M199" s="228"/>
       <c r="N199" s="228" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O199" s="228"/>
       <c r="P199" s="228"/>
@@ -22344,7 +22365,7 @@
       <c r="L200" s="228"/>
       <c r="M200" s="228"/>
       <c r="N200" s="228" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O200" s="228"/>
       <c r="P200" s="228"/>
@@ -22446,7 +22467,7 @@
       <c r="L202" s="228"/>
       <c r="M202" s="228"/>
       <c r="N202" s="228" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O202" s="228"/>
       <c r="P202" s="228"/>
@@ -22548,7 +22569,7 @@
       <c r="L204" s="228"/>
       <c r="M204" s="228"/>
       <c r="N204" s="225" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O204" s="225"/>
       <c r="P204" s="225"/>
@@ -22566,7 +22587,7 @@
         <v>37</v>
       </c>
       <c r="AB204" s="227" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AC204" s="225"/>
       <c r="AD204" s="225"/>
@@ -22603,7 +22624,7 @@
       <c r="L205" s="228"/>
       <c r="M205" s="228"/>
       <c r="N205" s="225" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O205" s="225"/>
       <c r="P205" s="225"/>
@@ -22621,7 +22642,7 @@
         <v>37</v>
       </c>
       <c r="AB205" s="227" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AC205" s="225"/>
       <c r="AD205" s="225"/>
@@ -22652,7 +22673,7 @@
       <c r="K206" s="76"/>
       <c r="L206" s="231"/>
       <c r="M206" s="232" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N206" s="231"/>
       <c r="O206" s="231"/>
@@ -22684,7 +22705,7 @@
       <c r="L207" s="231"/>
       <c r="M207" s="232"/>
       <c r="N207" s="231" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O207" s="231"/>
       <c r="P207" s="231"/>
@@ -22715,7 +22736,7 @@
       <c r="L208" s="231"/>
       <c r="M208" s="232"/>
       <c r="N208" s="231" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O208" s="231"/>
       <c r="P208" s="231"/>
@@ -22797,7 +22818,7 @@
       <c r="L210" s="231"/>
       <c r="M210" s="232"/>
       <c r="N210" s="231" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O210" s="231"/>
       <c r="P210" s="231"/>
@@ -22833,7 +22854,7 @@
       <c r="L211" s="228"/>
       <c r="M211" s="228"/>
       <c r="N211" s="228" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O211" s="228"/>
       <c r="P211" s="228"/>
@@ -22931,7 +22952,7 @@
       <c r="J213" s="115"/>
       <c r="K213" s="116"/>
       <c r="L213" s="115" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M213" s="115"/>
       <c r="N213" s="115"/>
@@ -23035,7 +23056,7 @@
       <c r="L215" s="228"/>
       <c r="M215" s="228"/>
       <c r="N215" s="228" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O215" s="228"/>
       <c r="P215" s="228"/>
@@ -23086,7 +23107,7 @@
       <c r="L216" s="228"/>
       <c r="M216" s="228"/>
       <c r="N216" s="228" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O216" s="228"/>
       <c r="P216" s="228"/>
@@ -23137,7 +23158,7 @@
       <c r="L217" s="228"/>
       <c r="M217" s="228"/>
       <c r="N217" s="228" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O217" s="228"/>
       <c r="P217" s="228"/>
@@ -23239,7 +23260,7 @@
       <c r="L219" s="228"/>
       <c r="M219" s="228"/>
       <c r="N219" s="228" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O219" s="228"/>
       <c r="P219" s="228"/>
@@ -23341,7 +23362,7 @@
       <c r="L221" s="228"/>
       <c r="M221" s="228"/>
       <c r="N221" s="228" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O221" s="228"/>
       <c r="P221" s="228"/>
@@ -23359,7 +23380,7 @@
         <v>37</v>
       </c>
       <c r="AB221" s="230" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AC221" s="228"/>
       <c r="AD221" s="228"/>
@@ -23396,7 +23417,7 @@
       <c r="L222" s="228"/>
       <c r="M222" s="228"/>
       <c r="N222" s="228" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O222" s="228"/>
       <c r="P222" s="228"/>
@@ -23414,7 +23435,7 @@
         <v>37</v>
       </c>
       <c r="AB222" s="230" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AC222" s="228"/>
       <c r="AD222" s="228"/>
@@ -23445,7 +23466,7 @@
       <c r="K223" s="76"/>
       <c r="L223" s="231"/>
       <c r="M223" s="232" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N223" s="231"/>
       <c r="O223" s="231"/>
@@ -23477,7 +23498,7 @@
       <c r="L224" s="231"/>
       <c r="M224" s="232"/>
       <c r="N224" s="231" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O224" s="231"/>
       <c r="P224" s="231"/>
@@ -23508,7 +23529,7 @@
       <c r="L225" s="231"/>
       <c r="M225" s="232"/>
       <c r="N225" s="231" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O225" s="231"/>
       <c r="P225" s="231"/>
@@ -23590,7 +23611,7 @@
       <c r="L227" s="231"/>
       <c r="M227" s="232"/>
       <c r="N227" s="231" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O227" s="231"/>
       <c r="P227" s="231"/>
@@ -23626,7 +23647,7 @@
       <c r="L228" s="228"/>
       <c r="M228" s="228"/>
       <c r="N228" s="228" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O228" s="228"/>
       <c r="P228" s="228"/>
@@ -23724,7 +23745,7 @@
       <c r="J230" s="115"/>
       <c r="K230" s="116"/>
       <c r="L230" s="115" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M230" s="115"/>
       <c r="N230" s="115"/>
@@ -23828,7 +23849,7 @@
       <c r="L232" s="228"/>
       <c r="M232" s="228"/>
       <c r="N232" s="228" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O232" s="228"/>
       <c r="P232" s="228"/>
@@ -23879,7 +23900,7 @@
       <c r="L233" s="228"/>
       <c r="M233" s="228"/>
       <c r="N233" s="228" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O233" s="228"/>
       <c r="P233" s="228"/>
@@ -23930,7 +23951,7 @@
       <c r="L234" s="228"/>
       <c r="M234" s="228"/>
       <c r="N234" s="228" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O234" s="228"/>
       <c r="P234" s="228"/>
@@ -24032,7 +24053,7 @@
       <c r="L236" s="228"/>
       <c r="M236" s="228"/>
       <c r="N236" s="228" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O236" s="228"/>
       <c r="P236" s="228"/>
@@ -24134,7 +24155,7 @@
       <c r="L238" s="228"/>
       <c r="M238" s="228"/>
       <c r="N238" s="228" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O238" s="228"/>
       <c r="P238" s="228"/>
@@ -24152,7 +24173,7 @@
         <v>37</v>
       </c>
       <c r="AB238" s="230" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AC238" s="228"/>
       <c r="AD238" s="228"/>
@@ -24189,7 +24210,7 @@
       <c r="L239" s="228"/>
       <c r="M239" s="228"/>
       <c r="N239" s="228" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O239" s="228"/>
       <c r="P239" s="228"/>
@@ -24207,7 +24228,7 @@
         <v>37</v>
       </c>
       <c r="AB239" s="230" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AC239" s="228"/>
       <c r="AD239" s="228"/>
@@ -24238,7 +24259,7 @@
       <c r="K240" s="76"/>
       <c r="L240" s="231"/>
       <c r="M240" s="232" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N240" s="231"/>
       <c r="O240" s="231"/>
@@ -24270,7 +24291,7 @@
       <c r="L241" s="231"/>
       <c r="M241" s="232"/>
       <c r="N241" s="231" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O241" s="231"/>
       <c r="P241" s="231"/>
@@ -24301,7 +24322,7 @@
       <c r="L242" s="231"/>
       <c r="M242" s="232"/>
       <c r="N242" s="231" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O242" s="231"/>
       <c r="P242" s="231"/>
@@ -24383,7 +24404,7 @@
       <c r="L244" s="231"/>
       <c r="M244" s="232"/>
       <c r="N244" s="231" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O244" s="231"/>
       <c r="P244" s="231"/>
@@ -24419,7 +24440,7 @@
       <c r="L245" s="228"/>
       <c r="M245" s="228"/>
       <c r="N245" s="228" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O245" s="228"/>
       <c r="P245" s="228"/>
@@ -24517,7 +24538,7 @@
       <c r="J247" s="115"/>
       <c r="K247" s="116"/>
       <c r="L247" s="115" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M247" s="115"/>
       <c r="N247" s="115"/>
@@ -24621,7 +24642,7 @@
       <c r="L249" s="228"/>
       <c r="M249" s="228"/>
       <c r="N249" s="228" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O249" s="228"/>
       <c r="P249" s="228"/>
@@ -24672,7 +24693,7 @@
       <c r="L250" s="228"/>
       <c r="M250" s="228"/>
       <c r="N250" s="228" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O250" s="228"/>
       <c r="P250" s="228"/>
@@ -24723,7 +24744,7 @@
       <c r="L251" s="228"/>
       <c r="M251" s="228"/>
       <c r="N251" s="228" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O251" s="228"/>
       <c r="P251" s="228"/>
@@ -24825,7 +24846,7 @@
       <c r="L253" s="228"/>
       <c r="M253" s="228"/>
       <c r="N253" s="228" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O253" s="228"/>
       <c r="P253" s="228"/>
@@ -24927,7 +24948,7 @@
       <c r="L255" s="228"/>
       <c r="M255" s="228"/>
       <c r="N255" s="228" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O255" s="228"/>
       <c r="P255" s="228"/>
@@ -24945,7 +24966,7 @@
         <v>37</v>
       </c>
       <c r="AB255" s="230" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AC255" s="228"/>
       <c r="AD255" s="228"/>
@@ -24982,7 +25003,7 @@
       <c r="L256" s="228"/>
       <c r="M256" s="228"/>
       <c r="N256" s="228" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O256" s="228"/>
       <c r="P256" s="228"/>
@@ -25000,7 +25021,7 @@
         <v>37</v>
       </c>
       <c r="AB256" s="230" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AC256" s="228"/>
       <c r="AD256" s="228"/>
@@ -25031,7 +25052,7 @@
       <c r="K257" s="76"/>
       <c r="L257" s="231"/>
       <c r="M257" s="232" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N257" s="231"/>
       <c r="O257" s="231"/>
@@ -25063,7 +25084,7 @@
       <c r="L258" s="231"/>
       <c r="M258" s="232"/>
       <c r="N258" s="231" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O258" s="231"/>
       <c r="P258" s="231"/>
@@ -25094,7 +25115,7 @@
       <c r="L259" s="231"/>
       <c r="M259" s="232"/>
       <c r="N259" s="231" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O259" s="231"/>
       <c r="P259" s="231"/>
@@ -25176,7 +25197,7 @@
       <c r="L261" s="231"/>
       <c r="M261" s="232"/>
       <c r="N261" s="231" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O261" s="231"/>
       <c r="P261" s="231"/>
@@ -25212,7 +25233,7 @@
       <c r="L262" s="228"/>
       <c r="M262" s="228"/>
       <c r="N262" s="228" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O262" s="228"/>
       <c r="P262" s="228"/>
@@ -25310,7 +25331,7 @@
       <c r="J264" s="115"/>
       <c r="K264" s="116"/>
       <c r="L264" s="115" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M264" s="115"/>
       <c r="N264" s="115"/>
@@ -25414,7 +25435,7 @@
       <c r="L266" s="228"/>
       <c r="M266" s="228"/>
       <c r="N266" s="228" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O266" s="228"/>
       <c r="P266" s="228"/>
@@ -25465,7 +25486,7 @@
       <c r="L267" s="228"/>
       <c r="M267" s="228"/>
       <c r="N267" s="228" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O267" s="228"/>
       <c r="P267" s="228"/>
@@ -25516,7 +25537,7 @@
       <c r="L268" s="228"/>
       <c r="M268" s="228"/>
       <c r="N268" s="228" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O268" s="228"/>
       <c r="P268" s="228"/>
@@ -25618,7 +25639,7 @@
       <c r="L270" s="228"/>
       <c r="M270" s="228"/>
       <c r="N270" s="228" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O270" s="228"/>
       <c r="P270" s="228"/>
@@ -25720,7 +25741,7 @@
       <c r="L272" s="228"/>
       <c r="M272" s="228"/>
       <c r="N272" s="228" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O272" s="228"/>
       <c r="P272" s="228"/>
@@ -25738,7 +25759,7 @@
         <v>37</v>
       </c>
       <c r="AB272" s="230" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AC272" s="228"/>
       <c r="AD272" s="228"/>
@@ -25775,7 +25796,7 @@
       <c r="L273" s="228"/>
       <c r="M273" s="228"/>
       <c r="N273" s="228" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O273" s="228"/>
       <c r="P273" s="228"/>
@@ -25793,7 +25814,7 @@
         <v>37</v>
       </c>
       <c r="AB273" s="230" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AC273" s="228"/>
       <c r="AD273" s="228"/>
@@ -25824,7 +25845,7 @@
       <c r="K274" s="76"/>
       <c r="L274" s="231"/>
       <c r="M274" s="232" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N274" s="231"/>
       <c r="O274" s="231"/>
@@ -25856,7 +25877,7 @@
       <c r="L275" s="231"/>
       <c r="M275" s="232"/>
       <c r="N275" s="231" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O275" s="231"/>
       <c r="P275" s="231"/>
@@ -25887,7 +25908,7 @@
       <c r="L276" s="231"/>
       <c r="M276" s="232"/>
       <c r="N276" s="231" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O276" s="231"/>
       <c r="P276" s="231"/>
@@ -25969,7 +25990,7 @@
       <c r="L278" s="231"/>
       <c r="M278" s="232"/>
       <c r="N278" s="231" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O278" s="231"/>
       <c r="P278" s="231"/>
@@ -26005,7 +26026,7 @@
       <c r="L279" s="228"/>
       <c r="M279" s="228"/>
       <c r="N279" s="228" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O279" s="228"/>
       <c r="P279" s="228"/>
@@ -26103,7 +26124,7 @@
       <c r="J281" s="115"/>
       <c r="K281" s="116"/>
       <c r="L281" s="115" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M281" s="115"/>
       <c r="N281" s="115"/>
@@ -26207,7 +26228,7 @@
       <c r="L283" s="228"/>
       <c r="M283" s="228"/>
       <c r="N283" s="228" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O283" s="228"/>
       <c r="P283" s="228"/>
@@ -26258,7 +26279,7 @@
       <c r="L284" s="228"/>
       <c r="M284" s="228"/>
       <c r="N284" s="228" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O284" s="228"/>
       <c r="P284" s="228"/>
@@ -26309,7 +26330,7 @@
       <c r="L285" s="228"/>
       <c r="M285" s="228"/>
       <c r="N285" s="228" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O285" s="228"/>
       <c r="P285" s="228"/>
@@ -26360,7 +26381,7 @@
       <c r="L286" s="24"/>
       <c r="M286" s="24"/>
       <c r="N286" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O286" s="24"/>
       <c r="P286" s="24"/>
@@ -26462,7 +26483,7 @@
       <c r="L288" s="228"/>
       <c r="M288" s="228"/>
       <c r="N288" s="228" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O288" s="228"/>
       <c r="P288" s="228"/>
@@ -26513,7 +26534,7 @@
       <c r="L289" s="24"/>
       <c r="M289" s="24"/>
       <c r="N289" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O289" s="24"/>
       <c r="P289" s="24"/>
@@ -26565,7 +26586,7 @@
       <c r="M290" s="24"/>
       <c r="N290" s="24"/>
       <c r="O290" s="24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P290" s="24"/>
       <c r="Q290" s="24"/>
@@ -26582,7 +26603,7 @@
         <v>122</v>
       </c>
       <c r="AB290" s="24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AC290" s="24"/>
       <c r="AD290" s="24"/>
@@ -26620,7 +26641,7 @@
       <c r="M291" s="24"/>
       <c r="N291" s="24"/>
       <c r="O291" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P291" s="24"/>
       <c r="Q291" s="24"/>
@@ -26637,7 +26658,7 @@
         <v>122</v>
       </c>
       <c r="AB291" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AC291" s="24"/>
       <c r="AD291" s="24"/>
@@ -26725,7 +26746,7 @@
       <c r="L293" s="228"/>
       <c r="M293" s="228"/>
       <c r="N293" s="228" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O293" s="228"/>
       <c r="P293" s="228"/>
@@ -26743,7 +26764,7 @@
         <v>37</v>
       </c>
       <c r="AB293" s="230" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AC293" s="228"/>
       <c r="AD293" s="228"/>
@@ -26780,7 +26801,7 @@
       <c r="L294" s="228"/>
       <c r="M294" s="228"/>
       <c r="N294" s="228" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O294" s="228"/>
       <c r="P294" s="228"/>
@@ -26795,7 +26816,7 @@
       <c r="Y294" s="228"/>
       <c r="Z294" s="228"/>
       <c r="AA294" s="229" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AB294" s="230"/>
       <c r="AC294" s="228"/>
@@ -26827,7 +26848,7 @@
       <c r="K295" s="76"/>
       <c r="L295" s="231"/>
       <c r="M295" s="232" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N295" s="231"/>
       <c r="O295" s="231"/>
@@ -26859,7 +26880,7 @@
       <c r="L296" s="231"/>
       <c r="M296" s="232"/>
       <c r="N296" s="231" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O296" s="231"/>
       <c r="P296" s="231"/>
@@ -26890,7 +26911,7 @@
       <c r="L297" s="231"/>
       <c r="M297" s="232"/>
       <c r="N297" s="231" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O297" s="231"/>
       <c r="P297" s="231"/>
@@ -26926,7 +26947,7 @@
       <c r="L298" s="24"/>
       <c r="M298" s="24"/>
       <c r="N298" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O298" s="24"/>
       <c r="P298" s="24"/>
@@ -27023,7 +27044,7 @@
       <c r="L300" s="231"/>
       <c r="M300" s="232"/>
       <c r="N300" s="231" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O300" s="231"/>
       <c r="P300" s="231"/>
@@ -27059,7 +27080,7 @@
       <c r="L301" s="228"/>
       <c r="M301" s="228"/>
       <c r="N301" s="228" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O301" s="228"/>
       <c r="P301" s="228"/>
@@ -27157,7 +27178,7 @@
       <c r="J303" s="115"/>
       <c r="K303" s="116"/>
       <c r="L303" s="115" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M303" s="115"/>
       <c r="N303" s="115"/>
@@ -27261,7 +27282,7 @@
       <c r="L305" s="228"/>
       <c r="M305" s="228"/>
       <c r="N305" s="228" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O305" s="228"/>
       <c r="P305" s="228"/>
@@ -27312,7 +27333,7 @@
       <c r="L306" s="228"/>
       <c r="M306" s="228"/>
       <c r="N306" s="228" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O306" s="228"/>
       <c r="P306" s="228"/>
@@ -27363,7 +27384,7 @@
       <c r="L307" s="228"/>
       <c r="M307" s="228"/>
       <c r="N307" s="228" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O307" s="228"/>
       <c r="P307" s="228"/>
@@ -27414,7 +27435,7 @@
       <c r="L308" s="24"/>
       <c r="M308" s="24"/>
       <c r="N308" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O308" s="24"/>
       <c r="P308" s="24"/>
@@ -27516,7 +27537,7 @@
       <c r="L310" s="228"/>
       <c r="M310" s="228"/>
       <c r="N310" s="228" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O310" s="228"/>
       <c r="P310" s="228"/>
@@ -27567,7 +27588,7 @@
       <c r="L311" s="24"/>
       <c r="M311" s="24"/>
       <c r="N311" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O311" s="24"/>
       <c r="P311" s="24"/>
@@ -27619,7 +27640,7 @@
       <c r="M312" s="24"/>
       <c r="N312" s="24"/>
       <c r="O312" s="24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P312" s="24"/>
       <c r="Q312" s="24"/>
@@ -27636,7 +27657,7 @@
         <v>122</v>
       </c>
       <c r="AB312" s="24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AC312" s="24"/>
       <c r="AD312" s="24"/>
@@ -27674,7 +27695,7 @@
       <c r="M313" s="24"/>
       <c r="N313" s="24"/>
       <c r="O313" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P313" s="24"/>
       <c r="Q313" s="24"/>
@@ -27691,7 +27712,7 @@
         <v>122</v>
       </c>
       <c r="AB313" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AC313" s="24"/>
       <c r="AD313" s="24"/>
@@ -27779,7 +27800,7 @@
       <c r="L315" s="228"/>
       <c r="M315" s="228"/>
       <c r="N315" s="228" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O315" s="228"/>
       <c r="P315" s="228"/>
@@ -27797,7 +27818,7 @@
         <v>37</v>
       </c>
       <c r="AB315" s="230" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AC315" s="228"/>
       <c r="AD315" s="228"/>
@@ -27834,7 +27855,7 @@
       <c r="L316" s="228"/>
       <c r="M316" s="228"/>
       <c r="N316" s="228" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O316" s="228"/>
       <c r="P316" s="228"/>
@@ -27852,7 +27873,7 @@
         <v>37</v>
       </c>
       <c r="AB316" s="230" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AC316" s="228"/>
       <c r="AD316" s="228"/>
@@ -27883,7 +27904,7 @@
       <c r="K317" s="76"/>
       <c r="L317" s="231"/>
       <c r="M317" s="232" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N317" s="231"/>
       <c r="O317" s="231"/>
@@ -27915,7 +27936,7 @@
       <c r="L318" s="231"/>
       <c r="M318" s="232"/>
       <c r="N318" s="231" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O318" s="231"/>
       <c r="P318" s="231"/>
@@ -27946,7 +27967,7 @@
       <c r="L319" s="231"/>
       <c r="M319" s="232"/>
       <c r="N319" s="231" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O319" s="231"/>
       <c r="P319" s="231"/>
@@ -27982,7 +28003,7 @@
       <c r="L320" s="24"/>
       <c r="M320" s="24"/>
       <c r="N320" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O320" s="24"/>
       <c r="P320" s="24"/>
@@ -28079,7 +28100,7 @@
       <c r="L322" s="231"/>
       <c r="M322" s="232"/>
       <c r="N322" s="231" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O322" s="231"/>
       <c r="P322" s="231"/>
@@ -28115,7 +28136,7 @@
       <c r="L323" s="228"/>
       <c r="M323" s="228"/>
       <c r="N323" s="228" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O323" s="228"/>
       <c r="P323" s="228"/>
@@ -28213,7 +28234,7 @@
       <c r="J325" s="115"/>
       <c r="K325" s="116"/>
       <c r="L325" s="115" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M325" s="115"/>
       <c r="N325" s="115"/>
@@ -28317,7 +28338,7 @@
       <c r="L327" s="228"/>
       <c r="M327" s="228"/>
       <c r="N327" s="228" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O327" s="228"/>
       <c r="P327" s="228"/>
@@ -28368,7 +28389,7 @@
       <c r="L328" s="228"/>
       <c r="M328" s="228"/>
       <c r="N328" s="228" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O328" s="228"/>
       <c r="P328" s="228"/>
@@ -28419,7 +28440,7 @@
       <c r="L329" s="228"/>
       <c r="M329" s="228"/>
       <c r="N329" s="228" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O329" s="228"/>
       <c r="P329" s="228"/>
@@ -28470,7 +28491,7 @@
       <c r="L330" s="24"/>
       <c r="M330" s="24"/>
       <c r="N330" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O330" s="24"/>
       <c r="P330" s="24"/>
@@ -28572,7 +28593,7 @@
       <c r="L332" s="228"/>
       <c r="M332" s="228"/>
       <c r="N332" s="228" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O332" s="228"/>
       <c r="P332" s="228"/>
@@ -28623,7 +28644,7 @@
       <c r="L333" s="24"/>
       <c r="M333" s="24"/>
       <c r="N333" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O333" s="24"/>
       <c r="P333" s="24"/>
@@ -28675,7 +28696,7 @@
       <c r="M334" s="24"/>
       <c r="N334" s="24"/>
       <c r="O334" s="24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P334" s="24"/>
       <c r="Q334" s="24"/>
@@ -28692,7 +28713,7 @@
         <v>122</v>
       </c>
       <c r="AB334" s="24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AC334" s="24"/>
       <c r="AD334" s="24"/>
@@ -28730,7 +28751,7 @@
       <c r="M335" s="24"/>
       <c r="N335" s="24"/>
       <c r="O335" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P335" s="24"/>
       <c r="Q335" s="24"/>
@@ -28747,7 +28768,7 @@
         <v>122</v>
       </c>
       <c r="AB335" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AC335" s="24"/>
       <c r="AD335" s="24"/>
@@ -28835,7 +28856,7 @@
       <c r="L337" s="228"/>
       <c r="M337" s="228"/>
       <c r="N337" s="228" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O337" s="228"/>
       <c r="P337" s="228"/>
@@ -28853,7 +28874,7 @@
         <v>37</v>
       </c>
       <c r="AB337" s="230" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AC337" s="228"/>
       <c r="AD337" s="228"/>
@@ -28884,7 +28905,7 @@
       <c r="K338" s="76"/>
       <c r="L338" s="231"/>
       <c r="M338" s="232" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N338" s="231"/>
       <c r="O338" s="231"/>
@@ -28916,7 +28937,7 @@
       <c r="L339" s="231"/>
       <c r="M339" s="232"/>
       <c r="N339" s="231" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O339" s="231"/>
       <c r="P339" s="231"/>
@@ -28947,7 +28968,7 @@
       <c r="L340" s="231"/>
       <c r="M340" s="232"/>
       <c r="N340" s="231" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O340" s="231"/>
       <c r="P340" s="231"/>
@@ -28983,7 +29004,7 @@
       <c r="L341" s="24"/>
       <c r="M341" s="24"/>
       <c r="N341" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O341" s="24"/>
       <c r="P341" s="24"/>
@@ -29080,7 +29101,7 @@
       <c r="L343" s="231"/>
       <c r="M343" s="232"/>
       <c r="N343" s="231" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O343" s="231"/>
       <c r="P343" s="231"/>
@@ -29116,7 +29137,7 @@
       <c r="L344" s="228"/>
       <c r="M344" s="228"/>
       <c r="N344" s="228" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O344" s="228"/>
       <c r="P344" s="228"/>
@@ -29214,7 +29235,7 @@
       <c r="J346" s="115"/>
       <c r="K346" s="116"/>
       <c r="L346" s="115" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M346" s="115"/>
       <c r="N346" s="115"/>
@@ -29318,7 +29339,7 @@
       <c r="L348" s="228"/>
       <c r="M348" s="228"/>
       <c r="N348" s="228" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O348" s="228"/>
       <c r="P348" s="228"/>
@@ -29369,7 +29390,7 @@
       <c r="L349" s="228"/>
       <c r="M349" s="228"/>
       <c r="N349" s="228" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O349" s="228"/>
       <c r="P349" s="228"/>
@@ -29420,7 +29441,7 @@
       <c r="L350" s="228"/>
       <c r="M350" s="228"/>
       <c r="N350" s="228" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O350" s="228"/>
       <c r="P350" s="228"/>
@@ -29471,7 +29492,7 @@
       <c r="L351" s="24"/>
       <c r="M351" s="24"/>
       <c r="N351" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O351" s="24"/>
       <c r="P351" s="24"/>
@@ -29573,7 +29594,7 @@
       <c r="L353" s="228"/>
       <c r="M353" s="228"/>
       <c r="N353" s="228" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O353" s="228"/>
       <c r="P353" s="228"/>
@@ -29624,7 +29645,7 @@
       <c r="L354" s="24"/>
       <c r="M354" s="24"/>
       <c r="N354" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O354" s="24"/>
       <c r="P354" s="24"/>
@@ -29676,7 +29697,7 @@
       <c r="M355" s="24"/>
       <c r="N355" s="24"/>
       <c r="O355" s="24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P355" s="24"/>
       <c r="Q355" s="24"/>
@@ -29693,7 +29714,7 @@
         <v>122</v>
       </c>
       <c r="AB355" s="24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AC355" s="24"/>
       <c r="AD355" s="24"/>
@@ -29731,7 +29752,7 @@
       <c r="M356" s="24"/>
       <c r="N356" s="24"/>
       <c r="O356" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P356" s="24"/>
       <c r="Q356" s="24"/>
@@ -29748,7 +29769,7 @@
         <v>122</v>
       </c>
       <c r="AB356" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AC356" s="24"/>
       <c r="AD356" s="24"/>
@@ -29836,7 +29857,7 @@
       <c r="L358" s="228"/>
       <c r="M358" s="228"/>
       <c r="N358" s="228" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O358" s="228"/>
       <c r="P358" s="228"/>
@@ -29854,7 +29875,7 @@
         <v>37</v>
       </c>
       <c r="AB358" s="230" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AC358" s="228"/>
       <c r="AD358" s="228"/>
@@ -29885,7 +29906,7 @@
       <c r="K359" s="76"/>
       <c r="L359" s="231"/>
       <c r="M359" s="232" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N359" s="231"/>
       <c r="O359" s="231"/>
@@ -29917,7 +29938,7 @@
       <c r="L360" s="231"/>
       <c r="M360" s="232"/>
       <c r="N360" s="231" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O360" s="231"/>
       <c r="P360" s="231"/>
@@ -29948,7 +29969,7 @@
       <c r="L361" s="231"/>
       <c r="M361" s="232"/>
       <c r="N361" s="231" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O361" s="231"/>
       <c r="P361" s="231"/>
@@ -29984,7 +30005,7 @@
       <c r="L362" s="24"/>
       <c r="M362" s="24"/>
       <c r="N362" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O362" s="24"/>
       <c r="P362" s="24"/>
@@ -30081,7 +30102,7 @@
       <c r="L364" s="231"/>
       <c r="M364" s="232"/>
       <c r="N364" s="231" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O364" s="231"/>
       <c r="P364" s="231"/>
@@ -30117,7 +30138,7 @@
       <c r="L365" s="228"/>
       <c r="M365" s="228"/>
       <c r="N365" s="228" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O365" s="228"/>
       <c r="P365" s="228"/>
@@ -30215,7 +30236,7 @@
       <c r="J367" s="115"/>
       <c r="K367" s="116"/>
       <c r="L367" s="115" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M367" s="115"/>
       <c r="N367" s="115"/>
@@ -30319,7 +30340,7 @@
       <c r="L369" s="228"/>
       <c r="M369" s="228"/>
       <c r="N369" s="228" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O369" s="228"/>
       <c r="P369" s="228"/>
@@ -30370,7 +30391,7 @@
       <c r="L370" s="228"/>
       <c r="M370" s="228"/>
       <c r="N370" s="228" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O370" s="228"/>
       <c r="P370" s="228"/>
@@ -30421,7 +30442,7 @@
       <c r="L371" s="228"/>
       <c r="M371" s="228"/>
       <c r="N371" s="228" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O371" s="228"/>
       <c r="P371" s="228"/>
@@ -30472,7 +30493,7 @@
       <c r="L372" s="24"/>
       <c r="M372" s="24"/>
       <c r="N372" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O372" s="24"/>
       <c r="P372" s="24"/>
@@ -30574,7 +30595,7 @@
       <c r="L374" s="228"/>
       <c r="M374" s="228"/>
       <c r="N374" s="228" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O374" s="228"/>
       <c r="P374" s="228"/>
@@ -30625,7 +30646,7 @@
       <c r="L375" s="24"/>
       <c r="M375" s="24"/>
       <c r="N375" s="225" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O375" s="225"/>
       <c r="P375" s="225"/>
@@ -30677,7 +30698,7 @@
       <c r="M376" s="24"/>
       <c r="N376" s="24"/>
       <c r="O376" s="225" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P376" s="225"/>
       <c r="Q376" s="225"/>
@@ -30694,7 +30715,7 @@
         <v>122</v>
       </c>
       <c r="AB376" s="225" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AC376" s="225"/>
       <c r="AD376" s="225"/>
@@ -30732,7 +30753,7 @@
       <c r="M377" s="24"/>
       <c r="N377" s="24"/>
       <c r="O377" s="225" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P377" s="225"/>
       <c r="Q377" s="225"/>
@@ -30749,7 +30770,7 @@
         <v>122</v>
       </c>
       <c r="AB377" s="225" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AC377" s="225"/>
       <c r="AD377" s="225"/>
@@ -30837,7 +30858,7 @@
       <c r="L379" s="228"/>
       <c r="M379" s="228"/>
       <c r="N379" s="228" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O379" s="228"/>
       <c r="P379" s="228"/>
@@ -30855,7 +30876,7 @@
         <v>37</v>
       </c>
       <c r="AB379" s="230" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AC379" s="228"/>
       <c r="AD379" s="228"/>
@@ -30886,7 +30907,7 @@
       <c r="K380" s="76"/>
       <c r="L380" s="231"/>
       <c r="M380" s="232" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N380" s="231"/>
       <c r="O380" s="231"/>
@@ -30918,7 +30939,7 @@
       <c r="L381" s="231"/>
       <c r="M381" s="232"/>
       <c r="N381" s="231" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O381" s="231"/>
       <c r="P381" s="231"/>
@@ -30949,7 +30970,7 @@
       <c r="L382" s="231"/>
       <c r="M382" s="232"/>
       <c r="N382" s="231" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O382" s="231"/>
       <c r="P382" s="231"/>
@@ -30985,7 +31006,7 @@
       <c r="L383" s="24"/>
       <c r="M383" s="24"/>
       <c r="N383" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O383" s="24"/>
       <c r="P383" s="24"/>
@@ -31082,7 +31103,7 @@
       <c r="L385" s="231"/>
       <c r="M385" s="232"/>
       <c r="N385" s="231" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O385" s="231"/>
       <c r="P385" s="231"/>
@@ -31118,7 +31139,7 @@
       <c r="L386" s="228"/>
       <c r="M386" s="228"/>
       <c r="N386" s="228" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O386" s="228"/>
       <c r="P386" s="228"/>
@@ -31216,7 +31237,7 @@
       <c r="J388" s="115"/>
       <c r="K388" s="116"/>
       <c r="L388" s="115" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M388" s="115"/>
       <c r="N388" s="115"/>
@@ -31320,7 +31341,7 @@
       <c r="L390" s="228"/>
       <c r="M390" s="228"/>
       <c r="N390" s="228" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O390" s="228"/>
       <c r="P390" s="228"/>
@@ -31371,7 +31392,7 @@
       <c r="L391" s="228"/>
       <c r="M391" s="228"/>
       <c r="N391" s="228" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O391" s="228"/>
       <c r="P391" s="228"/>
@@ -31422,7 +31443,7 @@
       <c r="L392" s="228"/>
       <c r="M392" s="228"/>
       <c r="N392" s="228" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O392" s="228"/>
       <c r="P392" s="228"/>
@@ -31473,7 +31494,7 @@
       <c r="L393" s="24"/>
       <c r="M393" s="24"/>
       <c r="N393" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O393" s="24"/>
       <c r="P393" s="24"/>
@@ -31575,7 +31596,7 @@
       <c r="L395" s="228"/>
       <c r="M395" s="228"/>
       <c r="N395" s="228" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O395" s="228"/>
       <c r="P395" s="228"/>
@@ -31626,7 +31647,7 @@
       <c r="L396" s="24"/>
       <c r="M396" s="24"/>
       <c r="N396" s="225" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O396" s="225"/>
       <c r="P396" s="225"/>
@@ -31678,7 +31699,7 @@
       <c r="M397" s="24"/>
       <c r="N397" s="24"/>
       <c r="O397" s="225" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P397" s="225"/>
       <c r="Q397" s="225"/>
@@ -31695,7 +31716,7 @@
         <v>122</v>
       </c>
       <c r="AB397" s="225" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AC397" s="225"/>
       <c r="AD397" s="225"/>
@@ -31733,7 +31754,7 @@
       <c r="M398" s="24"/>
       <c r="N398" s="24"/>
       <c r="O398" s="225" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P398" s="225"/>
       <c r="Q398" s="225"/>
@@ -31750,7 +31771,7 @@
         <v>122</v>
       </c>
       <c r="AB398" s="225" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AC398" s="225"/>
       <c r="AD398" s="225"/>
@@ -31838,7 +31859,7 @@
       <c r="L400" s="228"/>
       <c r="M400" s="228"/>
       <c r="N400" s="228" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O400" s="228"/>
       <c r="P400" s="228"/>
@@ -31856,7 +31877,7 @@
         <v>37</v>
       </c>
       <c r="AB400" s="230" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AC400" s="228"/>
       <c r="AD400" s="228"/>
@@ -31887,7 +31908,7 @@
       <c r="K401" s="76"/>
       <c r="L401" s="231"/>
       <c r="M401" s="232" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N401" s="231"/>
       <c r="O401" s="231"/>
@@ -31919,7 +31940,7 @@
       <c r="L402" s="231"/>
       <c r="M402" s="232"/>
       <c r="N402" s="231" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O402" s="231"/>
       <c r="P402" s="231"/>
@@ -31950,7 +31971,7 @@
       <c r="L403" s="231"/>
       <c r="M403" s="232"/>
       <c r="N403" s="231" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O403" s="231"/>
       <c r="P403" s="231"/>
@@ -31986,7 +32007,7 @@
       <c r="L404" s="24"/>
       <c r="M404" s="24"/>
       <c r="N404" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O404" s="24"/>
       <c r="P404" s="24"/>
@@ -32083,7 +32104,7 @@
       <c r="L406" s="231"/>
       <c r="M406" s="232"/>
       <c r="N406" s="231" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O406" s="231"/>
       <c r="P406" s="231"/>
@@ -32119,7 +32140,7 @@
       <c r="L407" s="228"/>
       <c r="M407" s="228"/>
       <c r="N407" s="228" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O407" s="228"/>
       <c r="P407" s="228"/>
@@ -32212,7 +32233,7 @@
       <c r="E409" s="24"/>
       <c r="F409" s="76"/>
       <c r="G409" s="21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H409" s="22"/>
       <c r="I409" s="22"/>
@@ -32265,7 +32286,7 @@
       <c r="E410" s="24"/>
       <c r="F410" s="76"/>
       <c r="G410" s="75" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H410" s="24"/>
       <c r="I410" s="24"/>
@@ -32325,7 +32346,7 @@
       <c r="L411" s="24"/>
       <c r="M411" s="24"/>
       <c r="N411" s="24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O411" s="24"/>
       <c r="P411" s="24"/>
@@ -32376,7 +32397,7 @@
       <c r="L412" s="228"/>
       <c r="M412" s="228"/>
       <c r="N412" s="228" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O412" s="228"/>
       <c r="P412" s="228"/>
@@ -32427,7 +32448,7 @@
       <c r="L413" s="24"/>
       <c r="M413" s="24"/>
       <c r="N413" s="24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O413" s="24"/>
       <c r="P413" s="24"/>
@@ -32529,7 +32550,7 @@
       <c r="L415" s="24"/>
       <c r="M415" s="24"/>
       <c r="N415" s="24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O415" s="24"/>
       <c r="P415" s="24"/>
@@ -32580,7 +32601,7 @@
       <c r="L416" s="24"/>
       <c r="M416" s="24"/>
       <c r="N416" s="24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O416" s="24"/>
       <c r="P416" s="24"/>
@@ -32624,13 +32645,13 @@
       <c r="G417" s="75"/>
       <c r="K417" s="76"/>
       <c r="O417" s="17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AA417" s="17" t="s">
         <v>122</v>
       </c>
       <c r="AB417" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AV417" s="76"/>
     </row>
@@ -32641,13 +32662,13 @@
       <c r="G418" s="75"/>
       <c r="K418" s="76"/>
       <c r="O418" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AA418" s="17" t="s">
         <v>122</v>
       </c>
       <c r="AB418" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AV418" s="76"/>
     </row>
@@ -32716,7 +32737,7 @@
       <c r="L420" s="24"/>
       <c r="M420" s="24"/>
       <c r="N420" s="78" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O420" s="24"/>
       <c r="P420" s="24"/>
@@ -32771,7 +32792,7 @@
       <c r="L421" s="24"/>
       <c r="M421" s="24"/>
       <c r="N421" s="78" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O421" s="24"/>
       <c r="P421" s="24"/>
@@ -32789,7 +32810,7 @@
         <v>37</v>
       </c>
       <c r="AB421" s="111" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AC421" s="24"/>
       <c r="AD421" s="24"/>
@@ -32826,7 +32847,7 @@
       <c r="L422" s="24"/>
       <c r="M422" s="24"/>
       <c r="N422" s="78" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O422" s="24"/>
       <c r="P422" s="24"/>
@@ -32883,7 +32904,7 @@
       <c r="L423" s="24"/>
       <c r="M423" s="24"/>
       <c r="N423" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O423" s="24"/>
       <c r="P423" s="24"/>
@@ -32901,7 +32922,7 @@
         <v>37</v>
       </c>
       <c r="AB423" s="24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AC423" s="24"/>
       <c r="AD423" s="24"/>
@@ -32938,7 +32959,7 @@
       <c r="L424" s="228"/>
       <c r="M424" s="228"/>
       <c r="N424" s="225" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O424" s="225"/>
       <c r="P424" s="225"/>
@@ -32956,7 +32977,7 @@
         <v>37</v>
       </c>
       <c r="AB424" s="227" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AC424" s="225"/>
       <c r="AD424" s="225"/>
@@ -32987,7 +33008,7 @@
       <c r="K425" s="76"/>
       <c r="L425" s="231"/>
       <c r="M425" s="232" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N425" s="231"/>
       <c r="O425" s="231"/>
@@ -33019,7 +33040,7 @@
       <c r="L426" s="231"/>
       <c r="M426" s="232"/>
       <c r="N426" s="231" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O426" s="231"/>
       <c r="P426" s="231"/>
@@ -33050,7 +33071,7 @@
       <c r="L427" s="231"/>
       <c r="M427" s="232"/>
       <c r="N427" s="231" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O427" s="231"/>
       <c r="P427" s="231"/>
@@ -33132,7 +33153,7 @@
       <c r="L429" s="231"/>
       <c r="M429" s="232"/>
       <c r="N429" s="231" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O429" s="231"/>
       <c r="P429" s="231"/>
@@ -33168,7 +33189,7 @@
       <c r="L430" s="228"/>
       <c r="M430" s="228"/>
       <c r="N430" s="228" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O430" s="228"/>
       <c r="P430" s="228"/>
@@ -33276,7 +33297,7 @@
       <c r="R432" s="24"/>
       <c r="S432" s="24"/>
       <c r="T432" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="U432" s="24"/>
       <c r="V432" s="24"/>
@@ -33329,7 +33350,7 @@
       <c r="R433" s="24"/>
       <c r="S433" s="24"/>
       <c r="T433" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="U433" s="24"/>
       <c r="V433" s="24"/>
@@ -33382,7 +33403,7 @@
       <c r="R434" s="24"/>
       <c r="S434" s="24"/>
       <c r="T434" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="U434" s="24"/>
       <c r="V434" s="24"/>
@@ -33435,7 +33456,7 @@
       <c r="R435" s="24"/>
       <c r="S435" s="24"/>
       <c r="T435" s="24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="U435" s="24"/>
       <c r="V435" s="24"/>
@@ -33488,7 +33509,7 @@
       <c r="R436" s="24"/>
       <c r="S436" s="24"/>
       <c r="T436" s="24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="U436" s="24"/>
       <c r="V436" s="24"/>
@@ -33541,7 +33562,7 @@
       <c r="R437" s="24"/>
       <c r="S437" s="24"/>
       <c r="T437" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="U437" s="24"/>
       <c r="V437" s="24"/>
@@ -41044,7 +41065,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="283">
+      <c r="AI1" s="287">
         <f>変更履歴!E5</f>
         <v>43717</v>
       </c>
@@ -41060,7 +41081,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="286" t="str">
+      <c r="AT1" s="290" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -41131,7 +41152,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="286"/>
+      <c r="AT2" s="290"/>
       <c r="AU2" s="297"/>
       <c r="AV2" s="297"/>
       <c r="AW2" s="297"/>
@@ -45752,7 +45773,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="283">
+      <c r="AI1" s="287">
         <f>変更履歴!E5</f>
         <v>43717</v>
       </c>
@@ -45768,7 +45789,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="286" t="str">
+      <c r="AT1" s="290" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -45839,7 +45860,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="286"/>
+      <c r="AT2" s="290"/>
       <c r="AU2" s="297"/>
       <c r="AV2" s="297"/>
       <c r="AW2" s="297"/>
@@ -46052,18 +46073,18 @@
         <v>223</v>
       </c>
       <c r="K9" s="312" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L9" s="313"/>
       <c r="M9" s="312" t="s">
+        <v>353</v>
+      </c>
+      <c r="N9" s="322"/>
+      <c r="O9" s="313"/>
+      <c r="P9" s="316" t="s">
         <v>354</v>
       </c>
-      <c r="N9" s="316"/>
-      <c r="O9" s="313"/>
-      <c r="P9" s="318" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q9" s="319"/>
+      <c r="Q9" s="318"/>
     </row>
     <row r="10" spans="1:52" s="126" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C10" s="131" t="s">
@@ -46079,9 +46100,9 @@
       <c r="K10" s="314"/>
       <c r="L10" s="315"/>
       <c r="M10" s="314"/>
-      <c r="N10" s="317"/>
+      <c r="N10" s="323"/>
       <c r="O10" s="315"/>
-      <c r="P10" s="320"/>
+      <c r="P10" s="319"/>
       <c r="Q10" s="321"/>
     </row>
     <row r="11" spans="1:52" s="126" customFormat="1" x14ac:dyDescent="0.15">
@@ -46409,7 +46430,7 @@
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D22" s="58"/>
       <c r="E22" s="58"/>
@@ -46477,23 +46498,23 @@
         <v>204</v>
       </c>
       <c r="K23" s="312" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L23" s="313"/>
       <c r="M23" s="312" t="s">
         <v>205</v>
       </c>
       <c r="N23" s="313"/>
-      <c r="O23" s="318" t="s">
+      <c r="O23" s="316" t="s">
         <v>206</v>
       </c>
-      <c r="P23" s="322"/>
-      <c r="Q23" s="319"/>
-      <c r="R23" s="318" t="s">
+      <c r="P23" s="317"/>
+      <c r="Q23" s="318"/>
+      <c r="R23" s="316" t="s">
         <v>207</v>
       </c>
-      <c r="S23" s="322"/>
-      <c r="T23" s="319"/>
+      <c r="S23" s="317"/>
+      <c r="T23" s="318"/>
       <c r="U23" s="312" t="s">
         <v>208</v>
       </c>
@@ -46553,11 +46574,11 @@
       <c r="L24" s="315"/>
       <c r="M24" s="314"/>
       <c r="N24" s="315"/>
-      <c r="O24" s="320"/>
-      <c r="P24" s="323"/>
+      <c r="O24" s="319"/>
+      <c r="P24" s="320"/>
       <c r="Q24" s="321"/>
-      <c r="R24" s="320"/>
-      <c r="S24" s="323"/>
+      <c r="R24" s="319"/>
+      <c r="S24" s="320"/>
       <c r="T24" s="321"/>
       <c r="U24" s="314"/>
       <c r="V24" s="315"/>
@@ -47163,23 +47184,23 @@
         <v>204</v>
       </c>
       <c r="K33" s="312" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L33" s="313"/>
       <c r="M33" s="312" t="s">
         <v>205</v>
       </c>
       <c r="N33" s="313"/>
-      <c r="O33" s="318" t="s">
+      <c r="O33" s="316" t="s">
         <v>206</v>
       </c>
-      <c r="P33" s="322"/>
-      <c r="Q33" s="319"/>
-      <c r="R33" s="318" t="s">
+      <c r="P33" s="317"/>
+      <c r="Q33" s="318"/>
+      <c r="R33" s="316" t="s">
         <v>207</v>
       </c>
-      <c r="S33" s="322"/>
-      <c r="T33" s="319"/>
+      <c r="S33" s="317"/>
+      <c r="T33" s="318"/>
       <c r="U33" s="312" t="s">
         <v>208</v>
       </c>
@@ -47239,11 +47260,11 @@
       <c r="L34" s="315"/>
       <c r="M34" s="314"/>
       <c r="N34" s="315"/>
-      <c r="O34" s="320"/>
-      <c r="P34" s="323"/>
+      <c r="O34" s="319"/>
+      <c r="P34" s="320"/>
       <c r="Q34" s="321"/>
-      <c r="R34" s="320"/>
-      <c r="S34" s="323"/>
+      <c r="R34" s="319"/>
+      <c r="S34" s="320"/>
       <c r="T34" s="321"/>
       <c r="U34" s="314"/>
       <c r="V34" s="315"/>
@@ -48219,7 +48240,7 @@
       <c r="A48" s="51"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D48" s="58"/>
       <c r="E48" s="58"/>
@@ -48287,23 +48308,23 @@
         <v>204</v>
       </c>
       <c r="K49" s="312" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L49" s="313"/>
       <c r="M49" s="312" t="s">
         <v>205</v>
       </c>
       <c r="N49" s="313"/>
-      <c r="O49" s="318" t="s">
+      <c r="O49" s="316" t="s">
         <v>206</v>
       </c>
-      <c r="P49" s="322"/>
-      <c r="Q49" s="319"/>
-      <c r="R49" s="318" t="s">
+      <c r="P49" s="317"/>
+      <c r="Q49" s="318"/>
+      <c r="R49" s="316" t="s">
         <v>207</v>
       </c>
-      <c r="S49" s="322"/>
-      <c r="T49" s="319"/>
+      <c r="S49" s="317"/>
+      <c r="T49" s="318"/>
       <c r="U49" s="312" t="s">
         <v>208</v>
       </c>
@@ -48363,11 +48384,11 @@
       <c r="L50" s="315"/>
       <c r="M50" s="314"/>
       <c r="N50" s="315"/>
-      <c r="O50" s="320"/>
-      <c r="P50" s="323"/>
+      <c r="O50" s="319"/>
+      <c r="P50" s="320"/>
       <c r="Q50" s="321"/>
-      <c r="R50" s="320"/>
-      <c r="S50" s="323"/>
+      <c r="R50" s="319"/>
+      <c r="S50" s="320"/>
       <c r="T50" s="321"/>
       <c r="U50" s="314"/>
       <c r="V50" s="315"/>
@@ -59614,12 +59635,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="K49:L50"/>
-    <mergeCell ref="M49:N50"/>
-    <mergeCell ref="O49:Q50"/>
-    <mergeCell ref="K33:L34"/>
-    <mergeCell ref="M33:N34"/>
-    <mergeCell ref="O33:Q34"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="M9:O10"/>
+    <mergeCell ref="P9:Q10"/>
+    <mergeCell ref="O23:Q24"/>
+    <mergeCell ref="R23:T24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="M23:N24"/>
     <mergeCell ref="R49:T50"/>
     <mergeCell ref="U49:V50"/>
     <mergeCell ref="AT1:AZ1"/>
@@ -59630,13 +59652,12 @@
     <mergeCell ref="U33:V34"/>
     <mergeCell ref="R33:T34"/>
     <mergeCell ref="U23:V24"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="M9:O10"/>
-    <mergeCell ref="P9:Q10"/>
-    <mergeCell ref="O23:Q24"/>
-    <mergeCell ref="R23:T24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="M23:N24"/>
+    <mergeCell ref="K49:L50"/>
+    <mergeCell ref="M49:N50"/>
+    <mergeCell ref="O49:Q50"/>
+    <mergeCell ref="K33:L34"/>
+    <mergeCell ref="M33:N34"/>
+    <mergeCell ref="O33:Q34"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -59785,7 +59806,7 @@
     </row>
     <row r="3" spans="2:102" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="324" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C3" s="325"/>
       <c r="D3" s="325"/>
@@ -60706,7 +60727,7 @@
     </row>
     <row r="12" spans="2:102" s="206" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="166" t="s">
-        <v>241</v>
+        <v>438</v>
       </c>
       <c r="C12" s="164"/>
       <c r="D12" s="164"/>
@@ -60811,7 +60832,7 @@
     </row>
     <row r="13" spans="2:102" s="206" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="168" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="164"/>
       <c r="D13" s="164"/>
@@ -60918,7 +60939,7 @@
       <c r="B14" s="163"/>
       <c r="C14" s="164"/>
       <c r="D14" s="169" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E14" s="170"/>
       <c r="F14" s="170"/>
@@ -61023,7 +61044,7 @@
       <c r="B15" s="163"/>
       <c r="C15" s="164"/>
       <c r="D15" s="170" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E15" s="170"/>
       <c r="F15" s="170"/>
@@ -61128,7 +61149,7 @@
       <c r="B16" s="163"/>
       <c r="C16" s="164"/>
       <c r="D16" s="171" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E16" s="172"/>
       <c r="F16" s="172"/>
@@ -61142,7 +61163,7 @@
       <c r="N16" s="172"/>
       <c r="O16" s="173"/>
       <c r="P16" s="174" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q16" s="175"/>
       <c r="R16" s="164"/>
@@ -61235,7 +61256,7 @@
       <c r="B17" s="163"/>
       <c r="C17" s="164"/>
       <c r="D17" s="169" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E17" s="170"/>
       <c r="F17" s="170"/>
@@ -61255,7 +61276,7 @@
       <c r="T17" s="209"/>
       <c r="U17" s="209"/>
       <c r="V17" s="169" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="W17" s="170"/>
       <c r="X17" s="170"/>
@@ -61273,7 +61294,7 @@
       <c r="AJ17" s="209"/>
       <c r="AK17" s="209"/>
       <c r="AL17" s="169" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AM17" s="170"/>
       <c r="AN17" s="170"/>
@@ -61299,7 +61320,7 @@
       <c r="BH17" s="209"/>
       <c r="BI17" s="209"/>
       <c r="BJ17" s="169" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BK17" s="170"/>
       <c r="BL17" s="170"/>
@@ -61338,7 +61359,7 @@
       <c r="B18" s="163"/>
       <c r="C18" s="164"/>
       <c r="D18" s="170" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E18" s="170"/>
       <c r="F18" s="170"/>
@@ -61358,7 +61379,7 @@
       <c r="T18" s="209"/>
       <c r="U18" s="209"/>
       <c r="V18" s="170" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="W18" s="170"/>
       <c r="X18" s="170"/>
@@ -61376,7 +61397,7 @@
       <c r="AJ18" s="209"/>
       <c r="AK18" s="209"/>
       <c r="AL18" s="170" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AM18" s="170"/>
       <c r="AN18" s="170"/>
@@ -61402,7 +61423,7 @@
       <c r="BH18" s="209"/>
       <c r="BI18" s="209"/>
       <c r="BJ18" s="170" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="BK18" s="170"/>
       <c r="BL18" s="170"/>
@@ -61441,7 +61462,7 @@
       <c r="B19" s="163"/>
       <c r="C19" s="164"/>
       <c r="D19" s="212" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E19" s="213"/>
       <c r="F19" s="213"/>
@@ -61477,7 +61498,7 @@
       <c r="AJ19" s="170"/>
       <c r="AK19" s="211"/>
       <c r="AL19" s="212" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AM19" s="213"/>
       <c r="AN19" s="213"/>
@@ -61641,7 +61662,7 @@
     </row>
     <row r="21" spans="2:102" s="206" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="166" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="164"/>
       <c r="D21" s="164"/>
@@ -61746,7 +61767,7 @@
     </row>
     <row r="22" spans="2:102" s="206" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="168" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C22" s="169"/>
       <c r="D22" s="164"/>
@@ -61818,7 +61839,7 @@
       <c r="BR22" s="179"/>
       <c r="BS22" s="179"/>
       <c r="BT22" s="169" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BU22" s="179"/>
       <c r="BV22" s="179"/>
@@ -61828,11 +61849,11 @@
       <c r="BZ22" s="179"/>
       <c r="CE22" s="179"/>
       <c r="CF22" s="179" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="CG22" s="179"/>
       <c r="CH22" s="164" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="CI22" s="179"/>
       <c r="CJ22" s="179"/>
@@ -61923,7 +61944,7 @@
       <c r="BR23" s="164"/>
       <c r="BS23" s="164"/>
       <c r="BT23" s="170" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BU23" s="164"/>
       <c r="BV23" s="164"/>
@@ -61961,7 +61982,7 @@
       <c r="E24" s="185"/>
       <c r="F24" s="186"/>
       <c r="G24" s="184" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H24" s="185"/>
       <c r="I24" s="185"/>
@@ -61979,7 +62000,7 @@
       <c r="S24" s="185"/>
       <c r="T24" s="186"/>
       <c r="U24" s="184" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V24" s="185"/>
       <c r="W24" s="185"/>
@@ -62032,7 +62053,7 @@
       <c r="BP24" s="186"/>
       <c r="BQ24" s="186"/>
       <c r="BR24" s="184" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="BS24" s="186"/>
       <c r="BT24" s="186"/>
@@ -62074,7 +62095,7 @@
       <c r="E25" s="189"/>
       <c r="F25" s="190"/>
       <c r="G25" s="188" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H25" s="189"/>
       <c r="I25" s="189"/>
@@ -62084,7 +62105,7 @@
       <c r="M25" s="189"/>
       <c r="N25" s="190"/>
       <c r="O25" s="188" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P25" s="189"/>
       <c r="Q25" s="189"/>
@@ -62092,7 +62113,7 @@
       <c r="S25" s="189"/>
       <c r="T25" s="190"/>
       <c r="U25" s="188" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="V25" s="189"/>
       <c r="W25" s="189"/>
@@ -62104,7 +62125,7 @@
       <c r="AC25" s="189"/>
       <c r="AD25" s="190"/>
       <c r="AE25" s="191" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF25" s="190"/>
       <c r="AG25" s="190"/>
@@ -62145,7 +62166,7 @@
       <c r="BP25" s="190"/>
       <c r="BQ25" s="190"/>
       <c r="BR25" s="191" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="BS25" s="190"/>
       <c r="BT25" s="190"/>
@@ -62186,10 +62207,10 @@
       <c r="D26" s="176"/>
       <c r="E26" s="155"/>
       <c r="F26" s="192" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G26" s="176" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H26" s="155"/>
       <c r="I26" s="155"/>
@@ -62204,10 +62225,10 @@
       <c r="R26" s="155"/>
       <c r="S26" s="155"/>
       <c r="T26" s="192" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="U26" s="215" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="V26" s="216"/>
       <c r="W26" s="216"/>
@@ -62276,7 +62297,7 @@
       <c r="CH26" s="216"/>
       <c r="CI26" s="220"/>
       <c r="CJ26" s="177" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="CK26" s="178"/>
       <c r="CL26" s="164"/>
@@ -62299,10 +62320,10 @@
       <c r="D27" s="176"/>
       <c r="E27" s="155"/>
       <c r="F27" s="192" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G27" s="176" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H27" s="155"/>
       <c r="I27" s="155"/>
@@ -62317,10 +62338,10 @@
       <c r="R27" s="155"/>
       <c r="S27" s="155"/>
       <c r="T27" s="192" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U27" s="215" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="V27" s="216"/>
       <c r="W27" s="216"/>
@@ -62410,10 +62431,10 @@
       <c r="D28" s="176"/>
       <c r="E28" s="155"/>
       <c r="F28" s="192" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G28" s="176" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H28" s="155"/>
       <c r="I28" s="155"/>
@@ -62428,10 +62449,10 @@
       <c r="R28" s="155"/>
       <c r="S28" s="155"/>
       <c r="T28" s="192" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U28" s="215" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="V28" s="216"/>
       <c r="W28" s="216"/>
@@ -62521,10 +62542,10 @@
       <c r="D29" s="176"/>
       <c r="E29" s="155"/>
       <c r="F29" s="192" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G29" s="176" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H29" s="155"/>
       <c r="I29" s="155"/>
@@ -62539,10 +62560,10 @@
       <c r="R29" s="155"/>
       <c r="S29" s="155"/>
       <c r="T29" s="192" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U29" s="215" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="V29" s="216"/>
       <c r="W29" s="216"/>
@@ -62632,10 +62653,10 @@
       <c r="D30" s="176"/>
       <c r="E30" s="155"/>
       <c r="F30" s="192" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G30" s="176" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H30" s="155"/>
       <c r="I30" s="155"/>
@@ -62650,10 +62671,10 @@
       <c r="R30" s="155"/>
       <c r="S30" s="155"/>
       <c r="T30" s="192" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U30" s="215" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="V30" s="216"/>
       <c r="W30" s="216"/>
@@ -62743,10 +62764,10 @@
       <c r="D31" s="176"/>
       <c r="E31" s="155"/>
       <c r="F31" s="192" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G31" s="176" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H31" s="155"/>
       <c r="I31" s="155"/>
@@ -62761,10 +62782,10 @@
       <c r="R31" s="155"/>
       <c r="S31" s="155"/>
       <c r="T31" s="192" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U31" s="215" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="V31" s="216"/>
       <c r="W31" s="216"/>
@@ -62854,10 +62875,10 @@
       <c r="D32" s="176"/>
       <c r="E32" s="155"/>
       <c r="F32" s="192" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G32" s="176" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H32" s="155"/>
       <c r="I32" s="155"/>
@@ -62872,10 +62893,10 @@
       <c r="R32" s="155"/>
       <c r="S32" s="155"/>
       <c r="T32" s="192" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U32" s="215" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="V32" s="216"/>
       <c r="W32" s="216"/>
@@ -62965,10 +62986,10 @@
       <c r="D33" s="176"/>
       <c r="E33" s="155"/>
       <c r="F33" s="192" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G33" s="176" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H33" s="155"/>
       <c r="I33" s="155"/>
@@ -62983,10 +63004,10 @@
       <c r="R33" s="155"/>
       <c r="S33" s="155"/>
       <c r="T33" s="192" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U33" s="215" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V33" s="216"/>
       <c r="W33" s="216"/>
@@ -63076,10 +63097,10 @@
       <c r="D34" s="176"/>
       <c r="E34" s="155"/>
       <c r="F34" s="192" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G34" s="176" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H34" s="155"/>
       <c r="I34" s="155"/>
@@ -63094,10 +63115,10 @@
       <c r="R34" s="155"/>
       <c r="S34" s="155"/>
       <c r="T34" s="192" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U34" s="215" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="V34" s="216"/>
       <c r="W34" s="216"/>
@@ -63187,10 +63208,10 @@
       <c r="D35" s="176"/>
       <c r="E35" s="155"/>
       <c r="F35" s="192" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G35" s="176" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H35" s="155"/>
       <c r="I35" s="155"/>
@@ -63205,10 +63226,10 @@
       <c r="R35" s="155"/>
       <c r="S35" s="155"/>
       <c r="T35" s="192" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U35" s="215" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="V35" s="216"/>
       <c r="W35" s="216"/>
@@ -63298,10 +63319,10 @@
       <c r="D36" s="176"/>
       <c r="E36" s="155"/>
       <c r="F36" s="192" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G36" s="176" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H36" s="155"/>
       <c r="I36" s="155"/>
@@ -63316,10 +63337,10 @@
       <c r="R36" s="155"/>
       <c r="S36" s="155"/>
       <c r="T36" s="192" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U36" s="215" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="V36" s="216"/>
       <c r="W36" s="216"/>
@@ -63409,10 +63430,10 @@
       <c r="D37" s="176"/>
       <c r="E37" s="155"/>
       <c r="F37" s="192" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G37" s="176" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H37" s="155"/>
       <c r="I37" s="155"/>
@@ -63427,10 +63448,10 @@
       <c r="R37" s="155"/>
       <c r="S37" s="155"/>
       <c r="T37" s="192" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U37" s="215" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="V37" s="216"/>
       <c r="W37" s="216"/>
@@ -63521,7 +63542,7 @@
       <c r="E38" s="155"/>
       <c r="F38" s="192"/>
       <c r="G38" s="217" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H38" s="216"/>
       <c r="I38" s="216"/>
@@ -63531,14 +63552,14 @@
       <c r="M38" s="216"/>
       <c r="N38" s="216"/>
       <c r="O38" s="217" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P38" s="216"/>
       <c r="Q38" s="216"/>
       <c r="R38" s="216"/>
       <c r="S38" s="216"/>
       <c r="T38" s="192" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="U38" s="176"/>
       <c r="V38" s="155"/>
@@ -63823,10 +63844,10 @@
       <c r="CR40" s="203"/>
       <c r="CS40" s="203"/>
       <c r="CT40" s="204" t="s">
+        <v>268</v>
+      </c>
+      <c r="CU40" s="202" t="s">
         <v>269</v>
-      </c>
-      <c r="CU40" s="202" t="s">
-        <v>270</v>
       </c>
       <c r="CV40" s="203"/>
       <c r="CW40" s="203"/>
@@ -63850,6 +63871,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -64007,15 +64037,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
@@ -64033,6 +64054,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -64048,12 +64077,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K13A_当日詳細実績参照.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K13A_当日詳細実績参照.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\test\11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF97A99-8DA1-44A3-A96B-2E76072FCD3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7C5320-F42D-4027-AA7D-54CA7D6C05A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -4395,91 +4395,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4507,17 +4422,90 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="28" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -4542,6 +4530,18 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4606,10 +4606,13 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4618,17 +4621,14 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="9" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5597,7 +5597,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$40" spid="_x0000_s3201"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$40" spid="_x0000_s3203"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7069,1779 +7069,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="54"/>
-      <c r="B1" s="274" t="s">
+      <c r="B1" s="243" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="274"/>
-      <c r="D1" s="274"/>
-      <c r="E1" s="274"/>
-      <c r="F1" s="274"/>
-      <c r="G1" s="274"/>
-      <c r="H1" s="274"/>
-      <c r="I1" s="274"/>
-      <c r="J1" s="274"/>
-      <c r="K1" s="274"/>
-      <c r="L1" s="274"/>
-      <c r="M1" s="274"/>
-      <c r="N1" s="274"/>
-      <c r="O1" s="274"/>
-      <c r="P1" s="274"/>
-      <c r="Q1" s="274"/>
-      <c r="R1" s="274"/>
-      <c r="S1" s="274"/>
-      <c r="T1" s="274"/>
-      <c r="U1" s="274"/>
-      <c r="V1" s="274"/>
-      <c r="W1" s="274"/>
-      <c r="X1" s="274"/>
-      <c r="Y1" s="274"/>
-      <c r="Z1" s="274"/>
-      <c r="AA1" s="274"/>
-      <c r="AB1" s="274"/>
-      <c r="AC1" s="274"/>
-      <c r="AD1" s="274"/>
-      <c r="AE1" s="274"/>
-      <c r="AF1" s="274"/>
-      <c r="AG1" s="274"/>
-      <c r="AH1" s="274"/>
-      <c r="AI1" s="274"/>
-      <c r="AJ1" s="274"/>
-      <c r="AK1" s="274"/>
-      <c r="AL1" s="274"/>
-      <c r="AM1" s="274"/>
-      <c r="AN1" s="274"/>
-      <c r="AO1" s="274"/>
-      <c r="AP1" s="274"/>
-      <c r="AQ1" s="274"/>
-      <c r="AR1" s="274"/>
-      <c r="AS1" s="274"/>
-      <c r="AT1" s="274"/>
-      <c r="AU1" s="274"/>
-      <c r="AV1" s="274"/>
-      <c r="AW1" s="274"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
+      <c r="F1" s="243"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="243"/>
+      <c r="I1" s="243"/>
+      <c r="J1" s="243"/>
+      <c r="K1" s="243"/>
+      <c r="L1" s="243"/>
+      <c r="M1" s="243"/>
+      <c r="N1" s="243"/>
+      <c r="O1" s="243"/>
+      <c r="P1" s="243"/>
+      <c r="Q1" s="243"/>
+      <c r="R1" s="243"/>
+      <c r="S1" s="243"/>
+      <c r="T1" s="243"/>
+      <c r="U1" s="243"/>
+      <c r="V1" s="243"/>
+      <c r="W1" s="243"/>
+      <c r="X1" s="243"/>
+      <c r="Y1" s="243"/>
+      <c r="Z1" s="243"/>
+      <c r="AA1" s="243"/>
+      <c r="AB1" s="243"/>
+      <c r="AC1" s="243"/>
+      <c r="AD1" s="243"/>
+      <c r="AE1" s="243"/>
+      <c r="AF1" s="243"/>
+      <c r="AG1" s="243"/>
+      <c r="AH1" s="243"/>
+      <c r="AI1" s="243"/>
+      <c r="AJ1" s="243"/>
+      <c r="AK1" s="243"/>
+      <c r="AL1" s="243"/>
+      <c r="AM1" s="243"/>
+      <c r="AN1" s="243"/>
+      <c r="AO1" s="243"/>
+      <c r="AP1" s="243"/>
+      <c r="AQ1" s="243"/>
+      <c r="AR1" s="243"/>
+      <c r="AS1" s="243"/>
+      <c r="AT1" s="243"/>
+      <c r="AU1" s="243"/>
+      <c r="AV1" s="243"/>
+      <c r="AW1" s="243"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
-      <c r="B2" s="275"/>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
-      <c r="G2" s="275"/>
-      <c r="H2" s="275"/>
-      <c r="I2" s="275"/>
-      <c r="J2" s="275"/>
-      <c r="K2" s="275"/>
-      <c r="L2" s="275"/>
-      <c r="M2" s="275"/>
-      <c r="N2" s="275"/>
-      <c r="O2" s="275"/>
-      <c r="P2" s="275"/>
-      <c r="Q2" s="275"/>
-      <c r="R2" s="275"/>
-      <c r="S2" s="275"/>
-      <c r="T2" s="275"/>
-      <c r="U2" s="275"/>
-      <c r="V2" s="275"/>
-      <c r="W2" s="275"/>
-      <c r="X2" s="275"/>
-      <c r="Y2" s="275"/>
-      <c r="Z2" s="275"/>
-      <c r="AA2" s="275"/>
-      <c r="AB2" s="275"/>
-      <c r="AC2" s="275"/>
-      <c r="AD2" s="275"/>
-      <c r="AE2" s="275"/>
-      <c r="AF2" s="275"/>
-      <c r="AG2" s="275"/>
-      <c r="AH2" s="275"/>
-      <c r="AI2" s="275"/>
-      <c r="AJ2" s="275"/>
-      <c r="AK2" s="275"/>
-      <c r="AL2" s="275"/>
-      <c r="AM2" s="275"/>
-      <c r="AN2" s="275"/>
-      <c r="AO2" s="275"/>
-      <c r="AP2" s="275"/>
-      <c r="AQ2" s="275"/>
-      <c r="AR2" s="275"/>
-      <c r="AS2" s="275"/>
-      <c r="AT2" s="275"/>
-      <c r="AU2" s="275"/>
-      <c r="AV2" s="275"/>
-      <c r="AW2" s="275"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="244"/>
+      <c r="J2" s="244"/>
+      <c r="K2" s="244"/>
+      <c r="L2" s="244"/>
+      <c r="M2" s="244"/>
+      <c r="N2" s="244"/>
+      <c r="O2" s="244"/>
+      <c r="P2" s="244"/>
+      <c r="Q2" s="244"/>
+      <c r="R2" s="244"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="244"/>
+      <c r="U2" s="244"/>
+      <c r="V2" s="244"/>
+      <c r="W2" s="244"/>
+      <c r="X2" s="244"/>
+      <c r="Y2" s="244"/>
+      <c r="Z2" s="244"/>
+      <c r="AA2" s="244"/>
+      <c r="AB2" s="244"/>
+      <c r="AC2" s="244"/>
+      <c r="AD2" s="244"/>
+      <c r="AE2" s="244"/>
+      <c r="AF2" s="244"/>
+      <c r="AG2" s="244"/>
+      <c r="AH2" s="244"/>
+      <c r="AI2" s="244"/>
+      <c r="AJ2" s="244"/>
+      <c r="AK2" s="244"/>
+      <c r="AL2" s="244"/>
+      <c r="AM2" s="244"/>
+      <c r="AN2" s="244"/>
+      <c r="AO2" s="244"/>
+      <c r="AP2" s="244"/>
+      <c r="AQ2" s="244"/>
+      <c r="AR2" s="244"/>
+      <c r="AS2" s="244"/>
+      <c r="AT2" s="244"/>
+      <c r="AU2" s="244"/>
+      <c r="AV2" s="244"/>
+      <c r="AW2" s="244"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
-      <c r="B3" s="276" t="s">
+      <c r="B3" s="245" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="276"/>
-      <c r="D3" s="276"/>
-      <c r="E3" s="276" t="s">
+      <c r="C3" s="245"/>
+      <c r="D3" s="245"/>
+      <c r="E3" s="245" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="276"/>
-      <c r="G3" s="276"/>
-      <c r="H3" s="276"/>
-      <c r="I3" s="276"/>
-      <c r="J3" s="277" t="s">
+      <c r="F3" s="245"/>
+      <c r="G3" s="245"/>
+      <c r="H3" s="245"/>
+      <c r="I3" s="245"/>
+      <c r="J3" s="246" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="278"/>
-      <c r="L3" s="279"/>
-      <c r="M3" s="277" t="s">
+      <c r="K3" s="247"/>
+      <c r="L3" s="248"/>
+      <c r="M3" s="246" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="278"/>
-      <c r="O3" s="278"/>
-      <c r="P3" s="278"/>
-      <c r="Q3" s="278"/>
-      <c r="R3" s="279"/>
-      <c r="S3" s="276" t="s">
+      <c r="N3" s="247"/>
+      <c r="O3" s="247"/>
+      <c r="P3" s="247"/>
+      <c r="Q3" s="247"/>
+      <c r="R3" s="248"/>
+      <c r="S3" s="245" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="276"/>
-      <c r="U3" s="276"/>
-      <c r="V3" s="276" t="s">
+      <c r="T3" s="245"/>
+      <c r="U3" s="245"/>
+      <c r="V3" s="245" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="276"/>
-      <c r="X3" s="276"/>
-      <c r="Y3" s="276"/>
-      <c r="Z3" s="276"/>
-      <c r="AA3" s="276"/>
-      <c r="AB3" s="276"/>
-      <c r="AC3" s="276"/>
-      <c r="AD3" s="276"/>
-      <c r="AE3" s="276"/>
-      <c r="AF3" s="276"/>
-      <c r="AG3" s="276"/>
-      <c r="AH3" s="276"/>
-      <c r="AI3" s="276"/>
-      <c r="AJ3" s="276"/>
-      <c r="AK3" s="276"/>
-      <c r="AL3" s="276"/>
-      <c r="AM3" s="276"/>
-      <c r="AN3" s="276" t="s">
+      <c r="W3" s="245"/>
+      <c r="X3" s="245"/>
+      <c r="Y3" s="245"/>
+      <c r="Z3" s="245"/>
+      <c r="AA3" s="245"/>
+      <c r="AB3" s="245"/>
+      <c r="AC3" s="245"/>
+      <c r="AD3" s="245"/>
+      <c r="AE3" s="245"/>
+      <c r="AF3" s="245"/>
+      <c r="AG3" s="245"/>
+      <c r="AH3" s="245"/>
+      <c r="AI3" s="245"/>
+      <c r="AJ3" s="245"/>
+      <c r="AK3" s="245"/>
+      <c r="AL3" s="245"/>
+      <c r="AM3" s="245"/>
+      <c r="AN3" s="245" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="276"/>
-      <c r="AP3" s="276"/>
-      <c r="AQ3" s="276"/>
-      <c r="AR3" s="276"/>
-      <c r="AS3" s="276" t="s">
+      <c r="AO3" s="245"/>
+      <c r="AP3" s="245"/>
+      <c r="AQ3" s="245"/>
+      <c r="AR3" s="245"/>
+      <c r="AS3" s="245" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="276"/>
-      <c r="AU3" s="276"/>
-      <c r="AV3" s="276"/>
-      <c r="AW3" s="276"/>
+      <c r="AT3" s="245"/>
+      <c r="AU3" s="245"/>
+      <c r="AV3" s="245"/>
+      <c r="AW3" s="245"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
-      <c r="B4" s="276"/>
-      <c r="C4" s="276"/>
-      <c r="D4" s="276"/>
-      <c r="E4" s="276"/>
-      <c r="F4" s="276"/>
-      <c r="G4" s="276"/>
-      <c r="H4" s="276"/>
-      <c r="I4" s="276"/>
-      <c r="J4" s="280"/>
-      <c r="K4" s="281"/>
-      <c r="L4" s="282"/>
-      <c r="M4" s="280"/>
-      <c r="N4" s="281"/>
-      <c r="O4" s="281"/>
-      <c r="P4" s="281"/>
-      <c r="Q4" s="281"/>
-      <c r="R4" s="282"/>
-      <c r="S4" s="276"/>
-      <c r="T4" s="276"/>
-      <c r="U4" s="276"/>
-      <c r="V4" s="276"/>
-      <c r="W4" s="276"/>
-      <c r="X4" s="276"/>
-      <c r="Y4" s="276"/>
-      <c r="Z4" s="276"/>
-      <c r="AA4" s="276"/>
-      <c r="AB4" s="276"/>
-      <c r="AC4" s="276"/>
-      <c r="AD4" s="276"/>
-      <c r="AE4" s="276"/>
-      <c r="AF4" s="276"/>
-      <c r="AG4" s="276"/>
-      <c r="AH4" s="276"/>
-      <c r="AI4" s="276"/>
-      <c r="AJ4" s="276"/>
-      <c r="AK4" s="276"/>
-      <c r="AL4" s="276"/>
-      <c r="AM4" s="276"/>
-      <c r="AN4" s="276"/>
-      <c r="AO4" s="276"/>
-      <c r="AP4" s="276"/>
-      <c r="AQ4" s="276"/>
-      <c r="AR4" s="276"/>
-      <c r="AS4" s="276"/>
-      <c r="AT4" s="276"/>
-      <c r="AU4" s="276"/>
-      <c r="AV4" s="276"/>
-      <c r="AW4" s="276"/>
+      <c r="B4" s="245"/>
+      <c r="C4" s="245"/>
+      <c r="D4" s="245"/>
+      <c r="E4" s="245"/>
+      <c r="F4" s="245"/>
+      <c r="G4" s="245"/>
+      <c r="H4" s="245"/>
+      <c r="I4" s="245"/>
+      <c r="J4" s="249"/>
+      <c r="K4" s="250"/>
+      <c r="L4" s="251"/>
+      <c r="M4" s="249"/>
+      <c r="N4" s="250"/>
+      <c r="O4" s="250"/>
+      <c r="P4" s="250"/>
+      <c r="Q4" s="250"/>
+      <c r="R4" s="251"/>
+      <c r="S4" s="245"/>
+      <c r="T4" s="245"/>
+      <c r="U4" s="245"/>
+      <c r="V4" s="245"/>
+      <c r="W4" s="245"/>
+      <c r="X4" s="245"/>
+      <c r="Y4" s="245"/>
+      <c r="Z4" s="245"/>
+      <c r="AA4" s="245"/>
+      <c r="AB4" s="245"/>
+      <c r="AC4" s="245"/>
+      <c r="AD4" s="245"/>
+      <c r="AE4" s="245"/>
+      <c r="AF4" s="245"/>
+      <c r="AG4" s="245"/>
+      <c r="AH4" s="245"/>
+      <c r="AI4" s="245"/>
+      <c r="AJ4" s="245"/>
+      <c r="AK4" s="245"/>
+      <c r="AL4" s="245"/>
+      <c r="AM4" s="245"/>
+      <c r="AN4" s="245"/>
+      <c r="AO4" s="245"/>
+      <c r="AP4" s="245"/>
+      <c r="AQ4" s="245"/>
+      <c r="AR4" s="245"/>
+      <c r="AS4" s="245"/>
+      <c r="AT4" s="245"/>
+      <c r="AU4" s="245"/>
+      <c r="AV4" s="245"/>
+      <c r="AW4" s="245"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
-      <c r="B5" s="268">
+      <c r="B5" s="253">
         <v>1</v>
       </c>
-      <c r="C5" s="268"/>
-      <c r="D5" s="268"/>
-      <c r="E5" s="249">
+      <c r="C5" s="253"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="254">
         <v>43717</v>
       </c>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="249"/>
-      <c r="J5" s="250" t="s">
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="254"/>
+      <c r="J5" s="255" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="251"/>
-      <c r="L5" s="252"/>
-      <c r="M5" s="250" t="s">
+      <c r="K5" s="256"/>
+      <c r="L5" s="257"/>
+      <c r="M5" s="255" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="251"/>
-      <c r="O5" s="251"/>
-      <c r="P5" s="251"/>
-      <c r="Q5" s="251"/>
-      <c r="R5" s="252"/>
-      <c r="S5" s="256" t="s">
+      <c r="N5" s="256"/>
+      <c r="O5" s="256"/>
+      <c r="P5" s="256"/>
+      <c r="Q5" s="256"/>
+      <c r="R5" s="257"/>
+      <c r="S5" s="252" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="256"/>
-      <c r="U5" s="256"/>
-      <c r="V5" s="267" t="s">
+      <c r="T5" s="252"/>
+      <c r="U5" s="252"/>
+      <c r="V5" s="261" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="267"/>
-      <c r="X5" s="267"/>
-      <c r="Y5" s="267"/>
-      <c r="Z5" s="267"/>
-      <c r="AA5" s="267"/>
-      <c r="AB5" s="267"/>
-      <c r="AC5" s="267"/>
-      <c r="AD5" s="267"/>
-      <c r="AE5" s="267"/>
-      <c r="AF5" s="267"/>
-      <c r="AG5" s="267"/>
-      <c r="AH5" s="267"/>
-      <c r="AI5" s="267"/>
-      <c r="AJ5" s="267"/>
-      <c r="AK5" s="267"/>
-      <c r="AL5" s="267"/>
-      <c r="AM5" s="267"/>
-      <c r="AN5" s="256" t="s">
+      <c r="W5" s="261"/>
+      <c r="X5" s="261"/>
+      <c r="Y5" s="261"/>
+      <c r="Z5" s="261"/>
+      <c r="AA5" s="261"/>
+      <c r="AB5" s="261"/>
+      <c r="AC5" s="261"/>
+      <c r="AD5" s="261"/>
+      <c r="AE5" s="261"/>
+      <c r="AF5" s="261"/>
+      <c r="AG5" s="261"/>
+      <c r="AH5" s="261"/>
+      <c r="AI5" s="261"/>
+      <c r="AJ5" s="261"/>
+      <c r="AK5" s="261"/>
+      <c r="AL5" s="261"/>
+      <c r="AM5" s="261"/>
+      <c r="AN5" s="252" t="s">
         <v>108</v>
       </c>
-      <c r="AO5" s="256"/>
-      <c r="AP5" s="256"/>
-      <c r="AQ5" s="256"/>
-      <c r="AR5" s="256"/>
-      <c r="AS5" s="256"/>
-      <c r="AT5" s="256"/>
-      <c r="AU5" s="256"/>
-      <c r="AV5" s="256"/>
-      <c r="AW5" s="256"/>
+      <c r="AO5" s="252"/>
+      <c r="AP5" s="252"/>
+      <c r="AQ5" s="252"/>
+      <c r="AR5" s="252"/>
+      <c r="AS5" s="252"/>
+      <c r="AT5" s="252"/>
+      <c r="AU5" s="252"/>
+      <c r="AV5" s="252"/>
+      <c r="AW5" s="252"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="56"/>
-      <c r="B6" s="268"/>
-      <c r="C6" s="268"/>
-      <c r="D6" s="268"/>
-      <c r="E6" s="249"/>
-      <c r="F6" s="249"/>
-      <c r="G6" s="249"/>
-      <c r="H6" s="249"/>
-      <c r="I6" s="249"/>
-      <c r="J6" s="250"/>
-      <c r="K6" s="251"/>
-      <c r="L6" s="252"/>
-      <c r="M6" s="271"/>
-      <c r="N6" s="272"/>
-      <c r="O6" s="272"/>
-      <c r="P6" s="272"/>
-      <c r="Q6" s="272"/>
-      <c r="R6" s="273"/>
-      <c r="S6" s="256"/>
-      <c r="T6" s="256"/>
-      <c r="U6" s="256"/>
-      <c r="V6" s="267"/>
-      <c r="W6" s="267"/>
-      <c r="X6" s="267"/>
-      <c r="Y6" s="267"/>
-      <c r="Z6" s="267"/>
-      <c r="AA6" s="267"/>
-      <c r="AB6" s="267"/>
-      <c r="AC6" s="267"/>
-      <c r="AD6" s="267"/>
-      <c r="AE6" s="267"/>
-      <c r="AF6" s="267"/>
-      <c r="AG6" s="267"/>
-      <c r="AH6" s="267"/>
-      <c r="AI6" s="267"/>
-      <c r="AJ6" s="267"/>
-      <c r="AK6" s="267"/>
-      <c r="AL6" s="267"/>
-      <c r="AM6" s="267"/>
-      <c r="AN6" s="256"/>
-      <c r="AO6" s="256"/>
-      <c r="AP6" s="256"/>
-      <c r="AQ6" s="256"/>
-      <c r="AR6" s="256"/>
-      <c r="AS6" s="256"/>
-      <c r="AT6" s="256"/>
-      <c r="AU6" s="256"/>
-      <c r="AV6" s="256"/>
-      <c r="AW6" s="256"/>
+      <c r="B6" s="253"/>
+      <c r="C6" s="253"/>
+      <c r="D6" s="253"/>
+      <c r="E6" s="254"/>
+      <c r="F6" s="254"/>
+      <c r="G6" s="254"/>
+      <c r="H6" s="254"/>
+      <c r="I6" s="254"/>
+      <c r="J6" s="255"/>
+      <c r="K6" s="256"/>
+      <c r="L6" s="257"/>
+      <c r="M6" s="258"/>
+      <c r="N6" s="259"/>
+      <c r="O6" s="259"/>
+      <c r="P6" s="259"/>
+      <c r="Q6" s="259"/>
+      <c r="R6" s="260"/>
+      <c r="S6" s="252"/>
+      <c r="T6" s="252"/>
+      <c r="U6" s="252"/>
+      <c r="V6" s="261"/>
+      <c r="W6" s="261"/>
+      <c r="X6" s="261"/>
+      <c r="Y6" s="261"/>
+      <c r="Z6" s="261"/>
+      <c r="AA6" s="261"/>
+      <c r="AB6" s="261"/>
+      <c r="AC6" s="261"/>
+      <c r="AD6" s="261"/>
+      <c r="AE6" s="261"/>
+      <c r="AF6" s="261"/>
+      <c r="AG6" s="261"/>
+      <c r="AH6" s="261"/>
+      <c r="AI6" s="261"/>
+      <c r="AJ6" s="261"/>
+      <c r="AK6" s="261"/>
+      <c r="AL6" s="261"/>
+      <c r="AM6" s="261"/>
+      <c r="AN6" s="252"/>
+      <c r="AO6" s="252"/>
+      <c r="AP6" s="252"/>
+      <c r="AQ6" s="252"/>
+      <c r="AR6" s="252"/>
+      <c r="AS6" s="252"/>
+      <c r="AT6" s="252"/>
+      <c r="AU6" s="252"/>
+      <c r="AV6" s="252"/>
+      <c r="AW6" s="252"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
-      <c r="B7" s="268"/>
-      <c r="C7" s="268"/>
-      <c r="D7" s="268"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="249"/>
-      <c r="J7" s="250"/>
-      <c r="K7" s="251"/>
-      <c r="L7" s="252"/>
-      <c r="M7" s="271"/>
-      <c r="N7" s="272"/>
-      <c r="O7" s="272"/>
-      <c r="P7" s="272"/>
-      <c r="Q7" s="272"/>
-      <c r="R7" s="273"/>
-      <c r="S7" s="256"/>
-      <c r="T7" s="256"/>
-      <c r="U7" s="256"/>
-      <c r="V7" s="267"/>
-      <c r="W7" s="267"/>
-      <c r="X7" s="267"/>
-      <c r="Y7" s="267"/>
-      <c r="Z7" s="267"/>
-      <c r="AA7" s="267"/>
-      <c r="AB7" s="267"/>
-      <c r="AC7" s="267"/>
-      <c r="AD7" s="267"/>
-      <c r="AE7" s="267"/>
-      <c r="AF7" s="267"/>
-      <c r="AG7" s="267"/>
-      <c r="AH7" s="267"/>
-      <c r="AI7" s="267"/>
-      <c r="AJ7" s="267"/>
-      <c r="AK7" s="267"/>
-      <c r="AL7" s="267"/>
-      <c r="AM7" s="267"/>
-      <c r="AN7" s="256"/>
-      <c r="AO7" s="256"/>
-      <c r="AP7" s="256"/>
-      <c r="AQ7" s="256"/>
-      <c r="AR7" s="256"/>
-      <c r="AS7" s="256"/>
-      <c r="AT7" s="256"/>
-      <c r="AU7" s="256"/>
-      <c r="AV7" s="256"/>
-      <c r="AW7" s="256"/>
+      <c r="B7" s="253"/>
+      <c r="C7" s="253"/>
+      <c r="D7" s="253"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="254"/>
+      <c r="J7" s="255"/>
+      <c r="K7" s="256"/>
+      <c r="L7" s="257"/>
+      <c r="M7" s="258"/>
+      <c r="N7" s="259"/>
+      <c r="O7" s="259"/>
+      <c r="P7" s="259"/>
+      <c r="Q7" s="259"/>
+      <c r="R7" s="260"/>
+      <c r="S7" s="252"/>
+      <c r="T7" s="252"/>
+      <c r="U7" s="252"/>
+      <c r="V7" s="261"/>
+      <c r="W7" s="261"/>
+      <c r="X7" s="261"/>
+      <c r="Y7" s="261"/>
+      <c r="Z7" s="261"/>
+      <c r="AA7" s="261"/>
+      <c r="AB7" s="261"/>
+      <c r="AC7" s="261"/>
+      <c r="AD7" s="261"/>
+      <c r="AE7" s="261"/>
+      <c r="AF7" s="261"/>
+      <c r="AG7" s="261"/>
+      <c r="AH7" s="261"/>
+      <c r="AI7" s="261"/>
+      <c r="AJ7" s="261"/>
+      <c r="AK7" s="261"/>
+      <c r="AL7" s="261"/>
+      <c r="AM7" s="261"/>
+      <c r="AN7" s="252"/>
+      <c r="AO7" s="252"/>
+      <c r="AP7" s="252"/>
+      <c r="AQ7" s="252"/>
+      <c r="AR7" s="252"/>
+      <c r="AS7" s="252"/>
+      <c r="AT7" s="252"/>
+      <c r="AU7" s="252"/>
+      <c r="AV7" s="252"/>
+      <c r="AW7" s="252"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
-      <c r="B8" s="268"/>
-      <c r="C8" s="268"/>
-      <c r="D8" s="268"/>
-      <c r="E8" s="249"/>
-      <c r="F8" s="249"/>
-      <c r="G8" s="249"/>
-      <c r="H8" s="249"/>
-      <c r="I8" s="249"/>
-      <c r="J8" s="250"/>
-      <c r="K8" s="251"/>
-      <c r="L8" s="252"/>
-      <c r="M8" s="271"/>
-      <c r="N8" s="272"/>
-      <c r="O8" s="272"/>
-      <c r="P8" s="272"/>
-      <c r="Q8" s="272"/>
-      <c r="R8" s="273"/>
-      <c r="S8" s="256"/>
-      <c r="T8" s="256"/>
-      <c r="U8" s="256"/>
-      <c r="V8" s="267"/>
-      <c r="W8" s="267"/>
-      <c r="X8" s="267"/>
-      <c r="Y8" s="267"/>
-      <c r="Z8" s="267"/>
-      <c r="AA8" s="267"/>
-      <c r="AB8" s="267"/>
-      <c r="AC8" s="267"/>
-      <c r="AD8" s="267"/>
-      <c r="AE8" s="267"/>
-      <c r="AF8" s="267"/>
-      <c r="AG8" s="267"/>
-      <c r="AH8" s="267"/>
-      <c r="AI8" s="267"/>
-      <c r="AJ8" s="267"/>
-      <c r="AK8" s="267"/>
-      <c r="AL8" s="267"/>
-      <c r="AM8" s="267"/>
-      <c r="AN8" s="256"/>
-      <c r="AO8" s="256"/>
-      <c r="AP8" s="256"/>
-      <c r="AQ8" s="256"/>
-      <c r="AR8" s="256"/>
-      <c r="AS8" s="256"/>
-      <c r="AT8" s="256"/>
-      <c r="AU8" s="256"/>
-      <c r="AV8" s="256"/>
-      <c r="AW8" s="256"/>
+      <c r="B8" s="253"/>
+      <c r="C8" s="253"/>
+      <c r="D8" s="253"/>
+      <c r="E8" s="254"/>
+      <c r="F8" s="254"/>
+      <c r="G8" s="254"/>
+      <c r="H8" s="254"/>
+      <c r="I8" s="254"/>
+      <c r="J8" s="255"/>
+      <c r="K8" s="256"/>
+      <c r="L8" s="257"/>
+      <c r="M8" s="258"/>
+      <c r="N8" s="259"/>
+      <c r="O8" s="259"/>
+      <c r="P8" s="259"/>
+      <c r="Q8" s="259"/>
+      <c r="R8" s="260"/>
+      <c r="S8" s="252"/>
+      <c r="T8" s="252"/>
+      <c r="U8" s="252"/>
+      <c r="V8" s="261"/>
+      <c r="W8" s="261"/>
+      <c r="X8" s="261"/>
+      <c r="Y8" s="261"/>
+      <c r="Z8" s="261"/>
+      <c r="AA8" s="261"/>
+      <c r="AB8" s="261"/>
+      <c r="AC8" s="261"/>
+      <c r="AD8" s="261"/>
+      <c r="AE8" s="261"/>
+      <c r="AF8" s="261"/>
+      <c r="AG8" s="261"/>
+      <c r="AH8" s="261"/>
+      <c r="AI8" s="261"/>
+      <c r="AJ8" s="261"/>
+      <c r="AK8" s="261"/>
+      <c r="AL8" s="261"/>
+      <c r="AM8" s="261"/>
+      <c r="AN8" s="252"/>
+      <c r="AO8" s="252"/>
+      <c r="AP8" s="252"/>
+      <c r="AQ8" s="252"/>
+      <c r="AR8" s="252"/>
+      <c r="AS8" s="252"/>
+      <c r="AT8" s="252"/>
+      <c r="AU8" s="252"/>
+      <c r="AV8" s="252"/>
+      <c r="AW8" s="252"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
-      <c r="B9" s="268"/>
-      <c r="C9" s="268"/>
-      <c r="D9" s="268"/>
-      <c r="E9" s="249"/>
-      <c r="F9" s="249"/>
-      <c r="G9" s="249"/>
-      <c r="H9" s="249"/>
-      <c r="I9" s="249"/>
-      <c r="J9" s="250"/>
-      <c r="K9" s="251"/>
-      <c r="L9" s="252"/>
-      <c r="M9" s="271"/>
-      <c r="N9" s="272"/>
-      <c r="O9" s="272"/>
-      <c r="P9" s="272"/>
-      <c r="Q9" s="272"/>
-      <c r="R9" s="273"/>
-      <c r="S9" s="256"/>
-      <c r="T9" s="256"/>
-      <c r="U9" s="256"/>
-      <c r="V9" s="267"/>
-      <c r="W9" s="267"/>
-      <c r="X9" s="267"/>
-      <c r="Y9" s="267"/>
-      <c r="Z9" s="267"/>
-      <c r="AA9" s="267"/>
-      <c r="AB9" s="267"/>
-      <c r="AC9" s="267"/>
-      <c r="AD9" s="267"/>
-      <c r="AE9" s="267"/>
-      <c r="AF9" s="267"/>
-      <c r="AG9" s="267"/>
-      <c r="AH9" s="267"/>
-      <c r="AI9" s="267"/>
-      <c r="AJ9" s="267"/>
-      <c r="AK9" s="267"/>
-      <c r="AL9" s="267"/>
-      <c r="AM9" s="267"/>
-      <c r="AN9" s="256"/>
-      <c r="AO9" s="256"/>
-      <c r="AP9" s="256"/>
-      <c r="AQ9" s="256"/>
-      <c r="AR9" s="256"/>
-      <c r="AS9" s="256"/>
-      <c r="AT9" s="256"/>
-      <c r="AU9" s="256"/>
-      <c r="AV9" s="256"/>
-      <c r="AW9" s="256"/>
+      <c r="B9" s="253"/>
+      <c r="C9" s="253"/>
+      <c r="D9" s="253"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="254"/>
+      <c r="I9" s="254"/>
+      <c r="J9" s="255"/>
+      <c r="K9" s="256"/>
+      <c r="L9" s="257"/>
+      <c r="M9" s="258"/>
+      <c r="N9" s="259"/>
+      <c r="O9" s="259"/>
+      <c r="P9" s="259"/>
+      <c r="Q9" s="259"/>
+      <c r="R9" s="260"/>
+      <c r="S9" s="252"/>
+      <c r="T9" s="252"/>
+      <c r="U9" s="252"/>
+      <c r="V9" s="261"/>
+      <c r="W9" s="261"/>
+      <c r="X9" s="261"/>
+      <c r="Y9" s="261"/>
+      <c r="Z9" s="261"/>
+      <c r="AA9" s="261"/>
+      <c r="AB9" s="261"/>
+      <c r="AC9" s="261"/>
+      <c r="AD9" s="261"/>
+      <c r="AE9" s="261"/>
+      <c r="AF9" s="261"/>
+      <c r="AG9" s="261"/>
+      <c r="AH9" s="261"/>
+      <c r="AI9" s="261"/>
+      <c r="AJ9" s="261"/>
+      <c r="AK9" s="261"/>
+      <c r="AL9" s="261"/>
+      <c r="AM9" s="261"/>
+      <c r="AN9" s="252"/>
+      <c r="AO9" s="252"/>
+      <c r="AP9" s="252"/>
+      <c r="AQ9" s="252"/>
+      <c r="AR9" s="252"/>
+      <c r="AS9" s="252"/>
+      <c r="AT9" s="252"/>
+      <c r="AU9" s="252"/>
+      <c r="AV9" s="252"/>
+      <c r="AW9" s="252"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
-      <c r="B10" s="268"/>
-      <c r="C10" s="268"/>
-      <c r="D10" s="268"/>
-      <c r="E10" s="249"/>
-      <c r="F10" s="249"/>
-      <c r="G10" s="249"/>
-      <c r="H10" s="249"/>
-      <c r="I10" s="249"/>
-      <c r="J10" s="250"/>
-      <c r="K10" s="251"/>
-      <c r="L10" s="252"/>
-      <c r="M10" s="271"/>
-      <c r="N10" s="272"/>
-      <c r="O10" s="272"/>
-      <c r="P10" s="272"/>
-      <c r="Q10" s="272"/>
-      <c r="R10" s="273"/>
-      <c r="S10" s="256"/>
-      <c r="T10" s="256"/>
-      <c r="U10" s="256"/>
-      <c r="V10" s="267"/>
-      <c r="W10" s="267"/>
-      <c r="X10" s="267"/>
-      <c r="Y10" s="267"/>
-      <c r="Z10" s="267"/>
-      <c r="AA10" s="267"/>
-      <c r="AB10" s="267"/>
-      <c r="AC10" s="267"/>
-      <c r="AD10" s="267"/>
-      <c r="AE10" s="267"/>
-      <c r="AF10" s="267"/>
-      <c r="AG10" s="267"/>
-      <c r="AH10" s="267"/>
-      <c r="AI10" s="267"/>
-      <c r="AJ10" s="267"/>
-      <c r="AK10" s="267"/>
-      <c r="AL10" s="267"/>
-      <c r="AM10" s="267"/>
-      <c r="AN10" s="256"/>
-      <c r="AO10" s="256"/>
-      <c r="AP10" s="256"/>
-      <c r="AQ10" s="256"/>
-      <c r="AR10" s="256"/>
-      <c r="AS10" s="256"/>
-      <c r="AT10" s="256"/>
-      <c r="AU10" s="256"/>
-      <c r="AV10" s="256"/>
-      <c r="AW10" s="256"/>
+      <c r="B10" s="253"/>
+      <c r="C10" s="253"/>
+      <c r="D10" s="253"/>
+      <c r="E10" s="254"/>
+      <c r="F10" s="254"/>
+      <c r="G10" s="254"/>
+      <c r="H10" s="254"/>
+      <c r="I10" s="254"/>
+      <c r="J10" s="255"/>
+      <c r="K10" s="256"/>
+      <c r="L10" s="257"/>
+      <c r="M10" s="258"/>
+      <c r="N10" s="259"/>
+      <c r="O10" s="259"/>
+      <c r="P10" s="259"/>
+      <c r="Q10" s="259"/>
+      <c r="R10" s="260"/>
+      <c r="S10" s="252"/>
+      <c r="T10" s="252"/>
+      <c r="U10" s="252"/>
+      <c r="V10" s="261"/>
+      <c r="W10" s="261"/>
+      <c r="X10" s="261"/>
+      <c r="Y10" s="261"/>
+      <c r="Z10" s="261"/>
+      <c r="AA10" s="261"/>
+      <c r="AB10" s="261"/>
+      <c r="AC10" s="261"/>
+      <c r="AD10" s="261"/>
+      <c r="AE10" s="261"/>
+      <c r="AF10" s="261"/>
+      <c r="AG10" s="261"/>
+      <c r="AH10" s="261"/>
+      <c r="AI10" s="261"/>
+      <c r="AJ10" s="261"/>
+      <c r="AK10" s="261"/>
+      <c r="AL10" s="261"/>
+      <c r="AM10" s="261"/>
+      <c r="AN10" s="252"/>
+      <c r="AO10" s="252"/>
+      <c r="AP10" s="252"/>
+      <c r="AQ10" s="252"/>
+      <c r="AR10" s="252"/>
+      <c r="AS10" s="252"/>
+      <c r="AT10" s="252"/>
+      <c r="AU10" s="252"/>
+      <c r="AV10" s="252"/>
+      <c r="AW10" s="252"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="268"/>
-      <c r="C11" s="268"/>
-      <c r="D11" s="268"/>
-      <c r="E11" s="249"/>
-      <c r="F11" s="249"/>
-      <c r="G11" s="249"/>
-      <c r="H11" s="249"/>
-      <c r="I11" s="249"/>
-      <c r="J11" s="250"/>
-      <c r="K11" s="251"/>
-      <c r="L11" s="252"/>
-      <c r="M11" s="263"/>
-      <c r="N11" s="261"/>
-      <c r="O11" s="261"/>
-      <c r="P11" s="261"/>
-      <c r="Q11" s="261"/>
-      <c r="R11" s="262"/>
-      <c r="S11" s="256"/>
-      <c r="T11" s="256"/>
-      <c r="U11" s="256"/>
-      <c r="V11" s="257"/>
-      <c r="W11" s="269"/>
-      <c r="X11" s="269"/>
-      <c r="Y11" s="269"/>
-      <c r="Z11" s="269"/>
-      <c r="AA11" s="269"/>
-      <c r="AB11" s="269"/>
-      <c r="AC11" s="269"/>
-      <c r="AD11" s="269"/>
-      <c r="AE11" s="269"/>
-      <c r="AF11" s="269"/>
-      <c r="AG11" s="269"/>
-      <c r="AH11" s="269"/>
-      <c r="AI11" s="269"/>
-      <c r="AJ11" s="269"/>
-      <c r="AK11" s="269"/>
-      <c r="AL11" s="269"/>
-      <c r="AM11" s="270"/>
-      <c r="AN11" s="256"/>
-      <c r="AO11" s="256"/>
-      <c r="AP11" s="256"/>
-      <c r="AQ11" s="256"/>
-      <c r="AR11" s="256"/>
-      <c r="AS11" s="256"/>
-      <c r="AT11" s="256"/>
-      <c r="AU11" s="256"/>
-      <c r="AV11" s="256"/>
-      <c r="AW11" s="256"/>
+      <c r="B11" s="253"/>
+      <c r="C11" s="253"/>
+      <c r="D11" s="253"/>
+      <c r="E11" s="254"/>
+      <c r="F11" s="254"/>
+      <c r="G11" s="254"/>
+      <c r="H11" s="254"/>
+      <c r="I11" s="254"/>
+      <c r="J11" s="255"/>
+      <c r="K11" s="256"/>
+      <c r="L11" s="257"/>
+      <c r="M11" s="265"/>
+      <c r="N11" s="266"/>
+      <c r="O11" s="266"/>
+      <c r="P11" s="266"/>
+      <c r="Q11" s="266"/>
+      <c r="R11" s="267"/>
+      <c r="S11" s="252"/>
+      <c r="T11" s="252"/>
+      <c r="U11" s="252"/>
+      <c r="V11" s="268"/>
+      <c r="W11" s="274"/>
+      <c r="X11" s="274"/>
+      <c r="Y11" s="274"/>
+      <c r="Z11" s="274"/>
+      <c r="AA11" s="274"/>
+      <c r="AB11" s="274"/>
+      <c r="AC11" s="274"/>
+      <c r="AD11" s="274"/>
+      <c r="AE11" s="274"/>
+      <c r="AF11" s="274"/>
+      <c r="AG11" s="274"/>
+      <c r="AH11" s="274"/>
+      <c r="AI11" s="274"/>
+      <c r="AJ11" s="274"/>
+      <c r="AK11" s="274"/>
+      <c r="AL11" s="274"/>
+      <c r="AM11" s="275"/>
+      <c r="AN11" s="252"/>
+      <c r="AO11" s="252"/>
+      <c r="AP11" s="252"/>
+      <c r="AQ11" s="252"/>
+      <c r="AR11" s="252"/>
+      <c r="AS11" s="252"/>
+      <c r="AT11" s="252"/>
+      <c r="AU11" s="252"/>
+      <c r="AV11" s="252"/>
+      <c r="AW11" s="252"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="246"/>
-      <c r="C12" s="247"/>
-      <c r="D12" s="248"/>
-      <c r="E12" s="249"/>
-      <c r="F12" s="249"/>
-      <c r="G12" s="249"/>
-      <c r="H12" s="249"/>
-      <c r="I12" s="249"/>
-      <c r="J12" s="250"/>
-      <c r="K12" s="251"/>
-      <c r="L12" s="252"/>
-      <c r="M12" s="263"/>
-      <c r="N12" s="261"/>
-      <c r="O12" s="261"/>
-      <c r="P12" s="261"/>
-      <c r="Q12" s="261"/>
-      <c r="R12" s="262"/>
-      <c r="S12" s="256"/>
-      <c r="T12" s="256"/>
-      <c r="U12" s="256"/>
-      <c r="V12" s="257"/>
-      <c r="W12" s="258"/>
-      <c r="X12" s="258"/>
-      <c r="Y12" s="258"/>
-      <c r="Z12" s="258"/>
-      <c r="AA12" s="258"/>
-      <c r="AB12" s="258"/>
-      <c r="AC12" s="258"/>
-      <c r="AD12" s="258"/>
-      <c r="AE12" s="258"/>
-      <c r="AF12" s="258"/>
-      <c r="AG12" s="258"/>
-      <c r="AH12" s="258"/>
-      <c r="AI12" s="258"/>
-      <c r="AJ12" s="258"/>
-      <c r="AK12" s="258"/>
-      <c r="AL12" s="258"/>
-      <c r="AM12" s="259"/>
-      <c r="AN12" s="243"/>
-      <c r="AO12" s="244"/>
-      <c r="AP12" s="244"/>
-      <c r="AQ12" s="244"/>
-      <c r="AR12" s="245"/>
-      <c r="AS12" s="243"/>
-      <c r="AT12" s="244"/>
-      <c r="AU12" s="244"/>
-      <c r="AV12" s="244"/>
-      <c r="AW12" s="245"/>
+      <c r="B12" s="262"/>
+      <c r="C12" s="263"/>
+      <c r="D12" s="264"/>
+      <c r="E12" s="254"/>
+      <c r="F12" s="254"/>
+      <c r="G12" s="254"/>
+      <c r="H12" s="254"/>
+      <c r="I12" s="254"/>
+      <c r="J12" s="255"/>
+      <c r="K12" s="256"/>
+      <c r="L12" s="257"/>
+      <c r="M12" s="265"/>
+      <c r="N12" s="266"/>
+      <c r="O12" s="266"/>
+      <c r="P12" s="266"/>
+      <c r="Q12" s="266"/>
+      <c r="R12" s="267"/>
+      <c r="S12" s="252"/>
+      <c r="T12" s="252"/>
+      <c r="U12" s="252"/>
+      <c r="V12" s="268"/>
+      <c r="W12" s="269"/>
+      <c r="X12" s="269"/>
+      <c r="Y12" s="269"/>
+      <c r="Z12" s="269"/>
+      <c r="AA12" s="269"/>
+      <c r="AB12" s="269"/>
+      <c r="AC12" s="269"/>
+      <c r="AD12" s="269"/>
+      <c r="AE12" s="269"/>
+      <c r="AF12" s="269"/>
+      <c r="AG12" s="269"/>
+      <c r="AH12" s="269"/>
+      <c r="AI12" s="269"/>
+      <c r="AJ12" s="269"/>
+      <c r="AK12" s="269"/>
+      <c r="AL12" s="269"/>
+      <c r="AM12" s="270"/>
+      <c r="AN12" s="271"/>
+      <c r="AO12" s="272"/>
+      <c r="AP12" s="272"/>
+      <c r="AQ12" s="272"/>
+      <c r="AR12" s="273"/>
+      <c r="AS12" s="271"/>
+      <c r="AT12" s="272"/>
+      <c r="AU12" s="272"/>
+      <c r="AV12" s="272"/>
+      <c r="AW12" s="273"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
-      <c r="B13" s="246"/>
-      <c r="C13" s="247"/>
-      <c r="D13" s="248"/>
-      <c r="E13" s="249"/>
-      <c r="F13" s="249"/>
-      <c r="G13" s="249"/>
-      <c r="H13" s="249"/>
-      <c r="I13" s="249"/>
-      <c r="J13" s="250"/>
-      <c r="K13" s="251"/>
-      <c r="L13" s="252"/>
-      <c r="M13" s="260"/>
-      <c r="N13" s="261"/>
-      <c r="O13" s="261"/>
-      <c r="P13" s="261"/>
-      <c r="Q13" s="261"/>
-      <c r="R13" s="262"/>
-      <c r="S13" s="256"/>
-      <c r="T13" s="256"/>
-      <c r="U13" s="256"/>
-      <c r="V13" s="257"/>
-      <c r="W13" s="258"/>
-      <c r="X13" s="258"/>
-      <c r="Y13" s="258"/>
-      <c r="Z13" s="258"/>
-      <c r="AA13" s="258"/>
-      <c r="AB13" s="258"/>
-      <c r="AC13" s="258"/>
-      <c r="AD13" s="258"/>
-      <c r="AE13" s="258"/>
-      <c r="AF13" s="258"/>
-      <c r="AG13" s="258"/>
-      <c r="AH13" s="258"/>
-      <c r="AI13" s="258"/>
-      <c r="AJ13" s="258"/>
-      <c r="AK13" s="258"/>
-      <c r="AL13" s="258"/>
-      <c r="AM13" s="259"/>
-      <c r="AN13" s="243"/>
-      <c r="AO13" s="244"/>
-      <c r="AP13" s="244"/>
-      <c r="AQ13" s="244"/>
-      <c r="AR13" s="245"/>
-      <c r="AS13" s="243"/>
-      <c r="AT13" s="244"/>
-      <c r="AU13" s="244"/>
-      <c r="AV13" s="244"/>
-      <c r="AW13" s="245"/>
+      <c r="B13" s="262"/>
+      <c r="C13" s="263"/>
+      <c r="D13" s="264"/>
+      <c r="E13" s="254"/>
+      <c r="F13" s="254"/>
+      <c r="G13" s="254"/>
+      <c r="H13" s="254"/>
+      <c r="I13" s="254"/>
+      <c r="J13" s="255"/>
+      <c r="K13" s="256"/>
+      <c r="L13" s="257"/>
+      <c r="M13" s="276"/>
+      <c r="N13" s="266"/>
+      <c r="O13" s="266"/>
+      <c r="P13" s="266"/>
+      <c r="Q13" s="266"/>
+      <c r="R13" s="267"/>
+      <c r="S13" s="252"/>
+      <c r="T13" s="252"/>
+      <c r="U13" s="252"/>
+      <c r="V13" s="268"/>
+      <c r="W13" s="269"/>
+      <c r="X13" s="269"/>
+      <c r="Y13" s="269"/>
+      <c r="Z13" s="269"/>
+      <c r="AA13" s="269"/>
+      <c r="AB13" s="269"/>
+      <c r="AC13" s="269"/>
+      <c r="AD13" s="269"/>
+      <c r="AE13" s="269"/>
+      <c r="AF13" s="269"/>
+      <c r="AG13" s="269"/>
+      <c r="AH13" s="269"/>
+      <c r="AI13" s="269"/>
+      <c r="AJ13" s="269"/>
+      <c r="AK13" s="269"/>
+      <c r="AL13" s="269"/>
+      <c r="AM13" s="270"/>
+      <c r="AN13" s="271"/>
+      <c r="AO13" s="272"/>
+      <c r="AP13" s="272"/>
+      <c r="AQ13" s="272"/>
+      <c r="AR13" s="273"/>
+      <c r="AS13" s="271"/>
+      <c r="AT13" s="272"/>
+      <c r="AU13" s="272"/>
+      <c r="AV13" s="272"/>
+      <c r="AW13" s="273"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
-      <c r="B14" s="246"/>
-      <c r="C14" s="247"/>
-      <c r="D14" s="248"/>
-      <c r="E14" s="249"/>
-      <c r="F14" s="249"/>
-      <c r="G14" s="249"/>
-      <c r="H14" s="249"/>
-      <c r="I14" s="249"/>
-      <c r="J14" s="250"/>
-      <c r="K14" s="251"/>
-      <c r="L14" s="252"/>
-      <c r="M14" s="260"/>
-      <c r="N14" s="261"/>
-      <c r="O14" s="261"/>
-      <c r="P14" s="261"/>
-      <c r="Q14" s="261"/>
-      <c r="R14" s="262"/>
-      <c r="S14" s="256"/>
-      <c r="T14" s="256"/>
-      <c r="U14" s="256"/>
-      <c r="V14" s="266"/>
-      <c r="W14" s="267"/>
-      <c r="X14" s="267"/>
-      <c r="Y14" s="267"/>
-      <c r="Z14" s="267"/>
-      <c r="AA14" s="267"/>
-      <c r="AB14" s="267"/>
-      <c r="AC14" s="267"/>
-      <c r="AD14" s="267"/>
-      <c r="AE14" s="267"/>
-      <c r="AF14" s="267"/>
-      <c r="AG14" s="267"/>
-      <c r="AH14" s="267"/>
-      <c r="AI14" s="267"/>
-      <c r="AJ14" s="267"/>
-      <c r="AK14" s="267"/>
-      <c r="AL14" s="267"/>
-      <c r="AM14" s="267"/>
-      <c r="AN14" s="256"/>
-      <c r="AO14" s="256"/>
-      <c r="AP14" s="256"/>
-      <c r="AQ14" s="256"/>
-      <c r="AR14" s="256"/>
-      <c r="AS14" s="243"/>
-      <c r="AT14" s="244"/>
-      <c r="AU14" s="244"/>
-      <c r="AV14" s="244"/>
-      <c r="AW14" s="245"/>
+      <c r="B14" s="262"/>
+      <c r="C14" s="263"/>
+      <c r="D14" s="264"/>
+      <c r="E14" s="254"/>
+      <c r="F14" s="254"/>
+      <c r="G14" s="254"/>
+      <c r="H14" s="254"/>
+      <c r="I14" s="254"/>
+      <c r="J14" s="255"/>
+      <c r="K14" s="256"/>
+      <c r="L14" s="257"/>
+      <c r="M14" s="276"/>
+      <c r="N14" s="266"/>
+      <c r="O14" s="266"/>
+      <c r="P14" s="266"/>
+      <c r="Q14" s="266"/>
+      <c r="R14" s="267"/>
+      <c r="S14" s="252"/>
+      <c r="T14" s="252"/>
+      <c r="U14" s="252"/>
+      <c r="V14" s="277"/>
+      <c r="W14" s="261"/>
+      <c r="X14" s="261"/>
+      <c r="Y14" s="261"/>
+      <c r="Z14" s="261"/>
+      <c r="AA14" s="261"/>
+      <c r="AB14" s="261"/>
+      <c r="AC14" s="261"/>
+      <c r="AD14" s="261"/>
+      <c r="AE14" s="261"/>
+      <c r="AF14" s="261"/>
+      <c r="AG14" s="261"/>
+      <c r="AH14" s="261"/>
+      <c r="AI14" s="261"/>
+      <c r="AJ14" s="261"/>
+      <c r="AK14" s="261"/>
+      <c r="AL14" s="261"/>
+      <c r="AM14" s="261"/>
+      <c r="AN14" s="252"/>
+      <c r="AO14" s="252"/>
+      <c r="AP14" s="252"/>
+      <c r="AQ14" s="252"/>
+      <c r="AR14" s="252"/>
+      <c r="AS14" s="271"/>
+      <c r="AT14" s="272"/>
+      <c r="AU14" s="272"/>
+      <c r="AV14" s="272"/>
+      <c r="AW14" s="273"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
-      <c r="B15" s="246"/>
-      <c r="C15" s="247"/>
-      <c r="D15" s="248"/>
-      <c r="E15" s="249"/>
-      <c r="F15" s="249"/>
-      <c r="G15" s="249"/>
-      <c r="H15" s="249"/>
-      <c r="I15" s="249"/>
-      <c r="J15" s="250"/>
-      <c r="K15" s="251"/>
-      <c r="L15" s="252"/>
-      <c r="M15" s="263"/>
-      <c r="N15" s="261"/>
-      <c r="O15" s="261"/>
-      <c r="P15" s="261"/>
-      <c r="Q15" s="261"/>
-      <c r="R15" s="262"/>
-      <c r="S15" s="256"/>
-      <c r="T15" s="256"/>
-      <c r="U15" s="256"/>
-      <c r="V15" s="257"/>
-      <c r="W15" s="258"/>
-      <c r="X15" s="258"/>
-      <c r="Y15" s="258"/>
-      <c r="Z15" s="258"/>
-      <c r="AA15" s="258"/>
-      <c r="AB15" s="258"/>
-      <c r="AC15" s="258"/>
-      <c r="AD15" s="258"/>
-      <c r="AE15" s="258"/>
-      <c r="AF15" s="258"/>
-      <c r="AG15" s="258"/>
-      <c r="AH15" s="258"/>
-      <c r="AI15" s="258"/>
-      <c r="AJ15" s="258"/>
-      <c r="AK15" s="258"/>
-      <c r="AL15" s="258"/>
-      <c r="AM15" s="259"/>
-      <c r="AN15" s="243"/>
-      <c r="AO15" s="244"/>
-      <c r="AP15" s="244"/>
-      <c r="AQ15" s="244"/>
-      <c r="AR15" s="245"/>
-      <c r="AS15" s="243"/>
-      <c r="AT15" s="244"/>
-      <c r="AU15" s="244"/>
-      <c r="AV15" s="244"/>
-      <c r="AW15" s="245"/>
+      <c r="B15" s="262"/>
+      <c r="C15" s="263"/>
+      <c r="D15" s="264"/>
+      <c r="E15" s="254"/>
+      <c r="F15" s="254"/>
+      <c r="G15" s="254"/>
+      <c r="H15" s="254"/>
+      <c r="I15" s="254"/>
+      <c r="J15" s="255"/>
+      <c r="K15" s="256"/>
+      <c r="L15" s="257"/>
+      <c r="M15" s="265"/>
+      <c r="N15" s="266"/>
+      <c r="O15" s="266"/>
+      <c r="P15" s="266"/>
+      <c r="Q15" s="266"/>
+      <c r="R15" s="267"/>
+      <c r="S15" s="252"/>
+      <c r="T15" s="252"/>
+      <c r="U15" s="252"/>
+      <c r="V15" s="268"/>
+      <c r="W15" s="269"/>
+      <c r="X15" s="269"/>
+      <c r="Y15" s="269"/>
+      <c r="Z15" s="269"/>
+      <c r="AA15" s="269"/>
+      <c r="AB15" s="269"/>
+      <c r="AC15" s="269"/>
+      <c r="AD15" s="269"/>
+      <c r="AE15" s="269"/>
+      <c r="AF15" s="269"/>
+      <c r="AG15" s="269"/>
+      <c r="AH15" s="269"/>
+      <c r="AI15" s="269"/>
+      <c r="AJ15" s="269"/>
+      <c r="AK15" s="269"/>
+      <c r="AL15" s="269"/>
+      <c r="AM15" s="270"/>
+      <c r="AN15" s="271"/>
+      <c r="AO15" s="272"/>
+      <c r="AP15" s="272"/>
+      <c r="AQ15" s="272"/>
+      <c r="AR15" s="273"/>
+      <c r="AS15" s="271"/>
+      <c r="AT15" s="272"/>
+      <c r="AU15" s="272"/>
+      <c r="AV15" s="272"/>
+      <c r="AW15" s="273"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
-      <c r="B16" s="246"/>
-      <c r="C16" s="247"/>
-      <c r="D16" s="248"/>
-      <c r="E16" s="249"/>
-      <c r="F16" s="249"/>
-      <c r="G16" s="249"/>
-      <c r="H16" s="249"/>
-      <c r="I16" s="249"/>
-      <c r="J16" s="250"/>
-      <c r="K16" s="251"/>
-      <c r="L16" s="252"/>
-      <c r="M16" s="263"/>
-      <c r="N16" s="261"/>
-      <c r="O16" s="261"/>
-      <c r="P16" s="261"/>
-      <c r="Q16" s="261"/>
-      <c r="R16" s="262"/>
-      <c r="S16" s="256"/>
-      <c r="T16" s="256"/>
-      <c r="U16" s="256"/>
-      <c r="V16" s="257"/>
-      <c r="W16" s="258"/>
-      <c r="X16" s="258"/>
-      <c r="Y16" s="258"/>
-      <c r="Z16" s="258"/>
-      <c r="AA16" s="258"/>
-      <c r="AB16" s="258"/>
-      <c r="AC16" s="258"/>
-      <c r="AD16" s="258"/>
-      <c r="AE16" s="258"/>
-      <c r="AF16" s="258"/>
-      <c r="AG16" s="258"/>
-      <c r="AH16" s="258"/>
-      <c r="AI16" s="258"/>
-      <c r="AJ16" s="258"/>
-      <c r="AK16" s="258"/>
-      <c r="AL16" s="258"/>
-      <c r="AM16" s="259"/>
-      <c r="AN16" s="243"/>
-      <c r="AO16" s="244"/>
-      <c r="AP16" s="244"/>
-      <c r="AQ16" s="244"/>
-      <c r="AR16" s="245"/>
-      <c r="AS16" s="243"/>
-      <c r="AT16" s="244"/>
-      <c r="AU16" s="244"/>
-      <c r="AV16" s="244"/>
-      <c r="AW16" s="245"/>
+      <c r="B16" s="262"/>
+      <c r="C16" s="263"/>
+      <c r="D16" s="264"/>
+      <c r="E16" s="254"/>
+      <c r="F16" s="254"/>
+      <c r="G16" s="254"/>
+      <c r="H16" s="254"/>
+      <c r="I16" s="254"/>
+      <c r="J16" s="255"/>
+      <c r="K16" s="256"/>
+      <c r="L16" s="257"/>
+      <c r="M16" s="265"/>
+      <c r="N16" s="266"/>
+      <c r="O16" s="266"/>
+      <c r="P16" s="266"/>
+      <c r="Q16" s="266"/>
+      <c r="R16" s="267"/>
+      <c r="S16" s="252"/>
+      <c r="T16" s="252"/>
+      <c r="U16" s="252"/>
+      <c r="V16" s="268"/>
+      <c r="W16" s="269"/>
+      <c r="X16" s="269"/>
+      <c r="Y16" s="269"/>
+      <c r="Z16" s="269"/>
+      <c r="AA16" s="269"/>
+      <c r="AB16" s="269"/>
+      <c r="AC16" s="269"/>
+      <c r="AD16" s="269"/>
+      <c r="AE16" s="269"/>
+      <c r="AF16" s="269"/>
+      <c r="AG16" s="269"/>
+      <c r="AH16" s="269"/>
+      <c r="AI16" s="269"/>
+      <c r="AJ16" s="269"/>
+      <c r="AK16" s="269"/>
+      <c r="AL16" s="269"/>
+      <c r="AM16" s="270"/>
+      <c r="AN16" s="271"/>
+      <c r="AO16" s="272"/>
+      <c r="AP16" s="272"/>
+      <c r="AQ16" s="272"/>
+      <c r="AR16" s="273"/>
+      <c r="AS16" s="271"/>
+      <c r="AT16" s="272"/>
+      <c r="AU16" s="272"/>
+      <c r="AV16" s="272"/>
+      <c r="AW16" s="273"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
-      <c r="B17" s="246"/>
-      <c r="C17" s="247"/>
-      <c r="D17" s="248"/>
-      <c r="E17" s="249"/>
-      <c r="F17" s="249"/>
-      <c r="G17" s="249"/>
-      <c r="H17" s="249"/>
-      <c r="I17" s="249"/>
-      <c r="J17" s="250"/>
-      <c r="K17" s="251"/>
-      <c r="L17" s="252"/>
-      <c r="M17" s="263"/>
-      <c r="N17" s="261"/>
-      <c r="O17" s="261"/>
-      <c r="P17" s="261"/>
-      <c r="Q17" s="261"/>
-      <c r="R17" s="264"/>
-      <c r="S17" s="265"/>
-      <c r="T17" s="265"/>
-      <c r="U17" s="265"/>
-      <c r="V17" s="257"/>
-      <c r="W17" s="258"/>
-      <c r="X17" s="258"/>
-      <c r="Y17" s="258"/>
-      <c r="Z17" s="258"/>
-      <c r="AA17" s="258"/>
-      <c r="AB17" s="258"/>
-      <c r="AC17" s="258"/>
-      <c r="AD17" s="258"/>
-      <c r="AE17" s="258"/>
-      <c r="AF17" s="258"/>
-      <c r="AG17" s="258"/>
-      <c r="AH17" s="258"/>
-      <c r="AI17" s="258"/>
-      <c r="AJ17" s="258"/>
-      <c r="AK17" s="258"/>
-      <c r="AL17" s="258"/>
-      <c r="AM17" s="259"/>
-      <c r="AN17" s="243"/>
-      <c r="AO17" s="244"/>
-      <c r="AP17" s="244"/>
-      <c r="AQ17" s="244"/>
-      <c r="AR17" s="245"/>
-      <c r="AS17" s="243"/>
-      <c r="AT17" s="244"/>
-      <c r="AU17" s="244"/>
-      <c r="AV17" s="244"/>
-      <c r="AW17" s="245"/>
+      <c r="B17" s="262"/>
+      <c r="C17" s="263"/>
+      <c r="D17" s="264"/>
+      <c r="E17" s="254"/>
+      <c r="F17" s="254"/>
+      <c r="G17" s="254"/>
+      <c r="H17" s="254"/>
+      <c r="I17" s="254"/>
+      <c r="J17" s="255"/>
+      <c r="K17" s="256"/>
+      <c r="L17" s="257"/>
+      <c r="M17" s="265"/>
+      <c r="N17" s="266"/>
+      <c r="O17" s="266"/>
+      <c r="P17" s="266"/>
+      <c r="Q17" s="266"/>
+      <c r="R17" s="278"/>
+      <c r="S17" s="279"/>
+      <c r="T17" s="279"/>
+      <c r="U17" s="279"/>
+      <c r="V17" s="268"/>
+      <c r="W17" s="269"/>
+      <c r="X17" s="269"/>
+      <c r="Y17" s="269"/>
+      <c r="Z17" s="269"/>
+      <c r="AA17" s="269"/>
+      <c r="AB17" s="269"/>
+      <c r="AC17" s="269"/>
+      <c r="AD17" s="269"/>
+      <c r="AE17" s="269"/>
+      <c r="AF17" s="269"/>
+      <c r="AG17" s="269"/>
+      <c r="AH17" s="269"/>
+      <c r="AI17" s="269"/>
+      <c r="AJ17" s="269"/>
+      <c r="AK17" s="269"/>
+      <c r="AL17" s="269"/>
+      <c r="AM17" s="270"/>
+      <c r="AN17" s="271"/>
+      <c r="AO17" s="272"/>
+      <c r="AP17" s="272"/>
+      <c r="AQ17" s="272"/>
+      <c r="AR17" s="273"/>
+      <c r="AS17" s="271"/>
+      <c r="AT17" s="272"/>
+      <c r="AU17" s="272"/>
+      <c r="AV17" s="272"/>
+      <c r="AW17" s="273"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
-      <c r="B18" s="246"/>
-      <c r="C18" s="247"/>
-      <c r="D18" s="248"/>
-      <c r="E18" s="249"/>
-      <c r="F18" s="249"/>
-      <c r="G18" s="249"/>
-      <c r="H18" s="249"/>
-      <c r="I18" s="249"/>
-      <c r="J18" s="250"/>
-      <c r="K18" s="251"/>
-      <c r="L18" s="252"/>
-      <c r="M18" s="260"/>
-      <c r="N18" s="261"/>
-      <c r="O18" s="261"/>
-      <c r="P18" s="261"/>
-      <c r="Q18" s="261"/>
-      <c r="R18" s="262"/>
-      <c r="S18" s="256"/>
-      <c r="T18" s="256"/>
-      <c r="U18" s="256"/>
-      <c r="V18" s="257"/>
-      <c r="W18" s="258"/>
-      <c r="X18" s="258"/>
-      <c r="Y18" s="258"/>
-      <c r="Z18" s="258"/>
-      <c r="AA18" s="258"/>
-      <c r="AB18" s="258"/>
-      <c r="AC18" s="258"/>
-      <c r="AD18" s="258"/>
-      <c r="AE18" s="258"/>
-      <c r="AF18" s="258"/>
-      <c r="AG18" s="258"/>
-      <c r="AH18" s="258"/>
-      <c r="AI18" s="258"/>
-      <c r="AJ18" s="258"/>
-      <c r="AK18" s="258"/>
-      <c r="AL18" s="258"/>
-      <c r="AM18" s="259"/>
-      <c r="AN18" s="243"/>
-      <c r="AO18" s="244"/>
-      <c r="AP18" s="244"/>
-      <c r="AQ18" s="244"/>
-      <c r="AR18" s="245"/>
-      <c r="AS18" s="243"/>
-      <c r="AT18" s="244"/>
-      <c r="AU18" s="244"/>
-      <c r="AV18" s="244"/>
-      <c r="AW18" s="245"/>
+      <c r="B18" s="262"/>
+      <c r="C18" s="263"/>
+      <c r="D18" s="264"/>
+      <c r="E18" s="254"/>
+      <c r="F18" s="254"/>
+      <c r="G18" s="254"/>
+      <c r="H18" s="254"/>
+      <c r="I18" s="254"/>
+      <c r="J18" s="255"/>
+      <c r="K18" s="256"/>
+      <c r="L18" s="257"/>
+      <c r="M18" s="276"/>
+      <c r="N18" s="266"/>
+      <c r="O18" s="266"/>
+      <c r="P18" s="266"/>
+      <c r="Q18" s="266"/>
+      <c r="R18" s="267"/>
+      <c r="S18" s="252"/>
+      <c r="T18" s="252"/>
+      <c r="U18" s="252"/>
+      <c r="V18" s="268"/>
+      <c r="W18" s="269"/>
+      <c r="X18" s="269"/>
+      <c r="Y18" s="269"/>
+      <c r="Z18" s="269"/>
+      <c r="AA18" s="269"/>
+      <c r="AB18" s="269"/>
+      <c r="AC18" s="269"/>
+      <c r="AD18" s="269"/>
+      <c r="AE18" s="269"/>
+      <c r="AF18" s="269"/>
+      <c r="AG18" s="269"/>
+      <c r="AH18" s="269"/>
+      <c r="AI18" s="269"/>
+      <c r="AJ18" s="269"/>
+      <c r="AK18" s="269"/>
+      <c r="AL18" s="269"/>
+      <c r="AM18" s="270"/>
+      <c r="AN18" s="271"/>
+      <c r="AO18" s="272"/>
+      <c r="AP18" s="272"/>
+      <c r="AQ18" s="272"/>
+      <c r="AR18" s="273"/>
+      <c r="AS18" s="271"/>
+      <c r="AT18" s="272"/>
+      <c r="AU18" s="272"/>
+      <c r="AV18" s="272"/>
+      <c r="AW18" s="273"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
-      <c r="B19" s="246"/>
-      <c r="C19" s="247"/>
-      <c r="D19" s="248"/>
-      <c r="E19" s="249"/>
-      <c r="F19" s="249"/>
-      <c r="G19" s="249"/>
-      <c r="H19" s="249"/>
-      <c r="I19" s="249"/>
-      <c r="J19" s="250"/>
-      <c r="K19" s="251"/>
-      <c r="L19" s="252"/>
-      <c r="M19" s="263"/>
-      <c r="N19" s="261"/>
-      <c r="O19" s="261"/>
-      <c r="P19" s="261"/>
-      <c r="Q19" s="261"/>
-      <c r="R19" s="262"/>
-      <c r="S19" s="256"/>
-      <c r="T19" s="256"/>
-      <c r="U19" s="256"/>
-      <c r="V19" s="257"/>
-      <c r="W19" s="258"/>
-      <c r="X19" s="258"/>
-      <c r="Y19" s="258"/>
-      <c r="Z19" s="258"/>
-      <c r="AA19" s="258"/>
-      <c r="AB19" s="258"/>
-      <c r="AC19" s="258"/>
-      <c r="AD19" s="258"/>
-      <c r="AE19" s="258"/>
-      <c r="AF19" s="258"/>
-      <c r="AG19" s="258"/>
-      <c r="AH19" s="258"/>
-      <c r="AI19" s="258"/>
-      <c r="AJ19" s="258"/>
-      <c r="AK19" s="258"/>
-      <c r="AL19" s="258"/>
-      <c r="AM19" s="259"/>
-      <c r="AN19" s="256"/>
-      <c r="AO19" s="256"/>
-      <c r="AP19" s="256"/>
-      <c r="AQ19" s="256"/>
-      <c r="AR19" s="256"/>
-      <c r="AS19" s="243"/>
-      <c r="AT19" s="244"/>
-      <c r="AU19" s="244"/>
-      <c r="AV19" s="244"/>
-      <c r="AW19" s="245"/>
+      <c r="B19" s="262"/>
+      <c r="C19" s="263"/>
+      <c r="D19" s="264"/>
+      <c r="E19" s="254"/>
+      <c r="F19" s="254"/>
+      <c r="G19" s="254"/>
+      <c r="H19" s="254"/>
+      <c r="I19" s="254"/>
+      <c r="J19" s="255"/>
+      <c r="K19" s="256"/>
+      <c r="L19" s="257"/>
+      <c r="M19" s="265"/>
+      <c r="N19" s="266"/>
+      <c r="O19" s="266"/>
+      <c r="P19" s="266"/>
+      <c r="Q19" s="266"/>
+      <c r="R19" s="267"/>
+      <c r="S19" s="252"/>
+      <c r="T19" s="252"/>
+      <c r="U19" s="252"/>
+      <c r="V19" s="268"/>
+      <c r="W19" s="269"/>
+      <c r="X19" s="269"/>
+      <c r="Y19" s="269"/>
+      <c r="Z19" s="269"/>
+      <c r="AA19" s="269"/>
+      <c r="AB19" s="269"/>
+      <c r="AC19" s="269"/>
+      <c r="AD19" s="269"/>
+      <c r="AE19" s="269"/>
+      <c r="AF19" s="269"/>
+      <c r="AG19" s="269"/>
+      <c r="AH19" s="269"/>
+      <c r="AI19" s="269"/>
+      <c r="AJ19" s="269"/>
+      <c r="AK19" s="269"/>
+      <c r="AL19" s="269"/>
+      <c r="AM19" s="270"/>
+      <c r="AN19" s="252"/>
+      <c r="AO19" s="252"/>
+      <c r="AP19" s="252"/>
+      <c r="AQ19" s="252"/>
+      <c r="AR19" s="252"/>
+      <c r="AS19" s="271"/>
+      <c r="AT19" s="272"/>
+      <c r="AU19" s="272"/>
+      <c r="AV19" s="272"/>
+      <c r="AW19" s="273"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
-      <c r="B20" s="246"/>
-      <c r="C20" s="247"/>
-      <c r="D20" s="248"/>
-      <c r="E20" s="249"/>
-      <c r="F20" s="249"/>
-      <c r="G20" s="249"/>
-      <c r="H20" s="249"/>
-      <c r="I20" s="249"/>
-      <c r="J20" s="250"/>
-      <c r="K20" s="251"/>
-      <c r="L20" s="252"/>
-      <c r="M20" s="263"/>
-      <c r="N20" s="261"/>
-      <c r="O20" s="261"/>
-      <c r="P20" s="261"/>
-      <c r="Q20" s="261"/>
-      <c r="R20" s="262"/>
-      <c r="S20" s="243"/>
-      <c r="T20" s="244"/>
-      <c r="U20" s="245"/>
-      <c r="V20" s="257"/>
-      <c r="W20" s="258"/>
-      <c r="X20" s="258"/>
-      <c r="Y20" s="258"/>
-      <c r="Z20" s="258"/>
-      <c r="AA20" s="258"/>
-      <c r="AB20" s="258"/>
-      <c r="AC20" s="258"/>
-      <c r="AD20" s="258"/>
-      <c r="AE20" s="258"/>
-      <c r="AF20" s="258"/>
-      <c r="AG20" s="258"/>
-      <c r="AH20" s="258"/>
-      <c r="AI20" s="258"/>
-      <c r="AJ20" s="258"/>
-      <c r="AK20" s="258"/>
-      <c r="AL20" s="258"/>
-      <c r="AM20" s="259"/>
-      <c r="AN20" s="243"/>
-      <c r="AO20" s="244"/>
-      <c r="AP20" s="244"/>
-      <c r="AQ20" s="244"/>
-      <c r="AR20" s="245"/>
-      <c r="AS20" s="243"/>
-      <c r="AT20" s="244"/>
-      <c r="AU20" s="244"/>
-      <c r="AV20" s="244"/>
-      <c r="AW20" s="245"/>
+      <c r="B20" s="262"/>
+      <c r="C20" s="263"/>
+      <c r="D20" s="264"/>
+      <c r="E20" s="254"/>
+      <c r="F20" s="254"/>
+      <c r="G20" s="254"/>
+      <c r="H20" s="254"/>
+      <c r="I20" s="254"/>
+      <c r="J20" s="255"/>
+      <c r="K20" s="256"/>
+      <c r="L20" s="257"/>
+      <c r="M20" s="265"/>
+      <c r="N20" s="266"/>
+      <c r="O20" s="266"/>
+      <c r="P20" s="266"/>
+      <c r="Q20" s="266"/>
+      <c r="R20" s="267"/>
+      <c r="S20" s="271"/>
+      <c r="T20" s="272"/>
+      <c r="U20" s="273"/>
+      <c r="V20" s="268"/>
+      <c r="W20" s="269"/>
+      <c r="X20" s="269"/>
+      <c r="Y20" s="269"/>
+      <c r="Z20" s="269"/>
+      <c r="AA20" s="269"/>
+      <c r="AB20" s="269"/>
+      <c r="AC20" s="269"/>
+      <c r="AD20" s="269"/>
+      <c r="AE20" s="269"/>
+      <c r="AF20" s="269"/>
+      <c r="AG20" s="269"/>
+      <c r="AH20" s="269"/>
+      <c r="AI20" s="269"/>
+      <c r="AJ20" s="269"/>
+      <c r="AK20" s="269"/>
+      <c r="AL20" s="269"/>
+      <c r="AM20" s="270"/>
+      <c r="AN20" s="271"/>
+      <c r="AO20" s="272"/>
+      <c r="AP20" s="272"/>
+      <c r="AQ20" s="272"/>
+      <c r="AR20" s="273"/>
+      <c r="AS20" s="271"/>
+      <c r="AT20" s="272"/>
+      <c r="AU20" s="272"/>
+      <c r="AV20" s="272"/>
+      <c r="AW20" s="273"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
-      <c r="B21" s="246"/>
-      <c r="C21" s="247"/>
-      <c r="D21" s="248"/>
-      <c r="E21" s="249"/>
-      <c r="F21" s="249"/>
-      <c r="G21" s="249"/>
-      <c r="H21" s="249"/>
-      <c r="I21" s="249"/>
-      <c r="J21" s="250"/>
-      <c r="K21" s="251"/>
-      <c r="L21" s="252"/>
-      <c r="M21" s="263"/>
-      <c r="N21" s="261"/>
-      <c r="O21" s="261"/>
-      <c r="P21" s="261"/>
-      <c r="Q21" s="261"/>
-      <c r="R21" s="262"/>
-      <c r="S21" s="256"/>
-      <c r="T21" s="256"/>
-      <c r="U21" s="256"/>
-      <c r="V21" s="257"/>
-      <c r="W21" s="258"/>
-      <c r="X21" s="258"/>
-      <c r="Y21" s="258"/>
-      <c r="Z21" s="258"/>
-      <c r="AA21" s="258"/>
-      <c r="AB21" s="258"/>
-      <c r="AC21" s="258"/>
-      <c r="AD21" s="258"/>
-      <c r="AE21" s="258"/>
-      <c r="AF21" s="258"/>
-      <c r="AG21" s="258"/>
-      <c r="AH21" s="258"/>
-      <c r="AI21" s="258"/>
-      <c r="AJ21" s="258"/>
-      <c r="AK21" s="258"/>
-      <c r="AL21" s="258"/>
-      <c r="AM21" s="259"/>
-      <c r="AN21" s="243"/>
-      <c r="AO21" s="244"/>
-      <c r="AP21" s="244"/>
-      <c r="AQ21" s="244"/>
-      <c r="AR21" s="245"/>
-      <c r="AS21" s="243"/>
-      <c r="AT21" s="244"/>
-      <c r="AU21" s="244"/>
-      <c r="AV21" s="244"/>
-      <c r="AW21" s="245"/>
+      <c r="B21" s="262"/>
+      <c r="C21" s="263"/>
+      <c r="D21" s="264"/>
+      <c r="E21" s="254"/>
+      <c r="F21" s="254"/>
+      <c r="G21" s="254"/>
+      <c r="H21" s="254"/>
+      <c r="I21" s="254"/>
+      <c r="J21" s="255"/>
+      <c r="K21" s="256"/>
+      <c r="L21" s="257"/>
+      <c r="M21" s="265"/>
+      <c r="N21" s="266"/>
+      <c r="O21" s="266"/>
+      <c r="P21" s="266"/>
+      <c r="Q21" s="266"/>
+      <c r="R21" s="267"/>
+      <c r="S21" s="252"/>
+      <c r="T21" s="252"/>
+      <c r="U21" s="252"/>
+      <c r="V21" s="268"/>
+      <c r="W21" s="269"/>
+      <c r="X21" s="269"/>
+      <c r="Y21" s="269"/>
+      <c r="Z21" s="269"/>
+      <c r="AA21" s="269"/>
+      <c r="AB21" s="269"/>
+      <c r="AC21" s="269"/>
+      <c r="AD21" s="269"/>
+      <c r="AE21" s="269"/>
+      <c r="AF21" s="269"/>
+      <c r="AG21" s="269"/>
+      <c r="AH21" s="269"/>
+      <c r="AI21" s="269"/>
+      <c r="AJ21" s="269"/>
+      <c r="AK21" s="269"/>
+      <c r="AL21" s="269"/>
+      <c r="AM21" s="270"/>
+      <c r="AN21" s="271"/>
+      <c r="AO21" s="272"/>
+      <c r="AP21" s="272"/>
+      <c r="AQ21" s="272"/>
+      <c r="AR21" s="273"/>
+      <c r="AS21" s="271"/>
+      <c r="AT21" s="272"/>
+      <c r="AU21" s="272"/>
+      <c r="AV21" s="272"/>
+      <c r="AW21" s="273"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
-      <c r="B22" s="246"/>
-      <c r="C22" s="247"/>
-      <c r="D22" s="248"/>
-      <c r="E22" s="249"/>
-      <c r="F22" s="249"/>
-      <c r="G22" s="249"/>
-      <c r="H22" s="249"/>
-      <c r="I22" s="249"/>
-      <c r="J22" s="250"/>
-      <c r="K22" s="251"/>
-      <c r="L22" s="252"/>
-      <c r="M22" s="263"/>
-      <c r="N22" s="261"/>
-      <c r="O22" s="261"/>
-      <c r="P22" s="261"/>
-      <c r="Q22" s="261"/>
-      <c r="R22" s="262"/>
-      <c r="S22" s="256"/>
-      <c r="T22" s="256"/>
-      <c r="U22" s="256"/>
-      <c r="V22" s="257"/>
-      <c r="W22" s="258"/>
-      <c r="X22" s="258"/>
-      <c r="Y22" s="258"/>
-      <c r="Z22" s="258"/>
-      <c r="AA22" s="258"/>
-      <c r="AB22" s="258"/>
-      <c r="AC22" s="258"/>
-      <c r="AD22" s="258"/>
-      <c r="AE22" s="258"/>
-      <c r="AF22" s="258"/>
-      <c r="AG22" s="258"/>
-      <c r="AH22" s="258"/>
-      <c r="AI22" s="258"/>
-      <c r="AJ22" s="258"/>
-      <c r="AK22" s="258"/>
-      <c r="AL22" s="258"/>
-      <c r="AM22" s="259"/>
-      <c r="AN22" s="243"/>
-      <c r="AO22" s="244"/>
-      <c r="AP22" s="244"/>
-      <c r="AQ22" s="244"/>
-      <c r="AR22" s="245"/>
-      <c r="AS22" s="243"/>
-      <c r="AT22" s="244"/>
-      <c r="AU22" s="244"/>
-      <c r="AV22" s="244"/>
-      <c r="AW22" s="245"/>
+      <c r="B22" s="262"/>
+      <c r="C22" s="263"/>
+      <c r="D22" s="264"/>
+      <c r="E22" s="254"/>
+      <c r="F22" s="254"/>
+      <c r="G22" s="254"/>
+      <c r="H22" s="254"/>
+      <c r="I22" s="254"/>
+      <c r="J22" s="255"/>
+      <c r="K22" s="256"/>
+      <c r="L22" s="257"/>
+      <c r="M22" s="265"/>
+      <c r="N22" s="266"/>
+      <c r="O22" s="266"/>
+      <c r="P22" s="266"/>
+      <c r="Q22" s="266"/>
+      <c r="R22" s="267"/>
+      <c r="S22" s="252"/>
+      <c r="T22" s="252"/>
+      <c r="U22" s="252"/>
+      <c r="V22" s="268"/>
+      <c r="W22" s="269"/>
+      <c r="X22" s="269"/>
+      <c r="Y22" s="269"/>
+      <c r="Z22" s="269"/>
+      <c r="AA22" s="269"/>
+      <c r="AB22" s="269"/>
+      <c r="AC22" s="269"/>
+      <c r="AD22" s="269"/>
+      <c r="AE22" s="269"/>
+      <c r="AF22" s="269"/>
+      <c r="AG22" s="269"/>
+      <c r="AH22" s="269"/>
+      <c r="AI22" s="269"/>
+      <c r="AJ22" s="269"/>
+      <c r="AK22" s="269"/>
+      <c r="AL22" s="269"/>
+      <c r="AM22" s="270"/>
+      <c r="AN22" s="271"/>
+      <c r="AO22" s="272"/>
+      <c r="AP22" s="272"/>
+      <c r="AQ22" s="272"/>
+      <c r="AR22" s="273"/>
+      <c r="AS22" s="271"/>
+      <c r="AT22" s="272"/>
+      <c r="AU22" s="272"/>
+      <c r="AV22" s="272"/>
+      <c r="AW22" s="273"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
-      <c r="B23" s="246"/>
-      <c r="C23" s="247"/>
-      <c r="D23" s="248"/>
-      <c r="E23" s="249"/>
-      <c r="F23" s="249"/>
-      <c r="G23" s="249"/>
-      <c r="H23" s="249"/>
-      <c r="I23" s="249"/>
-      <c r="J23" s="250"/>
-      <c r="K23" s="251"/>
-      <c r="L23" s="252"/>
-      <c r="M23" s="263"/>
-      <c r="N23" s="261"/>
-      <c r="O23" s="261"/>
-      <c r="P23" s="261"/>
-      <c r="Q23" s="261"/>
-      <c r="R23" s="262"/>
-      <c r="S23" s="256"/>
-      <c r="T23" s="256"/>
-      <c r="U23" s="256"/>
-      <c r="V23" s="257"/>
-      <c r="W23" s="258"/>
-      <c r="X23" s="258"/>
-      <c r="Y23" s="258"/>
-      <c r="Z23" s="258"/>
-      <c r="AA23" s="258"/>
-      <c r="AB23" s="258"/>
-      <c r="AC23" s="258"/>
-      <c r="AD23" s="258"/>
-      <c r="AE23" s="258"/>
-      <c r="AF23" s="258"/>
-      <c r="AG23" s="258"/>
-      <c r="AH23" s="258"/>
-      <c r="AI23" s="258"/>
-      <c r="AJ23" s="258"/>
-      <c r="AK23" s="258"/>
-      <c r="AL23" s="258"/>
-      <c r="AM23" s="259"/>
-      <c r="AN23" s="243"/>
-      <c r="AO23" s="244"/>
-      <c r="AP23" s="244"/>
-      <c r="AQ23" s="244"/>
-      <c r="AR23" s="245"/>
-      <c r="AS23" s="243"/>
-      <c r="AT23" s="244"/>
-      <c r="AU23" s="244"/>
-      <c r="AV23" s="244"/>
-      <c r="AW23" s="245"/>
+      <c r="B23" s="262"/>
+      <c r="C23" s="263"/>
+      <c r="D23" s="264"/>
+      <c r="E23" s="254"/>
+      <c r="F23" s="254"/>
+      <c r="G23" s="254"/>
+      <c r="H23" s="254"/>
+      <c r="I23" s="254"/>
+      <c r="J23" s="255"/>
+      <c r="K23" s="256"/>
+      <c r="L23" s="257"/>
+      <c r="M23" s="265"/>
+      <c r="N23" s="266"/>
+      <c r="O23" s="266"/>
+      <c r="P23" s="266"/>
+      <c r="Q23" s="266"/>
+      <c r="R23" s="267"/>
+      <c r="S23" s="252"/>
+      <c r="T23" s="252"/>
+      <c r="U23" s="252"/>
+      <c r="V23" s="268"/>
+      <c r="W23" s="269"/>
+      <c r="X23" s="269"/>
+      <c r="Y23" s="269"/>
+      <c r="Z23" s="269"/>
+      <c r="AA23" s="269"/>
+      <c r="AB23" s="269"/>
+      <c r="AC23" s="269"/>
+      <c r="AD23" s="269"/>
+      <c r="AE23" s="269"/>
+      <c r="AF23" s="269"/>
+      <c r="AG23" s="269"/>
+      <c r="AH23" s="269"/>
+      <c r="AI23" s="269"/>
+      <c r="AJ23" s="269"/>
+      <c r="AK23" s="269"/>
+      <c r="AL23" s="269"/>
+      <c r="AM23" s="270"/>
+      <c r="AN23" s="271"/>
+      <c r="AO23" s="272"/>
+      <c r="AP23" s="272"/>
+      <c r="AQ23" s="272"/>
+      <c r="AR23" s="273"/>
+      <c r="AS23" s="271"/>
+      <c r="AT23" s="272"/>
+      <c r="AU23" s="272"/>
+      <c r="AV23" s="272"/>
+      <c r="AW23" s="273"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
-      <c r="B24" s="246"/>
-      <c r="C24" s="247"/>
-      <c r="D24" s="248"/>
-      <c r="E24" s="249"/>
-      <c r="F24" s="249"/>
-      <c r="G24" s="249"/>
-      <c r="H24" s="249"/>
-      <c r="I24" s="249"/>
-      <c r="J24" s="250"/>
-      <c r="K24" s="251"/>
-      <c r="L24" s="252"/>
-      <c r="M24" s="263"/>
-      <c r="N24" s="261"/>
-      <c r="O24" s="261"/>
-      <c r="P24" s="261"/>
-      <c r="Q24" s="261"/>
-      <c r="R24" s="262"/>
-      <c r="S24" s="256"/>
-      <c r="T24" s="256"/>
-      <c r="U24" s="256"/>
-      <c r="V24" s="257"/>
-      <c r="W24" s="258"/>
-      <c r="X24" s="258"/>
-      <c r="Y24" s="258"/>
-      <c r="Z24" s="258"/>
-      <c r="AA24" s="258"/>
-      <c r="AB24" s="258"/>
-      <c r="AC24" s="258"/>
-      <c r="AD24" s="258"/>
-      <c r="AE24" s="258"/>
-      <c r="AF24" s="258"/>
-      <c r="AG24" s="258"/>
-      <c r="AH24" s="258"/>
-      <c r="AI24" s="258"/>
-      <c r="AJ24" s="258"/>
-      <c r="AK24" s="258"/>
-      <c r="AL24" s="258"/>
-      <c r="AM24" s="259"/>
-      <c r="AN24" s="243"/>
-      <c r="AO24" s="244"/>
-      <c r="AP24" s="244"/>
-      <c r="AQ24" s="244"/>
-      <c r="AR24" s="245"/>
-      <c r="AS24" s="243"/>
-      <c r="AT24" s="244"/>
-      <c r="AU24" s="244"/>
-      <c r="AV24" s="244"/>
-      <c r="AW24" s="245"/>
+      <c r="B24" s="262"/>
+      <c r="C24" s="263"/>
+      <c r="D24" s="264"/>
+      <c r="E24" s="254"/>
+      <c r="F24" s="254"/>
+      <c r="G24" s="254"/>
+      <c r="H24" s="254"/>
+      <c r="I24" s="254"/>
+      <c r="J24" s="255"/>
+      <c r="K24" s="256"/>
+      <c r="L24" s="257"/>
+      <c r="M24" s="265"/>
+      <c r="N24" s="266"/>
+      <c r="O24" s="266"/>
+      <c r="P24" s="266"/>
+      <c r="Q24" s="266"/>
+      <c r="R24" s="267"/>
+      <c r="S24" s="252"/>
+      <c r="T24" s="252"/>
+      <c r="U24" s="252"/>
+      <c r="V24" s="268"/>
+      <c r="W24" s="269"/>
+      <c r="X24" s="269"/>
+      <c r="Y24" s="269"/>
+      <c r="Z24" s="269"/>
+      <c r="AA24" s="269"/>
+      <c r="AB24" s="269"/>
+      <c r="AC24" s="269"/>
+      <c r="AD24" s="269"/>
+      <c r="AE24" s="269"/>
+      <c r="AF24" s="269"/>
+      <c r="AG24" s="269"/>
+      <c r="AH24" s="269"/>
+      <c r="AI24" s="269"/>
+      <c r="AJ24" s="269"/>
+      <c r="AK24" s="269"/>
+      <c r="AL24" s="269"/>
+      <c r="AM24" s="270"/>
+      <c r="AN24" s="271"/>
+      <c r="AO24" s="272"/>
+      <c r="AP24" s="272"/>
+      <c r="AQ24" s="272"/>
+      <c r="AR24" s="273"/>
+      <c r="AS24" s="271"/>
+      <c r="AT24" s="272"/>
+      <c r="AU24" s="272"/>
+      <c r="AV24" s="272"/>
+      <c r="AW24" s="273"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="54"/>
-      <c r="B25" s="246"/>
-      <c r="C25" s="247"/>
-      <c r="D25" s="248"/>
-      <c r="E25" s="249"/>
-      <c r="F25" s="249"/>
-      <c r="G25" s="249"/>
-      <c r="H25" s="249"/>
-      <c r="I25" s="249"/>
-      <c r="J25" s="250"/>
-      <c r="K25" s="251"/>
-      <c r="L25" s="252"/>
-      <c r="M25" s="260"/>
-      <c r="N25" s="261"/>
-      <c r="O25" s="261"/>
-      <c r="P25" s="261"/>
-      <c r="Q25" s="261"/>
-      <c r="R25" s="262"/>
-      <c r="S25" s="256"/>
-      <c r="T25" s="256"/>
-      <c r="U25" s="256"/>
-      <c r="V25" s="257"/>
-      <c r="W25" s="258"/>
-      <c r="X25" s="258"/>
-      <c r="Y25" s="258"/>
-      <c r="Z25" s="258"/>
-      <c r="AA25" s="258"/>
-      <c r="AB25" s="258"/>
-      <c r="AC25" s="258"/>
-      <c r="AD25" s="258"/>
-      <c r="AE25" s="258"/>
-      <c r="AF25" s="258"/>
-      <c r="AG25" s="258"/>
-      <c r="AH25" s="258"/>
-      <c r="AI25" s="258"/>
-      <c r="AJ25" s="258"/>
-      <c r="AK25" s="258"/>
-      <c r="AL25" s="258"/>
-      <c r="AM25" s="259"/>
-      <c r="AN25" s="243"/>
-      <c r="AO25" s="244"/>
-      <c r="AP25" s="244"/>
-      <c r="AQ25" s="244"/>
-      <c r="AR25" s="245"/>
-      <c r="AS25" s="243"/>
-      <c r="AT25" s="244"/>
-      <c r="AU25" s="244"/>
-      <c r="AV25" s="244"/>
-      <c r="AW25" s="245"/>
+      <c r="B25" s="262"/>
+      <c r="C25" s="263"/>
+      <c r="D25" s="264"/>
+      <c r="E25" s="254"/>
+      <c r="F25" s="254"/>
+      <c r="G25" s="254"/>
+      <c r="H25" s="254"/>
+      <c r="I25" s="254"/>
+      <c r="J25" s="255"/>
+      <c r="K25" s="256"/>
+      <c r="L25" s="257"/>
+      <c r="M25" s="276"/>
+      <c r="N25" s="266"/>
+      <c r="O25" s="266"/>
+      <c r="P25" s="266"/>
+      <c r="Q25" s="266"/>
+      <c r="R25" s="267"/>
+      <c r="S25" s="252"/>
+      <c r="T25" s="252"/>
+      <c r="U25" s="252"/>
+      <c r="V25" s="268"/>
+      <c r="W25" s="269"/>
+      <c r="X25" s="269"/>
+      <c r="Y25" s="269"/>
+      <c r="Z25" s="269"/>
+      <c r="AA25" s="269"/>
+      <c r="AB25" s="269"/>
+      <c r="AC25" s="269"/>
+      <c r="AD25" s="269"/>
+      <c r="AE25" s="269"/>
+      <c r="AF25" s="269"/>
+      <c r="AG25" s="269"/>
+      <c r="AH25" s="269"/>
+      <c r="AI25" s="269"/>
+      <c r="AJ25" s="269"/>
+      <c r="AK25" s="269"/>
+      <c r="AL25" s="269"/>
+      <c r="AM25" s="270"/>
+      <c r="AN25" s="271"/>
+      <c r="AO25" s="272"/>
+      <c r="AP25" s="272"/>
+      <c r="AQ25" s="272"/>
+      <c r="AR25" s="273"/>
+      <c r="AS25" s="271"/>
+      <c r="AT25" s="272"/>
+      <c r="AU25" s="272"/>
+      <c r="AV25" s="272"/>
+      <c r="AW25" s="273"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="54"/>
-      <c r="B26" s="246"/>
-      <c r="C26" s="247"/>
-      <c r="D26" s="248"/>
-      <c r="E26" s="249"/>
-      <c r="F26" s="249"/>
-      <c r="G26" s="249"/>
-      <c r="H26" s="249"/>
-      <c r="I26" s="249"/>
-      <c r="J26" s="250"/>
-      <c r="K26" s="251"/>
-      <c r="L26" s="252"/>
-      <c r="M26" s="260"/>
-      <c r="N26" s="261"/>
-      <c r="O26" s="261"/>
-      <c r="P26" s="261"/>
-      <c r="Q26" s="261"/>
-      <c r="R26" s="262"/>
-      <c r="S26" s="256"/>
-      <c r="T26" s="256"/>
-      <c r="U26" s="256"/>
-      <c r="V26" s="257"/>
-      <c r="W26" s="258"/>
-      <c r="X26" s="258"/>
-      <c r="Y26" s="258"/>
-      <c r="Z26" s="258"/>
-      <c r="AA26" s="258"/>
-      <c r="AB26" s="258"/>
-      <c r="AC26" s="258"/>
-      <c r="AD26" s="258"/>
-      <c r="AE26" s="258"/>
-      <c r="AF26" s="258"/>
-      <c r="AG26" s="258"/>
-      <c r="AH26" s="258"/>
-      <c r="AI26" s="258"/>
-      <c r="AJ26" s="258"/>
-      <c r="AK26" s="258"/>
-      <c r="AL26" s="258"/>
-      <c r="AM26" s="259"/>
-      <c r="AN26" s="243"/>
-      <c r="AO26" s="244"/>
-      <c r="AP26" s="244"/>
-      <c r="AQ26" s="244"/>
-      <c r="AR26" s="245"/>
-      <c r="AS26" s="243"/>
-      <c r="AT26" s="244"/>
-      <c r="AU26" s="244"/>
-      <c r="AV26" s="244"/>
-      <c r="AW26" s="245"/>
+      <c r="B26" s="262"/>
+      <c r="C26" s="263"/>
+      <c r="D26" s="264"/>
+      <c r="E26" s="254"/>
+      <c r="F26" s="254"/>
+      <c r="G26" s="254"/>
+      <c r="H26" s="254"/>
+      <c r="I26" s="254"/>
+      <c r="J26" s="255"/>
+      <c r="K26" s="256"/>
+      <c r="L26" s="257"/>
+      <c r="M26" s="276"/>
+      <c r="N26" s="266"/>
+      <c r="O26" s="266"/>
+      <c r="P26" s="266"/>
+      <c r="Q26" s="266"/>
+      <c r="R26" s="267"/>
+      <c r="S26" s="252"/>
+      <c r="T26" s="252"/>
+      <c r="U26" s="252"/>
+      <c r="V26" s="268"/>
+      <c r="W26" s="269"/>
+      <c r="X26" s="269"/>
+      <c r="Y26" s="269"/>
+      <c r="Z26" s="269"/>
+      <c r="AA26" s="269"/>
+      <c r="AB26" s="269"/>
+      <c r="AC26" s="269"/>
+      <c r="AD26" s="269"/>
+      <c r="AE26" s="269"/>
+      <c r="AF26" s="269"/>
+      <c r="AG26" s="269"/>
+      <c r="AH26" s="269"/>
+      <c r="AI26" s="269"/>
+      <c r="AJ26" s="269"/>
+      <c r="AK26" s="269"/>
+      <c r="AL26" s="269"/>
+      <c r="AM26" s="270"/>
+      <c r="AN26" s="271"/>
+      <c r="AO26" s="272"/>
+      <c r="AP26" s="272"/>
+      <c r="AQ26" s="272"/>
+      <c r="AR26" s="273"/>
+      <c r="AS26" s="271"/>
+      <c r="AT26" s="272"/>
+      <c r="AU26" s="272"/>
+      <c r="AV26" s="272"/>
+      <c r="AW26" s="273"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="54"/>
-      <c r="B27" s="246"/>
-      <c r="C27" s="247"/>
-      <c r="D27" s="248"/>
-      <c r="E27" s="249"/>
-      <c r="F27" s="249"/>
-      <c r="G27" s="249"/>
-      <c r="H27" s="249"/>
-      <c r="I27" s="249"/>
-      <c r="J27" s="250"/>
-      <c r="K27" s="251"/>
-      <c r="L27" s="252"/>
-      <c r="M27" s="260"/>
-      <c r="N27" s="261"/>
-      <c r="O27" s="261"/>
-      <c r="P27" s="261"/>
-      <c r="Q27" s="261"/>
-      <c r="R27" s="262"/>
-      <c r="S27" s="256"/>
-      <c r="T27" s="256"/>
-      <c r="U27" s="256"/>
-      <c r="V27" s="257"/>
-      <c r="W27" s="258"/>
-      <c r="X27" s="258"/>
-      <c r="Y27" s="258"/>
-      <c r="Z27" s="258"/>
-      <c r="AA27" s="258"/>
-      <c r="AB27" s="258"/>
-      <c r="AC27" s="258"/>
-      <c r="AD27" s="258"/>
-      <c r="AE27" s="258"/>
-      <c r="AF27" s="258"/>
-      <c r="AG27" s="258"/>
-      <c r="AH27" s="258"/>
-      <c r="AI27" s="258"/>
-      <c r="AJ27" s="258"/>
-      <c r="AK27" s="258"/>
-      <c r="AL27" s="258"/>
-      <c r="AM27" s="259"/>
-      <c r="AN27" s="243"/>
-      <c r="AO27" s="244"/>
-      <c r="AP27" s="244"/>
-      <c r="AQ27" s="244"/>
-      <c r="AR27" s="245"/>
-      <c r="AS27" s="243"/>
-      <c r="AT27" s="244"/>
-      <c r="AU27" s="244"/>
-      <c r="AV27" s="244"/>
-      <c r="AW27" s="245"/>
+      <c r="B27" s="262"/>
+      <c r="C27" s="263"/>
+      <c r="D27" s="264"/>
+      <c r="E27" s="254"/>
+      <c r="F27" s="254"/>
+      <c r="G27" s="254"/>
+      <c r="H27" s="254"/>
+      <c r="I27" s="254"/>
+      <c r="J27" s="255"/>
+      <c r="K27" s="256"/>
+      <c r="L27" s="257"/>
+      <c r="M27" s="276"/>
+      <c r="N27" s="266"/>
+      <c r="O27" s="266"/>
+      <c r="P27" s="266"/>
+      <c r="Q27" s="266"/>
+      <c r="R27" s="267"/>
+      <c r="S27" s="252"/>
+      <c r="T27" s="252"/>
+      <c r="U27" s="252"/>
+      <c r="V27" s="268"/>
+      <c r="W27" s="269"/>
+      <c r="X27" s="269"/>
+      <c r="Y27" s="269"/>
+      <c r="Z27" s="269"/>
+      <c r="AA27" s="269"/>
+      <c r="AB27" s="269"/>
+      <c r="AC27" s="269"/>
+      <c r="AD27" s="269"/>
+      <c r="AE27" s="269"/>
+      <c r="AF27" s="269"/>
+      <c r="AG27" s="269"/>
+      <c r="AH27" s="269"/>
+      <c r="AI27" s="269"/>
+      <c r="AJ27" s="269"/>
+      <c r="AK27" s="269"/>
+      <c r="AL27" s="269"/>
+      <c r="AM27" s="270"/>
+      <c r="AN27" s="271"/>
+      <c r="AO27" s="272"/>
+      <c r="AP27" s="272"/>
+      <c r="AQ27" s="272"/>
+      <c r="AR27" s="273"/>
+      <c r="AS27" s="271"/>
+      <c r="AT27" s="272"/>
+      <c r="AU27" s="272"/>
+      <c r="AV27" s="272"/>
+      <c r="AW27" s="273"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
-      <c r="B28" s="246"/>
-      <c r="C28" s="247"/>
-      <c r="D28" s="248"/>
-      <c r="E28" s="249"/>
-      <c r="F28" s="249"/>
-      <c r="G28" s="249"/>
-      <c r="H28" s="249"/>
-      <c r="I28" s="249"/>
-      <c r="J28" s="250"/>
-      <c r="K28" s="251"/>
-      <c r="L28" s="252"/>
-      <c r="M28" s="263"/>
-      <c r="N28" s="261"/>
-      <c r="O28" s="261"/>
-      <c r="P28" s="261"/>
-      <c r="Q28" s="261"/>
-      <c r="R28" s="262"/>
-      <c r="S28" s="256"/>
-      <c r="T28" s="256"/>
-      <c r="U28" s="256"/>
-      <c r="V28" s="257"/>
-      <c r="W28" s="258"/>
-      <c r="X28" s="258"/>
-      <c r="Y28" s="258"/>
-      <c r="Z28" s="258"/>
-      <c r="AA28" s="258"/>
-      <c r="AB28" s="258"/>
-      <c r="AC28" s="258"/>
-      <c r="AD28" s="258"/>
-      <c r="AE28" s="258"/>
-      <c r="AF28" s="258"/>
-      <c r="AG28" s="258"/>
-      <c r="AH28" s="258"/>
-      <c r="AI28" s="258"/>
-      <c r="AJ28" s="258"/>
-      <c r="AK28" s="258"/>
-      <c r="AL28" s="258"/>
-      <c r="AM28" s="259"/>
-      <c r="AN28" s="243"/>
-      <c r="AO28" s="244"/>
-      <c r="AP28" s="244"/>
-      <c r="AQ28" s="244"/>
-      <c r="AR28" s="245"/>
-      <c r="AS28" s="243"/>
-      <c r="AT28" s="244"/>
-      <c r="AU28" s="244"/>
-      <c r="AV28" s="244"/>
-      <c r="AW28" s="245"/>
+      <c r="B28" s="262"/>
+      <c r="C28" s="263"/>
+      <c r="D28" s="264"/>
+      <c r="E28" s="254"/>
+      <c r="F28" s="254"/>
+      <c r="G28" s="254"/>
+      <c r="H28" s="254"/>
+      <c r="I28" s="254"/>
+      <c r="J28" s="255"/>
+      <c r="K28" s="256"/>
+      <c r="L28" s="257"/>
+      <c r="M28" s="265"/>
+      <c r="N28" s="266"/>
+      <c r="O28" s="266"/>
+      <c r="P28" s="266"/>
+      <c r="Q28" s="266"/>
+      <c r="R28" s="267"/>
+      <c r="S28" s="252"/>
+      <c r="T28" s="252"/>
+      <c r="U28" s="252"/>
+      <c r="V28" s="268"/>
+      <c r="W28" s="269"/>
+      <c r="X28" s="269"/>
+      <c r="Y28" s="269"/>
+      <c r="Z28" s="269"/>
+      <c r="AA28" s="269"/>
+      <c r="AB28" s="269"/>
+      <c r="AC28" s="269"/>
+      <c r="AD28" s="269"/>
+      <c r="AE28" s="269"/>
+      <c r="AF28" s="269"/>
+      <c r="AG28" s="269"/>
+      <c r="AH28" s="269"/>
+      <c r="AI28" s="269"/>
+      <c r="AJ28" s="269"/>
+      <c r="AK28" s="269"/>
+      <c r="AL28" s="269"/>
+      <c r="AM28" s="270"/>
+      <c r="AN28" s="271"/>
+      <c r="AO28" s="272"/>
+      <c r="AP28" s="272"/>
+      <c r="AQ28" s="272"/>
+      <c r="AR28" s="273"/>
+      <c r="AS28" s="271"/>
+      <c r="AT28" s="272"/>
+      <c r="AU28" s="272"/>
+      <c r="AV28" s="272"/>
+      <c r="AW28" s="273"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="54"/>
-      <c r="B29" s="246"/>
-      <c r="C29" s="247"/>
-      <c r="D29" s="248"/>
-      <c r="E29" s="249"/>
-      <c r="F29" s="249"/>
-      <c r="G29" s="249"/>
-      <c r="H29" s="249"/>
-      <c r="I29" s="249"/>
-      <c r="J29" s="250"/>
-      <c r="K29" s="251"/>
-      <c r="L29" s="252"/>
-      <c r="M29" s="263"/>
-      <c r="N29" s="261"/>
-      <c r="O29" s="261"/>
-      <c r="P29" s="261"/>
-      <c r="Q29" s="261"/>
-      <c r="R29" s="262"/>
-      <c r="S29" s="256"/>
-      <c r="T29" s="256"/>
-      <c r="U29" s="256"/>
-      <c r="V29" s="257"/>
-      <c r="W29" s="258"/>
-      <c r="X29" s="258"/>
-      <c r="Y29" s="258"/>
-      <c r="Z29" s="258"/>
-      <c r="AA29" s="258"/>
-      <c r="AB29" s="258"/>
-      <c r="AC29" s="258"/>
-      <c r="AD29" s="258"/>
-      <c r="AE29" s="258"/>
-      <c r="AF29" s="258"/>
-      <c r="AG29" s="258"/>
-      <c r="AH29" s="258"/>
-      <c r="AI29" s="258"/>
-      <c r="AJ29" s="258"/>
-      <c r="AK29" s="258"/>
-      <c r="AL29" s="258"/>
-      <c r="AM29" s="259"/>
-      <c r="AN29" s="243"/>
-      <c r="AO29" s="244"/>
-      <c r="AP29" s="244"/>
-      <c r="AQ29" s="244"/>
-      <c r="AR29" s="245"/>
-      <c r="AS29" s="243"/>
-      <c r="AT29" s="244"/>
-      <c r="AU29" s="244"/>
-      <c r="AV29" s="244"/>
-      <c r="AW29" s="245"/>
+      <c r="B29" s="262"/>
+      <c r="C29" s="263"/>
+      <c r="D29" s="264"/>
+      <c r="E29" s="254"/>
+      <c r="F29" s="254"/>
+      <c r="G29" s="254"/>
+      <c r="H29" s="254"/>
+      <c r="I29" s="254"/>
+      <c r="J29" s="255"/>
+      <c r="K29" s="256"/>
+      <c r="L29" s="257"/>
+      <c r="M29" s="265"/>
+      <c r="N29" s="266"/>
+      <c r="O29" s="266"/>
+      <c r="P29" s="266"/>
+      <c r="Q29" s="266"/>
+      <c r="R29" s="267"/>
+      <c r="S29" s="252"/>
+      <c r="T29" s="252"/>
+      <c r="U29" s="252"/>
+      <c r="V29" s="268"/>
+      <c r="W29" s="269"/>
+      <c r="X29" s="269"/>
+      <c r="Y29" s="269"/>
+      <c r="Z29" s="269"/>
+      <c r="AA29" s="269"/>
+      <c r="AB29" s="269"/>
+      <c r="AC29" s="269"/>
+      <c r="AD29" s="269"/>
+      <c r="AE29" s="269"/>
+      <c r="AF29" s="269"/>
+      <c r="AG29" s="269"/>
+      <c r="AH29" s="269"/>
+      <c r="AI29" s="269"/>
+      <c r="AJ29" s="269"/>
+      <c r="AK29" s="269"/>
+      <c r="AL29" s="269"/>
+      <c r="AM29" s="270"/>
+      <c r="AN29" s="271"/>
+      <c r="AO29" s="272"/>
+      <c r="AP29" s="272"/>
+      <c r="AQ29" s="272"/>
+      <c r="AR29" s="273"/>
+      <c r="AS29" s="271"/>
+      <c r="AT29" s="272"/>
+      <c r="AU29" s="272"/>
+      <c r="AV29" s="272"/>
+      <c r="AW29" s="273"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
-      <c r="B30" s="246"/>
-      <c r="C30" s="247"/>
-      <c r="D30" s="248"/>
-      <c r="E30" s="249"/>
-      <c r="F30" s="249"/>
-      <c r="G30" s="249"/>
-      <c r="H30" s="249"/>
-      <c r="I30" s="249"/>
-      <c r="J30" s="250"/>
-      <c r="K30" s="251"/>
-      <c r="L30" s="252"/>
-      <c r="M30" s="260"/>
-      <c r="N30" s="261"/>
-      <c r="O30" s="261"/>
-      <c r="P30" s="261"/>
-      <c r="Q30" s="261"/>
-      <c r="R30" s="262"/>
-      <c r="S30" s="256"/>
-      <c r="T30" s="256"/>
-      <c r="U30" s="256"/>
-      <c r="V30" s="257"/>
-      <c r="W30" s="258"/>
-      <c r="X30" s="258"/>
-      <c r="Y30" s="258"/>
-      <c r="Z30" s="258"/>
-      <c r="AA30" s="258"/>
-      <c r="AB30" s="258"/>
-      <c r="AC30" s="258"/>
-      <c r="AD30" s="258"/>
-      <c r="AE30" s="258"/>
-      <c r="AF30" s="258"/>
-      <c r="AG30" s="258"/>
-      <c r="AH30" s="258"/>
-      <c r="AI30" s="258"/>
-      <c r="AJ30" s="258"/>
-      <c r="AK30" s="258"/>
-      <c r="AL30" s="258"/>
-      <c r="AM30" s="259"/>
-      <c r="AN30" s="243"/>
-      <c r="AO30" s="244"/>
-      <c r="AP30" s="244"/>
-      <c r="AQ30" s="244"/>
-      <c r="AR30" s="245"/>
-      <c r="AS30" s="243"/>
-      <c r="AT30" s="244"/>
-      <c r="AU30" s="244"/>
-      <c r="AV30" s="244"/>
-      <c r="AW30" s="245"/>
+      <c r="B30" s="262"/>
+      <c r="C30" s="263"/>
+      <c r="D30" s="264"/>
+      <c r="E30" s="254"/>
+      <c r="F30" s="254"/>
+      <c r="G30" s="254"/>
+      <c r="H30" s="254"/>
+      <c r="I30" s="254"/>
+      <c r="J30" s="255"/>
+      <c r="K30" s="256"/>
+      <c r="L30" s="257"/>
+      <c r="M30" s="276"/>
+      <c r="N30" s="266"/>
+      <c r="O30" s="266"/>
+      <c r="P30" s="266"/>
+      <c r="Q30" s="266"/>
+      <c r="R30" s="267"/>
+      <c r="S30" s="252"/>
+      <c r="T30" s="252"/>
+      <c r="U30" s="252"/>
+      <c r="V30" s="268"/>
+      <c r="W30" s="269"/>
+      <c r="X30" s="269"/>
+      <c r="Y30" s="269"/>
+      <c r="Z30" s="269"/>
+      <c r="AA30" s="269"/>
+      <c r="AB30" s="269"/>
+      <c r="AC30" s="269"/>
+      <c r="AD30" s="269"/>
+      <c r="AE30" s="269"/>
+      <c r="AF30" s="269"/>
+      <c r="AG30" s="269"/>
+      <c r="AH30" s="269"/>
+      <c r="AI30" s="269"/>
+      <c r="AJ30" s="269"/>
+      <c r="AK30" s="269"/>
+      <c r="AL30" s="269"/>
+      <c r="AM30" s="270"/>
+      <c r="AN30" s="271"/>
+      <c r="AO30" s="272"/>
+      <c r="AP30" s="272"/>
+      <c r="AQ30" s="272"/>
+      <c r="AR30" s="273"/>
+      <c r="AS30" s="271"/>
+      <c r="AT30" s="272"/>
+      <c r="AU30" s="272"/>
+      <c r="AV30" s="272"/>
+      <c r="AW30" s="273"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
-      <c r="B31" s="246"/>
-      <c r="C31" s="247"/>
-      <c r="D31" s="248"/>
-      <c r="E31" s="249"/>
-      <c r="F31" s="249"/>
-      <c r="G31" s="249"/>
-      <c r="H31" s="249"/>
-      <c r="I31" s="249"/>
-      <c r="J31" s="250"/>
-      <c r="K31" s="251"/>
-      <c r="L31" s="252"/>
-      <c r="M31" s="260"/>
-      <c r="N31" s="261"/>
-      <c r="O31" s="261"/>
-      <c r="P31" s="261"/>
-      <c r="Q31" s="261"/>
-      <c r="R31" s="262"/>
-      <c r="S31" s="256"/>
-      <c r="T31" s="256"/>
-      <c r="U31" s="256"/>
-      <c r="V31" s="257"/>
-      <c r="W31" s="258"/>
-      <c r="X31" s="258"/>
-      <c r="Y31" s="258"/>
-      <c r="Z31" s="258"/>
-      <c r="AA31" s="258"/>
-      <c r="AB31" s="258"/>
-      <c r="AC31" s="258"/>
-      <c r="AD31" s="258"/>
-      <c r="AE31" s="258"/>
-      <c r="AF31" s="258"/>
-      <c r="AG31" s="258"/>
-      <c r="AH31" s="258"/>
-      <c r="AI31" s="258"/>
-      <c r="AJ31" s="258"/>
-      <c r="AK31" s="258"/>
-      <c r="AL31" s="258"/>
-      <c r="AM31" s="259"/>
-      <c r="AN31" s="243"/>
-      <c r="AO31" s="244"/>
-      <c r="AP31" s="244"/>
-      <c r="AQ31" s="244"/>
-      <c r="AR31" s="245"/>
-      <c r="AS31" s="243"/>
-      <c r="AT31" s="244"/>
-      <c r="AU31" s="244"/>
-      <c r="AV31" s="244"/>
-      <c r="AW31" s="245"/>
+      <c r="B31" s="262"/>
+      <c r="C31" s="263"/>
+      <c r="D31" s="264"/>
+      <c r="E31" s="254"/>
+      <c r="F31" s="254"/>
+      <c r="G31" s="254"/>
+      <c r="H31" s="254"/>
+      <c r="I31" s="254"/>
+      <c r="J31" s="255"/>
+      <c r="K31" s="256"/>
+      <c r="L31" s="257"/>
+      <c r="M31" s="276"/>
+      <c r="N31" s="266"/>
+      <c r="O31" s="266"/>
+      <c r="P31" s="266"/>
+      <c r="Q31" s="266"/>
+      <c r="R31" s="267"/>
+      <c r="S31" s="252"/>
+      <c r="T31" s="252"/>
+      <c r="U31" s="252"/>
+      <c r="V31" s="268"/>
+      <c r="W31" s="269"/>
+      <c r="X31" s="269"/>
+      <c r="Y31" s="269"/>
+      <c r="Z31" s="269"/>
+      <c r="AA31" s="269"/>
+      <c r="AB31" s="269"/>
+      <c r="AC31" s="269"/>
+      <c r="AD31" s="269"/>
+      <c r="AE31" s="269"/>
+      <c r="AF31" s="269"/>
+      <c r="AG31" s="269"/>
+      <c r="AH31" s="269"/>
+      <c r="AI31" s="269"/>
+      <c r="AJ31" s="269"/>
+      <c r="AK31" s="269"/>
+      <c r="AL31" s="269"/>
+      <c r="AM31" s="270"/>
+      <c r="AN31" s="271"/>
+      <c r="AO31" s="272"/>
+      <c r="AP31" s="272"/>
+      <c r="AQ31" s="272"/>
+      <c r="AR31" s="273"/>
+      <c r="AS31" s="271"/>
+      <c r="AT31" s="272"/>
+      <c r="AU31" s="272"/>
+      <c r="AV31" s="272"/>
+      <c r="AW31" s="273"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
-      <c r="B32" s="246"/>
-      <c r="C32" s="247"/>
-      <c r="D32" s="248"/>
-      <c r="E32" s="249"/>
-      <c r="F32" s="249"/>
-      <c r="G32" s="249"/>
-      <c r="H32" s="249"/>
-      <c r="I32" s="249"/>
-      <c r="J32" s="250"/>
-      <c r="K32" s="251"/>
-      <c r="L32" s="252"/>
-      <c r="M32" s="260"/>
-      <c r="N32" s="261"/>
-      <c r="O32" s="261"/>
-      <c r="P32" s="261"/>
-      <c r="Q32" s="261"/>
-      <c r="R32" s="262"/>
-      <c r="S32" s="256"/>
-      <c r="T32" s="256"/>
-      <c r="U32" s="256"/>
-      <c r="V32" s="257"/>
-      <c r="W32" s="258"/>
-      <c r="X32" s="258"/>
-      <c r="Y32" s="258"/>
-      <c r="Z32" s="258"/>
-      <c r="AA32" s="258"/>
-      <c r="AB32" s="258"/>
-      <c r="AC32" s="258"/>
-      <c r="AD32" s="258"/>
-      <c r="AE32" s="258"/>
-      <c r="AF32" s="258"/>
-      <c r="AG32" s="258"/>
-      <c r="AH32" s="258"/>
-      <c r="AI32" s="258"/>
-      <c r="AJ32" s="258"/>
-      <c r="AK32" s="258"/>
-      <c r="AL32" s="258"/>
-      <c r="AM32" s="259"/>
-      <c r="AN32" s="243"/>
-      <c r="AO32" s="244"/>
-      <c r="AP32" s="244"/>
-      <c r="AQ32" s="244"/>
-      <c r="AR32" s="245"/>
-      <c r="AS32" s="243"/>
-      <c r="AT32" s="244"/>
-      <c r="AU32" s="244"/>
-      <c r="AV32" s="244"/>
-      <c r="AW32" s="245"/>
+      <c r="B32" s="262"/>
+      <c r="C32" s="263"/>
+      <c r="D32" s="264"/>
+      <c r="E32" s="254"/>
+      <c r="F32" s="254"/>
+      <c r="G32" s="254"/>
+      <c r="H32" s="254"/>
+      <c r="I32" s="254"/>
+      <c r="J32" s="255"/>
+      <c r="K32" s="256"/>
+      <c r="L32" s="257"/>
+      <c r="M32" s="276"/>
+      <c r="N32" s="266"/>
+      <c r="O32" s="266"/>
+      <c r="P32" s="266"/>
+      <c r="Q32" s="266"/>
+      <c r="R32" s="267"/>
+      <c r="S32" s="252"/>
+      <c r="T32" s="252"/>
+      <c r="U32" s="252"/>
+      <c r="V32" s="268"/>
+      <c r="W32" s="269"/>
+      <c r="X32" s="269"/>
+      <c r="Y32" s="269"/>
+      <c r="Z32" s="269"/>
+      <c r="AA32" s="269"/>
+      <c r="AB32" s="269"/>
+      <c r="AC32" s="269"/>
+      <c r="AD32" s="269"/>
+      <c r="AE32" s="269"/>
+      <c r="AF32" s="269"/>
+      <c r="AG32" s="269"/>
+      <c r="AH32" s="269"/>
+      <c r="AI32" s="269"/>
+      <c r="AJ32" s="269"/>
+      <c r="AK32" s="269"/>
+      <c r="AL32" s="269"/>
+      <c r="AM32" s="270"/>
+      <c r="AN32" s="271"/>
+      <c r="AO32" s="272"/>
+      <c r="AP32" s="272"/>
+      <c r="AQ32" s="272"/>
+      <c r="AR32" s="273"/>
+      <c r="AS32" s="271"/>
+      <c r="AT32" s="272"/>
+      <c r="AU32" s="272"/>
+      <c r="AV32" s="272"/>
+      <c r="AW32" s="273"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="246"/>
-      <c r="C33" s="247"/>
-      <c r="D33" s="248"/>
-      <c r="E33" s="249"/>
-      <c r="F33" s="249"/>
-      <c r="G33" s="249"/>
-      <c r="H33" s="249"/>
-      <c r="I33" s="249"/>
-      <c r="J33" s="250"/>
-      <c r="K33" s="251"/>
-      <c r="L33" s="252"/>
-      <c r="M33" s="260"/>
-      <c r="N33" s="261"/>
-      <c r="O33" s="261"/>
-      <c r="P33" s="261"/>
-      <c r="Q33" s="261"/>
-      <c r="R33" s="262"/>
-      <c r="S33" s="256"/>
-      <c r="T33" s="256"/>
-      <c r="U33" s="256"/>
-      <c r="V33" s="257"/>
-      <c r="W33" s="258"/>
-      <c r="X33" s="258"/>
-      <c r="Y33" s="258"/>
-      <c r="Z33" s="258"/>
-      <c r="AA33" s="258"/>
-      <c r="AB33" s="258"/>
-      <c r="AC33" s="258"/>
-      <c r="AD33" s="258"/>
-      <c r="AE33" s="258"/>
-      <c r="AF33" s="258"/>
-      <c r="AG33" s="258"/>
-      <c r="AH33" s="258"/>
-      <c r="AI33" s="258"/>
-      <c r="AJ33" s="258"/>
-      <c r="AK33" s="258"/>
-      <c r="AL33" s="258"/>
-      <c r="AM33" s="259"/>
-      <c r="AN33" s="243"/>
-      <c r="AO33" s="244"/>
-      <c r="AP33" s="244"/>
-      <c r="AQ33" s="244"/>
-      <c r="AR33" s="245"/>
-      <c r="AS33" s="243"/>
-      <c r="AT33" s="244"/>
-      <c r="AU33" s="244"/>
-      <c r="AV33" s="244"/>
-      <c r="AW33" s="245"/>
+      <c r="B33" s="262"/>
+      <c r="C33" s="263"/>
+      <c r="D33" s="264"/>
+      <c r="E33" s="254"/>
+      <c r="F33" s="254"/>
+      <c r="G33" s="254"/>
+      <c r="H33" s="254"/>
+      <c r="I33" s="254"/>
+      <c r="J33" s="255"/>
+      <c r="K33" s="256"/>
+      <c r="L33" s="257"/>
+      <c r="M33" s="276"/>
+      <c r="N33" s="266"/>
+      <c r="O33" s="266"/>
+      <c r="P33" s="266"/>
+      <c r="Q33" s="266"/>
+      <c r="R33" s="267"/>
+      <c r="S33" s="252"/>
+      <c r="T33" s="252"/>
+      <c r="U33" s="252"/>
+      <c r="V33" s="268"/>
+      <c r="W33" s="269"/>
+      <c r="X33" s="269"/>
+      <c r="Y33" s="269"/>
+      <c r="Z33" s="269"/>
+      <c r="AA33" s="269"/>
+      <c r="AB33" s="269"/>
+      <c r="AC33" s="269"/>
+      <c r="AD33" s="269"/>
+      <c r="AE33" s="269"/>
+      <c r="AF33" s="269"/>
+      <c r="AG33" s="269"/>
+      <c r="AH33" s="269"/>
+      <c r="AI33" s="269"/>
+      <c r="AJ33" s="269"/>
+      <c r="AK33" s="269"/>
+      <c r="AL33" s="269"/>
+      <c r="AM33" s="270"/>
+      <c r="AN33" s="271"/>
+      <c r="AO33" s="272"/>
+      <c r="AP33" s="272"/>
+      <c r="AQ33" s="272"/>
+      <c r="AR33" s="273"/>
+      <c r="AS33" s="271"/>
+      <c r="AT33" s="272"/>
+      <c r="AU33" s="272"/>
+      <c r="AV33" s="272"/>
+      <c r="AW33" s="273"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="246"/>
-      <c r="C34" s="247"/>
-      <c r="D34" s="248"/>
-      <c r="E34" s="249"/>
-      <c r="F34" s="249"/>
-      <c r="G34" s="249"/>
-      <c r="H34" s="249"/>
-      <c r="I34" s="249"/>
-      <c r="J34" s="250"/>
-      <c r="K34" s="251"/>
-      <c r="L34" s="252"/>
-      <c r="M34" s="253"/>
-      <c r="N34" s="254"/>
-      <c r="O34" s="254"/>
-      <c r="P34" s="254"/>
-      <c r="Q34" s="254"/>
-      <c r="R34" s="255"/>
-      <c r="S34" s="256"/>
-      <c r="T34" s="256"/>
-      <c r="U34" s="256"/>
-      <c r="V34" s="257"/>
-      <c r="W34" s="258"/>
-      <c r="X34" s="258"/>
-      <c r="Y34" s="258"/>
-      <c r="Z34" s="258"/>
-      <c r="AA34" s="258"/>
-      <c r="AB34" s="258"/>
-      <c r="AC34" s="258"/>
-      <c r="AD34" s="258"/>
-      <c r="AE34" s="258"/>
-      <c r="AF34" s="258"/>
-      <c r="AG34" s="258"/>
-      <c r="AH34" s="258"/>
-      <c r="AI34" s="258"/>
-      <c r="AJ34" s="258"/>
-      <c r="AK34" s="258"/>
-      <c r="AL34" s="258"/>
-      <c r="AM34" s="259"/>
-      <c r="AN34" s="243"/>
-      <c r="AO34" s="244"/>
-      <c r="AP34" s="244"/>
-      <c r="AQ34" s="244"/>
-      <c r="AR34" s="245"/>
-      <c r="AS34" s="243"/>
-      <c r="AT34" s="244"/>
-      <c r="AU34" s="244"/>
-      <c r="AV34" s="244"/>
-      <c r="AW34" s="245"/>
+      <c r="B34" s="262"/>
+      <c r="C34" s="263"/>
+      <c r="D34" s="264"/>
+      <c r="E34" s="254"/>
+      <c r="F34" s="254"/>
+      <c r="G34" s="254"/>
+      <c r="H34" s="254"/>
+      <c r="I34" s="254"/>
+      <c r="J34" s="255"/>
+      <c r="K34" s="256"/>
+      <c r="L34" s="257"/>
+      <c r="M34" s="280"/>
+      <c r="N34" s="281"/>
+      <c r="O34" s="281"/>
+      <c r="P34" s="281"/>
+      <c r="Q34" s="281"/>
+      <c r="R34" s="282"/>
+      <c r="S34" s="252"/>
+      <c r="T34" s="252"/>
+      <c r="U34" s="252"/>
+      <c r="V34" s="268"/>
+      <c r="W34" s="269"/>
+      <c r="X34" s="269"/>
+      <c r="Y34" s="269"/>
+      <c r="Z34" s="269"/>
+      <c r="AA34" s="269"/>
+      <c r="AB34" s="269"/>
+      <c r="AC34" s="269"/>
+      <c r="AD34" s="269"/>
+      <c r="AE34" s="269"/>
+      <c r="AF34" s="269"/>
+      <c r="AG34" s="269"/>
+      <c r="AH34" s="269"/>
+      <c r="AI34" s="269"/>
+      <c r="AJ34" s="269"/>
+      <c r="AK34" s="269"/>
+      <c r="AL34" s="269"/>
+      <c r="AM34" s="270"/>
+      <c r="AN34" s="271"/>
+      <c r="AO34" s="272"/>
+      <c r="AP34" s="272"/>
+      <c r="AQ34" s="272"/>
+      <c r="AR34" s="273"/>
+      <c r="AS34" s="271"/>
+      <c r="AT34" s="272"/>
+      <c r="AU34" s="272"/>
+      <c r="AV34" s="272"/>
+      <c r="AW34" s="273"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -8858,230 +9073,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9241,11 +9241,11 @@
       <c r="AL2" s="35"/>
       <c r="AM2" s="35"/>
       <c r="AN2" s="36"/>
-      <c r="AO2" s="287"/>
-      <c r="AP2" s="288"/>
-      <c r="AQ2" s="288"/>
-      <c r="AR2" s="288"/>
-      <c r="AS2" s="289"/>
+      <c r="AO2" s="283"/>
+      <c r="AP2" s="284"/>
+      <c r="AQ2" s="284"/>
+      <c r="AR2" s="284"/>
+      <c r="AS2" s="285"/>
       <c r="AT2" s="34" t="s">
         <v>26</v>
       </c>
@@ -9254,14 +9254,14 @@
       <c r="AW2" s="35"/>
       <c r="AX2" s="35"/>
       <c r="AY2" s="36"/>
-      <c r="AZ2" s="290"/>
-      <c r="BA2" s="291"/>
-      <c r="BB2" s="291"/>
-      <c r="BC2" s="291"/>
-      <c r="BD2" s="291"/>
-      <c r="BE2" s="291"/>
-      <c r="BF2" s="291"/>
-      <c r="BG2" s="292"/>
+      <c r="AZ2" s="286"/>
+      <c r="BA2" s="287"/>
+      <c r="BB2" s="287"/>
+      <c r="BC2" s="287"/>
+      <c r="BD2" s="287"/>
+      <c r="BE2" s="287"/>
+      <c r="BF2" s="287"/>
+      <c r="BG2" s="288"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="33"/>
@@ -11010,10 +11010,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="29"/>
-      <c r="B50" s="293" t="s">
+      <c r="B50" s="289" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="294"/>
+      <c r="C50" s="290"/>
       <c r="D50" s="85" t="s">
         <v>90</v>
       </c>
@@ -11096,10 +11096,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="29"/>
-      <c r="B51" s="283">
+      <c r="B51" s="291">
         <v>1</v>
       </c>
-      <c r="C51" s="284"/>
+      <c r="C51" s="292"/>
       <c r="D51" s="106" t="s">
         <v>109</v>
       </c>
@@ -11174,10 +11174,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="29"/>
-      <c r="B52" s="283">
+      <c r="B52" s="291">
         <v>2</v>
       </c>
-      <c r="C52" s="284"/>
+      <c r="C52" s="292"/>
       <c r="D52" s="106" t="s">
         <v>110</v>
       </c>
@@ -11209,16 +11209,16 @@
       <c r="AB52" s="237"/>
       <c r="AC52" s="237"/>
       <c r="AD52" s="238"/>
-      <c r="AE52" s="285" t="s">
+      <c r="AE52" s="293" t="s">
         <v>99</v>
       </c>
-      <c r="AF52" s="286"/>
-      <c r="AG52" s="285"/>
-      <c r="AH52" s="286"/>
-      <c r="AI52" s="285"/>
-      <c r="AJ52" s="286"/>
-      <c r="AK52" s="285"/>
-      <c r="AL52" s="286"/>
+      <c r="AF52" s="294"/>
+      <c r="AG52" s="293"/>
+      <c r="AH52" s="294"/>
+      <c r="AI52" s="293"/>
+      <c r="AJ52" s="294"/>
+      <c r="AK52" s="293"/>
+      <c r="AL52" s="294"/>
       <c r="AM52" s="239" t="s">
         <v>423</v>
       </c>
@@ -11252,10 +11252,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="29"/>
-      <c r="B53" s="283">
+      <c r="B53" s="291">
         <v>3</v>
       </c>
-      <c r="C53" s="284"/>
+      <c r="C53" s="292"/>
       <c r="D53" s="106" t="s">
         <v>110</v>
       </c>
@@ -11287,16 +11287,16 @@
       <c r="AB53" s="237"/>
       <c r="AC53" s="237"/>
       <c r="AD53" s="238"/>
-      <c r="AE53" s="285" t="s">
+      <c r="AE53" s="293" t="s">
         <v>99</v>
       </c>
-      <c r="AF53" s="286"/>
-      <c r="AG53" s="285"/>
-      <c r="AH53" s="286"/>
-      <c r="AI53" s="285"/>
-      <c r="AJ53" s="286"/>
-      <c r="AK53" s="285"/>
-      <c r="AL53" s="286"/>
+      <c r="AF53" s="294"/>
+      <c r="AG53" s="293"/>
+      <c r="AH53" s="294"/>
+      <c r="AI53" s="293"/>
+      <c r="AJ53" s="294"/>
+      <c r="AK53" s="293"/>
+      <c r="AL53" s="294"/>
       <c r="AM53" s="239" t="s">
         <v>425</v>
       </c>
@@ -11330,10 +11330,10 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="29"/>
-      <c r="B54" s="283">
+      <c r="B54" s="291">
         <v>4</v>
       </c>
-      <c r="C54" s="284"/>
+      <c r="C54" s="292"/>
       <c r="D54" s="106" t="s">
         <v>110</v>
       </c>
@@ -11365,16 +11365,16 @@
       <c r="AB54" s="237"/>
       <c r="AC54" s="237"/>
       <c r="AD54" s="238"/>
-      <c r="AE54" s="285" t="s">
+      <c r="AE54" s="293" t="s">
         <v>99</v>
       </c>
-      <c r="AF54" s="286"/>
-      <c r="AG54" s="285"/>
-      <c r="AH54" s="286"/>
-      <c r="AI54" s="285"/>
-      <c r="AJ54" s="286"/>
-      <c r="AK54" s="285"/>
-      <c r="AL54" s="286"/>
+      <c r="AF54" s="294"/>
+      <c r="AG54" s="293"/>
+      <c r="AH54" s="294"/>
+      <c r="AI54" s="293"/>
+      <c r="AJ54" s="294"/>
+      <c r="AK54" s="293"/>
+      <c r="AL54" s="294"/>
       <c r="AM54" s="239" t="s">
         <v>427</v>
       </c>
@@ -11408,10 +11408,10 @@
     </row>
     <row r="55" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A55" s="29"/>
-      <c r="B55" s="283">
+      <c r="B55" s="291">
         <v>5</v>
       </c>
-      <c r="C55" s="284"/>
+      <c r="C55" s="292"/>
       <c r="D55" s="106" t="s">
         <v>110</v>
       </c>
@@ -11443,16 +11443,16 @@
       <c r="AB55" s="237"/>
       <c r="AC55" s="237"/>
       <c r="AD55" s="238"/>
-      <c r="AE55" s="285" t="s">
+      <c r="AE55" s="293" t="s">
         <v>99</v>
       </c>
-      <c r="AF55" s="286"/>
-      <c r="AG55" s="285"/>
-      <c r="AH55" s="286"/>
-      <c r="AI55" s="285"/>
-      <c r="AJ55" s="286"/>
-      <c r="AK55" s="285"/>
-      <c r="AL55" s="286"/>
+      <c r="AF55" s="294"/>
+      <c r="AG55" s="293"/>
+      <c r="AH55" s="294"/>
+      <c r="AI55" s="293"/>
+      <c r="AJ55" s="294"/>
+      <c r="AK55" s="293"/>
+      <c r="AL55" s="294"/>
       <c r="AM55" s="239" t="s">
         <v>429</v>
       </c>
@@ -11491,6 +11491,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="B50:C50"/>
@@ -11507,23 +11519,11 @@
     <mergeCell ref="AI51:AJ51"/>
     <mergeCell ref="AK51:AL51"/>
     <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
@@ -11664,7 +11664,7 @@
       <c r="CR1" s="35"/>
       <c r="CS1" s="35"/>
       <c r="CT1" s="36"/>
-      <c r="CU1" s="290" t="str">
+      <c r="CU1" s="286" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -11795,7 +11795,7 @@
       <c r="CR2" s="35"/>
       <c r="CS2" s="35"/>
       <c r="CT2" s="36"/>
-      <c r="CU2" s="290"/>
+      <c r="CU2" s="286"/>
       <c r="CV2" s="297"/>
       <c r="CW2" s="297"/>
       <c r="CX2" s="297"/>
@@ -12012,22 +12012,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="276" t="s">
+      <c r="C6" s="245" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="276" t="s">
+      <c r="D6" s="245" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="276" t="s">
+      <c r="E6" s="245" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="276" t="s">
+      <c r="F6" s="245" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="276" t="s">
+      <c r="G6" s="245" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="276" t="s">
+      <c r="H6" s="245" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="306" t="s">
@@ -12036,13 +12036,13 @@
       <c r="J6" s="306" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="276" t="s">
+      <c r="K6" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="276" t="s">
+      <c r="L6" s="245" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="276" t="s">
+      <c r="M6" s="245" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="73" t="s">
@@ -12057,17 +12057,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="276"/>
-      <c r="D7" s="276"/>
-      <c r="E7" s="276"/>
-      <c r="F7" s="276"/>
-      <c r="G7" s="276"/>
-      <c r="H7" s="276"/>
+      <c r="C7" s="245"/>
+      <c r="D7" s="245"/>
+      <c r="E7" s="245"/>
+      <c r="F7" s="245"/>
+      <c r="G7" s="245"/>
+      <c r="H7" s="245"/>
       <c r="I7" s="306"/>
       <c r="J7" s="306"/>
-      <c r="K7" s="276"/>
-      <c r="L7" s="276"/>
-      <c r="M7" s="276"/>
+      <c r="K7" s="245"/>
+      <c r="L7" s="245"/>
+      <c r="M7" s="245"/>
       <c r="N7" s="43" t="s">
         <v>74</v>
       </c>
@@ -12186,22 +12186,22 @@
     <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
-      <c r="C12" s="276" t="s">
+      <c r="C12" s="245" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="276" t="s">
+      <c r="D12" s="245" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="276" t="s">
+      <c r="E12" s="245" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="276" t="s">
+      <c r="F12" s="245" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="276" t="s">
+      <c r="G12" s="245" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="276" t="s">
+      <c r="H12" s="245" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="307" t="s">
@@ -12210,13 +12210,13 @@
       <c r="J12" s="306" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="276" t="s">
+      <c r="K12" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="276" t="s">
+      <c r="L12" s="245" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="276" t="s">
+      <c r="M12" s="245" t="s">
         <v>33</v>
       </c>
       <c r="N12" s="73" t="s">
@@ -12231,17 +12231,17 @@
     <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="276"/>
-      <c r="D13" s="276"/>
-      <c r="E13" s="276"/>
-      <c r="F13" s="276"/>
-      <c r="G13" s="276"/>
-      <c r="H13" s="276"/>
+      <c r="C13" s="245"/>
+      <c r="D13" s="245"/>
+      <c r="E13" s="245"/>
+      <c r="F13" s="245"/>
+      <c r="G13" s="245"/>
+      <c r="H13" s="245"/>
       <c r="I13" s="308"/>
       <c r="J13" s="306"/>
-      <c r="K13" s="276"/>
-      <c r="L13" s="276"/>
-      <c r="M13" s="276"/>
+      <c r="K13" s="245"/>
+      <c r="L13" s="245"/>
+      <c r="M13" s="245"/>
       <c r="N13" s="43" t="s">
         <v>74</v>
       </c>
@@ -12504,22 +12504,22 @@
     </row>
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="110"/>
-      <c r="C22" s="276" t="s">
+      <c r="C22" s="245" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="276" t="s">
+      <c r="D22" s="245" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="276" t="s">
+      <c r="E22" s="245" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="276" t="s">
+      <c r="F22" s="245" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="276" t="s">
+      <c r="G22" s="245" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="276" t="s">
+      <c r="H22" s="245" t="s">
         <v>29</v>
       </c>
       <c r="I22" s="306" t="s">
@@ -12528,13 +12528,13 @@
       <c r="J22" s="306" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="276" t="s">
+      <c r="K22" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="276" t="s">
+      <c r="L22" s="245" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="276" t="s">
+      <c r="M22" s="245" t="s">
         <v>33</v>
       </c>
       <c r="N22" s="73" t="s">
@@ -12548,17 +12548,17 @@
     </row>
     <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B23" s="110"/>
-      <c r="C23" s="276"/>
-      <c r="D23" s="276"/>
-      <c r="E23" s="276"/>
-      <c r="F23" s="276"/>
-      <c r="G23" s="276"/>
-      <c r="H23" s="276"/>
+      <c r="C23" s="245"/>
+      <c r="D23" s="245"/>
+      <c r="E23" s="245"/>
+      <c r="F23" s="245"/>
+      <c r="G23" s="245"/>
+      <c r="H23" s="245"/>
       <c r="I23" s="306"/>
       <c r="J23" s="306"/>
-      <c r="K23" s="276"/>
-      <c r="L23" s="276"/>
-      <c r="M23" s="276"/>
+      <c r="K23" s="245"/>
+      <c r="L23" s="245"/>
+      <c r="M23" s="245"/>
       <c r="N23" s="108" t="s">
         <v>74</v>
       </c>
@@ -12878,22 +12878,22 @@
     </row>
     <row r="32" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="110"/>
-      <c r="C32" s="276" t="s">
+      <c r="C32" s="245" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="276" t="s">
+      <c r="D32" s="245" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="276" t="s">
+      <c r="E32" s="245" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="276" t="s">
+      <c r="F32" s="245" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="276" t="s">
+      <c r="G32" s="245" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="276" t="s">
+      <c r="H32" s="245" t="s">
         <v>29</v>
       </c>
       <c r="I32" s="306" t="s">
@@ -12902,13 +12902,13 @@
       <c r="J32" s="306" t="s">
         <v>46</v>
       </c>
-      <c r="K32" s="276" t="s">
+      <c r="K32" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="L32" s="276" t="s">
+      <c r="L32" s="245" t="s">
         <v>30</v>
       </c>
-      <c r="M32" s="276" t="s">
+      <c r="M32" s="245" t="s">
         <v>33</v>
       </c>
       <c r="N32" s="73" t="s">
@@ -12922,17 +12922,17 @@
     </row>
     <row r="33" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B33" s="110"/>
-      <c r="C33" s="276"/>
-      <c r="D33" s="276"/>
-      <c r="E33" s="276"/>
-      <c r="F33" s="276"/>
-      <c r="G33" s="276"/>
-      <c r="H33" s="276"/>
+      <c r="C33" s="245"/>
+      <c r="D33" s="245"/>
+      <c r="E33" s="245"/>
+      <c r="F33" s="245"/>
+      <c r="G33" s="245"/>
+      <c r="H33" s="245"/>
       <c r="I33" s="306"/>
       <c r="J33" s="306"/>
-      <c r="K33" s="276"/>
-      <c r="L33" s="276"/>
-      <c r="M33" s="276"/>
+      <c r="K33" s="245"/>
+      <c r="L33" s="245"/>
+      <c r="M33" s="245"/>
       <c r="N33" s="112" t="s">
         <v>74</v>
       </c>
@@ -13117,6 +13117,46 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="M22:M23"/>
     <mergeCell ref="Q22:Q23"/>
@@ -13125,46 +13165,6 @@
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="M12:M13"/>
     <mergeCell ref="L12:L13"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -13234,7 +13234,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="287">
+      <c r="AI1" s="283">
         <f>変更履歴!E5</f>
         <v>43717</v>
       </c>
@@ -13250,7 +13250,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="290" t="str">
+      <c r="AT1" s="286" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -13321,7 +13321,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="290"/>
+      <c r="AT2" s="286"/>
       <c r="AU2" s="297"/>
       <c r="AV2" s="297"/>
       <c r="AW2" s="297"/>
@@ -41810,7 +41810,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="287">
+      <c r="AI1" s="283">
         <f>変更履歴!E5</f>
         <v>43717</v>
       </c>
@@ -41826,7 +41826,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="290" t="str">
+      <c r="AT1" s="286" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -41897,7 +41897,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="290"/>
+      <c r="AT2" s="286"/>
       <c r="AU2" s="297"/>
       <c r="AV2" s="297"/>
       <c r="AW2" s="297"/>
@@ -46518,7 +46518,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="287">
+      <c r="AI1" s="283">
         <f>変更履歴!E5</f>
         <v>43717</v>
       </c>
@@ -46534,7 +46534,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="290" t="str">
+      <c r="AT1" s="286" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -46605,7 +46605,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="290"/>
+      <c r="AT2" s="286"/>
       <c r="AU2" s="297"/>
       <c r="AV2" s="297"/>
       <c r="AW2" s="297"/>
@@ -46824,12 +46824,12 @@
       <c r="M9" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="N9" s="322"/>
+      <c r="N9" s="316"/>
       <c r="O9" s="313"/>
-      <c r="P9" s="316" t="s">
+      <c r="P9" s="318" t="s">
         <v>447</v>
       </c>
-      <c r="Q9" s="318"/>
+      <c r="Q9" s="319"/>
     </row>
     <row r="10" spans="1:52" s="126" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C10" s="131" t="s">
@@ -46845,9 +46845,9 @@
       <c r="K10" s="314"/>
       <c r="L10" s="315"/>
       <c r="M10" s="314"/>
-      <c r="N10" s="323"/>
+      <c r="N10" s="317"/>
       <c r="O10" s="315"/>
-      <c r="P10" s="319"/>
+      <c r="P10" s="320"/>
       <c r="Q10" s="321"/>
     </row>
     <row r="11" spans="1:52" s="126" customFormat="1" x14ac:dyDescent="0.15">
@@ -47250,16 +47250,16 @@
         <v>203</v>
       </c>
       <c r="N23" s="313"/>
-      <c r="O23" s="316" t="s">
+      <c r="O23" s="318" t="s">
         <v>204</v>
       </c>
-      <c r="P23" s="317"/>
-      <c r="Q23" s="318"/>
-      <c r="R23" s="316" t="s">
+      <c r="P23" s="322"/>
+      <c r="Q23" s="319"/>
+      <c r="R23" s="318" t="s">
         <v>205</v>
       </c>
-      <c r="S23" s="317"/>
-      <c r="T23" s="318"/>
+      <c r="S23" s="322"/>
+      <c r="T23" s="319"/>
       <c r="U23" s="312" t="s">
         <v>206</v>
       </c>
@@ -47319,11 +47319,11 @@
       <c r="L24" s="315"/>
       <c r="M24" s="314"/>
       <c r="N24" s="315"/>
-      <c r="O24" s="319"/>
-      <c r="P24" s="320"/>
+      <c r="O24" s="320"/>
+      <c r="P24" s="323"/>
       <c r="Q24" s="321"/>
-      <c r="R24" s="319"/>
-      <c r="S24" s="320"/>
+      <c r="R24" s="320"/>
+      <c r="S24" s="323"/>
       <c r="T24" s="321"/>
       <c r="U24" s="314"/>
       <c r="V24" s="315"/>
@@ -47936,16 +47936,16 @@
         <v>203</v>
       </c>
       <c r="N33" s="313"/>
-      <c r="O33" s="316" t="s">
+      <c r="O33" s="318" t="s">
         <v>204</v>
       </c>
-      <c r="P33" s="317"/>
-      <c r="Q33" s="318"/>
-      <c r="R33" s="316" t="s">
+      <c r="P33" s="322"/>
+      <c r="Q33" s="319"/>
+      <c r="R33" s="318" t="s">
         <v>205</v>
       </c>
-      <c r="S33" s="317"/>
-      <c r="T33" s="318"/>
+      <c r="S33" s="322"/>
+      <c r="T33" s="319"/>
       <c r="U33" s="312" t="s">
         <v>206</v>
       </c>
@@ -48005,11 +48005,11 @@
       <c r="L34" s="315"/>
       <c r="M34" s="314"/>
       <c r="N34" s="315"/>
-      <c r="O34" s="319"/>
-      <c r="P34" s="320"/>
+      <c r="O34" s="320"/>
+      <c r="P34" s="323"/>
       <c r="Q34" s="321"/>
-      <c r="R34" s="319"/>
-      <c r="S34" s="320"/>
+      <c r="R34" s="320"/>
+      <c r="S34" s="323"/>
       <c r="T34" s="321"/>
       <c r="U34" s="314"/>
       <c r="V34" s="315"/>
@@ -49060,16 +49060,16 @@
         <v>203</v>
       </c>
       <c r="N49" s="313"/>
-      <c r="O49" s="316" t="s">
+      <c r="O49" s="318" t="s">
         <v>204</v>
       </c>
-      <c r="P49" s="317"/>
-      <c r="Q49" s="318"/>
-      <c r="R49" s="316" t="s">
+      <c r="P49" s="322"/>
+      <c r="Q49" s="319"/>
+      <c r="R49" s="318" t="s">
         <v>205</v>
       </c>
-      <c r="S49" s="317"/>
-      <c r="T49" s="318"/>
+      <c r="S49" s="322"/>
+      <c r="T49" s="319"/>
       <c r="U49" s="312" t="s">
         <v>206</v>
       </c>
@@ -49129,11 +49129,11 @@
       <c r="L50" s="315"/>
       <c r="M50" s="314"/>
       <c r="N50" s="315"/>
-      <c r="O50" s="319"/>
-      <c r="P50" s="320"/>
+      <c r="O50" s="320"/>
+      <c r="P50" s="323"/>
       <c r="Q50" s="321"/>
-      <c r="R50" s="319"/>
-      <c r="S50" s="320"/>
+      <c r="R50" s="320"/>
+      <c r="S50" s="323"/>
       <c r="T50" s="321"/>
       <c r="U50" s="314"/>
       <c r="V50" s="315"/>
@@ -60380,13 +60380,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="M9:O10"/>
-    <mergeCell ref="P9:Q10"/>
-    <mergeCell ref="O23:Q24"/>
-    <mergeCell ref="R23:T24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="M23:N24"/>
+    <mergeCell ref="K49:L50"/>
+    <mergeCell ref="M49:N50"/>
+    <mergeCell ref="O49:Q50"/>
+    <mergeCell ref="K33:L34"/>
+    <mergeCell ref="M33:N34"/>
+    <mergeCell ref="O33:Q34"/>
     <mergeCell ref="R49:T50"/>
     <mergeCell ref="U49:V50"/>
     <mergeCell ref="AT1:AZ1"/>
@@ -60397,12 +60396,13 @@
     <mergeCell ref="U33:V34"/>
     <mergeCell ref="R33:T34"/>
     <mergeCell ref="U23:V24"/>
-    <mergeCell ref="K49:L50"/>
-    <mergeCell ref="M49:N50"/>
-    <mergeCell ref="O49:Q50"/>
-    <mergeCell ref="K33:L34"/>
-    <mergeCell ref="M33:N34"/>
-    <mergeCell ref="O33:Q34"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="M9:O10"/>
+    <mergeCell ref="P9:Q10"/>
+    <mergeCell ref="O23:Q24"/>
+    <mergeCell ref="R23:T24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="M23:N24"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -64610,21 +64610,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -64782,31 +64767,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -64822,4 +64798,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K13A_当日詳細実績参照.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K13A_当日詳細実績参照.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ローカル作業_Wang\backdoor\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7C5320-F42D-4027-AA7D-54CA7D6C05A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9AE539-F526-4035-9392-73CFA59932AB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -138,16 +138,6 @@
     <definedName name="非営業日">[1]休日!$B$16:$C$27</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentManualCount="2"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -2667,20 +2657,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>大工程</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>カクテイカイジョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Large process</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>パラメータ.大工程コード、大工程名称</t>
     <rPh sb="6" eb="7">
       <t>ダイ</t>
@@ -2999,6 +2975,17 @@
   </si>
   <si>
     <t>K-13A</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>工程</t>
+    <rPh sb="0" eb="2">
+      <t>カクテイカイジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Process</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -4395,6 +4382,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4422,90 +4494,17 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="28" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -4530,18 +4529,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4606,13 +4593,10 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4621,14 +4605,17 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="9" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5597,7 +5584,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$40" spid="_x0000_s3203"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$40" spid="_x0000_s3208"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7069,1770 +7056,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="54"/>
-      <c r="B1" s="243" t="s">
+      <c r="B1" s="274" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="243"/>
-      <c r="I1" s="243"/>
-      <c r="J1" s="243"/>
-      <c r="K1" s="243"/>
-      <c r="L1" s="243"/>
-      <c r="M1" s="243"/>
-      <c r="N1" s="243"/>
-      <c r="O1" s="243"/>
-      <c r="P1" s="243"/>
-      <c r="Q1" s="243"/>
-      <c r="R1" s="243"/>
-      <c r="S1" s="243"/>
-      <c r="T1" s="243"/>
-      <c r="U1" s="243"/>
-      <c r="V1" s="243"/>
-      <c r="W1" s="243"/>
-      <c r="X1" s="243"/>
-      <c r="Y1" s="243"/>
-      <c r="Z1" s="243"/>
-      <c r="AA1" s="243"/>
-      <c r="AB1" s="243"/>
-      <c r="AC1" s="243"/>
-      <c r="AD1" s="243"/>
-      <c r="AE1" s="243"/>
-      <c r="AF1" s="243"/>
-      <c r="AG1" s="243"/>
-      <c r="AH1" s="243"/>
-      <c r="AI1" s="243"/>
-      <c r="AJ1" s="243"/>
-      <c r="AK1" s="243"/>
-      <c r="AL1" s="243"/>
-      <c r="AM1" s="243"/>
-      <c r="AN1" s="243"/>
-      <c r="AO1" s="243"/>
-      <c r="AP1" s="243"/>
-      <c r="AQ1" s="243"/>
-      <c r="AR1" s="243"/>
-      <c r="AS1" s="243"/>
-      <c r="AT1" s="243"/>
-      <c r="AU1" s="243"/>
-      <c r="AV1" s="243"/>
-      <c r="AW1" s="243"/>
+      <c r="C1" s="274"/>
+      <c r="D1" s="274"/>
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="274"/>
+      <c r="K1" s="274"/>
+      <c r="L1" s="274"/>
+      <c r="M1" s="274"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="274"/>
+      <c r="P1" s="274"/>
+      <c r="Q1" s="274"/>
+      <c r="R1" s="274"/>
+      <c r="S1" s="274"/>
+      <c r="T1" s="274"/>
+      <c r="U1" s="274"/>
+      <c r="V1" s="274"/>
+      <c r="W1" s="274"/>
+      <c r="X1" s="274"/>
+      <c r="Y1" s="274"/>
+      <c r="Z1" s="274"/>
+      <c r="AA1" s="274"/>
+      <c r="AB1" s="274"/>
+      <c r="AC1" s="274"/>
+      <c r="AD1" s="274"/>
+      <c r="AE1" s="274"/>
+      <c r="AF1" s="274"/>
+      <c r="AG1" s="274"/>
+      <c r="AH1" s="274"/>
+      <c r="AI1" s="274"/>
+      <c r="AJ1" s="274"/>
+      <c r="AK1" s="274"/>
+      <c r="AL1" s="274"/>
+      <c r="AM1" s="274"/>
+      <c r="AN1" s="274"/>
+      <c r="AO1" s="274"/>
+      <c r="AP1" s="274"/>
+      <c r="AQ1" s="274"/>
+      <c r="AR1" s="274"/>
+      <c r="AS1" s="274"/>
+      <c r="AT1" s="274"/>
+      <c r="AU1" s="274"/>
+      <c r="AV1" s="274"/>
+      <c r="AW1" s="274"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="244"/>
-      <c r="I2" s="244"/>
-      <c r="J2" s="244"/>
-      <c r="K2" s="244"/>
-      <c r="L2" s="244"/>
-      <c r="M2" s="244"/>
-      <c r="N2" s="244"/>
-      <c r="O2" s="244"/>
-      <c r="P2" s="244"/>
-      <c r="Q2" s="244"/>
-      <c r="R2" s="244"/>
-      <c r="S2" s="244"/>
-      <c r="T2" s="244"/>
-      <c r="U2" s="244"/>
-      <c r="V2" s="244"/>
-      <c r="W2" s="244"/>
-      <c r="X2" s="244"/>
-      <c r="Y2" s="244"/>
-      <c r="Z2" s="244"/>
-      <c r="AA2" s="244"/>
-      <c r="AB2" s="244"/>
-      <c r="AC2" s="244"/>
-      <c r="AD2" s="244"/>
-      <c r="AE2" s="244"/>
-      <c r="AF2" s="244"/>
-      <c r="AG2" s="244"/>
-      <c r="AH2" s="244"/>
-      <c r="AI2" s="244"/>
-      <c r="AJ2" s="244"/>
-      <c r="AK2" s="244"/>
-      <c r="AL2" s="244"/>
-      <c r="AM2" s="244"/>
-      <c r="AN2" s="244"/>
-      <c r="AO2" s="244"/>
-      <c r="AP2" s="244"/>
-      <c r="AQ2" s="244"/>
-      <c r="AR2" s="244"/>
-      <c r="AS2" s="244"/>
-      <c r="AT2" s="244"/>
-      <c r="AU2" s="244"/>
-      <c r="AV2" s="244"/>
-      <c r="AW2" s="244"/>
+      <c r="B2" s="275"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
+      <c r="G2" s="275"/>
+      <c r="H2" s="275"/>
+      <c r="I2" s="275"/>
+      <c r="J2" s="275"/>
+      <c r="K2" s="275"/>
+      <c r="L2" s="275"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="275"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="275"/>
+      <c r="U2" s="275"/>
+      <c r="V2" s="275"/>
+      <c r="W2" s="275"/>
+      <c r="X2" s="275"/>
+      <c r="Y2" s="275"/>
+      <c r="Z2" s="275"/>
+      <c r="AA2" s="275"/>
+      <c r="AB2" s="275"/>
+      <c r="AC2" s="275"/>
+      <c r="AD2" s="275"/>
+      <c r="AE2" s="275"/>
+      <c r="AF2" s="275"/>
+      <c r="AG2" s="275"/>
+      <c r="AH2" s="275"/>
+      <c r="AI2" s="275"/>
+      <c r="AJ2" s="275"/>
+      <c r="AK2" s="275"/>
+      <c r="AL2" s="275"/>
+      <c r="AM2" s="275"/>
+      <c r="AN2" s="275"/>
+      <c r="AO2" s="275"/>
+      <c r="AP2" s="275"/>
+      <c r="AQ2" s="275"/>
+      <c r="AR2" s="275"/>
+      <c r="AS2" s="275"/>
+      <c r="AT2" s="275"/>
+      <c r="AU2" s="275"/>
+      <c r="AV2" s="275"/>
+      <c r="AW2" s="275"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
-      <c r="B3" s="245" t="s">
+      <c r="B3" s="276" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="245"/>
-      <c r="D3" s="245"/>
-      <c r="E3" s="245" t="s">
+      <c r="C3" s="276"/>
+      <c r="D3" s="276"/>
+      <c r="E3" s="276" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="245"/>
-      <c r="G3" s="245"/>
-      <c r="H3" s="245"/>
-      <c r="I3" s="245"/>
-      <c r="J3" s="246" t="s">
+      <c r="F3" s="276"/>
+      <c r="G3" s="276"/>
+      <c r="H3" s="276"/>
+      <c r="I3" s="276"/>
+      <c r="J3" s="277" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="247"/>
-      <c r="L3" s="248"/>
-      <c r="M3" s="246" t="s">
+      <c r="K3" s="278"/>
+      <c r="L3" s="279"/>
+      <c r="M3" s="277" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="247"/>
-      <c r="O3" s="247"/>
-      <c r="P3" s="247"/>
-      <c r="Q3" s="247"/>
-      <c r="R3" s="248"/>
-      <c r="S3" s="245" t="s">
+      <c r="N3" s="278"/>
+      <c r="O3" s="278"/>
+      <c r="P3" s="278"/>
+      <c r="Q3" s="278"/>
+      <c r="R3" s="279"/>
+      <c r="S3" s="276" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="245"/>
-      <c r="U3" s="245"/>
-      <c r="V3" s="245" t="s">
+      <c r="T3" s="276"/>
+      <c r="U3" s="276"/>
+      <c r="V3" s="276" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="245"/>
-      <c r="X3" s="245"/>
-      <c r="Y3" s="245"/>
-      <c r="Z3" s="245"/>
-      <c r="AA3" s="245"/>
-      <c r="AB3" s="245"/>
-      <c r="AC3" s="245"/>
-      <c r="AD3" s="245"/>
-      <c r="AE3" s="245"/>
-      <c r="AF3" s="245"/>
-      <c r="AG3" s="245"/>
-      <c r="AH3" s="245"/>
-      <c r="AI3" s="245"/>
-      <c r="AJ3" s="245"/>
-      <c r="AK3" s="245"/>
-      <c r="AL3" s="245"/>
-      <c r="AM3" s="245"/>
-      <c r="AN3" s="245" t="s">
+      <c r="W3" s="276"/>
+      <c r="X3" s="276"/>
+      <c r="Y3" s="276"/>
+      <c r="Z3" s="276"/>
+      <c r="AA3" s="276"/>
+      <c r="AB3" s="276"/>
+      <c r="AC3" s="276"/>
+      <c r="AD3" s="276"/>
+      <c r="AE3" s="276"/>
+      <c r="AF3" s="276"/>
+      <c r="AG3" s="276"/>
+      <c r="AH3" s="276"/>
+      <c r="AI3" s="276"/>
+      <c r="AJ3" s="276"/>
+      <c r="AK3" s="276"/>
+      <c r="AL3" s="276"/>
+      <c r="AM3" s="276"/>
+      <c r="AN3" s="276" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="245"/>
-      <c r="AP3" s="245"/>
-      <c r="AQ3" s="245"/>
-      <c r="AR3" s="245"/>
-      <c r="AS3" s="245" t="s">
+      <c r="AO3" s="276"/>
+      <c r="AP3" s="276"/>
+      <c r="AQ3" s="276"/>
+      <c r="AR3" s="276"/>
+      <c r="AS3" s="276" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="245"/>
-      <c r="AU3" s="245"/>
-      <c r="AV3" s="245"/>
-      <c r="AW3" s="245"/>
+      <c r="AT3" s="276"/>
+      <c r="AU3" s="276"/>
+      <c r="AV3" s="276"/>
+      <c r="AW3" s="276"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
-      <c r="B4" s="245"/>
-      <c r="C4" s="245"/>
-      <c r="D4" s="245"/>
-      <c r="E4" s="245"/>
-      <c r="F4" s="245"/>
-      <c r="G4" s="245"/>
-      <c r="H4" s="245"/>
-      <c r="I4" s="245"/>
-      <c r="J4" s="249"/>
-      <c r="K4" s="250"/>
-      <c r="L4" s="251"/>
-      <c r="M4" s="249"/>
-      <c r="N4" s="250"/>
-      <c r="O4" s="250"/>
-      <c r="P4" s="250"/>
-      <c r="Q4" s="250"/>
-      <c r="R4" s="251"/>
-      <c r="S4" s="245"/>
-      <c r="T4" s="245"/>
-      <c r="U4" s="245"/>
-      <c r="V4" s="245"/>
-      <c r="W4" s="245"/>
-      <c r="X4" s="245"/>
-      <c r="Y4" s="245"/>
-      <c r="Z4" s="245"/>
-      <c r="AA4" s="245"/>
-      <c r="AB4" s="245"/>
-      <c r="AC4" s="245"/>
-      <c r="AD4" s="245"/>
-      <c r="AE4" s="245"/>
-      <c r="AF4" s="245"/>
-      <c r="AG4" s="245"/>
-      <c r="AH4" s="245"/>
-      <c r="AI4" s="245"/>
-      <c r="AJ4" s="245"/>
-      <c r="AK4" s="245"/>
-      <c r="AL4" s="245"/>
-      <c r="AM4" s="245"/>
-      <c r="AN4" s="245"/>
-      <c r="AO4" s="245"/>
-      <c r="AP4" s="245"/>
-      <c r="AQ4" s="245"/>
-      <c r="AR4" s="245"/>
-      <c r="AS4" s="245"/>
-      <c r="AT4" s="245"/>
-      <c r="AU4" s="245"/>
-      <c r="AV4" s="245"/>
-      <c r="AW4" s="245"/>
+      <c r="B4" s="276"/>
+      <c r="C4" s="276"/>
+      <c r="D4" s="276"/>
+      <c r="E4" s="276"/>
+      <c r="F4" s="276"/>
+      <c r="G4" s="276"/>
+      <c r="H4" s="276"/>
+      <c r="I4" s="276"/>
+      <c r="J4" s="280"/>
+      <c r="K4" s="281"/>
+      <c r="L4" s="282"/>
+      <c r="M4" s="280"/>
+      <c r="N4" s="281"/>
+      <c r="O4" s="281"/>
+      <c r="P4" s="281"/>
+      <c r="Q4" s="281"/>
+      <c r="R4" s="282"/>
+      <c r="S4" s="276"/>
+      <c r="T4" s="276"/>
+      <c r="U4" s="276"/>
+      <c r="V4" s="276"/>
+      <c r="W4" s="276"/>
+      <c r="X4" s="276"/>
+      <c r="Y4" s="276"/>
+      <c r="Z4" s="276"/>
+      <c r="AA4" s="276"/>
+      <c r="AB4" s="276"/>
+      <c r="AC4" s="276"/>
+      <c r="AD4" s="276"/>
+      <c r="AE4" s="276"/>
+      <c r="AF4" s="276"/>
+      <c r="AG4" s="276"/>
+      <c r="AH4" s="276"/>
+      <c r="AI4" s="276"/>
+      <c r="AJ4" s="276"/>
+      <c r="AK4" s="276"/>
+      <c r="AL4" s="276"/>
+      <c r="AM4" s="276"/>
+      <c r="AN4" s="276"/>
+      <c r="AO4" s="276"/>
+      <c r="AP4" s="276"/>
+      <c r="AQ4" s="276"/>
+      <c r="AR4" s="276"/>
+      <c r="AS4" s="276"/>
+      <c r="AT4" s="276"/>
+      <c r="AU4" s="276"/>
+      <c r="AV4" s="276"/>
+      <c r="AW4" s="276"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
-      <c r="B5" s="253">
+      <c r="B5" s="268">
         <v>1</v>
       </c>
-      <c r="C5" s="253"/>
-      <c r="D5" s="253"/>
-      <c r="E5" s="254">
+      <c r="C5" s="268"/>
+      <c r="D5" s="268"/>
+      <c r="E5" s="249">
         <v>43717</v>
       </c>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="254"/>
-      <c r="I5" s="254"/>
-      <c r="J5" s="255" t="s">
+      <c r="F5" s="249"/>
+      <c r="G5" s="249"/>
+      <c r="H5" s="249"/>
+      <c r="I5" s="249"/>
+      <c r="J5" s="250" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="256"/>
-      <c r="L5" s="257"/>
-      <c r="M5" s="255" t="s">
+      <c r="K5" s="251"/>
+      <c r="L5" s="252"/>
+      <c r="M5" s="250" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="256"/>
-      <c r="O5" s="256"/>
-      <c r="P5" s="256"/>
-      <c r="Q5" s="256"/>
-      <c r="R5" s="257"/>
-      <c r="S5" s="252" t="s">
+      <c r="N5" s="251"/>
+      <c r="O5" s="251"/>
+      <c r="P5" s="251"/>
+      <c r="Q5" s="251"/>
+      <c r="R5" s="252"/>
+      <c r="S5" s="256" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="252"/>
-      <c r="U5" s="252"/>
-      <c r="V5" s="261" t="s">
+      <c r="T5" s="256"/>
+      <c r="U5" s="256"/>
+      <c r="V5" s="267" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="261"/>
-      <c r="X5" s="261"/>
-      <c r="Y5" s="261"/>
-      <c r="Z5" s="261"/>
-      <c r="AA5" s="261"/>
-      <c r="AB5" s="261"/>
-      <c r="AC5" s="261"/>
-      <c r="AD5" s="261"/>
-      <c r="AE5" s="261"/>
-      <c r="AF5" s="261"/>
-      <c r="AG5" s="261"/>
-      <c r="AH5" s="261"/>
-      <c r="AI5" s="261"/>
-      <c r="AJ5" s="261"/>
-      <c r="AK5" s="261"/>
-      <c r="AL5" s="261"/>
-      <c r="AM5" s="261"/>
-      <c r="AN5" s="252" t="s">
+      <c r="W5" s="267"/>
+      <c r="X5" s="267"/>
+      <c r="Y5" s="267"/>
+      <c r="Z5" s="267"/>
+      <c r="AA5" s="267"/>
+      <c r="AB5" s="267"/>
+      <c r="AC5" s="267"/>
+      <c r="AD5" s="267"/>
+      <c r="AE5" s="267"/>
+      <c r="AF5" s="267"/>
+      <c r="AG5" s="267"/>
+      <c r="AH5" s="267"/>
+      <c r="AI5" s="267"/>
+      <c r="AJ5" s="267"/>
+      <c r="AK5" s="267"/>
+      <c r="AL5" s="267"/>
+      <c r="AM5" s="267"/>
+      <c r="AN5" s="256" t="s">
         <v>108</v>
       </c>
-      <c r="AO5" s="252"/>
-      <c r="AP5" s="252"/>
-      <c r="AQ5" s="252"/>
-      <c r="AR5" s="252"/>
-      <c r="AS5" s="252"/>
-      <c r="AT5" s="252"/>
-      <c r="AU5" s="252"/>
-      <c r="AV5" s="252"/>
-      <c r="AW5" s="252"/>
+      <c r="AO5" s="256"/>
+      <c r="AP5" s="256"/>
+      <c r="AQ5" s="256"/>
+      <c r="AR5" s="256"/>
+      <c r="AS5" s="256"/>
+      <c r="AT5" s="256"/>
+      <c r="AU5" s="256"/>
+      <c r="AV5" s="256"/>
+      <c r="AW5" s="256"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="56"/>
-      <c r="B6" s="253"/>
-      <c r="C6" s="253"/>
-      <c r="D6" s="253"/>
-      <c r="E6" s="254"/>
-      <c r="F6" s="254"/>
-      <c r="G6" s="254"/>
-      <c r="H6" s="254"/>
-      <c r="I6" s="254"/>
-      <c r="J6" s="255"/>
-      <c r="K6" s="256"/>
-      <c r="L6" s="257"/>
-      <c r="M6" s="258"/>
-      <c r="N6" s="259"/>
-      <c r="O6" s="259"/>
-      <c r="P6" s="259"/>
-      <c r="Q6" s="259"/>
-      <c r="R6" s="260"/>
-      <c r="S6" s="252"/>
-      <c r="T6" s="252"/>
-      <c r="U6" s="252"/>
-      <c r="V6" s="261"/>
-      <c r="W6" s="261"/>
-      <c r="X6" s="261"/>
-      <c r="Y6" s="261"/>
-      <c r="Z6" s="261"/>
-      <c r="AA6" s="261"/>
-      <c r="AB6" s="261"/>
-      <c r="AC6" s="261"/>
-      <c r="AD6" s="261"/>
-      <c r="AE6" s="261"/>
-      <c r="AF6" s="261"/>
-      <c r="AG6" s="261"/>
-      <c r="AH6" s="261"/>
-      <c r="AI6" s="261"/>
-      <c r="AJ6" s="261"/>
-      <c r="AK6" s="261"/>
-      <c r="AL6" s="261"/>
-      <c r="AM6" s="261"/>
-      <c r="AN6" s="252"/>
-      <c r="AO6" s="252"/>
-      <c r="AP6" s="252"/>
-      <c r="AQ6" s="252"/>
-      <c r="AR6" s="252"/>
-      <c r="AS6" s="252"/>
-      <c r="AT6" s="252"/>
-      <c r="AU6" s="252"/>
-      <c r="AV6" s="252"/>
-      <c r="AW6" s="252"/>
+      <c r="B6" s="268"/>
+      <c r="C6" s="268"/>
+      <c r="D6" s="268"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="249"/>
+      <c r="I6" s="249"/>
+      <c r="J6" s="250"/>
+      <c r="K6" s="251"/>
+      <c r="L6" s="252"/>
+      <c r="M6" s="271"/>
+      <c r="N6" s="272"/>
+      <c r="O6" s="272"/>
+      <c r="P6" s="272"/>
+      <c r="Q6" s="272"/>
+      <c r="R6" s="273"/>
+      <c r="S6" s="256"/>
+      <c r="T6" s="256"/>
+      <c r="U6" s="256"/>
+      <c r="V6" s="267"/>
+      <c r="W6" s="267"/>
+      <c r="X6" s="267"/>
+      <c r="Y6" s="267"/>
+      <c r="Z6" s="267"/>
+      <c r="AA6" s="267"/>
+      <c r="AB6" s="267"/>
+      <c r="AC6" s="267"/>
+      <c r="AD6" s="267"/>
+      <c r="AE6" s="267"/>
+      <c r="AF6" s="267"/>
+      <c r="AG6" s="267"/>
+      <c r="AH6" s="267"/>
+      <c r="AI6" s="267"/>
+      <c r="AJ6" s="267"/>
+      <c r="AK6" s="267"/>
+      <c r="AL6" s="267"/>
+      <c r="AM6" s="267"/>
+      <c r="AN6" s="256"/>
+      <c r="AO6" s="256"/>
+      <c r="AP6" s="256"/>
+      <c r="AQ6" s="256"/>
+      <c r="AR6" s="256"/>
+      <c r="AS6" s="256"/>
+      <c r="AT6" s="256"/>
+      <c r="AU6" s="256"/>
+      <c r="AV6" s="256"/>
+      <c r="AW6" s="256"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
-      <c r="B7" s="253"/>
-      <c r="C7" s="253"/>
-      <c r="D7" s="253"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="254"/>
-      <c r="H7" s="254"/>
-      <c r="I7" s="254"/>
-      <c r="J7" s="255"/>
-      <c r="K7" s="256"/>
-      <c r="L7" s="257"/>
-      <c r="M7" s="258"/>
-      <c r="N7" s="259"/>
-      <c r="O7" s="259"/>
-      <c r="P7" s="259"/>
-      <c r="Q7" s="259"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="252"/>
-      <c r="T7" s="252"/>
-      <c r="U7" s="252"/>
-      <c r="V7" s="261"/>
-      <c r="W7" s="261"/>
-      <c r="X7" s="261"/>
-      <c r="Y7" s="261"/>
-      <c r="Z7" s="261"/>
-      <c r="AA7" s="261"/>
-      <c r="AB7" s="261"/>
-      <c r="AC7" s="261"/>
-      <c r="AD7" s="261"/>
-      <c r="AE7" s="261"/>
-      <c r="AF7" s="261"/>
-      <c r="AG7" s="261"/>
-      <c r="AH7" s="261"/>
-      <c r="AI7" s="261"/>
-      <c r="AJ7" s="261"/>
-      <c r="AK7" s="261"/>
-      <c r="AL7" s="261"/>
-      <c r="AM7" s="261"/>
-      <c r="AN7" s="252"/>
-      <c r="AO7" s="252"/>
-      <c r="AP7" s="252"/>
-      <c r="AQ7" s="252"/>
-      <c r="AR7" s="252"/>
-      <c r="AS7" s="252"/>
-      <c r="AT7" s="252"/>
-      <c r="AU7" s="252"/>
-      <c r="AV7" s="252"/>
-      <c r="AW7" s="252"/>
+      <c r="B7" s="268"/>
+      <c r="C7" s="268"/>
+      <c r="D7" s="268"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="249"/>
+      <c r="I7" s="249"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251"/>
+      <c r="L7" s="252"/>
+      <c r="M7" s="271"/>
+      <c r="N7" s="272"/>
+      <c r="O7" s="272"/>
+      <c r="P7" s="272"/>
+      <c r="Q7" s="272"/>
+      <c r="R7" s="273"/>
+      <c r="S7" s="256"/>
+      <c r="T7" s="256"/>
+      <c r="U7" s="256"/>
+      <c r="V7" s="267"/>
+      <c r="W7" s="267"/>
+      <c r="X7" s="267"/>
+      <c r="Y7" s="267"/>
+      <c r="Z7" s="267"/>
+      <c r="AA7" s="267"/>
+      <c r="AB7" s="267"/>
+      <c r="AC7" s="267"/>
+      <c r="AD7" s="267"/>
+      <c r="AE7" s="267"/>
+      <c r="AF7" s="267"/>
+      <c r="AG7" s="267"/>
+      <c r="AH7" s="267"/>
+      <c r="AI7" s="267"/>
+      <c r="AJ7" s="267"/>
+      <c r="AK7" s="267"/>
+      <c r="AL7" s="267"/>
+      <c r="AM7" s="267"/>
+      <c r="AN7" s="256"/>
+      <c r="AO7" s="256"/>
+      <c r="AP7" s="256"/>
+      <c r="AQ7" s="256"/>
+      <c r="AR7" s="256"/>
+      <c r="AS7" s="256"/>
+      <c r="AT7" s="256"/>
+      <c r="AU7" s="256"/>
+      <c r="AV7" s="256"/>
+      <c r="AW7" s="256"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
-      <c r="B8" s="253"/>
-      <c r="C8" s="253"/>
-      <c r="D8" s="253"/>
-      <c r="E8" s="254"/>
-      <c r="F8" s="254"/>
-      <c r="G8" s="254"/>
-      <c r="H8" s="254"/>
-      <c r="I8" s="254"/>
-      <c r="J8" s="255"/>
-      <c r="K8" s="256"/>
-      <c r="L8" s="257"/>
-      <c r="M8" s="258"/>
-      <c r="N8" s="259"/>
-      <c r="O8" s="259"/>
-      <c r="P8" s="259"/>
-      <c r="Q8" s="259"/>
-      <c r="R8" s="260"/>
-      <c r="S8" s="252"/>
-      <c r="T8" s="252"/>
-      <c r="U8" s="252"/>
-      <c r="V8" s="261"/>
-      <c r="W8" s="261"/>
-      <c r="X8" s="261"/>
-      <c r="Y8" s="261"/>
-      <c r="Z8" s="261"/>
-      <c r="AA8" s="261"/>
-      <c r="AB8" s="261"/>
-      <c r="AC8" s="261"/>
-      <c r="AD8" s="261"/>
-      <c r="AE8" s="261"/>
-      <c r="AF8" s="261"/>
-      <c r="AG8" s="261"/>
-      <c r="AH8" s="261"/>
-      <c r="AI8" s="261"/>
-      <c r="AJ8" s="261"/>
-      <c r="AK8" s="261"/>
-      <c r="AL8" s="261"/>
-      <c r="AM8" s="261"/>
-      <c r="AN8" s="252"/>
-      <c r="AO8" s="252"/>
-      <c r="AP8" s="252"/>
-      <c r="AQ8" s="252"/>
-      <c r="AR8" s="252"/>
-      <c r="AS8" s="252"/>
-      <c r="AT8" s="252"/>
-      <c r="AU8" s="252"/>
-      <c r="AV8" s="252"/>
-      <c r="AW8" s="252"/>
+      <c r="B8" s="268"/>
+      <c r="C8" s="268"/>
+      <c r="D8" s="268"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="249"/>
+      <c r="I8" s="249"/>
+      <c r="J8" s="250"/>
+      <c r="K8" s="251"/>
+      <c r="L8" s="252"/>
+      <c r="M8" s="271"/>
+      <c r="N8" s="272"/>
+      <c r="O8" s="272"/>
+      <c r="P8" s="272"/>
+      <c r="Q8" s="272"/>
+      <c r="R8" s="273"/>
+      <c r="S8" s="256"/>
+      <c r="T8" s="256"/>
+      <c r="U8" s="256"/>
+      <c r="V8" s="267"/>
+      <c r="W8" s="267"/>
+      <c r="X8" s="267"/>
+      <c r="Y8" s="267"/>
+      <c r="Z8" s="267"/>
+      <c r="AA8" s="267"/>
+      <c r="AB8" s="267"/>
+      <c r="AC8" s="267"/>
+      <c r="AD8" s="267"/>
+      <c r="AE8" s="267"/>
+      <c r="AF8" s="267"/>
+      <c r="AG8" s="267"/>
+      <c r="AH8" s="267"/>
+      <c r="AI8" s="267"/>
+      <c r="AJ8" s="267"/>
+      <c r="AK8" s="267"/>
+      <c r="AL8" s="267"/>
+      <c r="AM8" s="267"/>
+      <c r="AN8" s="256"/>
+      <c r="AO8" s="256"/>
+      <c r="AP8" s="256"/>
+      <c r="AQ8" s="256"/>
+      <c r="AR8" s="256"/>
+      <c r="AS8" s="256"/>
+      <c r="AT8" s="256"/>
+      <c r="AU8" s="256"/>
+      <c r="AV8" s="256"/>
+      <c r="AW8" s="256"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
-      <c r="B9" s="253"/>
-      <c r="C9" s="253"/>
-      <c r="D9" s="253"/>
-      <c r="E9" s="254"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="254"/>
-      <c r="H9" s="254"/>
-      <c r="I9" s="254"/>
-      <c r="J9" s="255"/>
-      <c r="K9" s="256"/>
-      <c r="L9" s="257"/>
-      <c r="M9" s="258"/>
-      <c r="N9" s="259"/>
-      <c r="O9" s="259"/>
-      <c r="P9" s="259"/>
-      <c r="Q9" s="259"/>
-      <c r="R9" s="260"/>
-      <c r="S9" s="252"/>
-      <c r="T9" s="252"/>
-      <c r="U9" s="252"/>
-      <c r="V9" s="261"/>
-      <c r="W9" s="261"/>
-      <c r="X9" s="261"/>
-      <c r="Y9" s="261"/>
-      <c r="Z9" s="261"/>
-      <c r="AA9" s="261"/>
-      <c r="AB9" s="261"/>
-      <c r="AC9" s="261"/>
-      <c r="AD9" s="261"/>
-      <c r="AE9" s="261"/>
-      <c r="AF9" s="261"/>
-      <c r="AG9" s="261"/>
-      <c r="AH9" s="261"/>
-      <c r="AI9" s="261"/>
-      <c r="AJ9" s="261"/>
-      <c r="AK9" s="261"/>
-      <c r="AL9" s="261"/>
-      <c r="AM9" s="261"/>
-      <c r="AN9" s="252"/>
-      <c r="AO9" s="252"/>
-      <c r="AP9" s="252"/>
-      <c r="AQ9" s="252"/>
-      <c r="AR9" s="252"/>
-      <c r="AS9" s="252"/>
-      <c r="AT9" s="252"/>
-      <c r="AU9" s="252"/>
-      <c r="AV9" s="252"/>
-      <c r="AW9" s="252"/>
+      <c r="B9" s="268"/>
+      <c r="C9" s="268"/>
+      <c r="D9" s="268"/>
+      <c r="E9" s="249"/>
+      <c r="F9" s="249"/>
+      <c r="G9" s="249"/>
+      <c r="H9" s="249"/>
+      <c r="I9" s="249"/>
+      <c r="J9" s="250"/>
+      <c r="K9" s="251"/>
+      <c r="L9" s="252"/>
+      <c r="M9" s="271"/>
+      <c r="N9" s="272"/>
+      <c r="O9" s="272"/>
+      <c r="P9" s="272"/>
+      <c r="Q9" s="272"/>
+      <c r="R9" s="273"/>
+      <c r="S9" s="256"/>
+      <c r="T9" s="256"/>
+      <c r="U9" s="256"/>
+      <c r="V9" s="267"/>
+      <c r="W9" s="267"/>
+      <c r="X9" s="267"/>
+      <c r="Y9" s="267"/>
+      <c r="Z9" s="267"/>
+      <c r="AA9" s="267"/>
+      <c r="AB9" s="267"/>
+      <c r="AC9" s="267"/>
+      <c r="AD9" s="267"/>
+      <c r="AE9" s="267"/>
+      <c r="AF9" s="267"/>
+      <c r="AG9" s="267"/>
+      <c r="AH9" s="267"/>
+      <c r="AI9" s="267"/>
+      <c r="AJ9" s="267"/>
+      <c r="AK9" s="267"/>
+      <c r="AL9" s="267"/>
+      <c r="AM9" s="267"/>
+      <c r="AN9" s="256"/>
+      <c r="AO9" s="256"/>
+      <c r="AP9" s="256"/>
+      <c r="AQ9" s="256"/>
+      <c r="AR9" s="256"/>
+      <c r="AS9" s="256"/>
+      <c r="AT9" s="256"/>
+      <c r="AU9" s="256"/>
+      <c r="AV9" s="256"/>
+      <c r="AW9" s="256"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
-      <c r="B10" s="253"/>
-      <c r="C10" s="253"/>
-      <c r="D10" s="253"/>
-      <c r="E10" s="254"/>
-      <c r="F10" s="254"/>
-      <c r="G10" s="254"/>
-      <c r="H10" s="254"/>
-      <c r="I10" s="254"/>
-      <c r="J10" s="255"/>
-      <c r="K10" s="256"/>
-      <c r="L10" s="257"/>
-      <c r="M10" s="258"/>
-      <c r="N10" s="259"/>
-      <c r="O10" s="259"/>
-      <c r="P10" s="259"/>
-      <c r="Q10" s="259"/>
-      <c r="R10" s="260"/>
-      <c r="S10" s="252"/>
-      <c r="T10" s="252"/>
-      <c r="U10" s="252"/>
-      <c r="V10" s="261"/>
-      <c r="W10" s="261"/>
-      <c r="X10" s="261"/>
-      <c r="Y10" s="261"/>
-      <c r="Z10" s="261"/>
-      <c r="AA10" s="261"/>
-      <c r="AB10" s="261"/>
-      <c r="AC10" s="261"/>
-      <c r="AD10" s="261"/>
-      <c r="AE10" s="261"/>
-      <c r="AF10" s="261"/>
-      <c r="AG10" s="261"/>
-      <c r="AH10" s="261"/>
-      <c r="AI10" s="261"/>
-      <c r="AJ10" s="261"/>
-      <c r="AK10" s="261"/>
-      <c r="AL10" s="261"/>
-      <c r="AM10" s="261"/>
-      <c r="AN10" s="252"/>
-      <c r="AO10" s="252"/>
-      <c r="AP10" s="252"/>
-      <c r="AQ10" s="252"/>
-      <c r="AR10" s="252"/>
-      <c r="AS10" s="252"/>
-      <c r="AT10" s="252"/>
-      <c r="AU10" s="252"/>
-      <c r="AV10" s="252"/>
-      <c r="AW10" s="252"/>
+      <c r="B10" s="268"/>
+      <c r="C10" s="268"/>
+      <c r="D10" s="268"/>
+      <c r="E10" s="249"/>
+      <c r="F10" s="249"/>
+      <c r="G10" s="249"/>
+      <c r="H10" s="249"/>
+      <c r="I10" s="249"/>
+      <c r="J10" s="250"/>
+      <c r="K10" s="251"/>
+      <c r="L10" s="252"/>
+      <c r="M10" s="271"/>
+      <c r="N10" s="272"/>
+      <c r="O10" s="272"/>
+      <c r="P10" s="272"/>
+      <c r="Q10" s="272"/>
+      <c r="R10" s="273"/>
+      <c r="S10" s="256"/>
+      <c r="T10" s="256"/>
+      <c r="U10" s="256"/>
+      <c r="V10" s="267"/>
+      <c r="W10" s="267"/>
+      <c r="X10" s="267"/>
+      <c r="Y10" s="267"/>
+      <c r="Z10" s="267"/>
+      <c r="AA10" s="267"/>
+      <c r="AB10" s="267"/>
+      <c r="AC10" s="267"/>
+      <c r="AD10" s="267"/>
+      <c r="AE10" s="267"/>
+      <c r="AF10" s="267"/>
+      <c r="AG10" s="267"/>
+      <c r="AH10" s="267"/>
+      <c r="AI10" s="267"/>
+      <c r="AJ10" s="267"/>
+      <c r="AK10" s="267"/>
+      <c r="AL10" s="267"/>
+      <c r="AM10" s="267"/>
+      <c r="AN10" s="256"/>
+      <c r="AO10" s="256"/>
+      <c r="AP10" s="256"/>
+      <c r="AQ10" s="256"/>
+      <c r="AR10" s="256"/>
+      <c r="AS10" s="256"/>
+      <c r="AT10" s="256"/>
+      <c r="AU10" s="256"/>
+      <c r="AV10" s="256"/>
+      <c r="AW10" s="256"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="253"/>
-      <c r="C11" s="253"/>
-      <c r="D11" s="253"/>
-      <c r="E11" s="254"/>
-      <c r="F11" s="254"/>
-      <c r="G11" s="254"/>
-      <c r="H11" s="254"/>
-      <c r="I11" s="254"/>
-      <c r="J11" s="255"/>
-      <c r="K11" s="256"/>
-      <c r="L11" s="257"/>
-      <c r="M11" s="265"/>
-      <c r="N11" s="266"/>
-      <c r="O11" s="266"/>
-      <c r="P11" s="266"/>
-      <c r="Q11" s="266"/>
-      <c r="R11" s="267"/>
-      <c r="S11" s="252"/>
-      <c r="T11" s="252"/>
-      <c r="U11" s="252"/>
-      <c r="V11" s="268"/>
-      <c r="W11" s="274"/>
-      <c r="X11" s="274"/>
-      <c r="Y11" s="274"/>
-      <c r="Z11" s="274"/>
-      <c r="AA11" s="274"/>
-      <c r="AB11" s="274"/>
-      <c r="AC11" s="274"/>
-      <c r="AD11" s="274"/>
-      <c r="AE11" s="274"/>
-      <c r="AF11" s="274"/>
-      <c r="AG11" s="274"/>
-      <c r="AH11" s="274"/>
-      <c r="AI11" s="274"/>
-      <c r="AJ11" s="274"/>
-      <c r="AK11" s="274"/>
-      <c r="AL11" s="274"/>
-      <c r="AM11" s="275"/>
-      <c r="AN11" s="252"/>
-      <c r="AO11" s="252"/>
-      <c r="AP11" s="252"/>
-      <c r="AQ11" s="252"/>
-      <c r="AR11" s="252"/>
-      <c r="AS11" s="252"/>
-      <c r="AT11" s="252"/>
-      <c r="AU11" s="252"/>
-      <c r="AV11" s="252"/>
-      <c r="AW11" s="252"/>
+      <c r="B11" s="268"/>
+      <c r="C11" s="268"/>
+      <c r="D11" s="268"/>
+      <c r="E11" s="249"/>
+      <c r="F11" s="249"/>
+      <c r="G11" s="249"/>
+      <c r="H11" s="249"/>
+      <c r="I11" s="249"/>
+      <c r="J11" s="250"/>
+      <c r="K11" s="251"/>
+      <c r="L11" s="252"/>
+      <c r="M11" s="263"/>
+      <c r="N11" s="261"/>
+      <c r="O11" s="261"/>
+      <c r="P11" s="261"/>
+      <c r="Q11" s="261"/>
+      <c r="R11" s="262"/>
+      <c r="S11" s="256"/>
+      <c r="T11" s="256"/>
+      <c r="U11" s="256"/>
+      <c r="V11" s="257"/>
+      <c r="W11" s="269"/>
+      <c r="X11" s="269"/>
+      <c r="Y11" s="269"/>
+      <c r="Z11" s="269"/>
+      <c r="AA11" s="269"/>
+      <c r="AB11" s="269"/>
+      <c r="AC11" s="269"/>
+      <c r="AD11" s="269"/>
+      <c r="AE11" s="269"/>
+      <c r="AF11" s="269"/>
+      <c r="AG11" s="269"/>
+      <c r="AH11" s="269"/>
+      <c r="AI11" s="269"/>
+      <c r="AJ11" s="269"/>
+      <c r="AK11" s="269"/>
+      <c r="AL11" s="269"/>
+      <c r="AM11" s="270"/>
+      <c r="AN11" s="256"/>
+      <c r="AO11" s="256"/>
+      <c r="AP11" s="256"/>
+      <c r="AQ11" s="256"/>
+      <c r="AR11" s="256"/>
+      <c r="AS11" s="256"/>
+      <c r="AT11" s="256"/>
+      <c r="AU11" s="256"/>
+      <c r="AV11" s="256"/>
+      <c r="AW11" s="256"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="262"/>
-      <c r="C12" s="263"/>
-      <c r="D12" s="264"/>
-      <c r="E12" s="254"/>
-      <c r="F12" s="254"/>
-      <c r="G12" s="254"/>
-      <c r="H12" s="254"/>
-      <c r="I12" s="254"/>
-      <c r="J12" s="255"/>
-      <c r="K12" s="256"/>
-      <c r="L12" s="257"/>
-      <c r="M12" s="265"/>
-      <c r="N12" s="266"/>
-      <c r="O12" s="266"/>
-      <c r="P12" s="266"/>
-      <c r="Q12" s="266"/>
-      <c r="R12" s="267"/>
-      <c r="S12" s="252"/>
-      <c r="T12" s="252"/>
-      <c r="U12" s="252"/>
-      <c r="V12" s="268"/>
-      <c r="W12" s="269"/>
-      <c r="X12" s="269"/>
-      <c r="Y12" s="269"/>
-      <c r="Z12" s="269"/>
-      <c r="AA12" s="269"/>
-      <c r="AB12" s="269"/>
-      <c r="AC12" s="269"/>
-      <c r="AD12" s="269"/>
-      <c r="AE12" s="269"/>
-      <c r="AF12" s="269"/>
-      <c r="AG12" s="269"/>
-      <c r="AH12" s="269"/>
-      <c r="AI12" s="269"/>
-      <c r="AJ12" s="269"/>
-      <c r="AK12" s="269"/>
-      <c r="AL12" s="269"/>
-      <c r="AM12" s="270"/>
-      <c r="AN12" s="271"/>
-      <c r="AO12" s="272"/>
-      <c r="AP12" s="272"/>
-      <c r="AQ12" s="272"/>
-      <c r="AR12" s="273"/>
-      <c r="AS12" s="271"/>
-      <c r="AT12" s="272"/>
-      <c r="AU12" s="272"/>
-      <c r="AV12" s="272"/>
-      <c r="AW12" s="273"/>
+      <c r="B12" s="246"/>
+      <c r="C12" s="247"/>
+      <c r="D12" s="248"/>
+      <c r="E12" s="249"/>
+      <c r="F12" s="249"/>
+      <c r="G12" s="249"/>
+      <c r="H12" s="249"/>
+      <c r="I12" s="249"/>
+      <c r="J12" s="250"/>
+      <c r="K12" s="251"/>
+      <c r="L12" s="252"/>
+      <c r="M12" s="263"/>
+      <c r="N12" s="261"/>
+      <c r="O12" s="261"/>
+      <c r="P12" s="261"/>
+      <c r="Q12" s="261"/>
+      <c r="R12" s="262"/>
+      <c r="S12" s="256"/>
+      <c r="T12" s="256"/>
+      <c r="U12" s="256"/>
+      <c r="V12" s="257"/>
+      <c r="W12" s="258"/>
+      <c r="X12" s="258"/>
+      <c r="Y12" s="258"/>
+      <c r="Z12" s="258"/>
+      <c r="AA12" s="258"/>
+      <c r="AB12" s="258"/>
+      <c r="AC12" s="258"/>
+      <c r="AD12" s="258"/>
+      <c r="AE12" s="258"/>
+      <c r="AF12" s="258"/>
+      <c r="AG12" s="258"/>
+      <c r="AH12" s="258"/>
+      <c r="AI12" s="258"/>
+      <c r="AJ12" s="258"/>
+      <c r="AK12" s="258"/>
+      <c r="AL12" s="258"/>
+      <c r="AM12" s="259"/>
+      <c r="AN12" s="243"/>
+      <c r="AO12" s="244"/>
+      <c r="AP12" s="244"/>
+      <c r="AQ12" s="244"/>
+      <c r="AR12" s="245"/>
+      <c r="AS12" s="243"/>
+      <c r="AT12" s="244"/>
+      <c r="AU12" s="244"/>
+      <c r="AV12" s="244"/>
+      <c r="AW12" s="245"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
-      <c r="B13" s="262"/>
-      <c r="C13" s="263"/>
-      <c r="D13" s="264"/>
-      <c r="E13" s="254"/>
-      <c r="F13" s="254"/>
-      <c r="G13" s="254"/>
-      <c r="H13" s="254"/>
-      <c r="I13" s="254"/>
-      <c r="J13" s="255"/>
-      <c r="K13" s="256"/>
-      <c r="L13" s="257"/>
-      <c r="M13" s="276"/>
-      <c r="N13" s="266"/>
-      <c r="O13" s="266"/>
-      <c r="P13" s="266"/>
-      <c r="Q13" s="266"/>
-      <c r="R13" s="267"/>
-      <c r="S13" s="252"/>
-      <c r="T13" s="252"/>
-      <c r="U13" s="252"/>
-      <c r="V13" s="268"/>
-      <c r="W13" s="269"/>
-      <c r="X13" s="269"/>
-      <c r="Y13" s="269"/>
-      <c r="Z13" s="269"/>
-      <c r="AA13" s="269"/>
-      <c r="AB13" s="269"/>
-      <c r="AC13" s="269"/>
-      <c r="AD13" s="269"/>
-      <c r="AE13" s="269"/>
-      <c r="AF13" s="269"/>
-      <c r="AG13" s="269"/>
-      <c r="AH13" s="269"/>
-      <c r="AI13" s="269"/>
-      <c r="AJ13" s="269"/>
-      <c r="AK13" s="269"/>
-      <c r="AL13" s="269"/>
-      <c r="AM13" s="270"/>
-      <c r="AN13" s="271"/>
-      <c r="AO13" s="272"/>
-      <c r="AP13" s="272"/>
-      <c r="AQ13" s="272"/>
-      <c r="AR13" s="273"/>
-      <c r="AS13" s="271"/>
-      <c r="AT13" s="272"/>
-      <c r="AU13" s="272"/>
-      <c r="AV13" s="272"/>
-      <c r="AW13" s="273"/>
+      <c r="B13" s="246"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="248"/>
+      <c r="E13" s="249"/>
+      <c r="F13" s="249"/>
+      <c r="G13" s="249"/>
+      <c r="H13" s="249"/>
+      <c r="I13" s="249"/>
+      <c r="J13" s="250"/>
+      <c r="K13" s="251"/>
+      <c r="L13" s="252"/>
+      <c r="M13" s="260"/>
+      <c r="N13" s="261"/>
+      <c r="O13" s="261"/>
+      <c r="P13" s="261"/>
+      <c r="Q13" s="261"/>
+      <c r="R13" s="262"/>
+      <c r="S13" s="256"/>
+      <c r="T13" s="256"/>
+      <c r="U13" s="256"/>
+      <c r="V13" s="257"/>
+      <c r="W13" s="258"/>
+      <c r="X13" s="258"/>
+      <c r="Y13" s="258"/>
+      <c r="Z13" s="258"/>
+      <c r="AA13" s="258"/>
+      <c r="AB13" s="258"/>
+      <c r="AC13" s="258"/>
+      <c r="AD13" s="258"/>
+      <c r="AE13" s="258"/>
+      <c r="AF13" s="258"/>
+      <c r="AG13" s="258"/>
+      <c r="AH13" s="258"/>
+      <c r="AI13" s="258"/>
+      <c r="AJ13" s="258"/>
+      <c r="AK13" s="258"/>
+      <c r="AL13" s="258"/>
+      <c r="AM13" s="259"/>
+      <c r="AN13" s="243"/>
+      <c r="AO13" s="244"/>
+      <c r="AP13" s="244"/>
+      <c r="AQ13" s="244"/>
+      <c r="AR13" s="245"/>
+      <c r="AS13" s="243"/>
+      <c r="AT13" s="244"/>
+      <c r="AU13" s="244"/>
+      <c r="AV13" s="244"/>
+      <c r="AW13" s="245"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
-      <c r="B14" s="262"/>
-      <c r="C14" s="263"/>
-      <c r="D14" s="264"/>
-      <c r="E14" s="254"/>
-      <c r="F14" s="254"/>
-      <c r="G14" s="254"/>
-      <c r="H14" s="254"/>
-      <c r="I14" s="254"/>
-      <c r="J14" s="255"/>
-      <c r="K14" s="256"/>
-      <c r="L14" s="257"/>
-      <c r="M14" s="276"/>
-      <c r="N14" s="266"/>
-      <c r="O14" s="266"/>
-      <c r="P14" s="266"/>
-      <c r="Q14" s="266"/>
-      <c r="R14" s="267"/>
-      <c r="S14" s="252"/>
-      <c r="T14" s="252"/>
-      <c r="U14" s="252"/>
-      <c r="V14" s="277"/>
-      <c r="W14" s="261"/>
-      <c r="X14" s="261"/>
-      <c r="Y14" s="261"/>
-      <c r="Z14" s="261"/>
-      <c r="AA14" s="261"/>
-      <c r="AB14" s="261"/>
-      <c r="AC14" s="261"/>
-      <c r="AD14" s="261"/>
-      <c r="AE14" s="261"/>
-      <c r="AF14" s="261"/>
-      <c r="AG14" s="261"/>
-      <c r="AH14" s="261"/>
-      <c r="AI14" s="261"/>
-      <c r="AJ14" s="261"/>
-      <c r="AK14" s="261"/>
-      <c r="AL14" s="261"/>
-      <c r="AM14" s="261"/>
-      <c r="AN14" s="252"/>
-      <c r="AO14" s="252"/>
-      <c r="AP14" s="252"/>
-      <c r="AQ14" s="252"/>
-      <c r="AR14" s="252"/>
-      <c r="AS14" s="271"/>
-      <c r="AT14" s="272"/>
-      <c r="AU14" s="272"/>
-      <c r="AV14" s="272"/>
-      <c r="AW14" s="273"/>
+      <c r="B14" s="246"/>
+      <c r="C14" s="247"/>
+      <c r="D14" s="248"/>
+      <c r="E14" s="249"/>
+      <c r="F14" s="249"/>
+      <c r="G14" s="249"/>
+      <c r="H14" s="249"/>
+      <c r="I14" s="249"/>
+      <c r="J14" s="250"/>
+      <c r="K14" s="251"/>
+      <c r="L14" s="252"/>
+      <c r="M14" s="260"/>
+      <c r="N14" s="261"/>
+      <c r="O14" s="261"/>
+      <c r="P14" s="261"/>
+      <c r="Q14" s="261"/>
+      <c r="R14" s="262"/>
+      <c r="S14" s="256"/>
+      <c r="T14" s="256"/>
+      <c r="U14" s="256"/>
+      <c r="V14" s="266"/>
+      <c r="W14" s="267"/>
+      <c r="X14" s="267"/>
+      <c r="Y14" s="267"/>
+      <c r="Z14" s="267"/>
+      <c r="AA14" s="267"/>
+      <c r="AB14" s="267"/>
+      <c r="AC14" s="267"/>
+      <c r="AD14" s="267"/>
+      <c r="AE14" s="267"/>
+      <c r="AF14" s="267"/>
+      <c r="AG14" s="267"/>
+      <c r="AH14" s="267"/>
+      <c r="AI14" s="267"/>
+      <c r="AJ14" s="267"/>
+      <c r="AK14" s="267"/>
+      <c r="AL14" s="267"/>
+      <c r="AM14" s="267"/>
+      <c r="AN14" s="256"/>
+      <c r="AO14" s="256"/>
+      <c r="AP14" s="256"/>
+      <c r="AQ14" s="256"/>
+      <c r="AR14" s="256"/>
+      <c r="AS14" s="243"/>
+      <c r="AT14" s="244"/>
+      <c r="AU14" s="244"/>
+      <c r="AV14" s="244"/>
+      <c r="AW14" s="245"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
-      <c r="B15" s="262"/>
-      <c r="C15" s="263"/>
-      <c r="D15" s="264"/>
-      <c r="E15" s="254"/>
-      <c r="F15" s="254"/>
-      <c r="G15" s="254"/>
-      <c r="H15" s="254"/>
-      <c r="I15" s="254"/>
-      <c r="J15" s="255"/>
-      <c r="K15" s="256"/>
-      <c r="L15" s="257"/>
-      <c r="M15" s="265"/>
-      <c r="N15" s="266"/>
-      <c r="O15" s="266"/>
-      <c r="P15" s="266"/>
-      <c r="Q15" s="266"/>
-      <c r="R15" s="267"/>
-      <c r="S15" s="252"/>
-      <c r="T15" s="252"/>
-      <c r="U15" s="252"/>
-      <c r="V15" s="268"/>
-      <c r="W15" s="269"/>
-      <c r="X15" s="269"/>
-      <c r="Y15" s="269"/>
-      <c r="Z15" s="269"/>
-      <c r="AA15" s="269"/>
-      <c r="AB15" s="269"/>
-      <c r="AC15" s="269"/>
-      <c r="AD15" s="269"/>
-      <c r="AE15" s="269"/>
-      <c r="AF15" s="269"/>
-      <c r="AG15" s="269"/>
-      <c r="AH15" s="269"/>
-      <c r="AI15" s="269"/>
-      <c r="AJ15" s="269"/>
-      <c r="AK15" s="269"/>
-      <c r="AL15" s="269"/>
-      <c r="AM15" s="270"/>
-      <c r="AN15" s="271"/>
-      <c r="AO15" s="272"/>
-      <c r="AP15" s="272"/>
-      <c r="AQ15" s="272"/>
-      <c r="AR15" s="273"/>
-      <c r="AS15" s="271"/>
-      <c r="AT15" s="272"/>
-      <c r="AU15" s="272"/>
-      <c r="AV15" s="272"/>
-      <c r="AW15" s="273"/>
+      <c r="B15" s="246"/>
+      <c r="C15" s="247"/>
+      <c r="D15" s="248"/>
+      <c r="E15" s="249"/>
+      <c r="F15" s="249"/>
+      <c r="G15" s="249"/>
+      <c r="H15" s="249"/>
+      <c r="I15" s="249"/>
+      <c r="J15" s="250"/>
+      <c r="K15" s="251"/>
+      <c r="L15" s="252"/>
+      <c r="M15" s="263"/>
+      <c r="N15" s="261"/>
+      <c r="O15" s="261"/>
+      <c r="P15" s="261"/>
+      <c r="Q15" s="261"/>
+      <c r="R15" s="262"/>
+      <c r="S15" s="256"/>
+      <c r="T15" s="256"/>
+      <c r="U15" s="256"/>
+      <c r="V15" s="257"/>
+      <c r="W15" s="258"/>
+      <c r="X15" s="258"/>
+      <c r="Y15" s="258"/>
+      <c r="Z15" s="258"/>
+      <c r="AA15" s="258"/>
+      <c r="AB15" s="258"/>
+      <c r="AC15" s="258"/>
+      <c r="AD15" s="258"/>
+      <c r="AE15" s="258"/>
+      <c r="AF15" s="258"/>
+      <c r="AG15" s="258"/>
+      <c r="AH15" s="258"/>
+      <c r="AI15" s="258"/>
+      <c r="AJ15" s="258"/>
+      <c r="AK15" s="258"/>
+      <c r="AL15" s="258"/>
+      <c r="AM15" s="259"/>
+      <c r="AN15" s="243"/>
+      <c r="AO15" s="244"/>
+      <c r="AP15" s="244"/>
+      <c r="AQ15" s="244"/>
+      <c r="AR15" s="245"/>
+      <c r="AS15" s="243"/>
+      <c r="AT15" s="244"/>
+      <c r="AU15" s="244"/>
+      <c r="AV15" s="244"/>
+      <c r="AW15" s="245"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
-      <c r="B16" s="262"/>
-      <c r="C16" s="263"/>
-      <c r="D16" s="264"/>
-      <c r="E16" s="254"/>
-      <c r="F16" s="254"/>
-      <c r="G16" s="254"/>
-      <c r="H16" s="254"/>
-      <c r="I16" s="254"/>
-      <c r="J16" s="255"/>
-      <c r="K16" s="256"/>
-      <c r="L16" s="257"/>
-      <c r="M16" s="265"/>
-      <c r="N16" s="266"/>
-      <c r="O16" s="266"/>
-      <c r="P16" s="266"/>
-      <c r="Q16" s="266"/>
-      <c r="R16" s="267"/>
-      <c r="S16" s="252"/>
-      <c r="T16" s="252"/>
-      <c r="U16" s="252"/>
-      <c r="V16" s="268"/>
-      <c r="W16" s="269"/>
-      <c r="X16" s="269"/>
-      <c r="Y16" s="269"/>
-      <c r="Z16" s="269"/>
-      <c r="AA16" s="269"/>
-      <c r="AB16" s="269"/>
-      <c r="AC16" s="269"/>
-      <c r="AD16" s="269"/>
-      <c r="AE16" s="269"/>
-      <c r="AF16" s="269"/>
-      <c r="AG16" s="269"/>
-      <c r="AH16" s="269"/>
-      <c r="AI16" s="269"/>
-      <c r="AJ16" s="269"/>
-      <c r="AK16" s="269"/>
-      <c r="AL16" s="269"/>
-      <c r="AM16" s="270"/>
-      <c r="AN16" s="271"/>
-      <c r="AO16" s="272"/>
-      <c r="AP16" s="272"/>
-      <c r="AQ16" s="272"/>
-      <c r="AR16" s="273"/>
-      <c r="AS16" s="271"/>
-      <c r="AT16" s="272"/>
-      <c r="AU16" s="272"/>
-      <c r="AV16" s="272"/>
-      <c r="AW16" s="273"/>
+      <c r="B16" s="246"/>
+      <c r="C16" s="247"/>
+      <c r="D16" s="248"/>
+      <c r="E16" s="249"/>
+      <c r="F16" s="249"/>
+      <c r="G16" s="249"/>
+      <c r="H16" s="249"/>
+      <c r="I16" s="249"/>
+      <c r="J16" s="250"/>
+      <c r="K16" s="251"/>
+      <c r="L16" s="252"/>
+      <c r="M16" s="263"/>
+      <c r="N16" s="261"/>
+      <c r="O16" s="261"/>
+      <c r="P16" s="261"/>
+      <c r="Q16" s="261"/>
+      <c r="R16" s="262"/>
+      <c r="S16" s="256"/>
+      <c r="T16" s="256"/>
+      <c r="U16" s="256"/>
+      <c r="V16" s="257"/>
+      <c r="W16" s="258"/>
+      <c r="X16" s="258"/>
+      <c r="Y16" s="258"/>
+      <c r="Z16" s="258"/>
+      <c r="AA16" s="258"/>
+      <c r="AB16" s="258"/>
+      <c r="AC16" s="258"/>
+      <c r="AD16" s="258"/>
+      <c r="AE16" s="258"/>
+      <c r="AF16" s="258"/>
+      <c r="AG16" s="258"/>
+      <c r="AH16" s="258"/>
+      <c r="AI16" s="258"/>
+      <c r="AJ16" s="258"/>
+      <c r="AK16" s="258"/>
+      <c r="AL16" s="258"/>
+      <c r="AM16" s="259"/>
+      <c r="AN16" s="243"/>
+      <c r="AO16" s="244"/>
+      <c r="AP16" s="244"/>
+      <c r="AQ16" s="244"/>
+      <c r="AR16" s="245"/>
+      <c r="AS16" s="243"/>
+      <c r="AT16" s="244"/>
+      <c r="AU16" s="244"/>
+      <c r="AV16" s="244"/>
+      <c r="AW16" s="245"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
-      <c r="B17" s="262"/>
-      <c r="C17" s="263"/>
-      <c r="D17" s="264"/>
-      <c r="E17" s="254"/>
-      <c r="F17" s="254"/>
-      <c r="G17" s="254"/>
-      <c r="H17" s="254"/>
-      <c r="I17" s="254"/>
-      <c r="J17" s="255"/>
-      <c r="K17" s="256"/>
-      <c r="L17" s="257"/>
-      <c r="M17" s="265"/>
-      <c r="N17" s="266"/>
-      <c r="O17" s="266"/>
-      <c r="P17" s="266"/>
-      <c r="Q17" s="266"/>
-      <c r="R17" s="278"/>
-      <c r="S17" s="279"/>
-      <c r="T17" s="279"/>
-      <c r="U17" s="279"/>
-      <c r="V17" s="268"/>
-      <c r="W17" s="269"/>
-      <c r="X17" s="269"/>
-      <c r="Y17" s="269"/>
-      <c r="Z17" s="269"/>
-      <c r="AA17" s="269"/>
-      <c r="AB17" s="269"/>
-      <c r="AC17" s="269"/>
-      <c r="AD17" s="269"/>
-      <c r="AE17" s="269"/>
-      <c r="AF17" s="269"/>
-      <c r="AG17" s="269"/>
-      <c r="AH17" s="269"/>
-      <c r="AI17" s="269"/>
-      <c r="AJ17" s="269"/>
-      <c r="AK17" s="269"/>
-      <c r="AL17" s="269"/>
-      <c r="AM17" s="270"/>
-      <c r="AN17" s="271"/>
-      <c r="AO17" s="272"/>
-      <c r="AP17" s="272"/>
-      <c r="AQ17" s="272"/>
-      <c r="AR17" s="273"/>
-      <c r="AS17" s="271"/>
-      <c r="AT17" s="272"/>
-      <c r="AU17" s="272"/>
-      <c r="AV17" s="272"/>
-      <c r="AW17" s="273"/>
+      <c r="B17" s="246"/>
+      <c r="C17" s="247"/>
+      <c r="D17" s="248"/>
+      <c r="E17" s="249"/>
+      <c r="F17" s="249"/>
+      <c r="G17" s="249"/>
+      <c r="H17" s="249"/>
+      <c r="I17" s="249"/>
+      <c r="J17" s="250"/>
+      <c r="K17" s="251"/>
+      <c r="L17" s="252"/>
+      <c r="M17" s="263"/>
+      <c r="N17" s="261"/>
+      <c r="O17" s="261"/>
+      <c r="P17" s="261"/>
+      <c r="Q17" s="261"/>
+      <c r="R17" s="264"/>
+      <c r="S17" s="265"/>
+      <c r="T17" s="265"/>
+      <c r="U17" s="265"/>
+      <c r="V17" s="257"/>
+      <c r="W17" s="258"/>
+      <c r="X17" s="258"/>
+      <c r="Y17" s="258"/>
+      <c r="Z17" s="258"/>
+      <c r="AA17" s="258"/>
+      <c r="AB17" s="258"/>
+      <c r="AC17" s="258"/>
+      <c r="AD17" s="258"/>
+      <c r="AE17" s="258"/>
+      <c r="AF17" s="258"/>
+      <c r="AG17" s="258"/>
+      <c r="AH17" s="258"/>
+      <c r="AI17" s="258"/>
+      <c r="AJ17" s="258"/>
+      <c r="AK17" s="258"/>
+      <c r="AL17" s="258"/>
+      <c r="AM17" s="259"/>
+      <c r="AN17" s="243"/>
+      <c r="AO17" s="244"/>
+      <c r="AP17" s="244"/>
+      <c r="AQ17" s="244"/>
+      <c r="AR17" s="245"/>
+      <c r="AS17" s="243"/>
+      <c r="AT17" s="244"/>
+      <c r="AU17" s="244"/>
+      <c r="AV17" s="244"/>
+      <c r="AW17" s="245"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
-      <c r="B18" s="262"/>
-      <c r="C18" s="263"/>
-      <c r="D18" s="264"/>
-      <c r="E18" s="254"/>
-      <c r="F18" s="254"/>
-      <c r="G18" s="254"/>
-      <c r="H18" s="254"/>
-      <c r="I18" s="254"/>
-      <c r="J18" s="255"/>
-      <c r="K18" s="256"/>
-      <c r="L18" s="257"/>
-      <c r="M18" s="276"/>
-      <c r="N18" s="266"/>
-      <c r="O18" s="266"/>
-      <c r="P18" s="266"/>
-      <c r="Q18" s="266"/>
-      <c r="R18" s="267"/>
-      <c r="S18" s="252"/>
-      <c r="T18" s="252"/>
-      <c r="U18" s="252"/>
-      <c r="V18" s="268"/>
-      <c r="W18" s="269"/>
-      <c r="X18" s="269"/>
-      <c r="Y18" s="269"/>
-      <c r="Z18" s="269"/>
-      <c r="AA18" s="269"/>
-      <c r="AB18" s="269"/>
-      <c r="AC18" s="269"/>
-      <c r="AD18" s="269"/>
-      <c r="AE18" s="269"/>
-      <c r="AF18" s="269"/>
-      <c r="AG18" s="269"/>
-      <c r="AH18" s="269"/>
-      <c r="AI18" s="269"/>
-      <c r="AJ18" s="269"/>
-      <c r="AK18" s="269"/>
-      <c r="AL18" s="269"/>
-      <c r="AM18" s="270"/>
-      <c r="AN18" s="271"/>
-      <c r="AO18" s="272"/>
-      <c r="AP18" s="272"/>
-      <c r="AQ18" s="272"/>
-      <c r="AR18" s="273"/>
-      <c r="AS18" s="271"/>
-      <c r="AT18" s="272"/>
-      <c r="AU18" s="272"/>
-      <c r="AV18" s="272"/>
-      <c r="AW18" s="273"/>
+      <c r="B18" s="246"/>
+      <c r="C18" s="247"/>
+      <c r="D18" s="248"/>
+      <c r="E18" s="249"/>
+      <c r="F18" s="249"/>
+      <c r="G18" s="249"/>
+      <c r="H18" s="249"/>
+      <c r="I18" s="249"/>
+      <c r="J18" s="250"/>
+      <c r="K18" s="251"/>
+      <c r="L18" s="252"/>
+      <c r="M18" s="260"/>
+      <c r="N18" s="261"/>
+      <c r="O18" s="261"/>
+      <c r="P18" s="261"/>
+      <c r="Q18" s="261"/>
+      <c r="R18" s="262"/>
+      <c r="S18" s="256"/>
+      <c r="T18" s="256"/>
+      <c r="U18" s="256"/>
+      <c r="V18" s="257"/>
+      <c r="W18" s="258"/>
+      <c r="X18" s="258"/>
+      <c r="Y18" s="258"/>
+      <c r="Z18" s="258"/>
+      <c r="AA18" s="258"/>
+      <c r="AB18" s="258"/>
+      <c r="AC18" s="258"/>
+      <c r="AD18" s="258"/>
+      <c r="AE18" s="258"/>
+      <c r="AF18" s="258"/>
+      <c r="AG18" s="258"/>
+      <c r="AH18" s="258"/>
+      <c r="AI18" s="258"/>
+      <c r="AJ18" s="258"/>
+      <c r="AK18" s="258"/>
+      <c r="AL18" s="258"/>
+      <c r="AM18" s="259"/>
+      <c r="AN18" s="243"/>
+      <c r="AO18" s="244"/>
+      <c r="AP18" s="244"/>
+      <c r="AQ18" s="244"/>
+      <c r="AR18" s="245"/>
+      <c r="AS18" s="243"/>
+      <c r="AT18" s="244"/>
+      <c r="AU18" s="244"/>
+      <c r="AV18" s="244"/>
+      <c r="AW18" s="245"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
-      <c r="B19" s="262"/>
-      <c r="C19" s="263"/>
-      <c r="D19" s="264"/>
-      <c r="E19" s="254"/>
-      <c r="F19" s="254"/>
-      <c r="G19" s="254"/>
-      <c r="H19" s="254"/>
-      <c r="I19" s="254"/>
-      <c r="J19" s="255"/>
-      <c r="K19" s="256"/>
-      <c r="L19" s="257"/>
-      <c r="M19" s="265"/>
-      <c r="N19" s="266"/>
-      <c r="O19" s="266"/>
-      <c r="P19" s="266"/>
-      <c r="Q19" s="266"/>
-      <c r="R19" s="267"/>
-      <c r="S19" s="252"/>
-      <c r="T19" s="252"/>
-      <c r="U19" s="252"/>
-      <c r="V19" s="268"/>
-      <c r="W19" s="269"/>
-      <c r="X19" s="269"/>
-      <c r="Y19" s="269"/>
-      <c r="Z19" s="269"/>
-      <c r="AA19" s="269"/>
-      <c r="AB19" s="269"/>
-      <c r="AC19" s="269"/>
-      <c r="AD19" s="269"/>
-      <c r="AE19" s="269"/>
-      <c r="AF19" s="269"/>
-      <c r="AG19" s="269"/>
-      <c r="AH19" s="269"/>
-      <c r="AI19" s="269"/>
-      <c r="AJ19" s="269"/>
-      <c r="AK19" s="269"/>
-      <c r="AL19" s="269"/>
-      <c r="AM19" s="270"/>
-      <c r="AN19" s="252"/>
-      <c r="AO19" s="252"/>
-      <c r="AP19" s="252"/>
-      <c r="AQ19" s="252"/>
-      <c r="AR19" s="252"/>
-      <c r="AS19" s="271"/>
-      <c r="AT19" s="272"/>
-      <c r="AU19" s="272"/>
-      <c r="AV19" s="272"/>
-      <c r="AW19" s="273"/>
+      <c r="B19" s="246"/>
+      <c r="C19" s="247"/>
+      <c r="D19" s="248"/>
+      <c r="E19" s="249"/>
+      <c r="F19" s="249"/>
+      <c r="G19" s="249"/>
+      <c r="H19" s="249"/>
+      <c r="I19" s="249"/>
+      <c r="J19" s="250"/>
+      <c r="K19" s="251"/>
+      <c r="L19" s="252"/>
+      <c r="M19" s="263"/>
+      <c r="N19" s="261"/>
+      <c r="O19" s="261"/>
+      <c r="P19" s="261"/>
+      <c r="Q19" s="261"/>
+      <c r="R19" s="262"/>
+      <c r="S19" s="256"/>
+      <c r="T19" s="256"/>
+      <c r="U19" s="256"/>
+      <c r="V19" s="257"/>
+      <c r="W19" s="258"/>
+      <c r="X19" s="258"/>
+      <c r="Y19" s="258"/>
+      <c r="Z19" s="258"/>
+      <c r="AA19" s="258"/>
+      <c r="AB19" s="258"/>
+      <c r="AC19" s="258"/>
+      <c r="AD19" s="258"/>
+      <c r="AE19" s="258"/>
+      <c r="AF19" s="258"/>
+      <c r="AG19" s="258"/>
+      <c r="AH19" s="258"/>
+      <c r="AI19" s="258"/>
+      <c r="AJ19" s="258"/>
+      <c r="AK19" s="258"/>
+      <c r="AL19" s="258"/>
+      <c r="AM19" s="259"/>
+      <c r="AN19" s="256"/>
+      <c r="AO19" s="256"/>
+      <c r="AP19" s="256"/>
+      <c r="AQ19" s="256"/>
+      <c r="AR19" s="256"/>
+      <c r="AS19" s="243"/>
+      <c r="AT19" s="244"/>
+      <c r="AU19" s="244"/>
+      <c r="AV19" s="244"/>
+      <c r="AW19" s="245"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
-      <c r="B20" s="262"/>
-      <c r="C20" s="263"/>
-      <c r="D20" s="264"/>
-      <c r="E20" s="254"/>
-      <c r="F20" s="254"/>
-      <c r="G20" s="254"/>
-      <c r="H20" s="254"/>
-      <c r="I20" s="254"/>
-      <c r="J20" s="255"/>
-      <c r="K20" s="256"/>
-      <c r="L20" s="257"/>
-      <c r="M20" s="265"/>
-      <c r="N20" s="266"/>
-      <c r="O20" s="266"/>
-      <c r="P20" s="266"/>
-      <c r="Q20" s="266"/>
-      <c r="R20" s="267"/>
-      <c r="S20" s="271"/>
-      <c r="T20" s="272"/>
-      <c r="U20" s="273"/>
-      <c r="V20" s="268"/>
-      <c r="W20" s="269"/>
-      <c r="X20" s="269"/>
-      <c r="Y20" s="269"/>
-      <c r="Z20" s="269"/>
-      <c r="AA20" s="269"/>
-      <c r="AB20" s="269"/>
-      <c r="AC20" s="269"/>
-      <c r="AD20" s="269"/>
-      <c r="AE20" s="269"/>
-      <c r="AF20" s="269"/>
-      <c r="AG20" s="269"/>
-      <c r="AH20" s="269"/>
-      <c r="AI20" s="269"/>
-      <c r="AJ20" s="269"/>
-      <c r="AK20" s="269"/>
-      <c r="AL20" s="269"/>
-      <c r="AM20" s="270"/>
-      <c r="AN20" s="271"/>
-      <c r="AO20" s="272"/>
-      <c r="AP20" s="272"/>
-      <c r="AQ20" s="272"/>
-      <c r="AR20" s="273"/>
-      <c r="AS20" s="271"/>
-      <c r="AT20" s="272"/>
-      <c r="AU20" s="272"/>
-      <c r="AV20" s="272"/>
-      <c r="AW20" s="273"/>
+      <c r="B20" s="246"/>
+      <c r="C20" s="247"/>
+      <c r="D20" s="248"/>
+      <c r="E20" s="249"/>
+      <c r="F20" s="249"/>
+      <c r="G20" s="249"/>
+      <c r="H20" s="249"/>
+      <c r="I20" s="249"/>
+      <c r="J20" s="250"/>
+      <c r="K20" s="251"/>
+      <c r="L20" s="252"/>
+      <c r="M20" s="263"/>
+      <c r="N20" s="261"/>
+      <c r="O20" s="261"/>
+      <c r="P20" s="261"/>
+      <c r="Q20" s="261"/>
+      <c r="R20" s="262"/>
+      <c r="S20" s="243"/>
+      <c r="T20" s="244"/>
+      <c r="U20" s="245"/>
+      <c r="V20" s="257"/>
+      <c r="W20" s="258"/>
+      <c r="X20" s="258"/>
+      <c r="Y20" s="258"/>
+      <c r="Z20" s="258"/>
+      <c r="AA20" s="258"/>
+      <c r="AB20" s="258"/>
+      <c r="AC20" s="258"/>
+      <c r="AD20" s="258"/>
+      <c r="AE20" s="258"/>
+      <c r="AF20" s="258"/>
+      <c r="AG20" s="258"/>
+      <c r="AH20" s="258"/>
+      <c r="AI20" s="258"/>
+      <c r="AJ20" s="258"/>
+      <c r="AK20" s="258"/>
+      <c r="AL20" s="258"/>
+      <c r="AM20" s="259"/>
+      <c r="AN20" s="243"/>
+      <c r="AO20" s="244"/>
+      <c r="AP20" s="244"/>
+      <c r="AQ20" s="244"/>
+      <c r="AR20" s="245"/>
+      <c r="AS20" s="243"/>
+      <c r="AT20" s="244"/>
+      <c r="AU20" s="244"/>
+      <c r="AV20" s="244"/>
+      <c r="AW20" s="245"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
-      <c r="B21" s="262"/>
-      <c r="C21" s="263"/>
-      <c r="D21" s="264"/>
-      <c r="E21" s="254"/>
-      <c r="F21" s="254"/>
-      <c r="G21" s="254"/>
-      <c r="H21" s="254"/>
-      <c r="I21" s="254"/>
-      <c r="J21" s="255"/>
-      <c r="K21" s="256"/>
-      <c r="L21" s="257"/>
-      <c r="M21" s="265"/>
-      <c r="N21" s="266"/>
-      <c r="O21" s="266"/>
-      <c r="P21" s="266"/>
-      <c r="Q21" s="266"/>
-      <c r="R21" s="267"/>
-      <c r="S21" s="252"/>
-      <c r="T21" s="252"/>
-      <c r="U21" s="252"/>
-      <c r="V21" s="268"/>
-      <c r="W21" s="269"/>
-      <c r="X21" s="269"/>
-      <c r="Y21" s="269"/>
-      <c r="Z21" s="269"/>
-      <c r="AA21" s="269"/>
-      <c r="AB21" s="269"/>
-      <c r="AC21" s="269"/>
-      <c r="AD21" s="269"/>
-      <c r="AE21" s="269"/>
-      <c r="AF21" s="269"/>
-      <c r="AG21" s="269"/>
-      <c r="AH21" s="269"/>
-      <c r="AI21" s="269"/>
-      <c r="AJ21" s="269"/>
-      <c r="AK21" s="269"/>
-      <c r="AL21" s="269"/>
-      <c r="AM21" s="270"/>
-      <c r="AN21" s="271"/>
-      <c r="AO21" s="272"/>
-      <c r="AP21" s="272"/>
-      <c r="AQ21" s="272"/>
-      <c r="AR21" s="273"/>
-      <c r="AS21" s="271"/>
-      <c r="AT21" s="272"/>
-      <c r="AU21" s="272"/>
-      <c r="AV21" s="272"/>
-      <c r="AW21" s="273"/>
+      <c r="B21" s="246"/>
+      <c r="C21" s="247"/>
+      <c r="D21" s="248"/>
+      <c r="E21" s="249"/>
+      <c r="F21" s="249"/>
+      <c r="G21" s="249"/>
+      <c r="H21" s="249"/>
+      <c r="I21" s="249"/>
+      <c r="J21" s="250"/>
+      <c r="K21" s="251"/>
+      <c r="L21" s="252"/>
+      <c r="M21" s="263"/>
+      <c r="N21" s="261"/>
+      <c r="O21" s="261"/>
+      <c r="P21" s="261"/>
+      <c r="Q21" s="261"/>
+      <c r="R21" s="262"/>
+      <c r="S21" s="256"/>
+      <c r="T21" s="256"/>
+      <c r="U21" s="256"/>
+      <c r="V21" s="257"/>
+      <c r="W21" s="258"/>
+      <c r="X21" s="258"/>
+      <c r="Y21" s="258"/>
+      <c r="Z21" s="258"/>
+      <c r="AA21" s="258"/>
+      <c r="AB21" s="258"/>
+      <c r="AC21" s="258"/>
+      <c r="AD21" s="258"/>
+      <c r="AE21" s="258"/>
+      <c r="AF21" s="258"/>
+      <c r="AG21" s="258"/>
+      <c r="AH21" s="258"/>
+      <c r="AI21" s="258"/>
+      <c r="AJ21" s="258"/>
+      <c r="AK21" s="258"/>
+      <c r="AL21" s="258"/>
+      <c r="AM21" s="259"/>
+      <c r="AN21" s="243"/>
+      <c r="AO21" s="244"/>
+      <c r="AP21" s="244"/>
+      <c r="AQ21" s="244"/>
+      <c r="AR21" s="245"/>
+      <c r="AS21" s="243"/>
+      <c r="AT21" s="244"/>
+      <c r="AU21" s="244"/>
+      <c r="AV21" s="244"/>
+      <c r="AW21" s="245"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
-      <c r="B22" s="262"/>
-      <c r="C22" s="263"/>
-      <c r="D22" s="264"/>
-      <c r="E22" s="254"/>
-      <c r="F22" s="254"/>
-      <c r="G22" s="254"/>
-      <c r="H22" s="254"/>
-      <c r="I22" s="254"/>
-      <c r="J22" s="255"/>
-      <c r="K22" s="256"/>
-      <c r="L22" s="257"/>
-      <c r="M22" s="265"/>
-      <c r="N22" s="266"/>
-      <c r="O22" s="266"/>
-      <c r="P22" s="266"/>
-      <c r="Q22" s="266"/>
-      <c r="R22" s="267"/>
-      <c r="S22" s="252"/>
-      <c r="T22" s="252"/>
-      <c r="U22" s="252"/>
-      <c r="V22" s="268"/>
-      <c r="W22" s="269"/>
-      <c r="X22" s="269"/>
-      <c r="Y22" s="269"/>
-      <c r="Z22" s="269"/>
-      <c r="AA22" s="269"/>
-      <c r="AB22" s="269"/>
-      <c r="AC22" s="269"/>
-      <c r="AD22" s="269"/>
-      <c r="AE22" s="269"/>
-      <c r="AF22" s="269"/>
-      <c r="AG22" s="269"/>
-      <c r="AH22" s="269"/>
-      <c r="AI22" s="269"/>
-      <c r="AJ22" s="269"/>
-      <c r="AK22" s="269"/>
-      <c r="AL22" s="269"/>
-      <c r="AM22" s="270"/>
-      <c r="AN22" s="271"/>
-      <c r="AO22" s="272"/>
-      <c r="AP22" s="272"/>
-      <c r="AQ22" s="272"/>
-      <c r="AR22" s="273"/>
-      <c r="AS22" s="271"/>
-      <c r="AT22" s="272"/>
-      <c r="AU22" s="272"/>
-      <c r="AV22" s="272"/>
-      <c r="AW22" s="273"/>
+      <c r="B22" s="246"/>
+      <c r="C22" s="247"/>
+      <c r="D22" s="248"/>
+      <c r="E22" s="249"/>
+      <c r="F22" s="249"/>
+      <c r="G22" s="249"/>
+      <c r="H22" s="249"/>
+      <c r="I22" s="249"/>
+      <c r="J22" s="250"/>
+      <c r="K22" s="251"/>
+      <c r="L22" s="252"/>
+      <c r="M22" s="263"/>
+      <c r="N22" s="261"/>
+      <c r="O22" s="261"/>
+      <c r="P22" s="261"/>
+      <c r="Q22" s="261"/>
+      <c r="R22" s="262"/>
+      <c r="S22" s="256"/>
+      <c r="T22" s="256"/>
+      <c r="U22" s="256"/>
+      <c r="V22" s="257"/>
+      <c r="W22" s="258"/>
+      <c r="X22" s="258"/>
+      <c r="Y22" s="258"/>
+      <c r="Z22" s="258"/>
+      <c r="AA22" s="258"/>
+      <c r="AB22" s="258"/>
+      <c r="AC22" s="258"/>
+      <c r="AD22" s="258"/>
+      <c r="AE22" s="258"/>
+      <c r="AF22" s="258"/>
+      <c r="AG22" s="258"/>
+      <c r="AH22" s="258"/>
+      <c r="AI22" s="258"/>
+      <c r="AJ22" s="258"/>
+      <c r="AK22" s="258"/>
+      <c r="AL22" s="258"/>
+      <c r="AM22" s="259"/>
+      <c r="AN22" s="243"/>
+      <c r="AO22" s="244"/>
+      <c r="AP22" s="244"/>
+      <c r="AQ22" s="244"/>
+      <c r="AR22" s="245"/>
+      <c r="AS22" s="243"/>
+      <c r="AT22" s="244"/>
+      <c r="AU22" s="244"/>
+      <c r="AV22" s="244"/>
+      <c r="AW22" s="245"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
-      <c r="B23" s="262"/>
-      <c r="C23" s="263"/>
-      <c r="D23" s="264"/>
-      <c r="E23" s="254"/>
-      <c r="F23" s="254"/>
-      <c r="G23" s="254"/>
-      <c r="H23" s="254"/>
-      <c r="I23" s="254"/>
-      <c r="J23" s="255"/>
-      <c r="K23" s="256"/>
-      <c r="L23" s="257"/>
-      <c r="M23" s="265"/>
-      <c r="N23" s="266"/>
-      <c r="O23" s="266"/>
-      <c r="P23" s="266"/>
-      <c r="Q23" s="266"/>
-      <c r="R23" s="267"/>
-      <c r="S23" s="252"/>
-      <c r="T23" s="252"/>
-      <c r="U23" s="252"/>
-      <c r="V23" s="268"/>
-      <c r="W23" s="269"/>
-      <c r="X23" s="269"/>
-      <c r="Y23" s="269"/>
-      <c r="Z23" s="269"/>
-      <c r="AA23" s="269"/>
-      <c r="AB23" s="269"/>
-      <c r="AC23" s="269"/>
-      <c r="AD23" s="269"/>
-      <c r="AE23" s="269"/>
-      <c r="AF23" s="269"/>
-      <c r="AG23" s="269"/>
-      <c r="AH23" s="269"/>
-      <c r="AI23" s="269"/>
-      <c r="AJ23" s="269"/>
-      <c r="AK23" s="269"/>
-      <c r="AL23" s="269"/>
-      <c r="AM23" s="270"/>
-      <c r="AN23" s="271"/>
-      <c r="AO23" s="272"/>
-      <c r="AP23" s="272"/>
-      <c r="AQ23" s="272"/>
-      <c r="AR23" s="273"/>
-      <c r="AS23" s="271"/>
-      <c r="AT23" s="272"/>
-      <c r="AU23" s="272"/>
-      <c r="AV23" s="272"/>
-      <c r="AW23" s="273"/>
+      <c r="B23" s="246"/>
+      <c r="C23" s="247"/>
+      <c r="D23" s="248"/>
+      <c r="E23" s="249"/>
+      <c r="F23" s="249"/>
+      <c r="G23" s="249"/>
+      <c r="H23" s="249"/>
+      <c r="I23" s="249"/>
+      <c r="J23" s="250"/>
+      <c r="K23" s="251"/>
+      <c r="L23" s="252"/>
+      <c r="M23" s="263"/>
+      <c r="N23" s="261"/>
+      <c r="O23" s="261"/>
+      <c r="P23" s="261"/>
+      <c r="Q23" s="261"/>
+      <c r="R23" s="262"/>
+      <c r="S23" s="256"/>
+      <c r="T23" s="256"/>
+      <c r="U23" s="256"/>
+      <c r="V23" s="257"/>
+      <c r="W23" s="258"/>
+      <c r="X23" s="258"/>
+      <c r="Y23" s="258"/>
+      <c r="Z23" s="258"/>
+      <c r="AA23" s="258"/>
+      <c r="AB23" s="258"/>
+      <c r="AC23" s="258"/>
+      <c r="AD23" s="258"/>
+      <c r="AE23" s="258"/>
+      <c r="AF23" s="258"/>
+      <c r="AG23" s="258"/>
+      <c r="AH23" s="258"/>
+      <c r="AI23" s="258"/>
+      <c r="AJ23" s="258"/>
+      <c r="AK23" s="258"/>
+      <c r="AL23" s="258"/>
+      <c r="AM23" s="259"/>
+      <c r="AN23" s="243"/>
+      <c r="AO23" s="244"/>
+      <c r="AP23" s="244"/>
+      <c r="AQ23" s="244"/>
+      <c r="AR23" s="245"/>
+      <c r="AS23" s="243"/>
+      <c r="AT23" s="244"/>
+      <c r="AU23" s="244"/>
+      <c r="AV23" s="244"/>
+      <c r="AW23" s="245"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
-      <c r="B24" s="262"/>
-      <c r="C24" s="263"/>
-      <c r="D24" s="264"/>
-      <c r="E24" s="254"/>
-      <c r="F24" s="254"/>
-      <c r="G24" s="254"/>
-      <c r="H24" s="254"/>
-      <c r="I24" s="254"/>
-      <c r="J24" s="255"/>
-      <c r="K24" s="256"/>
-      <c r="L24" s="257"/>
-      <c r="M24" s="265"/>
-      <c r="N24" s="266"/>
-      <c r="O24" s="266"/>
-      <c r="P24" s="266"/>
-      <c r="Q24" s="266"/>
-      <c r="R24" s="267"/>
-      <c r="S24" s="252"/>
-      <c r="T24" s="252"/>
-      <c r="U24" s="252"/>
-      <c r="V24" s="268"/>
-      <c r="W24" s="269"/>
-      <c r="X24" s="269"/>
-      <c r="Y24" s="269"/>
-      <c r="Z24" s="269"/>
-      <c r="AA24" s="269"/>
-      <c r="AB24" s="269"/>
-      <c r="AC24" s="269"/>
-      <c r="AD24" s="269"/>
-      <c r="AE24" s="269"/>
-      <c r="AF24" s="269"/>
-      <c r="AG24" s="269"/>
-      <c r="AH24" s="269"/>
-      <c r="AI24" s="269"/>
-      <c r="AJ24" s="269"/>
-      <c r="AK24" s="269"/>
-      <c r="AL24" s="269"/>
-      <c r="AM24" s="270"/>
-      <c r="AN24" s="271"/>
-      <c r="AO24" s="272"/>
-      <c r="AP24" s="272"/>
-      <c r="AQ24" s="272"/>
-      <c r="AR24" s="273"/>
-      <c r="AS24" s="271"/>
-      <c r="AT24" s="272"/>
-      <c r="AU24" s="272"/>
-      <c r="AV24" s="272"/>
-      <c r="AW24" s="273"/>
+      <c r="B24" s="246"/>
+      <c r="C24" s="247"/>
+      <c r="D24" s="248"/>
+      <c r="E24" s="249"/>
+      <c r="F24" s="249"/>
+      <c r="G24" s="249"/>
+      <c r="H24" s="249"/>
+      <c r="I24" s="249"/>
+      <c r="J24" s="250"/>
+      <c r="K24" s="251"/>
+      <c r="L24" s="252"/>
+      <c r="M24" s="263"/>
+      <c r="N24" s="261"/>
+      <c r="O24" s="261"/>
+      <c r="P24" s="261"/>
+      <c r="Q24" s="261"/>
+      <c r="R24" s="262"/>
+      <c r="S24" s="256"/>
+      <c r="T24" s="256"/>
+      <c r="U24" s="256"/>
+      <c r="V24" s="257"/>
+      <c r="W24" s="258"/>
+      <c r="X24" s="258"/>
+      <c r="Y24" s="258"/>
+      <c r="Z24" s="258"/>
+      <c r="AA24" s="258"/>
+      <c r="AB24" s="258"/>
+      <c r="AC24" s="258"/>
+      <c r="AD24" s="258"/>
+      <c r="AE24" s="258"/>
+      <c r="AF24" s="258"/>
+      <c r="AG24" s="258"/>
+      <c r="AH24" s="258"/>
+      <c r="AI24" s="258"/>
+      <c r="AJ24" s="258"/>
+      <c r="AK24" s="258"/>
+      <c r="AL24" s="258"/>
+      <c r="AM24" s="259"/>
+      <c r="AN24" s="243"/>
+      <c r="AO24" s="244"/>
+      <c r="AP24" s="244"/>
+      <c r="AQ24" s="244"/>
+      <c r="AR24" s="245"/>
+      <c r="AS24" s="243"/>
+      <c r="AT24" s="244"/>
+      <c r="AU24" s="244"/>
+      <c r="AV24" s="244"/>
+      <c r="AW24" s="245"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="54"/>
-      <c r="B25" s="262"/>
-      <c r="C25" s="263"/>
-      <c r="D25" s="264"/>
-      <c r="E25" s="254"/>
-      <c r="F25" s="254"/>
-      <c r="G25" s="254"/>
-      <c r="H25" s="254"/>
-      <c r="I25" s="254"/>
-      <c r="J25" s="255"/>
-      <c r="K25" s="256"/>
-      <c r="L25" s="257"/>
-      <c r="M25" s="276"/>
-      <c r="N25" s="266"/>
-      <c r="O25" s="266"/>
-      <c r="P25" s="266"/>
-      <c r="Q25" s="266"/>
-      <c r="R25" s="267"/>
-      <c r="S25" s="252"/>
-      <c r="T25" s="252"/>
-      <c r="U25" s="252"/>
-      <c r="V25" s="268"/>
-      <c r="W25" s="269"/>
-      <c r="X25" s="269"/>
-      <c r="Y25" s="269"/>
-      <c r="Z25" s="269"/>
-      <c r="AA25" s="269"/>
-      <c r="AB25" s="269"/>
-      <c r="AC25" s="269"/>
-      <c r="AD25" s="269"/>
-      <c r="AE25" s="269"/>
-      <c r="AF25" s="269"/>
-      <c r="AG25" s="269"/>
-      <c r="AH25" s="269"/>
-      <c r="AI25" s="269"/>
-      <c r="AJ25" s="269"/>
-      <c r="AK25" s="269"/>
-      <c r="AL25" s="269"/>
-      <c r="AM25" s="270"/>
-      <c r="AN25" s="271"/>
-      <c r="AO25" s="272"/>
-      <c r="AP25" s="272"/>
-      <c r="AQ25" s="272"/>
-      <c r="AR25" s="273"/>
-      <c r="AS25" s="271"/>
-      <c r="AT25" s="272"/>
-      <c r="AU25" s="272"/>
-      <c r="AV25" s="272"/>
-      <c r="AW25" s="273"/>
+      <c r="B25" s="246"/>
+      <c r="C25" s="247"/>
+      <c r="D25" s="248"/>
+      <c r="E25" s="249"/>
+      <c r="F25" s="249"/>
+      <c r="G25" s="249"/>
+      <c r="H25" s="249"/>
+      <c r="I25" s="249"/>
+      <c r="J25" s="250"/>
+      <c r="K25" s="251"/>
+      <c r="L25" s="252"/>
+      <c r="M25" s="260"/>
+      <c r="N25" s="261"/>
+      <c r="O25" s="261"/>
+      <c r="P25" s="261"/>
+      <c r="Q25" s="261"/>
+      <c r="R25" s="262"/>
+      <c r="S25" s="256"/>
+      <c r="T25" s="256"/>
+      <c r="U25" s="256"/>
+      <c r="V25" s="257"/>
+      <c r="W25" s="258"/>
+      <c r="X25" s="258"/>
+      <c r="Y25" s="258"/>
+      <c r="Z25" s="258"/>
+      <c r="AA25" s="258"/>
+      <c r="AB25" s="258"/>
+      <c r="AC25" s="258"/>
+      <c r="AD25" s="258"/>
+      <c r="AE25" s="258"/>
+      <c r="AF25" s="258"/>
+      <c r="AG25" s="258"/>
+      <c r="AH25" s="258"/>
+      <c r="AI25" s="258"/>
+      <c r="AJ25" s="258"/>
+      <c r="AK25" s="258"/>
+      <c r="AL25" s="258"/>
+      <c r="AM25" s="259"/>
+      <c r="AN25" s="243"/>
+      <c r="AO25" s="244"/>
+      <c r="AP25" s="244"/>
+      <c r="AQ25" s="244"/>
+      <c r="AR25" s="245"/>
+      <c r="AS25" s="243"/>
+      <c r="AT25" s="244"/>
+      <c r="AU25" s="244"/>
+      <c r="AV25" s="244"/>
+      <c r="AW25" s="245"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="54"/>
-      <c r="B26" s="262"/>
-      <c r="C26" s="263"/>
-      <c r="D26" s="264"/>
-      <c r="E26" s="254"/>
-      <c r="F26" s="254"/>
-      <c r="G26" s="254"/>
-      <c r="H26" s="254"/>
-      <c r="I26" s="254"/>
-      <c r="J26" s="255"/>
-      <c r="K26" s="256"/>
-      <c r="L26" s="257"/>
-      <c r="M26" s="276"/>
-      <c r="N26" s="266"/>
-      <c r="O26" s="266"/>
-      <c r="P26" s="266"/>
-      <c r="Q26" s="266"/>
-      <c r="R26" s="267"/>
-      <c r="S26" s="252"/>
-      <c r="T26" s="252"/>
-      <c r="U26" s="252"/>
-      <c r="V26" s="268"/>
-      <c r="W26" s="269"/>
-      <c r="X26" s="269"/>
-      <c r="Y26" s="269"/>
-      <c r="Z26" s="269"/>
-      <c r="AA26" s="269"/>
-      <c r="AB26" s="269"/>
-      <c r="AC26" s="269"/>
-      <c r="AD26" s="269"/>
-      <c r="AE26" s="269"/>
-      <c r="AF26" s="269"/>
-      <c r="AG26" s="269"/>
-      <c r="AH26" s="269"/>
-      <c r="AI26" s="269"/>
-      <c r="AJ26" s="269"/>
-      <c r="AK26" s="269"/>
-      <c r="AL26" s="269"/>
-      <c r="AM26" s="270"/>
-      <c r="AN26" s="271"/>
-      <c r="AO26" s="272"/>
-      <c r="AP26" s="272"/>
-      <c r="AQ26" s="272"/>
-      <c r="AR26" s="273"/>
-      <c r="AS26" s="271"/>
-      <c r="AT26" s="272"/>
-      <c r="AU26" s="272"/>
-      <c r="AV26" s="272"/>
-      <c r="AW26" s="273"/>
+      <c r="B26" s="246"/>
+      <c r="C26" s="247"/>
+      <c r="D26" s="248"/>
+      <c r="E26" s="249"/>
+      <c r="F26" s="249"/>
+      <c r="G26" s="249"/>
+      <c r="H26" s="249"/>
+      <c r="I26" s="249"/>
+      <c r="J26" s="250"/>
+      <c r="K26" s="251"/>
+      <c r="L26" s="252"/>
+      <c r="M26" s="260"/>
+      <c r="N26" s="261"/>
+      <c r="O26" s="261"/>
+      <c r="P26" s="261"/>
+      <c r="Q26" s="261"/>
+      <c r="R26" s="262"/>
+      <c r="S26" s="256"/>
+      <c r="T26" s="256"/>
+      <c r="U26" s="256"/>
+      <c r="V26" s="257"/>
+      <c r="W26" s="258"/>
+      <c r="X26" s="258"/>
+      <c r="Y26" s="258"/>
+      <c r="Z26" s="258"/>
+      <c r="AA26" s="258"/>
+      <c r="AB26" s="258"/>
+      <c r="AC26" s="258"/>
+      <c r="AD26" s="258"/>
+      <c r="AE26" s="258"/>
+      <c r="AF26" s="258"/>
+      <c r="AG26" s="258"/>
+      <c r="AH26" s="258"/>
+      <c r="AI26" s="258"/>
+      <c r="AJ26" s="258"/>
+      <c r="AK26" s="258"/>
+      <c r="AL26" s="258"/>
+      <c r="AM26" s="259"/>
+      <c r="AN26" s="243"/>
+      <c r="AO26" s="244"/>
+      <c r="AP26" s="244"/>
+      <c r="AQ26" s="244"/>
+      <c r="AR26" s="245"/>
+      <c r="AS26" s="243"/>
+      <c r="AT26" s="244"/>
+      <c r="AU26" s="244"/>
+      <c r="AV26" s="244"/>
+      <c r="AW26" s="245"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="54"/>
-      <c r="B27" s="262"/>
-      <c r="C27" s="263"/>
-      <c r="D27" s="264"/>
-      <c r="E27" s="254"/>
-      <c r="F27" s="254"/>
-      <c r="G27" s="254"/>
-      <c r="H27" s="254"/>
-      <c r="I27" s="254"/>
-      <c r="J27" s="255"/>
-      <c r="K27" s="256"/>
-      <c r="L27" s="257"/>
-      <c r="M27" s="276"/>
-      <c r="N27" s="266"/>
-      <c r="O27" s="266"/>
-      <c r="P27" s="266"/>
-      <c r="Q27" s="266"/>
-      <c r="R27" s="267"/>
-      <c r="S27" s="252"/>
-      <c r="T27" s="252"/>
-      <c r="U27" s="252"/>
-      <c r="V27" s="268"/>
-      <c r="W27" s="269"/>
-      <c r="X27" s="269"/>
-      <c r="Y27" s="269"/>
-      <c r="Z27" s="269"/>
-      <c r="AA27" s="269"/>
-      <c r="AB27" s="269"/>
-      <c r="AC27" s="269"/>
-      <c r="AD27" s="269"/>
-      <c r="AE27" s="269"/>
-      <c r="AF27" s="269"/>
-      <c r="AG27" s="269"/>
-      <c r="AH27" s="269"/>
-      <c r="AI27" s="269"/>
-      <c r="AJ27" s="269"/>
-      <c r="AK27" s="269"/>
-      <c r="AL27" s="269"/>
-      <c r="AM27" s="270"/>
-      <c r="AN27" s="271"/>
-      <c r="AO27" s="272"/>
-      <c r="AP27" s="272"/>
-      <c r="AQ27" s="272"/>
-      <c r="AR27" s="273"/>
-      <c r="AS27" s="271"/>
-      <c r="AT27" s="272"/>
-      <c r="AU27" s="272"/>
-      <c r="AV27" s="272"/>
-      <c r="AW27" s="273"/>
+      <c r="B27" s="246"/>
+      <c r="C27" s="247"/>
+      <c r="D27" s="248"/>
+      <c r="E27" s="249"/>
+      <c r="F27" s="249"/>
+      <c r="G27" s="249"/>
+      <c r="H27" s="249"/>
+      <c r="I27" s="249"/>
+      <c r="J27" s="250"/>
+      <c r="K27" s="251"/>
+      <c r="L27" s="252"/>
+      <c r="M27" s="260"/>
+      <c r="N27" s="261"/>
+      <c r="O27" s="261"/>
+      <c r="P27" s="261"/>
+      <c r="Q27" s="261"/>
+      <c r="R27" s="262"/>
+      <c r="S27" s="256"/>
+      <c r="T27" s="256"/>
+      <c r="U27" s="256"/>
+      <c r="V27" s="257"/>
+      <c r="W27" s="258"/>
+      <c r="X27" s="258"/>
+      <c r="Y27" s="258"/>
+      <c r="Z27" s="258"/>
+      <c r="AA27" s="258"/>
+      <c r="AB27" s="258"/>
+      <c r="AC27" s="258"/>
+      <c r="AD27" s="258"/>
+      <c r="AE27" s="258"/>
+      <c r="AF27" s="258"/>
+      <c r="AG27" s="258"/>
+      <c r="AH27" s="258"/>
+      <c r="AI27" s="258"/>
+      <c r="AJ27" s="258"/>
+      <c r="AK27" s="258"/>
+      <c r="AL27" s="258"/>
+      <c r="AM27" s="259"/>
+      <c r="AN27" s="243"/>
+      <c r="AO27" s="244"/>
+      <c r="AP27" s="244"/>
+      <c r="AQ27" s="244"/>
+      <c r="AR27" s="245"/>
+      <c r="AS27" s="243"/>
+      <c r="AT27" s="244"/>
+      <c r="AU27" s="244"/>
+      <c r="AV27" s="244"/>
+      <c r="AW27" s="245"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
-      <c r="B28" s="262"/>
-      <c r="C28" s="263"/>
-      <c r="D28" s="264"/>
-      <c r="E28" s="254"/>
-      <c r="F28" s="254"/>
-      <c r="G28" s="254"/>
-      <c r="H28" s="254"/>
-      <c r="I28" s="254"/>
-      <c r="J28" s="255"/>
-      <c r="K28" s="256"/>
-      <c r="L28" s="257"/>
-      <c r="M28" s="265"/>
-      <c r="N28" s="266"/>
-      <c r="O28" s="266"/>
-      <c r="P28" s="266"/>
-      <c r="Q28" s="266"/>
-      <c r="R28" s="267"/>
-      <c r="S28" s="252"/>
-      <c r="T28" s="252"/>
-      <c r="U28" s="252"/>
-      <c r="V28" s="268"/>
-      <c r="W28" s="269"/>
-      <c r="X28" s="269"/>
-      <c r="Y28" s="269"/>
-      <c r="Z28" s="269"/>
-      <c r="AA28" s="269"/>
-      <c r="AB28" s="269"/>
-      <c r="AC28" s="269"/>
-      <c r="AD28" s="269"/>
-      <c r="AE28" s="269"/>
-      <c r="AF28" s="269"/>
-      <c r="AG28" s="269"/>
-      <c r="AH28" s="269"/>
-      <c r="AI28" s="269"/>
-      <c r="AJ28" s="269"/>
-      <c r="AK28" s="269"/>
-      <c r="AL28" s="269"/>
-      <c r="AM28" s="270"/>
-      <c r="AN28" s="271"/>
-      <c r="AO28" s="272"/>
-      <c r="AP28" s="272"/>
-      <c r="AQ28" s="272"/>
-      <c r="AR28" s="273"/>
-      <c r="AS28" s="271"/>
-      <c r="AT28" s="272"/>
-      <c r="AU28" s="272"/>
-      <c r="AV28" s="272"/>
-      <c r="AW28" s="273"/>
+      <c r="B28" s="246"/>
+      <c r="C28" s="247"/>
+      <c r="D28" s="248"/>
+      <c r="E28" s="249"/>
+      <c r="F28" s="249"/>
+      <c r="G28" s="249"/>
+      <c r="H28" s="249"/>
+      <c r="I28" s="249"/>
+      <c r="J28" s="250"/>
+      <c r="K28" s="251"/>
+      <c r="L28" s="252"/>
+      <c r="M28" s="263"/>
+      <c r="N28" s="261"/>
+      <c r="O28" s="261"/>
+      <c r="P28" s="261"/>
+      <c r="Q28" s="261"/>
+      <c r="R28" s="262"/>
+      <c r="S28" s="256"/>
+      <c r="T28" s="256"/>
+      <c r="U28" s="256"/>
+      <c r="V28" s="257"/>
+      <c r="W28" s="258"/>
+      <c r="X28" s="258"/>
+      <c r="Y28" s="258"/>
+      <c r="Z28" s="258"/>
+      <c r="AA28" s="258"/>
+      <c r="AB28" s="258"/>
+      <c r="AC28" s="258"/>
+      <c r="AD28" s="258"/>
+      <c r="AE28" s="258"/>
+      <c r="AF28" s="258"/>
+      <c r="AG28" s="258"/>
+      <c r="AH28" s="258"/>
+      <c r="AI28" s="258"/>
+      <c r="AJ28" s="258"/>
+      <c r="AK28" s="258"/>
+      <c r="AL28" s="258"/>
+      <c r="AM28" s="259"/>
+      <c r="AN28" s="243"/>
+      <c r="AO28" s="244"/>
+      <c r="AP28" s="244"/>
+      <c r="AQ28" s="244"/>
+      <c r="AR28" s="245"/>
+      <c r="AS28" s="243"/>
+      <c r="AT28" s="244"/>
+      <c r="AU28" s="244"/>
+      <c r="AV28" s="244"/>
+      <c r="AW28" s="245"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="54"/>
-      <c r="B29" s="262"/>
-      <c r="C29" s="263"/>
-      <c r="D29" s="264"/>
-      <c r="E29" s="254"/>
-      <c r="F29" s="254"/>
-      <c r="G29" s="254"/>
-      <c r="H29" s="254"/>
-      <c r="I29" s="254"/>
-      <c r="J29" s="255"/>
-      <c r="K29" s="256"/>
-      <c r="L29" s="257"/>
-      <c r="M29" s="265"/>
-      <c r="N29" s="266"/>
-      <c r="O29" s="266"/>
-      <c r="P29" s="266"/>
-      <c r="Q29" s="266"/>
-      <c r="R29" s="267"/>
-      <c r="S29" s="252"/>
-      <c r="T29" s="252"/>
-      <c r="U29" s="252"/>
-      <c r="V29" s="268"/>
-      <c r="W29" s="269"/>
-      <c r="X29" s="269"/>
-      <c r="Y29" s="269"/>
-      <c r="Z29" s="269"/>
-      <c r="AA29" s="269"/>
-      <c r="AB29" s="269"/>
-      <c r="AC29" s="269"/>
-      <c r="AD29" s="269"/>
-      <c r="AE29" s="269"/>
-      <c r="AF29" s="269"/>
-      <c r="AG29" s="269"/>
-      <c r="AH29" s="269"/>
-      <c r="AI29" s="269"/>
-      <c r="AJ29" s="269"/>
-      <c r="AK29" s="269"/>
-      <c r="AL29" s="269"/>
-      <c r="AM29" s="270"/>
-      <c r="AN29" s="271"/>
-      <c r="AO29" s="272"/>
-      <c r="AP29" s="272"/>
-      <c r="AQ29" s="272"/>
-      <c r="AR29" s="273"/>
-      <c r="AS29" s="271"/>
-      <c r="AT29" s="272"/>
-      <c r="AU29" s="272"/>
-      <c r="AV29" s="272"/>
-      <c r="AW29" s="273"/>
+      <c r="B29" s="246"/>
+      <c r="C29" s="247"/>
+      <c r="D29" s="248"/>
+      <c r="E29" s="249"/>
+      <c r="F29" s="249"/>
+      <c r="G29" s="249"/>
+      <c r="H29" s="249"/>
+      <c r="I29" s="249"/>
+      <c r="J29" s="250"/>
+      <c r="K29" s="251"/>
+      <c r="L29" s="252"/>
+      <c r="M29" s="263"/>
+      <c r="N29" s="261"/>
+      <c r="O29" s="261"/>
+      <c r="P29" s="261"/>
+      <c r="Q29" s="261"/>
+      <c r="R29" s="262"/>
+      <c r="S29" s="256"/>
+      <c r="T29" s="256"/>
+      <c r="U29" s="256"/>
+      <c r="V29" s="257"/>
+      <c r="W29" s="258"/>
+      <c r="X29" s="258"/>
+      <c r="Y29" s="258"/>
+      <c r="Z29" s="258"/>
+      <c r="AA29" s="258"/>
+      <c r="AB29" s="258"/>
+      <c r="AC29" s="258"/>
+      <c r="AD29" s="258"/>
+      <c r="AE29" s="258"/>
+      <c r="AF29" s="258"/>
+      <c r="AG29" s="258"/>
+      <c r="AH29" s="258"/>
+      <c r="AI29" s="258"/>
+      <c r="AJ29" s="258"/>
+      <c r="AK29" s="258"/>
+      <c r="AL29" s="258"/>
+      <c r="AM29" s="259"/>
+      <c r="AN29" s="243"/>
+      <c r="AO29" s="244"/>
+      <c r="AP29" s="244"/>
+      <c r="AQ29" s="244"/>
+      <c r="AR29" s="245"/>
+      <c r="AS29" s="243"/>
+      <c r="AT29" s="244"/>
+      <c r="AU29" s="244"/>
+      <c r="AV29" s="244"/>
+      <c r="AW29" s="245"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
-      <c r="B30" s="262"/>
-      <c r="C30" s="263"/>
-      <c r="D30" s="264"/>
-      <c r="E30" s="254"/>
-      <c r="F30" s="254"/>
-      <c r="G30" s="254"/>
-      <c r="H30" s="254"/>
-      <c r="I30" s="254"/>
-      <c r="J30" s="255"/>
-      <c r="K30" s="256"/>
-      <c r="L30" s="257"/>
-      <c r="M30" s="276"/>
-      <c r="N30" s="266"/>
-      <c r="O30" s="266"/>
-      <c r="P30" s="266"/>
-      <c r="Q30" s="266"/>
-      <c r="R30" s="267"/>
-      <c r="S30" s="252"/>
-      <c r="T30" s="252"/>
-      <c r="U30" s="252"/>
-      <c r="V30" s="268"/>
-      <c r="W30" s="269"/>
-      <c r="X30" s="269"/>
-      <c r="Y30" s="269"/>
-      <c r="Z30" s="269"/>
-      <c r="AA30" s="269"/>
-      <c r="AB30" s="269"/>
-      <c r="AC30" s="269"/>
-      <c r="AD30" s="269"/>
-      <c r="AE30" s="269"/>
-      <c r="AF30" s="269"/>
-      <c r="AG30" s="269"/>
-      <c r="AH30" s="269"/>
-      <c r="AI30" s="269"/>
-      <c r="AJ30" s="269"/>
-      <c r="AK30" s="269"/>
-      <c r="AL30" s="269"/>
-      <c r="AM30" s="270"/>
-      <c r="AN30" s="271"/>
-      <c r="AO30" s="272"/>
-      <c r="AP30" s="272"/>
-      <c r="AQ30" s="272"/>
-      <c r="AR30" s="273"/>
-      <c r="AS30" s="271"/>
-      <c r="AT30" s="272"/>
-      <c r="AU30" s="272"/>
-      <c r="AV30" s="272"/>
-      <c r="AW30" s="273"/>
+      <c r="B30" s="246"/>
+      <c r="C30" s="247"/>
+      <c r="D30" s="248"/>
+      <c r="E30" s="249"/>
+      <c r="F30" s="249"/>
+      <c r="G30" s="249"/>
+      <c r="H30" s="249"/>
+      <c r="I30" s="249"/>
+      <c r="J30" s="250"/>
+      <c r="K30" s="251"/>
+      <c r="L30" s="252"/>
+      <c r="M30" s="260"/>
+      <c r="N30" s="261"/>
+      <c r="O30" s="261"/>
+      <c r="P30" s="261"/>
+      <c r="Q30" s="261"/>
+      <c r="R30" s="262"/>
+      <c r="S30" s="256"/>
+      <c r="T30" s="256"/>
+      <c r="U30" s="256"/>
+      <c r="V30" s="257"/>
+      <c r="W30" s="258"/>
+      <c r="X30" s="258"/>
+      <c r="Y30" s="258"/>
+      <c r="Z30" s="258"/>
+      <c r="AA30" s="258"/>
+      <c r="AB30" s="258"/>
+      <c r="AC30" s="258"/>
+      <c r="AD30" s="258"/>
+      <c r="AE30" s="258"/>
+      <c r="AF30" s="258"/>
+      <c r="AG30" s="258"/>
+      <c r="AH30" s="258"/>
+      <c r="AI30" s="258"/>
+      <c r="AJ30" s="258"/>
+      <c r="AK30" s="258"/>
+      <c r="AL30" s="258"/>
+      <c r="AM30" s="259"/>
+      <c r="AN30" s="243"/>
+      <c r="AO30" s="244"/>
+      <c r="AP30" s="244"/>
+      <c r="AQ30" s="244"/>
+      <c r="AR30" s="245"/>
+      <c r="AS30" s="243"/>
+      <c r="AT30" s="244"/>
+      <c r="AU30" s="244"/>
+      <c r="AV30" s="244"/>
+      <c r="AW30" s="245"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
-      <c r="B31" s="262"/>
-      <c r="C31" s="263"/>
-      <c r="D31" s="264"/>
-      <c r="E31" s="254"/>
-      <c r="F31" s="254"/>
-      <c r="G31" s="254"/>
-      <c r="H31" s="254"/>
-      <c r="I31" s="254"/>
-      <c r="J31" s="255"/>
-      <c r="K31" s="256"/>
-      <c r="L31" s="257"/>
-      <c r="M31" s="276"/>
-      <c r="N31" s="266"/>
-      <c r="O31" s="266"/>
-      <c r="P31" s="266"/>
-      <c r="Q31" s="266"/>
-      <c r="R31" s="267"/>
-      <c r="S31" s="252"/>
-      <c r="T31" s="252"/>
-      <c r="U31" s="252"/>
-      <c r="V31" s="268"/>
-      <c r="W31" s="269"/>
-      <c r="X31" s="269"/>
-      <c r="Y31" s="269"/>
-      <c r="Z31" s="269"/>
-      <c r="AA31" s="269"/>
-      <c r="AB31" s="269"/>
-      <c r="AC31" s="269"/>
-      <c r="AD31" s="269"/>
-      <c r="AE31" s="269"/>
-      <c r="AF31" s="269"/>
-      <c r="AG31" s="269"/>
-      <c r="AH31" s="269"/>
-      <c r="AI31" s="269"/>
-      <c r="AJ31" s="269"/>
-      <c r="AK31" s="269"/>
-      <c r="AL31" s="269"/>
-      <c r="AM31" s="270"/>
-      <c r="AN31" s="271"/>
-      <c r="AO31" s="272"/>
-      <c r="AP31" s="272"/>
-      <c r="AQ31" s="272"/>
-      <c r="AR31" s="273"/>
-      <c r="AS31" s="271"/>
-      <c r="AT31" s="272"/>
-      <c r="AU31" s="272"/>
-      <c r="AV31" s="272"/>
-      <c r="AW31" s="273"/>
+      <c r="B31" s="246"/>
+      <c r="C31" s="247"/>
+      <c r="D31" s="248"/>
+      <c r="E31" s="249"/>
+      <c r="F31" s="249"/>
+      <c r="G31" s="249"/>
+      <c r="H31" s="249"/>
+      <c r="I31" s="249"/>
+      <c r="J31" s="250"/>
+      <c r="K31" s="251"/>
+      <c r="L31" s="252"/>
+      <c r="M31" s="260"/>
+      <c r="N31" s="261"/>
+      <c r="O31" s="261"/>
+      <c r="P31" s="261"/>
+      <c r="Q31" s="261"/>
+      <c r="R31" s="262"/>
+      <c r="S31" s="256"/>
+      <c r="T31" s="256"/>
+      <c r="U31" s="256"/>
+      <c r="V31" s="257"/>
+      <c r="W31" s="258"/>
+      <c r="X31" s="258"/>
+      <c r="Y31" s="258"/>
+      <c r="Z31" s="258"/>
+      <c r="AA31" s="258"/>
+      <c r="AB31" s="258"/>
+      <c r="AC31" s="258"/>
+      <c r="AD31" s="258"/>
+      <c r="AE31" s="258"/>
+      <c r="AF31" s="258"/>
+      <c r="AG31" s="258"/>
+      <c r="AH31" s="258"/>
+      <c r="AI31" s="258"/>
+      <c r="AJ31" s="258"/>
+      <c r="AK31" s="258"/>
+      <c r="AL31" s="258"/>
+      <c r="AM31" s="259"/>
+      <c r="AN31" s="243"/>
+      <c r="AO31" s="244"/>
+      <c r="AP31" s="244"/>
+      <c r="AQ31" s="244"/>
+      <c r="AR31" s="245"/>
+      <c r="AS31" s="243"/>
+      <c r="AT31" s="244"/>
+      <c r="AU31" s="244"/>
+      <c r="AV31" s="244"/>
+      <c r="AW31" s="245"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
-      <c r="B32" s="262"/>
-      <c r="C32" s="263"/>
-      <c r="D32" s="264"/>
-      <c r="E32" s="254"/>
-      <c r="F32" s="254"/>
-      <c r="G32" s="254"/>
-      <c r="H32" s="254"/>
-      <c r="I32" s="254"/>
-      <c r="J32" s="255"/>
-      <c r="K32" s="256"/>
-      <c r="L32" s="257"/>
-      <c r="M32" s="276"/>
-      <c r="N32" s="266"/>
-      <c r="O32" s="266"/>
-      <c r="P32" s="266"/>
-      <c r="Q32" s="266"/>
-      <c r="R32" s="267"/>
-      <c r="S32" s="252"/>
-      <c r="T32" s="252"/>
-      <c r="U32" s="252"/>
-      <c r="V32" s="268"/>
-      <c r="W32" s="269"/>
-      <c r="X32" s="269"/>
-      <c r="Y32" s="269"/>
-      <c r="Z32" s="269"/>
-      <c r="AA32" s="269"/>
-      <c r="AB32" s="269"/>
-      <c r="AC32" s="269"/>
-      <c r="AD32" s="269"/>
-      <c r="AE32" s="269"/>
-      <c r="AF32" s="269"/>
-      <c r="AG32" s="269"/>
-      <c r="AH32" s="269"/>
-      <c r="AI32" s="269"/>
-      <c r="AJ32" s="269"/>
-      <c r="AK32" s="269"/>
-      <c r="AL32" s="269"/>
-      <c r="AM32" s="270"/>
-      <c r="AN32" s="271"/>
-      <c r="AO32" s="272"/>
-      <c r="AP32" s="272"/>
-      <c r="AQ32" s="272"/>
-      <c r="AR32" s="273"/>
-      <c r="AS32" s="271"/>
-      <c r="AT32" s="272"/>
-      <c r="AU32" s="272"/>
-      <c r="AV32" s="272"/>
-      <c r="AW32" s="273"/>
+      <c r="B32" s="246"/>
+      <c r="C32" s="247"/>
+      <c r="D32" s="248"/>
+      <c r="E32" s="249"/>
+      <c r="F32" s="249"/>
+      <c r="G32" s="249"/>
+      <c r="H32" s="249"/>
+      <c r="I32" s="249"/>
+      <c r="J32" s="250"/>
+      <c r="K32" s="251"/>
+      <c r="L32" s="252"/>
+      <c r="M32" s="260"/>
+      <c r="N32" s="261"/>
+      <c r="O32" s="261"/>
+      <c r="P32" s="261"/>
+      <c r="Q32" s="261"/>
+      <c r="R32" s="262"/>
+      <c r="S32" s="256"/>
+      <c r="T32" s="256"/>
+      <c r="U32" s="256"/>
+      <c r="V32" s="257"/>
+      <c r="W32" s="258"/>
+      <c r="X32" s="258"/>
+      <c r="Y32" s="258"/>
+      <c r="Z32" s="258"/>
+      <c r="AA32" s="258"/>
+      <c r="AB32" s="258"/>
+      <c r="AC32" s="258"/>
+      <c r="AD32" s="258"/>
+      <c r="AE32" s="258"/>
+      <c r="AF32" s="258"/>
+      <c r="AG32" s="258"/>
+      <c r="AH32" s="258"/>
+      <c r="AI32" s="258"/>
+      <c r="AJ32" s="258"/>
+      <c r="AK32" s="258"/>
+      <c r="AL32" s="258"/>
+      <c r="AM32" s="259"/>
+      <c r="AN32" s="243"/>
+      <c r="AO32" s="244"/>
+      <c r="AP32" s="244"/>
+      <c r="AQ32" s="244"/>
+      <c r="AR32" s="245"/>
+      <c r="AS32" s="243"/>
+      <c r="AT32" s="244"/>
+      <c r="AU32" s="244"/>
+      <c r="AV32" s="244"/>
+      <c r="AW32" s="245"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="262"/>
-      <c r="C33" s="263"/>
-      <c r="D33" s="264"/>
-      <c r="E33" s="254"/>
-      <c r="F33" s="254"/>
-      <c r="G33" s="254"/>
-      <c r="H33" s="254"/>
-      <c r="I33" s="254"/>
-      <c r="J33" s="255"/>
-      <c r="K33" s="256"/>
-      <c r="L33" s="257"/>
-      <c r="M33" s="276"/>
-      <c r="N33" s="266"/>
-      <c r="O33" s="266"/>
-      <c r="P33" s="266"/>
-      <c r="Q33" s="266"/>
-      <c r="R33" s="267"/>
-      <c r="S33" s="252"/>
-      <c r="T33" s="252"/>
-      <c r="U33" s="252"/>
-      <c r="V33" s="268"/>
-      <c r="W33" s="269"/>
-      <c r="X33" s="269"/>
-      <c r="Y33" s="269"/>
-      <c r="Z33" s="269"/>
-      <c r="AA33" s="269"/>
-      <c r="AB33" s="269"/>
-      <c r="AC33" s="269"/>
-      <c r="AD33" s="269"/>
-      <c r="AE33" s="269"/>
-      <c r="AF33" s="269"/>
-      <c r="AG33" s="269"/>
-      <c r="AH33" s="269"/>
-      <c r="AI33" s="269"/>
-      <c r="AJ33" s="269"/>
-      <c r="AK33" s="269"/>
-      <c r="AL33" s="269"/>
-      <c r="AM33" s="270"/>
-      <c r="AN33" s="271"/>
-      <c r="AO33" s="272"/>
-      <c r="AP33" s="272"/>
-      <c r="AQ33" s="272"/>
-      <c r="AR33" s="273"/>
-      <c r="AS33" s="271"/>
-      <c r="AT33" s="272"/>
-      <c r="AU33" s="272"/>
-      <c r="AV33" s="272"/>
-      <c r="AW33" s="273"/>
+      <c r="B33" s="246"/>
+      <c r="C33" s="247"/>
+      <c r="D33" s="248"/>
+      <c r="E33" s="249"/>
+      <c r="F33" s="249"/>
+      <c r="G33" s="249"/>
+      <c r="H33" s="249"/>
+      <c r="I33" s="249"/>
+      <c r="J33" s="250"/>
+      <c r="K33" s="251"/>
+      <c r="L33" s="252"/>
+      <c r="M33" s="260"/>
+      <c r="N33" s="261"/>
+      <c r="O33" s="261"/>
+      <c r="P33" s="261"/>
+      <c r="Q33" s="261"/>
+      <c r="R33" s="262"/>
+      <c r="S33" s="256"/>
+      <c r="T33" s="256"/>
+      <c r="U33" s="256"/>
+      <c r="V33" s="257"/>
+      <c r="W33" s="258"/>
+      <c r="X33" s="258"/>
+      <c r="Y33" s="258"/>
+      <c r="Z33" s="258"/>
+      <c r="AA33" s="258"/>
+      <c r="AB33" s="258"/>
+      <c r="AC33" s="258"/>
+      <c r="AD33" s="258"/>
+      <c r="AE33" s="258"/>
+      <c r="AF33" s="258"/>
+      <c r="AG33" s="258"/>
+      <c r="AH33" s="258"/>
+      <c r="AI33" s="258"/>
+      <c r="AJ33" s="258"/>
+      <c r="AK33" s="258"/>
+      <c r="AL33" s="258"/>
+      <c r="AM33" s="259"/>
+      <c r="AN33" s="243"/>
+      <c r="AO33" s="244"/>
+      <c r="AP33" s="244"/>
+      <c r="AQ33" s="244"/>
+      <c r="AR33" s="245"/>
+      <c r="AS33" s="243"/>
+      <c r="AT33" s="244"/>
+      <c r="AU33" s="244"/>
+      <c r="AV33" s="244"/>
+      <c r="AW33" s="245"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="262"/>
-      <c r="C34" s="263"/>
-      <c r="D34" s="264"/>
-      <c r="E34" s="254"/>
-      <c r="F34" s="254"/>
-      <c r="G34" s="254"/>
-      <c r="H34" s="254"/>
-      <c r="I34" s="254"/>
-      <c r="J34" s="255"/>
-      <c r="K34" s="256"/>
-      <c r="L34" s="257"/>
-      <c r="M34" s="280"/>
-      <c r="N34" s="281"/>
-      <c r="O34" s="281"/>
-      <c r="P34" s="281"/>
-      <c r="Q34" s="281"/>
-      <c r="R34" s="282"/>
-      <c r="S34" s="252"/>
-      <c r="T34" s="252"/>
-      <c r="U34" s="252"/>
-      <c r="V34" s="268"/>
-      <c r="W34" s="269"/>
-      <c r="X34" s="269"/>
-      <c r="Y34" s="269"/>
-      <c r="Z34" s="269"/>
-      <c r="AA34" s="269"/>
-      <c r="AB34" s="269"/>
-      <c r="AC34" s="269"/>
-      <c r="AD34" s="269"/>
-      <c r="AE34" s="269"/>
-      <c r="AF34" s="269"/>
-      <c r="AG34" s="269"/>
-      <c r="AH34" s="269"/>
-      <c r="AI34" s="269"/>
-      <c r="AJ34" s="269"/>
-      <c r="AK34" s="269"/>
-      <c r="AL34" s="269"/>
-      <c r="AM34" s="270"/>
-      <c r="AN34" s="271"/>
-      <c r="AO34" s="272"/>
-      <c r="AP34" s="272"/>
-      <c r="AQ34" s="272"/>
-      <c r="AR34" s="273"/>
-      <c r="AS34" s="271"/>
-      <c r="AT34" s="272"/>
-      <c r="AU34" s="272"/>
-      <c r="AV34" s="272"/>
-      <c r="AW34" s="273"/>
+      <c r="B34" s="246"/>
+      <c r="C34" s="247"/>
+      <c r="D34" s="248"/>
+      <c r="E34" s="249"/>
+      <c r="F34" s="249"/>
+      <c r="G34" s="249"/>
+      <c r="H34" s="249"/>
+      <c r="I34" s="249"/>
+      <c r="J34" s="250"/>
+      <c r="K34" s="251"/>
+      <c r="L34" s="252"/>
+      <c r="M34" s="253"/>
+      <c r="N34" s="254"/>
+      <c r="O34" s="254"/>
+      <c r="P34" s="254"/>
+      <c r="Q34" s="254"/>
+      <c r="R34" s="255"/>
+      <c r="S34" s="256"/>
+      <c r="T34" s="256"/>
+      <c r="U34" s="256"/>
+      <c r="V34" s="257"/>
+      <c r="W34" s="258"/>
+      <c r="X34" s="258"/>
+      <c r="Y34" s="258"/>
+      <c r="Z34" s="258"/>
+      <c r="AA34" s="258"/>
+      <c r="AB34" s="258"/>
+      <c r="AC34" s="258"/>
+      <c r="AD34" s="258"/>
+      <c r="AE34" s="258"/>
+      <c r="AF34" s="258"/>
+      <c r="AG34" s="258"/>
+      <c r="AH34" s="258"/>
+      <c r="AI34" s="258"/>
+      <c r="AJ34" s="258"/>
+      <c r="AK34" s="258"/>
+      <c r="AL34" s="258"/>
+      <c r="AM34" s="259"/>
+      <c r="AN34" s="243"/>
+      <c r="AO34" s="244"/>
+      <c r="AP34" s="244"/>
+      <c r="AQ34" s="244"/>
+      <c r="AR34" s="245"/>
+      <c r="AS34" s="243"/>
+      <c r="AT34" s="244"/>
+      <c r="AU34" s="244"/>
+      <c r="AV34" s="244"/>
+      <c r="AW34" s="245"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -8849,239 +9069,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9213,7 +9200,7 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="39"/>
       <c r="R2" s="103" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="S2" s="104"/>
       <c r="T2" s="104"/>
@@ -9241,11 +9228,11 @@
       <c r="AL2" s="35"/>
       <c r="AM2" s="35"/>
       <c r="AN2" s="36"/>
-      <c r="AO2" s="283"/>
-      <c r="AP2" s="284"/>
-      <c r="AQ2" s="284"/>
-      <c r="AR2" s="284"/>
-      <c r="AS2" s="285"/>
+      <c r="AO2" s="287"/>
+      <c r="AP2" s="288"/>
+      <c r="AQ2" s="288"/>
+      <c r="AR2" s="288"/>
+      <c r="AS2" s="289"/>
       <c r="AT2" s="34" t="s">
         <v>26</v>
       </c>
@@ -9254,14 +9241,14 @@
       <c r="AW2" s="35"/>
       <c r="AX2" s="35"/>
       <c r="AY2" s="36"/>
-      <c r="AZ2" s="286"/>
-      <c r="BA2" s="287"/>
-      <c r="BB2" s="287"/>
-      <c r="BC2" s="287"/>
-      <c r="BD2" s="287"/>
-      <c r="BE2" s="287"/>
-      <c r="BF2" s="287"/>
-      <c r="BG2" s="288"/>
+      <c r="AZ2" s="290"/>
+      <c r="BA2" s="291"/>
+      <c r="BB2" s="291"/>
+      <c r="BC2" s="291"/>
+      <c r="BD2" s="291"/>
+      <c r="BE2" s="291"/>
+      <c r="BF2" s="291"/>
+      <c r="BG2" s="292"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="33"/>
@@ -11010,10 +10997,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="29"/>
-      <c r="B50" s="289" t="s">
+      <c r="B50" s="293" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="290"/>
+      <c r="C50" s="294"/>
       <c r="D50" s="85" t="s">
         <v>90</v>
       </c>
@@ -11096,10 +11083,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="29"/>
-      <c r="B51" s="291">
+      <c r="B51" s="283">
         <v>1</v>
       </c>
-      <c r="C51" s="292"/>
+      <c r="C51" s="284"/>
       <c r="D51" s="106" t="s">
         <v>109</v>
       </c>
@@ -11110,7 +11097,7 @@
       <c r="I51" s="84"/>
       <c r="J51" s="107"/>
       <c r="K51" s="106" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="L51" s="84"/>
       <c r="M51" s="84"/>
@@ -11174,10 +11161,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="29"/>
-      <c r="B52" s="291">
+      <c r="B52" s="283">
         <v>2</v>
       </c>
-      <c r="C52" s="292"/>
+      <c r="C52" s="284"/>
       <c r="D52" s="106" t="s">
         <v>110</v>
       </c>
@@ -11188,7 +11175,7 @@
       <c r="I52" s="84"/>
       <c r="J52" s="107"/>
       <c r="K52" s="236" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L52" s="237"/>
       <c r="M52" s="237"/>
@@ -11209,18 +11196,18 @@
       <c r="AB52" s="237"/>
       <c r="AC52" s="237"/>
       <c r="AD52" s="238"/>
-      <c r="AE52" s="293" t="s">
+      <c r="AE52" s="285" t="s">
         <v>99</v>
       </c>
-      <c r="AF52" s="294"/>
-      <c r="AG52" s="293"/>
-      <c r="AH52" s="294"/>
-      <c r="AI52" s="293"/>
-      <c r="AJ52" s="294"/>
-      <c r="AK52" s="293"/>
-      <c r="AL52" s="294"/>
+      <c r="AF52" s="286"/>
+      <c r="AG52" s="285"/>
+      <c r="AH52" s="286"/>
+      <c r="AI52" s="285"/>
+      <c r="AJ52" s="286"/>
+      <c r="AK52" s="285"/>
+      <c r="AL52" s="286"/>
       <c r="AM52" s="239" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AN52" s="82"/>
       <c r="AO52" s="82"/>
@@ -11252,10 +11239,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="29"/>
-      <c r="B53" s="291">
+      <c r="B53" s="283">
         <v>3</v>
       </c>
-      <c r="C53" s="292"/>
+      <c r="C53" s="284"/>
       <c r="D53" s="106" t="s">
         <v>110</v>
       </c>
@@ -11266,7 +11253,7 @@
       <c r="I53" s="84"/>
       <c r="J53" s="107"/>
       <c r="K53" s="236" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L53" s="237"/>
       <c r="M53" s="237"/>
@@ -11287,18 +11274,18 @@
       <c r="AB53" s="237"/>
       <c r="AC53" s="237"/>
       <c r="AD53" s="238"/>
-      <c r="AE53" s="293" t="s">
+      <c r="AE53" s="285" t="s">
         <v>99</v>
       </c>
-      <c r="AF53" s="294"/>
-      <c r="AG53" s="293"/>
-      <c r="AH53" s="294"/>
-      <c r="AI53" s="293"/>
-      <c r="AJ53" s="294"/>
-      <c r="AK53" s="293"/>
-      <c r="AL53" s="294"/>
+      <c r="AF53" s="286"/>
+      <c r="AG53" s="285"/>
+      <c r="AH53" s="286"/>
+      <c r="AI53" s="285"/>
+      <c r="AJ53" s="286"/>
+      <c r="AK53" s="285"/>
+      <c r="AL53" s="286"/>
       <c r="AM53" s="239" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AN53" s="82"/>
       <c r="AO53" s="82"/>
@@ -11330,10 +11317,10 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="29"/>
-      <c r="B54" s="291">
+      <c r="B54" s="283">
         <v>4</v>
       </c>
-      <c r="C54" s="292"/>
+      <c r="C54" s="284"/>
       <c r="D54" s="106" t="s">
         <v>110</v>
       </c>
@@ -11344,7 +11331,7 @@
       <c r="I54" s="84"/>
       <c r="J54" s="107"/>
       <c r="K54" s="236" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="L54" s="237"/>
       <c r="M54" s="237"/>
@@ -11365,18 +11352,18 @@
       <c r="AB54" s="237"/>
       <c r="AC54" s="237"/>
       <c r="AD54" s="238"/>
-      <c r="AE54" s="293" t="s">
+      <c r="AE54" s="285" t="s">
         <v>99</v>
       </c>
-      <c r="AF54" s="294"/>
-      <c r="AG54" s="293"/>
-      <c r="AH54" s="294"/>
-      <c r="AI54" s="293"/>
-      <c r="AJ54" s="294"/>
-      <c r="AK54" s="293"/>
-      <c r="AL54" s="294"/>
+      <c r="AF54" s="286"/>
+      <c r="AG54" s="285"/>
+      <c r="AH54" s="286"/>
+      <c r="AI54" s="285"/>
+      <c r="AJ54" s="286"/>
+      <c r="AK54" s="285"/>
+      <c r="AL54" s="286"/>
       <c r="AM54" s="239" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AN54" s="82"/>
       <c r="AO54" s="82"/>
@@ -11408,10 +11395,10 @@
     </row>
     <row r="55" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A55" s="29"/>
-      <c r="B55" s="291">
+      <c r="B55" s="283">
         <v>5</v>
       </c>
-      <c r="C55" s="292"/>
+      <c r="C55" s="284"/>
       <c r="D55" s="106" t="s">
         <v>110</v>
       </c>
@@ -11422,7 +11409,7 @@
       <c r="I55" s="84"/>
       <c r="J55" s="107"/>
       <c r="K55" s="236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L55" s="237"/>
       <c r="M55" s="237"/>
@@ -11443,18 +11430,18 @@
       <c r="AB55" s="237"/>
       <c r="AC55" s="237"/>
       <c r="AD55" s="238"/>
-      <c r="AE55" s="293" t="s">
+      <c r="AE55" s="285" t="s">
         <v>99</v>
       </c>
-      <c r="AF55" s="294"/>
-      <c r="AG55" s="293"/>
-      <c r="AH55" s="294"/>
-      <c r="AI55" s="293"/>
-      <c r="AJ55" s="294"/>
-      <c r="AK55" s="293"/>
-      <c r="AL55" s="294"/>
+      <c r="AF55" s="286"/>
+      <c r="AG55" s="285"/>
+      <c r="AH55" s="286"/>
+      <c r="AI55" s="285"/>
+      <c r="AJ55" s="286"/>
+      <c r="AK55" s="285"/>
+      <c r="AL55" s="286"/>
       <c r="AM55" s="239" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AN55" s="82"/>
       <c r="AO55" s="82"/>
@@ -11491,18 +11478,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="B50:C50"/>
@@ -11519,6 +11494,18 @@
     <mergeCell ref="AI51:AJ51"/>
     <mergeCell ref="AK51:AL51"/>
     <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11664,7 +11651,7 @@
       <c r="CR1" s="35"/>
       <c r="CS1" s="35"/>
       <c r="CT1" s="36"/>
-      <c r="CU1" s="286" t="str">
+      <c r="CU1" s="290" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -11795,7 +11782,7 @@
       <c r="CR2" s="35"/>
       <c r="CS2" s="35"/>
       <c r="CT2" s="36"/>
-      <c r="CU2" s="286"/>
+      <c r="CU2" s="290"/>
       <c r="CV2" s="297"/>
       <c r="CW2" s="297"/>
       <c r="CX2" s="297"/>
@@ -12012,22 +11999,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="245" t="s">
+      <c r="C6" s="276" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="245" t="s">
+      <c r="D6" s="276" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="245" t="s">
+      <c r="E6" s="276" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="245" t="s">
+      <c r="F6" s="276" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="245" t="s">
+      <c r="G6" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="245" t="s">
+      <c r="H6" s="276" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="306" t="s">
@@ -12036,13 +12023,13 @@
       <c r="J6" s="306" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="245" t="s">
+      <c r="K6" s="276" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="245" t="s">
+      <c r="L6" s="276" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="245" t="s">
+      <c r="M6" s="276" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="73" t="s">
@@ -12057,17 +12044,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="245"/>
-      <c r="D7" s="245"/>
-      <c r="E7" s="245"/>
-      <c r="F7" s="245"/>
-      <c r="G7" s="245"/>
-      <c r="H7" s="245"/>
+      <c r="C7" s="276"/>
+      <c r="D7" s="276"/>
+      <c r="E7" s="276"/>
+      <c r="F7" s="276"/>
+      <c r="G7" s="276"/>
+      <c r="H7" s="276"/>
       <c r="I7" s="306"/>
       <c r="J7" s="306"/>
-      <c r="K7" s="245"/>
-      <c r="L7" s="245"/>
-      <c r="M7" s="245"/>
+      <c r="K7" s="276"/>
+      <c r="L7" s="276"/>
+      <c r="M7" s="276"/>
       <c r="N7" s="43" t="s">
         <v>74</v>
       </c>
@@ -12186,22 +12173,22 @@
     <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
-      <c r="C12" s="245" t="s">
+      <c r="C12" s="276" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="245" t="s">
+      <c r="D12" s="276" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="245" t="s">
+      <c r="E12" s="276" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="245" t="s">
+      <c r="F12" s="276" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="245" t="s">
+      <c r="G12" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="245" t="s">
+      <c r="H12" s="276" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="307" t="s">
@@ -12210,13 +12197,13 @@
       <c r="J12" s="306" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="245" t="s">
+      <c r="K12" s="276" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="245" t="s">
+      <c r="L12" s="276" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="245" t="s">
+      <c r="M12" s="276" t="s">
         <v>33</v>
       </c>
       <c r="N12" s="73" t="s">
@@ -12231,17 +12218,17 @@
     <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="245"/>
-      <c r="D13" s="245"/>
-      <c r="E13" s="245"/>
-      <c r="F13" s="245"/>
-      <c r="G13" s="245"/>
-      <c r="H13" s="245"/>
+      <c r="C13" s="276"/>
+      <c r="D13" s="276"/>
+      <c r="E13" s="276"/>
+      <c r="F13" s="276"/>
+      <c r="G13" s="276"/>
+      <c r="H13" s="276"/>
       <c r="I13" s="308"/>
       <c r="J13" s="306"/>
-      <c r="K13" s="245"/>
-      <c r="L13" s="245"/>
-      <c r="M13" s="245"/>
+      <c r="K13" s="276"/>
+      <c r="L13" s="276"/>
+      <c r="M13" s="276"/>
       <c r="N13" s="43" t="s">
         <v>74</v>
       </c>
@@ -12310,10 +12297,10 @@
         <v>105</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>406</v>
+        <v>447</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>407</v>
+        <v>448</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>134</v>
@@ -12343,7 +12330,7 @@
         <v>34</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="Q15" s="8"/>
     </row>
@@ -12504,22 +12491,22 @@
     </row>
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="110"/>
-      <c r="C22" s="245" t="s">
+      <c r="C22" s="276" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="245" t="s">
+      <c r="D22" s="276" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="245" t="s">
+      <c r="E22" s="276" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="245" t="s">
+      <c r="F22" s="276" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="245" t="s">
+      <c r="G22" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="245" t="s">
+      <c r="H22" s="276" t="s">
         <v>29</v>
       </c>
       <c r="I22" s="306" t="s">
@@ -12528,13 +12515,13 @@
       <c r="J22" s="306" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="245" t="s">
+      <c r="K22" s="276" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="245" t="s">
+      <c r="L22" s="276" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="245" t="s">
+      <c r="M22" s="276" t="s">
         <v>33</v>
       </c>
       <c r="N22" s="73" t="s">
@@ -12548,17 +12535,17 @@
     </row>
     <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B23" s="110"/>
-      <c r="C23" s="245"/>
-      <c r="D23" s="245"/>
-      <c r="E23" s="245"/>
-      <c r="F23" s="245"/>
-      <c r="G23" s="245"/>
-      <c r="H23" s="245"/>
+      <c r="C23" s="276"/>
+      <c r="D23" s="276"/>
+      <c r="E23" s="276"/>
+      <c r="F23" s="276"/>
+      <c r="G23" s="276"/>
+      <c r="H23" s="276"/>
       <c r="I23" s="306"/>
       <c r="J23" s="306"/>
-      <c r="K23" s="245"/>
-      <c r="L23" s="245"/>
-      <c r="M23" s="245"/>
+      <c r="K23" s="276"/>
+      <c r="L23" s="276"/>
+      <c r="M23" s="276"/>
       <c r="N23" s="108" t="s">
         <v>74</v>
       </c>
@@ -12878,22 +12865,22 @@
     </row>
     <row r="32" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="110"/>
-      <c r="C32" s="245" t="s">
+      <c r="C32" s="276" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="245" t="s">
+      <c r="D32" s="276" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="245" t="s">
+      <c r="E32" s="276" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="245" t="s">
+      <c r="F32" s="276" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="245" t="s">
+      <c r="G32" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="245" t="s">
+      <c r="H32" s="276" t="s">
         <v>29</v>
       </c>
       <c r="I32" s="306" t="s">
@@ -12902,13 +12889,13 @@
       <c r="J32" s="306" t="s">
         <v>46</v>
       </c>
-      <c r="K32" s="245" t="s">
+      <c r="K32" s="276" t="s">
         <v>31</v>
       </c>
-      <c r="L32" s="245" t="s">
+      <c r="L32" s="276" t="s">
         <v>30</v>
       </c>
-      <c r="M32" s="245" t="s">
+      <c r="M32" s="276" t="s">
         <v>33</v>
       </c>
       <c r="N32" s="73" t="s">
@@ -12922,17 +12909,17 @@
     </row>
     <row r="33" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B33" s="110"/>
-      <c r="C33" s="245"/>
-      <c r="D33" s="245"/>
-      <c r="E33" s="245"/>
-      <c r="F33" s="245"/>
-      <c r="G33" s="245"/>
-      <c r="H33" s="245"/>
+      <c r="C33" s="276"/>
+      <c r="D33" s="276"/>
+      <c r="E33" s="276"/>
+      <c r="F33" s="276"/>
+      <c r="G33" s="276"/>
+      <c r="H33" s="276"/>
       <c r="I33" s="306"/>
       <c r="J33" s="306"/>
-      <c r="K33" s="245"/>
-      <c r="L33" s="245"/>
-      <c r="M33" s="245"/>
+      <c r="K33" s="276"/>
+      <c r="L33" s="276"/>
+      <c r="M33" s="276"/>
       <c r="N33" s="112" t="s">
         <v>74</v>
       </c>
@@ -13117,28 +13104,24 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="C12:C13"/>
@@ -13147,24 +13130,28 @@
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -13234,7 +13221,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="283">
+      <c r="AI1" s="287">
         <f>変更履歴!E5</f>
         <v>43717</v>
       </c>
@@ -13250,7 +13237,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="286" t="str">
+      <c r="AT1" s="290" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -13321,7 +13308,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="286"/>
+      <c r="AT2" s="290"/>
       <c r="AU2" s="297"/>
       <c r="AV2" s="297"/>
       <c r="AW2" s="297"/>
@@ -15269,7 +15256,7 @@
       <c r="G43" s="75"/>
       <c r="K43" s="76"/>
       <c r="N43" s="17" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AV43" s="76"/>
     </row>
@@ -15365,13 +15352,13 @@
       <c r="G47" s="234"/>
       <c r="K47" s="235"/>
       <c r="N47" s="231" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AA47" s="231" t="s">
         <v>122</v>
       </c>
       <c r="AB47" s="231" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AV47" s="235"/>
     </row>
@@ -15389,7 +15376,7 @@
       <c r="L48" s="24"/>
       <c r="M48" s="24"/>
       <c r="N48" s="78" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="O48" s="24"/>
       <c r="P48" s="24"/>
@@ -15407,7 +15394,7 @@
         <v>37</v>
       </c>
       <c r="AB48" s="111" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC48" s="24"/>
       <c r="AD48" s="24"/>
@@ -15444,7 +15431,7 @@
       <c r="L49" s="24"/>
       <c r="M49" s="24"/>
       <c r="N49" s="78" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="O49" s="24"/>
       <c r="P49" s="24"/>
@@ -15462,7 +15449,7 @@
         <v>37</v>
       </c>
       <c r="AB49" s="111" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AC49" s="24"/>
       <c r="AD49" s="24"/>
@@ -15499,7 +15486,7 @@
       <c r="L50" s="24"/>
       <c r="M50" s="24"/>
       <c r="N50" s="78" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="O50" s="24"/>
       <c r="P50" s="24"/>
@@ -15517,7 +15504,7 @@
         <v>37</v>
       </c>
       <c r="AB50" s="111" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AC50" s="24"/>
       <c r="AD50" s="24"/>
@@ -15554,7 +15541,7 @@
       <c r="L51" s="24"/>
       <c r="M51" s="24"/>
       <c r="N51" s="78" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="O51" s="24"/>
       <c r="P51" s="24"/>
@@ -15572,7 +15559,7 @@
         <v>37</v>
       </c>
       <c r="AB51" s="111" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AC51" s="24"/>
       <c r="AD51" s="24"/>
@@ -15609,7 +15596,7 @@
       <c r="L52" s="24"/>
       <c r="M52" s="24"/>
       <c r="N52" s="78" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O52" s="24"/>
       <c r="P52" s="24"/>
@@ -15627,7 +15614,7 @@
         <v>37</v>
       </c>
       <c r="AB52" s="111" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AC52" s="24"/>
       <c r="AD52" s="24"/>
@@ -15664,7 +15651,7 @@
       <c r="L53" s="24"/>
       <c r="M53" s="24"/>
       <c r="N53" s="78" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="O53" s="24"/>
       <c r="P53" s="24"/>
@@ -15682,7 +15669,7 @@
         <v>37</v>
       </c>
       <c r="AB53" s="111" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AC53" s="24"/>
       <c r="AD53" s="24"/>
@@ -16414,7 +16401,7 @@
         <v>37</v>
       </c>
       <c r="AB67" s="222" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AC67" s="24"/>
       <c r="AD67" s="24"/>
@@ -17247,7 +17234,7 @@
         <v>37</v>
       </c>
       <c r="AB86" s="222" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AC86" s="24"/>
       <c r="AD86" s="24"/>
@@ -17801,7 +17788,7 @@
       <c r="L100" s="24"/>
       <c r="M100" s="24"/>
       <c r="N100" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="O100" s="24"/>
       <c r="P100" s="24"/>
@@ -18005,7 +17992,7 @@
       <c r="L104" s="24"/>
       <c r="M104" s="24"/>
       <c r="N104" s="24" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O104" s="24"/>
       <c r="P104" s="24"/>
@@ -18057,7 +18044,7 @@
       <c r="M105" s="24"/>
       <c r="N105" s="24"/>
       <c r="O105" s="24" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="P105" s="24"/>
       <c r="Q105" s="24"/>
@@ -18074,7 +18061,7 @@
         <v>122</v>
       </c>
       <c r="AB105" s="24" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AC105" s="24"/>
       <c r="AD105" s="24"/>
@@ -18129,7 +18116,7 @@
         <v>122</v>
       </c>
       <c r="AB106" s="24" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AC106" s="24"/>
       <c r="AD106" s="24"/>
@@ -18292,7 +18279,7 @@
         <v>37</v>
       </c>
       <c r="AB109" s="222" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AC109" s="24"/>
       <c r="AD109" s="24"/>
@@ -18425,7 +18412,7 @@
       <c r="L114" s="24"/>
       <c r="M114" s="24"/>
       <c r="N114" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="O114" s="24"/>
       <c r="P114" s="24"/>
@@ -19327,7 +19314,7 @@
         <v>37</v>
       </c>
       <c r="AB132" s="222" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AC132" s="24"/>
       <c r="AD132" s="24"/>
@@ -19881,7 +19868,7 @@
       <c r="L146" s="24"/>
       <c r="M146" s="24"/>
       <c r="N146" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="O146" s="24"/>
       <c r="P146" s="24"/>
@@ -20085,7 +20072,7 @@
       <c r="L150" s="24"/>
       <c r="M150" s="24"/>
       <c r="N150" s="24" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O150" s="24"/>
       <c r="P150" s="24"/>
@@ -20137,7 +20124,7 @@
       <c r="M151" s="24"/>
       <c r="N151" s="24"/>
       <c r="O151" s="24" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="P151" s="24"/>
       <c r="Q151" s="24"/>
@@ -20154,7 +20141,7 @@
         <v>122</v>
       </c>
       <c r="AB151" s="24" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AC151" s="24"/>
       <c r="AD151" s="24"/>
@@ -20209,7 +20196,7 @@
         <v>122</v>
       </c>
       <c r="AB152" s="24" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AC152" s="24"/>
       <c r="AD152" s="24"/>
@@ -20372,7 +20359,7 @@
         <v>37</v>
       </c>
       <c r="AB155" s="222" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AC155" s="24"/>
       <c r="AD155" s="24"/>
@@ -20505,7 +20492,7 @@
       <c r="L160" s="24"/>
       <c r="M160" s="24"/>
       <c r="N160" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="O160" s="24"/>
       <c r="P160" s="24"/>
@@ -21416,13 +21403,13 @@
       <c r="G180" s="234"/>
       <c r="K180" s="235"/>
       <c r="N180" s="231" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AA180" s="231" t="s">
         <v>122</v>
       </c>
       <c r="AB180" s="231" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AV180" s="235"/>
     </row>
@@ -21440,7 +21427,7 @@
       <c r="L181" s="24"/>
       <c r="M181" s="24"/>
       <c r="N181" s="78" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="O181" s="24"/>
       <c r="P181" s="24"/>
@@ -21458,7 +21445,7 @@
         <v>37</v>
       </c>
       <c r="AB181" s="111" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC181" s="24"/>
       <c r="AD181" s="24"/>
@@ -21495,7 +21482,7 @@
       <c r="L182" s="24"/>
       <c r="M182" s="24"/>
       <c r="N182" s="78" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="O182" s="24"/>
       <c r="P182" s="24"/>
@@ -21513,7 +21500,7 @@
         <v>37</v>
       </c>
       <c r="AB182" s="111" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AC182" s="24"/>
       <c r="AD182" s="24"/>
@@ -21550,7 +21537,7 @@
       <c r="L183" s="24"/>
       <c r="M183" s="24"/>
       <c r="N183" s="78" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="O183" s="24"/>
       <c r="P183" s="24"/>
@@ -21568,7 +21555,7 @@
         <v>37</v>
       </c>
       <c r="AB183" s="111" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AC183" s="24"/>
       <c r="AD183" s="24"/>
@@ -21605,7 +21592,7 @@
       <c r="L184" s="24"/>
       <c r="M184" s="24"/>
       <c r="N184" s="78" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="O184" s="24"/>
       <c r="P184" s="24"/>
@@ -21623,7 +21610,7 @@
         <v>37</v>
       </c>
       <c r="AB184" s="111" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AC184" s="24"/>
       <c r="AD184" s="24"/>
@@ -21660,7 +21647,7 @@
       <c r="L185" s="24"/>
       <c r="M185" s="24"/>
       <c r="N185" s="78" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O185" s="24"/>
       <c r="P185" s="24"/>
@@ -21678,7 +21665,7 @@
         <v>37</v>
       </c>
       <c r="AB185" s="111" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AC185" s="24"/>
       <c r="AD185" s="24"/>
@@ -21715,7 +21702,7 @@
       <c r="L186" s="24"/>
       <c r="M186" s="24"/>
       <c r="N186" s="78" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="O186" s="24"/>
       <c r="P186" s="24"/>
@@ -21733,7 +21720,7 @@
         <v>37</v>
       </c>
       <c r="AB186" s="111" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AC186" s="24"/>
       <c r="AD186" s="24"/>
@@ -26889,7 +26876,7 @@
       <c r="L296" s="24"/>
       <c r="M296" s="24"/>
       <c r="N296" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="O296" s="24"/>
       <c r="P296" s="24"/>
@@ -27042,7 +27029,7 @@
       <c r="L299" s="24"/>
       <c r="M299" s="24"/>
       <c r="N299" s="24" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O299" s="24"/>
       <c r="P299" s="24"/>
@@ -27094,7 +27081,7 @@
       <c r="M300" s="24"/>
       <c r="N300" s="24"/>
       <c r="O300" s="24" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="P300" s="24"/>
       <c r="Q300" s="24"/>
@@ -27111,7 +27098,7 @@
         <v>122</v>
       </c>
       <c r="AB300" s="24" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AC300" s="24"/>
       <c r="AD300" s="24"/>
@@ -27166,7 +27153,7 @@
         <v>122</v>
       </c>
       <c r="AB301" s="24" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AC301" s="24"/>
       <c r="AD301" s="24"/>
@@ -27324,7 +27311,7 @@
       <c r="Y304" s="228"/>
       <c r="Z304" s="228"/>
       <c r="AA304" s="229" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AB304" s="230"/>
       <c r="AC304" s="228"/>
@@ -27455,7 +27442,7 @@
       <c r="L308" s="24"/>
       <c r="M308" s="24"/>
       <c r="N308" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="O308" s="24"/>
       <c r="P308" s="24"/>
@@ -27943,7 +27930,7 @@
       <c r="L318" s="24"/>
       <c r="M318" s="24"/>
       <c r="N318" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="O318" s="24"/>
       <c r="P318" s="24"/>
@@ -28096,7 +28083,7 @@
       <c r="L321" s="24"/>
       <c r="M321" s="24"/>
       <c r="N321" s="24" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O321" s="24"/>
       <c r="P321" s="24"/>
@@ -28165,7 +28152,7 @@
         <v>122</v>
       </c>
       <c r="AB322" s="24" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AC322" s="24"/>
       <c r="AD322" s="24"/>
@@ -28220,7 +28207,7 @@
         <v>122</v>
       </c>
       <c r="AB323" s="24" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AC323" s="24"/>
       <c r="AD323" s="24"/>
@@ -28511,7 +28498,7 @@
       <c r="L330" s="24"/>
       <c r="M330" s="24"/>
       <c r="N330" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="O330" s="24"/>
       <c r="P330" s="24"/>
@@ -28999,7 +28986,7 @@
       <c r="L340" s="24"/>
       <c r="M340" s="24"/>
       <c r="N340" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="O340" s="24"/>
       <c r="P340" s="24"/>
@@ -29152,7 +29139,7 @@
       <c r="L343" s="24"/>
       <c r="M343" s="24"/>
       <c r="N343" s="24" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O343" s="24"/>
       <c r="P343" s="24"/>
@@ -29221,7 +29208,7 @@
         <v>122</v>
       </c>
       <c r="AB344" s="24" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AC344" s="24"/>
       <c r="AD344" s="24"/>
@@ -29276,7 +29263,7 @@
         <v>122</v>
       </c>
       <c r="AB345" s="24" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AC345" s="24"/>
       <c r="AD345" s="24"/>
@@ -29512,7 +29499,7 @@
       <c r="L351" s="24"/>
       <c r="M351" s="24"/>
       <c r="N351" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="O351" s="24"/>
       <c r="P351" s="24"/>
@@ -30000,7 +29987,7 @@
       <c r="L361" s="24"/>
       <c r="M361" s="24"/>
       <c r="N361" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="O361" s="24"/>
       <c r="P361" s="24"/>
@@ -30153,7 +30140,7 @@
       <c r="L364" s="24"/>
       <c r="M364" s="24"/>
       <c r="N364" s="24" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O364" s="24"/>
       <c r="P364" s="24"/>
@@ -30222,7 +30209,7 @@
         <v>122</v>
       </c>
       <c r="AB365" s="24" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AC365" s="24"/>
       <c r="AD365" s="24"/>
@@ -30277,7 +30264,7 @@
         <v>122</v>
       </c>
       <c r="AB366" s="24" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AC366" s="24"/>
       <c r="AD366" s="24"/>
@@ -30513,7 +30500,7 @@
       <c r="L372" s="24"/>
       <c r="M372" s="24"/>
       <c r="N372" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="O372" s="24"/>
       <c r="P372" s="24"/>
@@ -31001,7 +30988,7 @@
       <c r="L382" s="24"/>
       <c r="M382" s="24"/>
       <c r="N382" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="O382" s="24"/>
       <c r="P382" s="24"/>
@@ -31154,7 +31141,7 @@
       <c r="L385" s="24"/>
       <c r="M385" s="24"/>
       <c r="N385" s="225" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O385" s="225"/>
       <c r="P385" s="225"/>
@@ -31223,7 +31210,7 @@
         <v>122</v>
       </c>
       <c r="AB386" s="225" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AC386" s="225"/>
       <c r="AD386" s="225"/>
@@ -31278,7 +31265,7 @@
         <v>122</v>
       </c>
       <c r="AB387" s="225" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AC387" s="225"/>
       <c r="AD387" s="225"/>
@@ -31514,7 +31501,7 @@
       <c r="L393" s="24"/>
       <c r="M393" s="24"/>
       <c r="N393" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="O393" s="24"/>
       <c r="P393" s="24"/>
@@ -32002,7 +31989,7 @@
       <c r="L403" s="24"/>
       <c r="M403" s="24"/>
       <c r="N403" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="O403" s="24"/>
       <c r="P403" s="24"/>
@@ -32155,7 +32142,7 @@
       <c r="L406" s="24"/>
       <c r="M406" s="24"/>
       <c r="N406" s="225" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O406" s="225"/>
       <c r="P406" s="225"/>
@@ -32224,7 +32211,7 @@
         <v>122</v>
       </c>
       <c r="AB407" s="225" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AC407" s="225"/>
       <c r="AD407" s="225"/>
@@ -32279,7 +32266,7 @@
         <v>122</v>
       </c>
       <c r="AB408" s="225" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AC408" s="225"/>
       <c r="AD408" s="225"/>
@@ -32515,7 +32502,7 @@
       <c r="L414" s="24"/>
       <c r="M414" s="24"/>
       <c r="N414" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="O414" s="24"/>
       <c r="P414" s="24"/>
@@ -32905,7 +32892,7 @@
       <c r="L422" s="228"/>
       <c r="M422" s="228"/>
       <c r="N422" s="228" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="O422" s="228"/>
       <c r="P422" s="228"/>
@@ -33238,13 +33225,13 @@
       <c r="G430" s="234"/>
       <c r="K430" s="235"/>
       <c r="N430" s="231" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AA430" s="231" t="s">
         <v>122</v>
       </c>
       <c r="AB430" s="231" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AV430" s="235"/>
     </row>
@@ -33262,7 +33249,7 @@
       <c r="L431" s="24"/>
       <c r="M431" s="24"/>
       <c r="N431" s="78" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="O431" s="24"/>
       <c r="P431" s="24"/>
@@ -33280,7 +33267,7 @@
         <v>37</v>
       </c>
       <c r="AB431" s="111" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC431" s="24"/>
       <c r="AD431" s="24"/>
@@ -33317,7 +33304,7 @@
       <c r="L432" s="24"/>
       <c r="M432" s="24"/>
       <c r="N432" s="78" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="O432" s="24"/>
       <c r="P432" s="24"/>
@@ -33335,7 +33322,7 @@
         <v>37</v>
       </c>
       <c r="AB432" s="111" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AC432" s="24"/>
       <c r="AD432" s="24"/>
@@ -33372,7 +33359,7 @@
       <c r="L433" s="24"/>
       <c r="M433" s="24"/>
       <c r="N433" s="78" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="O433" s="24"/>
       <c r="P433" s="24"/>
@@ -33390,7 +33377,7 @@
         <v>37</v>
       </c>
       <c r="AB433" s="111" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AC433" s="24"/>
       <c r="AD433" s="24"/>
@@ -33427,7 +33414,7 @@
       <c r="L434" s="24"/>
       <c r="M434" s="24"/>
       <c r="N434" s="78" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="O434" s="24"/>
       <c r="P434" s="24"/>
@@ -33445,7 +33432,7 @@
         <v>37</v>
       </c>
       <c r="AB434" s="111" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AC434" s="24"/>
       <c r="AD434" s="24"/>
@@ -33482,7 +33469,7 @@
       <c r="L435" s="24"/>
       <c r="M435" s="24"/>
       <c r="N435" s="78" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O435" s="24"/>
       <c r="P435" s="24"/>
@@ -33500,7 +33487,7 @@
         <v>37</v>
       </c>
       <c r="AB435" s="111" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AC435" s="24"/>
       <c r="AD435" s="24"/>
@@ -33537,7 +33524,7 @@
       <c r="L436" s="24"/>
       <c r="M436" s="24"/>
       <c r="N436" s="78" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="O436" s="24"/>
       <c r="P436" s="24"/>
@@ -33555,7 +33542,7 @@
         <v>37</v>
       </c>
       <c r="AB436" s="111" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AC436" s="24"/>
       <c r="AD436" s="24"/>
@@ -33816,7 +33803,7 @@
       <c r="L442" s="231"/>
       <c r="M442" s="232"/>
       <c r="N442" s="231" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="O442" s="231"/>
       <c r="P442" s="231"/>
@@ -41739,7 +41726,7 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
@@ -41810,7 +41797,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="283">
+      <c r="AI1" s="287">
         <f>変更履歴!E5</f>
         <v>43717</v>
       </c>
@@ -41826,7 +41813,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="286" t="str">
+      <c r="AT1" s="290" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -41897,7 +41884,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="286"/>
+      <c r="AT2" s="290"/>
       <c r="AU2" s="297"/>
       <c r="AV2" s="297"/>
       <c r="AW2" s="297"/>
@@ -46448,7 +46435,7 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
@@ -46518,7 +46505,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="283">
+      <c r="AI1" s="287">
         <f>変更履歴!E5</f>
         <v>43717</v>
       </c>
@@ -46534,7 +46521,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="286" t="str">
+      <c r="AT1" s="290" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -46605,7 +46592,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="286"/>
+      <c r="AT2" s="290"/>
       <c r="AU2" s="297"/>
       <c r="AV2" s="297"/>
       <c r="AW2" s="297"/>
@@ -46818,18 +46805,18 @@
         <v>221</v>
       </c>
       <c r="K9" s="312" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L9" s="313"/>
       <c r="M9" s="312" t="s">
-        <v>446</v>
-      </c>
-      <c r="N9" s="316"/>
+        <v>444</v>
+      </c>
+      <c r="N9" s="322"/>
       <c r="O9" s="313"/>
-      <c r="P9" s="318" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q9" s="319"/>
+      <c r="P9" s="316" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q9" s="318"/>
     </row>
     <row r="10" spans="1:52" s="126" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C10" s="131" t="s">
@@ -46845,9 +46832,9 @@
       <c r="K10" s="314"/>
       <c r="L10" s="315"/>
       <c r="M10" s="314"/>
-      <c r="N10" s="317"/>
+      <c r="N10" s="323"/>
       <c r="O10" s="315"/>
-      <c r="P10" s="320"/>
+      <c r="P10" s="319"/>
       <c r="Q10" s="321"/>
     </row>
     <row r="11" spans="1:52" s="126" customFormat="1" x14ac:dyDescent="0.15">
@@ -47250,16 +47237,16 @@
         <v>203</v>
       </c>
       <c r="N23" s="313"/>
-      <c r="O23" s="318" t="s">
+      <c r="O23" s="316" t="s">
         <v>204</v>
       </c>
-      <c r="P23" s="322"/>
-      <c r="Q23" s="319"/>
-      <c r="R23" s="318" t="s">
+      <c r="P23" s="317"/>
+      <c r="Q23" s="318"/>
+      <c r="R23" s="316" t="s">
         <v>205</v>
       </c>
-      <c r="S23" s="322"/>
-      <c r="T23" s="319"/>
+      <c r="S23" s="317"/>
+      <c r="T23" s="318"/>
       <c r="U23" s="312" t="s">
         <v>206</v>
       </c>
@@ -47319,11 +47306,11 @@
       <c r="L24" s="315"/>
       <c r="M24" s="314"/>
       <c r="N24" s="315"/>
-      <c r="O24" s="320"/>
-      <c r="P24" s="323"/>
+      <c r="O24" s="319"/>
+      <c r="P24" s="320"/>
       <c r="Q24" s="321"/>
-      <c r="R24" s="320"/>
-      <c r="S24" s="323"/>
+      <c r="R24" s="319"/>
+      <c r="S24" s="320"/>
       <c r="T24" s="321"/>
       <c r="U24" s="314"/>
       <c r="V24" s="315"/>
@@ -47936,16 +47923,16 @@
         <v>203</v>
       </c>
       <c r="N33" s="313"/>
-      <c r="O33" s="318" t="s">
+      <c r="O33" s="316" t="s">
         <v>204</v>
       </c>
-      <c r="P33" s="322"/>
-      <c r="Q33" s="319"/>
-      <c r="R33" s="318" t="s">
+      <c r="P33" s="317"/>
+      <c r="Q33" s="318"/>
+      <c r="R33" s="316" t="s">
         <v>205</v>
       </c>
-      <c r="S33" s="322"/>
-      <c r="T33" s="319"/>
+      <c r="S33" s="317"/>
+      <c r="T33" s="318"/>
       <c r="U33" s="312" t="s">
         <v>206</v>
       </c>
@@ -48005,11 +47992,11 @@
       <c r="L34" s="315"/>
       <c r="M34" s="314"/>
       <c r="N34" s="315"/>
-      <c r="O34" s="320"/>
-      <c r="P34" s="323"/>
+      <c r="O34" s="319"/>
+      <c r="P34" s="320"/>
       <c r="Q34" s="321"/>
-      <c r="R34" s="320"/>
-      <c r="S34" s="323"/>
+      <c r="R34" s="319"/>
+      <c r="S34" s="320"/>
       <c r="T34" s="321"/>
       <c r="U34" s="314"/>
       <c r="V34" s="315"/>
@@ -49060,16 +49047,16 @@
         <v>203</v>
       </c>
       <c r="N49" s="313"/>
-      <c r="O49" s="318" t="s">
+      <c r="O49" s="316" t="s">
         <v>204</v>
       </c>
-      <c r="P49" s="322"/>
-      <c r="Q49" s="319"/>
-      <c r="R49" s="318" t="s">
+      <c r="P49" s="317"/>
+      <c r="Q49" s="318"/>
+      <c r="R49" s="316" t="s">
         <v>205</v>
       </c>
-      <c r="S49" s="322"/>
-      <c r="T49" s="319"/>
+      <c r="S49" s="317"/>
+      <c r="T49" s="318"/>
       <c r="U49" s="312" t="s">
         <v>206</v>
       </c>
@@ -49129,11 +49116,11 @@
       <c r="L50" s="315"/>
       <c r="M50" s="314"/>
       <c r="N50" s="315"/>
-      <c r="O50" s="320"/>
-      <c r="P50" s="323"/>
+      <c r="O50" s="319"/>
+      <c r="P50" s="320"/>
       <c r="Q50" s="321"/>
-      <c r="R50" s="320"/>
-      <c r="S50" s="323"/>
+      <c r="R50" s="319"/>
+      <c r="S50" s="320"/>
       <c r="T50" s="321"/>
       <c r="U50" s="314"/>
       <c r="V50" s="315"/>
@@ -60380,12 +60367,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="K49:L50"/>
-    <mergeCell ref="M49:N50"/>
-    <mergeCell ref="O49:Q50"/>
-    <mergeCell ref="K33:L34"/>
-    <mergeCell ref="M33:N34"/>
-    <mergeCell ref="O33:Q34"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="M9:O10"/>
+    <mergeCell ref="P9:Q10"/>
+    <mergeCell ref="O23:Q24"/>
+    <mergeCell ref="R23:T24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="M23:N24"/>
     <mergeCell ref="R49:T50"/>
     <mergeCell ref="U49:V50"/>
     <mergeCell ref="AT1:AZ1"/>
@@ -60396,17 +60384,16 @@
     <mergeCell ref="U33:V34"/>
     <mergeCell ref="R33:T34"/>
     <mergeCell ref="U23:V24"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="M9:O10"/>
-    <mergeCell ref="P9:Q10"/>
-    <mergeCell ref="O23:Q24"/>
-    <mergeCell ref="R23:T24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="M23:N24"/>
+    <mergeCell ref="K49:L50"/>
+    <mergeCell ref="M49:N50"/>
+    <mergeCell ref="O49:Q50"/>
+    <mergeCell ref="K33:L34"/>
+    <mergeCell ref="M33:N34"/>
+    <mergeCell ref="O33:Q34"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
@@ -61472,7 +61459,7 @@
     </row>
     <row r="12" spans="2:102" s="206" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="166" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C12" s="164"/>
       <c r="D12" s="164"/>
@@ -64610,6 +64597,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -64767,22 +64769,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -64798,28 +64809,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>